--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58300BCA-85BC-4F8E-95FE-123CC20195EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267C259-89AA-408F-88C9-4B26744AA0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CO$376</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CO$373</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>SimulationName</t>
   </si>
   <si>
     <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Kingaroy</t>
   </si>
   <si>
     <t>Peanut.Phenology.DaysAfterSowing</t>
@@ -95,6 +92,18 @@
   <si>
     <t>HarvestRipe</t>
   </si>
+  <si>
+    <t>Kingaroy8485SowNov01Pop8.8</t>
+  </si>
+  <si>
+    <t>Kingaroy8485SowNov01Pop17.6</t>
+  </si>
+  <si>
+    <t>Kingaroy8485SowDec05Pop8.8</t>
+  </si>
+  <si>
+    <t>Kingaroy8485SowDec05Pop17.6</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +125,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,10 +163,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -162,9 +192,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_obs" xfId="1" xr:uid="{D6454A37-6270-4C37-A5FA-8D65FEF031E5}"/>
+    <cellStyle name="Normal_obs_1" xfId="2" xr:uid="{F8E7A181-EC04-48FF-AD99-88B68AD03571}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO376"/>
+  <dimension ref="A1:CO373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -597,52 +632,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="CH1" s="4"/>
       <c r="CI1" s="4"/>
@@ -655,54 +690,75 @@
     </row>
     <row r="2" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>36861</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="Q2">
-        <v>100</v>
+      <c r="M2" s="13">
+        <v>622.70000000000005</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="Q2" s="13">
+        <v>1055.4000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>36892</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="Q3">
-        <v>200</v>
+      <c r="M3" s="13">
+        <v>588.70000000000005</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="Q3" s="14">
+        <v>1032.8</v>
       </c>
     </row>
     <row r="4" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>36923</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="Q4">
-        <v>250</v>
+      <c r="M4" s="13">
+        <v>669</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="Q4" s="13">
+        <v>1194.5999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="M5" s="15">
+        <v>722.6</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="Q5" s="13">
+        <v>1290.3</v>
+      </c>
     </row>
     <row r="6" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
@@ -731,6 +787,8 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
@@ -752,8 +810,6 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
@@ -796,6 +852,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
@@ -817,8 +875,6 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
@@ -868,6 +924,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
@@ -889,8 +947,6 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
@@ -940,6 +996,8 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
@@ -961,8 +1019,6 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
@@ -1012,6 +1068,8 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
@@ -1033,8 +1091,6 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
@@ -1070,29 +1126,32 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60"/>
@@ -1157,6 +1216,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="1"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68"/>
@@ -1181,7 +1241,6 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71"/>
@@ -1214,6 +1273,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="1"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75"/>
@@ -1238,7 +1298,6 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78"/>
@@ -1337,28 +1396,22 @@
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="3"/>
@@ -1517,22 +1570,25 @@
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
@@ -1561,6 +1617,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
@@ -1582,7 +1639,6 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
@@ -1590,6 +1646,8 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
@@ -1597,6 +1655,8 @@
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
@@ -1604,6 +1664,8 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
@@ -1611,6 +1673,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
+      <c r="F132" s="3"/>
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
     </row>
@@ -1620,6 +1683,7 @@
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
+      <c r="F133" s="3"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
     </row>
@@ -1629,6 +1693,7 @@
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
+      <c r="F134" s="3"/>
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
     </row>
@@ -1638,9 +1703,6 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="3"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
@@ -1648,9 +1710,6 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="3"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
@@ -1658,9 +1717,6 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="3"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
@@ -1668,6 +1724,8 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
+      <c r="F138" s="3"/>
+      <c r="Q138" s="6"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
@@ -1675,6 +1733,7 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
@@ -1682,6 +1741,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
@@ -1690,7 +1750,6 @@
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
       <c r="F141" s="3"/>
-      <c r="Q141" s="6"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
@@ -1716,92 +1775,84 @@
       <c r="E144" s="6"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="2"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="2"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -1810,7 +1861,6 @@
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="F161" s="3"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="8"/>
@@ -1831,6 +1881,7 @@
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8"/>
@@ -1846,7 +1897,6 @@
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="F168" s="3"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="8"/>
@@ -1867,6 +1917,7 @@
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
+      <c r="F172" s="3"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="8"/>
@@ -1882,7 +1933,6 @@
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="F175" s="3"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="8"/>
@@ -1903,6 +1953,7 @@
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
+      <c r="F179" s="3"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="8"/>
@@ -1918,7 +1969,6 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="F182" s="3"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="8"/>
@@ -1939,6 +1989,7 @@
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
+      <c r="F186" s="3"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="8"/>
@@ -1954,7 +2005,6 @@
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="8"/>
@@ -1975,6 +2025,7 @@
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
+      <c r="F193" s="3"/>
     </row>
     <row r="194" spans="2:91" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="8"/>
@@ -1990,7 +2041,6 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-      <c r="F196" s="3"/>
     </row>
     <row r="197" spans="2:91" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="8"/>
@@ -2011,22 +2061,25 @@
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
+      <c r="F200" s="3"/>
     </row>
     <row r="201" spans="2:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="CM201" s="5"/>
     </row>
     <row r="202" spans="2:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="CM202" s="5"/>
     </row>
     <row r="203" spans="2:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="F203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="CM203" s="5"/>
     </row>
     <row r="204" spans="2:91" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
@@ -2197,25 +2250,16 @@
       <c r="CM231" s="5"/>
     </row>
     <row r="232" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="CM232" s="5"/>
+      <c r="A232" s="2"/>
+      <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="CM233" s="5"/>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="CM234" s="5"/>
+      <c r="F234" s="3"/>
     </row>
     <row r="235" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="2"/>
       <c r="F235" s="3"/>
     </row>
     <row r="236" spans="1:91" x14ac:dyDescent="0.55000000000000004">
@@ -2507,13 +2551,25 @@
       <c r="F331" s="3"/>
     </row>
     <row r="332" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F332" s="3"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
+      <c r="CN332" s="10"/>
+      <c r="CO332" s="10"/>
     </row>
     <row r="333" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F333" s="3"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+      <c r="CN333" s="10"/>
+      <c r="CO333" s="10"/>
     </row>
     <row r="334" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F334" s="3"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="CN334" s="10"/>
+      <c r="CO334" s="10"/>
     </row>
     <row r="335" spans="2:93" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="9"/>
@@ -2641,88 +2697,82 @@
       <c r="CN352" s="10"/>
       <c r="CO352" s="10"/>
     </row>
-    <row r="353" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
-      <c r="CN353" s="10"/>
-      <c r="CO353" s="10"/>
-    </row>
-    <row r="354" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
-      <c r="CN354" s="10"/>
-      <c r="CO354" s="10"/>
-    </row>
-    <row r="355" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
-      <c r="CN355" s="10"/>
-      <c r="CO355" s="10"/>
-    </row>
-    <row r="356" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
     </row>
-    <row r="357" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
     </row>
-    <row r="358" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
     </row>
-    <row r="359" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
     </row>
-    <row r="360" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
     </row>
-    <row r="361" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
     </row>
-    <row r="363" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
     </row>
-    <row r="364" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
     </row>
-    <row r="366" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
     </row>
-    <row r="367" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
     </row>
-    <row r="368" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
@@ -2751,21 +2801,6 @@
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B374" s="9"/>
-      <c r="C374" s="9"/>
-      <c r="D374" s="9"/>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B375" s="9"/>
-      <c r="C375" s="9"/>
-      <c r="D375" s="9"/>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B376" s="9"/>
-      <c r="C376" s="9"/>
-      <c r="D376" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267C259-89AA-408F-88C9-4B26744AA0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260AE61-588C-44FC-80FE-438D339629BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CO$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CP$373</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>SimulationName</t>
   </si>
@@ -104,6 +104,24 @@
   <si>
     <t>Kingaroy8485SowDec05Pop17.6</t>
   </si>
+  <si>
+    <t>Kunnunura8283SowDec06</t>
+  </si>
+  <si>
+    <t>Kunnunura8283SowDec29</t>
+  </si>
+  <si>
+    <t>Kunnunura8283SowJan18</t>
+  </si>
+  <si>
+    <t>Kunnunura8283SowFeb07</t>
+  </si>
+  <si>
+    <t>Kunnunura8283SowMar01</t>
+  </si>
+  <si>
+    <t>Peanut.SowingDate</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +163,11 @@
       <color indexed="8"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +191,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -195,6 +218,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,96 +559,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO373"/>
+  <dimension ref="A1:CP373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.26171875" style="4" customWidth="1"/>
-    <col min="2" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.26171875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.68359375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.41796875" customWidth="1"/>
-    <col min="22" max="22" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="26" width="21.83984375" customWidth="1"/>
-    <col min="27" max="27" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.68359375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.68359375" customWidth="1"/>
-    <col min="30" max="30" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.68359375" customWidth="1"/>
-    <col min="37" max="37" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="20.68359375" customWidth="1"/>
-    <col min="44" max="44" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="86" max="16384" width="9.15625" style="4"/>
+    <col min="2" max="5" width="12" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.26171875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.68359375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.41796875" customWidth="1"/>
+    <col min="23" max="23" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="27" width="21.83984375" customWidth="1"/>
+    <col min="28" max="28" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.68359375" customWidth="1"/>
+    <col min="31" max="31" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.68359375" customWidth="1"/>
+    <col min="38" max="38" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="20.68359375" customWidth="1"/>
+    <col min="45" max="45" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="87" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:94" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -635,51 +659,53 @@
         <v>17</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CH1" s="4"/>
       <c r="CI1" s="4"/>
       <c r="CJ1" s="4"/>
       <c r="CK1" s="4"/>
@@ -687,8 +713,9 @@
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
-    </row>
-    <row r="2" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP1" s="4"/>
+    </row>
+    <row r="2" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -696,17 +723,20 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>30987</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="M2" s="13">
+      <c r="F2" s="1"/>
+      <c r="N2" s="13">
         <v>622.70000000000005</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="Q2" s="13">
+      <c r="O2" s="4"/>
+      <c r="R2" s="13">
         <v>1055.4000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -714,17 +744,20 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>30987</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="M3" s="13">
+      <c r="F3" s="1"/>
+      <c r="N3" s="13">
         <v>588.70000000000005</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="Q3" s="14">
+      <c r="O3" s="4"/>
+      <c r="R3" s="14">
         <v>1032.8</v>
       </c>
     </row>
-    <row r="4" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -732,17 +765,20 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>31386</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="M4" s="13">
+      <c r="F4" s="1"/>
+      <c r="N4" s="13">
         <v>669</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="Q4" s="13">
+      <c r="O4" s="4"/>
+      <c r="R4" s="13">
         <v>1194.5999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -750,103 +786,178 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>31386</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="M5" s="15">
+      <c r="F5" s="1"/>
+      <c r="N5" s="15">
         <v>722.6</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="Q5" s="13">
+      <c r="O5" s="4"/>
+      <c r="R5" s="13">
         <v>1290.3</v>
       </c>
     </row>
-    <row r="6" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30291</v>
+      </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="N6" s="13">
+        <v>355.6</v>
+      </c>
+      <c r="R6" s="13">
+        <v>945.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30314</v>
+      </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="N7" s="13">
+        <v>461.2</v>
+      </c>
+      <c r="R7" s="16">
+        <v>1011.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30334</v>
+      </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="N8" s="15">
+        <v>563.9</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1139.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30354</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="N9" s="15">
+        <v>392.9</v>
+      </c>
+      <c r="R9" s="15">
+        <v>810.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30376</v>
+      </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="1"/>
+      <c r="N10" s="15">
+        <v>385.2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>667.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -854,71 +965,81 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -926,71 +1047,81 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -998,71 +1129,81 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1070,57 +1211,65 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1128,1679 +1277,1897 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="3"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="3"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="3"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" s="3"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="3"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="3"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="3"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" s="3"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" s="3"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="3"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="3"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" s="3"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73" s="3"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74" s="3"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="3"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="3"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" s="3"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78" s="3"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="3"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="3"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" s="3"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" s="3"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" s="3"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" s="3"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" s="3"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86" s="3"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F87" s="3"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" s="3"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89" s="3"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119" s="3"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120" s="3"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121" s="3"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="6"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122" s="3"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="6"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123" s="3"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="6"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124" s="3"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125" s="3"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126" s="3"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127" s="3"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128" s="3"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="6"/>
-      <c r="Q129" s="7"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="6"/>
       <c r="R129" s="7"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S129" s="7"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="6"/>
-      <c r="Q130" s="7"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="6"/>
       <c r="R130" s="7"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S130" s="7"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="6"/>
-      <c r="Q131" s="7"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="6"/>
       <c r="R131" s="7"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S131" s="7"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="3"/>
-      <c r="Q132" s="7"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="3"/>
       <c r="R132" s="7"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S132" s="7"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="3"/>
-      <c r="Q133" s="7"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="3"/>
       <c r="R133" s="7"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S133" s="7"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="3"/>
-      <c r="Q134" s="7"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="3"/>
       <c r="R134" s="7"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S134" s="7"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="6"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135" s="3"/>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="6"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136" s="3"/>
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="6"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137" s="3"/>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="3"/>
-      <c r="Q138" s="6"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138" s="3"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="3"/>
+      <c r="R138" s="6"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139" s="3"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140" s="3"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141" s="3"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142" s="3"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143" s="3"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E144" s="3"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E151" s="8"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E158" s="8"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E165" s="8"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E172" s="8"/>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
-      <c r="F179" s="3"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E179" s="8"/>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E186" s="8"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
-    </row>
-    <row r="193" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E193" s="8"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-    </row>
-    <row r="195" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
-    </row>
-    <row r="196" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-    </row>
-    <row r="197" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-    </row>
-    <row r="198" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-    </row>
-    <row r="199" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
-    </row>
-    <row r="200" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
-      <c r="F200" s="3"/>
-    </row>
-    <row r="201" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200" s="8"/>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="CM201" s="5"/>
-    </row>
-    <row r="202" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E201" s="3"/>
+      <c r="CN201" s="5"/>
+    </row>
+    <row r="202" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="CM202" s="5"/>
-    </row>
-    <row r="203" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E202" s="3"/>
+      <c r="CN202" s="5"/>
+    </row>
+    <row r="203" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="CM203" s="5"/>
-    </row>
-    <row r="204" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E203" s="3"/>
+      <c r="CN203" s="5"/>
+    </row>
+    <row r="204" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="CM204" s="5"/>
-    </row>
-    <row r="205" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E204" s="3"/>
+      <c r="CN204" s="5"/>
+    </row>
+    <row r="205" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="CM205" s="5"/>
-    </row>
-    <row r="206" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E205" s="3"/>
+      <c r="CN205" s="5"/>
+    </row>
+    <row r="206" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="CM206" s="5"/>
-    </row>
-    <row r="207" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E206" s="3"/>
+      <c r="CN206" s="5"/>
+    </row>
+    <row r="207" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="CM207" s="5"/>
-    </row>
-    <row r="208" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E207" s="3"/>
+      <c r="CN207" s="5"/>
+    </row>
+    <row r="208" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="CM208" s="5"/>
-    </row>
-    <row r="209" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E208" s="3"/>
+      <c r="CN208" s="5"/>
+    </row>
+    <row r="209" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="CM209" s="5"/>
-    </row>
-    <row r="210" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E209" s="3"/>
+      <c r="CN209" s="5"/>
+    </row>
+    <row r="210" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="CM210" s="5"/>
-    </row>
-    <row r="211" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E210" s="3"/>
+      <c r="CN210" s="5"/>
+    </row>
+    <row r="211" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="CM211" s="5"/>
-    </row>
-    <row r="212" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E211" s="3"/>
+      <c r="CN211" s="5"/>
+    </row>
+    <row r="212" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="CM212" s="5"/>
-    </row>
-    <row r="213" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212" s="3"/>
+      <c r="CN212" s="5"/>
+    </row>
+    <row r="213" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="CM213" s="5"/>
-    </row>
-    <row r="214" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213" s="3"/>
+      <c r="CN213" s="5"/>
+    </row>
+    <row r="214" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="CM214" s="5"/>
-    </row>
-    <row r="215" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E214" s="3"/>
+      <c r="CN214" s="5"/>
+    </row>
+    <row r="215" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="CM215" s="5"/>
-    </row>
-    <row r="216" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E215" s="3"/>
+      <c r="CN215" s="5"/>
+    </row>
+    <row r="216" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="CM216" s="5"/>
-    </row>
-    <row r="217" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E216" s="3"/>
+      <c r="CN216" s="5"/>
+    </row>
+    <row r="217" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="CM217" s="5"/>
-    </row>
-    <row r="218" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E217" s="3"/>
+      <c r="CN217" s="5"/>
+    </row>
+    <row r="218" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="CM218" s="5"/>
-    </row>
-    <row r="219" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E218" s="3"/>
+      <c r="CN218" s="5"/>
+    </row>
+    <row r="219" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="CM219" s="5"/>
-    </row>
-    <row r="220" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E219" s="3"/>
+      <c r="CN219" s="5"/>
+    </row>
+    <row r="220" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="CM220" s="5"/>
-    </row>
-    <row r="221" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E220" s="3"/>
+      <c r="CN220" s="5"/>
+    </row>
+    <row r="221" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="CM221" s="5"/>
-    </row>
-    <row r="222" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E221" s="3"/>
+      <c r="CN221" s="5"/>
+    </row>
+    <row r="222" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="CM222" s="5"/>
-    </row>
-    <row r="223" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E222" s="3"/>
+      <c r="CN222" s="5"/>
+    </row>
+    <row r="223" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="CM223" s="5"/>
-    </row>
-    <row r="224" spans="2:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E223" s="3"/>
+      <c r="CN223" s="5"/>
+    </row>
+    <row r="224" spans="2:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="CM224" s="5"/>
-    </row>
-    <row r="225" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E224" s="3"/>
+      <c r="CN224" s="5"/>
+    </row>
+    <row r="225" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="CM225" s="5"/>
-    </row>
-    <row r="226" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E225" s="3"/>
+      <c r="CN225" s="5"/>
+    </row>
+    <row r="226" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="CM226" s="5"/>
-    </row>
-    <row r="227" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E226" s="3"/>
+      <c r="CN226" s="5"/>
+    </row>
+    <row r="227" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="CM227" s="5"/>
-    </row>
-    <row r="228" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E227" s="3"/>
+      <c r="CN227" s="5"/>
+    </row>
+    <row r="228" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="CM228" s="5"/>
-    </row>
-    <row r="229" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E228" s="3"/>
+      <c r="CN228" s="5"/>
+    </row>
+    <row r="229" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="CM229" s="5"/>
-    </row>
-    <row r="230" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229" s="3"/>
+      <c r="CN229" s="5"/>
+    </row>
+    <row r="230" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="CM230" s="5"/>
-    </row>
-    <row r="231" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E230" s="3"/>
+      <c r="CN230" s="5"/>
+    </row>
+    <row r="231" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="CM231" s="5"/>
-    </row>
-    <row r="232" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+      <c r="E231" s="3"/>
+      <c r="CN231" s="5"/>
+    </row>
+    <row r="232" spans="1:92" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
-      <c r="F232" s="3"/>
-    </row>
-    <row r="233" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F234" s="3"/>
-    </row>
-    <row r="235" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F235" s="3"/>
-    </row>
-    <row r="236" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F236" s="3"/>
-    </row>
-    <row r="237" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F238" s="3"/>
-    </row>
-    <row r="239" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F239" s="3"/>
-    </row>
-    <row r="240" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="F240" s="3"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F241" s="3"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F242" s="3"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F243" s="3"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F244" s="3"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F245" s="3"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F246" s="3"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F247" s="3"/>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F248" s="3"/>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F249" s="3"/>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F250" s="3"/>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F251" s="3"/>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F252" s="3"/>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F253" s="3"/>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F254" s="3"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F255" s="3"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F256" s="3"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F257" s="3"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F258" s="3"/>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F259" s="3"/>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F260" s="3"/>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F261" s="3"/>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F262" s="3"/>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F263" s="3"/>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F264" s="3"/>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F265" s="3"/>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F266" s="3"/>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F267" s="3"/>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F268" s="3"/>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F269" s="3"/>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F270" s="3"/>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F271" s="3"/>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F272" s="3"/>
-    </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F273" s="3"/>
-    </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F274" s="3"/>
-    </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F275" s="3"/>
-    </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F276" s="3"/>
-    </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F277" s="3"/>
-    </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F278" s="3"/>
-    </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F279" s="3"/>
-    </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F280" s="3"/>
-    </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F281" s="3"/>
-    </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F282" s="3"/>
-    </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F283" s="3"/>
-    </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F284" s="3"/>
-    </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F285" s="3"/>
-    </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F286" s="3"/>
-    </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F287" s="3"/>
-    </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F288" s="3"/>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F289" s="3"/>
-    </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F290" s="3"/>
-    </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F291" s="3"/>
-    </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F292" s="3"/>
-    </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F293" s="3"/>
-    </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F294" s="3"/>
-    </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F295" s="3"/>
-    </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F296" s="3"/>
-    </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F297" s="3"/>
-    </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F298" s="3"/>
-    </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F299" s="3"/>
-    </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F300" s="3"/>
-    </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F301" s="3"/>
-    </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F302" s="3"/>
-    </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F303" s="3"/>
-    </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F304" s="3"/>
-    </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F305" s="3"/>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F306" s="3"/>
-    </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F307" s="3"/>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F308" s="3"/>
-    </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F309" s="3"/>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F310" s="3"/>
-    </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F311" s="3"/>
-    </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F312" s="3"/>
-    </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F313" s="3"/>
-    </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F314" s="3"/>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F315" s="3"/>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F316" s="3"/>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F317" s="3"/>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F318" s="3"/>
-    </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F319" s="3"/>
-    </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F320" s="3"/>
-    </row>
-    <row r="321" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F321" s="3"/>
-    </row>
-    <row r="322" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F322" s="3"/>
-    </row>
-    <row r="323" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F323" s="3"/>
-    </row>
-    <row r="324" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F324" s="3"/>
-    </row>
-    <row r="325" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F325" s="3"/>
-    </row>
-    <row r="326" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F326" s="3"/>
-    </row>
-    <row r="327" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F327" s="3"/>
-    </row>
-    <row r="328" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F328" s="3"/>
-    </row>
-    <row r="329" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F329" s="3"/>
-    </row>
-    <row r="330" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F330" s="3"/>
-    </row>
-    <row r="331" spans="2:93" x14ac:dyDescent="0.55000000000000004">
-      <c r="F331" s="3"/>
-    </row>
-    <row r="332" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G235" s="3"/>
+    </row>
+    <row r="236" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G236" s="3"/>
+    </row>
+    <row r="237" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G239" s="3"/>
+    </row>
+    <row r="240" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="G240" s="3"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G241" s="3"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G242" s="3"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G243" s="3"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G244" s="3"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G245" s="3"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G247" s="3"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G248" s="3"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G249" s="3"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G251" s="3"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G252" s="3"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G253" s="3"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G254" s="3"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G255" s="3"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G256" s="3"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G257" s="3"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G258" s="3"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G259" s="3"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G261" s="3"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G262" s="3"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G263" s="3"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G264" s="3"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G265" s="3"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G266" s="3"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G267" s="3"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G268" s="3"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G269" s="3"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G270" s="3"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G271" s="3"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G272" s="3"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G273" s="3"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G274" s="3"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G275" s="3"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G276" s="3"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G278" s="3"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G279" s="3"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G280" s="3"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G281" s="3"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G282" s="3"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G283" s="3"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G284" s="3"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G285" s="3"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G286" s="3"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G287" s="3"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G288" s="3"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G289" s="3"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G290" s="3"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G291" s="3"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G292" s="3"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G293" s="3"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G294" s="3"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G295" s="3"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G296" s="3"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G297" s="3"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G298" s="3"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G299" s="3"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G300" s="3"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G301" s="3"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G302" s="3"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G303" s="3"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G304" s="3"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G305" s="3"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G306" s="3"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G307" s="3"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G308" s="3"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G309" s="3"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G310" s="3"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G311" s="3"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G312" s="3"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G313" s="3"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G314" s="3"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G315" s="3"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G316" s="3"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G317" s="3"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G318" s="3"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G319" s="3"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G320" s="3"/>
+    </row>
+    <row r="321" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G321" s="3"/>
+    </row>
+    <row r="322" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G322" s="3"/>
+    </row>
+    <row r="323" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G323" s="3"/>
+    </row>
+    <row r="324" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G324" s="3"/>
+    </row>
+    <row r="325" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G325" s="3"/>
+    </row>
+    <row r="326" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G326" s="3"/>
+    </row>
+    <row r="327" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G327" s="3"/>
+    </row>
+    <row r="328" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G328" s="3"/>
+    </row>
+    <row r="329" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G329" s="3"/>
+    </row>
+    <row r="330" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G330" s="3"/>
+    </row>
+    <row r="331" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="G331" s="3"/>
+    </row>
+    <row r="332" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
-      <c r="CN332" s="10"/>
+      <c r="E332" s="9"/>
       <c r="CO332" s="10"/>
-    </row>
-    <row r="333" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP332" s="10"/>
+    </row>
+    <row r="333" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
-      <c r="CN333" s="10"/>
+      <c r="E333" s="9"/>
       <c r="CO333" s="10"/>
-    </row>
-    <row r="334" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP333" s="10"/>
+    </row>
+    <row r="334" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
-      <c r="CN334" s="10"/>
+      <c r="E334" s="9"/>
       <c r="CO334" s="10"/>
-    </row>
-    <row r="335" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP334" s="10"/>
+    </row>
+    <row r="335" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
-      <c r="CN335" s="10"/>
+      <c r="E335" s="9"/>
       <c r="CO335" s="10"/>
-    </row>
-    <row r="336" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP335" s="10"/>
+    </row>
+    <row r="336" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
-      <c r="CN336" s="10"/>
+      <c r="E336" s="9"/>
       <c r="CO336" s="10"/>
-    </row>
-    <row r="337" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP336" s="10"/>
+    </row>
+    <row r="337" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
-      <c r="CN337" s="10"/>
+      <c r="E337" s="9"/>
       <c r="CO337" s="10"/>
-    </row>
-    <row r="338" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP337" s="10"/>
+    </row>
+    <row r="338" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
-      <c r="CN338" s="10"/>
+      <c r="E338" s="9"/>
       <c r="CO338" s="10"/>
-    </row>
-    <row r="339" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP338" s="10"/>
+    </row>
+    <row r="339" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
-      <c r="CN339" s="10"/>
+      <c r="E339" s="9"/>
       <c r="CO339" s="10"/>
-    </row>
-    <row r="340" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP339" s="10"/>
+    </row>
+    <row r="340" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
-      <c r="CN340" s="10"/>
+      <c r="E340" s="9"/>
       <c r="CO340" s="10"/>
-    </row>
-    <row r="341" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP340" s="10"/>
+    </row>
+    <row r="341" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
-      <c r="CN341" s="10"/>
+      <c r="E341" s="9"/>
       <c r="CO341" s="10"/>
-    </row>
-    <row r="342" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP341" s="10"/>
+    </row>
+    <row r="342" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
-      <c r="CN342" s="10"/>
+      <c r="E342" s="9"/>
       <c r="CO342" s="10"/>
-    </row>
-    <row r="343" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP342" s="10"/>
+    </row>
+    <row r="343" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
-      <c r="CN343" s="10"/>
+      <c r="E343" s="9"/>
       <c r="CO343" s="10"/>
-    </row>
-    <row r="344" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP343" s="10"/>
+    </row>
+    <row r="344" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
-      <c r="CN344" s="10"/>
+      <c r="E344" s="9"/>
       <c r="CO344" s="10"/>
-    </row>
-    <row r="345" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP344" s="10"/>
+    </row>
+    <row r="345" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
-      <c r="CN345" s="10"/>
+      <c r="E345" s="9"/>
       <c r="CO345" s="10"/>
-    </row>
-    <row r="346" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP345" s="10"/>
+    </row>
+    <row r="346" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
-      <c r="CN346" s="10"/>
+      <c r="E346" s="9"/>
       <c r="CO346" s="10"/>
-    </row>
-    <row r="347" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP346" s="10"/>
+    </row>
+    <row r="347" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
-      <c r="CN347" s="10"/>
+      <c r="E347" s="9"/>
       <c r="CO347" s="10"/>
-    </row>
-    <row r="348" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP347" s="10"/>
+    </row>
+    <row r="348" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
-      <c r="CN348" s="10"/>
+      <c r="E348" s="9"/>
       <c r="CO348" s="10"/>
-    </row>
-    <row r="349" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP348" s="10"/>
+    </row>
+    <row r="349" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
-      <c r="CN349" s="10"/>
+      <c r="E349" s="9"/>
       <c r="CO349" s="10"/>
-    </row>
-    <row r="350" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP349" s="10"/>
+    </row>
+    <row r="350" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
-      <c r="CN350" s="10"/>
+      <c r="E350" s="9"/>
       <c r="CO350" s="10"/>
-    </row>
-    <row r="351" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP350" s="10"/>
+    </row>
+    <row r="351" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
-      <c r="CN351" s="10"/>
+      <c r="E351" s="9"/>
       <c r="CO351" s="10"/>
-    </row>
-    <row r="352" spans="2:93" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP351" s="10"/>
+    </row>
+    <row r="352" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
-      <c r="CN352" s="10"/>
+      <c r="E352" s="9"/>
       <c r="CO352" s="10"/>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP352" s="10"/>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E353" s="9"/>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E354" s="9"/>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E355" s="9"/>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E356" s="9"/>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E357" s="9"/>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E358" s="9"/>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E359" s="9"/>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360" s="9"/>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E361" s="9"/>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E362" s="9"/>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E363" s="9"/>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E364" s="9"/>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E365" s="9"/>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E366" s="9"/>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E367" s="9"/>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E368" s="9"/>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E369" s="9"/>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E370" s="9"/>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E371" s="9"/>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E372" s="9"/>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
+      <c r="E373" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260AE61-588C-44FC-80FE-438D339629BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2994BE0-B9F7-4B51-A829-AC301B19BD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CP$373</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>SimulationName</t>
   </si>
@@ -122,6 +123,21 @@
   <si>
     <t>Peanut.SowingDate</t>
   </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>Pod</t>
+  </si>
+  <si>
+    <t>Biom</t>
+  </si>
+  <si>
+    <t>RainOutSowDec18</t>
+  </si>
+  <si>
+    <t>Stover</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +207,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -219,6 +235,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +253,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17DE58C-7D0E-474E-862B-4176ABCE9E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5215890" y="914400"/>
+          <a:ext cx="2404110" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -902,36 +985,106 @@
       </c>
     </row>
     <row r="11" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32895</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>32860</v>
+      </c>
+      <c r="E11" s="17">
+        <v>35</v>
+      </c>
       <c r="F11" s="1"/>
+      <c r="I11">
+        <v>0.65</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>68.141720896601512</v>
+      </c>
     </row>
     <row r="12" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32916</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>32860</v>
+      </c>
+      <c r="E12" s="17">
+        <v>56</v>
+      </c>
       <c r="F12" s="1"/>
+      <c r="I12">
+        <v>1.55</v>
+      </c>
+      <c r="N12">
+        <v>2.27712819427546</v>
+      </c>
+      <c r="R12">
+        <v>196.31271714018646</v>
+      </c>
     </row>
     <row r="13" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1">
+        <v>32937</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>32860</v>
+      </c>
+      <c r="E13" s="17">
+        <v>77</v>
+      </c>
       <c r="F13" s="1"/>
+      <c r="I13">
+        <v>1.64</v>
+      </c>
+      <c r="N13">
+        <v>44.673474066627797</v>
+      </c>
+      <c r="R13">
+        <v>292.38382448900381</v>
+      </c>
     </row>
     <row r="14" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>32972</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32860</v>
+      </c>
+      <c r="E14" s="17">
+        <v>112</v>
+      </c>
       <c r="F14" s="1"/>
+      <c r="I14">
+        <v>1.3</v>
+      </c>
+      <c r="N14">
+        <v>69.633000017635794</v>
+      </c>
+      <c r="R14">
+        <v>298.91892845175676</v>
+      </c>
     </row>
     <row r="15" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
@@ -3173,4 +3326,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <f>DATE(1989,12,18)+35</f>
+        <v>32895</v>
+      </c>
+      <c r="B2">
+        <v>35.121951219512098</v>
+      </c>
+      <c r="C2">
+        <v>-1.0708428125495799</v>
+      </c>
+      <c r="D2">
+        <v>34.878048780487802</v>
+      </c>
+      <c r="E2">
+        <v>69.212563709151098</v>
+      </c>
+      <c r="F2">
+        <f>E2+C2</f>
+        <v>68.141720896601512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <f>DATE(1989,12,18)+56</f>
+        <v>32916</v>
+      </c>
+      <c r="B3">
+        <v>56.341463414634099</v>
+      </c>
+      <c r="C3">
+        <v>2.27712819427546</v>
+      </c>
+      <c r="D3">
+        <v>56.097560975609703</v>
+      </c>
+      <c r="E3">
+        <v>194.035588945911</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">E3+C3</f>
+        <v>196.31271714018646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <f>DATE(1989,12,18)+77</f>
+        <v>32937</v>
+      </c>
+      <c r="B4">
+        <v>77.073170731707293</v>
+      </c>
+      <c r="C4">
+        <v>44.673474066627797</v>
+      </c>
+      <c r="D4">
+        <v>77.073170731707293</v>
+      </c>
+      <c r="E4">
+        <v>247.710350422376</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>292.38382448900381</v>
+      </c>
+      <c r="M4">
+        <v>1.2089697757555899</v>
+      </c>
+      <c r="N4">
+        <v>62.207604809879697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <f>DATE(1989,12,18)+112</f>
+        <v>32972</v>
+      </c>
+      <c r="B5">
+        <v>112.19512195121899</v>
+      </c>
+      <c r="C5">
+        <v>69.633000017635794</v>
+      </c>
+      <c r="D5">
+        <v>112.19512195121899</v>
+      </c>
+      <c r="E5">
+        <v>229.28592843412099</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>298.91892845175676</v>
+      </c>
+      <c r="M5">
+        <v>23.140721481962899</v>
+      </c>
+      <c r="N5">
+        <v>58.288462788430202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6">
+        <v>28.912577185570299</v>
+      </c>
+      <c r="N6">
+        <v>90.993045173870598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7">
+        <v>34.596035099122503</v>
+      </c>
+      <c r="N7">
+        <v>70.331881702957403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8">
+        <v>37.455313617159497</v>
+      </c>
+      <c r="N8">
+        <v>62.654793630159197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9">
+        <v>41.112122196945002</v>
+      </c>
+      <c r="N9">
+        <v>55.564250893727603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10">
+        <v>45.311667208319697</v>
+      </c>
+      <c r="N10">
+        <v>50.5354566135846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11">
+        <v>51.347416314592103</v>
+      </c>
+      <c r="N11">
+        <v>43.140721481962899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12">
+        <v>58.410139746506303</v>
+      </c>
+      <c r="N12">
+        <v>31.024504387390301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13">
+        <v>64.963275918101999</v>
+      </c>
+      <c r="N13">
+        <v>21.858693532661601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M14">
+        <v>72.074748131296701</v>
+      </c>
+      <c r="N14">
+        <v>17.1132921676958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M15">
+        <v>80.005199870003196</v>
+      </c>
+      <c r="N15">
+        <v>16.197595060123501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M16">
+        <v>86.042898927526707</v>
+      </c>
+      <c r="N16">
+        <v>9.0976925576860594</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M17">
+        <v>96.830679233019097</v>
+      </c>
+      <c r="N17">
+        <v>0.21007474813129001</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M18">
+        <v>106.877478063048</v>
+      </c>
+      <c r="N18">
+        <v>-0.71394215144621798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2994BE0-B9F7-4B51-A829-AC301B19BD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5B708-835E-42E1-8910-8D275BCF66F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="11136" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25215" yWindow="9300" windowWidth="21600" windowHeight="11460" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
-    <sheet name="Rainout" sheetId="15" r:id="rId2"/>
+    <sheet name="Bundy" sheetId="16" r:id="rId2"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CP$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CR$373</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>SimulationName</t>
   </si>
@@ -138,6 +139,45 @@
   <si>
     <t>Stover</t>
   </si>
+  <si>
+    <t>Bundaberg8990CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Bundaberg8990CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Bundaberg8990CvTMV2</t>
+  </si>
+  <si>
+    <t>VegFixed</t>
+  </si>
+  <si>
+    <t>VegTot</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PodFixed</t>
+  </si>
+  <si>
+    <t>PodTot</t>
+  </si>
+  <si>
+    <t>TotFix</t>
+  </si>
+  <si>
+    <t>TotTot</t>
+  </si>
+  <si>
+    <t>Peanut.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Bundaberg8990CvTMTapir</t>
+  </si>
+  <si>
+    <t>Peanut.Pod.N</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +224,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +253,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -236,6 +282,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,16 +694,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CP373"/>
+  <dimension ref="A1:CR373"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.26171875" style="4" customWidth="1"/>
-    <col min="2" max="5" width="12" style="4" customWidth="1"/>
+    <col min="2" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.26171875" style="4" customWidth="1"/>
     <col min="7" max="7" width="32" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="4" customWidth="1"/>
@@ -661,77 +714,79 @@
     <col min="12" max="12" width="11.15625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.68359375" style="4" customWidth="1"/>
     <col min="14" max="14" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.41796875" customWidth="1"/>
-    <col min="23" max="23" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="27" width="21.83984375" customWidth="1"/>
-    <col min="28" max="28" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.68359375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.68359375" customWidth="1"/>
-    <col min="31" max="31" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.68359375" customWidth="1"/>
-    <col min="38" max="38" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="20.68359375" customWidth="1"/>
-    <col min="45" max="45" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.15625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.15625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.41796875" customWidth="1"/>
+    <col min="25" max="25" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" customWidth="1"/>
+    <col min="28" max="29" width="21.83984375" customWidth="1"/>
+    <col min="30" max="30" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.68359375" customWidth="1"/>
+    <col min="33" max="33" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.68359375" customWidth="1"/>
+    <col min="40" max="40" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="20.68359375" customWidth="1"/>
+    <col min="47" max="47" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="87" max="16384" width="9.15625" style="4"/>
+    <col min="80" max="80" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="89" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:96" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -775,30 +830,36 @@
         <v>11</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
       <c r="CK1" s="4"/>
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
       <c r="CP1" s="4"/>
-    </row>
-    <row r="2" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+    </row>
+    <row r="2" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -814,12 +875,14 @@
       <c r="N2" s="13">
         <v>622.70000000000005</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="R2" s="13">
+      <c r="O2" s="13"/>
+      <c r="P2" s="4"/>
+      <c r="S2" s="13">
         <v>1055.4000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -835,12 +898,14 @@
       <c r="N3" s="13">
         <v>588.70000000000005</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="R3" s="14">
+      <c r="O3" s="13"/>
+      <c r="P3" s="4"/>
+      <c r="S3" s="14">
         <v>1032.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -856,12 +921,14 @@
       <c r="N4" s="13">
         <v>669</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="R4" s="13">
+      <c r="O4" s="13"/>
+      <c r="P4" s="4"/>
+      <c r="S4" s="13">
         <v>1194.5999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -877,12 +944,14 @@
       <c r="N5" s="15">
         <v>722.6</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="R5" s="13">
+      <c r="O5" s="15"/>
+      <c r="P5" s="4"/>
+      <c r="S5" s="13">
         <v>1290.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -898,11 +967,13 @@
       <c r="N6" s="13">
         <v>355.6</v>
       </c>
-      <c r="R6" s="13">
+      <c r="O6" s="13"/>
+      <c r="S6" s="13">
         <v>945.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -918,11 +989,13 @@
       <c r="N7" s="13">
         <v>461.2</v>
       </c>
-      <c r="R7" s="16">
+      <c r="O7" s="13"/>
+      <c r="S7" s="16">
         <v>1011.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -938,11 +1011,13 @@
       <c r="N8" s="15">
         <v>563.9</v>
       </c>
-      <c r="R8" s="13">
+      <c r="O8" s="15"/>
+      <c r="S8" s="13">
         <v>1139.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -960,11 +1035,13 @@
       <c r="N9" s="15">
         <v>392.9</v>
       </c>
-      <c r="R9" s="15">
+      <c r="O9" s="15"/>
+      <c r="S9" s="15">
         <v>810.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -980,11 +1057,13 @@
       <c r="N10" s="15">
         <v>385.2</v>
       </c>
-      <c r="R10" s="13">
+      <c r="O10" s="15"/>
+      <c r="S10" s="13">
         <v>667.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1002,14 +1081,11 @@
       <c r="I11">
         <v>0.65</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="12" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1027,14 +1103,11 @@
       <c r="I12">
         <v>1.55</v>
       </c>
-      <c r="N12">
-        <v>2.27712819427546</v>
-      </c>
-      <c r="R12">
+      <c r="S12">
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="13" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1052,14 +1125,11 @@
       <c r="I13">
         <v>1.64</v>
       </c>
-      <c r="N13">
-        <v>44.673474066627797</v>
-      </c>
-      <c r="R13">
+      <c r="S13">
         <v>292.38382448900381</v>
       </c>
     </row>
-    <row r="14" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1079,289 +1149,736 @@
       <c r="I14">
         <v>1.3</v>
       </c>
-      <c r="N14">
-        <v>69.633000017635794</v>
-      </c>
-      <c r="R14">
+      <c r="S14">
         <v>298.91892845175676</v>
       </c>
     </row>
-    <row r="15" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
+        <f>D15+E15</f>
+        <v>32882</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E15" s="17">
+        <v>28</v>
+      </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:94" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>59.296189630416698</v>
+      </c>
+      <c r="T15">
+        <v>2.4734753777584499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:B20" si="0">D16+E16</f>
+        <v>32896</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E16" s="17">
+        <v>42</v>
+      </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="N16">
+        <v>4.9439358603006394</v>
+      </c>
+      <c r="O16">
+        <v>4.767776490674E-2</v>
+      </c>
+      <c r="S16">
+        <v>220.41431855718901</v>
+      </c>
+      <c r="T16">
+        <v>5.2430744977531898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>32909</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E17" s="17">
+        <v>55</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="N17">
+        <v>29.7172309045791</v>
+      </c>
+      <c r="O17">
+        <v>0.88705616793873998</v>
+      </c>
+      <c r="S17">
+        <v>458.681268518595</v>
+      </c>
+      <c r="T17">
+        <v>11.007805458869541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>32929</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E18" s="17">
+        <v>75</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
+      <c r="N18">
+        <v>231.93041572949701</v>
+      </c>
+      <c r="O18">
+        <v>7.2106035349152506</v>
+      </c>
+      <c r="S18">
+        <v>884.24352834745696</v>
+      </c>
+      <c r="T18">
+        <v>21.509959196103651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>32944</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E19" s="17">
+        <v>90</v>
+      </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="N19">
+        <v>381.09646683874598</v>
+      </c>
+      <c r="O19">
+        <v>13.138243823585199</v>
+      </c>
+      <c r="S19">
+        <v>1003.75866276029</v>
+      </c>
+      <c r="T19">
+        <v>25.699515305663198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>32960</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E20" s="17">
+        <v>106</v>
+      </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="N20">
+        <v>518.33865894245798</v>
+      </c>
+      <c r="O20">
+        <v>19.886690890670998</v>
+      </c>
+      <c r="S20">
+        <v>1131.1101612622099</v>
+      </c>
+      <c r="T20">
+        <v>31.930050346738302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <f>D21+E21</f>
+        <v>32882</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E21" s="17">
+        <v>28</v>
+      </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="S21">
+        <v>63.242590486940699</v>
+      </c>
+      <c r="T21">
+        <v>2.7319273834112296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ref="B22:B26" si="1">D22+E22</f>
+        <v>32896</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E22" s="17">
+        <v>42</v>
+      </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="N22">
+        <v>10.860009793588</v>
+      </c>
+      <c r="O22">
+        <v>0.10893234096311599</v>
+      </c>
+      <c r="S22">
+        <v>232.26763053275499</v>
+      </c>
+      <c r="T22">
+        <v>6.8552338164199274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>32909</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E23" s="17">
+        <v>55</v>
+      </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="N23">
+        <v>63.314548457510199</v>
+      </c>
+      <c r="O23">
+        <v>2.02296756499311</v>
+      </c>
+      <c r="S23">
+        <v>466.58817963763698</v>
+      </c>
+      <c r="T23">
+        <v>12.565467243811909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>32929</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E24" s="17">
+        <v>75</v>
+      </c>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+      <c r="N24">
+        <v>356.457211151411</v>
+      </c>
+      <c r="O24">
+        <v>11.4835075295551</v>
+      </c>
+      <c r="S24">
+        <v>892.15043946649894</v>
+      </c>
+      <c r="T24">
+        <v>24.0564601232164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>32944</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E25" s="17">
+        <v>90</v>
+      </c>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="N25">
+        <v>570.86233369575098</v>
+      </c>
+      <c r="O25">
+        <v>19.362235476696902</v>
+      </c>
+      <c r="S25">
+        <v>1104.58588893407</v>
+      </c>
+      <c r="T25">
+        <v>29.815629620329098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>32960</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E26" s="17">
+        <v>106</v>
+      </c>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="N26">
+        <v>591.48464149659299</v>
+      </c>
+      <c r="O26">
+        <v>23.8488493766069</v>
+      </c>
+      <c r="S26">
+        <v>1044.1411936557399</v>
+      </c>
+      <c r="T26">
+        <v>32.709654404821421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <f>D27+E27</f>
+        <v>32882</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E27" s="17">
+        <v>28</v>
+      </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="S27">
+        <v>31.6431648227613</v>
+      </c>
+      <c r="T27">
+        <v>1.6430491456581202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:B32" si="2">D28+E28</f>
+        <v>32896</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E28" s="17">
+        <v>42</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="N28">
+        <v>4.9368811573035698</v>
+      </c>
+      <c r="O28">
+        <v>0.48111405530418605</v>
+      </c>
+      <c r="S28">
+        <v>188.77961937802402</v>
+      </c>
+      <c r="T28">
+        <v>4.9005618213657058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>32909</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E29" s="17">
+        <v>55</v>
+      </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="N29">
+        <v>71.235568982546098</v>
+      </c>
+      <c r="O29">
+        <v>2.28172160625128</v>
+      </c>
+      <c r="S29">
+        <v>397.38154323703003</v>
+      </c>
+      <c r="T29">
+        <v>9.1869781064637497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>32929</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E30" s="17">
+        <v>75</v>
+      </c>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="N30">
+        <v>307.02490725140501</v>
+      </c>
+      <c r="O30">
+        <v>11.8276047699964</v>
+      </c>
+      <c r="S30">
+        <v>822.95791247188492</v>
+      </c>
+      <c r="T30">
+        <v>21.709765874464271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>32944</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E31" s="17">
+        <v>90</v>
+      </c>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="N31">
+        <v>444.35881049407794</v>
+      </c>
+      <c r="O31">
+        <v>19.253893431870701</v>
+      </c>
+      <c r="S31">
+        <v>1007.71211831981</v>
+      </c>
+      <c r="T31">
+        <v>29.509983520714297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>32960</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E32" s="17">
+        <v>106</v>
+      </c>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <f>D33+E33</f>
+        <v>32882</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E33" s="17">
+        <v>28</v>
+      </c>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="O33" s="4"/>
+      <c r="T33">
+        <v>3.3757226576011199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:B38" si="3">D34+E34</f>
+        <v>32896</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E34" s="17">
+        <v>42</v>
+      </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
+      <c r="O34">
+        <v>0.62716694180183996</v>
+      </c>
+      <c r="T34">
+        <v>6.5791824770872909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="3"/>
+        <v>32909</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E35" s="17">
+        <v>55</v>
+      </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="O35">
+        <v>1.7497512683798899</v>
+      </c>
+      <c r="T35">
+        <v>9.3131376048393797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="3"/>
+        <v>32929</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E36" s="17">
+        <v>75</v>
+      </c>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="O36">
+        <v>12.7087579765657</v>
+      </c>
+      <c r="T36">
+        <v>22.994465909246099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="3"/>
+        <v>32944</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E37" s="17">
+        <v>90</v>
+      </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="O37">
+        <v>16.912347582510201</v>
+      </c>
+      <c r="T37">
+        <v>25.33334690061789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>32960</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="1">
+        <v>32854</v>
+      </c>
+      <c r="E38" s="17">
+        <v>106</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1371,7 +1888,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1379,7 +1896,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1387,7 +1904,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1395,7 +1912,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1403,7 +1920,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1411,7 +1928,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1419,7 +1936,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1427,7 +1944,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1437,7 +1954,6 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
     </row>
@@ -1446,7 +1962,6 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
     </row>
@@ -1455,7 +1970,6 @@
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
     </row>
@@ -1464,7 +1978,6 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
     </row>
@@ -1473,7 +1986,6 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
     </row>
@@ -1482,7 +1994,6 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
     </row>
@@ -1491,7 +2002,6 @@
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
     </row>
@@ -1500,7 +2010,6 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
     </row>
@@ -1509,7 +2018,6 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
     </row>
@@ -1518,7 +2026,6 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
     </row>
@@ -1527,7 +2034,6 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3"/>
@@ -1537,7 +2043,6 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
     </row>
@@ -1546,7 +2051,6 @@
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
     </row>
@@ -1555,7 +2059,6 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
     </row>
@@ -1564,7 +2067,6 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
     </row>
@@ -1573,7 +2075,6 @@
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
     </row>
@@ -1582,7 +2083,6 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
     </row>
@@ -1591,7 +2091,6 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3"/>
@@ -1601,7 +2100,6 @@
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
@@ -1610,7 +2108,6 @@
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
@@ -1619,7 +2116,6 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
@@ -1628,7 +2124,6 @@
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
@@ -1637,7 +2132,6 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
@@ -1646,7 +2140,6 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="1"/>
     </row>
@@ -1655,7 +2148,6 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="1"/>
     </row>
@@ -1664,7 +2156,6 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="1"/>
     </row>
@@ -1673,7 +2164,6 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="1"/>
     </row>
@@ -1682,7 +2172,6 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="1"/>
     </row>
@@ -1691,7 +2180,6 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="1"/>
     </row>
@@ -1700,7 +2188,6 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="1"/>
     </row>
@@ -1709,7 +2196,6 @@
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="1"/>
     </row>
@@ -1718,7 +2204,6 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="1"/>
     </row>
@@ -1727,7 +2212,6 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
     </row>
@@ -1735,203 +2219,174 @@
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1939,7 +2394,6 @@
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
       <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1947,7 +2401,6 @@
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
       <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1955,7 +2408,6 @@
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
       <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1963,7 +2415,6 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1971,7 +2422,6 @@
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
       <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1979,7 +2429,6 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
       <c r="F124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1987,7 +2436,6 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
       <c r="F125" s="6"/>
       <c r="G125" s="3"/>
     </row>
@@ -1996,7 +2444,6 @@
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2004,7 +2451,6 @@
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
       <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2012,157 +2458,147 @@
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
       <c r="F129" s="6"/>
-      <c r="R129" s="7"/>
       <c r="S129" s="7"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
       <c r="F130" s="6"/>
-      <c r="R130" s="7"/>
       <c r="S130" s="7"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
       <c r="F131" s="6"/>
-      <c r="R131" s="7"/>
       <c r="S131" s="7"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
       <c r="F132" s="6"/>
       <c r="G132" s="3"/>
-      <c r="R132" s="7"/>
       <c r="S132" s="7"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T132" s="7"/>
+      <c r="U132" s="7"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
       <c r="F133" s="6"/>
       <c r="G133" s="3"/>
-      <c r="R133" s="7"/>
       <c r="S133" s="7"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
       <c r="F134" s="6"/>
       <c r="G134" s="3"/>
-      <c r="R134" s="7"/>
       <c r="S134" s="7"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
       <c r="F138" s="6"/>
       <c r="G138" s="3"/>
-      <c r="R138" s="6"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
       <c r="F139" s="6"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
       <c r="F140" s="6"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
       <c r="F141" s="6"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
       <c r="F142" s="6"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
       <c r="F143" s="6"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
       <c r="F144" s="6"/>
       <c r="G144" s="3"/>
     </row>
@@ -2170,589 +2606,558 @@
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+      <c r="E146" s="18"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="E147" s="18"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
+      <c r="E148" s="18"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="E149" s="18"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="E150" s="18"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
+      <c r="E151" s="18"/>
       <c r="G151" s="3"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
+      <c r="E152" s="18"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
+      <c r="E153" s="18"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="E154" s="18"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
+      <c r="E156" s="18"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="E158" s="18"/>
       <c r="G158" s="3"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
+      <c r="E165" s="18"/>
       <c r="G165" s="3"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
+      <c r="E172" s="18"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
+      <c r="E179" s="18"/>
       <c r="G179" s="3"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
+      <c r="E186" s="18"/>
       <c r="G186" s="3"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-    </row>
-    <row r="193" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192" s="18"/>
+    </row>
+    <row r="193" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="E193" s="18"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E194" s="18"/>
+    </row>
+    <row r="195" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195" s="18"/>
+    </row>
+    <row r="196" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-    </row>
-    <row r="197" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196" s="18"/>
+    </row>
+    <row r="197" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-    </row>
-    <row r="198" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197" s="18"/>
+    </row>
+    <row r="198" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-    </row>
-    <row r="199" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198" s="18"/>
+    </row>
+    <row r="199" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-    </row>
-    <row r="200" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199" s="18"/>
+    </row>
+    <row r="200" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
+      <c r="E200" s="18"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="CN201" s="5"/>
-    </row>
-    <row r="202" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP201" s="5"/>
+    </row>
+    <row r="202" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="CN202" s="5"/>
-    </row>
-    <row r="203" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP202" s="5"/>
+    </row>
+    <row r="203" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="CN203" s="5"/>
-    </row>
-    <row r="204" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP203" s="5"/>
+    </row>
+    <row r="204" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="CN204" s="5"/>
-    </row>
-    <row r="205" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP204" s="5"/>
+    </row>
+    <row r="205" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="CN205" s="5"/>
-    </row>
-    <row r="206" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP205" s="5"/>
+    </row>
+    <row r="206" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="CN206" s="5"/>
-    </row>
-    <row r="207" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP206" s="5"/>
+    </row>
+    <row r="207" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="CN207" s="5"/>
-    </row>
-    <row r="208" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP207" s="5"/>
+    </row>
+    <row r="208" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="CN208" s="5"/>
-    </row>
-    <row r="209" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP208" s="5"/>
+    </row>
+    <row r="209" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="CN209" s="5"/>
-    </row>
-    <row r="210" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP209" s="5"/>
+    </row>
+    <row r="210" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="CN210" s="5"/>
-    </row>
-    <row r="211" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP210" s="5"/>
+    </row>
+    <row r="211" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="CN211" s="5"/>
-    </row>
-    <row r="212" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP211" s="5"/>
+    </row>
+    <row r="212" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="CN212" s="5"/>
-    </row>
-    <row r="213" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP212" s="5"/>
+    </row>
+    <row r="213" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="CN213" s="5"/>
-    </row>
-    <row r="214" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP213" s="5"/>
+    </row>
+    <row r="214" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="CN214" s="5"/>
-    </row>
-    <row r="215" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP214" s="5"/>
+    </row>
+    <row r="215" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="CN215" s="5"/>
-    </row>
-    <row r="216" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP215" s="5"/>
+    </row>
+    <row r="216" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="CN216" s="5"/>
-    </row>
-    <row r="217" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP216" s="5"/>
+    </row>
+    <row r="217" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="CN217" s="5"/>
-    </row>
-    <row r="218" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP217" s="5"/>
+    </row>
+    <row r="218" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="CN218" s="5"/>
-    </row>
-    <row r="219" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP218" s="5"/>
+    </row>
+    <row r="219" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="CN219" s="5"/>
-    </row>
-    <row r="220" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP219" s="5"/>
+    </row>
+    <row r="220" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="CN220" s="5"/>
-    </row>
-    <row r="221" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP220" s="5"/>
+    </row>
+    <row r="221" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="CN221" s="5"/>
-    </row>
-    <row r="222" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP221" s="5"/>
+    </row>
+    <row r="222" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="CN222" s="5"/>
-    </row>
-    <row r="223" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP222" s="5"/>
+    </row>
+    <row r="223" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="CN223" s="5"/>
-    </row>
-    <row r="224" spans="2:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP223" s="5"/>
+    </row>
+    <row r="224" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="CN224" s="5"/>
-    </row>
-    <row r="225" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP224" s="5"/>
+    </row>
+    <row r="225" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="CN225" s="5"/>
-    </row>
-    <row r="226" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP225" s="5"/>
+    </row>
+    <row r="226" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="CN226" s="5"/>
-    </row>
-    <row r="227" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP226" s="5"/>
+    </row>
+    <row r="227" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="CN227" s="5"/>
-    </row>
-    <row r="228" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP227" s="5"/>
+    </row>
+    <row r="228" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="CN228" s="5"/>
-    </row>
-    <row r="229" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP228" s="5"/>
+    </row>
+    <row r="229" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="CN229" s="5"/>
-    </row>
-    <row r="230" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP229" s="5"/>
+    </row>
+    <row r="230" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="CN230" s="5"/>
-    </row>
-    <row r="231" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP230" s="5"/>
+    </row>
+    <row r="231" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="CN231" s="5"/>
-    </row>
-    <row r="232" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+      <c r="CP231" s="5"/>
+    </row>
+    <row r="232" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:92" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:94" x14ac:dyDescent="0.55000000000000004">
       <c r="G240" s="3"/>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.55000000000000004">
@@ -2995,344 +3400,1125 @@
     <row r="320" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
-      <c r="E332" s="9"/>
-      <c r="CO332" s="10"/>
-      <c r="CP332" s="10"/>
-    </row>
-    <row r="333" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E332" s="19"/>
+      <c r="CQ332" s="10"/>
+      <c r="CR332" s="10"/>
+    </row>
+    <row r="333" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="CO333" s="10"/>
-      <c r="CP333" s="10"/>
-    </row>
-    <row r="334" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E333" s="19"/>
+      <c r="CQ333" s="10"/>
+      <c r="CR333" s="10"/>
+    </row>
+    <row r="334" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
-      <c r="E334" s="9"/>
-      <c r="CO334" s="10"/>
-      <c r="CP334" s="10"/>
-    </row>
-    <row r="335" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E334" s="19"/>
+      <c r="CQ334" s="10"/>
+      <c r="CR334" s="10"/>
+    </row>
+    <row r="335" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
-      <c r="E335" s="9"/>
-      <c r="CO335" s="10"/>
-      <c r="CP335" s="10"/>
-    </row>
-    <row r="336" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E335" s="19"/>
+      <c r="CQ335" s="10"/>
+      <c r="CR335" s="10"/>
+    </row>
+    <row r="336" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
-      <c r="E336" s="9"/>
-      <c r="CO336" s="10"/>
-      <c r="CP336" s="10"/>
-    </row>
-    <row r="337" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E336" s="19"/>
+      <c r="CQ336" s="10"/>
+      <c r="CR336" s="10"/>
+    </row>
+    <row r="337" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
-      <c r="E337" s="9"/>
-      <c r="CO337" s="10"/>
-      <c r="CP337" s="10"/>
-    </row>
-    <row r="338" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E337" s="19"/>
+      <c r="CQ337" s="10"/>
+      <c r="CR337" s="10"/>
+    </row>
+    <row r="338" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
-      <c r="E338" s="9"/>
-      <c r="CO338" s="10"/>
-      <c r="CP338" s="10"/>
-    </row>
-    <row r="339" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E338" s="19"/>
+      <c r="CQ338" s="10"/>
+      <c r="CR338" s="10"/>
+    </row>
+    <row r="339" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
-      <c r="E339" s="9"/>
-      <c r="CO339" s="10"/>
-      <c r="CP339" s="10"/>
-    </row>
-    <row r="340" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E339" s="19"/>
+      <c r="CQ339" s="10"/>
+      <c r="CR339" s="10"/>
+    </row>
+    <row r="340" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
-      <c r="E340" s="9"/>
-      <c r="CO340" s="10"/>
-      <c r="CP340" s="10"/>
-    </row>
-    <row r="341" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E340" s="19"/>
+      <c r="CQ340" s="10"/>
+      <c r="CR340" s="10"/>
+    </row>
+    <row r="341" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
-      <c r="E341" s="9"/>
-      <c r="CO341" s="10"/>
-      <c r="CP341" s="10"/>
-    </row>
-    <row r="342" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E341" s="19"/>
+      <c r="CQ341" s="10"/>
+      <c r="CR341" s="10"/>
+    </row>
+    <row r="342" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
-      <c r="E342" s="9"/>
-      <c r="CO342" s="10"/>
-      <c r="CP342" s="10"/>
-    </row>
-    <row r="343" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E342" s="19"/>
+      <c r="CQ342" s="10"/>
+      <c r="CR342" s="10"/>
+    </row>
+    <row r="343" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
-      <c r="E343" s="9"/>
-      <c r="CO343" s="10"/>
-      <c r="CP343" s="10"/>
-    </row>
-    <row r="344" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E343" s="19"/>
+      <c r="CQ343" s="10"/>
+      <c r="CR343" s="10"/>
+    </row>
+    <row r="344" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
-      <c r="CO344" s="10"/>
-      <c r="CP344" s="10"/>
-    </row>
-    <row r="345" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344" s="19"/>
+      <c r="CQ344" s="10"/>
+      <c r="CR344" s="10"/>
+    </row>
+    <row r="345" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
-      <c r="E345" s="9"/>
-      <c r="CO345" s="10"/>
-      <c r="CP345" s="10"/>
-    </row>
-    <row r="346" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E345" s="19"/>
+      <c r="CQ345" s="10"/>
+      <c r="CR345" s="10"/>
+    </row>
+    <row r="346" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
-      <c r="E346" s="9"/>
-      <c r="CO346" s="10"/>
-      <c r="CP346" s="10"/>
-    </row>
-    <row r="347" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E346" s="19"/>
+      <c r="CQ346" s="10"/>
+      <c r="CR346" s="10"/>
+    </row>
+    <row r="347" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
-      <c r="E347" s="9"/>
-      <c r="CO347" s="10"/>
-      <c r="CP347" s="10"/>
-    </row>
-    <row r="348" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E347" s="19"/>
+      <c r="CQ347" s="10"/>
+      <c r="CR347" s="10"/>
+    </row>
+    <row r="348" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
-      <c r="E348" s="9"/>
-      <c r="CO348" s="10"/>
-      <c r="CP348" s="10"/>
-    </row>
-    <row r="349" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E348" s="19"/>
+      <c r="CQ348" s="10"/>
+      <c r="CR348" s="10"/>
+    </row>
+    <row r="349" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
-      <c r="E349" s="9"/>
-      <c r="CO349" s="10"/>
-      <c r="CP349" s="10"/>
-    </row>
-    <row r="350" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E349" s="19"/>
+      <c r="CQ349" s="10"/>
+      <c r="CR349" s="10"/>
+    </row>
+    <row r="350" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
-      <c r="E350" s="9"/>
-      <c r="CO350" s="10"/>
-      <c r="CP350" s="10"/>
-    </row>
-    <row r="351" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E350" s="19"/>
+      <c r="CQ350" s="10"/>
+      <c r="CR350" s="10"/>
+    </row>
+    <row r="351" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
-      <c r="E351" s="9"/>
-      <c r="CO351" s="10"/>
-      <c r="CP351" s="10"/>
-    </row>
-    <row r="352" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="E351" s="19"/>
+      <c r="CQ351" s="10"/>
+      <c r="CR351" s="10"/>
+    </row>
+    <row r="352" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
-      <c r="E352" s="9"/>
-      <c r="CO352" s="10"/>
-      <c r="CP352" s="10"/>
+      <c r="E352" s="19"/>
+      <c r="CQ352" s="10"/>
+      <c r="CR352" s="10"/>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
-      <c r="E353" s="9"/>
+      <c r="E353" s="19"/>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
-      <c r="E354" s="9"/>
+      <c r="E354" s="19"/>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
-      <c r="E355" s="9"/>
+      <c r="E355" s="19"/>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
-      <c r="E356" s="9"/>
+      <c r="E356" s="19"/>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
-      <c r="E357" s="9"/>
+      <c r="E357" s="19"/>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
-      <c r="E358" s="9"/>
+      <c r="E358" s="19"/>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
-      <c r="E359" s="9"/>
+      <c r="E359" s="19"/>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
-      <c r="E360" s="9"/>
+      <c r="E360" s="19"/>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
+      <c r="E361" s="19"/>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
-      <c r="E362" s="9"/>
+      <c r="E362" s="19"/>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
-      <c r="E363" s="9"/>
+      <c r="E363" s="19"/>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
+      <c r="E364" s="19"/>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
+      <c r="E365" s="19"/>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
-      <c r="E366" s="9"/>
+      <c r="E366" s="19"/>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
-      <c r="E367" s="9"/>
+      <c r="E367" s="19"/>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
-      <c r="E368" s="9"/>
+      <c r="E368" s="19"/>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
-      <c r="E369" s="9"/>
+      <c r="E369" s="19"/>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
-      <c r="E370" s="9"/>
+      <c r="E370" s="19"/>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
-      <c r="E371" s="9"/>
+      <c r="E371" s="19"/>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
-      <c r="E372" s="9"/>
+      <c r="E372" s="19"/>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
-      <c r="E373" s="9"/>
+      <c r="E373" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887047BC-ACA2-4473-901E-35E64BB4B438}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>28.087146331139401</v>
+      </c>
+      <c r="B1">
+        <v>0.59296189630416696</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>41.896237768389902</v>
+      </c>
+      <c r="B2">
+        <v>2.20414318557189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>54.914970079759598</v>
+      </c>
+      <c r="B3">
+        <v>4.5868126851859499</v>
+      </c>
+      <c r="E3">
+        <v>17.6784433090553</v>
+      </c>
+      <c r="F3">
+        <v>4.70816986036027</v>
+      </c>
+      <c r="G3">
+        <v>24.734753777584501</v>
+      </c>
+      <c r="J3">
+        <f>H3+F3</f>
+        <v>4.70816986036027</v>
+      </c>
+      <c r="K3">
+        <f>I3+G3</f>
+        <v>24.734753777584501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>74.950724974478504</v>
+      </c>
+      <c r="B4">
+        <v>8.8424352834745701</v>
+      </c>
+      <c r="E4">
+        <v>40.390240045854704</v>
+      </c>
+      <c r="F4">
+        <v>20.8258802834299</v>
+      </c>
+      <c r="G4">
+        <v>51.9539673284645</v>
+      </c>
+      <c r="H4">
+        <v>0.19774920587508399</v>
+      </c>
+      <c r="I4">
+        <v>0.4767776490674</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:K24" si="0">H4+F4</f>
+        <v>21.023629489304984</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>52.430744977531901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>90.053997526704094</v>
+      </c>
+      <c r="B5">
+        <v>10.0375866276029</v>
+      </c>
+      <c r="E5">
+        <v>62.901145381414899</v>
+      </c>
+      <c r="F5">
+        <v>54.785747462668802</v>
+      </c>
+      <c r="G5">
+        <v>101.207492909308</v>
+      </c>
+      <c r="H5">
+        <v>3.7917445319404801</v>
+      </c>
+      <c r="I5">
+        <v>8.8705616793874</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>58.577491994609282</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>110.07805458869541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>106.157477570194</v>
+      </c>
+      <c r="B6">
+        <v>11.3111016126221</v>
+      </c>
+      <c r="E6">
+        <v>85.644763758906606</v>
+      </c>
+      <c r="F6">
+        <v>91.8375515125161</v>
+      </c>
+      <c r="G6">
+        <v>142.993556611884</v>
+      </c>
+      <c r="H6">
+        <v>50.621980408222498</v>
+      </c>
+      <c r="I6">
+        <v>72.106035349152506</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>142.45953192073858</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>215.09959196103651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>28.187538904612101</v>
+      </c>
+      <c r="B7">
+        <v>0.63242590486940697</v>
+      </c>
+      <c r="E7">
+        <v>108.202986490626</v>
+      </c>
+      <c r="F7">
+        <v>81.925505736789503</v>
+      </c>
+      <c r="G7">
+        <v>125.61271482078</v>
+      </c>
+      <c r="H7">
+        <v>98.591941902751401</v>
+      </c>
+      <c r="I7">
+        <v>131.38243823585199</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>180.5174476395409</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>256.99515305663198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>41.997559902728099</v>
+      </c>
+      <c r="B8">
+        <v>2.3226763053275499</v>
+      </c>
+      <c r="E8">
+        <v>131.321270098528</v>
+      </c>
+      <c r="F8">
+        <v>65.453507792348901</v>
+      </c>
+      <c r="G8">
+        <v>120.433594560673</v>
+      </c>
+      <c r="H8">
+        <v>138.93732064078901</v>
+      </c>
+      <c r="I8">
+        <v>198.86690890670999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>204.39082843313793</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>319.30050346738301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>54.915899640625099</v>
+      </c>
+      <c r="B9">
+        <v>4.6658817963763699</v>
+      </c>
+      <c r="E9">
+        <v>14.714603365978499</v>
+      </c>
+      <c r="F9">
+        <v>4.9248930219687503</v>
+      </c>
+      <c r="G9">
+        <v>27.319273834112298</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4.9248930219687503</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>27.319273834112298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>74.951654535344005</v>
+      </c>
+      <c r="B10">
+        <v>8.9215043946649892</v>
+      </c>
+      <c r="E10">
+        <v>37.672395220824399</v>
+      </c>
+      <c r="F10">
+        <v>32.8722489598671</v>
+      </c>
+      <c r="G10">
+        <v>67.463014754568107</v>
+      </c>
+      <c r="H10">
+        <v>-4.4953321197851802E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.0893234096311599</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>32.827295638669248</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>68.55233816419927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>89.865993841659204</v>
+      </c>
+      <c r="B11">
+        <v>11.0458588893407</v>
+      </c>
+      <c r="E11">
+        <v>60.1716787397839</v>
+      </c>
+      <c r="F11">
+        <v>59.186621075413299</v>
+      </c>
+      <c r="G11">
+        <v>105.424996788188</v>
+      </c>
+      <c r="H11">
+        <v>11.4671835709989</v>
+      </c>
+      <c r="I11">
+        <v>20.229675649931099</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>70.653804646412198</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>125.65467243811909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>106.047324607634</v>
+      </c>
+      <c r="B12">
+        <v>10.441411936557399</v>
+      </c>
+      <c r="E12">
+        <v>83.014082558380807</v>
+      </c>
+      <c r="F12">
+        <v>86.225133166648504</v>
+      </c>
+      <c r="G12">
+        <v>125.729525936613</v>
+      </c>
+      <c r="H12">
+        <v>93.639130276843701</v>
+      </c>
+      <c r="I12">
+        <v>114.83507529555099</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>179.86426344349221</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>240.56460123216399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>27.784109488990499</v>
+      </c>
+      <c r="B13">
+        <v>0.31643164822761299</v>
+      </c>
+      <c r="E13">
+        <v>105.09719435907</v>
+      </c>
+      <c r="F13">
+        <v>63.757967763294303</v>
+      </c>
+      <c r="G13">
+        <v>104.533941436322</v>
+      </c>
+      <c r="H13">
+        <v>157.99798290260199</v>
+      </c>
+      <c r="I13">
+        <v>193.62235476696901</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>221.75595066589631</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>298.15629620329099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>41.992447317967901</v>
+      </c>
+      <c r="B14">
+        <v>1.8877961937802401</v>
+      </c>
+      <c r="E14">
+        <v>128.43822945181699</v>
+      </c>
+      <c r="F14">
+        <v>43.824625206297</v>
+      </c>
+      <c r="G14">
+        <v>88.6080502821452</v>
+      </c>
+      <c r="H14">
+        <v>159.05529409865301</v>
+      </c>
+      <c r="I14">
+        <v>238.48849376606901</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>202.87991930495002</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>327.09654404821424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>55.207549362171797</v>
+      </c>
+      <c r="B15">
+        <v>3.9738154323703001</v>
+      </c>
+      <c r="E15">
+        <v>11.521924319837099</v>
+      </c>
+      <c r="F15">
+        <v>4.5981776675330304</v>
+      </c>
+      <c r="G15">
+        <v>16.430491456581201</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>4.5981776675330304</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>16.430491456581201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>75.043448670810903</v>
+      </c>
+      <c r="B16">
+        <v>8.2295791247188497</v>
+      </c>
+      <c r="E16">
+        <v>34.794888772495</v>
+      </c>
+      <c r="F16">
+        <v>14.884078308907</v>
+      </c>
+      <c r="G16">
+        <v>44.194477660615199</v>
+      </c>
+      <c r="H16">
+        <v>1.1329145089744601</v>
+      </c>
+      <c r="I16">
+        <v>4.8111405530418603</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>16.016992817881459</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>49.005618213657058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>90.054462307136802</v>
+      </c>
+      <c r="B17">
+        <v>10.0771211831981</v>
+      </c>
+      <c r="E17">
+        <v>57.506962219213499</v>
+      </c>
+      <c r="F17">
+        <v>31.183824328731301</v>
+      </c>
+      <c r="G17">
+        <v>69.052565002124695</v>
+      </c>
+      <c r="H17">
+        <v>10.659158974317499</v>
+      </c>
+      <c r="I17">
+        <v>22.817216062512799</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>41.842983303048797</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>91.869781064637493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>27.979782051175601</v>
+      </c>
+      <c r="B18">
+        <v>-3.95204461892113E-2</v>
+      </c>
+      <c r="E18">
+        <v>79.881726274594996</v>
+      </c>
+      <c r="F18">
+        <v>50.5821779047129</v>
+      </c>
+      <c r="G18">
+        <v>98.821611044678704</v>
+      </c>
+      <c r="H18">
+        <v>71.916005400452804</v>
+      </c>
+      <c r="I18">
+        <v>118.276047699964</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>122.4981833051657</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>217.0976587446427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>41.970835027845297</v>
+      </c>
+      <c r="B19">
+        <v>4.9439358603006398E-2</v>
+      </c>
+      <c r="E19">
+        <v>102.332862267637</v>
+      </c>
+      <c r="F19">
+        <v>45.222356184960702</v>
+      </c>
+      <c r="G19">
+        <v>102.560900888436</v>
+      </c>
+      <c r="H19">
+        <v>115.080729303309</v>
+      </c>
+      <c r="I19">
+        <v>192.53893431870699</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>160.30308548826969</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>295.09983520714297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>55.064396988886699</v>
+      </c>
+      <c r="B20">
+        <v>0.29717230904579101</v>
+      </c>
+      <c r="E20">
+        <v>8.9012046763976294</v>
+      </c>
+      <c r="F20">
+        <v>5.5390408048305604</v>
+      </c>
+      <c r="G20">
+        <v>33.757226576011199</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>5.5390408048305604</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>33.757226576011199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>74.774108410035893</v>
+      </c>
+      <c r="B21">
+        <v>2.3193041572949702</v>
+      </c>
+      <c r="E21">
+        <v>31.614108252873301</v>
+      </c>
+      <c r="F21">
+        <v>22.3848936149185</v>
+      </c>
+      <c r="G21">
+        <v>59.520155352854502</v>
+      </c>
+      <c r="H21">
+        <v>2.60070855717492</v>
+      </c>
+      <c r="I21">
+        <v>6.2716694180183996</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>24.985602172093419</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>65.791824770872907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>89.880866815507005</v>
+      </c>
+      <c r="B22">
+        <v>3.8109646683874598</v>
+      </c>
+      <c r="E22">
+        <v>54.779985966854099</v>
+      </c>
+      <c r="F22">
+        <v>37.223018312267101</v>
+      </c>
+      <c r="G22">
+        <v>75.633863364594902</v>
+      </c>
+      <c r="H22">
+        <v>9.5830037092796001</v>
+      </c>
+      <c r="I22">
+        <v>17.497512683798899</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>46.806022021546703</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>93.131376048393804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>105.885581017039</v>
+      </c>
+      <c r="B23">
+        <v>5.1833865894245799</v>
+      </c>
+      <c r="E23">
+        <v>76.936149186176294</v>
+      </c>
+      <c r="F23">
+        <v>62.813250452124201</v>
+      </c>
+      <c r="G23">
+        <v>102.857079326804</v>
+      </c>
+      <c r="H23">
+        <v>89.770874284076598</v>
+      </c>
+      <c r="I23">
+        <v>127.087579765657</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>152.58412473620081</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>229.94465909246099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>42.1713877845742</v>
+      </c>
+      <c r="B24">
+        <v>0.10860009793588001</v>
+      </c>
+      <c r="E24">
+        <v>99.932957139609996</v>
+      </c>
+      <c r="F24">
+        <v>41.427625532419498</v>
+      </c>
+      <c r="G24">
+        <v>84.209993181076896</v>
+      </c>
+      <c r="H24">
+        <v>95.907002627574499</v>
+      </c>
+      <c r="I24">
+        <v>169.12347582510199</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>137.334628159994</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>253.33346900617889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>55.168275415605002</v>
+      </c>
+      <c r="B25">
+        <v>0.633145484575102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>74.888676786707293</v>
+      </c>
+      <c r="B26">
+        <v>3.56457211151411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>89.903176276278799</v>
+      </c>
+      <c r="B27">
+        <v>5.7086233369575101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>105.794251662005</v>
+      </c>
+      <c r="B28">
+        <v>5.9148464149659299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>42.0707628208852</v>
+      </c>
+      <c r="B29">
+        <v>4.9368811573035701E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>54.969349390390597</v>
+      </c>
+      <c r="B30">
+        <v>0.71235568982546105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>75.082722617377797</v>
+      </c>
+      <c r="B31">
+        <v>3.0702490725140499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>89.788375509391003</v>
+      </c>
+      <c r="B32">
+        <v>4.4435881049407797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5B708-835E-42E1-8910-8D275BCF66F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F697DA68-10AE-43F2-BA3A-DB673B95161F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="9300" windowWidth="21600" windowHeight="11460" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
-    <sheet name="Bundy" sheetId="16" r:id="rId2"/>
-    <sheet name="Rainout" sheetId="15" r:id="rId3"/>
+    <sheet name="Loxton" sheetId="17" r:id="rId2"/>
+    <sheet name="Bundy" sheetId="16" r:id="rId3"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CR$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CS$373</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>SimulationName</t>
   </si>
@@ -177,6 +178,33 @@
   </si>
   <si>
     <t>Peanut.Pod.N</t>
+  </si>
+  <si>
+    <t>TDM</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Loxton9697Pop5</t>
+  </si>
+  <si>
+    <t>Loxton9697Pop10</t>
+  </si>
+  <si>
+    <t>Loxton9697Pop15</t>
+  </si>
+  <si>
+    <t>Loxton9697Pop20</t>
+  </si>
+  <si>
+    <t>Loxton9697Pop25</t>
+  </si>
+  <si>
+    <t>Loxton9697Pop30</t>
+  </si>
+  <si>
+    <t>Peanut.Leaf.NodeNumber</t>
   </si>
 </sst>
 </file>
@@ -694,10 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR373"/>
+  <dimension ref="A1:CS373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O39" sqref="O39:O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -707,86 +738,86 @@
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.26171875" style="4" customWidth="1"/>
     <col min="7" max="7" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.68359375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.15625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.41796875" customWidth="1"/>
-    <col min="25" max="25" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" customWidth="1"/>
-    <col min="28" max="29" width="21.83984375" customWidth="1"/>
-    <col min="30" max="30" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.68359375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.68359375" customWidth="1"/>
-    <col min="33" max="33" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.68359375" customWidth="1"/>
-    <col min="40" max="40" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="20.68359375" customWidth="1"/>
-    <col min="47" max="47" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="89" max="16384" width="9.15625" style="4"/>
+    <col min="8" max="9" width="32" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.68359375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.15625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.15625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.41796875" customWidth="1"/>
+    <col min="26" max="26" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" customWidth="1"/>
+    <col min="29" max="30" width="21.83984375" customWidth="1"/>
+    <col min="31" max="31" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.68359375" customWidth="1"/>
+    <col min="34" max="34" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.68359375" customWidth="1"/>
+    <col min="41" max="41" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="20.68359375" customWidth="1"/>
+    <col min="48" max="48" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="90" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:97" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -812,45 +843,47 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CK1" s="4"/>
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
@@ -858,8 +891,9 @@
       <c r="CP1" s="4"/>
       <c r="CQ1" s="4"/>
       <c r="CR1" s="4"/>
-    </row>
-    <row r="2" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS1" s="4"/>
+    </row>
+    <row r="2" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -872,17 +906,17 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="N2" s="13">
+      <c r="O2" s="13">
         <v>622.70000000000005</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="4"/>
-      <c r="S2" s="13">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="4"/>
+      <c r="T2" s="13">
         <v>1055.4000000000001</v>
       </c>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -895,17 +929,17 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="N3" s="13">
+      <c r="O3" s="13">
         <v>588.70000000000005</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="4"/>
-      <c r="S3" s="14">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="4"/>
+      <c r="T3" s="14">
         <v>1032.8</v>
       </c>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -918,17 +952,17 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="N4" s="13">
+      <c r="O4" s="13">
         <v>669</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="4"/>
-      <c r="S4" s="13">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="4"/>
+      <c r="T4" s="13">
         <v>1194.5999999999999</v>
       </c>
-      <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -941,17 +975,17 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="N5" s="15">
+      <c r="O5" s="15">
         <v>722.6</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="4"/>
-      <c r="S5" s="13">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="4"/>
+      <c r="T5" s="13">
         <v>1290.3</v>
       </c>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -964,16 +998,16 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="N6" s="13">
+      <c r="O6" s="13">
         <v>355.6</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="S6" s="13">
+      <c r="P6" s="13"/>
+      <c r="T6" s="13">
         <v>945.7</v>
       </c>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -986,16 +1020,16 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>461.2</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="S7" s="16">
+      <c r="P7" s="13"/>
+      <c r="T7" s="16">
         <v>1011.4</v>
       </c>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1008,16 +1042,16 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="N8" s="15">
+      <c r="O8" s="15">
         <v>563.9</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="S8" s="13">
+      <c r="P8" s="15"/>
+      <c r="T8" s="13">
         <v>1139.2</v>
       </c>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1032,16 +1066,17 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="N9" s="15">
+      <c r="I9" s="1"/>
+      <c r="O9" s="15">
         <v>392.9</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="S9" s="15">
+      <c r="P9" s="15"/>
+      <c r="T9" s="15">
         <v>810.1</v>
       </c>
-      <c r="T9" s="15"/>
-    </row>
-    <row r="10" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1054,16 +1089,16 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="N10" s="15">
+      <c r="O10" s="15">
         <v>385.2</v>
       </c>
-      <c r="O10" s="15"/>
-      <c r="S10" s="13">
+      <c r="P10" s="15"/>
+      <c r="T10" s="13">
         <v>667.6</v>
       </c>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1078,14 +1113,14 @@
         <v>35</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="I11">
+      <c r="J11">
         <v>0.65</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="12" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1100,14 +1135,14 @@
         <v>56</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="I12">
+      <c r="J12">
         <v>1.55</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="13" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1122,14 +1157,14 @@
         <v>77</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="I13">
+      <c r="J13">
         <v>1.64</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>292.38382448900381</v>
       </c>
     </row>
-    <row r="14" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1146,14 +1181,14 @@
         <v>112</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="I14">
+      <c r="J14">
         <v>1.3</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>298.91892845175676</v>
       </c>
     </row>
-    <row r="15" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1169,17 +1204,17 @@
         <v>28</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>59.296189630416698</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.4734753777584499</v>
       </c>
     </row>
-    <row r="16" spans="1:96" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1195,20 +1230,20 @@
         <v>42</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="N16">
+      <c r="O16">
         <v>4.9439358603006394</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>4.767776490674E-2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>220.41431855718901</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>5.2430744977531898</v>
       </c>
     </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1224,20 +1259,20 @@
         <v>55</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="N17">
+      <c r="O17">
         <v>29.7172309045791</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.88705616793873998</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>458.681268518595</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>11.007805458869541</v>
       </c>
     </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1255,20 +1290,21 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="N18">
+      <c r="I18" s="1"/>
+      <c r="O18">
         <v>231.93041572949701</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>7.2106035349152506</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>884.24352834745696</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>21.509959196103651</v>
       </c>
     </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1284,20 +1320,20 @@
         <v>90</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="N19">
+      <c r="O19">
         <v>381.09646683874598</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>13.138243823585199</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1003.75866276029</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>25.699515305663198</v>
       </c>
     </row>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1315,20 +1351,20 @@
         <v>106</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="N20">
+      <c r="O20">
         <v>518.33865894245798</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>19.886690890670998</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1131.1101612622099</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>31.930050346738302</v>
       </c>
     </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1344,18 +1380,18 @@
         <v>28</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="S21">
+      <c r="P21" s="4"/>
+      <c r="T21">
         <v>63.242590486940699</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2.7319273834112296</v>
       </c>
     </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1371,20 +1407,20 @@
         <v>42</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="N22">
+      <c r="O22">
         <v>10.860009793588</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.10893234096311599</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>232.26763053275499</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>6.8552338164199274</v>
       </c>
     </row>
-    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1400,20 +1436,20 @@
         <v>55</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="N23">
+      <c r="O23">
         <v>63.314548457510199</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.02296756499311</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>466.58817963763698</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>12.565467243811909</v>
       </c>
     </row>
-    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1429,20 +1465,20 @@
         <v>75</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="N24">
+      <c r="O24">
         <v>356.457211151411</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>11.4835075295551</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>892.15043946649894</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>24.0564601232164</v>
       </c>
     </row>
-    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1458,20 +1494,20 @@
         <v>90</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="N25">
+      <c r="O25">
         <v>570.86233369575098</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19.362235476696902</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1104.58588893407</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>29.815629620329098</v>
       </c>
     </row>
-    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1489,20 +1525,20 @@
         <v>106</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="N26">
+      <c r="O26">
         <v>591.48464149659299</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>23.8488493766069</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1044.1411936557399</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>32.709654404821421</v>
       </c>
     </row>
-    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1518,18 +1554,18 @@
         <v>28</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>0</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="S27">
+      <c r="P27" s="4"/>
+      <c r="T27">
         <v>31.6431648227613</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.6430491456581202</v>
       </c>
     </row>
-    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1547,20 +1583,21 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="N28">
+      <c r="I28" s="1"/>
+      <c r="O28">
         <v>4.9368811573035698</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.48111405530418605</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>188.77961937802402</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>4.9005618213657058</v>
       </c>
     </row>
-    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1576,20 +1613,20 @@
         <v>55</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="N29">
+      <c r="O29">
         <v>71.235568982546098</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.28172160625128</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>397.38154323703003</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1605,20 +1642,20 @@
         <v>75</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="N30">
+      <c r="O30">
         <v>307.02490725140501</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>11.8276047699964</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>822.95791247188492</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>21.709765874464271</v>
       </c>
     </row>
-    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1636,20 +1673,20 @@
         <v>90</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="N31">
+      <c r="O31">
         <v>444.35881049407794</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>19.253893431870701</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1007.71211831981</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>29.509983520714297</v>
       </c>
     </row>
-    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1665,9 +1702,9 @@
         <v>106</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1683,12 +1720,12 @@
         <v>28</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="O33" s="4"/>
-      <c r="T33">
+      <c r="P33" s="4"/>
+      <c r="U33">
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1704,14 +1741,14 @@
         <v>42</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="O34">
+      <c r="P34">
         <v>0.62716694180183996</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>6.5791824770872909</v>
       </c>
     </row>
-    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1727,14 +1764,14 @@
         <v>55</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="O35">
+      <c r="P35">
         <v>1.7497512683798899</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1750,14 +1787,14 @@
         <v>75</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="O36">
+      <c r="P36">
         <v>12.7087579765657</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1775,14 +1812,14 @@
         <v>90</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="O37">
+      <c r="P37">
         <v>16.912347582510201</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>25.33334690061789</v>
       </c>
     </row>
-    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -1800,302 +1837,971 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1">
+        <f>D39+E39</f>
+        <v>35405</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="J39">
+        <v>6.1240529132300298E-2</v>
+      </c>
+      <c r="T39">
+        <v>2.9336266960030999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" ref="B40:B44" si="4">D40+E40</f>
+        <v>35426</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="17"/>
+      <c r="D40" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E40">
+        <v>43</v>
+      </c>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
+      <c r="J40">
+        <v>0.26675173522191198</v>
+      </c>
+      <c r="T40">
+        <v>27.781444811147999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="4"/>
+        <v>35447</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="17"/>
+      <c r="D41" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E41">
+        <v>64</v>
+      </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
+      <c r="J41">
+        <v>1.03647498278024</v>
+      </c>
+      <c r="O41">
+        <v>13.2019764924468</v>
+      </c>
+      <c r="T41">
+        <v>171.523285661899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="4"/>
+        <v>35468</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="17"/>
+      <c r="D42" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E42">
+        <v>85</v>
+      </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
+      <c r="J42">
+        <v>1.90190035499196</v>
+      </c>
+      <c r="O42">
+        <v>135.990635419364</v>
+      </c>
+      <c r="T42">
+        <v>458.39090575724202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="4"/>
+        <v>35489</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E43">
+        <v>106</v>
+      </c>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="17"/>
+      <c r="J43">
+        <v>1.6482400522774201</v>
+      </c>
+      <c r="O43">
+        <v>344.916351444062</v>
+      </c>
+      <c r="T43">
+        <v>640.95636230289699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="4"/>
+        <v>35531</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E44">
+        <v>148</v>
+      </c>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
+      <c r="I44">
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <v>1.93499320040267</v>
+      </c>
+      <c r="O44">
+        <v>478</v>
+      </c>
+      <c r="T44">
+        <v>850.89842317565103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1">
+        <f>D45+E45</f>
+        <v>35405</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
+      <c r="J45">
+        <v>7.9806962081206301E-2</v>
+      </c>
+      <c r="T45">
+        <v>12.5735240190683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" ref="B46:B50" si="5">D46+E46</f>
+        <v>35426</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E46">
+        <v>43</v>
+      </c>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
+      <c r="J46">
+        <v>0.39135214849613997</v>
+      </c>
+      <c r="T46">
+        <v>49.748441510817599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="5"/>
+        <v>35447</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E47">
+        <v>64</v>
+      </c>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
+      <c r="J47">
+        <v>1.39005404355274</v>
+      </c>
+      <c r="O47">
+        <v>8.3883471301619394</v>
+      </c>
+      <c r="T47">
+        <v>234.68426842684201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="5"/>
+        <v>35468</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E48">
+        <v>85</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48">
+        <v>1.8825612405291301</v>
+      </c>
+      <c r="O48">
+        <v>118.457139958836</v>
+      </c>
+      <c r="T48">
+        <v>509.43601026769301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="5"/>
+        <v>35489</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E49">
+        <v>106</v>
+      </c>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="17"/>
+      <c r="J49">
+        <v>2.0975212377033201</v>
+      </c>
+      <c r="O49">
+        <v>290.72191092970399</v>
+      </c>
+      <c r="T49">
+        <v>660.44737807113995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="5"/>
+        <v>35531</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E50">
+        <v>148</v>
+      </c>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
+      <c r="I50">
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>1.7438097172427101</v>
+      </c>
+      <c r="O50">
+        <v>271</v>
+      </c>
+      <c r="T50">
+        <v>606.05207187385395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <f>D51+E51</f>
+        <v>35405</v>
+      </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
+      <c r="J51">
+        <v>0.15572843997809899</v>
+      </c>
+      <c r="T51">
+        <v>15.1023102310232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:B56" si="6">D52+E52</f>
+        <v>35426</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E52">
+        <v>43</v>
+      </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
+      <c r="J52">
+        <v>0.51551102947669503</v>
+      </c>
+      <c r="T52">
+        <v>69.133846718005003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="6"/>
+        <v>35447</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E53">
+        <v>64</v>
+      </c>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
+      <c r="J53">
+        <v>1.1990913265396199</v>
+      </c>
+      <c r="O53">
+        <v>6.7943929973866899</v>
+      </c>
+      <c r="T53">
+        <v>224.93876054272101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="6"/>
+        <v>35468</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="17"/>
+      <c r="D54" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E54">
+        <v>85</v>
+      </c>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
+      <c r="J54">
+        <v>2.0834142809205001</v>
+      </c>
+      <c r="O54">
+        <v>112.049556463776</v>
+      </c>
+      <c r="T54">
+        <v>487.52181884855099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="6"/>
+        <v>35489</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="17"/>
+      <c r="D55" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E55">
+        <v>106</v>
+      </c>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="17"/>
+      <c r="J55">
+        <v>1.7725093163313901</v>
+      </c>
+      <c r="O55">
+        <v>153.61008854707501</v>
+      </c>
+      <c r="T55">
+        <v>539.18298496516297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="6"/>
+        <v>35531</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E56">
+        <v>148</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="I56" s="17">
+        <v>19</v>
+      </c>
+      <c r="J56">
+        <v>2.96760477561328</v>
+      </c>
+      <c r="O56">
+        <v>248</v>
+      </c>
+      <c r="T56">
+        <v>720.04693802713598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="1">
+        <f>D57+E57</f>
+        <v>35405</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E57">
+        <v>22</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="J57">
+        <v>0.205180056869359</v>
+      </c>
+      <c r="O57"/>
+      <c r="T57">
+        <v>17.367070040337399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:B62" si="7">D58+E58</f>
+        <v>35426</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E58">
+        <v>43</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="J58">
+        <v>0.72603362709948605</v>
+      </c>
+      <c r="O58"/>
+      <c r="T58">
+        <v>102.952695269526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="7"/>
+        <v>35447</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="J59">
+        <v>1.7628618357146599</v>
+      </c>
+      <c r="O59">
+        <v>27.4204958315872</v>
+      </c>
+      <c r="T59">
+        <v>285.518151815181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="7"/>
+        <v>35468</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E60">
+        <v>85</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="J60">
+        <v>2.4757819536920902</v>
+      </c>
+      <c r="O60">
+        <v>163.151389604461</v>
+      </c>
+      <c r="T60">
+        <v>574.650531719838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="7"/>
+        <v>35489</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E61">
+        <v>106</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="J61">
+        <v>3.07255700181911</v>
+      </c>
+      <c r="O61">
+        <v>194.957595107353</v>
+      </c>
+      <c r="T61">
+        <v>589.964063072974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="7"/>
+        <v>35531</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E62">
+        <v>148</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="I62" s="4">
+        <v>18</v>
+      </c>
+      <c r="J62">
+        <v>2.9960615319404398</v>
+      </c>
+      <c r="O62" s="4">
+        <v>381</v>
+      </c>
+      <c r="T62">
+        <v>872.39017235056804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1">
+        <f>D63+E63</f>
+        <v>35405</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E63">
+        <v>22</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="J63">
+        <v>0.21385616644001201</v>
+      </c>
+      <c r="O63"/>
+      <c r="T63">
+        <v>27.1653832049873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" ref="B64:B68" si="8">D64+E64</f>
+        <v>35426</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E64">
+        <v>43</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="J64">
+        <v>0.93622507550202105</v>
+      </c>
+      <c r="O64"/>
+      <c r="T64">
+        <v>119.91492482581501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="8"/>
+        <v>35447</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="J65">
+        <v>2.4512327581639299</v>
+      </c>
+      <c r="O65">
+        <v>24.391422385832598</v>
+      </c>
+      <c r="T65">
+        <v>404.14814814814798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="8"/>
+        <v>35468</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E66">
+        <v>85</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="J66">
+        <v>3.0871275675102798</v>
+      </c>
+      <c r="O66">
+        <v>89.638897713045694</v>
+      </c>
+      <c r="T66">
+        <v>613.47414741474097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="8"/>
+        <v>35489</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E67">
+        <v>106</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67">
+        <v>2.6042678511506301</v>
+      </c>
+      <c r="O67">
+        <v>204.553086867964</v>
+      </c>
+      <c r="T67">
+        <v>672.457645764576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="8"/>
+        <v>35531</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E68">
+        <v>148</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="I68" s="4">
+        <v>16</v>
+      </c>
+      <c r="J68">
+        <v>3.70366118577912</v>
+      </c>
+      <c r="O68" s="4">
+        <v>307</v>
+      </c>
+      <c r="T68">
+        <v>896.99156582324895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="1">
+        <f>D69+E69</f>
+        <v>35405</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E69">
+        <v>22</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="J69">
+        <v>0.27198389290192698</v>
+      </c>
+      <c r="O69"/>
+      <c r="T69">
+        <v>44.180418041804103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" ref="B70:B74" si="9">D70+E70</f>
+        <v>35426</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E70">
+        <v>43</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="J70">
+        <v>1.1547614842549501</v>
+      </c>
+      <c r="O70"/>
+      <c r="T70">
+        <v>156.42097543087601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="9"/>
+        <v>35447</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E71">
+        <v>64</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="J71">
+        <v>2.45145352431076</v>
+      </c>
+      <c r="O71">
+        <v>16.421651721956401</v>
+      </c>
+      <c r="T71">
+        <v>406.94096076274201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="9"/>
+        <v>35468</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E72">
+        <v>85</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="J72">
+        <v>2.9339600148354799</v>
+      </c>
+      <c r="O72">
+        <v>151.80310889127901</v>
+      </c>
+      <c r="T72">
+        <v>698.39090575724197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="9"/>
+        <v>35489</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E73">
+        <v>106</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="J73">
+        <v>2.99597322548171</v>
+      </c>
+      <c r="O73">
+        <v>145.60855091923901</v>
+      </c>
+      <c r="T73">
+        <v>614.30143014301404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="9"/>
+        <v>35531</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="1">
+        <v>35383</v>
+      </c>
+      <c r="E74">
+        <v>148</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="5">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>3.5699431306405698</v>
+      </c>
+      <c r="O74" s="4">
+        <v>323</v>
+      </c>
+      <c r="T74">
+        <v>925.964063072974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A75"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2103,7 +2809,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A76"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2111,7 +2817,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A77"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2119,7 +2825,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A78"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2127,7 +2833,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A79"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2135,7 +2841,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A80"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2460,101 +3166,101 @@
       <c r="D128" s="3"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="F129" s="6"/>
-      <c r="S129" s="7"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V129" s="7"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="F130" s="6"/>
-      <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V130" s="7"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="F131" s="6"/>
-      <c r="S131" s="7"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V131" s="7"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="F132" s="6"/>
       <c r="G132" s="3"/>
-      <c r="S132" s="7"/>
       <c r="T132" s="7"/>
       <c r="U132" s="7"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V132" s="7"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="F133" s="6"/>
       <c r="G133" s="3"/>
-      <c r="S133" s="7"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V133" s="7"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="F134" s="6"/>
       <c r="G134" s="3"/>
-      <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V134" s="7"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="F138" s="6"/>
       <c r="G138" s="3"/>
-      <c r="S138" s="6"/>
       <c r="T138" s="6"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="U138" s="6"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2562,7 +3268,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2570,7 +3276,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2578,7 +3284,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2586,7 +3292,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2594,7 +3300,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2896,268 +3602,268 @@
       <c r="D192" s="8"/>
       <c r="E192" s="18"/>
     </row>
-    <row r="193" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="18"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="18"/>
     </row>
-    <row r="195" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="18"/>
     </row>
-    <row r="196" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="18"/>
     </row>
-    <row r="197" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="18"/>
     </row>
-    <row r="198" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="18"/>
     </row>
-    <row r="199" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="18"/>
     </row>
-    <row r="200" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="18"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="CP201" s="5"/>
-    </row>
-    <row r="202" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ201" s="5"/>
+    </row>
+    <row r="202" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="CP202" s="5"/>
-    </row>
-    <row r="203" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ202" s="5"/>
+    </row>
+    <row r="203" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="CP203" s="5"/>
-    </row>
-    <row r="204" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ203" s="5"/>
+    </row>
+    <row r="204" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="CP204" s="5"/>
-    </row>
-    <row r="205" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ204" s="5"/>
+    </row>
+    <row r="205" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="CP205" s="5"/>
-    </row>
-    <row r="206" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ205" s="5"/>
+    </row>
+    <row r="206" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="CP206" s="5"/>
-    </row>
-    <row r="207" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ206" s="5"/>
+    </row>
+    <row r="207" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="CP207" s="5"/>
-    </row>
-    <row r="208" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ207" s="5"/>
+    </row>
+    <row r="208" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="CP208" s="5"/>
-    </row>
-    <row r="209" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ208" s="5"/>
+    </row>
+    <row r="209" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="CP209" s="5"/>
-    </row>
-    <row r="210" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ209" s="5"/>
+    </row>
+    <row r="210" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="CP210" s="5"/>
-    </row>
-    <row r="211" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ210" s="5"/>
+    </row>
+    <row r="211" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="CP211" s="5"/>
-    </row>
-    <row r="212" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ211" s="5"/>
+    </row>
+    <row r="212" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="CP212" s="5"/>
-    </row>
-    <row r="213" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ212" s="5"/>
+    </row>
+    <row r="213" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="CP213" s="5"/>
-    </row>
-    <row r="214" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ213" s="5"/>
+    </row>
+    <row r="214" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="CP214" s="5"/>
-    </row>
-    <row r="215" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ214" s="5"/>
+    </row>
+    <row r="215" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="CP215" s="5"/>
-    </row>
-    <row r="216" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ215" s="5"/>
+    </row>
+    <row r="216" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="CP216" s="5"/>
-    </row>
-    <row r="217" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ216" s="5"/>
+    </row>
+    <row r="217" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="CP217" s="5"/>
-    </row>
-    <row r="218" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ217" s="5"/>
+    </row>
+    <row r="218" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="CP218" s="5"/>
-    </row>
-    <row r="219" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ218" s="5"/>
+    </row>
+    <row r="219" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="CP219" s="5"/>
-    </row>
-    <row r="220" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ219" s="5"/>
+    </row>
+    <row r="220" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="CP220" s="5"/>
-    </row>
-    <row r="221" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ220" s="5"/>
+    </row>
+    <row r="221" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="CP221" s="5"/>
-    </row>
-    <row r="222" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ221" s="5"/>
+    </row>
+    <row r="222" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="CP222" s="5"/>
-    </row>
-    <row r="223" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ222" s="5"/>
+    </row>
+    <row r="223" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="CP223" s="5"/>
-    </row>
-    <row r="224" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ223" s="5"/>
+    </row>
+    <row r="224" spans="2:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="CP224" s="5"/>
-    </row>
-    <row r="225" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ224" s="5"/>
+    </row>
+    <row r="225" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="CP225" s="5"/>
-    </row>
-    <row r="226" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ225" s="5"/>
+    </row>
+    <row r="226" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="CP226" s="5"/>
-    </row>
-    <row r="227" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ226" s="5"/>
+    </row>
+    <row r="227" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="CP227" s="5"/>
-    </row>
-    <row r="228" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ227" s="5"/>
+    </row>
+    <row r="228" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="CP228" s="5"/>
-    </row>
-    <row r="229" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ228" s="5"/>
+    </row>
+    <row r="229" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="CP229" s="5"/>
-    </row>
-    <row r="230" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ229" s="5"/>
+    </row>
+    <row r="230" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="CP230" s="5"/>
-    </row>
-    <row r="231" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ230" s="5"/>
+    </row>
+    <row r="231" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="CP231" s="5"/>
-    </row>
-    <row r="232" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="CQ231" s="5"/>
+    </row>
+    <row r="232" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:94" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:95" x14ac:dyDescent="0.55000000000000004">
       <c r="G240" s="3"/>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.55000000000000004">
@@ -3400,206 +4106,206 @@
     <row r="320" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="19"/>
-      <c r="CQ332" s="10"/>
       <c r="CR332" s="10"/>
-    </row>
-    <row r="333" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS332" s="10"/>
+    </row>
+    <row r="333" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="19"/>
-      <c r="CQ333" s="10"/>
       <c r="CR333" s="10"/>
-    </row>
-    <row r="334" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS333" s="10"/>
+    </row>
+    <row r="334" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="19"/>
-      <c r="CQ334" s="10"/>
       <c r="CR334" s="10"/>
-    </row>
-    <row r="335" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS334" s="10"/>
+    </row>
+    <row r="335" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
       <c r="E335" s="19"/>
-      <c r="CQ335" s="10"/>
       <c r="CR335" s="10"/>
-    </row>
-    <row r="336" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS335" s="10"/>
+    </row>
+    <row r="336" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="19"/>
-      <c r="CQ336" s="10"/>
       <c r="CR336" s="10"/>
-    </row>
-    <row r="337" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS336" s="10"/>
+    </row>
+    <row r="337" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
       <c r="E337" s="19"/>
-      <c r="CQ337" s="10"/>
       <c r="CR337" s="10"/>
-    </row>
-    <row r="338" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS337" s="10"/>
+    </row>
+    <row r="338" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
       <c r="E338" s="19"/>
-      <c r="CQ338" s="10"/>
       <c r="CR338" s="10"/>
-    </row>
-    <row r="339" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS338" s="10"/>
+    </row>
+    <row r="339" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
       <c r="E339" s="19"/>
-      <c r="CQ339" s="10"/>
       <c r="CR339" s="10"/>
-    </row>
-    <row r="340" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS339" s="10"/>
+    </row>
+    <row r="340" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
       <c r="E340" s="19"/>
-      <c r="CQ340" s="10"/>
       <c r="CR340" s="10"/>
-    </row>
-    <row r="341" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS340" s="10"/>
+    </row>
+    <row r="341" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="19"/>
-      <c r="CQ341" s="10"/>
       <c r="CR341" s="10"/>
-    </row>
-    <row r="342" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS341" s="10"/>
+    </row>
+    <row r="342" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="19"/>
-      <c r="CQ342" s="10"/>
       <c r="CR342" s="10"/>
-    </row>
-    <row r="343" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS342" s="10"/>
+    </row>
+    <row r="343" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
       <c r="E343" s="19"/>
-      <c r="CQ343" s="10"/>
       <c r="CR343" s="10"/>
-    </row>
-    <row r="344" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS343" s="10"/>
+    </row>
+    <row r="344" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
       <c r="E344" s="19"/>
-      <c r="CQ344" s="10"/>
       <c r="CR344" s="10"/>
-    </row>
-    <row r="345" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS344" s="10"/>
+    </row>
+    <row r="345" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
       <c r="E345" s="19"/>
-      <c r="CQ345" s="10"/>
       <c r="CR345" s="10"/>
-    </row>
-    <row r="346" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS345" s="10"/>
+    </row>
+    <row r="346" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
       <c r="E346" s="19"/>
-      <c r="CQ346" s="10"/>
       <c r="CR346" s="10"/>
-    </row>
-    <row r="347" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS346" s="10"/>
+    </row>
+    <row r="347" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
       <c r="E347" s="19"/>
-      <c r="CQ347" s="10"/>
       <c r="CR347" s="10"/>
-    </row>
-    <row r="348" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS347" s="10"/>
+    </row>
+    <row r="348" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
       <c r="E348" s="19"/>
-      <c r="CQ348" s="10"/>
       <c r="CR348" s="10"/>
-    </row>
-    <row r="349" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS348" s="10"/>
+    </row>
+    <row r="349" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
       <c r="E349" s="19"/>
-      <c r="CQ349" s="10"/>
       <c r="CR349" s="10"/>
-    </row>
-    <row r="350" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS349" s="10"/>
+    </row>
+    <row r="350" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
       <c r="E350" s="19"/>
-      <c r="CQ350" s="10"/>
       <c r="CR350" s="10"/>
-    </row>
-    <row r="351" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS350" s="10"/>
+    </row>
+    <row r="351" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
       <c r="E351" s="19"/>
-      <c r="CQ351" s="10"/>
       <c r="CR351" s="10"/>
-    </row>
-    <row r="352" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS351" s="10"/>
+    </row>
+    <row r="352" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
       <c r="E352" s="19"/>
-      <c r="CQ352" s="10"/>
       <c r="CR352" s="10"/>
+      <c r="CS352" s="10"/>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
@@ -3735,6 +4441,629 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D2364-7B77-4803-95A3-4A9773488307}">
+  <dimension ref="B1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I2:I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
+        <v>21.871898300941201</v>
+      </c>
+      <c r="C2">
+        <v>2.9336266960030999</v>
+      </c>
+      <c r="E2">
+        <v>21.837524946574501</v>
+      </c>
+      <c r="F2">
+        <v>6.1240529132300298E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>43.262926292629203</v>
+      </c>
+      <c r="C3">
+        <v>27.781444811147999</v>
+      </c>
+      <c r="E3">
+        <v>42.886914748944697</v>
+      </c>
+      <c r="F3">
+        <v>0.26675173522191198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>64.313409118689606</v>
+      </c>
+      <c r="C4">
+        <v>171.523285661899</v>
+      </c>
+      <c r="E4">
+        <v>63.704191024531497</v>
+      </c>
+      <c r="F4">
+        <v>1.03647498278024</v>
+      </c>
+      <c r="I4">
+        <v>13.2019764924468</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>85.057572423908994</v>
+      </c>
+      <c r="C5">
+        <v>458.39090575724202</v>
+      </c>
+      <c r="E5">
+        <v>84.375275957683499</v>
+      </c>
+      <c r="F5">
+        <v>1.90190035499196</v>
+      </c>
+      <c r="I5">
+        <v>135.990635419364</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>105.993399339934</v>
+      </c>
+      <c r="C6">
+        <v>640.95636230289699</v>
+      </c>
+      <c r="E6">
+        <v>105.835423252856</v>
+      </c>
+      <c r="F6">
+        <v>1.6482400522774201</v>
+      </c>
+      <c r="I6">
+        <v>344.916351444062</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>147.98484292873701</v>
+      </c>
+      <c r="C7">
+        <v>850.89842317565103</v>
+      </c>
+      <c r="E7">
+        <v>147.914113138234</v>
+      </c>
+      <c r="F7">
+        <v>1.93499320040267</v>
+      </c>
+      <c r="I7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>22.055005500549999</v>
+      </c>
+      <c r="C8">
+        <v>12.5735240190683</v>
+      </c>
+      <c r="E8">
+        <v>22.648840536196801</v>
+      </c>
+      <c r="F8">
+        <v>7.9806962081206301E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>42.785478547854702</v>
+      </c>
+      <c r="C9">
+        <v>49.748441510817599</v>
+      </c>
+      <c r="E9">
+        <v>42.422069550166803</v>
+      </c>
+      <c r="F9">
+        <v>0.39135214849613997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>63.894144970052501</v>
+      </c>
+      <c r="C10">
+        <v>234.68426842684201</v>
+      </c>
+      <c r="E10">
+        <v>63.923014429275298</v>
+      </c>
+      <c r="F10">
+        <v>1.39005404355274</v>
+      </c>
+      <c r="I10">
+        <v>8.3883471301619394</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>84.621195452878595</v>
+      </c>
+      <c r="C11">
+        <v>509.43601026769301</v>
+      </c>
+      <c r="E11">
+        <v>84.695475177054405</v>
+      </c>
+      <c r="F11">
+        <v>1.8825612405291301</v>
+      </c>
+      <c r="I11">
+        <v>118.457139958836</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>105.681945972375</v>
+      </c>
+      <c r="C12">
+        <v>660.44737807113995</v>
+      </c>
+      <c r="E12">
+        <v>105.908055315165</v>
+      </c>
+      <c r="F12">
+        <v>2.0975212377033201</v>
+      </c>
+      <c r="I12">
+        <v>290.72191092970399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>147.97799779977899</v>
+      </c>
+      <c r="C13">
+        <v>606.05207187385395</v>
+      </c>
+      <c r="E13">
+        <v>147.883205877677</v>
+      </c>
+      <c r="F13">
+        <v>1.7438097172427101</v>
+      </c>
+      <c r="I13">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>21.7195941816403</v>
+      </c>
+      <c r="C14">
+        <v>15.1023102310232</v>
+      </c>
+      <c r="E14">
+        <v>23.469428303986099</v>
+      </c>
+      <c r="F14">
+        <v>0.15572843997809899</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>42.812859063684101</v>
+      </c>
+      <c r="C15">
+        <v>69.133846718005003</v>
+      </c>
+      <c r="E15">
+        <v>42.603804242242198</v>
+      </c>
+      <c r="F15">
+        <v>0.51551102947669503</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>64.049871653832</v>
+      </c>
+      <c r="C16">
+        <v>224.93876054272101</v>
+      </c>
+      <c r="E16">
+        <v>63.568817223291703</v>
+      </c>
+      <c r="F16">
+        <v>1.1990913265396199</v>
+      </c>
+      <c r="I16">
+        <v>6.7943929973866899</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>84.929226255958895</v>
+      </c>
+      <c r="C17">
+        <v>487.52181884855099</v>
+      </c>
+      <c r="E17">
+        <v>84.566282827926003</v>
+      </c>
+      <c r="F17">
+        <v>2.0834142809205001</v>
+      </c>
+      <c r="I17">
+        <v>112.049556463776</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>105.849651631829</v>
+      </c>
+      <c r="C18">
+        <v>539.18298496516297</v>
+      </c>
+      <c r="E18">
+        <v>105.85551297221799</v>
+      </c>
+      <c r="F18">
+        <v>1.7725093163313901</v>
+      </c>
+      <c r="I18">
+        <v>153.61008854707501</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>147.80002444688901</v>
+      </c>
+      <c r="C19">
+        <v>720.04693802713598</v>
+      </c>
+      <c r="E19">
+        <v>147.757722399816</v>
+      </c>
+      <c r="F19">
+        <v>2.96760477561328</v>
+      </c>
+      <c r="I19">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>22.231267571201499</v>
+      </c>
+      <c r="C20">
+        <v>17.367070040337399</v>
+      </c>
+      <c r="E20">
+        <v>21.0524805284258</v>
+      </c>
+      <c r="F20">
+        <v>0.205180056869359</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>43.199608849773803</v>
+      </c>
+      <c r="C21">
+        <v>102.952695269526</v>
+      </c>
+      <c r="E21">
+        <v>42.3145122834284</v>
+      </c>
+      <c r="F21">
+        <v>0.72603362709948605</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>64.135435765798803</v>
+      </c>
+      <c r="C22">
+        <v>285.518151815181</v>
+      </c>
+      <c r="E22">
+        <v>63.983283587361498</v>
+      </c>
+      <c r="F22">
+        <v>1.7628618357146599</v>
+      </c>
+      <c r="I22">
+        <v>27.4204958315872</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>85.391272460579302</v>
+      </c>
+      <c r="C23">
+        <v>574.650531719838</v>
+      </c>
+      <c r="E23">
+        <v>83.983062821214702</v>
+      </c>
+      <c r="F23">
+        <v>2.4757819536920902</v>
+      </c>
+      <c r="I23">
+        <v>163.151389604461</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>106.26035936927001</v>
+      </c>
+      <c r="C24">
+        <v>589.964063072974</v>
+      </c>
+      <c r="E24">
+        <v>106.06568234400601</v>
+      </c>
+      <c r="F24">
+        <v>3.07255700181911</v>
+      </c>
+      <c r="I24">
+        <v>194.957595107353</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>149.03214765921001</v>
+      </c>
+      <c r="C25">
+        <v>872.39017235056804</v>
+      </c>
+      <c r="E25">
+        <v>148.085648434326</v>
+      </c>
+      <c r="F25">
+        <v>2.9960615319404398</v>
+      </c>
+      <c r="I25" s="4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>21.906123945727899</v>
+      </c>
+      <c r="C26">
+        <v>27.1653832049873</v>
+      </c>
+      <c r="E26">
+        <v>22.347185673160102</v>
+      </c>
+      <c r="F26">
+        <v>0.21385616644001201</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>43.223566801124498</v>
+      </c>
+      <c r="C27">
+        <v>119.91492482581501</v>
+      </c>
+      <c r="E27">
+        <v>42.510155242754401</v>
+      </c>
+      <c r="F27">
+        <v>0.93622507550202105</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>64.641975308641904</v>
+      </c>
+      <c r="C28">
+        <v>404.14814814814798</v>
+      </c>
+      <c r="E28">
+        <v>63.932904752653599</v>
+      </c>
+      <c r="F28">
+        <v>2.4512327581639299</v>
+      </c>
+      <c r="I28">
+        <v>24.391422385832598</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>85.276616550543906</v>
+      </c>
+      <c r="C29">
+        <v>613.47414741474097</v>
+      </c>
+      <c r="E29">
+        <v>84.728545945850399</v>
+      </c>
+      <c r="F29">
+        <v>3.0871275675102798</v>
+      </c>
+      <c r="I29">
+        <v>89.638897713045694</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>106.037892678156</v>
+      </c>
+      <c r="C30">
+        <v>672.457645764576</v>
+      </c>
+      <c r="E30">
+        <v>105.828314582928</v>
+      </c>
+      <c r="F30">
+        <v>2.6042678511506301</v>
+      </c>
+      <c r="I30">
+        <v>204.553086867964</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <v>147.88045471213701</v>
+      </c>
+      <c r="C31">
+        <v>896.99156582324895</v>
+      </c>
+      <c r="E31">
+        <v>147.87671535295999</v>
+      </c>
+      <c r="F31">
+        <v>3.70366118577912</v>
+      </c>
+      <c r="I31" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>21.760664955384399</v>
+      </c>
+      <c r="C32">
+        <v>44.180418041804103</v>
+      </c>
+      <c r="E32">
+        <v>21.2249430423341</v>
+      </c>
+      <c r="F32">
+        <v>0.27198389290192698</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>42.766654443222102</v>
+      </c>
+      <c r="C33">
+        <v>156.42097543087601</v>
+      </c>
+      <c r="E33">
+        <v>44.485438264954603</v>
+      </c>
+      <c r="F33">
+        <v>1.1547614842549501</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>63.459479281261402</v>
+      </c>
+      <c r="C34">
+        <v>406.94096076274201</v>
+      </c>
+      <c r="E34">
+        <v>63.609614807226997</v>
+      </c>
+      <c r="F34">
+        <v>2.45145352431076</v>
+      </c>
+      <c r="I34">
+        <v>16.421651721956401</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>85.057572423908994</v>
+      </c>
+      <c r="C35">
+        <v>698.39090575724197</v>
+      </c>
+      <c r="E35">
+        <v>85.027110082831399</v>
+      </c>
+      <c r="F35">
+        <v>2.9339600148354799</v>
+      </c>
+      <c r="I35">
+        <v>151.80310889127901</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>105.95575113066801</v>
+      </c>
+      <c r="C36">
+        <v>614.30143014301404</v>
+      </c>
+      <c r="E36">
+        <v>106.214964412497</v>
+      </c>
+      <c r="F36">
+        <v>2.99597322548171</v>
+      </c>
+      <c r="I36">
+        <v>145.60855091923901</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>148.26035936926999</v>
+      </c>
+      <c r="C37">
+        <v>925.964063072974</v>
+      </c>
+      <c r="E37">
+        <v>147.69343529785701</v>
+      </c>
+      <c r="F37">
+        <v>3.5699431306405698</v>
+      </c>
+      <c r="I37" s="4">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887047BC-ACA2-4473-901E-35E64BB4B438}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -4514,7 +5843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
   <dimension ref="A1:N18"/>
   <sheetViews>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F697DA68-10AE-43F2-BA3A-DB673B95161F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD3316-3332-4735-87CD-73F28FD9C0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
-    <sheet name="Loxton" sheetId="17" r:id="rId2"/>
-    <sheet name="Bundy" sheetId="16" r:id="rId3"/>
-    <sheet name="Rainout" sheetId="15" r:id="rId4"/>
+    <sheet name="Roseworthy" sheetId="18" r:id="rId2"/>
+    <sheet name="Loxton" sheetId="17" r:id="rId3"/>
+    <sheet name="Bundy" sheetId="16" r:id="rId4"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CS$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CT$373</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>SimulationName</t>
   </si>
@@ -206,6 +207,57 @@
   <si>
     <t>Peanut.Leaf.NodeNumber</t>
   </si>
+  <si>
+    <t>Roseworthy9798Pop27.3SR1</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop8.8SR1</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop39.4SR1</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop58.8SR1</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop8.8SR2.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop27.3SR2.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop39.4SR2.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop58.8SR2.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop8.8SR4.6</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop27.3SR4.6</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop39.4SR4.6</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop58.8SR4.6</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop8.8SR7.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop27.3SR7.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop39.4SR7.2</t>
+  </si>
+  <si>
+    <t>Roseworthy9798Pop58.8SR7.2</t>
+  </si>
+  <si>
+    <t>Peanut.Leaf.CoverGreen</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -316,6 +368,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,13 +775,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CS373"/>
+  <dimension ref="A1:CT373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39:O74"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -740,84 +793,85 @@
     <col min="7" max="7" width="32" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32" style="4" customWidth="1"/>
     <col min="10" max="10" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.68359375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.15625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.15625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.41796875" customWidth="1"/>
-    <col min="26" max="26" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" customWidth="1"/>
-    <col min="29" max="30" width="21.83984375" customWidth="1"/>
-    <col min="31" max="31" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.68359375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.68359375" customWidth="1"/>
-    <col min="34" max="34" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.68359375" customWidth="1"/>
-    <col min="41" max="41" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="20.68359375" customWidth="1"/>
-    <col min="48" max="48" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="90" max="16384" width="9.15625" style="4"/>
+    <col min="11" max="11" width="28.83984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.68359375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.15625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.15625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.41796875" customWidth="1"/>
+    <col min="27" max="27" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="31" width="21.83984375" customWidth="1"/>
+    <col min="32" max="32" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.68359375" customWidth="1"/>
+    <col min="35" max="35" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.68359375" customWidth="1"/>
+    <col min="42" max="42" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="20.68359375" customWidth="1"/>
+    <col min="49" max="49" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:98" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -849,42 +903,44 @@
         <v>6</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
@@ -892,8 +948,9 @@
       <c r="CQ1" s="4"/>
       <c r="CR1" s="4"/>
       <c r="CS1" s="4"/>
-    </row>
-    <row r="2" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT1" s="4"/>
+    </row>
+    <row r="2" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -906,17 +963,17 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="O2" s="13">
+      <c r="P2" s="13">
         <v>622.70000000000005</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="4"/>
-      <c r="T2" s="13">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="4"/>
+      <c r="U2" s="13">
         <v>1055.4000000000001</v>
       </c>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -929,17 +986,17 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="O3" s="13">
+      <c r="P3" s="13">
         <v>588.70000000000005</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="4"/>
-      <c r="T3" s="14">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="4"/>
+      <c r="U3" s="14">
         <v>1032.8</v>
       </c>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V3" s="14"/>
+    </row>
+    <row r="4" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -952,17 +1009,17 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="O4" s="13">
+      <c r="P4" s="13">
         <v>669</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="4"/>
-      <c r="T4" s="13">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="4"/>
+      <c r="U4" s="13">
         <v>1194.5999999999999</v>
       </c>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -975,17 +1032,17 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="O5" s="15">
+      <c r="P5" s="15">
         <v>722.6</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="4"/>
-      <c r="T5" s="13">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="4"/>
+      <c r="U5" s="13">
         <v>1290.3</v>
       </c>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -998,16 +1055,16 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="O6" s="13">
+      <c r="P6" s="13">
         <v>355.6</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="T6" s="13">
+      <c r="Q6" s="13"/>
+      <c r="U6" s="13">
         <v>945.7</v>
       </c>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1020,16 +1077,16 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>461.2</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="T7" s="16">
+      <c r="Q7" s="13"/>
+      <c r="U7" s="16">
         <v>1011.4</v>
       </c>
-      <c r="U7" s="16"/>
-    </row>
-    <row r="8" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1042,16 +1099,16 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="O8" s="15">
+      <c r="P8" s="15">
         <v>563.9</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="T8" s="13">
+      <c r="Q8" s="15"/>
+      <c r="U8" s="13">
         <v>1139.2</v>
       </c>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1067,16 +1124,16 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="O9" s="15">
+      <c r="P9" s="15">
         <v>392.9</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="T9" s="15">
+      <c r="Q9" s="15"/>
+      <c r="U9" s="15">
         <v>810.1</v>
       </c>
-      <c r="U9" s="15"/>
-    </row>
-    <row r="10" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1089,16 +1146,16 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="O10" s="15">
+      <c r="P10" s="15">
         <v>385.2</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="T10" s="13">
+      <c r="Q10" s="15"/>
+      <c r="U10" s="13">
         <v>667.6</v>
       </c>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1116,11 +1173,11 @@
       <c r="J11">
         <v>0.65</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="12" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1138,11 +1195,11 @@
       <c r="J12">
         <v>1.55</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="13" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1160,11 +1217,11 @@
       <c r="J13">
         <v>1.64</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>292.38382448900381</v>
       </c>
     </row>
-    <row r="14" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1184,11 +1241,11 @@
       <c r="J14">
         <v>1.3</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>298.91892845175676</v>
       </c>
     </row>
-    <row r="15" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1204,17 +1261,17 @@
         <v>28</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="O15">
+      <c r="P15">
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>59.296189630416698</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2.4734753777584499</v>
       </c>
     </row>
-    <row r="16" spans="1:97" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1230,20 +1287,20 @@
         <v>42</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="O16">
+      <c r="P16">
         <v>4.9439358603006394</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>4.767776490674E-2</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>220.41431855718901</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>5.2430744977531898</v>
       </c>
     </row>
-    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1259,20 +1316,20 @@
         <v>55</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="O17">
+      <c r="P17">
         <v>29.7172309045791</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.88705616793873998</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>458.681268518595</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>11.007805458869541</v>
       </c>
     </row>
-    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1291,20 +1348,20 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="O18">
+      <c r="P18">
         <v>231.93041572949701</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>7.2106035349152506</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>884.24352834745696</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>21.509959196103651</v>
       </c>
     </row>
-    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1320,20 +1377,20 @@
         <v>90</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="O19">
+      <c r="P19">
         <v>381.09646683874598</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>13.138243823585199</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1003.75866276029</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>25.699515305663198</v>
       </c>
     </row>
-    <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1351,20 +1408,20 @@
         <v>106</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="O20">
+      <c r="P20">
         <v>518.33865894245798</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>19.886690890670998</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1131.1101612622099</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>31.930050346738302</v>
       </c>
     </row>
-    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1380,18 +1437,18 @@
         <v>28</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>0</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="T21">
+      <c r="Q21" s="4"/>
+      <c r="U21">
         <v>63.242590486940699</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2.7319273834112296</v>
       </c>
     </row>
-    <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1407,20 +1464,20 @@
         <v>42</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="O22">
+      <c r="P22">
         <v>10.860009793588</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.10893234096311599</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>232.26763053275499</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6.8552338164199274</v>
       </c>
     </row>
-    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1436,20 +1493,20 @@
         <v>55</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="O23">
+      <c r="P23">
         <v>63.314548457510199</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2.02296756499311</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>466.58817963763698</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>12.565467243811909</v>
       </c>
     </row>
-    <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1465,20 +1522,20 @@
         <v>75</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="O24">
+      <c r="P24">
         <v>356.457211151411</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11.4835075295551</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>892.15043946649894</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>24.0564601232164</v>
       </c>
     </row>
-    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1494,20 +1551,20 @@
         <v>90</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="O25">
+      <c r="P25">
         <v>570.86233369575098</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>19.362235476696902</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1104.58588893407</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>29.815629620329098</v>
       </c>
     </row>
-    <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1525,20 +1582,20 @@
         <v>106</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="O26">
+      <c r="P26">
         <v>591.48464149659299</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>23.8488493766069</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1044.1411936557399</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>32.709654404821421</v>
       </c>
     </row>
-    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1554,18 +1611,18 @@
         <v>28</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>0</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="T27">
+      <c r="Q27" s="4"/>
+      <c r="U27">
         <v>31.6431648227613</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.6430491456581202</v>
       </c>
     </row>
-    <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1584,20 +1641,20 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="O28">
+      <c r="P28">
         <v>4.9368811573035698</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.48111405530418605</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>188.77961937802402</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>4.9005618213657058</v>
       </c>
     </row>
-    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1613,20 +1670,20 @@
         <v>55</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="O29">
+      <c r="P29">
         <v>71.235568982546098</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2.28172160625128</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>397.38154323703003</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1642,20 +1699,20 @@
         <v>75</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="O30">
+      <c r="P30">
         <v>307.02490725140501</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>11.8276047699964</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>822.95791247188492</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>21.709765874464271</v>
       </c>
     </row>
-    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1673,20 +1730,20 @@
         <v>90</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="O31">
+      <c r="P31">
         <v>444.35881049407794</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>19.253893431870701</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1007.71211831981</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>29.509983520714297</v>
       </c>
     </row>
-    <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1702,9 +1759,9 @@
         <v>106</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1720,12 +1777,12 @@
         <v>28</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="P33" s="4"/>
-      <c r="U33">
+      <c r="Q33" s="4"/>
+      <c r="V33">
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="34" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1741,14 +1798,14 @@
         <v>42</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="P34">
+      <c r="Q34">
         <v>0.62716694180183996</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>6.5791824770872909</v>
       </c>
     </row>
-    <row r="35" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1764,14 +1821,14 @@
         <v>55</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="P35">
+      <c r="Q35">
         <v>1.7497512683798899</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="36" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1787,14 +1844,14 @@
         <v>75</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="P36">
+      <c r="Q36">
         <v>12.7087579765657</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1812,14 +1869,14 @@
         <v>90</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="P37">
+      <c r="Q37">
         <v>16.912347582510201</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>25.33334690061789</v>
       </c>
     </row>
-    <row r="38" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -1839,7 +1896,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1854,15 +1911,23 @@
       <c r="E39">
         <v>22</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="17">
+        <v>13</v>
+      </c>
+      <c r="G39" s="17">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <v>161</v>
+      </c>
       <c r="J39">
         <v>6.1240529132300298E-2</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>2.9336266960030999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -1877,15 +1942,23 @@
       <c r="E40">
         <v>43</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="17">
+        <v>13</v>
+      </c>
+      <c r="G40" s="17">
+        <v>41</v>
+      </c>
+      <c r="H40">
+        <v>161</v>
+      </c>
       <c r="J40">
         <v>0.26675173522191198</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>27.781444811147999</v>
       </c>
     </row>
-    <row r="41" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -1900,18 +1973,26 @@
       <c r="E41">
         <v>64</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="17">
+        <v>13</v>
+      </c>
+      <c r="G41" s="17">
+        <v>41</v>
+      </c>
+      <c r="H41">
+        <v>161</v>
+      </c>
       <c r="J41">
         <v>1.03647498278024</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>13.2019764924468</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>171.523285661899</v>
       </c>
     </row>
-    <row r="42" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1926,18 +2007,26 @@
       <c r="E42">
         <v>85</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="17">
+        <v>13</v>
+      </c>
+      <c r="G42" s="17">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <v>161</v>
+      </c>
       <c r="J42">
         <v>1.90190035499196</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>135.990635419364</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>458.39090575724202</v>
       </c>
     </row>
-    <row r="43" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -1952,18 +2041,26 @@
       <c r="E43">
         <v>106</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="17">
+        <v>13</v>
+      </c>
+      <c r="G43" s="17">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>161</v>
+      </c>
       <c r="J43">
         <v>1.6482400522774201</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>344.916351444062</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>640.95636230289699</v>
       </c>
     </row>
-    <row r="44" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -1980,21 +2077,29 @@
       <c r="E44">
         <v>148</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="17">
+        <v>13</v>
+      </c>
+      <c r="G44" s="17">
+        <v>41</v>
+      </c>
+      <c r="H44">
+        <v>161</v>
+      </c>
       <c r="I44">
         <v>24</v>
       </c>
       <c r="J44">
         <v>1.93499320040267</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>478</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>850.89842317565103</v>
       </c>
     </row>
-    <row r="45" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2009,15 +2114,23 @@
       <c r="E45">
         <v>22</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="17">
+        <v>13</v>
+      </c>
+      <c r="G45" s="17">
+        <v>41</v>
+      </c>
+      <c r="H45">
+        <v>161</v>
+      </c>
       <c r="J45">
         <v>7.9806962081206301E-2</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>12.5735240190683</v>
       </c>
     </row>
-    <row r="46" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2032,15 +2145,23 @@
       <c r="E46">
         <v>43</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="17">
+        <v>13</v>
+      </c>
+      <c r="G46" s="17">
+        <v>41</v>
+      </c>
+      <c r="H46">
+        <v>161</v>
+      </c>
       <c r="J46">
         <v>0.39135214849613997</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>49.748441510817599</v>
       </c>
     </row>
-    <row r="47" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2055,18 +2176,26 @@
       <c r="E47">
         <v>64</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="17">
+        <v>13</v>
+      </c>
+      <c r="G47" s="17">
+        <v>41</v>
+      </c>
+      <c r="H47">
+        <v>161</v>
+      </c>
       <c r="J47">
         <v>1.39005404355274</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>8.3883471301619394</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>234.68426842684201</v>
       </c>
     </row>
-    <row r="48" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2081,21 +2210,27 @@
       <c r="E48">
         <v>85</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="F48" s="17">
+        <v>13</v>
+      </c>
+      <c r="G48" s="17">
+        <v>41</v>
+      </c>
+      <c r="H48">
+        <v>161</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48">
         <v>1.8825612405291301</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>118.457139958836</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>509.43601026769301</v>
       </c>
     </row>
-    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2110,18 +2245,26 @@
       <c r="E49">
         <v>106</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="17">
+        <v>13</v>
+      </c>
+      <c r="G49" s="17">
+        <v>41</v>
+      </c>
+      <c r="H49">
+        <v>161</v>
+      </c>
       <c r="J49">
         <v>2.0975212377033201</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>290.72191092970399</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>660.44737807113995</v>
       </c>
     </row>
-    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2138,21 +2281,29 @@
       <c r="E50">
         <v>148</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="17">
+        <v>13</v>
+      </c>
+      <c r="G50" s="17">
+        <v>41</v>
+      </c>
+      <c r="H50">
+        <v>161</v>
+      </c>
       <c r="I50">
         <v>21</v>
       </c>
       <c r="J50">
         <v>1.7438097172427101</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>271</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>606.05207187385395</v>
       </c>
     </row>
-    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2167,15 +2318,23 @@
       <c r="E51">
         <v>22</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="17">
+        <v>13</v>
+      </c>
+      <c r="G51" s="17">
+        <v>41</v>
+      </c>
+      <c r="H51">
+        <v>161</v>
+      </c>
       <c r="J51">
         <v>0.15572843997809899</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>15.1023102310232</v>
       </c>
     </row>
-    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2190,15 +2349,23 @@
       <c r="E52">
         <v>43</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="17">
+        <v>13</v>
+      </c>
+      <c r="G52" s="17">
+        <v>41</v>
+      </c>
+      <c r="H52">
+        <v>161</v>
+      </c>
       <c r="J52">
         <v>0.51551102947669503</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>69.133846718005003</v>
       </c>
     </row>
-    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2213,18 +2380,26 @@
       <c r="E53">
         <v>64</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="17">
+        <v>13</v>
+      </c>
+      <c r="G53" s="17">
+        <v>41</v>
+      </c>
+      <c r="H53">
+        <v>161</v>
+      </c>
       <c r="J53">
         <v>1.1990913265396199</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>6.7943929973866899</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>224.93876054272101</v>
       </c>
     </row>
-    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2239,18 +2414,26 @@
       <c r="E54">
         <v>85</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="17">
+        <v>13</v>
+      </c>
+      <c r="G54" s="17">
+        <v>41</v>
+      </c>
+      <c r="H54">
+        <v>161</v>
+      </c>
       <c r="J54">
         <v>2.0834142809205001</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>112.049556463776</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>487.52181884855099</v>
       </c>
     </row>
-    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -2265,18 +2448,26 @@
       <c r="E55">
         <v>106</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="17">
+        <v>13</v>
+      </c>
+      <c r="G55" s="17">
+        <v>41</v>
+      </c>
+      <c r="H55">
+        <v>161</v>
+      </c>
       <c r="J55">
         <v>1.7725093163313901</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>153.61008854707501</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>539.18298496516297</v>
       </c>
     </row>
-    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -2293,23 +2484,29 @@
       <c r="E56">
         <v>148</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="F56" s="17">
+        <v>13</v>
+      </c>
+      <c r="G56" s="17">
+        <v>41</v>
+      </c>
+      <c r="H56">
+        <v>161</v>
+      </c>
       <c r="I56" s="17">
         <v>19</v>
       </c>
       <c r="J56">
         <v>2.96760477561328</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>248</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>720.04693802713598</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -2324,17 +2521,25 @@
       <c r="E57">
         <v>22</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="17">
+        <v>13</v>
+      </c>
+      <c r="G57" s="17">
+        <v>41</v>
+      </c>
+      <c r="H57">
+        <v>161</v>
+      </c>
       <c r="J57">
         <v>0.205180056869359</v>
       </c>
-      <c r="O57"/>
-      <c r="T57">
+      <c r="K57"/>
+      <c r="P57"/>
+      <c r="U57">
         <v>17.367070040337399</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -2349,17 +2554,25 @@
       <c r="E58">
         <v>43</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="17">
+        <v>13</v>
+      </c>
+      <c r="G58" s="17">
+        <v>41</v>
+      </c>
+      <c r="H58">
+        <v>161</v>
+      </c>
       <c r="J58">
         <v>0.72603362709948605</v>
       </c>
-      <c r="O58"/>
-      <c r="T58">
+      <c r="K58"/>
+      <c r="P58"/>
+      <c r="U58">
         <v>102.952695269526</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -2374,19 +2587,27 @@
       <c r="E59">
         <v>64</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="1"/>
+      <c r="F59" s="17">
+        <v>13</v>
+      </c>
+      <c r="G59" s="17">
+        <v>41</v>
+      </c>
+      <c r="H59">
+        <v>161</v>
+      </c>
       <c r="J59">
         <v>1.7628618357146599</v>
       </c>
-      <c r="O59">
+      <c r="K59"/>
+      <c r="P59">
         <v>27.4204958315872</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>285.518151815181</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -2401,19 +2622,27 @@
       <c r="E60">
         <v>85</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="1"/>
+      <c r="F60" s="17">
+        <v>13</v>
+      </c>
+      <c r="G60" s="17">
+        <v>41</v>
+      </c>
+      <c r="H60">
+        <v>161</v>
+      </c>
       <c r="J60">
         <v>2.4757819536920902</v>
       </c>
-      <c r="O60">
+      <c r="K60"/>
+      <c r="P60">
         <v>163.151389604461</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>574.650531719838</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -2428,19 +2657,27 @@
       <c r="E61">
         <v>106</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="17">
+        <v>13</v>
+      </c>
+      <c r="G61" s="17">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>161</v>
+      </c>
       <c r="J61">
         <v>3.07255700181911</v>
       </c>
-      <c r="O61">
+      <c r="K61"/>
+      <c r="P61">
         <v>194.957595107353</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>589.964063072974</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -2457,22 +2694,30 @@
       <c r="E62">
         <v>148</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="17">
+        <v>13</v>
+      </c>
+      <c r="G62" s="17">
+        <v>41</v>
+      </c>
+      <c r="H62">
+        <v>161</v>
+      </c>
       <c r="I62" s="4">
         <v>18</v>
       </c>
       <c r="J62">
         <v>2.9960615319404398</v>
       </c>
-      <c r="O62" s="4">
+      <c r="K62"/>
+      <c r="P62" s="4">
         <v>381</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>872.39017235056804</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -2487,17 +2732,25 @@
       <c r="E63">
         <v>22</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="17">
+        <v>13</v>
+      </c>
+      <c r="G63" s="17">
+        <v>41</v>
+      </c>
+      <c r="H63">
+        <v>161</v>
+      </c>
       <c r="J63">
         <v>0.21385616644001201</v>
       </c>
-      <c r="O63"/>
-      <c r="T63">
+      <c r="K63"/>
+      <c r="P63"/>
+      <c r="U63">
         <v>27.1653832049873</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -2512,17 +2765,25 @@
       <c r="E64">
         <v>43</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="17">
+        <v>13</v>
+      </c>
+      <c r="G64" s="17">
+        <v>41</v>
+      </c>
+      <c r="H64">
+        <v>161</v>
+      </c>
       <c r="J64">
         <v>0.93622507550202105</v>
       </c>
-      <c r="O64"/>
-      <c r="T64">
+      <c r="K64"/>
+      <c r="P64"/>
+      <c r="U64">
         <v>119.91492482581501</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>53</v>
       </c>
@@ -2537,19 +2798,27 @@
       <c r="E65">
         <v>64</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1"/>
+      <c r="F65" s="17">
+        <v>13</v>
+      </c>
+      <c r="G65" s="17">
+        <v>41</v>
+      </c>
+      <c r="H65">
+        <v>161</v>
+      </c>
       <c r="J65">
         <v>2.4512327581639299</v>
       </c>
-      <c r="O65">
+      <c r="K65"/>
+      <c r="P65">
         <v>24.391422385832598</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>404.14814814814798</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
@@ -2564,19 +2833,27 @@
       <c r="E66">
         <v>85</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="17">
+        <v>13</v>
+      </c>
+      <c r="G66" s="17">
+        <v>41</v>
+      </c>
+      <c r="H66">
+        <v>161</v>
+      </c>
       <c r="J66">
         <v>3.0871275675102798</v>
       </c>
-      <c r="O66">
+      <c r="K66"/>
+      <c r="P66">
         <v>89.638897713045694</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>613.47414741474097</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
@@ -2591,21 +2868,28 @@
       <c r="E67">
         <v>106</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="3"/>
+      <c r="F67" s="17">
+        <v>13</v>
+      </c>
+      <c r="G67" s="17">
+        <v>41</v>
+      </c>
+      <c r="H67">
+        <v>161</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67">
         <v>2.6042678511506301</v>
       </c>
-      <c r="O67">
+      <c r="K67"/>
+      <c r="P67">
         <v>204.553086867964</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>672.457645764576</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
@@ -2622,22 +2906,30 @@
       <c r="E68">
         <v>148</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="17">
+        <v>13</v>
+      </c>
+      <c r="G68" s="17">
+        <v>41</v>
+      </c>
+      <c r="H68">
+        <v>161</v>
+      </c>
       <c r="I68" s="4">
         <v>16</v>
       </c>
       <c r="J68">
         <v>3.70366118577912</v>
       </c>
-      <c r="O68" s="4">
+      <c r="K68"/>
+      <c r="P68" s="4">
         <v>307</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>896.99156582324895</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>54</v>
       </c>
@@ -2652,17 +2944,25 @@
       <c r="E69">
         <v>22</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="17">
+        <v>13</v>
+      </c>
+      <c r="G69" s="17">
+        <v>41</v>
+      </c>
+      <c r="H69">
+        <v>161</v>
+      </c>
       <c r="J69">
         <v>0.27198389290192698</v>
       </c>
-      <c r="O69"/>
-      <c r="T69">
+      <c r="K69"/>
+      <c r="P69"/>
+      <c r="U69">
         <v>44.180418041804103</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
@@ -2677,17 +2977,25 @@
       <c r="E70">
         <v>43</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="17">
+        <v>13</v>
+      </c>
+      <c r="G70" s="17">
+        <v>41</v>
+      </c>
+      <c r="H70">
+        <v>161</v>
+      </c>
       <c r="J70">
         <v>1.1547614842549501</v>
       </c>
-      <c r="O70"/>
-      <c r="T70">
+      <c r="K70"/>
+      <c r="P70"/>
+      <c r="U70">
         <v>156.42097543087601</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
@@ -2702,19 +3010,27 @@
       <c r="E71">
         <v>64</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="17">
+        <v>13</v>
+      </c>
+      <c r="G71" s="17">
+        <v>41</v>
+      </c>
+      <c r="H71">
+        <v>161</v>
+      </c>
       <c r="J71">
         <v>2.45145352431076</v>
       </c>
-      <c r="O71">
+      <c r="K71"/>
+      <c r="P71">
         <v>16.421651721956401</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>406.94096076274201</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>54</v>
       </c>
@@ -2729,19 +3045,27 @@
       <c r="E72">
         <v>85</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="17">
+        <v>13</v>
+      </c>
+      <c r="G72" s="17">
+        <v>41</v>
+      </c>
+      <c r="H72">
+        <v>161</v>
+      </c>
       <c r="J72">
         <v>2.9339600148354799</v>
       </c>
-      <c r="O72">
+      <c r="K72"/>
+      <c r="P72">
         <v>151.80310889127901</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>698.39090575724197</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -2756,19 +3080,27 @@
       <c r="E73">
         <v>106</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="17">
+        <v>13</v>
+      </c>
+      <c r="G73" s="17">
+        <v>41</v>
+      </c>
+      <c r="H73">
+        <v>161</v>
+      </c>
       <c r="J73">
         <v>2.99597322548171</v>
       </c>
-      <c r="O73">
+      <c r="K73"/>
+      <c r="P73">
         <v>145.60855091923901</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>614.30143014301404</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>54</v>
       </c>
@@ -2785,179 +3117,636 @@
       <c r="E74">
         <v>148</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="3"/>
+      <c r="F74" s="17">
+        <v>13</v>
+      </c>
+      <c r="G74" s="17">
+        <v>41</v>
+      </c>
+      <c r="H74">
+        <v>161</v>
+      </c>
       <c r="I74" s="5">
         <v>15</v>
       </c>
       <c r="J74">
         <v>3.5699431306405698</v>
       </c>
-      <c r="O74" s="4">
+      <c r="K74"/>
+      <c r="P74" s="4">
         <v>323</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>925.964063072974</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="3">
+        <f>D75+H75</f>
+        <v>35902</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F75" s="5">
+        <v>16</v>
+      </c>
+      <c r="G75" s="17">
+        <v>44</v>
+      </c>
+      <c r="H75" s="4">
+        <v>161</v>
+      </c>
+      <c r="J75">
+        <v>1.8383940287556599</v>
+      </c>
+      <c r="K75">
+        <v>0.67099567843637897</v>
+      </c>
+      <c r="P75">
+        <v>402.69559467140499</v>
+      </c>
+      <c r="U75">
+        <v>721.80488146169102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" ref="B76:B90" si="10">D76+H76</f>
+        <v>35902</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F76" s="5">
+        <v>16</v>
+      </c>
+      <c r="G76" s="17">
+        <v>44</v>
+      </c>
+      <c r="H76" s="4">
+        <v>161</v>
+      </c>
+      <c r="J76">
+        <v>1.5423715660406601</v>
+      </c>
+      <c r="K76">
+        <v>0.446008937779305</v>
+      </c>
+      <c r="P76">
+        <v>329.21792419018499</v>
+      </c>
+      <c r="U76">
+        <v>564.96427914352796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F77" s="5">
+        <v>16</v>
+      </c>
+      <c r="G77" s="17">
+        <v>44</v>
+      </c>
+      <c r="H77" s="4">
+        <v>161</v>
+      </c>
+      <c r="J77">
+        <v>1.0468020261594599</v>
+      </c>
+      <c r="K77">
+        <v>0.137746893876147</v>
+      </c>
+      <c r="P77">
+        <v>246.95685534146699</v>
+      </c>
+      <c r="U77">
+        <v>392.12508648411898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F78" s="5">
+        <v>16</v>
+      </c>
+      <c r="G78" s="17">
+        <v>44</v>
+      </c>
+      <c r="H78" s="4">
+        <v>161</v>
+      </c>
+      <c r="J78">
+        <v>0.877908371312066</v>
+      </c>
+      <c r="K78">
+        <v>1.6154299464715201E-2</v>
+      </c>
+      <c r="P78">
+        <v>211.17712681914799</v>
+      </c>
+      <c r="U78">
+        <v>335.64026752420898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F79" s="5">
+        <v>16</v>
+      </c>
+      <c r="G79" s="17">
+        <v>44</v>
+      </c>
+      <c r="H79" s="4">
+        <v>161</v>
+      </c>
+      <c r="J79">
+        <v>3.1175482906043199</v>
+      </c>
+      <c r="K79">
+        <v>0.82298089672445096</v>
+      </c>
+      <c r="P79">
+        <v>615.67786129297701</v>
+      </c>
+      <c r="U79">
+        <v>1047.5702821131399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F80" s="5">
+        <v>16</v>
+      </c>
+      <c r="G80" s="17">
+        <v>44</v>
+      </c>
+      <c r="H80" s="4">
+        <v>161</v>
+      </c>
+      <c r="J80">
+        <v>2.4006321166029299</v>
+      </c>
+      <c r="K80">
+        <v>0.51071453125767297</v>
+      </c>
+      <c r="P80">
+        <v>476.16922680854702</v>
+      </c>
+      <c r="U80">
+        <v>796.46496972084105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F81" s="5">
+        <v>16</v>
+      </c>
+      <c r="G81" s="17">
+        <v>44</v>
+      </c>
+      <c r="H81" s="4">
+        <v>161</v>
+      </c>
+      <c r="J81">
+        <v>2.27378550364736</v>
+      </c>
+      <c r="K81">
+        <v>0.46617639836959102</v>
+      </c>
+      <c r="P81">
+        <v>417.10036799410398</v>
+      </c>
+      <c r="U81">
+        <v>699.06221414893105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F82" s="5">
+        <v>16</v>
+      </c>
+      <c r="G82" s="17">
+        <v>44</v>
+      </c>
+      <c r="H82" s="4">
+        <v>161</v>
+      </c>
+      <c r="J82">
+        <v>2.1259859184738898</v>
+      </c>
+      <c r="K82">
+        <v>0.39720129646908497</v>
+      </c>
+      <c r="P82">
+        <v>383.1096258979</v>
+      </c>
+      <c r="U82">
+        <v>655.12957718011205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F83" s="5">
+        <v>16</v>
+      </c>
+      <c r="G83" s="17">
+        <v>44</v>
+      </c>
+      <c r="H83" s="4">
+        <v>161</v>
+      </c>
+      <c r="J83">
+        <v>3.1976210968916199</v>
+      </c>
+      <c r="K83">
+        <v>0.75002799194617598</v>
+      </c>
+      <c r="P83">
+        <v>591.90816805568898</v>
+      </c>
+      <c r="U83">
+        <v>1030.5631638546899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F84" s="5">
+        <v>16</v>
+      </c>
+      <c r="G84" s="17">
+        <v>44</v>
+      </c>
+      <c r="H84" s="4">
+        <v>161</v>
+      </c>
+      <c r="J84">
+        <v>2.8494278498158598</v>
+      </c>
+      <c r="K84">
+        <v>0.67105313558905799</v>
+      </c>
+      <c r="P84">
+        <v>468.56502491153498</v>
+      </c>
+      <c r="U84">
+        <v>845.29513434514297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F85" s="5">
+        <v>16</v>
+      </c>
+      <c r="G85" s="17">
+        <v>44</v>
+      </c>
+      <c r="H85" s="4">
+        <v>161</v>
+      </c>
+      <c r="J85">
+        <v>2.5646579092178898</v>
+      </c>
+      <c r="K85">
+        <v>0.37285272307616701</v>
+      </c>
+      <c r="P85">
+        <v>447.03257429291102</v>
+      </c>
+      <c r="U85">
+        <v>785.61059731698401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F86" s="5">
+        <v>16</v>
+      </c>
+      <c r="G86" s="17">
+        <v>44</v>
+      </c>
+      <c r="H86" s="4">
+        <v>161</v>
+      </c>
+      <c r="J86">
+        <v>2.5331579021630199</v>
+      </c>
+      <c r="K86">
+        <v>0.20482811962873801</v>
+      </c>
+      <c r="P86">
+        <v>388.02832898370002</v>
+      </c>
+      <c r="U86">
+        <v>716.45025122502898</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F87" s="5">
+        <v>16</v>
+      </c>
+      <c r="G87" s="17">
+        <v>44</v>
+      </c>
+      <c r="H87" s="4">
+        <v>161</v>
+      </c>
+      <c r="J87">
+        <v>4.7388991576481798</v>
+      </c>
+      <c r="K87">
+        <v>0.847369248146147</v>
+      </c>
+      <c r="P87">
+        <v>706.23772721995294</v>
+      </c>
+      <c r="U87">
+        <v>1298.67196670717</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F88" s="5">
+        <v>16</v>
+      </c>
+      <c r="G88" s="17">
+        <v>44</v>
+      </c>
+      <c r="H88" s="4">
+        <v>161</v>
+      </c>
+      <c r="J88">
+        <v>4.1166241022674299</v>
+      </c>
+      <c r="K88">
+        <v>0.76206747532288899</v>
+      </c>
+      <c r="P88">
+        <v>625.70103129211805</v>
+      </c>
+      <c r="U88">
+        <v>1135.43192825251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F89" s="5">
+        <v>16</v>
+      </c>
+      <c r="G89" s="17">
+        <v>44</v>
+      </c>
+      <c r="H89" s="4">
+        <v>161</v>
+      </c>
+      <c r="J89">
+        <v>3.5468020261594599</v>
+      </c>
+      <c r="K89">
+        <v>0.57361464420763097</v>
+      </c>
+      <c r="P89">
+        <v>546.88870828516701</v>
+      </c>
+      <c r="U89">
+        <v>1009.9101083416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="3">
+        <v>35741</v>
+      </c>
+      <c r="F90" s="5">
+        <v>16</v>
+      </c>
+      <c r="G90" s="17">
+        <v>44</v>
+      </c>
+      <c r="H90" s="4">
+        <v>161</v>
+      </c>
+      <c r="J90">
+        <v>2.9876680823444701</v>
+      </c>
+      <c r="K90">
+        <v>0.46009256985709301</v>
+      </c>
+      <c r="P90">
+        <v>446.80238868052101</v>
+      </c>
+      <c r="U90">
+        <v>859.16057930755699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -3166,101 +3955,101 @@
       <c r="D128" s="3"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="F129" s="6"/>
-      <c r="T129" s="7"/>
       <c r="U129" s="7"/>
       <c r="V129" s="7"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W129" s="7"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="F130" s="6"/>
-      <c r="T130" s="7"/>
       <c r="U130" s="7"/>
       <c r="V130" s="7"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W130" s="7"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="F131" s="6"/>
-      <c r="T131" s="7"/>
       <c r="U131" s="7"/>
       <c r="V131" s="7"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W131" s="7"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="F132" s="6"/>
       <c r="G132" s="3"/>
-      <c r="T132" s="7"/>
       <c r="U132" s="7"/>
       <c r="V132" s="7"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W132" s="7"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="F133" s="6"/>
       <c r="G133" s="3"/>
-      <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="V133" s="7"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W133" s="7"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="F134" s="6"/>
       <c r="G134" s="3"/>
-      <c r="T134" s="7"/>
       <c r="U134" s="7"/>
       <c r="V134" s="7"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W134" s="7"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="F138" s="6"/>
       <c r="G138" s="3"/>
-      <c r="T138" s="6"/>
       <c r="U138" s="6"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="V138" s="6"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3268,7 +4057,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3276,7 +4065,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3284,7 +4073,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3292,7 +4081,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3300,7 +4089,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3602,268 +4391,268 @@
       <c r="D192" s="8"/>
       <c r="E192" s="18"/>
     </row>
-    <row r="193" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="18"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="18"/>
     </row>
-    <row r="195" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="18"/>
     </row>
-    <row r="196" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="18"/>
     </row>
-    <row r="197" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="18"/>
     </row>
-    <row r="198" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="18"/>
     </row>
-    <row r="199" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="18"/>
     </row>
-    <row r="200" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="18"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="CQ201" s="5"/>
-    </row>
-    <row r="202" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR201" s="5"/>
+    </row>
+    <row r="202" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="CQ202" s="5"/>
-    </row>
-    <row r="203" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR202" s="5"/>
+    </row>
+    <row r="203" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="CQ203" s="5"/>
-    </row>
-    <row r="204" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR203" s="5"/>
+    </row>
+    <row r="204" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="CQ204" s="5"/>
-    </row>
-    <row r="205" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR204" s="5"/>
+    </row>
+    <row r="205" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="CQ205" s="5"/>
-    </row>
-    <row r="206" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR205" s="5"/>
+    </row>
+    <row r="206" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="CQ206" s="5"/>
-    </row>
-    <row r="207" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR206" s="5"/>
+    </row>
+    <row r="207" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="CQ207" s="5"/>
-    </row>
-    <row r="208" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR207" s="5"/>
+    </row>
+    <row r="208" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="CQ208" s="5"/>
-    </row>
-    <row r="209" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR208" s="5"/>
+    </row>
+    <row r="209" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="CQ209" s="5"/>
-    </row>
-    <row r="210" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR209" s="5"/>
+    </row>
+    <row r="210" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="CQ210" s="5"/>
-    </row>
-    <row r="211" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR210" s="5"/>
+    </row>
+    <row r="211" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="CQ211" s="5"/>
-    </row>
-    <row r="212" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR211" s="5"/>
+    </row>
+    <row r="212" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="CQ212" s="5"/>
-    </row>
-    <row r="213" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR212" s="5"/>
+    </row>
+    <row r="213" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="CQ213" s="5"/>
-    </row>
-    <row r="214" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR213" s="5"/>
+    </row>
+    <row r="214" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="CQ214" s="5"/>
-    </row>
-    <row r="215" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR214" s="5"/>
+    </row>
+    <row r="215" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="CQ215" s="5"/>
-    </row>
-    <row r="216" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR215" s="5"/>
+    </row>
+    <row r="216" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="CQ216" s="5"/>
-    </row>
-    <row r="217" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR216" s="5"/>
+    </row>
+    <row r="217" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="CQ217" s="5"/>
-    </row>
-    <row r="218" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR217" s="5"/>
+    </row>
+    <row r="218" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="CQ218" s="5"/>
-    </row>
-    <row r="219" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR218" s="5"/>
+    </row>
+    <row r="219" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="CQ219" s="5"/>
-    </row>
-    <row r="220" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR219" s="5"/>
+    </row>
+    <row r="220" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="CQ220" s="5"/>
-    </row>
-    <row r="221" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR220" s="5"/>
+    </row>
+    <row r="221" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="CQ221" s="5"/>
-    </row>
-    <row r="222" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR221" s="5"/>
+    </row>
+    <row r="222" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="CQ222" s="5"/>
-    </row>
-    <row r="223" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR222" s="5"/>
+    </row>
+    <row r="223" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="CQ223" s="5"/>
-    </row>
-    <row r="224" spans="2:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR223" s="5"/>
+    </row>
+    <row r="224" spans="2:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="CQ224" s="5"/>
-    </row>
-    <row r="225" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR224" s="5"/>
+    </row>
+    <row r="225" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="CQ225" s="5"/>
-    </row>
-    <row r="226" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR225" s="5"/>
+    </row>
+    <row r="226" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="CQ226" s="5"/>
-    </row>
-    <row r="227" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR226" s="5"/>
+    </row>
+    <row r="227" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="CQ227" s="5"/>
-    </row>
-    <row r="228" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR227" s="5"/>
+    </row>
+    <row r="228" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="CQ228" s="5"/>
-    </row>
-    <row r="229" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR228" s="5"/>
+    </row>
+    <row r="229" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="CQ229" s="5"/>
-    </row>
-    <row r="230" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR229" s="5"/>
+    </row>
+    <row r="230" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="CQ230" s="5"/>
-    </row>
-    <row r="231" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR230" s="5"/>
+    </row>
+    <row r="231" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="CQ231" s="5"/>
-    </row>
-    <row r="232" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+      <c r="CR231" s="5"/>
+    </row>
+    <row r="232" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:95" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.55000000000000004">
       <c r="G240" s="3"/>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.55000000000000004">
@@ -4106,206 +4895,206 @@
     <row r="320" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="19"/>
-      <c r="CR332" s="10"/>
       <c r="CS332" s="10"/>
-    </row>
-    <row r="333" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT332" s="10"/>
+    </row>
+    <row r="333" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="19"/>
-      <c r="CR333" s="10"/>
       <c r="CS333" s="10"/>
-    </row>
-    <row r="334" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT333" s="10"/>
+    </row>
+    <row r="334" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="19"/>
-      <c r="CR334" s="10"/>
       <c r="CS334" s="10"/>
-    </row>
-    <row r="335" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT334" s="10"/>
+    </row>
+    <row r="335" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
       <c r="E335" s="19"/>
-      <c r="CR335" s="10"/>
       <c r="CS335" s="10"/>
-    </row>
-    <row r="336" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT335" s="10"/>
+    </row>
+    <row r="336" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="19"/>
-      <c r="CR336" s="10"/>
       <c r="CS336" s="10"/>
-    </row>
-    <row r="337" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT336" s="10"/>
+    </row>
+    <row r="337" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
       <c r="E337" s="19"/>
-      <c r="CR337" s="10"/>
       <c r="CS337" s="10"/>
-    </row>
-    <row r="338" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT337" s="10"/>
+    </row>
+    <row r="338" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
       <c r="E338" s="19"/>
-      <c r="CR338" s="10"/>
       <c r="CS338" s="10"/>
-    </row>
-    <row r="339" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT338" s="10"/>
+    </row>
+    <row r="339" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
       <c r="E339" s="19"/>
-      <c r="CR339" s="10"/>
       <c r="CS339" s="10"/>
-    </row>
-    <row r="340" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT339" s="10"/>
+    </row>
+    <row r="340" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
       <c r="E340" s="19"/>
-      <c r="CR340" s="10"/>
       <c r="CS340" s="10"/>
-    </row>
-    <row r="341" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT340" s="10"/>
+    </row>
+    <row r="341" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="19"/>
-      <c r="CR341" s="10"/>
       <c r="CS341" s="10"/>
-    </row>
-    <row r="342" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT341" s="10"/>
+    </row>
+    <row r="342" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="19"/>
-      <c r="CR342" s="10"/>
       <c r="CS342" s="10"/>
-    </row>
-    <row r="343" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT342" s="10"/>
+    </row>
+    <row r="343" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
       <c r="E343" s="19"/>
-      <c r="CR343" s="10"/>
       <c r="CS343" s="10"/>
-    </row>
-    <row r="344" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT343" s="10"/>
+    </row>
+    <row r="344" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
       <c r="E344" s="19"/>
-      <c r="CR344" s="10"/>
       <c r="CS344" s="10"/>
-    </row>
-    <row r="345" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT344" s="10"/>
+    </row>
+    <row r="345" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
       <c r="E345" s="19"/>
-      <c r="CR345" s="10"/>
       <c r="CS345" s="10"/>
-    </row>
-    <row r="346" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT345" s="10"/>
+    </row>
+    <row r="346" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
       <c r="E346" s="19"/>
-      <c r="CR346" s="10"/>
       <c r="CS346" s="10"/>
-    </row>
-    <row r="347" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT346" s="10"/>
+    </row>
+    <row r="347" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
       <c r="E347" s="19"/>
-      <c r="CR347" s="10"/>
       <c r="CS347" s="10"/>
-    </row>
-    <row r="348" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT347" s="10"/>
+    </row>
+    <row r="348" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
       <c r="E348" s="19"/>
-      <c r="CR348" s="10"/>
       <c r="CS348" s="10"/>
-    </row>
-    <row r="349" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT348" s="10"/>
+    </row>
+    <row r="349" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
       <c r="E349" s="19"/>
-      <c r="CR349" s="10"/>
       <c r="CS349" s="10"/>
-    </row>
-    <row r="350" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT349" s="10"/>
+    </row>
+    <row r="350" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
       <c r="E350" s="19"/>
-      <c r="CR350" s="10"/>
       <c r="CS350" s="10"/>
-    </row>
-    <row r="351" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT350" s="10"/>
+    </row>
+    <row r="351" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
       <c r="E351" s="19"/>
-      <c r="CR351" s="10"/>
       <c r="CS351" s="10"/>
-    </row>
-    <row r="352" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="CT351" s="10"/>
+    </row>
+    <row r="352" spans="2:98" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
       <c r="E352" s="19"/>
-      <c r="CR352" s="10"/>
       <c r="CS352" s="10"/>
+      <c r="CT352" s="10"/>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
@@ -4434,6 +5223,9 @@
       <c r="E373" s="19"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:A90">
+    <sortCondition ref="A75:A90"/>
+  </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4441,6 +5233,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B4409-0AB8-4E66-B9FB-9C3FEBB6B073}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>87.960939116915199</v>
+      </c>
+      <c r="B1">
+        <v>402.69559467140499</v>
+      </c>
+      <c r="D1">
+        <v>87.196333850726404</v>
+      </c>
+      <c r="E1">
+        <v>721.80488146169102</v>
+      </c>
+      <c r="G1">
+        <v>85.350556629463995</v>
+      </c>
+      <c r="H1">
+        <v>1.8383940287556599</v>
+      </c>
+      <c r="J1">
+        <v>0.99659185778126902</v>
+      </c>
+      <c r="K1">
+        <v>0.67099567843637897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>90.047753418710698</v>
+      </c>
+      <c r="B2">
+        <v>329.21792419018499</v>
+      </c>
+      <c r="D2">
+        <v>85.958736386039206</v>
+      </c>
+      <c r="E2">
+        <v>564.96427914352796</v>
+      </c>
+      <c r="G2">
+        <v>88.497029898550906</v>
+      </c>
+      <c r="H2">
+        <v>1.5423715660406601</v>
+      </c>
+      <c r="J2">
+        <v>1.99332121985955</v>
+      </c>
+      <c r="K2">
+        <v>0.446008937779305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>88.674211639517196</v>
+      </c>
+      <c r="B3">
+        <v>246.95685534146699</v>
+      </c>
+      <c r="D3">
+        <v>88.133860573347704</v>
+      </c>
+      <c r="E3">
+        <v>392.12508648411898</v>
+      </c>
+      <c r="G3">
+        <v>87.496648935419699</v>
+      </c>
+      <c r="H3">
+        <v>1.0468020261594599</v>
+      </c>
+      <c r="J3">
+        <v>4.0312920493051099</v>
+      </c>
+      <c r="K3">
+        <v>0.137746893876147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>88.371335833741398</v>
+      </c>
+      <c r="B4">
+        <v>211.17712681914799</v>
+      </c>
+      <c r="D4">
+        <v>87.937959467128294</v>
+      </c>
+      <c r="E4">
+        <v>335.64026752420898</v>
+      </c>
+      <c r="G4">
+        <v>88.052572912110307</v>
+      </c>
+      <c r="H4">
+        <v>0.877908371312066</v>
+      </c>
+      <c r="J4">
+        <v>7.0241320041251196</v>
+      </c>
+      <c r="K4">
+        <v>1.6154299464715201E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>275.31688381179299</v>
+      </c>
+      <c r="B5">
+        <v>615.67786129297701</v>
+      </c>
+      <c r="D5">
+        <v>271.44754333275398</v>
+      </c>
+      <c r="E5">
+        <v>1047.5702821131399</v>
+      </c>
+      <c r="G5">
+        <v>272.15935546681999</v>
+      </c>
+      <c r="H5">
+        <v>3.1175482906043199</v>
+      </c>
+      <c r="J5">
+        <v>1.0069046800569601</v>
+      </c>
+      <c r="K5">
+        <v>0.82298089672445096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>273.45874074335802</v>
+      </c>
+      <c r="B6">
+        <v>476.16922680854702</v>
+      </c>
+      <c r="D6">
+        <v>271.27029947474603</v>
+      </c>
+      <c r="E6">
+        <v>796.46496972084105</v>
+      </c>
+      <c r="G6">
+        <v>270.34202023337502</v>
+      </c>
+      <c r="H6">
+        <v>2.4006321166029299</v>
+      </c>
+      <c r="J6">
+        <v>2.0326081618621998</v>
+      </c>
+      <c r="K6">
+        <v>0.51071453125767297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>273.63592308973699</v>
+      </c>
+      <c r="B7">
+        <v>417.10036799410398</v>
+      </c>
+      <c r="D7">
+        <v>272.31976968663599</v>
+      </c>
+      <c r="E7">
+        <v>699.06221414893105</v>
+      </c>
+      <c r="G7">
+        <v>271.59496564276901</v>
+      </c>
+      <c r="H7">
+        <v>2.27378550364736</v>
+      </c>
+      <c r="J7">
+        <v>4.0186809409222599</v>
+      </c>
+      <c r="K7">
+        <v>0.46617639836959102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>273.34819107425</v>
+      </c>
+      <c r="B8">
+        <v>383.1096258979</v>
+      </c>
+      <c r="D8">
+        <v>272.167402159576</v>
+      </c>
+      <c r="E8">
+        <v>655.12957718011205</v>
+      </c>
+      <c r="G8">
+        <v>272.16499936506102</v>
+      </c>
+      <c r="H8">
+        <v>2.1259859184738898</v>
+      </c>
+      <c r="J8">
+        <v>7.0325394097136904</v>
+      </c>
+      <c r="K8">
+        <v>0.39720129646908497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>398.36623742434398</v>
+      </c>
+      <c r="B9">
+        <v>591.90816805568898</v>
+      </c>
+      <c r="D9">
+        <v>392.08220072607702</v>
+      </c>
+      <c r="E9">
+        <v>1030.5631638546899</v>
+      </c>
+      <c r="G9">
+        <v>392.614253665006</v>
+      </c>
+      <c r="H9">
+        <v>3.1976210968916199</v>
+      </c>
+      <c r="J9">
+        <v>1.00195452536463</v>
+      </c>
+      <c r="K9">
+        <v>0.75002799194617598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>395.29053361669003</v>
+      </c>
+      <c r="B10">
+        <v>468.56502491153498</v>
+      </c>
+      <c r="D10">
+        <v>392.82693588384802</v>
+      </c>
+      <c r="E10">
+        <v>845.29513434514297</v>
+      </c>
+      <c r="G10">
+        <v>393.05024480408599</v>
+      </c>
+      <c r="H10">
+        <v>2.8494278498158598</v>
+      </c>
+      <c r="J10">
+        <v>1.98241909345381</v>
+      </c>
+      <c r="K10">
+        <v>0.67105313558905799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>396.46266298504298</v>
+      </c>
+      <c r="B11">
+        <v>447.03257429291102</v>
+      </c>
+      <c r="D11">
+        <v>393.31357910802802</v>
+      </c>
+      <c r="E11">
+        <v>785.61059731698401</v>
+      </c>
+      <c r="G11">
+        <v>392.85976323846802</v>
+      </c>
+      <c r="H11">
+        <v>2.5646579092178898</v>
+      </c>
+      <c r="J11">
+        <v>4.0385208466335998</v>
+      </c>
+      <c r="K11">
+        <v>0.37285272307616701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>395.28599047960302</v>
+      </c>
+      <c r="B12">
+        <v>388.02832898370002</v>
+      </c>
+      <c r="D12">
+        <v>394.46099987302699</v>
+      </c>
+      <c r="E12">
+        <v>716.45025122502898</v>
+      </c>
+      <c r="G12">
+        <v>392.16979667856498</v>
+      </c>
+      <c r="H12">
+        <v>2.5331579021630199</v>
+      </c>
+      <c r="J12">
+        <v>6.9845896969994596</v>
+      </c>
+      <c r="K12">
+        <v>0.20482811962873801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>590.30469306061002</v>
+      </c>
+      <c r="B13">
+        <v>706.23772721995294</v>
+      </c>
+      <c r="D13">
+        <v>589.31263588047898</v>
+      </c>
+      <c r="E13">
+        <v>1298.67196670717</v>
+      </c>
+      <c r="G13">
+        <v>586.95624567889001</v>
+      </c>
+      <c r="H13">
+        <v>4.7388991576481798</v>
+      </c>
+      <c r="J13">
+        <v>0.99111132937189905</v>
+      </c>
+      <c r="K13">
+        <v>0.847369248146147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>590.30014992352301</v>
+      </c>
+      <c r="B14">
+        <v>625.70103129211805</v>
+      </c>
+      <c r="D14">
+        <v>589.44012707658999</v>
+      </c>
+      <c r="E14">
+        <v>1135.43192825251</v>
+      </c>
+      <c r="G14">
+        <v>586.54000818365205</v>
+      </c>
+      <c r="H14">
+        <v>4.1166241022674299</v>
+      </c>
+      <c r="J14">
+        <v>2.0322152924421699</v>
+      </c>
+      <c r="K14">
+        <v>0.76206747532288899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>591.66460542854395</v>
+      </c>
+      <c r="B15">
+        <v>546.88870828516701</v>
+      </c>
+      <c r="D15">
+        <v>589.00479128499205</v>
+      </c>
+      <c r="E15">
+        <v>1009.9101083416</v>
+      </c>
+      <c r="G15">
+        <v>587.49664893541899</v>
+      </c>
+      <c r="H15">
+        <v>3.5468020261594599</v>
+      </c>
+      <c r="J15">
+        <v>4.01724696753916</v>
+      </c>
+      <c r="K15">
+        <v>0.57361464420763097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>588.78577089464397</v>
+      </c>
+      <c r="B16">
+        <v>446.80238868052101</v>
+      </c>
+      <c r="D16">
+        <v>589.869243785452</v>
+      </c>
+      <c r="E16">
+        <v>859.16057930755699</v>
+      </c>
+      <c r="G16">
+        <v>587.79154261848601</v>
+      </c>
+      <c r="H16">
+        <v>2.9876680823444701</v>
+      </c>
+      <c r="J16">
+        <v>7.0193586406717996</v>
+      </c>
+      <c r="K16">
+        <v>0.46009256985709301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D2364-7B77-4803-95A3-4A9773488307}">
   <dimension ref="B1:J37"/>
   <sheetViews>
@@ -5063,7 +6286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887047BC-ACA2-4473-901E-35E64BB4B438}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -5843,7 +7066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
   <dimension ref="A1:N18"/>
   <sheetViews>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD3316-3332-4735-87CD-73F28FD9C0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07995E68-99F9-40E5-8919-529105AD5FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
-    <sheet name="Roseworthy" sheetId="18" r:id="rId2"/>
-    <sheet name="Loxton" sheetId="17" r:id="rId3"/>
-    <sheet name="Bundy" sheetId="16" r:id="rId4"/>
-    <sheet name="Rainout" sheetId="15" r:id="rId5"/>
+    <sheet name="Kunnunura" sheetId="19" r:id="rId2"/>
+    <sheet name="Roseworthy" sheetId="18" r:id="rId3"/>
+    <sheet name="Loxton" sheetId="17" r:id="rId4"/>
+    <sheet name="Bundy" sheetId="16" r:id="rId5"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CT$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CU$373</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="78">
   <si>
     <t>SimulationName</t>
   </si>
@@ -257,6 +258,21 @@
   </si>
   <si>
     <t>Peanut.Leaf.CoverGreen</t>
+  </si>
+  <si>
+    <t>Kunnunura8182Pop8.8</t>
+  </si>
+  <si>
+    <t>Kunnunura8182Pop27.3</t>
+  </si>
+  <si>
+    <t>Kunnunura8182Pop39.4</t>
+  </si>
+  <si>
+    <t>Kunnunura8182Pop58.8</t>
+  </si>
+  <si>
+    <t>Peanut.Phenology.DaysAfterEmergence</t>
   </si>
 </sst>
 </file>
@@ -775,103 +791,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CT373"/>
+  <dimension ref="A1:CU373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.26171875" style="4" customWidth="1"/>
     <col min="2" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.26171875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="32" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.83984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.68359375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.15625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.15625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.41796875" customWidth="1"/>
-    <col min="27" max="27" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="31" width="21.83984375" customWidth="1"/>
-    <col min="32" max="32" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.68359375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.68359375" customWidth="1"/>
-    <col min="35" max="35" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.68359375" customWidth="1"/>
-    <col min="42" max="42" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="20.68359375" customWidth="1"/>
-    <col min="49" max="49" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.68359375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="9.15625" style="4"/>
+    <col min="5" max="6" width="12" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.26171875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32" style="4" customWidth="1"/>
+    <col min="11" max="11" width="28.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.83984375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.68359375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.15625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.15625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="14.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.41796875" customWidth="1"/>
+    <col min="28" max="28" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
+    <col min="31" max="32" width="21.83984375" customWidth="1"/>
+    <col min="33" max="33" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.68359375" customWidth="1"/>
+    <col min="36" max="36" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.68359375" customWidth="1"/>
+    <col min="43" max="43" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="20.68359375" customWidth="1"/>
+    <col min="50" max="50" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:99" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -888,60 +904,62 @@
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
       <c r="CP1" s="4"/>
@@ -949,8 +967,9 @@
       <c r="CR1" s="4"/>
       <c r="CS1" s="4"/>
       <c r="CT1" s="4"/>
-    </row>
-    <row r="2" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU1" s="4"/>
+    </row>
+    <row r="2" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -963,17 +982,18 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="P2" s="13">
+      <c r="G2" s="1"/>
+      <c r="Q2" s="13">
         <v>622.70000000000005</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="4"/>
-      <c r="U2" s="13">
+      <c r="R2" s="13"/>
+      <c r="S2" s="4"/>
+      <c r="V2" s="13">
         <v>1055.4000000000001</v>
       </c>
-      <c r="V2" s="13"/>
-    </row>
-    <row r="3" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -986,17 +1006,18 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="P3" s="13">
+      <c r="G3" s="1"/>
+      <c r="Q3" s="13">
         <v>588.70000000000005</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="4"/>
-      <c r="U3" s="14">
+      <c r="R3" s="13"/>
+      <c r="S3" s="4"/>
+      <c r="V3" s="14">
         <v>1032.8</v>
       </c>
-      <c r="V3" s="14"/>
-    </row>
-    <row r="4" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1009,17 +1030,18 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="P4" s="13">
+      <c r="G4" s="1"/>
+      <c r="Q4" s="13">
         <v>669</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="4"/>
-      <c r="U4" s="13">
+      <c r="R4" s="13"/>
+      <c r="S4" s="4"/>
+      <c r="V4" s="13">
         <v>1194.5999999999999</v>
       </c>
-      <c r="V4" s="13"/>
-    </row>
-    <row r="5" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1032,17 +1054,18 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="P5" s="15">
+      <c r="G5" s="1"/>
+      <c r="Q5" s="15">
         <v>722.6</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="4"/>
-      <c r="U5" s="13">
+      <c r="R5" s="15"/>
+      <c r="S5" s="4"/>
+      <c r="V5" s="13">
         <v>1290.3</v>
       </c>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1055,16 +1078,17 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="P6" s="13">
+      <c r="G6" s="1"/>
+      <c r="Q6" s="13">
         <v>355.6</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="U6" s="13">
+      <c r="R6" s="13"/>
+      <c r="V6" s="13">
         <v>945.7</v>
       </c>
-      <c r="V6" s="13"/>
-    </row>
-    <row r="7" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W6" s="13"/>
+    </row>
+    <row r="7" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1077,16 +1101,17 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="P7" s="13">
+      <c r="G7" s="1"/>
+      <c r="Q7" s="13">
         <v>461.2</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="U7" s="16">
+      <c r="R7" s="13"/>
+      <c r="V7" s="16">
         <v>1011.4</v>
       </c>
-      <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1099,16 +1124,17 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="P8" s="15">
+      <c r="G8" s="1"/>
+      <c r="Q8" s="15">
         <v>563.9</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="U8" s="13">
+      <c r="R8" s="15"/>
+      <c r="V8" s="13">
         <v>1139.2</v>
       </c>
-      <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1124,16 +1150,17 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="P9" s="15">
+      <c r="J9" s="1"/>
+      <c r="Q9" s="15">
         <v>392.9</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="U9" s="15">
+      <c r="R9" s="15"/>
+      <c r="V9" s="15">
         <v>810.1</v>
       </c>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1146,16 +1173,17 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="P10" s="15">
+      <c r="G10" s="1"/>
+      <c r="Q10" s="15">
         <v>385.2</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="U10" s="13">
+      <c r="R10" s="15"/>
+      <c r="V10" s="13">
         <v>667.6</v>
       </c>
-      <c r="V10" s="13"/>
-    </row>
-    <row r="11" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1169,15 +1197,16 @@
       <c r="E11" s="17">
         <v>35</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="J11">
+      <c r="F11" s="17"/>
+      <c r="G11" s="1"/>
+      <c r="K11">
         <v>0.65</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="12" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1191,15 +1220,16 @@
       <c r="E12" s="17">
         <v>56</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="J12">
+      <c r="F12" s="17"/>
+      <c r="G12" s="1"/>
+      <c r="K12">
         <v>1.55</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="13" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1213,15 +1243,16 @@
       <c r="E13" s="17">
         <v>77</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="J13">
+      <c r="F13" s="17"/>
+      <c r="G13" s="1"/>
+      <c r="K13">
         <v>1.64</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>292.38382448900381</v>
       </c>
     </row>
-    <row r="14" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1237,15 +1268,16 @@
       <c r="E14" s="17">
         <v>112</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="J14">
+      <c r="F14" s="17"/>
+      <c r="G14" s="1"/>
+      <c r="K14">
         <v>1.3</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>298.91892845175676</v>
       </c>
     </row>
-    <row r="15" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1260,18 +1292,19 @@
       <c r="E15" s="17">
         <v>28</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="P15">
+      <c r="F15" s="17"/>
+      <c r="G15" s="1"/>
+      <c r="Q15">
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>59.296189630416698</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2.4734753777584499</v>
       </c>
     </row>
-    <row r="16" spans="1:98" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1286,21 +1319,22 @@
       <c r="E16" s="17">
         <v>42</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="P16">
+      <c r="F16" s="17"/>
+      <c r="G16" s="1"/>
+      <c r="Q16">
         <v>4.9439358603006394</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>4.767776490674E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>220.41431855718901</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>5.2430744977531898</v>
       </c>
     </row>
-    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1315,21 +1349,22 @@
       <c r="E17" s="17">
         <v>55</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="P17">
+      <c r="F17" s="17"/>
+      <c r="G17" s="1"/>
+      <c r="Q17">
         <v>29.7172309045791</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.88705616793873998</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>458.681268518595</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>11.007805458869541</v>
       </c>
     </row>
-    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1344,24 +1379,25 @@
       <c r="E18" s="17">
         <v>75</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="P18">
+      <c r="J18" s="1"/>
+      <c r="Q18">
         <v>231.93041572949701</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>7.2106035349152506</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>884.24352834745696</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>21.509959196103651</v>
       </c>
     </row>
-    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1376,21 +1412,22 @@
       <c r="E19" s="17">
         <v>90</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="P19">
+      <c r="F19" s="17"/>
+      <c r="G19" s="1"/>
+      <c r="Q19">
         <v>381.09646683874598</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>13.138243823585199</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1003.75866276029</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>25.699515305663198</v>
       </c>
     </row>
-    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1407,21 +1444,22 @@
       <c r="E20" s="17">
         <v>106</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="P20">
+      <c r="F20" s="17"/>
+      <c r="G20" s="1"/>
+      <c r="Q20">
         <v>518.33865894245798</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>19.886690890670998</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1131.1101612622099</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>31.930050346738302</v>
       </c>
     </row>
-    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1436,19 +1474,20 @@
       <c r="E21" s="17">
         <v>28</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="P21" s="4">
+      <c r="F21" s="17"/>
+      <c r="G21" s="1"/>
+      <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="Q21" s="4"/>
-      <c r="U21">
+      <c r="R21" s="4"/>
+      <c r="V21">
         <v>63.242590486940699</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2.7319273834112296</v>
       </c>
     </row>
-    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1463,21 +1502,22 @@
       <c r="E22" s="17">
         <v>42</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="P22">
+      <c r="F22" s="17"/>
+      <c r="G22" s="1"/>
+      <c r="Q22">
         <v>10.860009793588</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.10893234096311599</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>232.26763053275499</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6.8552338164199274</v>
       </c>
     </row>
-    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1492,21 +1532,22 @@
       <c r="E23" s="17">
         <v>55</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="P23">
+      <c r="F23" s="17"/>
+      <c r="G23" s="1"/>
+      <c r="Q23">
         <v>63.314548457510199</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2.02296756499311</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>466.58817963763698</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>12.565467243811909</v>
       </c>
     </row>
-    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1521,21 +1562,22 @@
       <c r="E24" s="17">
         <v>75</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="P24">
+      <c r="F24" s="17"/>
+      <c r="G24" s="1"/>
+      <c r="Q24">
         <v>356.457211151411</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>11.4835075295551</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>892.15043946649894</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>24.0564601232164</v>
       </c>
     </row>
-    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1550,21 +1592,22 @@
       <c r="E25" s="17">
         <v>90</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="P25">
+      <c r="F25" s="17"/>
+      <c r="G25" s="1"/>
+      <c r="Q25">
         <v>570.86233369575098</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>19.362235476696902</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1104.58588893407</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>29.815629620329098</v>
       </c>
     </row>
-    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1581,21 +1624,22 @@
       <c r="E26" s="17">
         <v>106</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="P26">
+      <c r="F26" s="17"/>
+      <c r="G26" s="1"/>
+      <c r="Q26">
         <v>591.48464149659299</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>23.8488493766069</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1044.1411936557399</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>32.709654404821421</v>
       </c>
     </row>
-    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1610,19 +1654,20 @@
       <c r="E27" s="17">
         <v>28</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="P27" s="4">
+      <c r="F27" s="17"/>
+      <c r="G27" s="1"/>
+      <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="U27">
+      <c r="R27" s="4"/>
+      <c r="V27">
         <v>31.6431648227613</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.6430491456581202</v>
       </c>
     </row>
-    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1637,24 +1682,25 @@
       <c r="E28" s="17">
         <v>42</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="P28">
+      <c r="J28" s="1"/>
+      <c r="Q28">
         <v>4.9368811573035698</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.48111405530418605</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>188.77961937802402</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>4.9005618213657058</v>
       </c>
     </row>
-    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1669,21 +1715,22 @@
       <c r="E29" s="17">
         <v>55</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="P29">
+      <c r="F29" s="17"/>
+      <c r="G29" s="1"/>
+      <c r="Q29">
         <v>71.235568982546098</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.28172160625128</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>397.38154323703003</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="30" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1698,21 +1745,22 @@
       <c r="E30" s="17">
         <v>75</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="P30">
+      <c r="F30" s="17"/>
+      <c r="G30" s="1"/>
+      <c r="Q30">
         <v>307.02490725140501</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>11.8276047699964</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>822.95791247188492</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>21.709765874464271</v>
       </c>
     </row>
-    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1729,21 +1777,22 @@
       <c r="E31" s="17">
         <v>90</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="P31">
+      <c r="F31" s="17"/>
+      <c r="G31" s="1"/>
+      <c r="Q31">
         <v>444.35881049407794</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>19.253893431870701</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1007.71211831981</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>29.509983520714297</v>
       </c>
     </row>
-    <row r="32" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1758,10 +1807,11 @@
       <c r="E32" s="17">
         <v>106</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="V32" s="4"/>
-    </row>
-    <row r="33" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="17"/>
+      <c r="G32" s="1"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1776,13 +1826,14 @@
       <c r="E33" s="17">
         <v>28</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="V33">
+      <c r="F33" s="17"/>
+      <c r="G33" s="1"/>
+      <c r="R33" s="4"/>
+      <c r="W33">
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="34" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1797,15 +1848,16 @@
       <c r="E34" s="17">
         <v>42</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="Q34">
+      <c r="F34" s="17"/>
+      <c r="G34" s="1"/>
+      <c r="R34">
         <v>0.62716694180183996</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>6.5791824770872909</v>
       </c>
     </row>
-    <row r="35" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1820,15 +1872,16 @@
       <c r="E35" s="17">
         <v>55</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="Q35">
+      <c r="F35" s="17"/>
+      <c r="G35" s="1"/>
+      <c r="R35">
         <v>1.7497512683798899</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="36" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1843,15 +1896,16 @@
       <c r="E36" s="17">
         <v>75</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="Q36">
+      <c r="F36" s="17"/>
+      <c r="G36" s="1"/>
+      <c r="R36">
         <v>12.7087579765657</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="37" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1868,15 +1922,16 @@
       <c r="E37" s="17">
         <v>90</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="Q37">
+      <c r="F37" s="17"/>
+      <c r="G37" s="1"/>
+      <c r="R37">
         <v>16.912347582510201</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>25.33334690061789</v>
       </c>
     </row>
-    <row r="38" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -1891,12 +1946,13 @@
       <c r="E38" s="17">
         <v>106</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -1911,23 +1967,23 @@
       <c r="E39">
         <v>22</v>
       </c>
-      <c r="F39" s="17">
+      <c r="G39" s="17">
         <v>13</v>
       </c>
-      <c r="G39" s="17">
+      <c r="H39" s="17">
         <v>41</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>161</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>6.1240529132300298E-2</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>2.9336266960030999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -1942,23 +1998,23 @@
       <c r="E40">
         <v>43</v>
       </c>
-      <c r="F40" s="17">
+      <c r="G40" s="17">
         <v>13</v>
       </c>
-      <c r="G40" s="17">
+      <c r="H40" s="17">
         <v>41</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>161</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.26675173522191198</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>27.781444811147999</v>
       </c>
     </row>
-    <row r="41" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -1973,26 +2029,26 @@
       <c r="E41">
         <v>64</v>
       </c>
-      <c r="F41" s="17">
+      <c r="G41" s="17">
         <v>13</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="17">
         <v>41</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>161</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>1.03647498278024</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>13.2019764924468</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>171.523285661899</v>
       </c>
     </row>
-    <row r="42" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -2007,26 +2063,26 @@
       <c r="E42">
         <v>85</v>
       </c>
-      <c r="F42" s="17">
+      <c r="G42" s="17">
         <v>13</v>
       </c>
-      <c r="G42" s="17">
+      <c r="H42" s="17">
         <v>41</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>161</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1.90190035499196</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>135.990635419364</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>458.39090575724202</v>
       </c>
     </row>
-    <row r="43" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -2041,26 +2097,26 @@
       <c r="E43">
         <v>106</v>
       </c>
-      <c r="F43" s="17">
+      <c r="G43" s="17">
         <v>13</v>
       </c>
-      <c r="G43" s="17">
+      <c r="H43" s="17">
         <v>41</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>161</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1.6482400522774201</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>344.916351444062</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>640.95636230289699</v>
       </c>
     </row>
-    <row r="44" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2077,29 +2133,29 @@
       <c r="E44">
         <v>148</v>
       </c>
-      <c r="F44" s="17">
+      <c r="G44" s="17">
         <v>13</v>
       </c>
-      <c r="G44" s="17">
+      <c r="H44" s="17">
         <v>41</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>161</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>24</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>1.93499320040267</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>478</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>850.89842317565103</v>
       </c>
     </row>
-    <row r="45" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2114,23 +2170,23 @@
       <c r="E45">
         <v>22</v>
       </c>
-      <c r="F45" s="17">
+      <c r="G45" s="17">
         <v>13</v>
       </c>
-      <c r="G45" s="17">
+      <c r="H45" s="17">
         <v>41</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>161</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7.9806962081206301E-2</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>12.5735240190683</v>
       </c>
     </row>
-    <row r="46" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2145,23 +2201,23 @@
       <c r="E46">
         <v>43</v>
       </c>
-      <c r="F46" s="17">
+      <c r="G46" s="17">
         <v>13</v>
       </c>
-      <c r="G46" s="17">
+      <c r="H46" s="17">
         <v>41</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>161</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.39135214849613997</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>49.748441510817599</v>
       </c>
     </row>
-    <row r="47" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2176,26 +2232,26 @@
       <c r="E47">
         <v>64</v>
       </c>
-      <c r="F47" s="17">
+      <c r="G47" s="17">
         <v>13</v>
       </c>
-      <c r="G47" s="17">
+      <c r="H47" s="17">
         <v>41</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>161</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1.39005404355274</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>8.3883471301619394</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>234.68426842684201</v>
       </c>
     </row>
-    <row r="48" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2210,27 +2266,27 @@
       <c r="E48">
         <v>85</v>
       </c>
-      <c r="F48" s="17">
+      <c r="G48" s="17">
         <v>13</v>
       </c>
-      <c r="G48" s="17">
+      <c r="H48" s="17">
         <v>41</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>161</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48">
+      <c r="J48" s="1"/>
+      <c r="K48">
         <v>1.8825612405291301</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>118.457139958836</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>509.43601026769301</v>
       </c>
     </row>
-    <row r="49" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2245,26 +2301,26 @@
       <c r="E49">
         <v>106</v>
       </c>
-      <c r="F49" s="17">
+      <c r="G49" s="17">
         <v>13</v>
       </c>
-      <c r="G49" s="17">
+      <c r="H49" s="17">
         <v>41</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>161</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>2.0975212377033201</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>290.72191092970399</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>660.44737807113995</v>
       </c>
     </row>
-    <row r="50" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2281,29 +2337,29 @@
       <c r="E50">
         <v>148</v>
       </c>
-      <c r="F50" s="17">
+      <c r="G50" s="17">
         <v>13</v>
       </c>
-      <c r="G50" s="17">
+      <c r="H50" s="17">
         <v>41</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>161</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>21</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1.7438097172427101</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>271</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>606.05207187385395</v>
       </c>
     </row>
-    <row r="51" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2318,23 +2374,23 @@
       <c r="E51">
         <v>22</v>
       </c>
-      <c r="F51" s="17">
+      <c r="G51" s="17">
         <v>13</v>
       </c>
-      <c r="G51" s="17">
+      <c r="H51" s="17">
         <v>41</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>161</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0.15572843997809899</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>15.1023102310232</v>
       </c>
     </row>
-    <row r="52" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2349,23 +2405,23 @@
       <c r="E52">
         <v>43</v>
       </c>
-      <c r="F52" s="17">
+      <c r="G52" s="17">
         <v>13</v>
       </c>
-      <c r="G52" s="17">
+      <c r="H52" s="17">
         <v>41</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>161</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.51551102947669503</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>69.133846718005003</v>
       </c>
     </row>
-    <row r="53" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2380,26 +2436,26 @@
       <c r="E53">
         <v>64</v>
       </c>
-      <c r="F53" s="17">
+      <c r="G53" s="17">
         <v>13</v>
       </c>
-      <c r="G53" s="17">
+      <c r="H53" s="17">
         <v>41</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>161</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>1.1990913265396199</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>6.7943929973866899</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>224.93876054272101</v>
       </c>
     </row>
-    <row r="54" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2414,26 +2470,26 @@
       <c r="E54">
         <v>85</v>
       </c>
-      <c r="F54" s="17">
+      <c r="G54" s="17">
         <v>13</v>
       </c>
-      <c r="G54" s="17">
+      <c r="H54" s="17">
         <v>41</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>161</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>2.0834142809205001</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>112.049556463776</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>487.52181884855099</v>
       </c>
     </row>
-    <row r="55" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -2448,26 +2504,26 @@
       <c r="E55">
         <v>106</v>
       </c>
-      <c r="F55" s="17">
+      <c r="G55" s="17">
         <v>13</v>
       </c>
-      <c r="G55" s="17">
+      <c r="H55" s="17">
         <v>41</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>161</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>1.7725093163313901</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>153.61008854707501</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>539.18298496516297</v>
       </c>
     </row>
-    <row r="56" spans="1:21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
@@ -2484,29 +2540,29 @@
       <c r="E56">
         <v>148</v>
       </c>
-      <c r="F56" s="17">
+      <c r="G56" s="17">
         <v>13</v>
       </c>
-      <c r="G56" s="17">
+      <c r="H56" s="17">
         <v>41</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>161</v>
       </c>
-      <c r="I56" s="17">
+      <c r="J56" s="17">
         <v>19</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>2.96760477561328</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>248</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>720.04693802713598</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -2521,25 +2577,26 @@
       <c r="E57">
         <v>22</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57"/>
+      <c r="G57" s="17">
         <v>13</v>
       </c>
-      <c r="G57" s="17">
+      <c r="H57" s="17">
         <v>41</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>161</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.205180056869359</v>
       </c>
-      <c r="K57"/>
-      <c r="P57"/>
-      <c r="U57">
+      <c r="L57"/>
+      <c r="Q57"/>
+      <c r="V57">
         <v>17.367070040337399</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -2554,25 +2611,26 @@
       <c r="E58">
         <v>43</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58"/>
+      <c r="G58" s="17">
         <v>13</v>
       </c>
-      <c r="G58" s="17">
+      <c r="H58" s="17">
         <v>41</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>161</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>0.72603362709948605</v>
       </c>
-      <c r="K58"/>
-      <c r="P58"/>
-      <c r="U58">
+      <c r="L58"/>
+      <c r="Q58"/>
+      <c r="V58">
         <v>102.952695269526</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -2587,27 +2645,28 @@
       <c r="E59">
         <v>64</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59"/>
+      <c r="G59" s="17">
         <v>13</v>
       </c>
-      <c r="G59" s="17">
+      <c r="H59" s="17">
         <v>41</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>161</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>1.7628618357146599</v>
       </c>
-      <c r="K59"/>
-      <c r="P59">
+      <c r="L59"/>
+      <c r="Q59">
         <v>27.4204958315872</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>285.518151815181</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -2622,27 +2681,28 @@
       <c r="E60">
         <v>85</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60"/>
+      <c r="G60" s="17">
         <v>13</v>
       </c>
-      <c r="G60" s="17">
+      <c r="H60" s="17">
         <v>41</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>161</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>2.4757819536920902</v>
       </c>
-      <c r="K60"/>
-      <c r="P60">
+      <c r="L60"/>
+      <c r="Q60">
         <v>163.151389604461</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>574.650531719838</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -2657,27 +2717,28 @@
       <c r="E61">
         <v>106</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61"/>
+      <c r="G61" s="17">
         <v>13</v>
       </c>
-      <c r="G61" s="17">
+      <c r="H61" s="17">
         <v>41</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>161</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>3.07255700181911</v>
       </c>
-      <c r="K61"/>
-      <c r="P61">
+      <c r="L61"/>
+      <c r="Q61">
         <v>194.957595107353</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>589.964063072974</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -2694,30 +2755,31 @@
       <c r="E62">
         <v>148</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62"/>
+      <c r="G62" s="17">
         <v>13</v>
       </c>
-      <c r="G62" s="17">
+      <c r="H62" s="17">
         <v>41</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>161</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J62" s="4">
         <v>18</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>2.9960615319404398</v>
       </c>
-      <c r="K62"/>
-      <c r="P62" s="4">
+      <c r="L62"/>
+      <c r="Q62" s="4">
         <v>381</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>872.39017235056804</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -2732,25 +2794,26 @@
       <c r="E63">
         <v>22</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63"/>
+      <c r="G63" s="17">
         <v>13</v>
       </c>
-      <c r="G63" s="17">
+      <c r="H63" s="17">
         <v>41</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>161</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.21385616644001201</v>
       </c>
-      <c r="K63"/>
-      <c r="P63"/>
-      <c r="U63">
+      <c r="L63"/>
+      <c r="Q63"/>
+      <c r="V63">
         <v>27.1653832049873</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -2765,25 +2828,26 @@
       <c r="E64">
         <v>43</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64"/>
+      <c r="G64" s="17">
         <v>13</v>
       </c>
-      <c r="G64" s="17">
+      <c r="H64" s="17">
         <v>41</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>161</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0.93622507550202105</v>
       </c>
-      <c r="K64"/>
-      <c r="P64"/>
-      <c r="U64">
+      <c r="L64"/>
+      <c r="Q64"/>
+      <c r="V64">
         <v>119.91492482581501</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>53</v>
       </c>
@@ -2798,27 +2862,28 @@
       <c r="E65">
         <v>64</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65"/>
+      <c r="G65" s="17">
         <v>13</v>
       </c>
-      <c r="G65" s="17">
+      <c r="H65" s="17">
         <v>41</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>161</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2.4512327581639299</v>
       </c>
-      <c r="K65"/>
-      <c r="P65">
+      <c r="L65"/>
+      <c r="Q65">
         <v>24.391422385832598</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>404.14814814814798</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
@@ -2833,27 +2898,28 @@
       <c r="E66">
         <v>85</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66"/>
+      <c r="G66" s="17">
         <v>13</v>
       </c>
-      <c r="G66" s="17">
+      <c r="H66" s="17">
         <v>41</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>161</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>3.0871275675102798</v>
       </c>
-      <c r="K66"/>
-      <c r="P66">
+      <c r="L66"/>
+      <c r="Q66">
         <v>89.638897713045694</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>613.47414741474097</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
@@ -2868,28 +2934,29 @@
       <c r="E67">
         <v>106</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67"/>
+      <c r="G67" s="17">
         <v>13</v>
       </c>
-      <c r="G67" s="17">
+      <c r="H67" s="17">
         <v>41</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>161</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67">
+      <c r="J67" s="3"/>
+      <c r="K67">
         <v>2.6042678511506301</v>
       </c>
-      <c r="K67"/>
-      <c r="P67">
+      <c r="L67"/>
+      <c r="Q67">
         <v>204.553086867964</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>672.457645764576</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
@@ -2906,30 +2973,31 @@
       <c r="E68">
         <v>148</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68"/>
+      <c r="G68" s="17">
         <v>13</v>
       </c>
-      <c r="G68" s="17">
+      <c r="H68" s="17">
         <v>41</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>161</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J68" s="4">
         <v>16</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>3.70366118577912</v>
       </c>
-      <c r="K68"/>
-      <c r="P68" s="4">
+      <c r="L68"/>
+      <c r="Q68" s="4">
         <v>307</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>896.99156582324895</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>54</v>
       </c>
@@ -2944,25 +3012,26 @@
       <c r="E69">
         <v>22</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69"/>
+      <c r="G69" s="17">
         <v>13</v>
       </c>
-      <c r="G69" s="17">
+      <c r="H69" s="17">
         <v>41</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>161</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.27198389290192698</v>
       </c>
-      <c r="K69"/>
-      <c r="P69"/>
-      <c r="U69">
+      <c r="L69"/>
+      <c r="Q69"/>
+      <c r="V69">
         <v>44.180418041804103</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
@@ -2977,25 +3046,26 @@
       <c r="E70">
         <v>43</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70"/>
+      <c r="G70" s="17">
         <v>13</v>
       </c>
-      <c r="G70" s="17">
+      <c r="H70" s="17">
         <v>41</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>161</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>1.1547614842549501</v>
       </c>
-      <c r="K70"/>
-      <c r="P70"/>
-      <c r="U70">
+      <c r="L70"/>
+      <c r="Q70"/>
+      <c r="V70">
         <v>156.42097543087601</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
@@ -3010,27 +3080,28 @@
       <c r="E71">
         <v>64</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71"/>
+      <c r="G71" s="17">
         <v>13</v>
       </c>
-      <c r="G71" s="17">
+      <c r="H71" s="17">
         <v>41</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>161</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>2.45145352431076</v>
       </c>
-      <c r="K71"/>
-      <c r="P71">
+      <c r="L71"/>
+      <c r="Q71">
         <v>16.421651721956401</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>406.94096076274201</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>54</v>
       </c>
@@ -3045,27 +3116,28 @@
       <c r="E72">
         <v>85</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72"/>
+      <c r="G72" s="17">
         <v>13</v>
       </c>
-      <c r="G72" s="17">
+      <c r="H72" s="17">
         <v>41</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>161</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>2.9339600148354799</v>
       </c>
-      <c r="K72"/>
-      <c r="P72">
+      <c r="L72"/>
+      <c r="Q72">
         <v>151.80310889127901</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>698.39090575724197</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -3080,27 +3152,28 @@
       <c r="E73">
         <v>106</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73"/>
+      <c r="G73" s="17">
         <v>13</v>
       </c>
-      <c r="G73" s="17">
+      <c r="H73" s="17">
         <v>41</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>161</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>2.99597322548171</v>
       </c>
-      <c r="K73"/>
-      <c r="P73">
+      <c r="L73"/>
+      <c r="Q73">
         <v>145.60855091923901</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>614.30143014301404</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>54</v>
       </c>
@@ -3117,35 +3190,36 @@
       <c r="E74">
         <v>148</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74"/>
+      <c r="G74" s="17">
         <v>13</v>
       </c>
-      <c r="G74" s="17">
+      <c r="H74" s="17">
         <v>41</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>161</v>
       </c>
-      <c r="I74" s="5">
+      <c r="J74" s="5">
         <v>15</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>3.5699431306405698</v>
       </c>
-      <c r="K74"/>
-      <c r="P74" s="4">
+      <c r="L74"/>
+      <c r="Q74" s="4">
         <v>323</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>925.964063072974</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="3">
-        <f>D75+H75</f>
+        <f>D75+I75</f>
         <v>35902</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3154,34 +3228,34 @@
       <c r="D75" s="3">
         <v>35741</v>
       </c>
-      <c r="F75" s="5">
+      <c r="G75" s="5">
         <v>16</v>
       </c>
-      <c r="G75" s="17">
+      <c r="H75" s="17">
         <v>44</v>
       </c>
-      <c r="H75" s="4">
+      <c r="I75" s="4">
         <v>161</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1.8383940287556599</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>0.67099567843637897</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>402.69559467140499</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>721.80488146169102</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" ref="B76:B90" si="10">D76+H76</f>
+        <f t="shared" ref="B76:B90" si="10">D76+I76</f>
         <v>35902</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3190,29 +3264,29 @@
       <c r="D76" s="3">
         <v>35741</v>
       </c>
-      <c r="F76" s="5">
+      <c r="G76" s="5">
         <v>16</v>
       </c>
-      <c r="G76" s="17">
+      <c r="H76" s="17">
         <v>44</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I76" s="4">
         <v>161</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1.5423715660406601</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>0.446008937779305</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>329.21792419018499</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>564.96427914352796</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="20" t="s">
         <v>64</v>
       </c>
@@ -3226,29 +3300,29 @@
       <c r="D77" s="3">
         <v>35741</v>
       </c>
-      <c r="F77" s="5">
+      <c r="G77" s="5">
         <v>16</v>
       </c>
-      <c r="G77" s="17">
+      <c r="H77" s="17">
         <v>44</v>
       </c>
-      <c r="H77" s="4">
+      <c r="I77" s="4">
         <v>161</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>1.0468020261594599</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>0.137746893876147</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>246.95685534146699</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>392.12508648411898</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="20" t="s">
         <v>68</v>
       </c>
@@ -3262,29 +3336,29 @@
       <c r="D78" s="3">
         <v>35741</v>
       </c>
-      <c r="F78" s="5">
+      <c r="G78" s="5">
         <v>16</v>
       </c>
-      <c r="G78" s="17">
+      <c r="H78" s="17">
         <v>44</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I78" s="4">
         <v>161</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>0.877908371312066</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>1.6154299464715201E-2</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>211.17712681914799</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>335.64026752420898</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="20" t="s">
         <v>56</v>
       </c>
@@ -3298,29 +3372,29 @@
       <c r="D79" s="3">
         <v>35741</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <v>16</v>
       </c>
-      <c r="G79" s="17">
+      <c r="H79" s="17">
         <v>44</v>
       </c>
-      <c r="H79" s="4">
+      <c r="I79" s="4">
         <v>161</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>3.1175482906043199</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>0.82298089672445096</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>615.67786129297701</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>1047.5702821131399</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="20" t="s">
         <v>61</v>
       </c>
@@ -3334,29 +3408,29 @@
       <c r="D80" s="3">
         <v>35741</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>16</v>
       </c>
-      <c r="G80" s="17">
+      <c r="H80" s="17">
         <v>44</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I80" s="4">
         <v>161</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>2.4006321166029299</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>0.51071453125767297</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>476.16922680854702</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>796.46496972084105</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="20" t="s">
         <v>65</v>
       </c>
@@ -3370,29 +3444,29 @@
       <c r="D81" s="3">
         <v>35741</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>16</v>
       </c>
-      <c r="G81" s="17">
+      <c r="H81" s="17">
         <v>44</v>
       </c>
-      <c r="H81" s="4">
+      <c r="I81" s="4">
         <v>161</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>2.27378550364736</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>0.46617639836959102</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>417.10036799410398</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>699.06221414893105</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="20" t="s">
         <v>69</v>
       </c>
@@ -3406,29 +3480,29 @@
       <c r="D82" s="3">
         <v>35741</v>
       </c>
-      <c r="F82" s="5">
+      <c r="G82" s="5">
         <v>16</v>
       </c>
-      <c r="G82" s="17">
+      <c r="H82" s="17">
         <v>44</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I82" s="4">
         <v>161</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>2.1259859184738898</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>0.39720129646908497</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>383.1096258979</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>655.12957718011205</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="20" t="s">
         <v>58</v>
       </c>
@@ -3442,29 +3516,29 @@
       <c r="D83" s="3">
         <v>35741</v>
       </c>
-      <c r="F83" s="5">
+      <c r="G83" s="5">
         <v>16</v>
       </c>
-      <c r="G83" s="17">
+      <c r="H83" s="17">
         <v>44</v>
       </c>
-      <c r="H83" s="4">
+      <c r="I83" s="4">
         <v>161</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>3.1976210968916199</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>0.75002799194617598</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>591.90816805568898</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>1030.5631638546899</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="20" t="s">
         <v>62</v>
       </c>
@@ -3478,29 +3552,29 @@
       <c r="D84" s="3">
         <v>35741</v>
       </c>
-      <c r="F84" s="5">
+      <c r="G84" s="5">
         <v>16</v>
       </c>
-      <c r="G84" s="17">
+      <c r="H84" s="17">
         <v>44</v>
       </c>
-      <c r="H84" s="4">
+      <c r="I84" s="4">
         <v>161</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>2.8494278498158598</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>0.67105313558905799</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>468.56502491153498</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>845.29513434514297</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="20" t="s">
         <v>66</v>
       </c>
@@ -3514,29 +3588,29 @@
       <c r="D85" s="3">
         <v>35741</v>
       </c>
-      <c r="F85" s="5">
+      <c r="G85" s="5">
         <v>16</v>
       </c>
-      <c r="G85" s="17">
+      <c r="H85" s="17">
         <v>44</v>
       </c>
-      <c r="H85" s="4">
+      <c r="I85" s="4">
         <v>161</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>2.5646579092178898</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>0.37285272307616701</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>447.03257429291102</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>785.61059731698401</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="20" t="s">
         <v>70</v>
       </c>
@@ -3550,29 +3624,29 @@
       <c r="D86" s="3">
         <v>35741</v>
       </c>
-      <c r="F86" s="5">
+      <c r="G86" s="5">
         <v>16</v>
       </c>
-      <c r="G86" s="17">
+      <c r="H86" s="17">
         <v>44</v>
       </c>
-      <c r="H86" s="4">
+      <c r="I86" s="4">
         <v>161</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>2.5331579021630199</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>0.20482811962873801</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>388.02832898370002</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>716.45025122502898</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="20" t="s">
         <v>59</v>
       </c>
@@ -3586,29 +3660,29 @@
       <c r="D87" s="3">
         <v>35741</v>
       </c>
-      <c r="F87" s="5">
+      <c r="G87" s="5">
         <v>16</v>
       </c>
-      <c r="G87" s="17">
+      <c r="H87" s="17">
         <v>44</v>
       </c>
-      <c r="H87" s="4">
+      <c r="I87" s="4">
         <v>161</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>4.7388991576481798</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>0.847369248146147</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>706.23772721995294</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>1298.67196670717</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="20" t="s">
         <v>63</v>
       </c>
@@ -3622,29 +3696,29 @@
       <c r="D88" s="3">
         <v>35741</v>
       </c>
-      <c r="F88" s="5">
+      <c r="G88" s="5">
         <v>16</v>
       </c>
-      <c r="G88" s="17">
+      <c r="H88" s="17">
         <v>44</v>
       </c>
-      <c r="H88" s="4">
+      <c r="I88" s="4">
         <v>161</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>4.1166241022674299</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>0.76206747532288899</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>625.70103129211805</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>1135.43192825251</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="20" t="s">
         <v>67</v>
       </c>
@@ -3658,29 +3732,29 @@
       <c r="D89" s="3">
         <v>35741</v>
       </c>
-      <c r="F89" s="5">
+      <c r="G89" s="5">
         <v>16</v>
       </c>
-      <c r="G89" s="17">
+      <c r="H89" s="17">
         <v>44</v>
       </c>
-      <c r="H89" s="4">
+      <c r="I89" s="4">
         <v>161</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>3.5468020261594599</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>0.57361464420763097</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>546.88870828516701</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>1009.9101083416</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="20" t="s">
         <v>71</v>
       </c>
@@ -3694,1533 +3768,1899 @@
       <c r="D90" s="3">
         <v>35741</v>
       </c>
-      <c r="F90" s="5">
+      <c r="G90" s="5">
         <v>16</v>
       </c>
-      <c r="G90" s="17">
+      <c r="H90" s="17">
         <v>44</v>
       </c>
-      <c r="H90" s="4">
+      <c r="I90" s="4">
         <v>161</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>2.9876680823444701</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>0.46009256985709301</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>446.80238868052101</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>859.16057930755699</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
       <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="3">
+        <v>29930</v>
+      </c>
+      <c r="F91" s="5">
+        <v>120</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="Q91" s="4">
+        <v>657</v>
+      </c>
+      <c r="U91" s="4">
+        <v>496</v>
+      </c>
+      <c r="V91" s="4">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
       <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="3">
+        <v>29930</v>
+      </c>
+      <c r="F92" s="5">
+        <v>120</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="Q92" s="4">
+        <v>640</v>
+      </c>
+      <c r="U92" s="4">
+        <v>481</v>
+      </c>
+      <c r="V92" s="4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="3">
+        <v>29930</v>
+      </c>
+      <c r="F93" s="5">
+        <v>120</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="Q93" s="4">
+        <v>652</v>
+      </c>
+      <c r="U93" s="4">
+        <v>490</v>
+      </c>
+      <c r="V93" s="4">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="C94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="3">
+        <v>29930</v>
+      </c>
+      <c r="F94" s="5">
+        <v>120</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="Q94" s="4">
+        <v>568</v>
+      </c>
+      <c r="U94" s="4">
+        <v>430</v>
+      </c>
+      <c r="V94" s="4">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
       <c r="D95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="L95">
+        <v>3.3238030118388898E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
       <c r="D96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="F96">
+        <v>21</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="L96">
+        <v>0.109379049467607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
       <c r="D97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="F97">
+        <v>28</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="L97">
+        <v>0.290782791382457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>73</v>
+      </c>
       <c r="D98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="F98">
+        <v>36</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="L98">
+        <v>0.49097468445169801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
       <c r="D99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="F99">
+        <v>50</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="L99">
+        <v>0.82121824528124998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>73</v>
+      </c>
       <c r="D100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="F100">
+        <v>57</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="L100">
+        <v>0.94371825906667095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
       <c r="D101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="F101">
+        <v>66</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="L101">
+        <v>0.980960954171744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>74</v>
+      </c>
       <c r="D102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="F102">
+        <v>14</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="L102">
+        <v>9.7134837966153798E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>74</v>
+      </c>
       <c r="D103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="L103">
+        <v>0.38504888310513802</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>74</v>
+      </c>
       <c r="D104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="F104">
+        <v>28</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="L104">
+        <v>0.66669193993967402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>74</v>
+      </c>
       <c r="D105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="F105">
+        <v>36</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="L105">
+        <v>0.82806270712595997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
       <c r="D106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="F106">
+        <v>50</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="L106">
+        <v>0.94903116056707604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
       <c r="D107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="F107">
+        <v>57</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="L107">
+        <v>0.96878842686282296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
       <c r="D108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="F108">
+        <v>66</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="L108">
+        <v>0.98848228021902196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>75</v>
+      </c>
       <c r="D109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="L109">
+        <v>0.17231777051132799</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
       <c r="D110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="F110">
+        <v>21</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="L110">
+        <v>0.52665686982701998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
       <c r="D111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="F111">
+        <v>28</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="L111">
+        <v>0.78575800519434602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>75</v>
+      </c>
       <c r="D112" s="3"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="F112">
+        <v>36</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="L112">
+        <v>0.88946711074104901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
       <c r="D113" s="3"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="F113">
+        <v>50</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="L113">
+        <v>0.96907792071728205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>75</v>
+      </c>
       <c r="D114" s="3"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="F114">
+        <v>57</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="L114">
+        <v>0.98757933510154305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>75</v>
+      </c>
       <c r="D115" s="3"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="F115">
+        <v>66</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="L115">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>76</v>
+      </c>
       <c r="D116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="F116">
+        <v>14</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="L116">
+        <v>0.22119398293916201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>76</v>
+      </c>
       <c r="D117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="F117">
+        <v>21</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="L117">
+        <v>0.62816857916416202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
       <c r="D118" s="3"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="2"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="F118">
+        <v>28</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="L118">
+        <v>0.84465346207078995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>76</v>
+      </c>
       <c r="D119" s="3"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="2"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="F119">
+        <v>36</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="L119">
+        <v>0.91580140170167201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>76</v>
+      </c>
       <c r="D120" s="3"/>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="2"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="F120">
+        <v>50</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="L120">
+        <v>0.98663503371914096</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>76</v>
+      </c>
       <c r="D121" s="3"/>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="F121">
+        <v>57</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="L121">
+        <v>0.98884070118168599</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>76</v>
+      </c>
       <c r="D122" s="3"/>
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F122">
+        <v>66</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="L122">
+        <v>0.99098019862035402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G125" s="6"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="F129" s="6"/>
-      <c r="U129" s="7"/>
+      <c r="G129" s="6"/>
       <c r="V129" s="7"/>
       <c r="W129" s="7"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X129" s="7"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="F130" s="6"/>
-      <c r="U130" s="7"/>
+      <c r="G130" s="6"/>
       <c r="V130" s="7"/>
       <c r="W130" s="7"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X130" s="7"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="F131" s="6"/>
-      <c r="U131" s="7"/>
+      <c r="G131" s="6"/>
       <c r="V131" s="7"/>
       <c r="W131" s="7"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X131" s="7"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="3"/>
-      <c r="U132" s="7"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="3"/>
       <c r="V132" s="7"/>
       <c r="W132" s="7"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X132" s="7"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="3"/>
-      <c r="U133" s="7"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="3"/>
       <c r="V133" s="7"/>
       <c r="W133" s="7"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X133" s="7"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="3"/>
-      <c r="U134" s="7"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="3"/>
       <c r="V134" s="7"/>
       <c r="W134" s="7"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="X134" s="7"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="F135" s="6"/>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="3"/>
-      <c r="U138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="3"/>
       <c r="V138" s="6"/>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="W138" s="6"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G139" s="6"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G140" s="6"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G141" s="6"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G142" s="6"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="G143" s="6"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G144" s="6"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="18"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F145" s="18"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="18"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="18"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F147" s="18"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="18"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F148" s="18"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="18"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F149" s="18"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="18"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F150" s="18"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="18"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F151" s="18"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="18"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F152" s="18"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="18"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F153" s="18"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="18"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="18"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F155" s="18"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="18"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="18"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F157" s="18"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="18"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F158" s="18"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="18"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F159" s="18"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="18"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F160" s="18"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="18"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F161" s="18"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="18"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F162" s="18"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="18"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F163" s="18"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="18"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F164" s="18"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="18"/>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F165" s="18"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="18"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F166" s="18"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="18"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F167" s="18"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="18"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F168" s="18"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="18"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F169" s="18"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="18"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F170" s="18"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="18"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F171" s="18"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="18"/>
-      <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F172" s="18"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="18"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F173" s="18"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="18"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F174" s="18"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="18"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F175" s="18"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="18"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F176" s="18"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="18"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F177" s="18"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="18"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F178" s="18"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="18"/>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F179" s="18"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="18"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="18"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F181" s="18"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="18"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F182" s="18"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="18"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F183" s="18"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="18"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F184" s="18"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="18"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F185" s="18"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="18"/>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F186" s="18"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="18"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F187" s="18"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="18"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F188" s="18"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="18"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F189" s="18"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="18"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F190" s="18"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="18"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F191" s="18"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="18"/>
-    </row>
-    <row r="193" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F192" s="18"/>
+    </row>
+    <row r="193" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="18"/>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F193" s="18"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="18"/>
-    </row>
-    <row r="195" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F194" s="18"/>
+    </row>
+    <row r="195" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="18"/>
-    </row>
-    <row r="196" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F195" s="18"/>
+    </row>
+    <row r="196" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="18"/>
-    </row>
-    <row r="197" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F196" s="18"/>
+    </row>
+    <row r="197" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="18"/>
-    </row>
-    <row r="198" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F197" s="18"/>
+    </row>
+    <row r="198" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="18"/>
-    </row>
-    <row r="199" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F198" s="18"/>
+    </row>
+    <row r="199" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="18"/>
-    </row>
-    <row r="200" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F199" s="18"/>
+    </row>
+    <row r="200" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="18"/>
-      <c r="G200" s="3"/>
-    </row>
-    <row r="201" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="F200" s="18"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="CR201" s="5"/>
-    </row>
-    <row r="202" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS201" s="5"/>
+    </row>
+    <row r="202" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="CR202" s="5"/>
-    </row>
-    <row r="203" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS202" s="5"/>
+    </row>
+    <row r="203" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="CR203" s="5"/>
-    </row>
-    <row r="204" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS203" s="5"/>
+    </row>
+    <row r="204" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="CR204" s="5"/>
-    </row>
-    <row r="205" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS204" s="5"/>
+    </row>
+    <row r="205" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="CR205" s="5"/>
-    </row>
-    <row r="206" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS205" s="5"/>
+    </row>
+    <row r="206" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="CR206" s="5"/>
-    </row>
-    <row r="207" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS206" s="5"/>
+    </row>
+    <row r="207" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="CR207" s="5"/>
-    </row>
-    <row r="208" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS207" s="5"/>
+    </row>
+    <row r="208" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="CR208" s="5"/>
-    </row>
-    <row r="209" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS208" s="5"/>
+    </row>
+    <row r="209" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="CR209" s="5"/>
-    </row>
-    <row r="210" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS209" s="5"/>
+    </row>
+    <row r="210" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="CR210" s="5"/>
-    </row>
-    <row r="211" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS210" s="5"/>
+    </row>
+    <row r="211" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="CR211" s="5"/>
-    </row>
-    <row r="212" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS211" s="5"/>
+    </row>
+    <row r="212" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="CR212" s="5"/>
-    </row>
-    <row r="213" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS212" s="5"/>
+    </row>
+    <row r="213" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="CR213" s="5"/>
-    </row>
-    <row r="214" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS213" s="5"/>
+    </row>
+    <row r="214" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="CR214" s="5"/>
-    </row>
-    <row r="215" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS214" s="5"/>
+    </row>
+    <row r="215" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="CR215" s="5"/>
-    </row>
-    <row r="216" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS215" s="5"/>
+    </row>
+    <row r="216" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="CR216" s="5"/>
-    </row>
-    <row r="217" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS216" s="5"/>
+    </row>
+    <row r="217" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="CR217" s="5"/>
-    </row>
-    <row r="218" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS217" s="5"/>
+    </row>
+    <row r="218" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="CR218" s="5"/>
-    </row>
-    <row r="219" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS218" s="5"/>
+    </row>
+    <row r="219" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="CR219" s="5"/>
-    </row>
-    <row r="220" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS219" s="5"/>
+    </row>
+    <row r="220" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="CR220" s="5"/>
-    </row>
-    <row r="221" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS220" s="5"/>
+    </row>
+    <row r="221" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="CR221" s="5"/>
-    </row>
-    <row r="222" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS221" s="5"/>
+    </row>
+    <row r="222" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="CR222" s="5"/>
-    </row>
-    <row r="223" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS222" s="5"/>
+    </row>
+    <row r="223" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="CR223" s="5"/>
-    </row>
-    <row r="224" spans="2:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS223" s="5"/>
+    </row>
+    <row r="224" spans="2:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="CR224" s="5"/>
-    </row>
-    <row r="225" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS224" s="5"/>
+    </row>
+    <row r="225" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="CR225" s="5"/>
-    </row>
-    <row r="226" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS225" s="5"/>
+    </row>
+    <row r="226" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="CR226" s="5"/>
-    </row>
-    <row r="227" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS226" s="5"/>
+    </row>
+    <row r="227" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="CR227" s="5"/>
-    </row>
-    <row r="228" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS227" s="5"/>
+    </row>
+    <row r="228" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="CR228" s="5"/>
-    </row>
-    <row r="229" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS228" s="5"/>
+    </row>
+    <row r="229" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
-      <c r="CR229" s="5"/>
-    </row>
-    <row r="230" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS229" s="5"/>
+    </row>
+    <row r="230" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
-      <c r="CR230" s="5"/>
-    </row>
-    <row r="231" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS230" s="5"/>
+    </row>
+    <row r="231" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
-      <c r="CR231" s="5"/>
-    </row>
-    <row r="232" spans="1:96" x14ac:dyDescent="0.55000000000000004">
+      <c r="CS231" s="5"/>
+    </row>
+    <row r="232" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
-      <c r="G232" s="3"/>
-    </row>
-    <row r="233" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G233" s="3"/>
-    </row>
-    <row r="234" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G234" s="3"/>
-    </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G235" s="3"/>
-    </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G236" s="3"/>
-    </row>
-    <row r="237" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G237" s="3"/>
-    </row>
-    <row r="238" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G238" s="3"/>
-    </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G239" s="3"/>
-    </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.55000000000000004">
-      <c r="G240" s="3"/>
-    </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G241" s="3"/>
-    </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G242" s="3"/>
-    </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G243" s="3"/>
-    </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G244" s="3"/>
-    </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G245" s="3"/>
-    </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G246" s="3"/>
-    </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G247" s="3"/>
-    </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G248" s="3"/>
-    </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G249" s="3"/>
-    </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G250" s="3"/>
-    </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G251" s="3"/>
-    </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G252" s="3"/>
-    </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G253" s="3"/>
-    </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G254" s="3"/>
-    </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G255" s="3"/>
-    </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G256" s="3"/>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G257" s="3"/>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G258" s="3"/>
-    </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G259" s="3"/>
-    </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G260" s="3"/>
-    </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G261" s="3"/>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G262" s="3"/>
-    </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G263" s="3"/>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G264" s="3"/>
-    </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G265" s="3"/>
-    </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G266" s="3"/>
-    </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G267" s="3"/>
-    </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G268" s="3"/>
-    </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G269" s="3"/>
-    </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G270" s="3"/>
-    </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G271" s="3"/>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G272" s="3"/>
-    </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G273" s="3"/>
-    </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G274" s="3"/>
-    </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G275" s="3"/>
-    </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G276" s="3"/>
-    </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G277" s="3"/>
-    </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G278" s="3"/>
-    </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G279" s="3"/>
-    </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G280" s="3"/>
-    </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G281" s="3"/>
-    </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G282" s="3"/>
-    </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G283" s="3"/>
-    </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G284" s="3"/>
-    </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G285" s="3"/>
-    </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G286" s="3"/>
-    </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G287" s="3"/>
-    </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G288" s="3"/>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G289" s="3"/>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G290" s="3"/>
-    </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G291" s="3"/>
-    </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G292" s="3"/>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G293" s="3"/>
-    </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G294" s="3"/>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G295" s="3"/>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G296" s="3"/>
-    </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G297" s="3"/>
-    </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G298" s="3"/>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G299" s="3"/>
-    </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G300" s="3"/>
-    </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G301" s="3"/>
-    </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G302" s="3"/>
-    </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G303" s="3"/>
-    </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G304" s="3"/>
-    </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G305" s="3"/>
-    </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G306" s="3"/>
-    </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G307" s="3"/>
-    </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G308" s="3"/>
-    </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G309" s="3"/>
-    </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G310" s="3"/>
-    </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G311" s="3"/>
-    </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G312" s="3"/>
-    </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G313" s="3"/>
-    </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G314" s="3"/>
-    </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G315" s="3"/>
-    </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G316" s="3"/>
-    </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G317" s="3"/>
-    </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G318" s="3"/>
-    </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G319" s="3"/>
-    </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G320" s="3"/>
-    </row>
-    <row r="321" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G321" s="3"/>
-    </row>
-    <row r="322" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G322" s="3"/>
-    </row>
-    <row r="323" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G323" s="3"/>
-    </row>
-    <row r="324" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G324" s="3"/>
-    </row>
-    <row r="325" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G325" s="3"/>
-    </row>
-    <row r="326" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G326" s="3"/>
-    </row>
-    <row r="327" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G327" s="3"/>
-    </row>
-    <row r="328" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G328" s="3"/>
-    </row>
-    <row r="329" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G329" s="3"/>
-    </row>
-    <row r="330" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G330" s="3"/>
-    </row>
-    <row r="331" spans="2:98" x14ac:dyDescent="0.55000000000000004">
-      <c r="G331" s="3"/>
-    </row>
-    <row r="332" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H280" s="3"/>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H285" s="3"/>
+    </row>
+    <row r="286" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H289" s="3"/>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H294" s="3"/>
+    </row>
+    <row r="295" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H295" s="3"/>
+    </row>
+    <row r="296" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H297" s="3"/>
+    </row>
+    <row r="298" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H298" s="3"/>
+    </row>
+    <row r="299" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H299" s="3"/>
+    </row>
+    <row r="300" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H301" s="3"/>
+    </row>
+    <row r="302" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H305" s="3"/>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H316" s="3"/>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H319" s="3"/>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H322" s="3"/>
+    </row>
+    <row r="323" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="2:99" x14ac:dyDescent="0.55000000000000004">
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="19"/>
-      <c r="CS332" s="10"/>
+      <c r="F332" s="19"/>
       <c r="CT332" s="10"/>
-    </row>
-    <row r="333" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU332" s="10"/>
+    </row>
+    <row r="333" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="19"/>
-      <c r="CS333" s="10"/>
+      <c r="F333" s="19"/>
       <c r="CT333" s="10"/>
-    </row>
-    <row r="334" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU333" s="10"/>
+    </row>
+    <row r="334" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="19"/>
-      <c r="CS334" s="10"/>
+      <c r="F334" s="19"/>
       <c r="CT334" s="10"/>
-    </row>
-    <row r="335" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU334" s="10"/>
+    </row>
+    <row r="335" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
       <c r="E335" s="19"/>
-      <c r="CS335" s="10"/>
+      <c r="F335" s="19"/>
       <c r="CT335" s="10"/>
-    </row>
-    <row r="336" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU335" s="10"/>
+    </row>
+    <row r="336" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="19"/>
-      <c r="CS336" s="10"/>
+      <c r="F336" s="19"/>
       <c r="CT336" s="10"/>
-    </row>
-    <row r="337" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU336" s="10"/>
+    </row>
+    <row r="337" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
       <c r="E337" s="19"/>
-      <c r="CS337" s="10"/>
+      <c r="F337" s="19"/>
       <c r="CT337" s="10"/>
-    </row>
-    <row r="338" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU337" s="10"/>
+    </row>
+    <row r="338" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
       <c r="E338" s="19"/>
-      <c r="CS338" s="10"/>
+      <c r="F338" s="19"/>
       <c r="CT338" s="10"/>
-    </row>
-    <row r="339" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU338" s="10"/>
+    </row>
+    <row r="339" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
       <c r="E339" s="19"/>
-      <c r="CS339" s="10"/>
+      <c r="F339" s="19"/>
       <c r="CT339" s="10"/>
-    </row>
-    <row r="340" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU339" s="10"/>
+    </row>
+    <row r="340" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
       <c r="E340" s="19"/>
-      <c r="CS340" s="10"/>
+      <c r="F340" s="19"/>
       <c r="CT340" s="10"/>
-    </row>
-    <row r="341" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU340" s="10"/>
+    </row>
+    <row r="341" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="19"/>
-      <c r="CS341" s="10"/>
+      <c r="F341" s="19"/>
       <c r="CT341" s="10"/>
-    </row>
-    <row r="342" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU341" s="10"/>
+    </row>
+    <row r="342" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="19"/>
-      <c r="CS342" s="10"/>
+      <c r="F342" s="19"/>
       <c r="CT342" s="10"/>
-    </row>
-    <row r="343" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU342" s="10"/>
+    </row>
+    <row r="343" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
       <c r="E343" s="19"/>
-      <c r="CS343" s="10"/>
+      <c r="F343" s="19"/>
       <c r="CT343" s="10"/>
-    </row>
-    <row r="344" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU343" s="10"/>
+    </row>
+    <row r="344" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
       <c r="E344" s="19"/>
-      <c r="CS344" s="10"/>
+      <c r="F344" s="19"/>
       <c r="CT344" s="10"/>
-    </row>
-    <row r="345" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU344" s="10"/>
+    </row>
+    <row r="345" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
       <c r="E345" s="19"/>
-      <c r="CS345" s="10"/>
+      <c r="F345" s="19"/>
       <c r="CT345" s="10"/>
-    </row>
-    <row r="346" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU345" s="10"/>
+    </row>
+    <row r="346" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
       <c r="E346" s="19"/>
-      <c r="CS346" s="10"/>
+      <c r="F346" s="19"/>
       <c r="CT346" s="10"/>
-    </row>
-    <row r="347" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU346" s="10"/>
+    </row>
+    <row r="347" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
       <c r="E347" s="19"/>
-      <c r="CS347" s="10"/>
+      <c r="F347" s="19"/>
       <c r="CT347" s="10"/>
-    </row>
-    <row r="348" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU347" s="10"/>
+    </row>
+    <row r="348" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
       <c r="E348" s="19"/>
-      <c r="CS348" s="10"/>
+      <c r="F348" s="19"/>
       <c r="CT348" s="10"/>
-    </row>
-    <row r="349" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU348" s="10"/>
+    </row>
+    <row r="349" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
       <c r="E349" s="19"/>
-      <c r="CS349" s="10"/>
+      <c r="F349" s="19"/>
       <c r="CT349" s="10"/>
-    </row>
-    <row r="350" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU349" s="10"/>
+    </row>
+    <row r="350" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
       <c r="E350" s="19"/>
-      <c r="CS350" s="10"/>
+      <c r="F350" s="19"/>
       <c r="CT350" s="10"/>
-    </row>
-    <row r="351" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU350" s="10"/>
+    </row>
+    <row r="351" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
       <c r="E351" s="19"/>
-      <c r="CS351" s="10"/>
+      <c r="F351" s="19"/>
       <c r="CT351" s="10"/>
-    </row>
-    <row r="352" spans="2:98" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU351" s="10"/>
+    </row>
+    <row r="352" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
       <c r="E352" s="19"/>
-      <c r="CS352" s="10"/>
+      <c r="F352" s="19"/>
       <c r="CT352" s="10"/>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="CU352" s="10"/>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
       <c r="E353" s="19"/>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F353" s="19"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
       <c r="E354" s="19"/>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F354" s="19"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
       <c r="E355" s="19"/>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F355" s="19"/>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
       <c r="E356" s="19"/>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F356" s="19"/>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
       <c r="E357" s="19"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F357" s="19"/>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
       <c r="E358" s="19"/>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F358" s="19"/>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
       <c r="E359" s="19"/>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F359" s="19"/>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
       <c r="E360" s="19"/>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F360" s="19"/>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
       <c r="E361" s="19"/>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F361" s="19"/>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
       <c r="E362" s="19"/>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F362" s="19"/>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
       <c r="E363" s="19"/>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F363" s="19"/>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
       <c r="E364" s="19"/>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F364" s="19"/>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
       <c r="E365" s="19"/>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F365" s="19"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
       <c r="E366" s="19"/>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F366" s="19"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
       <c r="E367" s="19"/>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F367" s="19"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
       <c r="E368" s="19"/>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F368" s="19"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
       <c r="E369" s="19"/>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F369" s="19"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
       <c r="E370" s="19"/>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F370" s="19"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
       <c r="E371" s="19"/>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F371" s="19"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
       <c r="E372" s="19"/>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F372" s="19"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
       <c r="E373" s="19"/>
+      <c r="F373" s="19"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:A90">
@@ -5233,6 +5673,245 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879B0D6D-D77B-4077-8329-2203B2B66B7B}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>3.3238030118388898E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.109379049467607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.290782791382457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0.49097468445169801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.82121824528124998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>0.94371825906667095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>0.980960954171744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>9.7134837966153798E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0.38504888310513802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0.66669193993967402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>0.82806270712595997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.94903116056707604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>0.96878842686282296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>0.98848228021902196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.17231777051132799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.52665686982701998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0.78575800519434602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0.88946711074104901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>0.96907792071728205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>0.98757933510154305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>0.22119398293916201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.62816857916416202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0.84465346207078995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0.91580140170167201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.98663503371914096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>0.98884070118168599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>0.99098019862035402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B4409-0AB8-4E66-B9FB-9C3FEBB6B073}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -5663,7 +6342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D2364-7B77-4803-95A3-4A9773488307}">
   <dimension ref="B1:J37"/>
   <sheetViews>
@@ -6286,7 +6965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887047BC-ACA2-4473-901E-35E64BB4B438}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -7066,7 +7745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
   <dimension ref="A1:N18"/>
   <sheetViews>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07995E68-99F9-40E5-8919-529105AD5FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EABD79-08E1-45B6-8447-6B20EA53FF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
-    <sheet name="Kunnunura" sheetId="19" r:id="rId2"/>
-    <sheet name="Roseworthy" sheetId="18" r:id="rId3"/>
-    <sheet name="Loxton" sheetId="17" r:id="rId4"/>
-    <sheet name="Bundy" sheetId="16" r:id="rId5"/>
-    <sheet name="Rainout" sheetId="15" r:id="rId6"/>
+    <sheet name="King8485" sheetId="20" r:id="rId2"/>
+    <sheet name="Kunnunura" sheetId="19" r:id="rId3"/>
+    <sheet name="Roseworthy" sheetId="18" r:id="rId4"/>
+    <sheet name="Loxton" sheetId="17" r:id="rId5"/>
+    <sheet name="Bundy" sheetId="16" r:id="rId6"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CU$373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CU$368</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="84">
   <si>
     <t>SimulationName</t>
   </si>
@@ -274,6 +275,24 @@
   <si>
     <t>Peanut.Phenology.DaysAfterEmergence</t>
   </si>
+  <si>
+    <t>lai</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>Kingaroy8485SowJan15Pop8.8</t>
+  </si>
+  <si>
+    <t>Kingaroy8485SowJan15Pop17.6</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,11 +335,6 @@
       <name val="MS Sans Serif"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,7 +363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -376,7 +390,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -791,19 +804,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU373"/>
+  <dimension ref="A1:CU368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V89" sqref="V89"/>
+      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.26171875" style="4" customWidth="1"/>
-    <col min="2" max="4" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="6" width="12" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.26171875" style="4" customWidth="1"/>
     <col min="8" max="8" width="32" style="4" bestFit="1" customWidth="1"/>
@@ -969,312 +983,248 @@
       <c r="CT1" s="4"/>
       <c r="CU1" s="4"/>
     </row>
-    <row r="2" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30987</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="Q2" s="13">
-        <v>622.70000000000005</v>
-      </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="4"/>
-      <c r="V2" s="13">
-        <v>1055.4000000000001</v>
-      </c>
-      <c r="W2" s="13"/>
-    </row>
-    <row r="3" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>30987</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="Q3" s="13">
-        <v>588.70000000000005</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="4"/>
-      <c r="V3" s="14">
-        <v>1032.8</v>
-      </c>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>31386</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="Q4" s="13">
-        <v>669</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="4"/>
-      <c r="V4" s="13">
-        <v>1194.5999999999999</v>
-      </c>
-      <c r="W4" s="13"/>
-    </row>
-    <row r="5" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>31386</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="Q5" s="15">
-        <v>722.6</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="4"/>
-      <c r="V5" s="13">
-        <v>1290.3</v>
-      </c>
-      <c r="W5" s="13"/>
-    </row>
     <row r="6" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32895</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>30291</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>32860</v>
+      </c>
+      <c r="E6" s="16">
+        <v>35</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="1"/>
-      <c r="Q6" s="13">
-        <v>355.6</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="V6" s="13">
-        <v>945.7</v>
-      </c>
-      <c r="W6" s="13"/>
+      <c r="K6">
+        <v>0.65</v>
+      </c>
+      <c r="V6">
+        <v>68.141720896601512</v>
+      </c>
     </row>
     <row r="7" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32916</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>30314</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>32860</v>
+      </c>
+      <c r="E7" s="16">
+        <v>56</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="1"/>
-      <c r="Q7" s="13">
-        <v>461.2</v>
-      </c>
-      <c r="R7" s="13"/>
-      <c r="V7" s="16">
-        <v>1011.4</v>
-      </c>
-      <c r="W7" s="16"/>
+      <c r="K7">
+        <v>1.55</v>
+      </c>
+      <c r="V7">
+        <v>196.31271714018646</v>
+      </c>
     </row>
     <row r="8" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32937</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>30334</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>32860</v>
+      </c>
+      <c r="E8" s="16">
+        <v>77</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="1"/>
-      <c r="Q8" s="15">
-        <v>563.9</v>
-      </c>
-      <c r="R8" s="15"/>
-      <c r="V8" s="13">
-        <v>1139.2</v>
-      </c>
-      <c r="W8" s="13"/>
+      <c r="K8">
+        <v>1.64</v>
+      </c>
+      <c r="V8">
+        <v>292.38382448900381</v>
+      </c>
     </row>
     <row r="9" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32972</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>30354</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>32860</v>
+      </c>
+      <c r="E9" s="16">
+        <v>112</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="Q9" s="15">
-        <v>392.9</v>
-      </c>
-      <c r="R9" s="15"/>
-      <c r="V9" s="15">
-        <v>810.1</v>
-      </c>
-      <c r="W9" s="15"/>
+      <c r="K9">
+        <v>1.3</v>
+      </c>
+      <c r="V9">
+        <v>298.91892845175676</v>
+      </c>
     </row>
     <row r="10" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <f>D10+E10</f>
+        <v>32882</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>30376</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>32854</v>
+      </c>
+      <c r="E10" s="16">
+        <v>28</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="1"/>
-      <c r="Q10" s="15">
-        <v>385.2</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="V10" s="13">
-        <v>667.6</v>
-      </c>
-      <c r="W10" s="13"/>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>59.296189630416698</v>
+      </c>
+      <c r="W10">
+        <v>2.4734753777584499</v>
+      </c>
     </row>
     <row r="11" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
-        <v>32895</v>
+        <f t="shared" ref="B11:B15" si="0">D11+E11</f>
+        <v>32896</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>32860</v>
-      </c>
-      <c r="E11" s="17">
-        <v>35</v>
-      </c>
-      <c r="F11" s="17"/>
+        <v>32854</v>
+      </c>
+      <c r="E11" s="16">
+        <v>42</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
-      <c r="K11">
-        <v>0.65</v>
+      <c r="Q11">
+        <v>4.9439358603006394</v>
+      </c>
+      <c r="R11">
+        <v>4.767776490674E-2</v>
       </c>
       <c r="V11">
-        <v>68.141720896601512</v>
+        <v>220.41431855718901</v>
+      </c>
+      <c r="W11">
+        <v>5.2430744977531898</v>
       </c>
     </row>
     <row r="12" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>32916</v>
+        <f t="shared" si="0"/>
+        <v>32909</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>32860</v>
-      </c>
-      <c r="E12" s="17">
-        <v>56</v>
-      </c>
-      <c r="F12" s="17"/>
+        <v>32854</v>
+      </c>
+      <c r="E12" s="16">
+        <v>55</v>
+      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="1"/>
-      <c r="K12">
-        <v>1.55</v>
+      <c r="Q12">
+        <v>29.7172309045791</v>
+      </c>
+      <c r="R12">
+        <v>0.88705616793873998</v>
       </c>
       <c r="V12">
-        <v>196.31271714018646</v>
+        <v>458.681268518595</v>
+      </c>
+      <c r="W12">
+        <v>11.007805458869541</v>
       </c>
     </row>
     <row r="13" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>32937</v>
+        <f t="shared" si="0"/>
+        <v>32929</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>32860</v>
-      </c>
-      <c r="E13" s="17">
-        <v>77</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>32854</v>
+      </c>
+      <c r="E13" s="16">
+        <v>75</v>
+      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="1"/>
-      <c r="K13">
-        <v>1.64</v>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="Q13">
+        <v>231.93041572949701</v>
+      </c>
+      <c r="R13">
+        <v>7.2106035349152506</v>
       </c>
       <c r="V13">
-        <v>292.38382448900381</v>
+        <v>884.24352834745696</v>
+      </c>
+      <c r="W13">
+        <v>21.509959196103651</v>
       </c>
     </row>
     <row r="14" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
-        <v>32972</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>32944</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>32860</v>
-      </c>
-      <c r="E14" s="17">
-        <v>112</v>
-      </c>
-      <c r="F14" s="17"/>
+        <v>32854</v>
+      </c>
+      <c r="E14" s="16">
+        <v>90</v>
+      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="1"/>
-      <c r="K14">
-        <v>1.3</v>
+      <c r="Q14">
+        <v>381.09646683874598</v>
+      </c>
+      <c r="R14">
+        <v>13.138243823585199</v>
       </c>
       <c r="V14">
-        <v>298.91892845175676</v>
+        <v>1003.75866276029</v>
+      </c>
+      <c r="W14">
+        <v>25.699515305663198</v>
       </c>
     </row>
     <row r="15" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1282,181 +1232,179 @@
         <v>35</v>
       </c>
       <c r="B15" s="1">
-        <f>D15+E15</f>
-        <v>32882</v>
-      </c>
-      <c r="C15" s="1"/>
+        <f t="shared" si="0"/>
+        <v>32960</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="1">
         <v>32854</v>
       </c>
-      <c r="E15" s="17">
-        <v>28</v>
-      </c>
-      <c r="F15" s="17"/>
+      <c r="E15" s="16">
+        <v>106</v>
+      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="1"/>
       <c r="Q15">
-        <v>0</v>
+        <v>518.33865894245798</v>
+      </c>
+      <c r="R15">
+        <v>19.886690890670998</v>
       </c>
       <c r="V15">
-        <v>59.296189630416698</v>
+        <v>1131.1101612622099</v>
       </c>
       <c r="W15">
-        <v>2.4734753777584499</v>
+        <v>31.930050346738302</v>
       </c>
     </row>
     <row r="16" spans="1:99" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B16:B20" si="0">D16+E16</f>
-        <v>32896</v>
+        <f>D16+E16</f>
+        <v>32882</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>32854</v>
       </c>
-      <c r="E16" s="17">
-        <v>42</v>
-      </c>
-      <c r="F16" s="17"/>
+      <c r="E16" s="16">
+        <v>28</v>
+      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="1"/>
-      <c r="Q16">
-        <v>4.9439358603006394</v>
-      </c>
-      <c r="R16">
-        <v>4.767776490674E-2</v>
-      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4"/>
       <c r="V16">
-        <v>220.41431855718901</v>
+        <v>63.242590486940699</v>
       </c>
       <c r="W16">
-        <v>5.2430744977531898</v>
+        <v>2.7319273834112296</v>
       </c>
     </row>
     <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>32909</v>
+        <f t="shared" ref="B17:B21" si="1">D17+E17</f>
+        <v>32896</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>32854</v>
       </c>
-      <c r="E17" s="17">
-        <v>55</v>
-      </c>
-      <c r="F17" s="17"/>
+      <c r="E17" s="16">
+        <v>42</v>
+      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="1"/>
       <c r="Q17">
-        <v>29.7172309045791</v>
+        <v>10.860009793588</v>
       </c>
       <c r="R17">
-        <v>0.88705616793873998</v>
+        <v>0.10893234096311599</v>
       </c>
       <c r="V17">
-        <v>458.681268518595</v>
+        <v>232.26763053275499</v>
       </c>
       <c r="W17">
-        <v>11.007805458869541</v>
+        <v>6.8552338164199274</v>
       </c>
     </row>
     <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>32929</v>
+        <f t="shared" si="1"/>
+        <v>32909</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>32854</v>
       </c>
-      <c r="E18" s="17">
-        <v>75</v>
-      </c>
-      <c r="F18" s="17"/>
+      <c r="E18" s="16">
+        <v>55</v>
+      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
       <c r="Q18">
-        <v>231.93041572949701</v>
+        <v>63.314548457510199</v>
       </c>
       <c r="R18">
-        <v>7.2106035349152506</v>
+        <v>2.02296756499311</v>
       </c>
       <c r="V18">
-        <v>884.24352834745696</v>
+        <v>466.58817963763698</v>
       </c>
       <c r="W18">
-        <v>21.509959196103651</v>
+        <v>12.565467243811909</v>
       </c>
     </row>
     <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>32944</v>
+        <f t="shared" si="1"/>
+        <v>32929</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>32854</v>
       </c>
-      <c r="E19" s="17">
-        <v>90</v>
-      </c>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16">
+        <v>75</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="1"/>
       <c r="Q19">
-        <v>381.09646683874598</v>
+        <v>356.457211151411</v>
       </c>
       <c r="R19">
-        <v>13.138243823585199</v>
+        <v>11.4835075295551</v>
       </c>
       <c r="V19">
-        <v>1003.75866276029</v>
+        <v>892.15043946649894</v>
       </c>
       <c r="W19">
-        <v>25.699515305663198</v>
+        <v>24.0564601232164</v>
       </c>
     </row>
     <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>32960</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>32944</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>32854</v>
       </c>
-      <c r="E20" s="17">
-        <v>106</v>
-      </c>
-      <c r="F20" s="17"/>
+      <c r="E20" s="16">
+        <v>90</v>
+      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="Q20">
-        <v>518.33865894245798</v>
+        <v>570.86233369575098</v>
       </c>
       <c r="R20">
-        <v>19.886690890670998</v>
+        <v>19.362235476696902</v>
       </c>
       <c r="V20">
-        <v>1131.1101612622099</v>
+        <v>1104.58588893407</v>
       </c>
       <c r="W20">
-        <v>31.930050346738302</v>
+        <v>29.815629620329098</v>
       </c>
     </row>
     <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1464,156 +1412,161 @@
         <v>34</v>
       </c>
       <c r="B21" s="1">
-        <f>D21+E21</f>
-        <v>32882</v>
-      </c>
-      <c r="C21" s="1"/>
+        <f t="shared" si="1"/>
+        <v>32960</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="1">
         <v>32854</v>
       </c>
-      <c r="E21" s="17">
-        <v>28</v>
-      </c>
-      <c r="F21" s="17"/>
+      <c r="E21" s="16">
+        <v>106</v>
+      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="1"/>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4"/>
+      <c r="Q21">
+        <v>591.48464149659299</v>
+      </c>
+      <c r="R21">
+        <v>23.8488493766069</v>
+      </c>
       <c r="V21">
-        <v>63.242590486940699</v>
+        <v>1044.1411936557399</v>
       </c>
       <c r="W21">
-        <v>2.7319273834112296</v>
+        <v>32.709654404821421</v>
       </c>
     </row>
     <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B26" si="1">D22+E22</f>
-        <v>32896</v>
+        <f>D22+E22</f>
+        <v>32882</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
         <v>32854</v>
       </c>
-      <c r="E22" s="17">
-        <v>42</v>
-      </c>
-      <c r="F22" s="17"/>
+      <c r="E22" s="16">
+        <v>28</v>
+      </c>
+      <c r="F22" s="16"/>
       <c r="G22" s="1"/>
-      <c r="Q22">
-        <v>10.860009793588</v>
-      </c>
-      <c r="R22">
-        <v>0.10893234096311599</v>
-      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4"/>
       <c r="V22">
-        <v>232.26763053275499</v>
+        <v>31.6431648227613</v>
       </c>
       <c r="W22">
-        <v>6.8552338164199274</v>
+        <v>1.6430491456581202</v>
       </c>
     </row>
     <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>32909</v>
+        <f t="shared" ref="B23:B27" si="2">D23+E23</f>
+        <v>32896</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>32854</v>
       </c>
-      <c r="E23" s="17">
-        <v>55</v>
-      </c>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16">
+        <v>42</v>
+      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="Q23">
-        <v>63.314548457510199</v>
+        <v>4.9368811573035698</v>
       </c>
       <c r="R23">
-        <v>2.02296756499311</v>
+        <v>0.48111405530418605</v>
       </c>
       <c r="V23">
-        <v>466.58817963763698</v>
+        <v>188.77961937802402</v>
       </c>
       <c r="W23">
-        <v>12.565467243811909</v>
+        <v>4.9005618213657058</v>
       </c>
     </row>
     <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
-        <v>32929</v>
+        <f t="shared" si="2"/>
+        <v>32909</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>32854</v>
       </c>
-      <c r="E24" s="17">
-        <v>75</v>
-      </c>
-      <c r="F24" s="17"/>
+      <c r="E24" s="16">
+        <v>55</v>
+      </c>
+      <c r="F24" s="16"/>
       <c r="G24" s="1"/>
       <c r="Q24">
-        <v>356.457211151411</v>
+        <v>71.235568982546098</v>
       </c>
       <c r="R24">
-        <v>11.4835075295551</v>
+        <v>2.28172160625128</v>
       </c>
       <c r="V24">
-        <v>892.15043946649894</v>
+        <v>397.38154323703003</v>
       </c>
       <c r="W24">
-        <v>24.0564601232164</v>
+        <v>9.1869781064637497</v>
       </c>
     </row>
     <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
-        <v>32944</v>
+        <f t="shared" si="2"/>
+        <v>32929</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>32854</v>
       </c>
-      <c r="E25" s="17">
-        <v>90</v>
-      </c>
-      <c r="F25" s="17"/>
+      <c r="E25" s="16">
+        <v>75</v>
+      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="1"/>
       <c r="Q25">
-        <v>570.86233369575098</v>
+        <v>307.02490725140501</v>
       </c>
       <c r="R25">
-        <v>19.362235476696902</v>
+        <v>11.8276047699964</v>
       </c>
       <c r="V25">
-        <v>1104.58588893407</v>
+        <v>822.95791247188492</v>
       </c>
       <c r="W25">
-        <v>29.815629620329098</v>
+        <v>21.709765874464271</v>
       </c>
     </row>
     <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
-        <v>32960</v>
+        <f t="shared" si="2"/>
+        <v>32944</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>18</v>
@@ -1621,22 +1574,22 @@
       <c r="D26" s="1">
         <v>32854</v>
       </c>
-      <c r="E26" s="17">
-        <v>106</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="16">
+        <v>90</v>
+      </c>
+      <c r="F26" s="16"/>
       <c r="G26" s="1"/>
       <c r="Q26">
-        <v>591.48464149659299</v>
+        <v>444.35881049407794</v>
       </c>
       <c r="R26">
-        <v>23.8488493766069</v>
+        <v>19.253893431870701</v>
       </c>
       <c r="V26">
-        <v>1044.1411936557399</v>
+        <v>1007.71211831981</v>
       </c>
       <c r="W26">
-        <v>32.709654404821421</v>
+        <v>29.509983520714297</v>
       </c>
     </row>
     <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1644,719 +1597,730 @@
         <v>36</v>
       </c>
       <c r="B27" s="1">
-        <f>D27+E27</f>
-        <v>32882</v>
-      </c>
-      <c r="C27" s="1"/>
+        <f t="shared" si="2"/>
+        <v>32960</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="1">
         <v>32854</v>
       </c>
-      <c r="E27" s="17">
-        <v>28</v>
-      </c>
-      <c r="F27" s="17"/>
+      <c r="E27" s="16">
+        <v>106</v>
+      </c>
+      <c r="F27" s="16"/>
       <c r="G27" s="1"/>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="V27">
-        <v>31.6431648227613</v>
-      </c>
-      <c r="W27">
-        <v>1.6430491456581202</v>
-      </c>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:B32" si="2">D28+E28</f>
-        <v>32896</v>
+        <f>D28+E28</f>
+        <v>32882</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <v>32854</v>
       </c>
-      <c r="E28" s="17">
-        <v>42</v>
-      </c>
-      <c r="F28" s="17"/>
+      <c r="E28" s="16">
+        <v>28</v>
+      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="Q28">
-        <v>4.9368811573035698</v>
-      </c>
-      <c r="R28">
-        <v>0.48111405530418605</v>
-      </c>
-      <c r="V28">
-        <v>188.77961937802402</v>
-      </c>
+      <c r="R28" s="4"/>
       <c r="W28">
-        <v>4.9005618213657058</v>
+        <v>3.3757226576011199</v>
       </c>
     </row>
     <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="2"/>
-        <v>32909</v>
+        <f t="shared" ref="B29:B33" si="3">D29+E29</f>
+        <v>32896</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>32854</v>
       </c>
-      <c r="E29" s="17">
-        <v>55</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="E29" s="16">
+        <v>42</v>
+      </c>
+      <c r="F29" s="16"/>
       <c r="G29" s="1"/>
-      <c r="Q29">
-        <v>71.235568982546098</v>
-      </c>
       <c r="R29">
-        <v>2.28172160625128</v>
-      </c>
-      <c r="V29">
-        <v>397.38154323703003</v>
+        <v>0.62716694180183996</v>
       </c>
       <c r="W29">
-        <v>9.1869781064637497</v>
+        <v>6.5791824770872909</v>
       </c>
     </row>
     <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="2"/>
-        <v>32929</v>
+        <f t="shared" si="3"/>
+        <v>32909</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>32854</v>
       </c>
-      <c r="E30" s="17">
-        <v>75</v>
-      </c>
-      <c r="F30" s="17"/>
+      <c r="E30" s="16">
+        <v>55</v>
+      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="1"/>
-      <c r="Q30">
-        <v>307.02490725140501</v>
-      </c>
       <c r="R30">
-        <v>11.8276047699964</v>
-      </c>
-      <c r="V30">
-        <v>822.95791247188492</v>
+        <v>1.7497512683798899</v>
       </c>
       <c r="W30">
-        <v>21.709765874464271</v>
+        <v>9.3131376048393797</v>
       </c>
     </row>
     <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="2"/>
-        <v>32944</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>32929</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>32854</v>
       </c>
-      <c r="E31" s="17">
-        <v>90</v>
-      </c>
-      <c r="F31" s="17"/>
+      <c r="E31" s="16">
+        <v>75</v>
+      </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="1"/>
-      <c r="Q31">
-        <v>444.35881049407794</v>
-      </c>
       <c r="R31">
-        <v>19.253893431870701</v>
-      </c>
-      <c r="V31">
-        <v>1007.71211831981</v>
+        <v>12.7087579765657</v>
       </c>
       <c r="W31">
-        <v>29.509983520714297</v>
+        <v>22.994465909246099</v>
       </c>
     </row>
     <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="2"/>
-        <v>32960</v>
-      </c>
-      <c r="C32" s="4"/>
+        <f t="shared" si="3"/>
+        <v>32944</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D32" s="1">
         <v>32854</v>
       </c>
-      <c r="E32" s="17">
-        <v>106</v>
-      </c>
-      <c r="F32" s="17"/>
+      <c r="E32" s="16">
+        <v>90</v>
+      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="1"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="R32">
+        <v>16.912347582510201</v>
+      </c>
+      <c r="W32">
+        <v>25.33334690061789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="1">
-        <f>D33+E33</f>
-        <v>32882</v>
-      </c>
-      <c r="C33" s="1"/>
+        <f t="shared" si="3"/>
+        <v>32960</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="1">
         <v>32854</v>
       </c>
-      <c r="E33" s="17">
-        <v>28</v>
-      </c>
-      <c r="F33" s="17"/>
+      <c r="E33" s="16">
+        <v>106</v>
+      </c>
+      <c r="F33" s="16"/>
       <c r="G33" s="1"/>
-      <c r="R33" s="4"/>
-      <c r="W33">
-        <v>3.3757226576011199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" ref="B34:B38" si="3">D34+E34</f>
-        <v>32896</v>
+        <f>D34+E34</f>
+        <v>35405</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>32854</v>
-      </c>
-      <c r="E34" s="17">
-        <v>42</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="1"/>
-      <c r="R34">
-        <v>0.62716694180183996</v>
-      </c>
-      <c r="W34">
-        <v>6.5791824770872909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35383</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="G34" s="16">
+        <v>13</v>
+      </c>
+      <c r="H34" s="16">
+        <v>41</v>
+      </c>
+      <c r="I34">
+        <v>161</v>
+      </c>
+      <c r="K34">
+        <v>6.1240529132300298E-2</v>
+      </c>
+      <c r="V34">
+        <v>2.9336266960030999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="3"/>
-        <v>32909</v>
+        <f t="shared" ref="B35:B39" si="4">D35+E35</f>
+        <v>35426</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <v>32854</v>
-      </c>
-      <c r="E35" s="17">
-        <v>55</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="1"/>
-      <c r="R35">
-        <v>1.7497512683798899</v>
-      </c>
-      <c r="W35">
-        <v>9.3131376048393797</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35383</v>
+      </c>
+      <c r="E35">
+        <v>43</v>
+      </c>
+      <c r="G35" s="16">
+        <v>13</v>
+      </c>
+      <c r="H35" s="16">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>161</v>
+      </c>
+      <c r="K35">
+        <v>0.26675173522191198</v>
+      </c>
+      <c r="V35">
+        <v>27.781444811147999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="3"/>
-        <v>32929</v>
+        <f t="shared" si="4"/>
+        <v>35447</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <v>32854</v>
-      </c>
-      <c r="E36" s="17">
-        <v>75</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="1"/>
-      <c r="R36">
-        <v>12.7087579765657</v>
-      </c>
-      <c r="W36">
-        <v>22.994465909246099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35383</v>
+      </c>
+      <c r="E36">
+        <v>64</v>
+      </c>
+      <c r="G36" s="16">
+        <v>13</v>
+      </c>
+      <c r="H36" s="16">
+        <v>41</v>
+      </c>
+      <c r="I36">
+        <v>161</v>
+      </c>
+      <c r="K36">
+        <v>1.03647498278024</v>
+      </c>
+      <c r="Q36">
+        <v>13.2019764924468</v>
+      </c>
+      <c r="V36">
+        <v>171.523285661899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="3"/>
-        <v>32944</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>35468</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1">
-        <v>32854</v>
-      </c>
-      <c r="E37" s="17">
-        <v>90</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="1"/>
-      <c r="R37">
-        <v>16.912347582510201</v>
-      </c>
-      <c r="W37">
-        <v>25.33334690061789</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>35383</v>
+      </c>
+      <c r="E37">
+        <v>85</v>
+      </c>
+      <c r="G37" s="16">
+        <v>13</v>
+      </c>
+      <c r="H37" s="16">
+        <v>41</v>
+      </c>
+      <c r="I37">
+        <v>161</v>
+      </c>
+      <c r="K37">
+        <v>1.90190035499196</v>
+      </c>
+      <c r="Q37">
+        <v>135.990635419364</v>
+      </c>
+      <c r="V37">
+        <v>458.39090575724202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="3"/>
-        <v>32960</v>
-      </c>
-      <c r="C38" s="4"/>
+        <f t="shared" si="4"/>
+        <v>35489</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1">
-        <v>32854</v>
-      </c>
-      <c r="E38" s="17">
+        <v>35383</v>
+      </c>
+      <c r="E38">
         <v>106</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="16">
+        <v>13</v>
+      </c>
+      <c r="H38" s="16">
+        <v>41</v>
+      </c>
+      <c r="I38">
+        <v>161</v>
+      </c>
+      <c r="K38">
+        <v>1.6482400522774201</v>
+      </c>
+      <c r="Q38">
+        <v>344.916351444062</v>
+      </c>
+      <c r="V38">
+        <v>640.95636230289699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="1">
-        <f>D39+E39</f>
-        <v>35405</v>
-      </c>
-      <c r="C39" s="1"/>
+        <f t="shared" si="4"/>
+        <v>35531</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D39" s="1">
         <v>35383</v>
       </c>
       <c r="E39">
-        <v>22</v>
-      </c>
-      <c r="G39" s="17">
+        <v>148</v>
+      </c>
+      <c r="G39" s="16">
         <v>13</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>41</v>
       </c>
       <c r="I39">
         <v>161</v>
       </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
       <c r="K39">
-        <v>6.1240529132300298E-2</v>
+        <v>1.93499320040267</v>
+      </c>
+      <c r="Q39">
+        <v>478</v>
       </c>
       <c r="V39">
-        <v>2.9336266960030999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>850.89842317565103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ref="B40:B44" si="4">D40+E40</f>
-        <v>35426</v>
+        <f>D40+E40</f>
+        <v>35405</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <v>35383</v>
       </c>
       <c r="E40">
-        <v>43</v>
-      </c>
-      <c r="G40" s="17">
+        <v>22</v>
+      </c>
+      <c r="G40" s="16">
         <v>13</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>41</v>
       </c>
       <c r="I40">
         <v>161</v>
       </c>
       <c r="K40">
-        <v>0.26675173522191198</v>
+        <v>7.9806962081206301E-2</v>
       </c>
       <c r="V40">
-        <v>27.781444811147999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>12.5735240190683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="4"/>
-        <v>35447</v>
+        <f t="shared" ref="B41:B45" si="5">D41+E41</f>
+        <v>35426</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
         <v>35383</v>
       </c>
       <c r="E41">
-        <v>64</v>
-      </c>
-      <c r="G41" s="17">
+        <v>43</v>
+      </c>
+      <c r="G41" s="16">
         <v>13</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <v>41</v>
       </c>
       <c r="I41">
         <v>161</v>
       </c>
       <c r="K41">
-        <v>1.03647498278024</v>
-      </c>
-      <c r="Q41">
-        <v>13.2019764924468</v>
+        <v>0.39135214849613997</v>
       </c>
       <c r="V41">
-        <v>171.523285661899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>49.748441510817599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="4"/>
-        <v>35468</v>
+        <f t="shared" si="5"/>
+        <v>35447</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <v>35383</v>
       </c>
       <c r="E42">
-        <v>85</v>
-      </c>
-      <c r="G42" s="17">
+        <v>64</v>
+      </c>
+      <c r="G42" s="16">
         <v>13</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>41</v>
       </c>
       <c r="I42">
         <v>161</v>
       </c>
       <c r="K42">
-        <v>1.90190035499196</v>
+        <v>1.39005404355274</v>
       </c>
       <c r="Q42">
-        <v>135.990635419364</v>
+        <v>8.3883471301619394</v>
       </c>
       <c r="V42">
-        <v>458.39090575724202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>234.68426842684201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="4"/>
-        <v>35489</v>
+        <f t="shared" si="5"/>
+        <v>35468</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
         <v>35383</v>
       </c>
       <c r="E43">
-        <v>106</v>
-      </c>
-      <c r="G43" s="17">
+        <v>85</v>
+      </c>
+      <c r="G43" s="16">
         <v>13</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <v>41</v>
       </c>
       <c r="I43">
         <v>161</v>
       </c>
+      <c r="J43" s="1"/>
       <c r="K43">
-        <v>1.6482400522774201</v>
+        <v>1.8825612405291301</v>
       </c>
       <c r="Q43">
-        <v>344.916351444062</v>
+        <v>118.457139958836</v>
       </c>
       <c r="V43">
-        <v>640.95636230289699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>509.43601026769301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="4"/>
-        <v>35531</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>35489</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1">
         <v>35383</v>
       </c>
       <c r="E44">
-        <v>148</v>
-      </c>
-      <c r="G44" s="17">
+        <v>106</v>
+      </c>
+      <c r="G44" s="16">
         <v>13</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <v>41</v>
       </c>
       <c r="I44">
         <v>161</v>
       </c>
-      <c r="J44">
-        <v>24</v>
-      </c>
       <c r="K44">
-        <v>1.93499320040267</v>
+        <v>2.0975212377033201</v>
       </c>
       <c r="Q44">
-        <v>478</v>
+        <v>290.72191092970399</v>
       </c>
       <c r="V44">
-        <v>850.89842317565103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>660.44737807113995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="1">
-        <f>D45+E45</f>
-        <v>35405</v>
-      </c>
-      <c r="C45" s="1"/>
+        <f t="shared" si="5"/>
+        <v>35531</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D45" s="1">
         <v>35383</v>
       </c>
       <c r="E45">
-        <v>22</v>
-      </c>
-      <c r="G45" s="17">
+        <v>148</v>
+      </c>
+      <c r="G45" s="16">
         <v>13</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <v>41</v>
       </c>
       <c r="I45">
         <v>161</v>
       </c>
+      <c r="J45">
+        <v>21</v>
+      </c>
       <c r="K45">
-        <v>7.9806962081206301E-2</v>
+        <v>1.7438097172427101</v>
+      </c>
+      <c r="Q45">
+        <v>271</v>
       </c>
       <c r="V45">
-        <v>12.5735240190683</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>606.05207187385395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ref="B46:B50" si="5">D46+E46</f>
-        <v>35426</v>
+        <f>D46+E46</f>
+        <v>35405</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>35383</v>
       </c>
       <c r="E46">
-        <v>43</v>
-      </c>
-      <c r="G46" s="17">
+        <v>22</v>
+      </c>
+      <c r="G46" s="16">
         <v>13</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="16">
         <v>41</v>
       </c>
       <c r="I46">
         <v>161</v>
       </c>
       <c r="K46">
-        <v>0.39135214849613997</v>
+        <v>0.15572843997809899</v>
       </c>
       <c r="V46">
-        <v>49.748441510817599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>15.1023102310232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="5"/>
-        <v>35447</v>
+        <f t="shared" ref="B47:B51" si="6">D47+E47</f>
+        <v>35426</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
         <v>35383</v>
       </c>
       <c r="E47">
-        <v>64</v>
-      </c>
-      <c r="G47" s="17">
+        <v>43</v>
+      </c>
+      <c r="G47" s="16">
         <v>13</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <v>41</v>
       </c>
       <c r="I47">
         <v>161</v>
       </c>
       <c r="K47">
-        <v>1.39005404355274</v>
-      </c>
-      <c r="Q47">
-        <v>8.3883471301619394</v>
+        <v>0.51551102947669503</v>
       </c>
       <c r="V47">
-        <v>234.68426842684201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>69.133846718005003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="5"/>
-        <v>35468</v>
+        <f t="shared" si="6"/>
+        <v>35447</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>35383</v>
       </c>
       <c r="E48">
-        <v>85</v>
-      </c>
-      <c r="G48" s="17">
+        <v>64</v>
+      </c>
+      <c r="G48" s="16">
         <v>13</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="16">
         <v>41</v>
       </c>
       <c r="I48">
         <v>161</v>
       </c>
-      <c r="J48" s="1"/>
       <c r="K48">
-        <v>1.8825612405291301</v>
+        <v>1.1990913265396199</v>
       </c>
       <c r="Q48">
-        <v>118.457139958836</v>
+        <v>6.7943929973866899</v>
       </c>
       <c r="V48">
-        <v>509.43601026769301</v>
+        <v>224.93876054272101</v>
       </c>
     </row>
     <row r="49" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="5"/>
-        <v>35489</v>
+        <f t="shared" si="6"/>
+        <v>35468</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
         <v>35383</v>
       </c>
       <c r="E49">
-        <v>106</v>
-      </c>
-      <c r="G49" s="17">
+        <v>85</v>
+      </c>
+      <c r="G49" s="16">
         <v>13</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="16">
         <v>41</v>
       </c>
       <c r="I49">
         <v>161</v>
       </c>
       <c r="K49">
-        <v>2.0975212377033201</v>
+        <v>2.0834142809205001</v>
       </c>
       <c r="Q49">
-        <v>290.72191092970399</v>
+        <v>112.049556463776</v>
       </c>
       <c r="V49">
-        <v>660.44737807113995</v>
+        <v>487.52181884855099</v>
       </c>
     </row>
     <row r="50" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="5"/>
-        <v>35531</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>35489</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>35383</v>
       </c>
       <c r="E50">
-        <v>148</v>
-      </c>
-      <c r="G50" s="17">
+        <v>106</v>
+      </c>
+      <c r="G50" s="16">
         <v>13</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="16">
         <v>41</v>
       </c>
       <c r="I50">
         <v>161</v>
       </c>
-      <c r="J50">
-        <v>21</v>
-      </c>
       <c r="K50">
-        <v>1.7438097172427101</v>
+        <v>1.7725093163313901</v>
       </c>
       <c r="Q50">
-        <v>271</v>
+        <v>153.61008854707501</v>
       </c>
       <c r="V50">
-        <v>606.05207187385395</v>
+        <v>539.18298496516297</v>
       </c>
     </row>
     <row r="51" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2364,202 +2328,214 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <f>D51+E51</f>
-        <v>35405</v>
-      </c>
-      <c r="C51" s="1"/>
+        <f t="shared" si="6"/>
+        <v>35531</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D51" s="1">
         <v>35383</v>
       </c>
       <c r="E51">
-        <v>22</v>
-      </c>
-      <c r="G51" s="17">
+        <v>148</v>
+      </c>
+      <c r="G51" s="16">
         <v>13</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="16">
         <v>41</v>
       </c>
       <c r="I51">
         <v>161</v>
       </c>
+      <c r="J51" s="16">
+        <v>19</v>
+      </c>
       <c r="K51">
-        <v>0.15572843997809899</v>
+        <v>2.96760477561328</v>
+      </c>
+      <c r="Q51">
+        <v>248</v>
       </c>
       <c r="V51">
-        <v>15.1023102310232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>720.04693802713598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:B56" si="6">D52+E52</f>
-        <v>35426</v>
+        <f>D52+E52</f>
+        <v>35405</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <v>35383</v>
       </c>
       <c r="E52">
-        <v>43</v>
-      </c>
-      <c r="G52" s="17">
+        <v>22</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" s="16">
         <v>13</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="16">
         <v>41</v>
       </c>
       <c r="I52">
         <v>161</v>
       </c>
       <c r="K52">
-        <v>0.51551102947669503</v>
-      </c>
+        <v>0.205180056869359</v>
+      </c>
+      <c r="L52"/>
+      <c r="Q52"/>
       <c r="V52">
-        <v>69.133846718005003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>17.367070040337399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="6"/>
-        <v>35447</v>
+        <f t="shared" ref="B53:B57" si="7">D53+E53</f>
+        <v>35426</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <v>35383</v>
       </c>
       <c r="E53">
-        <v>64</v>
-      </c>
-      <c r="G53" s="17">
+        <v>43</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" s="16">
         <v>13</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="16">
         <v>41</v>
       </c>
       <c r="I53">
         <v>161</v>
       </c>
       <c r="K53">
-        <v>1.1990913265396199</v>
-      </c>
-      <c r="Q53">
-        <v>6.7943929973866899</v>
-      </c>
+        <v>0.72603362709948605</v>
+      </c>
+      <c r="L53"/>
+      <c r="Q53"/>
       <c r="V53">
-        <v>224.93876054272101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>102.952695269526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="6"/>
-        <v>35468</v>
+        <f t="shared" si="7"/>
+        <v>35447</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
         <v>35383</v>
       </c>
       <c r="E54">
-        <v>85</v>
-      </c>
-      <c r="G54" s="17">
+        <v>64</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54" s="16">
         <v>13</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="16">
         <v>41</v>
       </c>
       <c r="I54">
         <v>161</v>
       </c>
       <c r="K54">
-        <v>2.0834142809205001</v>
-      </c>
+        <v>1.7628618357146599</v>
+      </c>
+      <c r="L54"/>
       <c r="Q54">
-        <v>112.049556463776</v>
+        <v>27.4204958315872</v>
       </c>
       <c r="V54">
-        <v>487.52181884855099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>285.518151815181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="6"/>
-        <v>35489</v>
+        <f t="shared" si="7"/>
+        <v>35468</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
         <v>35383</v>
       </c>
       <c r="E55">
-        <v>106</v>
-      </c>
-      <c r="G55" s="17">
+        <v>85</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" s="16">
         <v>13</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="16">
         <v>41</v>
       </c>
       <c r="I55">
         <v>161</v>
       </c>
       <c r="K55">
-        <v>1.7725093163313901</v>
-      </c>
+        <v>2.4757819536920902</v>
+      </c>
+      <c r="L55"/>
       <c r="Q55">
-        <v>153.61008854707501</v>
+        <v>163.151389604461</v>
       </c>
       <c r="V55">
-        <v>539.18298496516297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>574.650531719838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="6"/>
-        <v>35531</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>35489</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1">
         <v>35383</v>
       </c>
       <c r="E56">
-        <v>148</v>
-      </c>
-      <c r="G56" s="17">
+        <v>106</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56" s="16">
         <v>13</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="16">
         <v>41</v>
       </c>
       <c r="I56">
         <v>161</v>
       </c>
-      <c r="J56" s="17">
-        <v>19</v>
-      </c>
       <c r="K56">
-        <v>2.96760477561328</v>
-      </c>
+        <v>3.07255700181911</v>
+      </c>
+      <c r="L56"/>
       <c r="Q56">
-        <v>248</v>
+        <v>194.957595107353</v>
       </c>
       <c r="V56">
-        <v>720.04693802713598</v>
+        <v>589.964063072974</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2567,216 +2543,217 @@
         <v>52</v>
       </c>
       <c r="B57" s="1">
-        <f>D57+E57</f>
-        <v>35405</v>
-      </c>
-      <c r="C57" s="1"/>
+        <f t="shared" si="7"/>
+        <v>35531</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D57" s="1">
         <v>35383</v>
       </c>
       <c r="E57">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="F57"/>
-      <c r="G57" s="17">
+      <c r="G57" s="16">
         <v>13</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="16">
         <v>41</v>
       </c>
       <c r="I57">
         <v>161</v>
       </c>
+      <c r="J57" s="4">
+        <v>18</v>
+      </c>
       <c r="K57">
-        <v>0.205180056869359</v>
+        <v>2.9960615319404398</v>
       </c>
       <c r="L57"/>
-      <c r="Q57"/>
+      <c r="Q57" s="4">
+        <v>381</v>
+      </c>
       <c r="V57">
-        <v>17.367070040337399</v>
+        <v>872.39017235056804</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ref="B58:B62" si="7">D58+E58</f>
-        <v>35426</v>
+        <f>D58+E58</f>
+        <v>35405</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
         <v>35383</v>
       </c>
       <c r="E58">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F58"/>
-      <c r="G58" s="17">
+      <c r="G58" s="16">
         <v>13</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="16">
         <v>41</v>
       </c>
       <c r="I58">
         <v>161</v>
       </c>
       <c r="K58">
-        <v>0.72603362709948605</v>
+        <v>0.21385616644001201</v>
       </c>
       <c r="L58"/>
       <c r="Q58"/>
       <c r="V58">
-        <v>102.952695269526</v>
+        <v>27.1653832049873</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="7"/>
-        <v>35447</v>
+        <f t="shared" ref="B59:B63" si="8">D59+E59</f>
+        <v>35426</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
         <v>35383</v>
       </c>
       <c r="E59">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F59"/>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>13</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="16">
         <v>41</v>
       </c>
       <c r="I59">
         <v>161</v>
       </c>
       <c r="K59">
-        <v>1.7628618357146599</v>
+        <v>0.93622507550202105</v>
       </c>
       <c r="L59"/>
-      <c r="Q59">
-        <v>27.4204958315872</v>
-      </c>
+      <c r="Q59"/>
       <c r="V59">
-        <v>285.518151815181</v>
+        <v>119.91492482581501</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="7"/>
-        <v>35468</v>
+        <f t="shared" si="8"/>
+        <v>35447</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
         <v>35383</v>
       </c>
       <c r="E60">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F60"/>
-      <c r="G60" s="17">
+      <c r="G60" s="16">
         <v>13</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="16">
         <v>41</v>
       </c>
       <c r="I60">
         <v>161</v>
       </c>
       <c r="K60">
-        <v>2.4757819536920902</v>
+        <v>2.4512327581639299</v>
       </c>
       <c r="L60"/>
       <c r="Q60">
-        <v>163.151389604461</v>
+        <v>24.391422385832598</v>
       </c>
       <c r="V60">
-        <v>574.650531719838</v>
+        <v>404.14814814814798</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="7"/>
-        <v>35489</v>
+        <f t="shared" si="8"/>
+        <v>35468</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
         <v>35383</v>
       </c>
       <c r="E61">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F61"/>
-      <c r="G61" s="17">
+      <c r="G61" s="16">
         <v>13</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="16">
         <v>41</v>
       </c>
       <c r="I61">
         <v>161</v>
       </c>
       <c r="K61">
-        <v>3.07255700181911</v>
+        <v>3.0871275675102798</v>
       </c>
       <c r="L61"/>
       <c r="Q61">
-        <v>194.957595107353</v>
+        <v>89.638897713045694</v>
       </c>
       <c r="V61">
-        <v>589.964063072974</v>
+        <v>613.47414741474097</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="7"/>
-        <v>35531</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>35489</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1">
         <v>35383</v>
       </c>
       <c r="E62">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="F62"/>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>13</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>41</v>
       </c>
       <c r="I62">
         <v>161</v>
       </c>
-      <c r="J62" s="4">
-        <v>18</v>
-      </c>
+      <c r="J62" s="3"/>
       <c r="K62">
-        <v>2.9960615319404398</v>
+        <v>2.6042678511506301</v>
       </c>
       <c r="L62"/>
-      <c r="Q62" s="4">
-        <v>381</v>
+      <c r="Q62">
+        <v>204.553086867964</v>
       </c>
       <c r="V62">
-        <v>872.39017235056804</v>
+        <v>672.457645764576</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2784,217 +2761,216 @@
         <v>53</v>
       </c>
       <c r="B63" s="1">
-        <f>D63+E63</f>
-        <v>35405</v>
-      </c>
-      <c r="C63" s="1"/>
+        <f t="shared" si="8"/>
+        <v>35531</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D63" s="1">
         <v>35383</v>
       </c>
       <c r="E63">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="F63"/>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>13</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="16">
         <v>41</v>
       </c>
       <c r="I63">
         <v>161</v>
       </c>
+      <c r="J63" s="4">
+        <v>16</v>
+      </c>
       <c r="K63">
-        <v>0.21385616644001201</v>
+        <v>3.70366118577912</v>
       </c>
       <c r="L63"/>
-      <c r="Q63"/>
+      <c r="Q63" s="4">
+        <v>307</v>
+      </c>
       <c r="V63">
-        <v>27.1653832049873</v>
+        <v>896.99156582324895</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ref="B64:B68" si="8">D64+E64</f>
-        <v>35426</v>
+        <f>D64+E64</f>
+        <v>35405</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
         <v>35383</v>
       </c>
       <c r="E64">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F64"/>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>13</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <v>41</v>
       </c>
       <c r="I64">
         <v>161</v>
       </c>
       <c r="K64">
-        <v>0.93622507550202105</v>
+        <v>0.27198389290192698</v>
       </c>
       <c r="L64"/>
       <c r="Q64"/>
       <c r="V64">
-        <v>119.91492482581501</v>
+        <v>44.180418041804103</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="8"/>
-        <v>35447</v>
+        <f t="shared" ref="B65:B69" si="9">D65+E65</f>
+        <v>35426</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
         <v>35383</v>
       </c>
       <c r="E65">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F65"/>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>13</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="16">
         <v>41</v>
       </c>
       <c r="I65">
         <v>161</v>
       </c>
       <c r="K65">
-        <v>2.4512327581639299</v>
+        <v>1.1547614842549501</v>
       </c>
       <c r="L65"/>
-      <c r="Q65">
-        <v>24.391422385832598</v>
-      </c>
+      <c r="Q65"/>
       <c r="V65">
-        <v>404.14814814814798</v>
+        <v>156.42097543087601</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="8"/>
-        <v>35468</v>
+        <f t="shared" si="9"/>
+        <v>35447</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1">
         <v>35383</v>
       </c>
       <c r="E66">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F66"/>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>13</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="16">
         <v>41</v>
       </c>
       <c r="I66">
         <v>161</v>
       </c>
       <c r="K66">
-        <v>3.0871275675102798</v>
+        <v>2.45145352431076</v>
       </c>
       <c r="L66"/>
       <c r="Q66">
-        <v>89.638897713045694</v>
+        <v>16.421651721956401</v>
       </c>
       <c r="V66">
-        <v>613.47414741474097</v>
+        <v>406.94096076274201</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="8"/>
-        <v>35489</v>
+        <f t="shared" si="9"/>
+        <v>35468</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
         <v>35383</v>
       </c>
       <c r="E67">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F67"/>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>13</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="16">
         <v>41</v>
       </c>
       <c r="I67">
         <v>161</v>
       </c>
-      <c r="J67" s="3"/>
       <c r="K67">
-        <v>2.6042678511506301</v>
+        <v>2.9339600148354799</v>
       </c>
       <c r="L67"/>
       <c r="Q67">
-        <v>204.553086867964</v>
+        <v>151.80310889127901</v>
       </c>
       <c r="V67">
-        <v>672.457645764576</v>
+        <v>698.39090575724197</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="8"/>
-        <v>35531</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>35489</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1">
         <v>35383</v>
       </c>
       <c r="E68">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="F68"/>
-      <c r="G68" s="17">
+      <c r="G68" s="16">
         <v>13</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="16">
         <v>41</v>
       </c>
       <c r="I68">
         <v>161</v>
       </c>
-      <c r="J68" s="4">
-        <v>16</v>
-      </c>
       <c r="K68">
-        <v>3.70366118577912</v>
+        <v>2.99597322548171</v>
       </c>
       <c r="L68"/>
-      <c r="Q68" s="4">
-        <v>307</v>
+      <c r="Q68">
+        <v>145.60855091923901</v>
       </c>
       <c r="V68">
-        <v>896.99156582324895</v>
+        <v>614.30143014301404</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -3002,224 +2978,228 @@
         <v>54</v>
       </c>
       <c r="B69" s="1">
-        <f>D69+E69</f>
-        <v>35405</v>
-      </c>
-      <c r="C69" s="1"/>
+        <f t="shared" si="9"/>
+        <v>35531</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D69" s="1">
         <v>35383</v>
       </c>
       <c r="E69">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="F69"/>
-      <c r="G69" s="17">
+      <c r="G69" s="16">
         <v>13</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <v>41</v>
       </c>
       <c r="I69">
         <v>161</v>
       </c>
+      <c r="J69" s="5">
+        <v>15</v>
+      </c>
       <c r="K69">
-        <v>0.27198389290192698</v>
+        <v>3.5699431306405698</v>
       </c>
       <c r="L69"/>
-      <c r="Q69"/>
+      <c r="Q69" s="4">
+        <v>323</v>
+      </c>
       <c r="V69">
-        <v>44.180418041804103</v>
+        <v>925.964063072974</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1">
-        <f t="shared" ref="B70:B74" si="9">D70+E70</f>
-        <v>35426</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1">
-        <v>35383</v>
-      </c>
-      <c r="E70">
-        <v>43</v>
-      </c>
-      <c r="F70"/>
-      <c r="G70" s="17">
-        <v>13</v>
-      </c>
-      <c r="H70" s="17">
-        <v>41</v>
-      </c>
-      <c r="I70">
+      <c r="A70" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="3">
+        <f>D70+I70</f>
+        <v>35902</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="3">
+        <v>35741</v>
+      </c>
+      <c r="G70" s="5">
+        <v>16</v>
+      </c>
+      <c r="H70" s="16">
+        <v>44</v>
+      </c>
+      <c r="I70" s="4">
         <v>161</v>
       </c>
       <c r="K70">
-        <v>1.1547614842549501</v>
-      </c>
-      <c r="L70"/>
-      <c r="Q70"/>
+        <v>1.8383940287556599</v>
+      </c>
+      <c r="L70">
+        <v>0.67099567843637897</v>
+      </c>
+      <c r="Q70">
+        <v>402.69559467140499</v>
+      </c>
       <c r="V70">
-        <v>156.42097543087601</v>
+        <v>721.80488146169102</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="1">
-        <f t="shared" si="9"/>
-        <v>35447</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1">
-        <v>35383</v>
-      </c>
-      <c r="E71">
+      <c r="A71" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" ref="B71:B85" si="10">D71+I71</f>
+        <v>35902</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="3">
+        <v>35741</v>
+      </c>
+      <c r="G71" s="5">
+        <v>16</v>
+      </c>
+      <c r="H71" s="16">
+        <v>44</v>
+      </c>
+      <c r="I71" s="4">
+        <v>161</v>
+      </c>
+      <c r="K71">
+        <v>1.5423715660406601</v>
+      </c>
+      <c r="L71">
+        <v>0.446008937779305</v>
+      </c>
+      <c r="Q71">
+        <v>329.21792419018499</v>
+      </c>
+      <c r="V71">
+        <v>564.96427914352796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F71"/>
-      <c r="G71" s="17">
-        <v>13</v>
-      </c>
-      <c r="H71" s="17">
-        <v>41</v>
-      </c>
-      <c r="I71">
+      <c r="B72" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="3">
+        <v>35741</v>
+      </c>
+      <c r="G72" s="5">
+        <v>16</v>
+      </c>
+      <c r="H72" s="16">
+        <v>44</v>
+      </c>
+      <c r="I72" s="4">
         <v>161</v>
       </c>
-      <c r="K71">
-        <v>2.45145352431076</v>
-      </c>
-      <c r="L71"/>
-      <c r="Q71">
-        <v>16.421651721956401</v>
-      </c>
-      <c r="V71">
-        <v>406.94096076274201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="1">
-        <f t="shared" si="9"/>
-        <v>35468</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1">
-        <v>35383</v>
-      </c>
-      <c r="E72">
-        <v>85</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72" s="17">
-        <v>13</v>
-      </c>
-      <c r="H72" s="17">
-        <v>41</v>
-      </c>
-      <c r="I72">
+      <c r="K72">
+        <v>1.0468020261594599</v>
+      </c>
+      <c r="L72">
+        <v>0.137746893876147</v>
+      </c>
+      <c r="Q72">
+        <v>246.95685534146699</v>
+      </c>
+      <c r="V72">
+        <v>392.12508648411898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="3">
+        <v>35741</v>
+      </c>
+      <c r="G73" s="5">
+        <v>16</v>
+      </c>
+      <c r="H73" s="16">
+        <v>44</v>
+      </c>
+      <c r="I73" s="4">
         <v>161</v>
       </c>
-      <c r="K72">
-        <v>2.9339600148354799</v>
-      </c>
-      <c r="L72"/>
-      <c r="Q72">
-        <v>151.80310889127901</v>
-      </c>
-      <c r="V72">
-        <v>698.39090575724197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="1">
-        <f t="shared" si="9"/>
-        <v>35489</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1">
-        <v>35383</v>
-      </c>
-      <c r="E73">
-        <v>106</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73" s="17">
-        <v>13</v>
-      </c>
-      <c r="H73" s="17">
-        <v>41</v>
-      </c>
-      <c r="I73">
-        <v>161</v>
-      </c>
       <c r="K73">
-        <v>2.99597322548171</v>
-      </c>
-      <c r="L73"/>
+        <v>0.877908371312066</v>
+      </c>
+      <c r="L73">
+        <v>1.6154299464715201E-2</v>
+      </c>
       <c r="Q73">
-        <v>145.60855091923901</v>
+        <v>211.17712681914799</v>
       </c>
       <c r="V73">
-        <v>614.30143014301404</v>
+        <v>335.64026752420898</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="1">
-        <f t="shared" si="9"/>
-        <v>35531</v>
+      <c r="A74" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="10"/>
+        <v>35902</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="1">
-        <v>35383</v>
-      </c>
-      <c r="E74">
-        <v>148</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" s="17">
-        <v>13</v>
-      </c>
-      <c r="H74" s="17">
-        <v>41</v>
-      </c>
-      <c r="I74">
+      <c r="D74" s="3">
+        <v>35741</v>
+      </c>
+      <c r="G74" s="5">
+        <v>16</v>
+      </c>
+      <c r="H74" s="16">
+        <v>44</v>
+      </c>
+      <c r="I74" s="4">
         <v>161</v>
       </c>
-      <c r="J74" s="5">
-        <v>15</v>
-      </c>
       <c r="K74">
-        <v>3.5699431306405698</v>
-      </c>
-      <c r="L74"/>
-      <c r="Q74" s="4">
-        <v>323</v>
+        <v>3.1175482906043199</v>
+      </c>
+      <c r="L74">
+        <v>0.82298089672445096</v>
+      </c>
+      <c r="Q74">
+        <v>615.67786129297701</v>
       </c>
       <c r="V74">
-        <v>925.964063072974</v>
+        <v>1047.5702821131399</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="20" t="s">
-        <v>57</v>
+      <c r="A75" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B75" s="3">
-        <f>D75+I75</f>
+        <f t="shared" si="10"/>
         <v>35902</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3231,31 +3211,31 @@
       <c r="G75" s="5">
         <v>16</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="16">
         <v>44</v>
       </c>
       <c r="I75" s="4">
         <v>161</v>
       </c>
       <c r="K75">
-        <v>1.8383940287556599</v>
+        <v>2.4006321166029299</v>
       </c>
       <c r="L75">
-        <v>0.67099567843637897</v>
+        <v>0.51071453125767297</v>
       </c>
       <c r="Q75">
-        <v>402.69559467140499</v>
+        <v>476.16922680854702</v>
       </c>
       <c r="V75">
-        <v>721.80488146169102</v>
+        <v>796.46496972084105</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="20" t="s">
-        <v>60</v>
+      <c r="A76" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" ref="B76:B90" si="10">D76+I76</f>
+        <f t="shared" si="10"/>
         <v>35902</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3267,28 +3247,28 @@
       <c r="G76" s="5">
         <v>16</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="16">
         <v>44</v>
       </c>
       <c r="I76" s="4">
         <v>161</v>
       </c>
       <c r="K76">
-        <v>1.5423715660406601</v>
+        <v>2.27378550364736</v>
       </c>
       <c r="L76">
-        <v>0.446008937779305</v>
+        <v>0.46617639836959102</v>
       </c>
       <c r="Q76">
-        <v>329.21792419018499</v>
+        <v>417.10036799410398</v>
       </c>
       <c r="V76">
-        <v>564.96427914352796</v>
+        <v>699.06221414893105</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="20" t="s">
-        <v>64</v>
+      <c r="A77" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="B77" s="3">
         <f t="shared" si="10"/>
@@ -3303,28 +3283,28 @@
       <c r="G77" s="5">
         <v>16</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="16">
         <v>44</v>
       </c>
       <c r="I77" s="4">
         <v>161</v>
       </c>
       <c r="K77">
-        <v>1.0468020261594599</v>
+        <v>2.1259859184738898</v>
       </c>
       <c r="L77">
-        <v>0.137746893876147</v>
+        <v>0.39720129646908497</v>
       </c>
       <c r="Q77">
-        <v>246.95685534146699</v>
+        <v>383.1096258979</v>
       </c>
       <c r="V77">
-        <v>392.12508648411898</v>
+        <v>655.12957718011205</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="20" t="s">
-        <v>68</v>
+      <c r="A78" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B78" s="3">
         <f t="shared" si="10"/>
@@ -3339,28 +3319,28 @@
       <c r="G78" s="5">
         <v>16</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="16">
         <v>44</v>
       </c>
       <c r="I78" s="4">
         <v>161</v>
       </c>
       <c r="K78">
-        <v>0.877908371312066</v>
+        <v>3.1976210968916199</v>
       </c>
       <c r="L78">
-        <v>1.6154299464715201E-2</v>
+        <v>0.75002799194617598</v>
       </c>
       <c r="Q78">
-        <v>211.17712681914799</v>
+        <v>591.90816805568898</v>
       </c>
       <c r="V78">
-        <v>335.64026752420898</v>
+        <v>1030.5631638546899</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="20" t="s">
-        <v>56</v>
+      <c r="A79" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" si="10"/>
@@ -3375,28 +3355,28 @@
       <c r="G79" s="5">
         <v>16</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="16">
         <v>44</v>
       </c>
       <c r="I79" s="4">
         <v>161</v>
       </c>
       <c r="K79">
-        <v>3.1175482906043199</v>
+        <v>2.8494278498158598</v>
       </c>
       <c r="L79">
-        <v>0.82298089672445096</v>
+        <v>0.67105313558905799</v>
       </c>
       <c r="Q79">
-        <v>615.67786129297701</v>
+        <v>468.56502491153498</v>
       </c>
       <c r="V79">
-        <v>1047.5702821131399</v>
+        <v>845.29513434514297</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="20" t="s">
-        <v>61</v>
+      <c r="A80" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="B80" s="3">
         <f t="shared" si="10"/>
@@ -3411,28 +3391,28 @@
       <c r="G80" s="5">
         <v>16</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="16">
         <v>44</v>
       </c>
       <c r="I80" s="4">
         <v>161</v>
       </c>
       <c r="K80">
-        <v>2.4006321166029299</v>
+        <v>2.5646579092178898</v>
       </c>
       <c r="L80">
-        <v>0.51071453125767297</v>
+        <v>0.37285272307616701</v>
       </c>
       <c r="Q80">
-        <v>476.16922680854702</v>
+        <v>447.03257429291102</v>
       </c>
       <c r="V80">
-        <v>796.46496972084105</v>
+        <v>785.61059731698401</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="20" t="s">
-        <v>65</v>
+      <c r="A81" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" si="10"/>
@@ -3447,28 +3427,28 @@
       <c r="G81" s="5">
         <v>16</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="16">
         <v>44</v>
       </c>
       <c r="I81" s="4">
         <v>161</v>
       </c>
       <c r="K81">
-        <v>2.27378550364736</v>
+        <v>2.5331579021630199</v>
       </c>
       <c r="L81">
-        <v>0.46617639836959102</v>
+        <v>0.20482811962873801</v>
       </c>
       <c r="Q81">
-        <v>417.10036799410398</v>
+        <v>388.02832898370002</v>
       </c>
       <c r="V81">
-        <v>699.06221414893105</v>
+        <v>716.45025122502898</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="20" t="s">
-        <v>69</v>
+      <c r="A82" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" si="10"/>
@@ -3483,28 +3463,28 @@
       <c r="G82" s="5">
         <v>16</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="16">
         <v>44</v>
       </c>
       <c r="I82" s="4">
         <v>161</v>
       </c>
       <c r="K82">
-        <v>2.1259859184738898</v>
+        <v>4.7388991576481798</v>
       </c>
       <c r="L82">
-        <v>0.39720129646908497</v>
+        <v>0.847369248146147</v>
       </c>
       <c r="Q82">
-        <v>383.1096258979</v>
+        <v>706.23772721995294</v>
       </c>
       <c r="V82">
-        <v>655.12957718011205</v>
+        <v>1298.67196670717</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="20" t="s">
-        <v>58</v>
+      <c r="A83" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="B83" s="3">
         <f t="shared" si="10"/>
@@ -3519,28 +3499,28 @@
       <c r="G83" s="5">
         <v>16</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="16">
         <v>44</v>
       </c>
       <c r="I83" s="4">
         <v>161</v>
       </c>
       <c r="K83">
-        <v>3.1976210968916199</v>
+        <v>4.1166241022674299</v>
       </c>
       <c r="L83">
-        <v>0.75002799194617598</v>
+        <v>0.76206747532288899</v>
       </c>
       <c r="Q83">
-        <v>591.90816805568898</v>
+        <v>625.70103129211805</v>
       </c>
       <c r="V83">
-        <v>1030.5631638546899</v>
+        <v>1135.43192825251</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="20" t="s">
-        <v>62</v>
+      <c r="A84" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="B84" s="3">
         <f t="shared" si="10"/>
@@ -3555,28 +3535,28 @@
       <c r="G84" s="5">
         <v>16</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="16">
         <v>44</v>
       </c>
       <c r="I84" s="4">
         <v>161</v>
       </c>
       <c r="K84">
-        <v>2.8494278498158598</v>
+        <v>3.5468020261594599</v>
       </c>
       <c r="L84">
-        <v>0.67105313558905799</v>
+        <v>0.57361464420763097</v>
       </c>
       <c r="Q84">
-        <v>468.56502491153498</v>
+        <v>546.88870828516701</v>
       </c>
       <c r="V84">
-        <v>845.29513434514297</v>
+        <v>1009.9101083416</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="20" t="s">
-        <v>66</v>
+      <c r="A85" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B85" s="3">
         <f t="shared" si="10"/>
@@ -3591,303 +3571,188 @@
       <c r="G85" s="5">
         <v>16</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="16">
         <v>44</v>
       </c>
       <c r="I85" s="4">
         <v>161</v>
       </c>
       <c r="K85">
-        <v>2.5646579092178898</v>
+        <v>2.9876680823444701</v>
       </c>
       <c r="L85">
-        <v>0.37285272307616701</v>
+        <v>0.46009256985709301</v>
       </c>
       <c r="Q85">
-        <v>447.03257429291102</v>
+        <v>446.80238868052101</v>
       </c>
       <c r="V85">
-        <v>785.61059731698401</v>
+        <v>859.16057930755699</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="3">
-        <f t="shared" si="10"/>
-        <v>35902</v>
-      </c>
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="3"/>
       <c r="C86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="3">
-        <v>35741</v>
-      </c>
-      <c r="G86" s="5">
-        <v>16</v>
-      </c>
-      <c r="H86" s="17">
-        <v>44</v>
-      </c>
-      <c r="I86" s="4">
-        <v>161</v>
-      </c>
-      <c r="K86">
-        <v>2.5331579021630199</v>
-      </c>
-      <c r="L86">
-        <v>0.20482811962873801</v>
-      </c>
-      <c r="Q86">
-        <v>388.02832898370002</v>
-      </c>
-      <c r="V86">
-        <v>716.45025122502898</v>
+        <v>29930</v>
+      </c>
+      <c r="F86" s="5">
+        <v>120</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="Q86" s="4">
+        <v>657</v>
+      </c>
+      <c r="U86" s="4">
+        <v>496</v>
+      </c>
+      <c r="V86" s="4">
+        <v>1261</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" s="3">
-        <f t="shared" si="10"/>
-        <v>35902</v>
-      </c>
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="3">
-        <v>35741</v>
-      </c>
-      <c r="G87" s="5">
-        <v>16</v>
-      </c>
-      <c r="H87" s="17">
-        <v>44</v>
-      </c>
-      <c r="I87" s="4">
-        <v>161</v>
-      </c>
-      <c r="K87">
-        <v>4.7388991576481798</v>
-      </c>
-      <c r="L87">
-        <v>0.847369248146147</v>
-      </c>
-      <c r="Q87">
-        <v>706.23772721995294</v>
-      </c>
-      <c r="V87">
-        <v>1298.67196670717</v>
+        <v>29930</v>
+      </c>
+      <c r="F87" s="5">
+        <v>120</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="Q87" s="4">
+        <v>640</v>
+      </c>
+      <c r="U87" s="4">
+        <v>481</v>
+      </c>
+      <c r="V87" s="4">
+        <v>1539</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="3">
-        <f t="shared" si="10"/>
-        <v>35902</v>
-      </c>
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="3"/>
       <c r="C88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="3">
-        <v>35741</v>
-      </c>
-      <c r="G88" s="5">
-        <v>16</v>
-      </c>
-      <c r="H88" s="17">
-        <v>44</v>
-      </c>
-      <c r="I88" s="4">
-        <v>161</v>
-      </c>
-      <c r="K88">
-        <v>4.1166241022674299</v>
-      </c>
-      <c r="L88">
-        <v>0.76206747532288899</v>
-      </c>
-      <c r="Q88">
-        <v>625.70103129211805</v>
-      </c>
-      <c r="V88">
-        <v>1135.43192825251</v>
+        <v>29930</v>
+      </c>
+      <c r="F88" s="5">
+        <v>120</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="Q88" s="4">
+        <v>652</v>
+      </c>
+      <c r="U88" s="4">
+        <v>490</v>
+      </c>
+      <c r="V88" s="4">
+        <v>1556</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="3">
-        <f t="shared" si="10"/>
-        <v>35902</v>
-      </c>
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="3">
-        <v>35741</v>
-      </c>
-      <c r="G89" s="5">
-        <v>16</v>
-      </c>
-      <c r="H89" s="17">
-        <v>44</v>
-      </c>
-      <c r="I89" s="4">
-        <v>161</v>
-      </c>
-      <c r="K89">
-        <v>3.5468020261594599</v>
-      </c>
-      <c r="L89">
-        <v>0.57361464420763097</v>
-      </c>
-      <c r="Q89">
-        <v>546.88870828516701</v>
-      </c>
-      <c r="V89">
-        <v>1009.9101083416</v>
+        <v>29930</v>
+      </c>
+      <c r="F89" s="5">
+        <v>120</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="Q89" s="4">
+        <v>568</v>
+      </c>
+      <c r="U89" s="4">
+        <v>430</v>
+      </c>
+      <c r="V89" s="4">
+        <v>1619</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="3">
-        <f t="shared" si="10"/>
-        <v>35902</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="3">
-        <v>35741</v>
-      </c>
-      <c r="G90" s="5">
-        <v>16</v>
-      </c>
-      <c r="H90" s="17">
-        <v>44</v>
-      </c>
-      <c r="I90" s="4">
-        <v>161</v>
-      </c>
-      <c r="K90">
-        <v>2.9876680823444701</v>
-      </c>
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="F90">
+        <v>14</v>
+      </c>
+      <c r="G90" s="3"/>
       <c r="L90">
-        <v>0.46009256985709301</v>
-      </c>
-      <c r="Q90">
-        <v>446.80238868052101</v>
-      </c>
-      <c r="V90">
-        <v>859.16057930755699</v>
+        <v>3.3238030118388898E-2</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="3">
-        <v>29930</v>
-      </c>
-      <c r="F91" s="5">
-        <v>120</v>
+      <c r="D91" s="3"/>
+      <c r="F91">
+        <v>21</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="Q91" s="4">
-        <v>657</v>
-      </c>
-      <c r="U91" s="4">
-        <v>496</v>
-      </c>
-      <c r="V91" s="4">
-        <v>1261</v>
+      <c r="L91">
+        <v>0.109379049467607</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="3">
-        <v>29930</v>
-      </c>
-      <c r="F92" s="5">
-        <v>120</v>
+        <v>73</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="F92">
+        <v>28</v>
       </c>
       <c r="G92" s="3"/>
-      <c r="Q92" s="4">
-        <v>640</v>
-      </c>
-      <c r="U92" s="4">
-        <v>481</v>
-      </c>
-      <c r="V92" s="4">
-        <v>1539</v>
+      <c r="L92">
+        <v>0.290782791382457</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="3">
-        <v>29930</v>
-      </c>
-      <c r="F93" s="5">
-        <v>120</v>
+        <v>73</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="F93">
+        <v>36</v>
       </c>
       <c r="G93" s="3"/>
-      <c r="Q93" s="4">
-        <v>652</v>
-      </c>
-      <c r="U93" s="4">
-        <v>490</v>
-      </c>
-      <c r="V93" s="4">
-        <v>1556</v>
+      <c r="L93">
+        <v>0.49097468445169801</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="3">
-        <v>29930</v>
-      </c>
-      <c r="F94" s="5">
-        <v>120</v>
+        <v>73</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="F94">
+        <v>50</v>
       </c>
       <c r="G94" s="3"/>
-      <c r="Q94" s="4">
-        <v>568</v>
-      </c>
-      <c r="U94" s="4">
-        <v>430</v>
-      </c>
-      <c r="V94" s="4">
-        <v>1619</v>
+      <c r="L94">
+        <v>0.82121824528124998</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -3896,11 +3761,11 @@
       </c>
       <c r="D95" s="3"/>
       <c r="F95">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G95" s="3"/>
       <c r="L95">
-        <v>3.3238030118388898E-2</v>
+        <v>0.94371825906667095</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -3909,76 +3774,76 @@
       </c>
       <c r="D96" s="3"/>
       <c r="F96">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G96" s="3"/>
       <c r="L96">
-        <v>0.109379049467607</v>
+        <v>0.980960954171744</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D97" s="3"/>
       <c r="F97">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G97" s="3"/>
       <c r="L97">
-        <v>0.290782791382457</v>
+        <v>9.7134837966153798E-2</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D98" s="3"/>
       <c r="F98">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G98" s="3"/>
       <c r="L98">
-        <v>0.49097468445169801</v>
+        <v>0.38504888310513802</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D99" s="3"/>
       <c r="F99">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G99" s="3"/>
       <c r="L99">
-        <v>0.82121824528124998</v>
+        <v>0.66669193993967402</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D100" s="3"/>
       <c r="F100">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G100" s="3"/>
       <c r="L100">
-        <v>0.94371825906667095</v>
+        <v>0.82806270712595997</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D101" s="3"/>
       <c r="F101">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G101" s="3"/>
       <c r="L101">
-        <v>0.980960954171744</v>
+        <v>0.94903116056707604</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3987,11 +3852,11 @@
       </c>
       <c r="D102" s="3"/>
       <c r="F102">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G102" s="3"/>
       <c r="L102">
-        <v>9.7134837966153798E-2</v>
+        <v>0.96878842686282296</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4000,76 +3865,76 @@
       </c>
       <c r="D103" s="3"/>
       <c r="F103">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G103" s="3"/>
       <c r="L103">
-        <v>0.38504888310513802</v>
+        <v>0.98848228021902196</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D104" s="3"/>
       <c r="F104">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G104" s="3"/>
       <c r="L104">
-        <v>0.66669193993967402</v>
+        <v>0.17231777051132799</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D105" s="3"/>
       <c r="F105">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G105" s="3"/>
       <c r="L105">
-        <v>0.82806270712595997</v>
+        <v>0.52665686982701998</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D106" s="3"/>
       <c r="F106">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G106" s="3"/>
       <c r="L106">
-        <v>0.94903116056707604</v>
+        <v>0.78575800519434602</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D107" s="3"/>
       <c r="F107">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G107" s="3"/>
       <c r="L107">
-        <v>0.96878842686282296</v>
+        <v>0.88946711074104901</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D108" s="3"/>
       <c r="F108">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G108" s="3"/>
       <c r="L108">
-        <v>0.98848228021902196</v>
+        <v>0.96907792071728205</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4078,11 +3943,11 @@
       </c>
       <c r="D109" s="3"/>
       <c r="F109">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G109" s="3"/>
       <c r="L109">
-        <v>0.17231777051132799</v>
+        <v>0.98757933510154305</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4091,797 +3956,2400 @@
       </c>
       <c r="D110" s="3"/>
       <c r="F110">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G110" s="3"/>
       <c r="L110">
-        <v>0.52665686982701998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D111" s="3"/>
       <c r="F111">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G111" s="3"/>
       <c r="L111">
-        <v>0.78575800519434602</v>
+        <v>0.22119398293916201</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D112" s="3"/>
       <c r="F112">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G112" s="3"/>
       <c r="L112">
-        <v>0.88946711074104901</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.62816857916416202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D113" s="3"/>
       <c r="F113">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G113" s="3"/>
       <c r="L113">
-        <v>0.96907792071728205</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.84465346207078995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D114" s="3"/>
       <c r="F114">
-        <v>57</v>
-      </c>
-      <c r="G114" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G114" s="6"/>
       <c r="L114">
-        <v>0.98757933510154305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91580140170167201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D115" s="3"/>
       <c r="F115">
-        <v>66</v>
-      </c>
-      <c r="G115" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G115" s="6"/>
       <c r="L115">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.98663503371914096</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>76</v>
       </c>
       <c r="D116" s="3"/>
       <c r="F116">
-        <v>14</v>
-      </c>
-      <c r="G116" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="G116" s="6"/>
       <c r="L116">
-        <v>0.22119398293916201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.98884070118168599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>76</v>
       </c>
       <c r="D117" s="3"/>
       <c r="F117">
-        <v>21</v>
-      </c>
-      <c r="G117" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="G117" s="6"/>
       <c r="L117">
-        <v>0.62816857916416202</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" t="s">
-        <v>76</v>
-      </c>
+        <v>0.99098019862035402</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="1">
+        <v>30316</v>
+      </c>
+      <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="F118">
-        <v>28</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="L118">
-        <v>0.84465346207078995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" t="s">
-        <v>76</v>
-      </c>
+      <c r="E118" s="5">
+        <v>30</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="K118">
+        <v>0.33</v>
+      </c>
+      <c r="O118" s="4">
+        <v>13.360323886639678</v>
+      </c>
+      <c r="P118" s="4">
+        <v>9.0396761133603203</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>0</v>
+      </c>
+      <c r="V118" s="4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="1">
+        <v>30330</v>
+      </c>
+      <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="F119">
-        <v>36</v>
+      <c r="E119" s="5">
+        <v>44</v>
       </c>
       <c r="G119" s="6"/>
-      <c r="L119">
-        <v>0.91580140170167201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" t="s">
-        <v>76</v>
-      </c>
+      <c r="K119">
+        <v>1.06</v>
+      </c>
+      <c r="O119" s="4">
+        <v>50</v>
+      </c>
+      <c r="P119" s="4">
+        <v>38.099999999999994</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>0</v>
+      </c>
+      <c r="V119" s="4">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="1">
+        <v>30348</v>
+      </c>
+      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="F120">
-        <v>50</v>
+      <c r="E120" s="5">
+        <v>62</v>
       </c>
       <c r="G120" s="6"/>
-      <c r="L120">
-        <v>0.98663503371914096</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="H120" s="3"/>
+      <c r="K120">
+        <v>3.64</v>
+      </c>
+      <c r="O120" s="4">
+        <v>134.81481481481481</v>
+      </c>
+      <c r="P120" s="4">
+        <v>154.98518518518514</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>33.6</v>
+      </c>
+      <c r="V120" s="4">
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="1">
+        <v>30369</v>
+      </c>
+      <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="F121">
-        <v>57</v>
+      <c r="E121" s="5">
+        <v>83</v>
       </c>
       <c r="G121" s="6"/>
-      <c r="L121">
-        <v>0.98884070118168599</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" t="s">
-        <v>76</v>
-      </c>
+      <c r="K121">
+        <v>5.7</v>
+      </c>
+      <c r="O121" s="4">
+        <v>215.90909090909091</v>
+      </c>
+      <c r="P121" s="4">
+        <v>312.29090909090917</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="V121" s="4">
+        <v>678.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="1">
+        <v>30391</v>
+      </c>
+      <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="F122">
-        <v>66</v>
+      <c r="E122" s="5">
+        <v>105</v>
       </c>
       <c r="G122" s="6"/>
-      <c r="L122">
-        <v>0.99098019862035402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="2"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="K122">
+        <v>7.03</v>
+      </c>
+      <c r="O122" s="4">
+        <v>276.77165354330708</v>
+      </c>
+      <c r="P122" s="4">
+        <v>423.32834645669294</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>280.5</v>
+      </c>
+      <c r="V122" s="4">
+        <v>980.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="1">
+        <v>30411</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D123" s="3"/>
-      <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3"/>
+      <c r="E123" s="5">
+        <v>125</v>
+      </c>
+      <c r="G123" s="6">
+        <v>9</v>
+      </c>
+      <c r="H123" s="4">
+        <v>29</v>
+      </c>
+      <c r="I123" s="4">
+        <v>125</v>
+      </c>
+      <c r="K123">
+        <v>5.85</v>
+      </c>
+      <c r="O123" s="4">
+        <v>272.09302325581393</v>
+      </c>
+      <c r="P123" s="4">
+        <v>318.00697674418609</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>355.6</v>
+      </c>
+      <c r="V123" s="4">
+        <v>945.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="3">
+        <v>30343</v>
+      </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
+      <c r="E124" s="5">
+        <v>29</v>
+      </c>
       <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3"/>
+      <c r="K124">
+        <v>0.71</v>
+      </c>
+      <c r="O124" s="4">
+        <v>23.127035830618894</v>
+      </c>
+      <c r="P124" s="4">
+        <v>16.872964169381106</v>
+      </c>
+      <c r="Q124" s="4">
+        <v>0</v>
+      </c>
+      <c r="V124" s="7">
+        <v>40</v>
+      </c>
+      <c r="W124" s="7"/>
+      <c r="X124" s="7"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="3">
+        <v>30354</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
+      <c r="E125" s="5">
+        <v>40</v>
+      </c>
       <c r="G125" s="6"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3"/>
+      <c r="K125">
+        <v>1.43</v>
+      </c>
+      <c r="O125" s="4">
+        <v>50.53003533568905</v>
+      </c>
+      <c r="P125" s="4">
+        <v>45.869964664310956</v>
+      </c>
+      <c r="Q125" s="4">
+        <v>0</v>
+      </c>
+      <c r="V125" s="7">
+        <v>96.4</v>
+      </c>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="3">
+        <v>30375</v>
+      </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
+      <c r="E126" s="5">
+        <v>61</v>
+      </c>
       <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3"/>
+      <c r="K126">
+        <v>4.53</v>
+      </c>
+      <c r="O126" s="4">
+        <v>154.60750853242322</v>
+      </c>
+      <c r="P126" s="4">
+        <v>211.19249146757673</v>
+      </c>
+      <c r="Q126" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="V126" s="7">
+        <v>392.9</v>
+      </c>
+      <c r="W126" s="7"/>
+      <c r="X126" s="7"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="3">
+        <v>30397</v>
+      </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
+      <c r="E127" s="5">
+        <v>83</v>
+      </c>
       <c r="G127" s="6"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="K127">
+        <v>7.77</v>
+      </c>
+      <c r="O127" s="4">
+        <v>288.84758364312262</v>
+      </c>
+      <c r="P127" s="4">
+        <v>394.55241635687736</v>
+      </c>
+      <c r="Q127" s="4">
+        <v>179.5</v>
+      </c>
+      <c r="V127" s="7">
+        <v>862.9</v>
+      </c>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="3">
+        <v>30417</v>
+      </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
+      <c r="E128" s="5">
+        <v>103</v>
+      </c>
       <c r="G128" s="6"/>
+      <c r="H128" s="3"/>
+      <c r="K128">
+        <v>6.14</v>
+      </c>
+      <c r="O128" s="4">
+        <v>270.48458149779736</v>
+      </c>
+      <c r="P128" s="4">
+        <v>399.21541850220257</v>
+      </c>
+      <c r="Q128" s="4">
+        <v>346.6</v>
+      </c>
+      <c r="V128" s="7">
+        <v>1016.3</v>
+      </c>
+      <c r="W128" s="7"/>
+      <c r="X128" s="7"/>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="2"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="3">
+        <v>30445</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D129" s="3"/>
-      <c r="G129" s="6"/>
-      <c r="V129" s="7"/>
+      <c r="E129" s="5">
+        <v>131</v>
+      </c>
+      <c r="G129" s="6">
+        <v>10</v>
+      </c>
+      <c r="H129" s="5">
+        <v>27</v>
+      </c>
+      <c r="I129" s="5">
+        <v>131</v>
+      </c>
+      <c r="K129">
+        <v>3.12</v>
+      </c>
+      <c r="O129" s="4">
+        <v>145.79439252336451</v>
+      </c>
+      <c r="P129" s="4">
+        <v>404.40560747663551</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>461.2</v>
+      </c>
+      <c r="V129" s="7">
+        <v>1011.4</v>
+      </c>
       <c r="W129" s="7"/>
       <c r="X129" s="7"/>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="2"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="1">
+        <v>30363</v>
+      </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
+      <c r="E130" s="5">
+        <v>29</v>
+      </c>
       <c r="G130" s="6"/>
-      <c r="V130" s="7"/>
-      <c r="W130" s="7"/>
-      <c r="X130" s="7"/>
+      <c r="K130">
+        <v>0.49</v>
+      </c>
+      <c r="O130" s="4">
+        <v>17.689530685920577</v>
+      </c>
+      <c r="P130" s="4">
+        <v>12.210469314079422</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>0</v>
+      </c>
+      <c r="V130" s="4">
+        <v>29.9</v>
+      </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1">
+        <v>30376</v>
+      </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
+      <c r="E131" s="5">
+        <v>42</v>
+      </c>
       <c r="G131" s="6"/>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7"/>
-      <c r="X131" s="7"/>
+      <c r="K131">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O131" s="4">
+        <v>43.773584905660371</v>
+      </c>
+      <c r="P131" s="4">
+        <v>38.626415094339634</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>0</v>
+      </c>
+      <c r="V131" s="4">
+        <v>82.4</v>
+      </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1">
+        <v>30398</v>
+      </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
+      <c r="E132" s="5">
+        <v>64</v>
+      </c>
       <c r="G132" s="6"/>
-      <c r="H132" s="3"/>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7"/>
-      <c r="X132" s="7"/>
+      <c r="K132">
+        <v>2.93</v>
+      </c>
+      <c r="O132" s="4">
+        <v>126.83982683982684</v>
+      </c>
+      <c r="P132" s="4">
+        <v>144.16017316017314</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="V132" s="4">
+        <v>312.89999999999998</v>
+      </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1">
+        <v>30418</v>
+      </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
+      <c r="E133" s="5">
+        <v>84</v>
+      </c>
       <c r="G133" s="6"/>
       <c r="H133" s="3"/>
-      <c r="V133" s="7"/>
-      <c r="W133" s="7"/>
-      <c r="X133" s="7"/>
+      <c r="K133">
+        <v>4.28</v>
+      </c>
+      <c r="O133" s="4">
+        <v>215.07537688442213</v>
+      </c>
+      <c r="P133" s="4">
+        <v>284.32462311557788</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="V133" s="6">
+        <v>656.2</v>
+      </c>
+      <c r="W133" s="6"/>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="1">
+        <v>30439</v>
+      </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
+      <c r="E134" s="5">
+        <v>105</v>
+      </c>
       <c r="G134" s="6"/>
       <c r="H134" s="3"/>
-      <c r="V134" s="7"/>
-      <c r="W134" s="7"/>
-      <c r="X134" s="7"/>
+      <c r="K134">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="O134" s="4">
+        <v>247.1502590673575</v>
+      </c>
+      <c r="P134" s="4">
+        <v>314.34974093264248</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>360.5</v>
+      </c>
+      <c r="V134" s="4">
+        <v>922</v>
+      </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1">
+        <v>30476</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D135" s="3"/>
-      <c r="G135" s="6"/>
+      <c r="E135" s="5">
+        <v>142</v>
+      </c>
+      <c r="G135" s="6">
+        <v>10</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="4">
+        <v>142</v>
+      </c>
+      <c r="K135">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="O135" s="4">
+        <v>250.58139534883716</v>
+      </c>
+      <c r="P135" s="4">
+        <v>324.71860465116288</v>
+      </c>
+      <c r="Q135" s="4">
+        <v>563.9</v>
+      </c>
+      <c r="V135" s="4">
+        <v>1139.2</v>
+      </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="3">
+        <v>30384</v>
+      </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
+      <c r="E136" s="5">
+        <v>29</v>
+      </c>
       <c r="G136" s="6"/>
+      <c r="H136" s="3"/>
+      <c r="K136">
+        <v>0.36</v>
+      </c>
+      <c r="O136" s="4">
+        <v>11.650485436893202</v>
+      </c>
+      <c r="P136" s="4">
+        <v>10.449514563106799</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>0</v>
+      </c>
+      <c r="V136" s="4">
+        <v>22.1</v>
+      </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="2"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="3">
+        <v>30398</v>
+      </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
+      <c r="E137" s="5">
+        <v>43</v>
+      </c>
       <c r="G137" s="6"/>
+      <c r="H137" s="3"/>
+      <c r="K137">
+        <v>1.19</v>
+      </c>
+      <c r="O137" s="4">
+        <v>46.484375</v>
+      </c>
+      <c r="P137" s="4">
+        <v>40.815624999999997</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>0</v>
+      </c>
+      <c r="V137" s="4">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="3">
+        <v>30418</v>
+      </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
+      <c r="E138" s="5">
+        <v>63</v>
+      </c>
       <c r="G138" s="6"/>
       <c r="H138" s="3"/>
-      <c r="V138" s="6"/>
-      <c r="W138" s="6"/>
+      <c r="K138">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="O138" s="4">
+        <v>114.87179487179488</v>
+      </c>
+      <c r="P138" s="4">
+        <v>115.72820512820509</v>
+      </c>
+      <c r="Q138" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="V138" s="4">
+        <v>260.89999999999998</v>
+      </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="2"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="3">
+        <v>30439</v>
+      </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
+      <c r="E139" s="5">
+        <v>84</v>
+      </c>
       <c r="G139" s="6"/>
       <c r="H139" s="3"/>
+      <c r="K139">
+        <v>2.98</v>
+      </c>
+      <c r="O139" s="4">
+        <v>177.38095238095238</v>
+      </c>
+      <c r="P139" s="4">
+        <v>179.71904761904759</v>
+      </c>
+      <c r="Q139" s="4">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="V139" s="4">
+        <v>518.29999999999995</v>
+      </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="3"/>
+      <c r="A140" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="8">
+        <v>30456</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="17">
+        <v>101</v>
+      </c>
+      <c r="F140" s="17"/>
+      <c r="K140">
+        <v>3.38</v>
+      </c>
+      <c r="O140" s="4">
+        <v>206.09756097560975</v>
+      </c>
+      <c r="P140" s="4">
+        <v>364.80243902439031</v>
+      </c>
+      <c r="Q140" s="4">
+        <v>332.3</v>
+      </c>
+      <c r="V140" s="4">
+        <v>903.2</v>
+      </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="2"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="3"/>
+      <c r="A141" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="8">
+        <v>30489</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="17">
+        <v>134</v>
+      </c>
+      <c r="F141" s="17"/>
+      <c r="G141" s="4">
+        <v>8</v>
+      </c>
+      <c r="H141" s="4">
+        <v>28</v>
+      </c>
+      <c r="I141" s="4">
+        <v>134</v>
+      </c>
+      <c r="K141">
+        <v>2.73</v>
+      </c>
+      <c r="O141" s="4">
+        <v>163.47305389221557</v>
+      </c>
+      <c r="P141" s="4">
+        <v>253.72694610778447</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>392.9</v>
+      </c>
+      <c r="V141" s="4">
+        <v>810.1</v>
+      </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="2"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="3"/>
+      <c r="A142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" s="8">
+        <v>30403</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="17">
+        <v>27</v>
+      </c>
+      <c r="F142" s="17"/>
+      <c r="K142">
+        <v>0.18</v>
+      </c>
+      <c r="O142" s="4">
+        <v>7.7586206896551717</v>
+      </c>
+      <c r="P142" s="4">
+        <v>6.041379310344829</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>0</v>
+      </c>
+      <c r="V142" s="4">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="2"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="3"/>
+      <c r="A143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" s="8">
+        <v>30417</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="17">
+        <v>41</v>
+      </c>
+      <c r="F143" s="17"/>
+      <c r="K143">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O143" s="4">
+        <v>49.773755656108605</v>
+      </c>
+      <c r="P143" s="4">
+        <v>37.726244343891395</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>0</v>
+      </c>
+      <c r="V143" s="4">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="2"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B145" s="8"/>
+      <c r="A144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="8">
+        <v>30438</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="17">
+        <v>62</v>
+      </c>
+      <c r="F144" s="17"/>
+      <c r="K144">
+        <v>1.91</v>
+      </c>
+      <c r="O144" s="4">
+        <v>104.94505494505493</v>
+      </c>
+      <c r="P144" s="4">
+        <v>101.95494505494507</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="V144" s="4">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" s="8">
+        <v>30461</v>
+      </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B146" s="8"/>
+      <c r="E145" s="17">
+        <v>85</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="K145">
+        <v>2.44</v>
+      </c>
+      <c r="O145" s="4">
+        <v>144.37869822485209</v>
+      </c>
+      <c r="P145" s="4">
+        <v>114.62130177514791</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>179.2</v>
+      </c>
+      <c r="V145" s="4">
+        <v>438.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="8">
+        <v>30487</v>
+      </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="E146" s="17">
+        <v>111</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="H146" s="3"/>
+      <c r="K146">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O146" s="4">
+        <v>151.31578947368419</v>
+      </c>
+      <c r="P146" s="4">
+        <v>139.68421052631581</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="V146" s="4">
+        <v>568.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="8">
+        <v>30510</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B152" s="8"/>
+      <c r="E147" s="17">
+        <v>134</v>
+      </c>
+      <c r="F147" s="17"/>
+      <c r="G147" s="4">
+        <v>8</v>
+      </c>
+      <c r="H147" s="4">
+        <v>27</v>
+      </c>
+      <c r="I147" s="4">
+        <v>134</v>
+      </c>
+      <c r="K147">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O147" s="4">
+        <v>142.94117647058826</v>
+      </c>
+      <c r="P147" s="4">
+        <v>139.45882352941177</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>385.2</v>
+      </c>
+      <c r="V147" s="4">
+        <v>667.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="1">
+        <f>D148+E148</f>
+        <v>31023</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E148">
+        <v>36</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="K148">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148" s="13"/>
+      <c r="S148" s="4"/>
+      <c r="V148">
+        <v>28</v>
+      </c>
+      <c r="W148" s="13"/>
+    </row>
+    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" ref="B149:B155" si="11">D149+E149</f>
+        <v>31037</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E149">
+        <v>50</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="K149">
+        <v>1.72</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149" s="13"/>
+      <c r="S149" s="4"/>
+      <c r="V149">
+        <v>126</v>
+      </c>
+      <c r="W149" s="14"/>
+    </row>
+    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="11"/>
+        <v>31051</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E150">
+        <v>64</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="K150">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q150">
+        <v>2.9</v>
+      </c>
+      <c r="R150" s="13"/>
+      <c r="S150" s="4"/>
+      <c r="V150">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="W150" s="13"/>
+    </row>
+    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="11"/>
+        <v>31064</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E151">
+        <v>77</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="K151">
+        <v>3.19</v>
+      </c>
+      <c r="Q151">
+        <v>63.3</v>
+      </c>
+      <c r="R151" s="15"/>
+      <c r="S151" s="4"/>
+      <c r="V151">
+        <v>486.7</v>
+      </c>
+      <c r="W151" s="13"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="11"/>
+        <v>31078</v>
+      </c>
       <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B153" s="8"/>
+      <c r="D152" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E152">
+        <v>91</v>
+      </c>
+      <c r="F152" s="17"/>
+      <c r="K152">
+        <v>3.63</v>
+      </c>
+      <c r="Q152">
+        <v>206.4</v>
+      </c>
+      <c r="V152">
+        <v>688.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="11"/>
+        <v>31091</v>
+      </c>
       <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B154" s="8"/>
+      <c r="D153" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E153">
+        <v>104</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="H153" s="3"/>
+      <c r="K153">
+        <v>3.73</v>
+      </c>
+      <c r="Q153">
+        <v>372.5</v>
+      </c>
+      <c r="V153">
+        <v>866.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="11"/>
+        <v>31104</v>
+      </c>
       <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B160" s="8"/>
+      <c r="D154" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E154">
+        <v>117</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="K154">
+        <v>4.05</v>
+      </c>
+      <c r="Q154">
+        <v>499</v>
+      </c>
+      <c r="V154">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="11"/>
+        <v>31118</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E155">
+        <v>131</v>
+      </c>
+      <c r="F155" s="17"/>
+      <c r="K155">
+        <v>3.46</v>
+      </c>
+      <c r="Q155">
+        <v>622.70000000000005</v>
+      </c>
+      <c r="V155">
+        <v>1055.4000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="1">
+        <f>D156+E156</f>
+        <v>31023</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E156">
+        <v>36</v>
+      </c>
+      <c r="F156" s="17"/>
+      <c r="K156">
+        <v>0.65</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="1">
+        <f t="shared" ref="B157:B164" si="12">D157+E157</f>
+        <v>31037</v>
+      </c>
+      <c r="D157" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E157">
+        <v>50</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="K157">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="1">
+        <f t="shared" si="12"/>
+        <v>31051</v>
+      </c>
+      <c r="D158" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E158">
+        <v>64</v>
+      </c>
+      <c r="F158" s="17"/>
+      <c r="K158">
+        <v>3.02</v>
+      </c>
+      <c r="Q158">
+        <v>3.9</v>
+      </c>
+      <c r="V158">
+        <v>387.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="1">
+        <f t="shared" si="12"/>
+        <v>31064</v>
+      </c>
+      <c r="D159" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E159">
+        <v>77</v>
+      </c>
+      <c r="F159" s="17"/>
+      <c r="K159">
+        <v>4.13</v>
+      </c>
+      <c r="Q159">
+        <v>61.6</v>
+      </c>
+      <c r="V159">
+        <v>616.20000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="12"/>
+        <v>31078</v>
+      </c>
       <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B161" s="8"/>
+      <c r="D160" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E160">
+        <v>91</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="H160" s="3"/>
+      <c r="K160">
+        <v>4.42</v>
+      </c>
+      <c r="Q160">
+        <v>242.1</v>
+      </c>
+      <c r="V160">
+        <v>806.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" si="12"/>
+        <v>31091</v>
+      </c>
       <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B162" s="8"/>
+      <c r="D161" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E161">
+        <v>104</v>
+      </c>
+      <c r="F161" s="17"/>
+      <c r="K161">
+        <v>3.98</v>
+      </c>
+      <c r="Q161">
+        <v>381.1</v>
+      </c>
+      <c r="V161">
+        <v>866.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" si="12"/>
+        <v>31104</v>
+      </c>
       <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B164" s="8"/>
+      <c r="D162" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E162">
+        <v>117</v>
+      </c>
+      <c r="F162" s="17"/>
+      <c r="K162">
+        <v>4.2</v>
+      </c>
+      <c r="Q162">
+        <v>474.3</v>
+      </c>
+      <c r="V162">
+        <v>948.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="12"/>
+        <v>31118</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="1">
+        <v>30987</v>
+      </c>
+      <c r="E163">
+        <v>131</v>
+      </c>
+      <c r="F163" s="17"/>
+      <c r="K163">
+        <v>3.44</v>
+      </c>
+      <c r="Q163">
+        <v>588.70000000000005</v>
+      </c>
+      <c r="V163">
+        <v>1032.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="8">
+        <f t="shared" si="12"/>
+        <v>31056</v>
+      </c>
       <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B165" s="8"/>
+      <c r="D164" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E164">
+        <v>35</v>
+      </c>
+      <c r="F164" s="17"/>
+      <c r="K164">
+        <v>0.52</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" s="8">
+        <f t="shared" ref="B165:B172" si="13">D165+E165</f>
+        <v>31070</v>
+      </c>
       <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="H165" s="3"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B166" s="8"/>
+      <c r="D165" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E165">
+        <v>49</v>
+      </c>
+      <c r="F165" s="17"/>
+      <c r="K165">
+        <v>1.87</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>178.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="8">
+        <f t="shared" si="13"/>
+        <v>31084</v>
+      </c>
       <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B167" s="8"/>
+      <c r="D166" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E166">
+        <v>63</v>
+      </c>
+      <c r="F166" s="17"/>
+      <c r="K166">
+        <v>3.47</v>
+      </c>
+      <c r="Q166">
+        <v>11.4</v>
+      </c>
+      <c r="V166">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="8">
+        <f t="shared" si="13"/>
+        <v>31104</v>
+      </c>
       <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B168" s="8"/>
+      <c r="D167" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E167">
+        <v>83</v>
+      </c>
+      <c r="F167" s="17"/>
+      <c r="H167" s="3"/>
+      <c r="K167">
+        <v>4.41</v>
+      </c>
+      <c r="Q167">
+        <v>124.2</v>
+      </c>
+      <c r="V167">
+        <v>653.70000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="8">
+        <f t="shared" si="13"/>
+        <v>31118</v>
+      </c>
       <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B169" s="8"/>
+      <c r="D168" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E168">
+        <v>97</v>
+      </c>
+      <c r="F168" s="17"/>
+      <c r="K168">
+        <v>4.84</v>
+      </c>
+      <c r="Q168">
+        <v>313</v>
+      </c>
+      <c r="V168">
+        <v>894.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="8">
+        <f t="shared" si="13"/>
+        <v>31134</v>
+      </c>
       <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B170" s="8"/>
+      <c r="D169" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E169">
+        <v>113</v>
+      </c>
+      <c r="F169" s="17"/>
+      <c r="K169">
+        <v>5.18</v>
+      </c>
+      <c r="Q169">
+        <v>562.6</v>
+      </c>
+      <c r="V169">
+        <v>1148.0999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="8">
+        <f t="shared" si="13"/>
+        <v>31148</v>
+      </c>
       <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B172" s="8"/>
+      <c r="D170" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E170">
+        <v>127</v>
+      </c>
+      <c r="F170" s="17"/>
+      <c r="K170">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="Q170">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="V170">
+        <v>1135.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="8">
+        <f t="shared" si="13"/>
+        <v>31161</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E171">
+        <v>140</v>
+      </c>
+      <c r="F171" s="17"/>
+      <c r="K171">
+        <v>3.84</v>
+      </c>
+      <c r="Q171">
+        <v>669</v>
+      </c>
+      <c r="V171">
+        <v>1194.5999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="8">
+        <f t="shared" si="13"/>
+        <v>31056</v>
+      </c>
       <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B173" s="8"/>
+      <c r="D172" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E172">
+        <v>35</v>
+      </c>
+      <c r="F172" s="17"/>
+      <c r="K172">
+        <v>0.92</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" s="8">
+        <f t="shared" ref="B173:B180" si="14">D173+E173</f>
+        <v>31070</v>
+      </c>
       <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B174" s="8"/>
+      <c r="D173" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E173">
+        <v>49</v>
+      </c>
+      <c r="F173" s="17"/>
+      <c r="K173">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="8">
+        <f t="shared" si="14"/>
+        <v>31084</v>
+      </c>
       <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B175" s="8"/>
+      <c r="D174" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E174">
+        <v>63</v>
+      </c>
+      <c r="F174" s="17"/>
+      <c r="H174" s="3"/>
+      <c r="K174">
+        <v>3.78</v>
+      </c>
+      <c r="Q174">
+        <v>4.2</v>
+      </c>
+      <c r="V174">
+        <v>419.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="8">
+        <f t="shared" si="14"/>
+        <v>31104</v>
+      </c>
       <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B176" s="8"/>
+      <c r="D175" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E175">
+        <v>83</v>
+      </c>
+      <c r="F175" s="17"/>
+      <c r="K175">
+        <v>5.65</v>
+      </c>
+      <c r="Q175">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="V175">
+        <v>807.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="8">
+        <f t="shared" si="14"/>
+        <v>31118</v>
+      </c>
       <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B177" s="8"/>
+      <c r="D176" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E176">
+        <v>97</v>
+      </c>
+      <c r="F176" s="17"/>
+      <c r="K176">
+        <v>5.72</v>
+      </c>
+      <c r="Q176">
+        <v>281.8</v>
+      </c>
+      <c r="V176">
+        <v>971.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="8">
+        <f t="shared" si="14"/>
+        <v>31134</v>
+      </c>
       <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B178" s="8"/>
+      <c r="D177" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E177">
+        <v>113</v>
+      </c>
+      <c r="F177" s="17"/>
+      <c r="K177">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Q177">
+        <v>478.8</v>
+      </c>
+      <c r="V177">
+        <v>1113.5999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="8">
+        <f t="shared" si="14"/>
+        <v>31148</v>
+      </c>
       <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B180" s="8"/>
+      <c r="D178" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E178">
+        <v>127</v>
+      </c>
+      <c r="F178" s="17"/>
+      <c r="K178">
+        <v>4.08</v>
+      </c>
+      <c r="Q178">
+        <v>550.6</v>
+      </c>
+      <c r="V178">
+        <v>1123.5999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="8">
+        <f t="shared" si="14"/>
+        <v>31161</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="8">
+        <v>31021</v>
+      </c>
+      <c r="E179">
+        <v>140</v>
+      </c>
+      <c r="F179" s="17"/>
+      <c r="K179">
+        <v>3.88</v>
+      </c>
+      <c r="Q179">
+        <v>722.6</v>
+      </c>
+      <c r="V179">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180" s="8">
+        <f t="shared" si="14"/>
+        <v>31105</v>
+      </c>
       <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B181" s="8"/>
+      <c r="D180" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E180">
+        <v>43</v>
+      </c>
+      <c r="F180" s="17"/>
+      <c r="K180">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="8">
+        <f t="shared" ref="B181:B188" si="15">D181+E181</f>
+        <v>31113</v>
+      </c>
       <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B182" s="8"/>
+      <c r="D181" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E181">
+        <v>51</v>
+      </c>
+      <c r="F181" s="17"/>
+      <c r="H181" s="3"/>
+      <c r="K181">
+        <v>1.65</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>128.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="8">
+        <f t="shared" si="15"/>
+        <v>31127</v>
+      </c>
       <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B183" s="8"/>
+      <c r="D182" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E182">
+        <v>65</v>
+      </c>
+      <c r="F182" s="17"/>
+      <c r="K182">
+        <v>2.65</v>
+      </c>
+      <c r="Q182">
+        <v>10.6</v>
+      </c>
+      <c r="V182">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" s="8">
+        <f t="shared" si="15"/>
+        <v>31141</v>
+      </c>
       <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B184" s="8"/>
+      <c r="D183" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E183">
+        <v>79</v>
+      </c>
+      <c r="F183" s="17"/>
+      <c r="K183">
+        <v>3.38</v>
+      </c>
+      <c r="Q183">
+        <v>88.9</v>
+      </c>
+      <c r="V183">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B184" s="8">
+        <f t="shared" si="15"/>
+        <v>31162</v>
+      </c>
       <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B185" s="8"/>
+      <c r="D184" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E184">
+        <v>100</v>
+      </c>
+      <c r="F184" s="17"/>
+      <c r="K184">
+        <v>2.99</v>
+      </c>
+      <c r="Q184">
+        <v>240.1</v>
+      </c>
+      <c r="V184">
+        <v>666.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" s="8">
+        <f t="shared" si="15"/>
+        <v>31177</v>
+      </c>
       <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B186" s="8"/>
+      <c r="D185" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E185">
+        <v>115</v>
+      </c>
+      <c r="F185" s="17"/>
+      <c r="K185">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q185">
+        <v>299</v>
+      </c>
+      <c r="V185">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="8">
+        <f t="shared" si="15"/>
+        <v>31189</v>
+      </c>
       <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B188" s="8"/>
+      <c r="D186" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E186">
+        <v>127</v>
+      </c>
+      <c r="F186" s="17"/>
+      <c r="K186">
+        <v>2.38</v>
+      </c>
+      <c r="Q186">
+        <v>391.2</v>
+      </c>
+      <c r="V186">
+        <v>724.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B187" s="8">
+        <f t="shared" si="15"/>
+        <v>31195</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E187">
+        <v>133</v>
+      </c>
+      <c r="F187" s="17"/>
+      <c r="K187">
+        <v>1.77</v>
+      </c>
+      <c r="Q187">
+        <v>471.8</v>
+      </c>
+      <c r="V187">
+        <v>773.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B188" s="8">
+        <f t="shared" si="15"/>
+        <v>31105</v>
+      </c>
       <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B189" s="8"/>
+      <c r="D188" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E188">
+        <v>43</v>
+      </c>
+      <c r="F188" s="17"/>
+      <c r="H188" s="3"/>
+      <c r="K188">
+        <v>1.79</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B189" s="8">
+        <f t="shared" ref="B189:B195" si="16">D189+E189</f>
+        <v>31113</v>
+      </c>
       <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B190" s="8"/>
+      <c r="D189" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E189">
+        <v>51</v>
+      </c>
+      <c r="F189" s="17"/>
+      <c r="K189">
+        <v>2.74</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>229.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B190" s="8">
+        <f t="shared" si="16"/>
+        <v>31127</v>
+      </c>
       <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B191" s="8"/>
+      <c r="D190" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E190">
+        <v>65</v>
+      </c>
+      <c r="F190" s="17"/>
+      <c r="K190">
+        <v>3.92</v>
+      </c>
+      <c r="Q190">
+        <v>19.2</v>
+      </c>
+      <c r="V190">
+        <v>480.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B191" s="8">
+        <f t="shared" si="16"/>
+        <v>31141</v>
+      </c>
       <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B192" s="8"/>
+      <c r="D191" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E191">
+        <v>79</v>
+      </c>
+      <c r="F191" s="17"/>
+      <c r="K191">
+        <v>3.83</v>
+      </c>
+      <c r="Q191">
+        <v>80.7</v>
+      </c>
+      <c r="V191">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B192" s="8">
+        <f t="shared" si="16"/>
+        <v>31162</v>
+      </c>
       <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-    </row>
-    <row r="193" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B193" s="8"/>
+      <c r="D192" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E192">
+        <v>100</v>
+      </c>
+      <c r="F192" s="17"/>
+      <c r="K192">
+        <v>3.33</v>
+      </c>
+      <c r="Q192">
+        <v>259.3</v>
+      </c>
+      <c r="V192">
+        <v>700.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B193" s="8">
+        <f t="shared" si="16"/>
+        <v>31177</v>
+      </c>
       <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="H193" s="3"/>
-    </row>
-    <row r="194" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B194" s="8"/>
+      <c r="D193" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E193">
+        <v>115</v>
+      </c>
+      <c r="F193" s="17"/>
+      <c r="K193">
+        <v>3.12</v>
+      </c>
+      <c r="Q193">
+        <v>397.6</v>
+      </c>
+      <c r="V193">
+        <v>864.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B194" s="8">
+        <f t="shared" si="16"/>
+        <v>31189</v>
+      </c>
       <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-    </row>
-    <row r="195" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-    </row>
-    <row r="196" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-    </row>
-    <row r="197" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-    </row>
-    <row r="198" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-    </row>
-    <row r="199" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-    </row>
-    <row r="200" spans="2:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="D194" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E194">
+        <v>127</v>
+      </c>
+      <c r="F194" s="17"/>
+      <c r="K194">
+        <v>2.62</v>
+      </c>
+      <c r="Q194">
+        <v>436.6</v>
+      </c>
+      <c r="V194">
+        <v>793.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B195" s="8">
+        <f t="shared" si="16"/>
+        <v>31195</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="8">
+        <v>31062</v>
+      </c>
+      <c r="E195">
+        <v>133</v>
+      </c>
+      <c r="F195" s="17"/>
+      <c r="H195" s="3"/>
+      <c r="K195">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q195">
+        <v>447.8</v>
+      </c>
+      <c r="V195">
+        <v>746.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="CS196" s="5"/>
+    </row>
+    <row r="197" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="CS197" s="5"/>
+    </row>
+    <row r="198" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="CS198" s="5"/>
+    </row>
+    <row r="199" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="CS199" s="5"/>
+    </row>
+    <row r="200" spans="1:97" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="CS200" s="5"/>
+    </row>
+    <row r="201" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="CS201" s="5"/>
     </row>
-    <row r="202" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="CS202" s="5"/>
     </row>
-    <row r="203" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="CS203" s="5"/>
     </row>
-    <row r="204" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="CS204" s="5"/>
     </row>
-    <row r="205" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="CS205" s="5"/>
     </row>
-    <row r="206" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="CS206" s="5"/>
     </row>
-    <row r="207" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="CS207" s="5"/>
     </row>
-    <row r="208" spans="2:97" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -4996,37 +6464,22 @@
       <c r="CS226" s="5"/>
     </row>
     <row r="227" spans="1:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="CS227" s="5"/>
+      <c r="A227" s="2"/>
+      <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="CS228" s="5"/>
+      <c r="H228" s="3"/>
     </row>
     <row r="229" spans="1:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="CS229" s="5"/>
+      <c r="H229" s="3"/>
     </row>
     <row r="230" spans="1:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="CS230" s="5"/>
+      <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="CS231" s="5"/>
+      <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:97" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="2"/>
       <c r="H232" s="3"/>
     </row>
     <row r="233" spans="1:97" x14ac:dyDescent="0.55000000000000004">
@@ -5312,26 +6765,56 @@
       <c r="H326" s="3"/>
     </row>
     <row r="327" spans="2:99" x14ac:dyDescent="0.55000000000000004">
-      <c r="H327" s="3"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="18"/>
+      <c r="F327" s="18"/>
+      <c r="CT327" s="10"/>
+      <c r="CU327" s="10"/>
     </row>
     <row r="328" spans="2:99" x14ac:dyDescent="0.55000000000000004">
-      <c r="H328" s="3"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="18"/>
+      <c r="CT328" s="10"/>
+      <c r="CU328" s="10"/>
     </row>
     <row r="329" spans="2:99" x14ac:dyDescent="0.55000000000000004">
-      <c r="H329" s="3"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="18"/>
+      <c r="F329" s="18"/>
+      <c r="CT329" s="10"/>
+      <c r="CU329" s="10"/>
     </row>
     <row r="330" spans="2:99" x14ac:dyDescent="0.55000000000000004">
-      <c r="H330" s="3"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="9"/>
+      <c r="D330" s="9"/>
+      <c r="E330" s="18"/>
+      <c r="F330" s="18"/>
+      <c r="CT330" s="10"/>
+      <c r="CU330" s="10"/>
     </row>
     <row r="331" spans="2:99" x14ac:dyDescent="0.55000000000000004">
-      <c r="H331" s="3"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="18"/>
+      <c r="F331" s="18"/>
+      <c r="CT331" s="10"/>
+      <c r="CU331" s="10"/>
     </row>
     <row r="332" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
-      <c r="E332" s="19"/>
-      <c r="F332" s="19"/>
+      <c r="E332" s="18"/>
+      <c r="F332" s="18"/>
       <c r="CT332" s="10"/>
       <c r="CU332" s="10"/>
     </row>
@@ -5339,8 +6822,8 @@
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
-      <c r="E333" s="19"/>
-      <c r="F333" s="19"/>
+      <c r="E333" s="18"/>
+      <c r="F333" s="18"/>
       <c r="CT333" s="10"/>
       <c r="CU333" s="10"/>
     </row>
@@ -5348,8 +6831,8 @@
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
-      <c r="E334" s="19"/>
-      <c r="F334" s="19"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="18"/>
       <c r="CT334" s="10"/>
       <c r="CU334" s="10"/>
     </row>
@@ -5357,8 +6840,8 @@
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
-      <c r="E335" s="19"/>
-      <c r="F335" s="19"/>
+      <c r="E335" s="18"/>
+      <c r="F335" s="18"/>
       <c r="CT335" s="10"/>
       <c r="CU335" s="10"/>
     </row>
@@ -5366,8 +6849,8 @@
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
-      <c r="E336" s="19"/>
-      <c r="F336" s="19"/>
+      <c r="E336" s="18"/>
+      <c r="F336" s="18"/>
       <c r="CT336" s="10"/>
       <c r="CU336" s="10"/>
     </row>
@@ -5375,8 +6858,8 @@
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
-      <c r="E337" s="19"/>
-      <c r="F337" s="19"/>
+      <c r="E337" s="18"/>
+      <c r="F337" s="18"/>
       <c r="CT337" s="10"/>
       <c r="CU337" s="10"/>
     </row>
@@ -5384,8 +6867,8 @@
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
-      <c r="E338" s="19"/>
-      <c r="F338" s="19"/>
+      <c r="E338" s="18"/>
+      <c r="F338" s="18"/>
       <c r="CT338" s="10"/>
       <c r="CU338" s="10"/>
     </row>
@@ -5393,8 +6876,8 @@
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
-      <c r="E339" s="19"/>
-      <c r="F339" s="19"/>
+      <c r="E339" s="18"/>
+      <c r="F339" s="18"/>
       <c r="CT339" s="10"/>
       <c r="CU339" s="10"/>
     </row>
@@ -5402,8 +6885,8 @@
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
-      <c r="E340" s="19"/>
-      <c r="F340" s="19"/>
+      <c r="E340" s="18"/>
+      <c r="F340" s="18"/>
       <c r="CT340" s="10"/>
       <c r="CU340" s="10"/>
     </row>
@@ -5411,8 +6894,8 @@
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
-      <c r="E341" s="19"/>
-      <c r="F341" s="19"/>
+      <c r="E341" s="18"/>
+      <c r="F341" s="18"/>
       <c r="CT341" s="10"/>
       <c r="CU341" s="10"/>
     </row>
@@ -5420,8 +6903,8 @@
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
-      <c r="E342" s="19"/>
-      <c r="F342" s="19"/>
+      <c r="E342" s="18"/>
+      <c r="F342" s="18"/>
       <c r="CT342" s="10"/>
       <c r="CU342" s="10"/>
     </row>
@@ -5429,8 +6912,8 @@
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
-      <c r="E343" s="19"/>
-      <c r="F343" s="19"/>
+      <c r="E343" s="18"/>
+      <c r="F343" s="18"/>
       <c r="CT343" s="10"/>
       <c r="CU343" s="10"/>
     </row>
@@ -5438,8 +6921,8 @@
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
-      <c r="E344" s="19"/>
-      <c r="F344" s="19"/>
+      <c r="E344" s="18"/>
+      <c r="F344" s="18"/>
       <c r="CT344" s="10"/>
       <c r="CU344" s="10"/>
     </row>
@@ -5447,8 +6930,8 @@
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
-      <c r="E345" s="19"/>
-      <c r="F345" s="19"/>
+      <c r="E345" s="18"/>
+      <c r="F345" s="18"/>
       <c r="CT345" s="10"/>
       <c r="CU345" s="10"/>
     </row>
@@ -5456,8 +6939,8 @@
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
-      <c r="E346" s="19"/>
-      <c r="F346" s="19"/>
+      <c r="E346" s="18"/>
+      <c r="F346" s="18"/>
       <c r="CT346" s="10"/>
       <c r="CU346" s="10"/>
     </row>
@@ -5465,8 +6948,8 @@
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
-      <c r="E347" s="19"/>
-      <c r="F347" s="19"/>
+      <c r="E347" s="18"/>
+      <c r="F347" s="18"/>
       <c r="CT347" s="10"/>
       <c r="CU347" s="10"/>
     </row>
@@ -5474,205 +6957,1552 @@
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
-      <c r="E348" s="19"/>
-      <c r="F348" s="19"/>
-      <c r="CT348" s="10"/>
-      <c r="CU348" s="10"/>
+      <c r="E348" s="18"/>
+      <c r="F348" s="18"/>
     </row>
     <row r="349" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
-      <c r="E349" s="19"/>
-      <c r="F349" s="19"/>
-      <c r="CT349" s="10"/>
-      <c r="CU349" s="10"/>
+      <c r="E349" s="18"/>
+      <c r="F349" s="18"/>
     </row>
     <row r="350" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
-      <c r="E350" s="19"/>
-      <c r="F350" s="19"/>
-      <c r="CT350" s="10"/>
-      <c r="CU350" s="10"/>
+      <c r="E350" s="18"/>
+      <c r="F350" s="18"/>
     </row>
     <row r="351" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
-      <c r="E351" s="19"/>
-      <c r="F351" s="19"/>
-      <c r="CT351" s="10"/>
-      <c r="CU351" s="10"/>
+      <c r="E351" s="18"/>
+      <c r="F351" s="18"/>
     </row>
     <row r="352" spans="2:99" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
-      <c r="E352" s="19"/>
-      <c r="F352" s="19"/>
-      <c r="CT352" s="10"/>
-      <c r="CU352" s="10"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="18"/>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
-      <c r="E353" s="19"/>
-      <c r="F353" s="19"/>
+      <c r="E353" s="18"/>
+      <c r="F353" s="18"/>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
-      <c r="E354" s="19"/>
-      <c r="F354" s="19"/>
+      <c r="E354" s="18"/>
+      <c r="F354" s="18"/>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
-      <c r="E355" s="19"/>
-      <c r="F355" s="19"/>
+      <c r="E355" s="18"/>
+      <c r="F355" s="18"/>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
-      <c r="E356" s="19"/>
-      <c r="F356" s="19"/>
+      <c r="E356" s="18"/>
+      <c r="F356" s="18"/>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
-      <c r="E357" s="19"/>
-      <c r="F357" s="19"/>
+      <c r="E357" s="18"/>
+      <c r="F357" s="18"/>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
-      <c r="E358" s="19"/>
-      <c r="F358" s="19"/>
+      <c r="E358" s="18"/>
+      <c r="F358" s="18"/>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
-      <c r="E359" s="19"/>
-      <c r="F359" s="19"/>
+      <c r="E359" s="18"/>
+      <c r="F359" s="18"/>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
-      <c r="E360" s="19"/>
-      <c r="F360" s="19"/>
+      <c r="E360" s="18"/>
+      <c r="F360" s="18"/>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
-      <c r="E361" s="19"/>
-      <c r="F361" s="19"/>
+      <c r="E361" s="18"/>
+      <c r="F361" s="18"/>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
-      <c r="E362" s="19"/>
-      <c r="F362" s="19"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="18"/>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
-      <c r="E363" s="19"/>
-      <c r="F363" s="19"/>
+      <c r="E363" s="18"/>
+      <c r="F363" s="18"/>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
-      <c r="E364" s="19"/>
-      <c r="F364" s="19"/>
+      <c r="E364" s="18"/>
+      <c r="F364" s="18"/>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
-      <c r="E365" s="19"/>
-      <c r="F365" s="19"/>
+      <c r="E365" s="18"/>
+      <c r="F365" s="18"/>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
-      <c r="E366" s="19"/>
-      <c r="F366" s="19"/>
+      <c r="E366" s="18"/>
+      <c r="F366" s="18"/>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
-      <c r="E367" s="19"/>
-      <c r="F367" s="19"/>
+      <c r="E367" s="18"/>
+      <c r="F367" s="18"/>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
-      <c r="E368" s="19"/>
-      <c r="F368" s="19"/>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B369" s="9"/>
-      <c r="C369" s="9"/>
-      <c r="D369" s="9"/>
-      <c r="E369" s="19"/>
-      <c r="F369" s="19"/>
-    </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B370" s="9"/>
-      <c r="C370" s="9"/>
-      <c r="D370" s="9"/>
-      <c r="E370" s="19"/>
-      <c r="F370" s="19"/>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B371" s="9"/>
-      <c r="C371" s="9"/>
-      <c r="D371" s="9"/>
-      <c r="E371" s="19"/>
-      <c r="F371" s="19"/>
-    </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B372" s="9"/>
-      <c r="C372" s="9"/>
-      <c r="D372" s="9"/>
-      <c r="E372" s="19"/>
-      <c r="F372" s="19"/>
-    </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B373" s="9"/>
-      <c r="C373" s="9"/>
-      <c r="D373" s="9"/>
-      <c r="E373" s="19"/>
-      <c r="F373" s="19"/>
+      <c r="E368" s="18"/>
+      <c r="F368" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:A90">
-    <sortCondition ref="A75:A90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:A85">
+    <sortCondition ref="A70:A85"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48AFD96-7660-4E0E-852B-62F0D465A84F}">
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W13" sqref="W13:W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>0.65</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>0.52</v>
+      </c>
+      <c r="N3">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>0.92</v>
+      </c>
+      <c r="R3">
+        <v>43</v>
+      </c>
+      <c r="S3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="V3">
+        <v>43</v>
+      </c>
+      <c r="W3">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1.72</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J4">
+        <v>49</v>
+      </c>
+      <c r="K4">
+        <v>1.87</v>
+      </c>
+      <c r="N4">
+        <v>49</v>
+      </c>
+      <c r="O4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R4">
+        <v>51</v>
+      </c>
+      <c r="S4">
+        <v>1.65</v>
+      </c>
+      <c r="V4">
+        <v>51</v>
+      </c>
+      <c r="W4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>3.02</v>
+      </c>
+      <c r="J5">
+        <v>63</v>
+      </c>
+      <c r="K5">
+        <v>3.47</v>
+      </c>
+      <c r="N5">
+        <v>63</v>
+      </c>
+      <c r="O5">
+        <v>3.78</v>
+      </c>
+      <c r="R5">
+        <v>65</v>
+      </c>
+      <c r="S5">
+        <v>2.65</v>
+      </c>
+      <c r="V5">
+        <v>65</v>
+      </c>
+      <c r="W5">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>3.19</v>
+      </c>
+      <c r="F6">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>4.13</v>
+      </c>
+      <c r="J6">
+        <v>83</v>
+      </c>
+      <c r="K6">
+        <v>4.41</v>
+      </c>
+      <c r="N6">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>5.65</v>
+      </c>
+      <c r="R6">
+        <v>79</v>
+      </c>
+      <c r="S6">
+        <v>3.38</v>
+      </c>
+      <c r="V6">
+        <v>79</v>
+      </c>
+      <c r="W6">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>3.63</v>
+      </c>
+      <c r="F7">
+        <v>91</v>
+      </c>
+      <c r="G7">
+        <v>4.42</v>
+      </c>
+      <c r="J7">
+        <v>97</v>
+      </c>
+      <c r="K7">
+        <v>4.84</v>
+      </c>
+      <c r="N7">
+        <v>97</v>
+      </c>
+      <c r="O7">
+        <v>5.72</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>2.99</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>3.73</v>
+      </c>
+      <c r="F8">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>3.98</v>
+      </c>
+      <c r="J8">
+        <v>113</v>
+      </c>
+      <c r="K8">
+        <v>5.18</v>
+      </c>
+      <c r="N8">
+        <v>113</v>
+      </c>
+      <c r="O8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="R8">
+        <v>115</v>
+      </c>
+      <c r="S8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="V8">
+        <v>115</v>
+      </c>
+      <c r="W8">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>117</v>
+      </c>
+      <c r="C9">
+        <v>4.05</v>
+      </c>
+      <c r="F9">
+        <v>117</v>
+      </c>
+      <c r="G9">
+        <v>4.2</v>
+      </c>
+      <c r="J9">
+        <v>127</v>
+      </c>
+      <c r="K9">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="N9">
+        <v>127</v>
+      </c>
+      <c r="O9">
+        <v>4.08</v>
+      </c>
+      <c r="R9">
+        <v>127</v>
+      </c>
+      <c r="S9">
+        <v>2.38</v>
+      </c>
+      <c r="V9">
+        <v>127</v>
+      </c>
+      <c r="W9">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>3.46</v>
+      </c>
+      <c r="F10">
+        <v>131</v>
+      </c>
+      <c r="G10">
+        <v>3.44</v>
+      </c>
+      <c r="J10">
+        <v>140</v>
+      </c>
+      <c r="K10">
+        <v>3.84</v>
+      </c>
+      <c r="N10">
+        <v>140</v>
+      </c>
+      <c r="O10">
+        <v>3.88</v>
+      </c>
+      <c r="R10">
+        <v>133</v>
+      </c>
+      <c r="S10">
+        <v>1.77</v>
+      </c>
+      <c r="V10">
+        <v>133</v>
+      </c>
+      <c r="W10">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>59</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>38.4</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+      <c r="O13">
+        <v>68.2</v>
+      </c>
+      <c r="R13">
+        <v>43</v>
+      </c>
+      <c r="S13">
+        <v>83.7</v>
+      </c>
+      <c r="V13">
+        <v>43</v>
+      </c>
+      <c r="W13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>126</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>177.7</v>
+      </c>
+      <c r="J14">
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <v>178.8</v>
+      </c>
+      <c r="N14">
+        <v>49</v>
+      </c>
+      <c r="O14">
+        <v>239.5</v>
+      </c>
+      <c r="R14">
+        <v>51</v>
+      </c>
+      <c r="S14">
+        <v>128.9</v>
+      </c>
+      <c r="V14">
+        <v>51</v>
+      </c>
+      <c r="W14">
+        <v>229.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="F15">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>387.5</v>
+      </c>
+      <c r="J15">
+        <v>63</v>
+      </c>
+      <c r="K15">
+        <v>379</v>
+      </c>
+      <c r="N15">
+        <v>63</v>
+      </c>
+      <c r="O15">
+        <v>419.8</v>
+      </c>
+      <c r="R15">
+        <v>65</v>
+      </c>
+      <c r="S15">
+        <v>352.8</v>
+      </c>
+      <c r="V15">
+        <v>65</v>
+      </c>
+      <c r="W15">
+        <v>480.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>486.7</v>
+      </c>
+      <c r="F16">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>616.20000000000005</v>
+      </c>
+      <c r="J16">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <v>653.70000000000005</v>
+      </c>
+      <c r="N16">
+        <v>83</v>
+      </c>
+      <c r="O16">
+        <v>807.7</v>
+      </c>
+      <c r="R16">
+        <v>79</v>
+      </c>
+      <c r="S16">
+        <v>494</v>
+      </c>
+      <c r="V16">
+        <v>79</v>
+      </c>
+      <c r="W16">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>688.1</v>
+      </c>
+      <c r="F17">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>806.9</v>
+      </c>
+      <c r="J17">
+        <v>97</v>
+      </c>
+      <c r="K17">
+        <v>894.2</v>
+      </c>
+      <c r="N17">
+        <v>97</v>
+      </c>
+      <c r="O17">
+        <v>971.8</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>666.9</v>
+      </c>
+      <c r="V17">
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <v>700.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>866.2</v>
+      </c>
+      <c r="F18">
+        <v>104</v>
+      </c>
+      <c r="G18">
+        <v>866.1</v>
+      </c>
+      <c r="J18">
+        <v>113</v>
+      </c>
+      <c r="K18">
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="N18">
+        <v>113</v>
+      </c>
+      <c r="O18">
+        <v>1113.5999999999999</v>
+      </c>
+      <c r="R18">
+        <v>115</v>
+      </c>
+      <c r="S18">
+        <v>650</v>
+      </c>
+      <c r="V18">
+        <v>115</v>
+      </c>
+      <c r="W18">
+        <v>864.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>117</v>
+      </c>
+      <c r="C19">
+        <v>998</v>
+      </c>
+      <c r="F19">
+        <v>117</v>
+      </c>
+      <c r="G19">
+        <v>948.6</v>
+      </c>
+      <c r="J19">
+        <v>127</v>
+      </c>
+      <c r="K19">
+        <v>1135.8</v>
+      </c>
+      <c r="N19">
+        <v>127</v>
+      </c>
+      <c r="O19">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="R19">
+        <v>127</v>
+      </c>
+      <c r="S19">
+        <v>724.4</v>
+      </c>
+      <c r="V19">
+        <v>127</v>
+      </c>
+      <c r="W19">
+        <v>793.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>131</v>
+      </c>
+      <c r="C20">
+        <v>1055.4000000000001</v>
+      </c>
+      <c r="F20">
+        <v>131</v>
+      </c>
+      <c r="G20">
+        <v>1032.8</v>
+      </c>
+      <c r="J20">
+        <v>140</v>
+      </c>
+      <c r="K20">
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="N20">
+        <v>140</v>
+      </c>
+      <c r="O20">
+        <v>1290.3</v>
+      </c>
+      <c r="R20">
+        <v>133</v>
+      </c>
+      <c r="S20">
+        <v>773.5</v>
+      </c>
+      <c r="V20">
+        <v>133</v>
+      </c>
+      <c r="W20">
+        <v>746.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="V22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>43</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>43</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>49</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>51</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>51</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="F25">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>0.01</v>
+      </c>
+      <c r="J25">
+        <v>63</v>
+      </c>
+      <c r="K25">
+        <v>0.03</v>
+      </c>
+      <c r="N25">
+        <v>63</v>
+      </c>
+      <c r="O25">
+        <v>0.01</v>
+      </c>
+      <c r="R25">
+        <v>65</v>
+      </c>
+      <c r="S25">
+        <v>0.03</v>
+      </c>
+      <c r="V25">
+        <v>65</v>
+      </c>
+      <c r="W25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <v>0.13</v>
+      </c>
+      <c r="F26">
+        <v>77</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>83</v>
+      </c>
+      <c r="K26">
+        <v>0.19</v>
+      </c>
+      <c r="N26">
+        <v>83</v>
+      </c>
+      <c r="O26">
+        <v>0.16</v>
+      </c>
+      <c r="R26">
+        <v>79</v>
+      </c>
+      <c r="S26">
+        <v>0.18</v>
+      </c>
+      <c r="V26">
+        <v>79</v>
+      </c>
+      <c r="W26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>91</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="J27">
+        <v>97</v>
+      </c>
+      <c r="K27">
+        <v>0.35</v>
+      </c>
+      <c r="N27">
+        <v>97</v>
+      </c>
+      <c r="O27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+      <c r="S27">
+        <v>0.36</v>
+      </c>
+      <c r="V27">
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>104</v>
+      </c>
+      <c r="C28">
+        <v>0.43</v>
+      </c>
+      <c r="F28">
+        <v>104</v>
+      </c>
+      <c r="G28">
+        <v>0.44</v>
+      </c>
+      <c r="J28">
+        <v>113</v>
+      </c>
+      <c r="K28">
+        <v>0.49</v>
+      </c>
+      <c r="N28">
+        <v>113</v>
+      </c>
+      <c r="O28">
+        <v>0.43</v>
+      </c>
+      <c r="R28">
+        <v>115</v>
+      </c>
+      <c r="S28">
+        <v>0.46</v>
+      </c>
+      <c r="V28">
+        <v>115</v>
+      </c>
+      <c r="W28">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>117</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>117</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>127</v>
+      </c>
+      <c r="K29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N29">
+        <v>127</v>
+      </c>
+      <c r="O29">
+        <v>0.49</v>
+      </c>
+      <c r="R29">
+        <v>127</v>
+      </c>
+      <c r="S29">
+        <v>0.54</v>
+      </c>
+      <c r="V29">
+        <v>127</v>
+      </c>
+      <c r="W29">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>131</v>
+      </c>
+      <c r="C30">
+        <v>0.59</v>
+      </c>
+      <c r="F30">
+        <v>131</v>
+      </c>
+      <c r="G30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J30">
+        <v>140</v>
+      </c>
+      <c r="K30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N30">
+        <v>140</v>
+      </c>
+      <c r="O30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R30">
+        <v>133</v>
+      </c>
+      <c r="S30">
+        <v>0.61</v>
+      </c>
+      <c r="V30">
+        <v>133</v>
+      </c>
+      <c r="W30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31" t="s">
+        <v>81</v>
+      </c>
+      <c r="V31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="V32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>35</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>35</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>43</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>43</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>49</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>51</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>51</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>2.9</v>
+      </c>
+      <c r="F35">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>3.9</v>
+      </c>
+      <c r="J35">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>11.4</v>
+      </c>
+      <c r="N35">
+        <v>63</v>
+      </c>
+      <c r="O35">
+        <v>4.2</v>
+      </c>
+      <c r="R35">
+        <v>65</v>
+      </c>
+      <c r="S35">
+        <v>10.6</v>
+      </c>
+      <c r="V35">
+        <v>65</v>
+      </c>
+      <c r="W35">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>63.3</v>
+      </c>
+      <c r="F36">
+        <v>77</v>
+      </c>
+      <c r="G36">
+        <v>61.6</v>
+      </c>
+      <c r="J36">
+        <v>83</v>
+      </c>
+      <c r="K36">
+        <v>124.2</v>
+      </c>
+      <c r="N36">
+        <v>83</v>
+      </c>
+      <c r="O36">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="R36">
+        <v>79</v>
+      </c>
+      <c r="S36">
+        <v>88.9</v>
+      </c>
+      <c r="V36">
+        <v>79</v>
+      </c>
+      <c r="W36">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>206.4</v>
+      </c>
+      <c r="F37">
+        <v>91</v>
+      </c>
+      <c r="G37">
+        <v>242.1</v>
+      </c>
+      <c r="J37">
+        <v>97</v>
+      </c>
+      <c r="K37">
+        <v>313</v>
+      </c>
+      <c r="N37">
+        <v>97</v>
+      </c>
+      <c r="O37">
+        <v>281.8</v>
+      </c>
+      <c r="R37">
+        <v>100</v>
+      </c>
+      <c r="S37">
+        <v>240.1</v>
+      </c>
+      <c r="V37">
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <v>259.3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>104</v>
+      </c>
+      <c r="C38">
+        <v>372.5</v>
+      </c>
+      <c r="F38">
+        <v>104</v>
+      </c>
+      <c r="G38">
+        <v>381.1</v>
+      </c>
+      <c r="J38">
+        <v>113</v>
+      </c>
+      <c r="K38">
+        <v>562.6</v>
+      </c>
+      <c r="N38">
+        <v>113</v>
+      </c>
+      <c r="O38">
+        <v>478.8</v>
+      </c>
+      <c r="R38">
+        <v>115</v>
+      </c>
+      <c r="S38">
+        <v>299</v>
+      </c>
+      <c r="V38">
+        <v>115</v>
+      </c>
+      <c r="W38">
+        <v>397.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>117</v>
+      </c>
+      <c r="C39">
+        <v>499</v>
+      </c>
+      <c r="F39">
+        <v>117</v>
+      </c>
+      <c r="G39">
+        <v>474.3</v>
+      </c>
+      <c r="J39">
+        <v>127</v>
+      </c>
+      <c r="K39">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="N39">
+        <v>127</v>
+      </c>
+      <c r="O39">
+        <v>550.6</v>
+      </c>
+      <c r="R39">
+        <v>127</v>
+      </c>
+      <c r="S39">
+        <v>391.2</v>
+      </c>
+      <c r="V39">
+        <v>127</v>
+      </c>
+      <c r="W39">
+        <v>436.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>131</v>
+      </c>
+      <c r="C40">
+        <v>622.70000000000005</v>
+      </c>
+      <c r="F40">
+        <v>131</v>
+      </c>
+      <c r="G40">
+        <v>588.70000000000005</v>
+      </c>
+      <c r="J40">
+        <v>140</v>
+      </c>
+      <c r="K40">
+        <v>669</v>
+      </c>
+      <c r="N40">
+        <v>140</v>
+      </c>
+      <c r="O40">
+        <v>722.6</v>
+      </c>
+      <c r="R40">
+        <v>133</v>
+      </c>
+      <c r="S40">
+        <v>471.8</v>
+      </c>
+      <c r="V40">
+        <v>133</v>
+      </c>
+      <c r="W40">
+        <v>447.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879B0D6D-D77B-4077-8329-2203B2B66B7B}">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -5911,7 +8741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B4409-0AB8-4E66-B9FB-9C3FEBB6B073}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -6342,7 +9172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D2364-7B77-4803-95A3-4A9773488307}">
   <dimension ref="B1:J37"/>
   <sheetViews>
@@ -6965,7 +9795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887047BC-ACA2-4473-901E-35E64BB4B438}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -7745,7 +10575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
   <dimension ref="A1:N18"/>
   <sheetViews>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78890F12-C777-4BD9-B75E-EA051B26E35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A2F9BA-1B22-4881-A606-AFFD6886039B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5595" windowWidth="29040" windowHeight="16440" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="14" r:id="rId1"/>
     <sheet name="King8485" sheetId="20" r:id="rId2"/>
     <sheet name="Kunnunura" sheetId="19" r:id="rId3"/>
     <sheet name="Roseworthy" sheetId="18" r:id="rId4"/>
-    <sheet name="Loxton" sheetId="17" r:id="rId5"/>
-    <sheet name="Bundy" sheetId="16" r:id="rId6"/>
-    <sheet name="Rainout" sheetId="15" r:id="rId7"/>
+    <sheet name="LeafModel" sheetId="21" r:id="rId5"/>
+    <sheet name="Loxton" sheetId="17" r:id="rId6"/>
+    <sheet name="Bundy" sheetId="16" r:id="rId7"/>
+    <sheet name="Rainout" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$CV$398</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="99">
   <si>
     <t>SimulationName</t>
   </si>
@@ -329,6 +330,15 @@
   <si>
     <t>RS</t>
   </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>ELNo</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
 </sst>
 </file>
 
@@ -2611,6 +2621,448 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LeafModel!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LeafModel!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LeafModel!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="2">
+                  <c:v>1.6641766844261197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6987098061752675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8750625816730082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1742525556533341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5830876883807647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0917216205204952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6924485108781475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.379029539851238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.146282810082369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.989817409570648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.905852414356318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.891088875777129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A9F-4705-B4DD-69899F1CCAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="341008496"/>
+        <c:axId val="341015056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="341008496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341015056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="341015056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341008496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2772,6 +3224,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5391,6 +5883,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5583,6 +6591,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8093A1-D69F-4B0C-9FE9-9EFDE3D1C8FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15097,7 +16146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714B4409-0AB8-4E66-B9FB-9C3FEBB6B073}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
@@ -16346,6 +17395,374 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373CC86-A578-44FE-AC2C-7D97AA03A08E}">
+  <dimension ref="C3:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>0.1808*C4^2.443</f>
+        <v>0.18079999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D28" si="0">0.1808*C5^2.443</f>
+        <v>0.9831385045469534</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6">
+        <f t="shared" ref="C6:C28" si="1">C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.6473151889730731</v>
+      </c>
+      <c r="E6">
+        <f>MIN(19,D6-D5)</f>
+        <v>1.6641766844261197</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.3460249951483405</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E28" si="2">MIN(19,D7-D6)</f>
+        <v>2.6987098061752675</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9.2210875768213487</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>3.8750625816730082</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>14.395340132474683</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>5.1742525556533341</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>20.978427820855448</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>6.5830876883807647</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>29.070149441375943</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>8.0917216205204952</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>38.76259795225409</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>9.6924485108781475</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>50.141627492105329</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>11.379029539851238</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>63.287910302187697</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>13.146282810082369</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>78.277727711758345</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>14.989817409570648</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>95.183580126114663</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>16.905852414356318</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>114.07466900189179</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>18.891088875777129</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>135.01728540359557</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>158.07512858822352</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>183.30957101367429</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>210.77988154388197</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>240.54341549911479</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>272.65577803174097</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>307.17096576839572</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>344.14149054421773</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>383.61848823225085</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>425.65181505459992</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>470.29013329319145</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D2364-7B77-4803-95A3-4A9773488307}">
   <dimension ref="B1:J37"/>
   <sheetViews>
@@ -16968,7 +18385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887047BC-ACA2-4473-901E-35E64BB4B438}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -17748,7 +19165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF85533-17D7-4D6F-8FB1-C0833BDF5434}">
   <dimension ref="A1:N18"/>
   <sheetViews>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C1CD31-0ABA-462A-918A-C9751DFED51A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CB0AB-5CFE-439E-855D-416826825585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="142">
   <si>
     <t>SimulationName</t>
   </si>
@@ -372,6 +372,105 @@
   <si>
     <t>Branch*</t>
   </si>
+  <si>
+    <t>Kingaroy8384SowSep28CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowOct12CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowOct26CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowNov09CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowNov25CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowDec07CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowDec21CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowJan04CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowJan18CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowFeb01CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowFeb15CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowOct12CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowOct26CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowNov09CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowNov25CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowDec07CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowDec21CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowJan04CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowJan18CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowFeb01CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowFeb15CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowSep28CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowSep28CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowOct12CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowOct26CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowNov09CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowNov25CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowDec07CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowDec21CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowJan04CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowJan18CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowFeb01CvFlorunner</t>
+  </si>
+  <si>
+    <t>Kingaroy8384SowFeb15CvFlorunner</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -470,6 +569,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3472,10 +3573,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ394"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10236" activePane="topRight"/>
+      <selection activeCell="A254" sqref="A244:A254"/>
+      <selection pane="topRight" activeCell="E244" sqref="E244:E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3922,6 +4023,10 @@
       <c r="Y11" s="1">
         <v>31.930050346738302</v>
       </c>
+      <c r="Z11" s="1">
+        <f>S11/X11</f>
+        <v>0.45825656659652136</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -4075,7 +4180,7 @@
         <v>29.815629620329101</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4107,8 +4212,12 @@
       <c r="Y17" s="1">
         <v>32.7096544048214</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17" s="1">
+        <f>S17/X17</f>
+        <v>0.56647955764075453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -4136,7 +4245,7 @@
         <v>1.64304914565812</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -4170,7 +4279,7 @@
         <v>4.9005618213657103</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -4201,7 +4310,7 @@
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -4232,7 +4341,7 @@
         <v>21.709765874464299</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -4264,8 +4373,12 @@
       <c r="Y22" s="1">
         <v>29.5099835207143</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" s="1">
+        <f>S22/X22</f>
+        <v>0.44095808953351817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -4283,7 +4396,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -4305,7 +4418,7 @@
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -4330,7 +4443,7 @@
         <v>6.57918247708729</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -4355,7 +4468,7 @@
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4380,7 +4493,7 @@
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -4407,7 +4520,7 @@
         <v>25.333346900617901</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -4428,7 +4541,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -4460,7 +4573,7 @@
         <v>2.9336266960030999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4492,7 +4605,7 @@
         <v>27.781444811147999</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -4527,7 +4640,7 @@
         <v>171.523285661899</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -4562,7 +4675,7 @@
         <v>458.39090575724202</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -4597,7 +4710,7 @@
         <v>640.95636230289699</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -4636,8 +4749,12 @@
       <c r="X35" s="1">
         <v>850.89842317565103</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z35" s="1">
+        <f>S35/X35</f>
+        <v>0.56175917945181852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -4669,7 +4786,7 @@
         <v>12.5735240190683</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -4701,7 +4818,7 @@
         <v>49.748441510817599</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -4736,7 +4853,7 @@
         <v>234.68426842684201</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -4772,7 +4889,7 @@
         <v>509.43601026769301</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
@@ -4807,7 +4924,7 @@
         <v>660.44737807113995</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4846,8 +4963,12 @@
       <c r="X41" s="1">
         <v>606.05207187385395</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z41" s="1">
+        <f>S41/X41</f>
+        <v>0.44715629659031508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4879,7 +5000,7 @@
         <v>15.1023102310232</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -4911,7 +5032,7 @@
         <v>69.133846718005003</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
@@ -4946,7 +5067,7 @@
         <v>224.93876054272101</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
@@ -4981,7 +5102,7 @@
         <v>487.52181884855099</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
@@ -5016,7 +5137,7 @@
         <v>539.18298496516297</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>34</v>
       </c>
@@ -5055,8 +5176,12 @@
       <c r="X47" s="1">
         <v>720.04693802713598</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z47" s="1">
+        <f>S47/X47</f>
+        <v>0.34442199098783444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>35</v>
       </c>
@@ -5088,7 +5213,7 @@
         <v>17.367070040337399</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -5120,7 +5245,7 @@
         <v>102.952695269526</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5280,7 @@
         <v>285.518151815181</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>35</v>
       </c>
@@ -5190,7 +5315,7 @@
         <v>574.650531719838</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>35</v>
       </c>
@@ -5225,7 +5350,7 @@
         <v>589.964063072974</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -5264,8 +5389,12 @@
       <c r="X53" s="1">
         <v>872.39017235056804</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z53" s="1">
+        <f>S53/X53</f>
+        <v>0.43673119216076633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -5297,7 +5426,7 @@
         <v>27.1653832049873</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>36</v>
       </c>
@@ -5329,7 +5458,7 @@
         <v>119.91492482581501</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -5364,7 +5493,7 @@
         <v>404.14814814814798</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -5399,7 +5528,7 @@
         <v>613.47414741474097</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -5435,7 +5564,7 @@
         <v>672.457645764576</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -5474,8 +5603,12 @@
       <c r="X59" s="1">
         <v>896.99156582324895</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z59" s="1">
+        <f>S59/X59</f>
+        <v>0.34225516905305436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
@@ -5507,7 +5640,7 @@
         <v>44.180418041804103</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -5539,7 +5672,7 @@
         <v>156.42097543087601</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>37</v>
       </c>
@@ -5574,7 +5707,7 @@
         <v>406.94096076274201</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
@@ -5609,7 +5742,7 @@
         <v>698.39090575724197</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>37</v>
       </c>
@@ -5644,7 +5777,7 @@
         <v>614.30143014301404</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -5683,8 +5816,12 @@
       <c r="X65" s="1">
         <v>925.964063072974</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z65" s="1">
+        <f>S65/X65</f>
+        <v>0.34882563252840276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>38</v>
       </c>
@@ -5713,7 +5850,7 @@
         <v>14.1576376953573</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>38</v>
       </c>
@@ -5742,7 +5879,7 @@
         <v>38.1365759029174</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
@@ -5771,7 +5908,7 @@
         <v>103.251645148664</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>38</v>
       </c>
@@ -5800,7 +5937,7 @@
         <v>269.36486443780501</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
@@ -5829,7 +5966,7 @@
         <v>402.49829225424799</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>38</v>
       </c>
@@ -5858,7 +5995,7 @@
         <v>471.77029421845998</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>38</v>
       </c>
@@ -5901,8 +6038,12 @@
       <c r="X72" s="1">
         <v>722.25393267713696</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z72" s="1">
+        <f>S72/X72</f>
+        <v>0.55755403529442404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>39</v>
       </c>
@@ -5931,7 +6072,7 @@
         <v>14.197019163216501</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
@@ -5960,7 +6101,7 @@
         <v>38.175957370776501</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>39</v>
       </c>
@@ -5989,7 +6130,7 @@
         <v>86.781440146246197</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>39</v>
       </c>
@@ -6018,7 +6159,7 @@
         <v>195.24894192692</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>39</v>
       </c>
@@ -6047,7 +6188,7 @@
         <v>332.49992099396798</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>39</v>
       </c>
@@ -6076,7 +6217,7 @@
         <v>430.59478171241301</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -6119,8 +6260,12 @@
       <c r="X79" s="1">
         <v>573.90394325179</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z79" s="1">
+        <f>S79/X79</f>
+        <v>0.57364638814782731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>40</v>
       </c>
@@ -6149,7 +6294,7 @@
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>40</v>
       </c>
@@ -6178,7 +6323,7 @@
         <v>31.960249027010299</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>40</v>
       </c>
@@ -6207,7 +6352,7 @@
         <v>78.506956177177699</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>40</v>
       </c>
@@ -6236,7 +6381,7 @@
         <v>141.72077566905901</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>40</v>
       </c>
@@ -6265,7 +6410,7 @@
         <v>241.874412012806</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>40</v>
       </c>
@@ -6294,7 +6439,7 @@
         <v>259.59826040873997</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>40</v>
       </c>
@@ -6330,8 +6475,12 @@
       <c r="X86" s="1">
         <v>405.08434197699802</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z86" s="1">
+        <f>S86/X86</f>
+        <v>0.60964305392848284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>41</v>
       </c>
@@ -6360,7 +6509,7 @@
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>41</v>
       </c>
@@ -6389,7 +6538,7 @@
         <v>27.842697776405601</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>41</v>
       </c>
@@ -6418,7 +6567,7 @@
         <v>57.9191999241541</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>41</v>
       </c>
@@ -6447,7 +6596,7 @@
         <v>125.211189198781</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -6476,7 +6625,7 @@
         <v>198.48259801002001</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>41</v>
       </c>
@@ -6505,7 +6654,7 @@
         <v>257.46072184771901</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>41</v>
       </c>
@@ -6541,8 +6690,12 @@
       <c r="X93" s="1">
         <v>343.28169175006798</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z93" s="1">
+        <f t="shared" ref="Z93:Z101" si="8">S93/X93</f>
+        <v>0.61517153956727488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>42</v>
       </c>
@@ -6578,8 +6731,12 @@
       <c r="X94" s="1">
         <v>1047.5702821131399</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z94" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5877198616698468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>43</v>
       </c>
@@ -6615,8 +6772,12 @@
       <c r="X95" s="1">
         <v>796.46496972084105</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z95" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59785332049875728</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>44</v>
       </c>
@@ -6652,8 +6813,12 @@
       <c r="X96" s="1">
         <v>699.06221414893105</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z96" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5966570064180915</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>45</v>
       </c>
@@ -6689,8 +6854,12 @@
       <c r="X97" s="1">
         <v>655.12957718011205</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z97" s="1">
+        <f t="shared" si="8"/>
+        <v>0.58478450560410777</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>46</v>
       </c>
@@ -6726,8 +6895,12 @@
       <c r="X98" s="1">
         <v>1030.5631638546899</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z98" s="1">
+        <f t="shared" si="8"/>
+        <v>0.57435408989559844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>47</v>
       </c>
@@ -6763,8 +6936,12 @@
       <c r="X99" s="1">
         <v>845.29513434514297</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z99" s="1">
+        <f t="shared" si="8"/>
+        <v>0.55432121382614619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>48</v>
       </c>
@@ -6800,8 +6977,12 @@
       <c r="X100" s="1">
         <v>785.61059731698401</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z100" s="1">
+        <f t="shared" si="8"/>
+        <v>0.56902564173601522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>49</v>
       </c>
@@ -6837,14 +7018,18 @@
       <c r="X101" s="1">
         <v>716.45025122502898</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z101" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5415984268554952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="6">
-        <f t="shared" ref="C102:C107" si="8">E102+F102</f>
+        <f t="shared" ref="C102:C107" si="9">E102+F102</f>
         <v>35776</v>
       </c>
       <c r="D102" s="6"/>
@@ -6852,7 +7037,7 @@
         <v>35741</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ref="F102:F107" si="9">H102+G102</f>
+        <f t="shared" ref="F102:F107" si="10">H102+G102</f>
         <v>35</v>
       </c>
       <c r="G102" s="2">
@@ -6870,13 +7055,13 @@
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35797</v>
       </c>
       <c r="D103" s="6"/>
@@ -6884,7 +7069,7 @@
         <v>35741</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="G103" s="2">
@@ -6902,13 +7087,13 @@
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35818</v>
       </c>
       <c r="D104" s="6"/>
@@ -6916,7 +7101,7 @@
         <v>35741</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="G104" s="2">
@@ -6934,13 +7119,13 @@
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35839</v>
       </c>
       <c r="D105" s="6"/>
@@ -6948,7 +7133,7 @@
         <v>35741</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="G105" s="2">
@@ -6966,13 +7151,13 @@
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35860</v>
       </c>
       <c r="D106" s="6"/>
@@ -6980,7 +7165,7 @@
         <v>35741</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="G106" s="2">
@@ -6998,13 +7183,13 @@
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35881</v>
       </c>
       <c r="D107" s="6"/>
@@ -7012,7 +7197,7 @@
         <v>35741</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G107" s="2">
@@ -7029,8 +7214,12 @@
       <c r="X107" s="1">
         <v>1124.9410322956101</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z107" s="1">
+        <f t="shared" ref="Z107:Z115" si="11">S107/X107</f>
+        <v>0.5164687627891642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>50</v>
       </c>
@@ -7066,8 +7255,12 @@
       <c r="X108" s="1">
         <v>1297.83741710808</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z108" s="1">
+        <f t="shared" si="11"/>
+        <v>0.54760057573932719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>51</v>
       </c>
@@ -7103,8 +7296,12 @@
       <c r="X109" s="1">
         <v>1135.43192825251</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z109" s="1">
+        <f t="shared" si="11"/>
+        <v>0.55106873051835448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>52</v>
       </c>
@@ -7140,8 +7337,12 @@
       <c r="X110" s="1">
         <v>1009.9101083416</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z110" s="1">
+        <f t="shared" si="11"/>
+        <v>0.54152216496102545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>53</v>
       </c>
@@ -7177,8 +7378,12 @@
       <c r="X111" s="1">
         <v>859.16057930755699</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z111" s="1">
+        <f t="shared" si="11"/>
+        <v>0.52004526213321234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>54</v>
       </c>
@@ -7202,8 +7407,12 @@
       <c r="X112" s="1">
         <v>1261</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z112" s="1">
+        <f t="shared" si="11"/>
+        <v>0.52101506740682002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>55</v>
       </c>
@@ -7227,8 +7436,12 @@
       <c r="X113" s="1">
         <v>1539</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z113" s="1">
+        <f t="shared" si="11"/>
+        <v>0.41585445094217022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -7252,8 +7465,12 @@
       <c r="X114" s="1">
         <v>1556</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z114" s="1">
+        <f t="shared" si="11"/>
+        <v>0.41902313624678661</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>57</v>
       </c>
@@ -7277,8 +7494,12 @@
       <c r="X115" s="1">
         <v>1619</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z115" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35083384805435452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
@@ -7291,7 +7512,7 @@
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
@@ -7304,7 +7525,7 @@
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>54</v>
       </c>
@@ -7317,7 +7538,7 @@
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>54</v>
       </c>
@@ -7330,7 +7551,7 @@
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>54</v>
       </c>
@@ -7343,7 +7564,7 @@
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>54</v>
       </c>
@@ -7356,7 +7577,7 @@
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>54</v>
       </c>
@@ -7369,7 +7590,7 @@
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
@@ -7382,7 +7603,7 @@
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>55</v>
       </c>
@@ -7395,7 +7616,7 @@
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -7408,7 +7629,7 @@
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>55</v>
       </c>
@@ -7421,7 +7642,7 @@
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -7434,7 +7655,7 @@
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -7662,7 +7883,7 @@
         <v>0.33</v>
       </c>
       <c r="M144" s="1">
-        <f t="shared" ref="M144:M173" si="10">L144/Q144</f>
+        <f t="shared" ref="M144:M173" si="12">L144/Q144</f>
         <v>2.4699999999999958E-2</v>
       </c>
       <c r="Q144" s="1">
@@ -7698,7 +7919,7 @@
         <v>1.06</v>
       </c>
       <c r="M145" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.12E-2</v>
       </c>
       <c r="Q145" s="1">
@@ -7735,7 +7956,7 @@
         <v>3.64</v>
       </c>
       <c r="M146" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6999999999999962E-2</v>
       </c>
       <c r="Q146" s="1">
@@ -7771,7 +7992,7 @@
         <v>5.7</v>
       </c>
       <c r="M147" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6399999999999989E-2</v>
       </c>
       <c r="Q147" s="1">
@@ -7807,7 +8028,7 @@
         <v>7.03</v>
       </c>
       <c r="M148" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5400000000000006E-2</v>
       </c>
       <c r="Q148" s="1">
@@ -7853,7 +8074,7 @@
         <v>5.85</v>
       </c>
       <c r="M149" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1499999999999995E-2</v>
       </c>
       <c r="Q149" s="1">
@@ -7867,6 +8088,10 @@
       </c>
       <c r="X149" s="1">
         <v>945.7</v>
+      </c>
+      <c r="Z149" s="1">
+        <f>S149/X149</f>
+        <v>0.37601776461880088</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
@@ -7889,7 +8114,7 @@
         <v>0.71</v>
       </c>
       <c r="M150" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.0699999999999988E-2</v>
       </c>
       <c r="Q150" s="1">
@@ -7927,7 +8152,7 @@
         <v>1.43</v>
       </c>
       <c r="M151" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8299999999999968E-2</v>
       </c>
       <c r="Q151" s="1">
@@ -7965,7 +8190,7 @@
         <v>4.53</v>
       </c>
       <c r="M152" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9300000000000041E-2</v>
       </c>
       <c r="Q152" s="1">
@@ -8004,7 +8229,7 @@
         <v>7.77</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6899999999999966E-2</v>
       </c>
       <c r="Q153" s="1">
@@ -8043,7 +8268,7 @@
         <v>6.14</v>
       </c>
       <c r="M154" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2700000000000026E-2</v>
       </c>
       <c r="Q154" s="1">
@@ -8091,7 +8316,7 @@
         <v>3.12</v>
       </c>
       <c r="M155" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1399999999999926E-2</v>
       </c>
       <c r="Q155" s="1">
@@ -8107,7 +8332,10 @@
         <v>1011.4</v>
       </c>
       <c r="Y155" s="12"/>
-      <c r="Z155" s="12"/>
+      <c r="Z155" s="1">
+        <f>S155/X155</f>
+        <v>0.45600158196559226</v>
+      </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
@@ -8129,7 +8357,7 @@
         <v>0.49</v>
       </c>
       <c r="M156" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7699999999999961E-2</v>
       </c>
       <c r="Q156" s="1">
@@ -8165,7 +8393,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M157" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6499999999999985E-2</v>
       </c>
       <c r="Q157" s="1">
@@ -8201,7 +8429,7 @@
         <v>2.93</v>
       </c>
       <c r="M158" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.3099999999999971E-2</v>
       </c>
       <c r="Q158" s="1">
@@ -8238,7 +8466,7 @@
         <v>4.28</v>
       </c>
       <c r="M159" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9900000000000011E-2</v>
       </c>
       <c r="Q159" s="1">
@@ -8276,7 +8504,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="M160" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9300000000000036E-2</v>
       </c>
       <c r="Q160" s="1">
@@ -8292,7 +8520,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>62</v>
       </c>
@@ -8320,7 +8548,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="M161" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7200000000000014E-2</v>
       </c>
       <c r="Q161" s="1">
@@ -8335,8 +8563,12 @@
       <c r="X161" s="1">
         <v>1139.2</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z161" s="1">
+        <f>S161/X161</f>
+        <v>0.4949964887640449</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>64</v>
       </c>
@@ -8357,7 +8589,7 @@
         <v>0.36</v>
       </c>
       <c r="M162" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.0900000000000007E-2</v>
       </c>
       <c r="Q162" s="1">
@@ -8373,7 +8605,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>64</v>
       </c>
@@ -8394,7 +8626,7 @@
         <v>1.19</v>
       </c>
       <c r="M163" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5599999999999998E-2</v>
       </c>
       <c r="Q163" s="1">
@@ -8410,7 +8642,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>64</v>
       </c>
@@ -8431,7 +8663,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="M164" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9499999999999979E-2</v>
       </c>
       <c r="Q164" s="1">
@@ -8447,7 +8679,7 @@
         <v>260.89999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>64</v>
       </c>
@@ -8468,7 +8700,7 @@
         <v>2.98</v>
       </c>
       <c r="M165" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6800000000000034E-2</v>
       </c>
       <c r="Q165" s="1">
@@ -8484,7 +8716,7 @@
         <v>518.29999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>64</v>
       </c>
@@ -8504,7 +8736,7 @@
         <v>3.38</v>
       </c>
       <c r="M166" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6399999999999981E-2</v>
       </c>
       <c r="Q166" s="1">
@@ -8520,7 +8752,7 @@
         <v>903.2</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>64</v>
       </c>
@@ -8551,7 +8783,7 @@
         <v>2.73</v>
       </c>
       <c r="M167" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6699999999999954E-2</v>
       </c>
       <c r="Q167" s="1">
@@ -8566,8 +8798,12 @@
       <c r="X167" s="1">
         <v>810.1</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z167" s="1">
+        <f>S167/X167</f>
+        <v>0.48500185162325632</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>66</v>
       </c>
@@ -8587,7 +8823,7 @@
         <v>0.18</v>
       </c>
       <c r="M168" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.3200000000000005E-2</v>
       </c>
       <c r="Q168" s="1">
@@ -8603,7 +8839,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>66</v>
       </c>
@@ -8623,7 +8859,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M169" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="Q169" s="1">
@@ -8639,7 +8875,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>66</v>
       </c>
@@ -8659,7 +8895,7 @@
         <v>1.91</v>
       </c>
       <c r="M170" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8199999999999987E-2</v>
       </c>
       <c r="Q170" s="1">
@@ -8675,7 +8911,7 @@
         <v>235.4</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>66</v>
       </c>
@@ -8695,7 +8931,7 @@
         <v>2.44</v>
       </c>
       <c r="M171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6900000000000009E-2</v>
       </c>
       <c r="Q171" s="1">
@@ -8711,7 +8947,7 @@
         <v>438.2</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>66</v>
       </c>
@@ -8732,7 +8968,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M172" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5200000000000021E-2</v>
       </c>
       <c r="Q172" s="1">
@@ -8748,7 +8984,7 @@
         <v>568.4</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>66</v>
       </c>
@@ -8779,7 +9015,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="M173" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7000000000000029E-2</v>
       </c>
       <c r="Q173" s="1">
@@ -8794,8 +9030,12 @@
       <c r="X173" s="1">
         <v>667.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z173" s="1">
+        <f>S173/X173</f>
+        <v>0.57699221090473329</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>68</v>
       </c>
@@ -8803,7 +9043,7 @@
         <v>69</v>
       </c>
       <c r="C174" s="6">
-        <f t="shared" ref="C174:C221" si="11">E174+F174</f>
+        <f t="shared" ref="C174:C221" si="13">E174+F174</f>
         <v>31023</v>
       </c>
       <c r="D174" s="6"/>
@@ -8827,7 +9067,7 @@
       </c>
       <c r="Y174" s="15"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>68</v>
       </c>
@@ -8835,7 +9075,7 @@
         <v>69</v>
       </c>
       <c r="C175" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31037</v>
       </c>
       <c r="E175" s="6">
@@ -8858,7 +9098,7 @@
       </c>
       <c r="Y175" s="16"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>68</v>
       </c>
@@ -8866,7 +9106,7 @@
         <v>69</v>
       </c>
       <c r="C176" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31051</v>
       </c>
       <c r="E176" s="6">
@@ -8889,7 +9129,7 @@
       </c>
       <c r="Y176" s="15"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>68</v>
       </c>
@@ -8897,7 +9137,7 @@
         <v>69</v>
       </c>
       <c r="C177" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31064</v>
       </c>
       <c r="E177" s="6">
@@ -8920,7 +9160,7 @@
       </c>
       <c r="Y177" s="15"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>68</v>
       </c>
@@ -8928,7 +9168,7 @@
         <v>69</v>
       </c>
       <c r="C178" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31078</v>
       </c>
       <c r="D178" s="13"/>
@@ -8949,7 +9189,7 @@
         <v>688.1</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>68</v>
       </c>
@@ -8957,7 +9197,7 @@
         <v>69</v>
       </c>
       <c r="C179" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31091</v>
       </c>
       <c r="D179" s="13"/>
@@ -8979,7 +9219,7 @@
         <v>866.2</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>68</v>
       </c>
@@ -8987,7 +9227,7 @@
         <v>69</v>
       </c>
       <c r="C180" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31104</v>
       </c>
       <c r="D180" s="13"/>
@@ -9008,7 +9248,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>68</v>
       </c>
@@ -9016,7 +9256,7 @@
         <v>69</v>
       </c>
       <c r="C181" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31118</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -9041,8 +9281,12 @@
       <c r="X181" s="1">
         <v>1055.4000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z181" s="1">
+        <f>S181/X181</f>
+        <v>0.59001326511275343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>70</v>
       </c>
@@ -9050,7 +9294,7 @@
         <v>69</v>
       </c>
       <c r="C182" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31023</v>
       </c>
       <c r="D182" s="6"/>
@@ -9071,7 +9315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>70</v>
       </c>
@@ -9079,7 +9323,7 @@
         <v>69</v>
       </c>
       <c r="C183" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31037</v>
       </c>
       <c r="E183" s="6">
@@ -9099,7 +9343,7 @@
         <v>177.7</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>70</v>
       </c>
@@ -9107,7 +9351,7 @@
         <v>69</v>
       </c>
       <c r="C184" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31051</v>
       </c>
       <c r="E184" s="6">
@@ -9127,7 +9371,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>70</v>
       </c>
@@ -9135,7 +9379,7 @@
         <v>69</v>
       </c>
       <c r="C185" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31064</v>
       </c>
       <c r="E185" s="6">
@@ -9155,7 +9399,7 @@
         <v>616.20000000000005</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>70</v>
       </c>
@@ -9163,7 +9407,7 @@
         <v>69</v>
       </c>
       <c r="C186" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31078</v>
       </c>
       <c r="D186" s="13"/>
@@ -9185,7 +9429,7 @@
         <v>806.9</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>70</v>
       </c>
@@ -9193,7 +9437,7 @@
         <v>69</v>
       </c>
       <c r="C187" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31091</v>
       </c>
       <c r="D187" s="13"/>
@@ -9214,7 +9458,7 @@
         <v>866.1</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>70</v>
       </c>
@@ -9222,7 +9466,7 @@
         <v>69</v>
       </c>
       <c r="C188" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31104</v>
       </c>
       <c r="D188" s="13"/>
@@ -9243,7 +9487,7 @@
         <v>948.6</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>70</v>
       </c>
@@ -9251,7 +9495,7 @@
         <v>69</v>
       </c>
       <c r="C189" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31118</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -9276,8 +9520,12 @@
       <c r="X189" s="1">
         <v>1032.8</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z189" s="1">
+        <f>S189/X189</f>
+        <v>0.57000387296669253</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>71</v>
       </c>
@@ -9285,7 +9533,7 @@
         <v>72</v>
       </c>
       <c r="C190" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31056</v>
       </c>
       <c r="D190" s="13"/>
@@ -9306,7 +9554,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>71</v>
       </c>
@@ -9314,7 +9562,7 @@
         <v>72</v>
       </c>
       <c r="C191" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31070</v>
       </c>
       <c r="D191" s="13"/>
@@ -9335,7 +9583,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>71</v>
       </c>
@@ -9343,7 +9591,7 @@
         <v>72</v>
       </c>
       <c r="C192" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31084</v>
       </c>
       <c r="D192" s="13"/>
@@ -9364,7 +9612,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>71</v>
       </c>
@@ -9372,7 +9620,7 @@
         <v>72</v>
       </c>
       <c r="C193" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31104</v>
       </c>
       <c r="D193" s="13"/>
@@ -9394,7 +9642,7 @@
         <v>653.70000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>71</v>
       </c>
@@ -9402,7 +9650,7 @@
         <v>72</v>
       </c>
       <c r="C194" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31118</v>
       </c>
       <c r="D194" s="13"/>
@@ -9423,7 +9671,7 @@
         <v>894.2</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>71</v>
       </c>
@@ -9431,7 +9679,7 @@
         <v>72</v>
       </c>
       <c r="C195" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31134</v>
       </c>
       <c r="D195" s="13"/>
@@ -9452,7 +9700,7 @@
         <v>1148.0999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>71</v>
       </c>
@@ -9460,7 +9708,7 @@
         <v>72</v>
       </c>
       <c r="C196" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31148</v>
       </c>
       <c r="D196" s="13"/>
@@ -9481,7 +9729,7 @@
         <v>1135.8</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>71</v>
       </c>
@@ -9489,7 +9737,7 @@
         <v>72</v>
       </c>
       <c r="C197" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31161</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -9514,8 +9762,12 @@
       <c r="X197" s="1">
         <v>1194.5999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z197" s="1">
+        <f>S197/X197</f>
+        <v>0.56002009040683076</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>73</v>
       </c>
@@ -9523,7 +9775,7 @@
         <v>72</v>
       </c>
       <c r="C198" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31056</v>
       </c>
       <c r="D198" s="13"/>
@@ -9544,7 +9796,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>73</v>
       </c>
@@ -9552,7 +9804,7 @@
         <v>72</v>
       </c>
       <c r="C199" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31070</v>
       </c>
       <c r="D199" s="13"/>
@@ -9573,7 +9825,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>73</v>
       </c>
@@ -9581,7 +9833,7 @@
         <v>72</v>
       </c>
       <c r="C200" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31084</v>
       </c>
       <c r="D200" s="13"/>
@@ -9603,7 +9855,7 @@
         <v>419.8</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>73</v>
       </c>
@@ -9611,7 +9863,7 @@
         <v>72</v>
       </c>
       <c r="C201" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31104</v>
       </c>
       <c r="D201" s="13"/>
@@ -9632,7 +9884,7 @@
         <v>807.7</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>73</v>
       </c>
@@ -9640,7 +9892,7 @@
         <v>72</v>
       </c>
       <c r="C202" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31118</v>
       </c>
       <c r="D202" s="13"/>
@@ -9661,7 +9913,7 @@
         <v>971.8</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>73</v>
       </c>
@@ -9669,7 +9921,7 @@
         <v>72</v>
       </c>
       <c r="C203" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31134</v>
       </c>
       <c r="D203" s="13"/>
@@ -9690,7 +9942,7 @@
         <v>1113.5999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>73</v>
       </c>
@@ -9698,7 +9950,7 @@
         <v>72</v>
       </c>
       <c r="C204" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31148</v>
       </c>
       <c r="D204" s="13"/>
@@ -9719,7 +9971,7 @@
         <v>1123.5999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>73</v>
       </c>
@@ -9727,7 +9979,7 @@
         <v>72</v>
       </c>
       <c r="C205" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31161</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -9752,8 +10004,12 @@
       <c r="X205" s="1">
         <v>1290.3</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z205" s="1">
+        <f>S205/X205</f>
+        <v>0.5600248004340076</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>74</v>
       </c>
@@ -9761,7 +10017,7 @@
         <v>75</v>
       </c>
       <c r="C206" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31105</v>
       </c>
       <c r="D206" s="13"/>
@@ -9782,7 +10038,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>74</v>
       </c>
@@ -9790,7 +10046,7 @@
         <v>75</v>
       </c>
       <c r="C207" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31113</v>
       </c>
       <c r="D207" s="13"/>
@@ -9812,7 +10068,7 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>74</v>
       </c>
@@ -9820,7 +10076,7 @@
         <v>75</v>
       </c>
       <c r="C208" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31127</v>
       </c>
       <c r="D208" s="13"/>
@@ -9849,7 +10105,7 @@
         <v>75</v>
       </c>
       <c r="C209" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31141</v>
       </c>
       <c r="D209" s="13"/>
@@ -9878,7 +10134,7 @@
         <v>75</v>
       </c>
       <c r="C210" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31162</v>
       </c>
       <c r="D210" s="13"/>
@@ -9907,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="C211" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31177</v>
       </c>
       <c r="D211" s="13"/>
@@ -9936,7 +10192,7 @@
         <v>75</v>
       </c>
       <c r="C212" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31189</v>
       </c>
       <c r="D212" s="13"/>
@@ -9965,7 +10221,7 @@
         <v>75</v>
       </c>
       <c r="C213" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31195</v>
       </c>
       <c r="D213" s="6" t="s">
@@ -9990,6 +10246,10 @@
       <c r="X213" s="1">
         <v>773.5</v>
       </c>
+      <c r="Z213" s="1">
+        <f>S213/X213</f>
+        <v>0.60995475113122177</v>
+      </c>
     </row>
     <row r="214" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
@@ -9999,7 +10259,7 @@
         <v>75</v>
       </c>
       <c r="C214" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31105</v>
       </c>
       <c r="D214" s="13"/>
@@ -10029,7 +10289,7 @@
         <v>75</v>
       </c>
       <c r="C215" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31113</v>
       </c>
       <c r="D215" s="13"/>
@@ -10058,7 +10318,7 @@
         <v>75</v>
       </c>
       <c r="C216" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31127</v>
       </c>
       <c r="D216" s="13"/>
@@ -10087,7 +10347,7 @@
         <v>75</v>
       </c>
       <c r="C217" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31141</v>
       </c>
       <c r="D217" s="13"/>
@@ -10116,7 +10376,7 @@
         <v>75</v>
       </c>
       <c r="C218" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31162</v>
       </c>
       <c r="D218" s="13"/>
@@ -10145,7 +10405,7 @@
         <v>75</v>
       </c>
       <c r="C219" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31177</v>
       </c>
       <c r="D219" s="13"/>
@@ -10174,7 +10434,7 @@
         <v>75</v>
       </c>
       <c r="C220" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31189</v>
       </c>
       <c r="D220" s="13"/>
@@ -10203,7 +10463,7 @@
         <v>75</v>
       </c>
       <c r="C221" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31195</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -10229,200 +10489,536 @@
       <c r="X221" s="1">
         <v>746.4</v>
       </c>
+      <c r="Z221" s="1">
+        <f>S221/X221</f>
+        <v>0.59994640943194</v>
+      </c>
     </row>
     <row r="222" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A222" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
+      <c r="D222" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" s="8">
+        <v>30587</v>
+      </c>
+      <c r="I222" s="1">
+        <v>50</v>
+      </c>
       <c r="CU222" s="2"/>
     </row>
     <row r="223" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A223" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+      <c r="D223" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E223" s="8">
+        <v>30601</v>
+      </c>
+      <c r="I223" s="1">
+        <v>51</v>
+      </c>
       <c r="CU223" s="2"/>
     </row>
     <row r="224" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A224" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
+      <c r="D224" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E224" s="8">
+        <v>30615</v>
+      </c>
+      <c r="I224" s="1">
+        <v>49</v>
+      </c>
       <c r="CU224" s="2"/>
     </row>
-    <row r="225" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A225" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
+      <c r="D225" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E225" s="8">
+        <v>30629</v>
+      </c>
+      <c r="I225" s="22">
+        <v>48</v>
+      </c>
       <c r="CU225" s="2"/>
     </row>
-    <row r="226" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A226" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+      <c r="D226" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E226" s="8">
+        <v>30645</v>
+      </c>
+      <c r="I226" s="22">
+        <v>42</v>
+      </c>
       <c r="CU226" s="2"/>
     </row>
-    <row r="227" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A227" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
+      <c r="D227" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E227" s="8">
+        <v>30657</v>
+      </c>
+      <c r="I227" s="22">
+        <v>42</v>
+      </c>
       <c r="CU227" s="2"/>
     </row>
-    <row r="228" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A228" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+      <c r="D228" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" s="8">
+        <v>30671</v>
+      </c>
+      <c r="I228" s="22">
+        <v>38</v>
+      </c>
       <c r="CU228" s="2"/>
     </row>
-    <row r="229" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A229" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
+      <c r="D229" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E229" s="8">
+        <v>30685</v>
+      </c>
+      <c r="I229" s="22">
+        <v>38</v>
+      </c>
       <c r="CU229" s="2"/>
     </row>
-    <row r="230" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A230" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
+      <c r="D230" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" s="8">
+        <v>30699</v>
+      </c>
+      <c r="I230" s="22">
+        <v>42</v>
+      </c>
       <c r="CU230" s="2"/>
     </row>
-    <row r="231" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A231" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
+      <c r="D231" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E231" s="8">
+        <v>30713</v>
+      </c>
+      <c r="I231" s="22">
+        <v>40</v>
+      </c>
       <c r="CU231" s="2"/>
     </row>
-    <row r="232" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A232" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+      <c r="D232" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E232" s="8">
+        <v>30727</v>
+      </c>
+      <c r="I232" s="22">
+        <v>44</v>
+      </c>
       <c r="CU232" s="2"/>
     </row>
-    <row r="233" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A233" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
+      <c r="D233" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E233" s="8">
+        <v>30587</v>
+      </c>
+      <c r="I233" s="22">
+        <v>49</v>
+      </c>
       <c r="CU233" s="2"/>
     </row>
-    <row r="234" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A234" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
+      <c r="D234" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E234" s="8">
+        <v>30601</v>
+      </c>
+      <c r="I234" s="22">
+        <v>50</v>
+      </c>
       <c r="CU234" s="2"/>
     </row>
-    <row r="235" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A235" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
+      <c r="D235" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E235" s="8">
+        <v>30615</v>
+      </c>
+      <c r="I235" s="22">
+        <v>47</v>
+      </c>
       <c r="CU235" s="2"/>
     </row>
-    <row r="236" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A236" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
+      <c r="D236" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E236" s="8">
+        <v>30629</v>
+      </c>
+      <c r="I236" s="22">
+        <v>46</v>
+      </c>
       <c r="CU236" s="2"/>
     </row>
-    <row r="237" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A237" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
+      <c r="D237" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" s="8">
+        <v>30645</v>
+      </c>
+      <c r="I237" s="22">
+        <v>43</v>
+      </c>
       <c r="CU237" s="2"/>
     </row>
-    <row r="238" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A238" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
+      <c r="D238" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E238" s="8">
+        <v>30657</v>
+      </c>
+      <c r="I238" s="22">
+        <v>43</v>
+      </c>
       <c r="CU238" s="2"/>
     </row>
-    <row r="239" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A239" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
+      <c r="D239" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E239" s="8">
+        <v>30671</v>
+      </c>
+      <c r="I239" s="22">
+        <v>38</v>
+      </c>
       <c r="CU239" s="2"/>
     </row>
-    <row r="240" spans="3:99" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A240" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
+      <c r="D240" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" s="8">
+        <v>30685</v>
+      </c>
+      <c r="I240" s="22">
+        <v>38</v>
+      </c>
       <c r="CU240" s="2"/>
     </row>
     <row r="241" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A241" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
+      <c r="D241" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E241" s="8">
+        <v>30699</v>
+      </c>
+      <c r="I241" s="22">
+        <v>39</v>
+      </c>
       <c r="CU241" s="2"/>
     </row>
     <row r="242" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A242" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
+      <c r="D242" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" s="8">
+        <v>30713</v>
+      </c>
+      <c r="I242" s="22">
+        <v>38</v>
+      </c>
       <c r="CU242" s="2"/>
     </row>
     <row r="243" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A243" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
+      <c r="D243" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" s="8">
+        <v>30727</v>
+      </c>
+      <c r="I243" s="22">
+        <v>40</v>
+      </c>
       <c r="CU243" s="2"/>
     </row>
     <row r="244" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A244" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
+      <c r="D244" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E244" s="8">
+        <v>30587</v>
+      </c>
+      <c r="I244" s="1">
+        <v>49</v>
+      </c>
       <c r="CU244" s="2"/>
     </row>
     <row r="245" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A245" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
+      <c r="D245" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E245" s="8">
+        <v>30601</v>
+      </c>
+      <c r="I245" s="1">
+        <v>49</v>
+      </c>
       <c r="CU245" s="2"/>
     </row>
     <row r="246" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A246" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="D246" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" s="8">
+        <v>30615</v>
+      </c>
+      <c r="I246" s="1">
+        <v>43</v>
+      </c>
       <c r="CU246" s="2"/>
     </row>
     <row r="247" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A247" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
+      <c r="D247" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E247" s="8">
+        <v>30629</v>
+      </c>
+      <c r="I247" s="22">
+        <v>45</v>
+      </c>
       <c r="CU247" s="2"/>
     </row>
     <row r="248" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A248" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
+      <c r="D248" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E248" s="8">
+        <v>30645</v>
+      </c>
+      <c r="I248" s="22">
+        <v>42</v>
+      </c>
       <c r="CU248" s="2"/>
     </row>
     <row r="249" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A249" s="21" t="s">
+        <v>136</v>
+      </c>
       <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
+      <c r="D249" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" s="8">
+        <v>30657</v>
+      </c>
+      <c r="I249" s="22">
+        <v>38</v>
+      </c>
       <c r="CU249" s="2"/>
     </row>
     <row r="250" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A250" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+      <c r="D250" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E250" s="8">
+        <v>30671</v>
+      </c>
+      <c r="I250" s="22">
+        <v>35</v>
+      </c>
       <c r="CU250" s="2"/>
     </row>
     <row r="251" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A251" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
+      <c r="D251" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" s="8">
+        <v>30685</v>
+      </c>
+      <c r="I251" s="22">
+        <v>36</v>
+      </c>
       <c r="CU251" s="2"/>
     </row>
     <row r="252" spans="1:99" x14ac:dyDescent="0.3">
+      <c r="A252" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
+      <c r="D252" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E252" s="8">
+        <v>30699</v>
+      </c>
+      <c r="I252" s="22">
+        <v>38</v>
+      </c>
       <c r="CU252" s="2"/>
     </row>
     <row r="253" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
-      <c r="I253" s="8"/>
+      <c r="A253" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C253" s="8"/>
+      <c r="D253" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E253" s="8">
+        <v>30713</v>
+      </c>
+      <c r="I253" s="22">
+        <v>37</v>
+      </c>
     </row>
     <row r="254" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="I254" s="8"/>
+      <c r="A254" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C254" s="8"/>
+      <c r="D254" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E254" s="8">
+        <v>30727</v>
+      </c>
+      <c r="I254" s="22">
+        <v>38</v>
+      </c>
     </row>
     <row r="255" spans="1:99" x14ac:dyDescent="0.3">
       <c r="I255" s="8"/>
@@ -13948,7 +14544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -14025,7 +14621,7 @@
         <v>2.6987098061752675</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F18" si="3">F6+1</f>
+        <f t="shared" ref="F7:F9" si="3">F6+1</f>
         <v>3</v>
       </c>
     </row>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CB0AB-5CFE-439E-855D-416826825585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1D463-EB06-4215-A026-3BA62A38D876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="148">
   <si>
     <t>SimulationName</t>
   </si>
@@ -470,6 +470,24 @@
   </si>
   <si>
     <t>Kingaroy8384SowFeb15CvFlorunner</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowOct04CvFlorunner</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowNov07CvFlorunner</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowDec11CvFlorunner</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowOct04CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowNov07CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowDec11CvEarlyBunch</t>
   </si>
 </sst>
 </file>
@@ -3573,92 +3591,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10236" activePane="topRight"/>
-      <selection activeCell="A254" sqref="A244:A254"/>
-      <selection pane="topRight" activeCell="E244" sqref="E244:E254"/>
+    <sheetView tabSelected="1" topLeftCell="G254" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10170" activePane="topRight"/>
+      <selection activeCell="I255" sqref="I255"/>
+      <selection pane="topRight" activeCell="A255" sqref="A255:A260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="34.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="34.234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.52734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.234375" style="1" customWidth="1"/>
     <col min="9" max="11" width="32" style="1" customWidth="1"/>
-    <col min="12" max="14" width="28.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="14.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.21875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="28.87890625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.234375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1171875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.64453125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="14.1171875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.234375" style="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" style="1" customWidth="1"/>
-    <col min="24" max="25" width="14.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" customWidth="1"/>
-    <col min="28" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" customWidth="1"/>
+    <col min="23" max="23" width="17.64453125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="14.1171875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.87890625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.87890625" customWidth="1"/>
+    <col min="28" max="29" width="14.41015625" customWidth="1"/>
+    <col min="30" max="30" width="15.1171875" customWidth="1"/>
     <col min="31" max="32" width="15" customWidth="1"/>
-    <col min="33" max="34" width="21.88671875" customWidth="1"/>
-    <col min="35" max="35" width="20.5546875" customWidth="1"/>
-    <col min="36" max="37" width="21.6640625" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="16.44140625" customWidth="1"/>
-    <col min="40" max="40" width="17.21875" customWidth="1"/>
+    <col min="33" max="34" width="21.87890625" customWidth="1"/>
+    <col min="35" max="35" width="20.52734375" customWidth="1"/>
+    <col min="36" max="37" width="21.64453125" customWidth="1"/>
+    <col min="38" max="38" width="17.64453125" customWidth="1"/>
+    <col min="39" max="39" width="16.41015625" customWidth="1"/>
+    <col min="40" max="40" width="17.234375" customWidth="1"/>
     <col min="41" max="41" width="18" customWidth="1"/>
-    <col min="42" max="42" width="16.5546875" customWidth="1"/>
-    <col min="43" max="44" width="17.6640625" customWidth="1"/>
-    <col min="45" max="45" width="13.6640625" customWidth="1"/>
-    <col min="46" max="46" width="12.6640625" customWidth="1"/>
-    <col min="47" max="47" width="13.21875" customWidth="1"/>
+    <col min="42" max="42" width="16.52734375" customWidth="1"/>
+    <col min="43" max="44" width="17.64453125" customWidth="1"/>
+    <col min="45" max="45" width="13.64453125" customWidth="1"/>
+    <col min="46" max="46" width="12.64453125" customWidth="1"/>
+    <col min="47" max="47" width="13.234375" customWidth="1"/>
     <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="51" width="20.6640625" customWidth="1"/>
-    <col min="52" max="52" width="9.21875" customWidth="1"/>
-    <col min="53" max="53" width="14.6640625" customWidth="1"/>
-    <col min="54" max="54" width="13.88671875" customWidth="1"/>
+    <col min="49" max="51" width="20.64453125" customWidth="1"/>
+    <col min="52" max="52" width="9.234375" customWidth="1"/>
+    <col min="53" max="53" width="14.64453125" customWidth="1"/>
+    <col min="54" max="54" width="13.87890625" customWidth="1"/>
     <col min="55" max="55" width="17" customWidth="1"/>
-    <col min="56" max="56" width="5.6640625" customWidth="1"/>
-    <col min="57" max="57" width="8.109375" customWidth="1"/>
+    <col min="56" max="56" width="5.64453125" customWidth="1"/>
+    <col min="57" max="57" width="8.1171875" customWidth="1"/>
     <col min="58" max="58" width="14" customWidth="1"/>
-    <col min="59" max="59" width="14.21875" customWidth="1"/>
-    <col min="60" max="60" width="10.6640625" customWidth="1"/>
-    <col min="61" max="61" width="10.5546875" customWidth="1"/>
-    <col min="62" max="62" width="6.5546875" customWidth="1"/>
-    <col min="63" max="63" width="7.5546875" customWidth="1"/>
-    <col min="64" max="64" width="14.88671875" customWidth="1"/>
-    <col min="65" max="65" width="17.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" customWidth="1"/>
-    <col min="67" max="67" width="15.109375" customWidth="1"/>
-    <col min="68" max="68" width="14.6640625" customWidth="1"/>
+    <col min="59" max="59" width="14.234375" customWidth="1"/>
+    <col min="60" max="60" width="10.64453125" customWidth="1"/>
+    <col min="61" max="61" width="10.52734375" customWidth="1"/>
+    <col min="62" max="62" width="6.52734375" customWidth="1"/>
+    <col min="63" max="63" width="7.52734375" customWidth="1"/>
+    <col min="64" max="64" width="14.87890625" customWidth="1"/>
+    <col min="65" max="65" width="17.41015625" customWidth="1"/>
+    <col min="66" max="66" width="14.1171875" customWidth="1"/>
+    <col min="67" max="67" width="15.1171875" customWidth="1"/>
+    <col min="68" max="68" width="14.64453125" customWidth="1"/>
     <col min="69" max="69" width="15" customWidth="1"/>
-    <col min="70" max="70" width="11.6640625" customWidth="1"/>
-    <col min="71" max="71" width="11.21875" customWidth="1"/>
-    <col min="72" max="72" width="17.6640625" customWidth="1"/>
-    <col min="73" max="73" width="20.21875" customWidth="1"/>
-    <col min="74" max="74" width="18.44140625" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" customWidth="1"/>
-    <col min="76" max="76" width="17.44140625" customWidth="1"/>
-    <col min="77" max="77" width="18.109375" customWidth="1"/>
-    <col min="78" max="78" width="13.6640625" customWidth="1"/>
-    <col min="79" max="79" width="16.21875" customWidth="1"/>
-    <col min="80" max="80" width="14.109375" customWidth="1"/>
-    <col min="81" max="81" width="14.44140625" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" customWidth="1"/>
-    <col min="83" max="83" width="10.6640625" customWidth="1"/>
-    <col min="84" max="84" width="18.6640625" customWidth="1"/>
-    <col min="85" max="85" width="13.44140625" customWidth="1"/>
-    <col min="86" max="86" width="18.6640625" customWidth="1"/>
+    <col min="70" max="70" width="11.64453125" customWidth="1"/>
+    <col min="71" max="71" width="11.234375" customWidth="1"/>
+    <col min="72" max="72" width="17.64453125" customWidth="1"/>
+    <col min="73" max="73" width="20.234375" customWidth="1"/>
+    <col min="74" max="74" width="18.41015625" customWidth="1"/>
+    <col min="75" max="75" width="17.234375" customWidth="1"/>
+    <col min="76" max="76" width="17.41015625" customWidth="1"/>
+    <col min="77" max="77" width="18.1171875" customWidth="1"/>
+    <col min="78" max="78" width="13.64453125" customWidth="1"/>
+    <col min="79" max="79" width="16.234375" customWidth="1"/>
+    <col min="80" max="80" width="14.1171875" customWidth="1"/>
+    <col min="81" max="81" width="14.41015625" customWidth="1"/>
+    <col min="82" max="82" width="13.87890625" customWidth="1"/>
+    <col min="83" max="83" width="10.64453125" customWidth="1"/>
+    <col min="84" max="84" width="18.64453125" customWidth="1"/>
+    <col min="85" max="85" width="13.41015625" customWidth="1"/>
+    <col min="86" max="86" width="18.64453125" customWidth="1"/>
     <col min="87" max="87" width="18" customWidth="1"/>
-    <col min="88" max="88" width="10.88671875" customWidth="1"/>
-    <col min="89" max="89" width="9.88671875" customWidth="1"/>
-    <col min="90" max="90" width="12.109375" customWidth="1"/>
-    <col min="94" max="1024" width="9.109375" style="1"/>
+    <col min="88" max="88" width="10.87890625" customWidth="1"/>
+    <col min="89" max="89" width="9.87890625" customWidth="1"/>
+    <col min="90" max="90" width="12.1171875" customWidth="1"/>
+    <col min="94" max="1024" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -3762,7 +3780,7 @@
         <v>68.141720896601498</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>196.31271714018601</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>292.38382448900398</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -3836,7 +3854,7 @@
         <v>298.91892845175698</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3864,7 +3882,7 @@
         <v>2.4734753777584499</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -3895,7 +3913,7 @@
         <v>5.2430744977531898</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -3926,7 +3944,7 @@
         <v>11.0078054588695</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3960,7 +3978,7 @@
         <v>21.509959196103701</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -3991,7 +4009,7 @@
         <v>25.699515305663201</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -4028,7 +4046,7 @@
         <v>0.45825656659652136</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -4056,7 +4074,7 @@
         <v>2.7319273834112301</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -4087,7 +4105,7 @@
         <v>6.85523381641993</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -4118,7 +4136,7 @@
         <v>12.5654672438119</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -4149,7 +4167,7 @@
         <v>24.0564601232164</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4180,7 +4198,7 @@
         <v>29.815629620329101</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4217,7 +4235,7 @@
         <v>0.56647955764075453</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -4245,7 +4263,7 @@
         <v>1.64304914565812</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -4279,7 +4297,7 @@
         <v>4.9005618213657103</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -4310,7 +4328,7 @@
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>21.709765874464299</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>0.44095808953351817</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -4396,7 +4414,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -4418,7 +4436,7 @@
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -4443,7 +4461,7 @@
         <v>6.57918247708729</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -4468,7 +4486,7 @@
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4493,7 +4511,7 @@
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -4520,7 +4538,7 @@
         <v>25.333346900617901</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -4541,7 +4559,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -4573,7 +4591,7 @@
         <v>2.9336266960030999</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>27.781444811147999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -4640,7 +4658,7 @@
         <v>171.523285661899</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -4675,7 +4693,7 @@
         <v>458.39090575724202</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -4710,7 +4728,7 @@
         <v>640.95636230289699</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -4754,7 +4772,7 @@
         <v>0.56175917945181852</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -4786,7 +4804,7 @@
         <v>12.5735240190683</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -4818,7 +4836,7 @@
         <v>49.748441510817599</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -4853,7 +4871,7 @@
         <v>234.68426842684201</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -4889,7 +4907,7 @@
         <v>509.43601026769301</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
@@ -4924,7 +4942,7 @@
         <v>660.44737807113995</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4968,7 +4986,7 @@
         <v>0.44715629659031508</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -5000,7 +5018,7 @@
         <v>15.1023102310232</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -5032,7 +5050,7 @@
         <v>69.133846718005003</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>224.93876054272101</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
@@ -5102,7 +5120,7 @@
         <v>487.52181884855099</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
@@ -5137,7 +5155,7 @@
         <v>539.18298496516297</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>34</v>
       </c>
@@ -5181,7 +5199,7 @@
         <v>0.34442199098783444</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>35</v>
       </c>
@@ -5213,7 +5231,7 @@
         <v>17.367070040337399</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -5245,7 +5263,7 @@
         <v>102.952695269526</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>35</v>
       </c>
@@ -5280,7 +5298,7 @@
         <v>285.518151815181</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A51" s="5" t="s">
         <v>35</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>574.650531719838</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
         <v>35</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>589.964063072974</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -5394,7 +5412,7 @@
         <v>0.43673119216076633</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -5426,7 +5444,7 @@
         <v>27.1653832049873</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>36</v>
       </c>
@@ -5458,7 +5476,7 @@
         <v>119.91492482581501</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -5493,7 +5511,7 @@
         <v>404.14814814814798</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -5528,7 +5546,7 @@
         <v>613.47414741474097</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -5564,7 +5582,7 @@
         <v>672.457645764576</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -5608,7 +5626,7 @@
         <v>0.34225516905305436</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>44.180418041804103</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -5672,7 +5690,7 @@
         <v>156.42097543087601</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>37</v>
       </c>
@@ -5707,7 +5725,7 @@
         <v>406.94096076274201</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
@@ -5742,7 +5760,7 @@
         <v>698.39090575724197</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A64" s="5" t="s">
         <v>37</v>
       </c>
@@ -5777,7 +5795,7 @@
         <v>614.30143014301404</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>0.34882563252840276</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A66" s="9" t="s">
         <v>38</v>
       </c>
@@ -5850,7 +5868,7 @@
         <v>14.1576376953573</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A67" s="9" t="s">
         <v>38</v>
       </c>
@@ -5879,7 +5897,7 @@
         <v>38.1365759029174</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
@@ -5908,7 +5926,7 @@
         <v>103.251645148664</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A69" s="9" t="s">
         <v>38</v>
       </c>
@@ -5937,7 +5955,7 @@
         <v>269.36486443780501</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
@@ -5966,7 +5984,7 @@
         <v>402.49829225424799</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A71" s="9" t="s">
         <v>38</v>
       </c>
@@ -5995,7 +6013,7 @@
         <v>471.77029421845998</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A72" s="9" t="s">
         <v>38</v>
       </c>
@@ -6043,7 +6061,7 @@
         <v>0.55755403529442404</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A73" s="9" t="s">
         <v>39</v>
       </c>
@@ -6072,7 +6090,7 @@
         <v>14.197019163216501</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
@@ -6101,7 +6119,7 @@
         <v>38.175957370776501</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A75" s="9" t="s">
         <v>39</v>
       </c>
@@ -6130,7 +6148,7 @@
         <v>86.781440146246197</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A76" s="9" t="s">
         <v>39</v>
       </c>
@@ -6159,7 +6177,7 @@
         <v>195.24894192692</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A77" s="9" t="s">
         <v>39</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>332.49992099396798</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A78" s="9" t="s">
         <v>39</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>430.59478171241301</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -6265,7 +6283,7 @@
         <v>0.57364638814782731</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A80" s="9" t="s">
         <v>40</v>
       </c>
@@ -6294,7 +6312,7 @@
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A81" s="9" t="s">
         <v>40</v>
       </c>
@@ -6323,7 +6341,7 @@
         <v>31.960249027010299</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A82" s="9" t="s">
         <v>40</v>
       </c>
@@ -6352,7 +6370,7 @@
         <v>78.506956177177699</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A83" s="9" t="s">
         <v>40</v>
       </c>
@@ -6381,7 +6399,7 @@
         <v>141.72077566905901</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A84" s="9" t="s">
         <v>40</v>
       </c>
@@ -6410,7 +6428,7 @@
         <v>241.874412012806</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A85" s="9" t="s">
         <v>40</v>
       </c>
@@ -6439,7 +6457,7 @@
         <v>259.59826040873997</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A86" s="9" t="s">
         <v>40</v>
       </c>
@@ -6480,7 +6498,7 @@
         <v>0.60964305392848284</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A87" s="9" t="s">
         <v>41</v>
       </c>
@@ -6509,7 +6527,7 @@
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A88" s="9" t="s">
         <v>41</v>
       </c>
@@ -6538,7 +6556,7 @@
         <v>27.842697776405601</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A89" s="9" t="s">
         <v>41</v>
       </c>
@@ -6567,7 +6585,7 @@
         <v>57.9191999241541</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A90" s="9" t="s">
         <v>41</v>
       </c>
@@ -6596,7 +6614,7 @@
         <v>125.211189198781</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -6625,7 +6643,7 @@
         <v>198.48259801002001</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A92" s="9" t="s">
         <v>41</v>
       </c>
@@ -6654,7 +6672,7 @@
         <v>257.46072184771901</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A93" s="9" t="s">
         <v>41</v>
       </c>
@@ -6695,7 +6713,7 @@
         <v>0.61517153956727488</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A94" s="9" t="s">
         <v>42</v>
       </c>
@@ -6736,7 +6754,7 @@
         <v>0.5877198616698468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A95" s="9" t="s">
         <v>43</v>
       </c>
@@ -6777,7 +6795,7 @@
         <v>0.59785332049875728</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A96" s="9" t="s">
         <v>44</v>
       </c>
@@ -6818,7 +6836,7 @@
         <v>0.5966570064180915</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A97" s="9" t="s">
         <v>45</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0.58478450560410777</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A98" s="9" t="s">
         <v>46</v>
       </c>
@@ -6900,7 +6918,7 @@
         <v>0.57435408989559844</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A99" s="9" t="s">
         <v>47</v>
       </c>
@@ -6941,7 +6959,7 @@
         <v>0.55432121382614619</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A100" s="9" t="s">
         <v>48</v>
       </c>
@@ -6982,7 +7000,7 @@
         <v>0.56902564173601522</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A101" s="9" t="s">
         <v>49</v>
       </c>
@@ -7023,7 +7041,7 @@
         <v>0.5415984268554952</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A102" s="9" t="s">
         <v>50</v>
       </c>
@@ -7055,7 +7073,7 @@
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A103" s="9" t="s">
         <v>50</v>
       </c>
@@ -7087,7 +7105,7 @@
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A104" s="9" t="s">
         <v>50</v>
       </c>
@@ -7119,7 +7137,7 @@
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A105" s="9" t="s">
         <v>50</v>
       </c>
@@ -7151,7 +7169,7 @@
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A106" s="9" t="s">
         <v>50</v>
       </c>
@@ -7183,7 +7201,7 @@
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A107" s="9" t="s">
         <v>50</v>
       </c>
@@ -7219,7 +7237,7 @@
         <v>0.5164687627891642</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A108" s="9" t="s">
         <v>50</v>
       </c>
@@ -7260,7 +7278,7 @@
         <v>0.54760057573932719</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A109" s="9" t="s">
         <v>51</v>
       </c>
@@ -7301,7 +7319,7 @@
         <v>0.55106873051835448</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A110" s="9" t="s">
         <v>52</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>0.54152216496102545</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A111" s="9" t="s">
         <v>53</v>
       </c>
@@ -7383,7 +7401,7 @@
         <v>0.52004526213321234</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A112" s="1" t="s">
         <v>54</v>
       </c>
@@ -7412,7 +7430,7 @@
         <v>0.52101506740682002</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A113" s="1" t="s">
         <v>55</v>
       </c>
@@ -7441,7 +7459,7 @@
         <v>0.41585445094217022</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -7470,7 +7488,7 @@
         <v>0.41902313624678661</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A115" s="1" t="s">
         <v>57</v>
       </c>
@@ -7499,7 +7517,7 @@
         <v>0.35083384805435452</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
@@ -7512,7 +7530,7 @@
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
@@ -7525,7 +7543,7 @@
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A118" s="1" t="s">
         <v>54</v>
       </c>
@@ -7538,7 +7556,7 @@
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A119" s="1" t="s">
         <v>54</v>
       </c>
@@ -7551,7 +7569,7 @@
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A120" s="1" t="s">
         <v>54</v>
       </c>
@@ -7564,7 +7582,7 @@
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A121" s="1" t="s">
         <v>54</v>
       </c>
@@ -7577,7 +7595,7 @@
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A122" s="1" t="s">
         <v>54</v>
       </c>
@@ -7590,7 +7608,7 @@
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
@@ -7603,7 +7621,7 @@
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A124" s="1" t="s">
         <v>55</v>
       </c>
@@ -7616,7 +7634,7 @@
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -7629,7 +7647,7 @@
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A126" s="1" t="s">
         <v>55</v>
       </c>
@@ -7642,7 +7660,7 @@
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -7655,7 +7673,7 @@
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -7668,7 +7686,7 @@
         <v>0.96878842686282296</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -7681,7 +7699,7 @@
         <v>0.98848228021902196</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7694,7 +7712,7 @@
         <v>0.17231777051132799</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>0.52665686982701998</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A132" s="1" t="s">
         <v>56</v>
       </c>
@@ -7720,7 +7738,7 @@
         <v>0.78575800519434602</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>0.88946711074104901</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A134" s="1" t="s">
         <v>56</v>
       </c>
@@ -7746,7 +7764,7 @@
         <v>0.96907792071728205</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A135" s="1" t="s">
         <v>56</v>
       </c>
@@ -7759,7 +7777,7 @@
         <v>0.98757933510154305</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7772,7 +7790,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A137" s="1" t="s">
         <v>57</v>
       </c>
@@ -7785,7 +7803,7 @@
         <v>0.22119398293916201</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A138" s="1" t="s">
         <v>57</v>
       </c>
@@ -7798,7 +7816,7 @@
         <v>0.62816857916416202</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A139" s="1" t="s">
         <v>57</v>
       </c>
@@ -7811,7 +7829,7 @@
         <v>0.84465346207078995</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A140" s="1" t="s">
         <v>57</v>
       </c>
@@ -7824,7 +7842,7 @@
         <v>0.91580140170167201</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A141" s="1" t="s">
         <v>57</v>
       </c>
@@ -7837,7 +7855,7 @@
         <v>0.98663503371914096</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A142" s="1" t="s">
         <v>57</v>
       </c>
@@ -7850,7 +7868,7 @@
         <v>0.98884070118168599</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A143" s="1" t="s">
         <v>57</v>
       </c>
@@ -7863,7 +7881,7 @@
         <v>0.99098019862035402</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A144" s="5" t="s">
         <v>58</v>
       </c>
@@ -7899,7 +7917,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A145" s="5" t="s">
         <v>58</v>
       </c>
@@ -7935,7 +7953,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A146" s="5" t="s">
         <v>58</v>
       </c>
@@ -7972,7 +7990,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A147" s="5" t="s">
         <v>58</v>
       </c>
@@ -8008,7 +8026,7 @@
         <v>678.9</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A148" s="5" t="s">
         <v>58</v>
       </c>
@@ -8044,7 +8062,7 @@
         <v>980.6</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A149" s="5" t="s">
         <v>58</v>
       </c>
@@ -8094,7 +8112,7 @@
         <v>0.37601776461880088</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A150" s="5" t="s">
         <v>60</v>
       </c>
@@ -8132,7 +8150,7 @@
       <c r="Y150" s="12"/>
       <c r="Z150" s="12"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A151" s="5" t="s">
         <v>60</v>
       </c>
@@ -8170,7 +8188,7 @@
       <c r="Y151" s="12"/>
       <c r="Z151" s="12"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A152" s="5" t="s">
         <v>60</v>
       </c>
@@ -8208,7 +8226,7 @@
       <c r="Y152" s="12"/>
       <c r="Z152" s="12"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A153" s="5" t="s">
         <v>60</v>
       </c>
@@ -8247,7 +8265,7 @@
       <c r="Y153" s="12"/>
       <c r="Z153" s="12"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A154" s="5" t="s">
         <v>60</v>
       </c>
@@ -8286,7 +8304,7 @@
       <c r="Y154" s="12"/>
       <c r="Z154" s="12"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A155" s="5" t="s">
         <v>60</v>
       </c>
@@ -8337,7 +8355,7 @@
         <v>0.45600158196559226</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A156" s="5" t="s">
         <v>62</v>
       </c>
@@ -8373,7 +8391,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A157" s="5" t="s">
         <v>62</v>
       </c>
@@ -8409,7 +8427,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A158" s="5" t="s">
         <v>62</v>
       </c>
@@ -8445,7 +8463,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A159" s="5" t="s">
         <v>62</v>
       </c>
@@ -8483,7 +8501,7 @@
       </c>
       <c r="Y159" s="10"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A160" s="5" t="s">
         <v>62</v>
       </c>
@@ -8520,7 +8538,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A161" s="5" t="s">
         <v>62</v>
       </c>
@@ -8568,7 +8586,7 @@
         <v>0.4949964887640449</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A162" s="5" t="s">
         <v>64</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A163" s="5" t="s">
         <v>64</v>
       </c>
@@ -8642,7 +8660,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A164" s="5" t="s">
         <v>64</v>
       </c>
@@ -8679,7 +8697,7 @@
         <v>260.89999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A165" s="5" t="s">
         <v>64</v>
       </c>
@@ -8716,7 +8734,7 @@
         <v>518.29999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A166" s="5" t="s">
         <v>64</v>
       </c>
@@ -8752,7 +8770,7 @@
         <v>903.2</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A167" s="5" t="s">
         <v>64</v>
       </c>
@@ -8803,7 +8821,7 @@
         <v>0.48500185162325632</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A168" s="5" t="s">
         <v>66</v>
       </c>
@@ -8839,7 +8857,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A169" s="5" t="s">
         <v>66</v>
       </c>
@@ -8875,7 +8893,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A170" s="5" t="s">
         <v>66</v>
       </c>
@@ -8911,7 +8929,7 @@
         <v>235.4</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A171" s="5" t="s">
         <v>66</v>
       </c>
@@ -8947,7 +8965,7 @@
         <v>438.2</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A172" s="5" t="s">
         <v>66</v>
       </c>
@@ -8984,7 +9002,7 @@
         <v>568.4</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A173" s="5" t="s">
         <v>66</v>
       </c>
@@ -9035,7 +9053,7 @@
         <v>0.57699221090473329</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A174" s="5" t="s">
         <v>68</v>
       </c>
@@ -9067,7 +9085,7 @@
       </c>
       <c r="Y174" s="15"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A175" s="5" t="s">
         <v>68</v>
       </c>
@@ -9098,7 +9116,7 @@
       </c>
       <c r="Y175" s="16"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A176" s="5" t="s">
         <v>68</v>
       </c>
@@ -9129,7 +9147,7 @@
       </c>
       <c r="Y176" s="15"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A177" s="5" t="s">
         <v>68</v>
       </c>
@@ -9160,7 +9178,7 @@
       </c>
       <c r="Y177" s="15"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A178" s="5" t="s">
         <v>68</v>
       </c>
@@ -9189,7 +9207,7 @@
         <v>688.1</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A179" s="5" t="s">
         <v>68</v>
       </c>
@@ -9219,7 +9237,7 @@
         <v>866.2</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A180" s="5" t="s">
         <v>68</v>
       </c>
@@ -9248,7 +9266,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A181" s="5" t="s">
         <v>68</v>
       </c>
@@ -9286,7 +9304,7 @@
         <v>0.59001326511275343</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A182" s="5" t="s">
         <v>70</v>
       </c>
@@ -9315,7 +9333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A183" s="5" t="s">
         <v>70</v>
       </c>
@@ -9343,7 +9361,7 @@
         <v>177.7</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A184" s="5" t="s">
         <v>70</v>
       </c>
@@ -9371,7 +9389,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A185" s="5" t="s">
         <v>70</v>
       </c>
@@ -9399,7 +9417,7 @@
         <v>616.20000000000005</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A186" s="5" t="s">
         <v>70</v>
       </c>
@@ -9429,7 +9447,7 @@
         <v>806.9</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A187" s="5" t="s">
         <v>70</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>866.1</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A188" s="5" t="s">
         <v>70</v>
       </c>
@@ -9487,7 +9505,7 @@
         <v>948.6</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A189" s="5" t="s">
         <v>70</v>
       </c>
@@ -9525,7 +9543,7 @@
         <v>0.57000387296669253</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A190" s="5" t="s">
         <v>71</v>
       </c>
@@ -9554,7 +9572,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A191" s="5" t="s">
         <v>71</v>
       </c>
@@ -9583,7 +9601,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A192" s="5" t="s">
         <v>71</v>
       </c>
@@ -9612,7 +9630,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A193" s="5" t="s">
         <v>71</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>653.70000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A194" s="5" t="s">
         <v>71</v>
       </c>
@@ -9671,7 +9689,7 @@
         <v>894.2</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A195" s="5" t="s">
         <v>71</v>
       </c>
@@ -9700,7 +9718,7 @@
         <v>1148.0999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A196" s="5" t="s">
         <v>71</v>
       </c>
@@ -9729,7 +9747,7 @@
         <v>1135.8</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A197" s="5" t="s">
         <v>71</v>
       </c>
@@ -9767,7 +9785,7 @@
         <v>0.56002009040683076</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A198" s="5" t="s">
         <v>73</v>
       </c>
@@ -9796,7 +9814,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A199" s="5" t="s">
         <v>73</v>
       </c>
@@ -9825,7 +9843,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A200" s="5" t="s">
         <v>73</v>
       </c>
@@ -9855,7 +9873,7 @@
         <v>419.8</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A201" s="5" t="s">
         <v>73</v>
       </c>
@@ -9884,7 +9902,7 @@
         <v>807.7</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A202" s="5" t="s">
         <v>73</v>
       </c>
@@ -9913,7 +9931,7 @@
         <v>971.8</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A203" s="5" t="s">
         <v>73</v>
       </c>
@@ -9942,7 +9960,7 @@
         <v>1113.5999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A204" s="5" t="s">
         <v>73</v>
       </c>
@@ -9971,7 +9989,7 @@
         <v>1123.5999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A205" s="5" t="s">
         <v>73</v>
       </c>
@@ -10009,7 +10027,7 @@
         <v>0.5600248004340076</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A206" s="5" t="s">
         <v>74</v>
       </c>
@@ -10038,7 +10056,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A207" s="5" t="s">
         <v>74</v>
       </c>
@@ -10068,7 +10086,7 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A208" s="5" t="s">
         <v>74</v>
       </c>
@@ -10097,7 +10115,7 @@
         <v>352.8</v>
       </c>
     </row>
-    <row r="209" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A209" s="5" t="s">
         <v>74</v>
       </c>
@@ -10126,7 +10144,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="210" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A210" s="5" t="s">
         <v>74</v>
       </c>
@@ -10155,7 +10173,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="211" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A211" s="5" t="s">
         <v>74</v>
       </c>
@@ -10184,7 +10202,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="212" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A212" s="5" t="s">
         <v>74</v>
       </c>
@@ -10213,7 +10231,7 @@
         <v>724.4</v>
       </c>
     </row>
-    <row r="213" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A213" s="5" t="s">
         <v>74</v>
       </c>
@@ -10251,7 +10269,7 @@
         <v>0.60995475113122177</v>
       </c>
     </row>
-    <row r="214" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A214" s="5" t="s">
         <v>76</v>
       </c>
@@ -10281,7 +10299,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A215" s="5" t="s">
         <v>76</v>
       </c>
@@ -10310,7 +10328,7 @@
         <v>229.6</v>
       </c>
     </row>
-    <row r="216" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A216" s="5" t="s">
         <v>76</v>
       </c>
@@ -10339,7 +10357,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="217" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A217" s="5" t="s">
         <v>76</v>
       </c>
@@ -10368,7 +10386,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="218" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A218" s="5" t="s">
         <v>76</v>
       </c>
@@ -10397,7 +10415,7 @@
         <v>700.7</v>
       </c>
     </row>
-    <row r="219" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A219" s="5" t="s">
         <v>76</v>
       </c>
@@ -10426,7 +10444,7 @@
         <v>864.4</v>
       </c>
     </row>
-    <row r="220" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A220" s="5" t="s">
         <v>76</v>
       </c>
@@ -10455,7 +10473,7 @@
         <v>793.9</v>
       </c>
     </row>
-    <row r="221" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A221" s="5" t="s">
         <v>76</v>
       </c>
@@ -10494,7 +10512,7 @@
         <v>0.59994640943194</v>
       </c>
     </row>
-    <row r="222" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A222" s="21" t="s">
         <v>109</v>
       </c>
@@ -10510,7 +10528,7 @@
       </c>
       <c r="CU222" s="2"/>
     </row>
-    <row r="223" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A223" s="21" t="s">
         <v>110</v>
       </c>
@@ -10526,7 +10544,7 @@
       </c>
       <c r="CU223" s="2"/>
     </row>
-    <row r="224" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A224" s="21" t="s">
         <v>111</v>
       </c>
@@ -10542,7 +10560,7 @@
       </c>
       <c r="CU224" s="2"/>
     </row>
-    <row r="225" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A225" s="21" t="s">
         <v>112</v>
       </c>
@@ -10558,7 +10576,7 @@
       </c>
       <c r="CU225" s="2"/>
     </row>
-    <row r="226" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A226" s="21" t="s">
         <v>113</v>
       </c>
@@ -10574,7 +10592,7 @@
       </c>
       <c r="CU226" s="2"/>
     </row>
-    <row r="227" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A227" s="21" t="s">
         <v>114</v>
       </c>
@@ -10590,7 +10608,7 @@
       </c>
       <c r="CU227" s="2"/>
     </row>
-    <row r="228" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A228" s="21" t="s">
         <v>115</v>
       </c>
@@ -10606,7 +10624,7 @@
       </c>
       <c r="CU228" s="2"/>
     </row>
-    <row r="229" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A229" s="21" t="s">
         <v>116</v>
       </c>
@@ -10622,7 +10640,7 @@
       </c>
       <c r="CU229" s="2"/>
     </row>
-    <row r="230" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A230" s="21" t="s">
         <v>117</v>
       </c>
@@ -10638,7 +10656,7 @@
       </c>
       <c r="CU230" s="2"/>
     </row>
-    <row r="231" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A231" s="21" t="s">
         <v>118</v>
       </c>
@@ -10654,7 +10672,7 @@
       </c>
       <c r="CU231" s="2"/>
     </row>
-    <row r="232" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A232" s="21" t="s">
         <v>119</v>
       </c>
@@ -10670,7 +10688,7 @@
       </c>
       <c r="CU232" s="2"/>
     </row>
-    <row r="233" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A233" s="21" t="s">
         <v>130</v>
       </c>
@@ -10686,7 +10704,7 @@
       </c>
       <c r="CU233" s="2"/>
     </row>
-    <row r="234" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A234" s="21" t="s">
         <v>120</v>
       </c>
@@ -10702,7 +10720,7 @@
       </c>
       <c r="CU234" s="2"/>
     </row>
-    <row r="235" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A235" s="21" t="s">
         <v>121</v>
       </c>
@@ -10718,7 +10736,7 @@
       </c>
       <c r="CU235" s="2"/>
     </row>
-    <row r="236" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A236" s="21" t="s">
         <v>122</v>
       </c>
@@ -10734,7 +10752,7 @@
       </c>
       <c r="CU236" s="2"/>
     </row>
-    <row r="237" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A237" s="21" t="s">
         <v>123</v>
       </c>
@@ -10750,7 +10768,7 @@
       </c>
       <c r="CU237" s="2"/>
     </row>
-    <row r="238" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A238" s="21" t="s">
         <v>124</v>
       </c>
@@ -10766,7 +10784,7 @@
       </c>
       <c r="CU238" s="2"/>
     </row>
-    <row r="239" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A239" s="21" t="s">
         <v>125</v>
       </c>
@@ -10782,7 +10800,7 @@
       </c>
       <c r="CU239" s="2"/>
     </row>
-    <row r="240" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A240" s="21" t="s">
         <v>126</v>
       </c>
@@ -10798,7 +10816,7 @@
       </c>
       <c r="CU240" s="2"/>
     </row>
-    <row r="241" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A241" s="21" t="s">
         <v>127</v>
       </c>
@@ -10814,7 +10832,7 @@
       </c>
       <c r="CU241" s="2"/>
     </row>
-    <row r="242" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A242" s="21" t="s">
         <v>128</v>
       </c>
@@ -10830,7 +10848,7 @@
       </c>
       <c r="CU242" s="2"/>
     </row>
-    <row r="243" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A243" s="21" t="s">
         <v>129</v>
       </c>
@@ -10846,7 +10864,7 @@
       </c>
       <c r="CU243" s="2"/>
     </row>
-    <row r="244" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A244" s="21" t="s">
         <v>131</v>
       </c>
@@ -10862,7 +10880,7 @@
       </c>
       <c r="CU244" s="2"/>
     </row>
-    <row r="245" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A245" s="21" t="s">
         <v>132</v>
       </c>
@@ -10878,7 +10896,7 @@
       </c>
       <c r="CU245" s="2"/>
     </row>
-    <row r="246" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A246" s="21" t="s">
         <v>133</v>
       </c>
@@ -10894,7 +10912,7 @@
       </c>
       <c r="CU246" s="2"/>
     </row>
-    <row r="247" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A247" s="21" t="s">
         <v>134</v>
       </c>
@@ -10910,7 +10928,7 @@
       </c>
       <c r="CU247" s="2"/>
     </row>
-    <row r="248" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A248" s="21" t="s">
         <v>135</v>
       </c>
@@ -10926,7 +10944,7 @@
       </c>
       <c r="CU248" s="2"/>
     </row>
-    <row r="249" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A249" s="21" t="s">
         <v>136</v>
       </c>
@@ -10942,7 +10960,7 @@
       </c>
       <c r="CU249" s="2"/>
     </row>
-    <row r="250" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A250" s="21" t="s">
         <v>137</v>
       </c>
@@ -10958,7 +10976,7 @@
       </c>
       <c r="CU250" s="2"/>
     </row>
-    <row r="251" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A251" s="21" t="s">
         <v>138</v>
       </c>
@@ -10974,7 +10992,7 @@
       </c>
       <c r="CU251" s="2"/>
     </row>
-    <row r="252" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A252" s="21" t="s">
         <v>139</v>
       </c>
@@ -10990,7 +11008,7 @@
       </c>
       <c r="CU252" s="2"/>
     </row>
-    <row r="253" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A253" s="21" t="s">
         <v>140</v>
       </c>
@@ -11005,7 +11023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:99" x14ac:dyDescent="0.5">
       <c r="A254" s="21" t="s">
         <v>141</v>
       </c>
@@ -11020,301 +11038,385 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="I255" s="8"/>
-    </row>
-    <row r="256" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="I256" s="8"/>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I257" s="8"/>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I258" s="8"/>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I259" s="8"/>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I260" s="8"/>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="A255" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E255" s="8">
+        <v>35342</v>
+      </c>
+      <c r="H255" s="1">
+        <v>20</v>
+      </c>
+      <c r="I255" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="256" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="A256" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E256" s="8">
+        <v>35376</v>
+      </c>
+      <c r="H256" s="1">
+        <v>15</v>
+      </c>
+      <c r="I256" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A257" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E257" s="8">
+        <v>35410</v>
+      </c>
+      <c r="H257" s="1">
+        <v>10</v>
+      </c>
+      <c r="I257" s="22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A258" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E258" s="8">
+        <v>35342</v>
+      </c>
+      <c r="H258" s="22">
+        <v>20</v>
+      </c>
+      <c r="I258" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A259" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E259" s="8">
+        <v>35376</v>
+      </c>
+      <c r="H259" s="22">
+        <v>15</v>
+      </c>
+      <c r="I259" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A260" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E260" s="8">
+        <v>35410</v>
+      </c>
+      <c r="H260" s="22">
+        <v>10</v>
+      </c>
+      <c r="I260" s="22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I261" s="8"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I262" s="8"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I263" s="8"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I264" s="8"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I265" s="8"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I266" s="8"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I267" s="8"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I268" s="8"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I269" s="8"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I271" s="8"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I272" s="8"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I273" s="8"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I274" s="8"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I304" s="8"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I305" s="8"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I306" s="8"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I307" s="8"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I308" s="8"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I309" s="8"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I310" s="8"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I311" s="8"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I312" s="8"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I313" s="8"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I314" s="8"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I315" s="8"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I316" s="8"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I317" s="8"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I318" s="8"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I319" s="8"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I320" s="8"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I322" s="8"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I323" s="8"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I324" s="8"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I325" s="8"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I326" s="8"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I327" s="8"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I328" s="8"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I329" s="8"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I330" s="8"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I331" s="8"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I332" s="8"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I333" s="8"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I334" s="8"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I335" s="8"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I351" s="8"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I352" s="8"/>
     </row>
-    <row r="353" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C353" s="18"/>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
@@ -11323,7 +11425,7 @@
       <c r="CV353" s="20"/>
       <c r="CW353" s="20"/>
     </row>
-    <row r="354" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C354" s="18"/>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
@@ -11332,7 +11434,7 @@
       <c r="CV354" s="20"/>
       <c r="CW354" s="20"/>
     </row>
-    <row r="355" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C355" s="18"/>
       <c r="D355" s="18"/>
       <c r="E355" s="18"/>
@@ -11341,7 +11443,7 @@
       <c r="CV355" s="20"/>
       <c r="CW355" s="20"/>
     </row>
-    <row r="356" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C356" s="18"/>
       <c r="D356" s="18"/>
       <c r="E356" s="18"/>
@@ -11350,7 +11452,7 @@
       <c r="CV356" s="20"/>
       <c r="CW356" s="20"/>
     </row>
-    <row r="357" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C357" s="18"/>
       <c r="D357" s="18"/>
       <c r="E357" s="18"/>
@@ -11359,7 +11461,7 @@
       <c r="CV357" s="20"/>
       <c r="CW357" s="20"/>
     </row>
-    <row r="358" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C358" s="18"/>
       <c r="D358" s="18"/>
       <c r="E358" s="18"/>
@@ -11368,7 +11470,7 @@
       <c r="CV358" s="20"/>
       <c r="CW358" s="20"/>
     </row>
-    <row r="359" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C359" s="18"/>
       <c r="D359" s="18"/>
       <c r="E359" s="18"/>
@@ -11377,7 +11479,7 @@
       <c r="CV359" s="20"/>
       <c r="CW359" s="20"/>
     </row>
-    <row r="360" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C360" s="18"/>
       <c r="D360" s="18"/>
       <c r="E360" s="18"/>
@@ -11386,7 +11488,7 @@
       <c r="CV360" s="20"/>
       <c r="CW360" s="20"/>
     </row>
-    <row r="361" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C361" s="18"/>
       <c r="D361" s="18"/>
       <c r="E361" s="18"/>
@@ -11395,7 +11497,7 @@
       <c r="CV361" s="20"/>
       <c r="CW361" s="20"/>
     </row>
-    <row r="362" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C362" s="18"/>
       <c r="D362" s="18"/>
       <c r="E362" s="18"/>
@@ -11404,7 +11506,7 @@
       <c r="CV362" s="20"/>
       <c r="CW362" s="20"/>
     </row>
-    <row r="363" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C363" s="18"/>
       <c r="D363" s="18"/>
       <c r="E363" s="18"/>
@@ -11413,7 +11515,7 @@
       <c r="CV363" s="20"/>
       <c r="CW363" s="20"/>
     </row>
-    <row r="364" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C364" s="18"/>
       <c r="D364" s="18"/>
       <c r="E364" s="18"/>
@@ -11422,7 +11524,7 @@
       <c r="CV364" s="20"/>
       <c r="CW364" s="20"/>
     </row>
-    <row r="365" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C365" s="18"/>
       <c r="D365" s="18"/>
       <c r="E365" s="18"/>
@@ -11431,7 +11533,7 @@
       <c r="CV365" s="20"/>
       <c r="CW365" s="20"/>
     </row>
-    <row r="366" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C366" s="18"/>
       <c r="D366" s="18"/>
       <c r="E366" s="18"/>
@@ -11440,7 +11542,7 @@
       <c r="CV366" s="20"/>
       <c r="CW366" s="20"/>
     </row>
-    <row r="367" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C367" s="18"/>
       <c r="D367" s="18"/>
       <c r="E367" s="18"/>
@@ -11449,7 +11551,7 @@
       <c r="CV367" s="20"/>
       <c r="CW367" s="20"/>
     </row>
-    <row r="368" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C368" s="18"/>
       <c r="D368" s="18"/>
       <c r="E368" s="18"/>
@@ -11458,7 +11560,7 @@
       <c r="CV368" s="20"/>
       <c r="CW368" s="20"/>
     </row>
-    <row r="369" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C369" s="18"/>
       <c r="D369" s="18"/>
       <c r="E369" s="18"/>
@@ -11467,7 +11569,7 @@
       <c r="CV369" s="20"/>
       <c r="CW369" s="20"/>
     </row>
-    <row r="370" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C370" s="18"/>
       <c r="D370" s="18"/>
       <c r="E370" s="18"/>
@@ -11476,7 +11578,7 @@
       <c r="CV370" s="20"/>
       <c r="CW370" s="20"/>
     </row>
-    <row r="371" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C371" s="18"/>
       <c r="D371" s="18"/>
       <c r="E371" s="18"/>
@@ -11485,7 +11587,7 @@
       <c r="CV371" s="20"/>
       <c r="CW371" s="20"/>
     </row>
-    <row r="372" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C372" s="18"/>
       <c r="D372" s="18"/>
       <c r="E372" s="18"/>
@@ -11494,7 +11596,7 @@
       <c r="CV372" s="20"/>
       <c r="CW372" s="20"/>
     </row>
-    <row r="373" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C373" s="18"/>
       <c r="D373" s="18"/>
       <c r="E373" s="18"/>
@@ -11503,147 +11605,147 @@
       <c r="CV373" s="20"/>
       <c r="CW373" s="20"/>
     </row>
-    <row r="374" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C374" s="18"/>
       <c r="D374" s="18"/>
       <c r="E374" s="18"/>
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
     </row>
-    <row r="375" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C375" s="18"/>
       <c r="D375" s="18"/>
       <c r="E375" s="18"/>
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
     </row>
-    <row r="376" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C376" s="18"/>
       <c r="D376" s="18"/>
       <c r="E376" s="18"/>
       <c r="F376" s="19"/>
       <c r="G376" s="19"/>
     </row>
-    <row r="377" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C377" s="18"/>
       <c r="D377" s="18"/>
       <c r="E377" s="18"/>
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
     </row>
-    <row r="378" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C378" s="18"/>
       <c r="D378" s="18"/>
       <c r="E378" s="18"/>
       <c r="F378" s="19"/>
       <c r="G378" s="19"/>
     </row>
-    <row r="379" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C379" s="18"/>
       <c r="D379" s="18"/>
       <c r="E379" s="18"/>
       <c r="F379" s="19"/>
       <c r="G379" s="19"/>
     </row>
-    <row r="380" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C380" s="18"/>
       <c r="D380" s="18"/>
       <c r="E380" s="18"/>
       <c r="F380" s="19"/>
       <c r="G380" s="19"/>
     </row>
-    <row r="381" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C381" s="18"/>
       <c r="D381" s="18"/>
       <c r="E381" s="18"/>
       <c r="F381" s="19"/>
       <c r="G381" s="19"/>
     </row>
-    <row r="382" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C382" s="18"/>
       <c r="D382" s="18"/>
       <c r="E382" s="18"/>
       <c r="F382" s="19"/>
       <c r="G382" s="19"/>
     </row>
-    <row r="383" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C383" s="18"/>
       <c r="D383" s="18"/>
       <c r="E383" s="18"/>
       <c r="F383" s="19"/>
       <c r="G383" s="19"/>
     </row>
-    <row r="384" spans="3:101" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:101" x14ac:dyDescent="0.5">
       <c r="C384" s="18"/>
       <c r="D384" s="18"/>
       <c r="E384" s="18"/>
       <c r="F384" s="19"/>
       <c r="G384" s="19"/>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C385" s="18"/>
       <c r="D385" s="18"/>
       <c r="E385" s="18"/>
       <c r="F385" s="19"/>
       <c r="G385" s="19"/>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C386" s="18"/>
       <c r="D386" s="18"/>
       <c r="E386" s="18"/>
       <c r="F386" s="19"/>
       <c r="G386" s="19"/>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C387" s="18"/>
       <c r="D387" s="18"/>
       <c r="E387" s="18"/>
       <c r="F387" s="19"/>
       <c r="G387" s="19"/>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C388" s="18"/>
       <c r="D388" s="18"/>
       <c r="E388" s="18"/>
       <c r="F388" s="19"/>
       <c r="G388" s="19"/>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C389" s="18"/>
       <c r="D389" s="18"/>
       <c r="E389" s="18"/>
       <c r="F389" s="19"/>
       <c r="G389" s="19"/>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C390" s="18"/>
       <c r="D390" s="18"/>
       <c r="E390" s="18"/>
       <c r="F390" s="19"/>
       <c r="G390" s="19"/>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C391" s="18"/>
       <c r="D391" s="18"/>
       <c r="E391" s="18"/>
       <c r="F391" s="19"/>
       <c r="G391" s="19"/>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C392" s="18"/>
       <c r="D392" s="18"/>
       <c r="E392" s="18"/>
       <c r="F392" s="19"/>
       <c r="G392" s="19"/>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C393" s="18"/>
       <c r="D393" s="18"/>
       <c r="E393" s="18"/>
       <c r="F393" s="19"/>
       <c r="G393" s="19"/>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C394" s="18"/>
       <c r="D394" s="18"/>
       <c r="E394" s="18"/>
@@ -11664,9 +11766,9 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>77</v>
       </c>
@@ -11687,7 +11789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>8</v>
       </c>
@@ -11707,7 +11809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>36</v>
       </c>
@@ -11745,7 +11847,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>50</v>
       </c>
@@ -11783,7 +11885,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>64</v>
       </c>
@@ -11821,7 +11923,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>77</v>
       </c>
@@ -11859,7 +11961,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>91</v>
       </c>
@@ -11897,7 +11999,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>104</v>
       </c>
@@ -11935,7 +12037,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>117</v>
       </c>
@@ -11973,7 +12075,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>131</v>
       </c>
@@ -12011,7 +12113,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -12031,7 +12133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>8</v>
       </c>
@@ -12051,7 +12153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>36</v>
       </c>
@@ -12089,7 +12191,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>50</v>
       </c>
@@ -12127,7 +12229,7 @@
         <v>229.6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>64</v>
       </c>
@@ -12165,7 +12267,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>77</v>
       </c>
@@ -12203,7 +12305,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>91</v>
       </c>
@@ -12241,7 +12343,7 @@
         <v>700.7</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>104</v>
       </c>
@@ -12279,7 +12381,7 @@
         <v>864.4</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>117</v>
       </c>
@@ -12317,7 +12419,7 @@
         <v>793.9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>131</v>
       </c>
@@ -12355,7 +12457,7 @@
         <v>746.4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -12375,7 +12477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>8</v>
       </c>
@@ -12395,7 +12497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>36</v>
       </c>
@@ -12433,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>50</v>
       </c>
@@ -12471,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B25">
         <v>64</v>
       </c>
@@ -12509,7 +12611,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B26">
         <v>77</v>
       </c>
@@ -12547,7 +12649,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B27">
         <v>91</v>
       </c>
@@ -12585,7 +12687,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B28">
         <v>104</v>
       </c>
@@ -12623,7 +12725,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B29">
         <v>117</v>
       </c>
@@ -12661,7 +12763,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B30">
         <v>131</v>
       </c>
@@ -12699,7 +12801,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>80</v>
       </c>
@@ -12719,7 +12821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>8</v>
       </c>
@@ -12739,7 +12841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B33">
         <v>36</v>
       </c>
@@ -12777,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B34">
         <v>50</v>
       </c>
@@ -12815,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B35">
         <v>64</v>
       </c>
@@ -12853,7 +12955,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>77</v>
       </c>
@@ -12891,7 +12993,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B37">
         <v>91</v>
       </c>
@@ -12929,7 +13031,7 @@
         <v>259.3</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B38">
         <v>104</v>
       </c>
@@ -12967,7 +13069,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B39">
         <v>117</v>
       </c>
@@ -13005,7 +13107,7 @@
         <v>436.6</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B40">
         <v>131</v>
       </c>
@@ -13055,9 +13157,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>14</v>
       </c>
@@ -13065,7 +13167,7 @@
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>21</v>
       </c>
@@ -13073,7 +13175,7 @@
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>28</v>
       </c>
@@ -13081,7 +13183,7 @@
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>36</v>
       </c>
@@ -13089,7 +13191,7 @@
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>50</v>
       </c>
@@ -13097,7 +13199,7 @@
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>57</v>
       </c>
@@ -13105,7 +13207,7 @@
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>66</v>
       </c>
@@ -13113,7 +13215,7 @@
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>14</v>
       </c>
@@ -13121,7 +13223,7 @@
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>21</v>
       </c>
@@ -13129,7 +13231,7 @@
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>28</v>
       </c>
@@ -13137,7 +13239,7 @@
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>36</v>
       </c>
@@ -13145,7 +13247,7 @@
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>50</v>
       </c>
@@ -13153,7 +13255,7 @@
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>57</v>
       </c>
@@ -13161,7 +13263,7 @@
         <v>0.96878842686282296</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>66</v>
       </c>
@@ -13169,7 +13271,7 @@
         <v>0.98848228021902196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13177,7 +13279,7 @@
         <v>0.17231777051132799</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>21</v>
       </c>
@@ -13185,7 +13287,7 @@
         <v>0.52665686982701998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>28</v>
       </c>
@@ -13193,7 +13295,7 @@
         <v>0.78575800519434602</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>36</v>
       </c>
@@ -13201,7 +13303,7 @@
         <v>0.88946711074104901</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>50</v>
       </c>
@@ -13209,7 +13311,7 @@
         <v>0.96907792071728205</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>57</v>
       </c>
@@ -13217,7 +13319,7 @@
         <v>0.98757933510154305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>66</v>
       </c>
@@ -13225,7 +13327,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>14</v>
       </c>
@@ -13233,7 +13335,7 @@
         <v>0.22119398293916201</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -13241,7 +13343,7 @@
         <v>0.62816857916416202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>28</v>
       </c>
@@ -13249,7 +13351,7 @@
         <v>0.84465346207078995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>36</v>
       </c>
@@ -13257,7 +13359,7 @@
         <v>0.91580140170167201</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>50</v>
       </c>
@@ -13265,7 +13367,7 @@
         <v>0.98663503371914096</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>57</v>
       </c>
@@ -13273,7 +13375,7 @@
         <v>0.98884070118168599</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>66</v>
       </c>
@@ -13295,9 +13397,9 @@
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>87.960939116915199</v>
       </c>
@@ -13329,7 +13431,7 @@
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>90.047753418710698</v>
       </c>
@@ -13361,7 +13463,7 @@
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>88.674211639517196</v>
       </c>
@@ -13393,7 +13495,7 @@
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>88.371335833741398</v>
       </c>
@@ -13425,7 +13527,7 @@
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>275.31688381179299</v>
       </c>
@@ -13472,7 +13574,7 @@
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>273.45874074335802</v>
       </c>
@@ -13519,7 +13621,7 @@
         <v>1124.9410322956101</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>273.63592308973699</v>
       </c>
@@ -13566,7 +13668,7 @@
         <v>1297.83741710808</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>273.34819107425</v>
       </c>
@@ -13613,7 +13715,7 @@
         <v>-2.4079169318338201</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>398.36623742434398</v>
       </c>
@@ -13660,7 +13762,7 @@
         <v>-2.4973443832222899</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>395.29053361669003</v>
       </c>
@@ -13707,7 +13809,7 @@
         <v>0.40407959516369302</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>396.46266298504298</v>
       </c>
@@ -13754,7 +13856,7 @@
         <v>154.858536654609</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>395.28599047960302</v>
       </c>
@@ -13786,7 +13888,7 @@
         <v>451.29728949653298</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>590.30469306061002</v>
       </c>
@@ -13818,7 +13920,7 @@
         <v>580.99690316047895</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>590.30014992352301</v>
       </c>
@@ -13850,7 +13952,7 @@
         <v>710.696516824426</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>591.66460542854395</v>
       </c>
@@ -13876,7 +13978,7 @@
         <v>0.57361464420763097</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>588.78577089464397</v>
       </c>
@@ -13902,7 +14004,7 @@
         <v>0.46009256985709301</v>
       </c>
     </row>
-    <row r="21" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:25" x14ac:dyDescent="0.5">
       <c r="N21" t="s">
         <v>81</v>
       </c>
@@ -13937,7 +14039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:25" x14ac:dyDescent="0.5">
       <c r="N22">
         <f>1000000/O22/(Q22*10)</f>
         <v>339.21302578018992</v>
@@ -13978,7 +14080,7 @@
         <v>0.33709993123162102</v>
       </c>
     </row>
-    <row r="23" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O23">
         <v>8.8000000000000007</v>
       </c>
@@ -14015,7 +14117,7 @@
         <v>0.49428552661208058</v>
       </c>
     </row>
-    <row r="24" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O24">
         <v>8.8000000000000007</v>
       </c>
@@ -14052,7 +14154,7 @@
         <v>0.71905872816165339</v>
       </c>
     </row>
-    <row r="25" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O25">
         <v>8.8000000000000007</v>
       </c>
@@ -14089,7 +14191,7 @@
         <v>0.90390566683999418</v>
       </c>
     </row>
-    <row r="26" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O26">
         <v>27.3</v>
       </c>
@@ -14126,7 +14228,7 @@
         <v>0.19138975058773819</v>
       </c>
     </row>
-    <row r="27" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O27">
         <v>27.3</v>
       </c>
@@ -14163,7 +14265,7 @@
         <v>0.28063246204703179</v>
       </c>
     </row>
-    <row r="28" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O28">
         <v>27.3</v>
       </c>
@@ -14200,7 +14302,7 @@
         <v>0.40824829046386302</v>
       </c>
     </row>
-    <row r="29" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O29">
         <v>27.3</v>
       </c>
@@ -14237,7 +14339,7 @@
         <v>0.51319583335210683</v>
       </c>
     </row>
-    <row r="30" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O30">
         <v>39.4</v>
       </c>
@@ -14274,7 +14376,7 @@
         <v>0.15931324696929153</v>
       </c>
     </row>
-    <row r="31" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O31">
         <v>39.4</v>
       </c>
@@ -14311,7 +14413,7 @@
         <v>0.23359907516679454</v>
       </c>
     </row>
-    <row r="32" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O32">
         <v>39.4</v>
       </c>
@@ -14348,7 +14450,7 @@
         <v>0.33982676984389865</v>
       </c>
     </row>
-    <row r="33" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O33">
         <v>39.4</v>
       </c>
@@ -14385,7 +14487,7 @@
         <v>0.42718533407020198</v>
       </c>
     </row>
-    <row r="34" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O34">
         <v>58.8</v>
       </c>
@@ -14422,7 +14524,7 @@
         <v>0.13041013273932528</v>
       </c>
     </row>
-    <row r="35" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O35">
         <v>58.8</v>
       </c>
@@ -14459,7 +14561,7 @@
         <v>0.19121879052629775</v>
       </c>
     </row>
-    <row r="36" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O36">
         <v>58.8</v>
       </c>
@@ -14496,7 +14598,7 @@
         <v>0.27817432013209342</v>
       </c>
     </row>
-    <row r="37" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O37">
         <v>58.8</v>
       </c>
@@ -14548,9 +14650,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>92</v>
       </c>
@@ -14564,7 +14666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C4">
         <v>1</v>
       </c>
@@ -14576,7 +14678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C5">
         <f t="shared" ref="C5:C28" si="1">C4+1</f>
         <v>2</v>
@@ -14589,7 +14691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -14607,7 +14709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -14625,7 +14727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -14643,7 +14745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -14661,7 +14763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -14679,7 +14781,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -14697,7 +14799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -14715,7 +14817,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C13">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -14733,7 +14835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -14751,7 +14853,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -14769,7 +14871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C16">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -14787,7 +14889,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -14805,7 +14907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C18">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -14823,7 +14925,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C19">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -14837,7 +14939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C20">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -14851,7 +14953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C21">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -14865,7 +14967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C22">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -14879,7 +14981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -14893,7 +14995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C24">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -14907,7 +15009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C25">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -14921,7 +15023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C26">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -14935,7 +15037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C27">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -14949,7 +15051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -14978,9 +15080,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -14997,7 +15099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>21.871898300941201</v>
       </c>
@@ -15011,7 +15113,7 @@
         <v>6.1240529132300298E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>43.262926292629203</v>
       </c>
@@ -15025,7 +15127,7 @@
         <v>0.26675173522191198</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>64.313409118689606</v>
       </c>
@@ -15042,7 +15144,7 @@
         <v>13.2019764924468</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>85.057572423908994</v>
       </c>
@@ -15059,7 +15161,7 @@
         <v>135.990635419364</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>105.993399339934</v>
       </c>
@@ -15076,7 +15178,7 @@
         <v>344.916351444062</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>147.98484292873701</v>
       </c>
@@ -15093,7 +15195,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>22.055005500549999</v>
       </c>
@@ -15107,7 +15209,7 @@
         <v>7.9806962081206301E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>42.785478547854702</v>
       </c>
@@ -15121,7 +15223,7 @@
         <v>0.39135214849613997</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>63.894144970052501</v>
       </c>
@@ -15138,7 +15240,7 @@
         <v>8.3883471301619394</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B11">
         <v>84.621195452878595</v>
       </c>
@@ -15155,7 +15257,7 @@
         <v>118.457139958836</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>105.681945972375</v>
       </c>
@@ -15172,7 +15274,7 @@
         <v>290.72191092970399</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>147.97799779977899</v>
       </c>
@@ -15189,7 +15291,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>21.7195941816403</v>
       </c>
@@ -15203,7 +15305,7 @@
         <v>0.15572843997809899</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>42.812859063684101</v>
       </c>
@@ -15217,7 +15319,7 @@
         <v>0.51551102947669503</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>64.049871653832</v>
       </c>
@@ -15234,7 +15336,7 @@
         <v>6.7943929973866899</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>84.929226255958895</v>
       </c>
@@ -15251,7 +15353,7 @@
         <v>112.049556463776</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>105.849651631829</v>
       </c>
@@ -15268,7 +15370,7 @@
         <v>153.61008854707501</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>147.80002444688901</v>
       </c>
@@ -15285,7 +15387,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>22.231267571201499</v>
       </c>
@@ -15300,7 +15402,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B21">
         <v>43.199608849773803</v>
       </c>
@@ -15315,7 +15417,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B22">
         <v>64.135435765798803</v>
       </c>
@@ -15333,7 +15435,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>85.391272460579302</v>
       </c>
@@ -15351,7 +15453,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>106.26035936927001</v>
       </c>
@@ -15369,7 +15471,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B25">
         <v>149.03214765921001</v>
       </c>
@@ -15386,7 +15488,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B26">
         <v>21.906123945727899</v>
       </c>
@@ -15401,7 +15503,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B27">
         <v>43.223566801124498</v>
       </c>
@@ -15416,7 +15518,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B28">
         <v>64.641975308641904</v>
       </c>
@@ -15434,7 +15536,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B29">
         <v>85.276616550543906</v>
       </c>
@@ -15452,7 +15554,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B30">
         <v>106.037892678156</v>
       </c>
@@ -15470,7 +15572,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B31">
         <v>147.88045471213701</v>
       </c>
@@ -15487,7 +15589,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B32">
         <v>21.760664955384399</v>
       </c>
@@ -15502,7 +15604,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B33">
         <v>42.766654443222102</v>
       </c>
@@ -15517,7 +15619,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B34">
         <v>63.459479281261402</v>
       </c>
@@ -15535,7 +15637,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B35">
         <v>85.057572423908994</v>
       </c>
@@ -15553,7 +15655,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>105.95575113066801</v>
       </c>
@@ -15571,7 +15673,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B37">
         <v>148.26035936926999</v>
       </c>
@@ -15602,9 +15704,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>28.087146331139401</v>
       </c>
@@ -15618,7 +15720,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>41.896237768389902</v>
       </c>
@@ -15647,7 +15749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>54.914970079759598</v>
       </c>
@@ -15672,7 +15774,7 @@
         <v>24.734753777584501</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>74.950724974478504</v>
       </c>
@@ -15703,7 +15805,7 @@
         <v>52.430744977531901</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>90.053997526704094</v>
       </c>
@@ -15734,7 +15836,7 @@
         <v>110.07805458869541</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>106.157477570194</v>
       </c>
@@ -15765,7 +15867,7 @@
         <v>215.09959196103651</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>28.187538904612101</v>
       </c>
@@ -15796,7 +15898,7 @@
         <v>256.99515305663198</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>41.997559902728099</v>
       </c>
@@ -15827,7 +15929,7 @@
         <v>319.30050346738301</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>54.915899640625099</v>
       </c>
@@ -15852,7 +15954,7 @@
         <v>27.319273834112298</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>74.951654535344005</v>
       </c>
@@ -15883,7 +15985,7 @@
         <v>68.55233816419927</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>89.865993841659204</v>
       </c>
@@ -15914,7 +16016,7 @@
         <v>125.65467243811909</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>106.047324607634</v>
       </c>
@@ -15945,7 +16047,7 @@
         <v>240.56460123216399</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>27.784109488990499</v>
       </c>
@@ -15976,7 +16078,7 @@
         <v>298.15629620329099</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>41.992447317967901</v>
       </c>
@@ -16007,7 +16109,7 @@
         <v>327.09654404821424</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>55.207549362171797</v>
       </c>
@@ -16032,7 +16134,7 @@
         <v>16.430491456581201</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>75.043448670810903</v>
       </c>
@@ -16063,7 +16165,7 @@
         <v>49.005618213657058</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>90.054462307136802</v>
       </c>
@@ -16094,7 +16196,7 @@
         <v>91.869781064637493</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>27.979782051175601</v>
       </c>
@@ -16125,7 +16227,7 @@
         <v>217.0976587446427</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>41.970835027845297</v>
       </c>
@@ -16156,7 +16258,7 @@
         <v>295.09983520714297</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>55.064396988886699</v>
       </c>
@@ -16181,7 +16283,7 @@
         <v>33.757226576011199</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>74.774108410035893</v>
       </c>
@@ -16212,7 +16314,7 @@
         <v>65.791824770872907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>89.880866815507005</v>
       </c>
@@ -16243,7 +16345,7 @@
         <v>93.131376048393804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>105.885581017039</v>
       </c>
@@ -16274,7 +16376,7 @@
         <v>229.94465909246099</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>42.1713877845742</v>
       </c>
@@ -16305,7 +16407,7 @@
         <v>253.33346900617889</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>55.168275415605002</v>
       </c>
@@ -16313,7 +16415,7 @@
         <v>0.633145484575102</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>74.888676786707293</v>
       </c>
@@ -16321,7 +16423,7 @@
         <v>3.56457211151411</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>89.903176276278799</v>
       </c>
@@ -16329,7 +16431,7 @@
         <v>5.7086233369575101</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>105.794251662005</v>
       </c>
@@ -16337,7 +16439,7 @@
         <v>5.9148464149659299</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>42.0707628208852</v>
       </c>
@@ -16345,7 +16447,7 @@
         <v>4.9368811573035701E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>54.969349390390597</v>
       </c>
@@ -16353,7 +16455,7 @@
         <v>0.71235568982546105</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>75.082722617377797</v>
       </c>
@@ -16361,7 +16463,7 @@
         <v>3.0702490725140499</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>89.788375509391003</v>
       </c>
@@ -16383,12 +16485,12 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -16405,7 +16507,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="6">
         <f>DATE(1989,12,18)+35</f>
         <v>32895</v>
@@ -16427,7 +16529,7 @@
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="6">
         <f>DATE(1989,12,18)+56</f>
         <v>32916</v>
@@ -16449,7 +16551,7 @@
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <f>DATE(1989,12,18)+77</f>
         <v>32937</v>
@@ -16477,7 +16579,7 @@
         <v>62.207604809879697</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <f>DATE(1989,12,18)+112</f>
         <v>32972</v>
@@ -16505,7 +16607,7 @@
         <v>58.288462788430202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M6">
         <v>28.912577185570299</v>
       </c>
@@ -16513,7 +16615,7 @@
         <v>90.993045173870598</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M7">
         <v>34.596035099122503</v>
       </c>
@@ -16521,7 +16623,7 @@
         <v>70.331881702957403</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M8">
         <v>37.455313617159497</v>
       </c>
@@ -16529,7 +16631,7 @@
         <v>62.654793630159197</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M9">
         <v>41.112122196945002</v>
       </c>
@@ -16537,7 +16639,7 @@
         <v>55.564250893727603</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M10">
         <v>45.311667208319697</v>
       </c>
@@ -16545,7 +16647,7 @@
         <v>50.5354566135846</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M11">
         <v>51.347416314592103</v>
       </c>
@@ -16553,7 +16655,7 @@
         <v>43.140721481962899</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M12">
         <v>58.410139746506303</v>
       </c>
@@ -16561,7 +16663,7 @@
         <v>31.024504387390301</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M13">
         <v>64.963275918101999</v>
       </c>
@@ -16569,7 +16671,7 @@
         <v>21.858693532661601</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M14">
         <v>72.074748131296701</v>
       </c>
@@ -16577,7 +16679,7 @@
         <v>17.1132921676958</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M15">
         <v>80.005199870003196</v>
       </c>
@@ -16585,7 +16687,7 @@
         <v>16.197595060123501</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M16">
         <v>86.042898927526707</v>
       </c>
@@ -16593,7 +16695,7 @@
         <v>9.0976925576860594</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.5">
       <c r="M17">
         <v>96.830679233019097</v>
       </c>
@@ -16601,7 +16703,7 @@
         <v>0.21007474813129001</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.5">
       <c r="M18">
         <v>106.877478063048</v>
       </c>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1D463-EB06-4215-A026-3BA62A38D876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884210BE-B9EF-4BDD-AE43-7F0AC3B17E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="151">
   <si>
     <t>SimulationName</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t>Roseworthy96SowDec11CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowOct04CvVB97</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowNov07CvVB97</t>
+  </si>
+  <si>
+    <t>Roseworthy96SowDec11CvVB97</t>
   </si>
 </sst>
 </file>
@@ -3594,7 +3603,7 @@
     <sheetView tabSelected="1" topLeftCell="G254" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10170" activePane="topRight"/>
       <selection activeCell="I255" sqref="I255"/>
-      <selection pane="topRight" activeCell="A255" sqref="A255:A260"/>
+      <selection pane="topRight" activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11141,13 +11150,55 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="I261" s="8"/>
+      <c r="A261" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E261" s="8">
+        <v>35342</v>
+      </c>
+      <c r="H261" s="22">
+        <v>18</v>
+      </c>
+      <c r="I261" s="22">
+        <v>61</v>
+      </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="I262" s="8"/>
+      <c r="A262" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E262" s="8">
+        <v>35376</v>
+      </c>
+      <c r="H262" s="22">
+        <v>11</v>
+      </c>
+      <c r="I262" s="22">
+        <v>46</v>
+      </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="I263" s="8"/>
+      <c r="A263" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E263" s="8">
+        <v>35410</v>
+      </c>
+      <c r="H263" s="22">
+        <v>10</v>
+      </c>
+      <c r="I263" s="22">
+        <v>41</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I264" s="8"/>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884210BE-B9EF-4BDD-AE43-7F0AC3B17E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8905039-24A5-43D5-9BA1-CF9151B50236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Rainout" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Observed!$A$1:$CW$394</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Observed!$A$1:$CX$394</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="155">
   <si>
     <t>SimulationName</t>
   </si>
@@ -498,6 +498,18 @@
   <si>
     <t>Roseworthy96SowDec11CvVB97</t>
   </si>
+  <si>
+    <t>Peanut.Leaf.Number</t>
+  </si>
+  <si>
+    <t>Peanut.Leaf.Height</t>
+  </si>
+  <si>
+    <t>Headland88CvFlorunner</t>
+  </si>
+  <si>
+    <t>AvgLeafSize</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -537,6 +549,13 @@
       <name val="MS Sans Serif"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,7 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -598,6 +617,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3598,94 +3618,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ394"/>
+  <dimension ref="A1:AMK394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G254" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10170" activePane="topRight"/>
-      <selection activeCell="I255" sqref="I255"/>
-      <selection pane="topRight" activeCell="I262" sqref="I262"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="P263" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AC270" sqref="AC270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="34.234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.52734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="34.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.234375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="32" style="1" customWidth="1"/>
-    <col min="12" max="14" width="28.87890625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1171875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.234375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1171875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.64453125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="14.1171875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.234375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.64453125" style="1" customWidth="1"/>
-    <col min="24" max="25" width="14.1171875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.87890625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.87890625" customWidth="1"/>
-    <col min="28" max="29" width="14.41015625" customWidth="1"/>
-    <col min="30" max="30" width="15.1171875" customWidth="1"/>
-    <col min="31" max="32" width="15" customWidth="1"/>
-    <col min="33" max="34" width="21.87890625" customWidth="1"/>
-    <col min="35" max="35" width="20.52734375" customWidth="1"/>
-    <col min="36" max="37" width="21.64453125" customWidth="1"/>
-    <col min="38" max="38" width="17.64453125" customWidth="1"/>
-    <col min="39" max="39" width="16.41015625" customWidth="1"/>
-    <col min="40" max="40" width="17.234375" customWidth="1"/>
-    <col min="41" max="41" width="18" customWidth="1"/>
-    <col min="42" max="42" width="16.52734375" customWidth="1"/>
-    <col min="43" max="44" width="17.64453125" customWidth="1"/>
-    <col min="45" max="45" width="13.64453125" customWidth="1"/>
-    <col min="46" max="46" width="12.64453125" customWidth="1"/>
-    <col min="47" max="47" width="13.234375" customWidth="1"/>
-    <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="51" width="20.64453125" customWidth="1"/>
-    <col min="52" max="52" width="9.234375" customWidth="1"/>
-    <col min="53" max="53" width="14.64453125" customWidth="1"/>
-    <col min="54" max="54" width="13.87890625" customWidth="1"/>
-    <col min="55" max="55" width="17" customWidth="1"/>
-    <col min="56" max="56" width="5.64453125" customWidth="1"/>
-    <col min="57" max="57" width="8.1171875" customWidth="1"/>
-    <col min="58" max="58" width="14" customWidth="1"/>
-    <col min="59" max="59" width="14.234375" customWidth="1"/>
-    <col min="60" max="60" width="10.64453125" customWidth="1"/>
-    <col min="61" max="61" width="10.52734375" customWidth="1"/>
-    <col min="62" max="62" width="6.52734375" customWidth="1"/>
-    <col min="63" max="63" width="7.52734375" customWidth="1"/>
-    <col min="64" max="64" width="14.87890625" customWidth="1"/>
-    <col min="65" max="65" width="17.41015625" customWidth="1"/>
-    <col min="66" max="66" width="14.1171875" customWidth="1"/>
-    <col min="67" max="67" width="15.1171875" customWidth="1"/>
-    <col min="68" max="68" width="14.64453125" customWidth="1"/>
-    <col min="69" max="69" width="15" customWidth="1"/>
-    <col min="70" max="70" width="11.64453125" customWidth="1"/>
-    <col min="71" max="71" width="11.234375" customWidth="1"/>
-    <col min="72" max="72" width="17.64453125" customWidth="1"/>
-    <col min="73" max="73" width="20.234375" customWidth="1"/>
-    <col min="74" max="74" width="18.41015625" customWidth="1"/>
-    <col min="75" max="75" width="17.234375" customWidth="1"/>
-    <col min="76" max="76" width="17.41015625" customWidth="1"/>
-    <col min="77" max="77" width="18.1171875" customWidth="1"/>
-    <col min="78" max="78" width="13.64453125" customWidth="1"/>
-    <col min="79" max="79" width="16.234375" customWidth="1"/>
-    <col min="80" max="80" width="14.1171875" customWidth="1"/>
-    <col min="81" max="81" width="14.41015625" customWidth="1"/>
-    <col min="82" max="82" width="13.87890625" customWidth="1"/>
-    <col min="83" max="83" width="10.64453125" customWidth="1"/>
-    <col min="84" max="84" width="18.64453125" customWidth="1"/>
-    <col min="85" max="85" width="13.41015625" customWidth="1"/>
-    <col min="86" max="86" width="18.64453125" customWidth="1"/>
-    <col min="87" max="87" width="18" customWidth="1"/>
-    <col min="88" max="88" width="10.87890625" customWidth="1"/>
-    <col min="89" max="89" width="9.87890625" customWidth="1"/>
-    <col min="90" max="90" width="12.1171875" customWidth="1"/>
-    <col min="94" max="1024" width="9.1171875" style="1"/>
+    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="32" style="1" customWidth="1"/>
+    <col min="13" max="15" width="28.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.21875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="14.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="14.109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.88671875" customWidth="1"/>
+    <col min="29" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="31" width="15.109375" customWidth="1"/>
+    <col min="32" max="33" width="15" customWidth="1"/>
+    <col min="34" max="35" width="21.88671875" customWidth="1"/>
+    <col min="36" max="36" width="20.5546875" customWidth="1"/>
+    <col min="37" max="38" width="21.6640625" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" customWidth="1"/>
+    <col min="40" max="40" width="16.44140625" customWidth="1"/>
+    <col min="41" max="41" width="17.21875" customWidth="1"/>
+    <col min="42" max="42" width="18" customWidth="1"/>
+    <col min="43" max="43" width="16.5546875" customWidth="1"/>
+    <col min="44" max="45" width="17.6640625" customWidth="1"/>
+    <col min="46" max="46" width="13.6640625" customWidth="1"/>
+    <col min="47" max="47" width="12.6640625" customWidth="1"/>
+    <col min="48" max="48" width="13.21875" customWidth="1"/>
+    <col min="49" max="49" width="14" customWidth="1"/>
+    <col min="50" max="52" width="20.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.21875" customWidth="1"/>
+    <col min="54" max="54" width="14.6640625" customWidth="1"/>
+    <col min="55" max="55" width="13.88671875" customWidth="1"/>
+    <col min="56" max="56" width="17" customWidth="1"/>
+    <col min="57" max="57" width="5.6640625" customWidth="1"/>
+    <col min="58" max="58" width="8.109375" customWidth="1"/>
+    <col min="59" max="59" width="14" customWidth="1"/>
+    <col min="60" max="60" width="14.21875" customWidth="1"/>
+    <col min="61" max="61" width="10.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.5546875" customWidth="1"/>
+    <col min="63" max="63" width="6.5546875" customWidth="1"/>
+    <col min="64" max="64" width="7.5546875" customWidth="1"/>
+    <col min="65" max="65" width="14.88671875" customWidth="1"/>
+    <col min="66" max="66" width="17.44140625" customWidth="1"/>
+    <col min="67" max="67" width="14.109375" customWidth="1"/>
+    <col min="68" max="68" width="15.109375" customWidth="1"/>
+    <col min="69" max="69" width="14.6640625" customWidth="1"/>
+    <col min="70" max="70" width="15" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" customWidth="1"/>
+    <col min="72" max="72" width="11.21875" customWidth="1"/>
+    <col min="73" max="73" width="17.6640625" customWidth="1"/>
+    <col min="74" max="74" width="20.21875" customWidth="1"/>
+    <col min="75" max="75" width="18.44140625" customWidth="1"/>
+    <col min="76" max="76" width="17.21875" customWidth="1"/>
+    <col min="77" max="77" width="17.44140625" customWidth="1"/>
+    <col min="78" max="78" width="18.109375" customWidth="1"/>
+    <col min="79" max="79" width="13.6640625" customWidth="1"/>
+    <col min="80" max="80" width="16.21875" customWidth="1"/>
+    <col min="81" max="81" width="14.109375" customWidth="1"/>
+    <col min="82" max="82" width="14.44140625" customWidth="1"/>
+    <col min="83" max="83" width="13.88671875" customWidth="1"/>
+    <col min="84" max="84" width="10.6640625" customWidth="1"/>
+    <col min="85" max="85" width="18.6640625" customWidth="1"/>
+    <col min="86" max="86" width="13.44140625" customWidth="1"/>
+    <col min="87" max="87" width="18.6640625" customWidth="1"/>
+    <col min="88" max="88" width="18" customWidth="1"/>
+    <col min="89" max="89" width="10.88671875" customWidth="1"/>
+    <col min="90" max="90" width="9.88671875" customWidth="1"/>
+    <col min="91" max="91" width="12.109375" customWidth="1"/>
+    <col min="95" max="1025" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3720,52 +3741,61 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AB1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -3782,14 +3812,14 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="6"/>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.65</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>68.141720896601498</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3806,14 +3836,14 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1.55</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>196.31271714018601</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -3830,14 +3860,14 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1.64</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>292.38382448900398</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -3856,14 +3886,14 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.3</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>298.91892845175698</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3881,17 +3911,17 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>59.296189630416698</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>2.4734753777584499</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -3909,20 +3939,20 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>4.9439358603006403</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>4.767776490674E-2</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>220.41431855718901</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>5.2430744977531898</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -3940,20 +3970,20 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>29.7172309045791</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>0.88705616793873998</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>458.681268518595</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>11.0078054588695</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -3974,20 +4004,21 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="S9" s="1">
+      <c r="L9" s="6"/>
+      <c r="T9" s="1">
         <v>231.93041572949701</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>7.2106035349152497</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>884.24352834745696</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>21.509959196103701</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -4005,20 +4036,20 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>381.09646683874598</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>13.138243823585199</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>1003.75866276029</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>25.699515305663201</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -4038,24 +4069,24 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>518.33865894245798</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>19.886690890671002</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>1131.1101612622101</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>31.930050346738302</v>
       </c>
-      <c r="Z11" s="1">
-        <f>S11/X11</f>
+      <c r="AA11" s="1">
+        <f>T11/Y11</f>
         <v>0.45825656659652136</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -4073,17 +4104,17 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>63.242590486940699</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>2.7319273834112301</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -4101,20 +4132,20 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>10.860009793588</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>0.10893234096311601</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>232.26763053275499</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>6.85523381641993</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -4132,20 +4163,20 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>63.314548457510199</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>2.02296756499311</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>466.58817963763698</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>12.5654672438119</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -4163,20 +4194,20 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>356.457211151411</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>11.4835075295551</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>892.15043946649905</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>24.0564601232164</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -4194,20 +4225,20 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>570.86233369575098</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>19.362235476696899</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>1104.58588893407</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>29.815629620329101</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -4227,24 +4258,24 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>591.48464149659299</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>23.8488493766069</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>1044.1411936557399</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>32.7096544048214</v>
       </c>
-      <c r="Z17" s="1">
-        <f>S17/X17</f>
+      <c r="AA17" s="1">
+        <f>T17/Y17</f>
         <v>0.56647955764075453</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -4262,17 +4293,17 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>31.6431648227613</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>1.64304914565812</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -4293,20 +4324,21 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="S19" s="1">
+      <c r="L19" s="6"/>
+      <c r="T19" s="1">
         <v>4.9368811573035698</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>0.48111405530418599</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>188.77961937802399</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>4.9005618213657103</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -4324,20 +4356,20 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>71.235568982546098</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>2.28172160625128</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>397.38154323702997</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -4355,20 +4387,20 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>307.02490725140501</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>11.8276047699964</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>822.95791247188504</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>21.709765874464299</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -4388,24 +4420,24 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>444.358810494078</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>19.253893431870701</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>1007.71211831981</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>29.5099835207143</v>
       </c>
-      <c r="Z22" s="1">
-        <f>S22/X22</f>
+      <c r="AA22" s="1">
+        <f>T22/Y22</f>
         <v>0.44095808953351817</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -4423,7 +4455,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -4441,11 +4473,11 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -4463,14 +4495,14 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6"/>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>0.62716694180183996</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>6.57918247708729</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -4488,14 +4520,14 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="6"/>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>1.7497512683798899</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4513,14 +4545,14 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6"/>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>12.7087579765657</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -4540,14 +4572,14 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6"/>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>16.912347582510201</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>25.333346900617901</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -4567,8 +4599,9 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -4593,14 +4626,14 @@
       <c r="J30" s="1">
         <v>161</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>6.1240529132300298E-2</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Y30" s="1">
         <v>2.9336266960030999</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4625,14 +4658,14 @@
       <c r="J31" s="1">
         <v>161</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>0.26675173522191198</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y31" s="1">
         <v>27.781444811147999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -4657,17 +4690,17 @@
       <c r="J32" s="1">
         <v>161</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>1.03647498278024</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>13.2019764924468</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y32" s="1">
         <v>171.523285661899</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -4692,17 +4725,17 @@
       <c r="J33" s="1">
         <v>161</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>1.90190035499196</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>135.990635419364</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Y33" s="1">
         <v>458.39090575724202</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -4727,17 +4760,17 @@
       <c r="J34" s="1">
         <v>161</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>1.6482400522774201</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>344.916351444062</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Y34" s="1">
         <v>640.95636230289699</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -4767,21 +4800,21 @@
       <c r="K35" s="1">
         <v>24</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>1.93499320040267</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>478</v>
       </c>
-      <c r="X35" s="1">
+      <c r="Y35" s="1">
         <v>850.89842317565103</v>
       </c>
-      <c r="Z35" s="1">
-        <f>S35/X35</f>
+      <c r="AA35" s="1">
+        <f>T35/Y35</f>
         <v>0.56175917945181852</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -4806,14 +4839,14 @@
       <c r="J36" s="1">
         <v>161</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>7.9806962081206301E-2</v>
       </c>
-      <c r="X36" s="1">
+      <c r="Y36" s="1">
         <v>12.5735240190683</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -4838,14 +4871,14 @@
       <c r="J37" s="1">
         <v>161</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>0.39135214849613997</v>
       </c>
-      <c r="X37" s="1">
+      <c r="Y37" s="1">
         <v>49.748441510817599</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -4870,17 +4903,17 @@
       <c r="J38" s="1">
         <v>161</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>1.39005404355274</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>8.3883471301619394</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Y38" s="1">
         <v>234.68426842684201</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -4906,17 +4939,18 @@
         <v>161</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="1">
+      <c r="L39" s="6"/>
+      <c r="M39" s="1">
         <v>1.8825612405291301</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>118.457139958836</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Y39" s="1">
         <v>509.43601026769301</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
@@ -4941,17 +4975,17 @@
       <c r="J40" s="1">
         <v>161</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>2.0975212377033201</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>290.72191092970399</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Y40" s="1">
         <v>660.44737807113995</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4981,21 +5015,21 @@
       <c r="K41" s="1">
         <v>21</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>1.7438097172427101</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>271</v>
       </c>
-      <c r="X41" s="1">
+      <c r="Y41" s="1">
         <v>606.05207187385395</v>
       </c>
-      <c r="Z41" s="1">
-        <f>S41/X41</f>
+      <c r="AA41" s="1">
+        <f>T41/Y41</f>
         <v>0.44715629659031508</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -5020,14 +5054,14 @@
       <c r="J42" s="1">
         <v>161</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>0.15572843997809899</v>
       </c>
-      <c r="X42" s="1">
+      <c r="Y42" s="1">
         <v>15.1023102310232</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -5052,14 +5086,14 @@
       <c r="J43" s="1">
         <v>161</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>0.51551102947669503</v>
       </c>
-      <c r="X43" s="1">
+      <c r="Y43" s="1">
         <v>69.133846718005003</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
@@ -5084,17 +5118,17 @@
       <c r="J44" s="1">
         <v>161</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>1.1990913265396199</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <v>6.7943929973866899</v>
       </c>
-      <c r="X44" s="1">
+      <c r="Y44" s="1">
         <v>224.93876054272101</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
@@ -5119,17 +5153,17 @@
       <c r="J45" s="1">
         <v>161</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>2.0834142809205001</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <v>112.049556463776</v>
       </c>
-      <c r="X45" s="1">
+      <c r="Y45" s="1">
         <v>487.52181884855099</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
@@ -5154,17 +5188,17 @@
       <c r="J46" s="1">
         <v>161</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>1.7725093163313901</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T46" s="1">
         <v>153.61008854707501</v>
       </c>
-      <c r="X46" s="1">
+      <c r="Y46" s="1">
         <v>539.18298496516297</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>34</v>
       </c>
@@ -5194,21 +5228,22 @@
       <c r="K47" s="7">
         <v>19</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="7"/>
+      <c r="M47" s="1">
         <v>2.96760477561328</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>248</v>
       </c>
-      <c r="X47" s="1">
+      <c r="Y47" s="1">
         <v>720.04693802713598</v>
       </c>
-      <c r="Z47" s="1">
-        <f>S47/X47</f>
+      <c r="AA47" s="1">
+        <f>T47/Y47</f>
         <v>0.34442199098783444</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>35</v>
       </c>
@@ -5233,14 +5268,14 @@
       <c r="J48" s="1">
         <v>161</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>0.205180056869359</v>
       </c>
-      <c r="X48" s="1">
+      <c r="Y48" s="1">
         <v>17.367070040337399</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -5265,14 +5300,14 @@
       <c r="J49" s="1">
         <v>161</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>0.72603362709948605</v>
       </c>
-      <c r="X49" s="1">
+      <c r="Y49" s="1">
         <v>102.952695269526</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>35</v>
       </c>
@@ -5297,17 +5332,17 @@
       <c r="J50" s="1">
         <v>161</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>1.7628618357146599</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>27.4204958315872</v>
       </c>
-      <c r="X50" s="1">
+      <c r="Y50" s="1">
         <v>285.518151815181</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>35</v>
       </c>
@@ -5332,17 +5367,17 @@
       <c r="J51" s="1">
         <v>161</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>2.4757819536920902</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <v>163.151389604461</v>
       </c>
-      <c r="X51" s="1">
+      <c r="Y51" s="1">
         <v>574.650531719838</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>35</v>
       </c>
@@ -5367,17 +5402,17 @@
       <c r="J52" s="1">
         <v>161</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>3.07255700181911</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T52" s="1">
         <v>194.957595107353</v>
       </c>
-      <c r="X52" s="1">
+      <c r="Y52" s="1">
         <v>589.964063072974</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>35</v>
       </c>
@@ -5407,21 +5442,21 @@
       <c r="K53" s="1">
         <v>18</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>2.9960615319404398</v>
       </c>
-      <c r="S53" s="1">
+      <c r="T53" s="1">
         <v>381</v>
       </c>
-      <c r="X53" s="1">
+      <c r="Y53" s="1">
         <v>872.39017235056804</v>
       </c>
-      <c r="Z53" s="1">
-        <f>S53/X53</f>
+      <c r="AA53" s="1">
+        <f>T53/Y53</f>
         <v>0.43673119216076633</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -5446,14 +5481,14 @@
       <c r="J54" s="1">
         <v>161</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>0.21385616644001201</v>
       </c>
-      <c r="X54" s="1">
+      <c r="Y54" s="1">
         <v>27.1653832049873</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>36</v>
       </c>
@@ -5478,14 +5513,14 @@
       <c r="J55" s="1">
         <v>161</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>0.93622507550202105</v>
       </c>
-      <c r="X55" s="1">
+      <c r="Y55" s="1">
         <v>119.91492482581501</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>36</v>
       </c>
@@ -5510,17 +5545,17 @@
       <c r="J56" s="1">
         <v>161</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>2.4512327581639299</v>
       </c>
-      <c r="S56" s="1">
+      <c r="T56" s="1">
         <v>24.391422385832598</v>
       </c>
-      <c r="X56" s="1">
+      <c r="Y56" s="1">
         <v>404.14814814814798</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -5545,17 +5580,17 @@
       <c r="J57" s="1">
         <v>161</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>3.0871275675102798</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <v>89.638897713045694</v>
       </c>
-      <c r="X57" s="1">
+      <c r="Y57" s="1">
         <v>613.47414741474097</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
@@ -5581,17 +5616,18 @@
         <v>161</v>
       </c>
       <c r="K58" s="8"/>
-      <c r="L58" s="1">
+      <c r="L58" s="8"/>
+      <c r="M58" s="1">
         <v>2.6042678511506301</v>
       </c>
-      <c r="S58" s="1">
+      <c r="T58" s="1">
         <v>204.553086867964</v>
       </c>
-      <c r="X58" s="1">
+      <c r="Y58" s="1">
         <v>672.457645764576</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -5621,21 +5657,21 @@
       <c r="K59" s="1">
         <v>16</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>3.70366118577912</v>
       </c>
-      <c r="S59" s="1">
+      <c r="T59" s="1">
         <v>307</v>
       </c>
-      <c r="X59" s="1">
+      <c r="Y59" s="1">
         <v>896.99156582324895</v>
       </c>
-      <c r="Z59" s="1">
-        <f>S59/X59</f>
+      <c r="AA59" s="1">
+        <f>T59/Y59</f>
         <v>0.34225516905305436</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
@@ -5660,14 +5696,14 @@
       <c r="J60" s="1">
         <v>161</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>0.27198389290192698</v>
       </c>
-      <c r="X60" s="1">
+      <c r="Y60" s="1">
         <v>44.180418041804103</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -5692,14 +5728,14 @@
       <c r="J61" s="1">
         <v>161</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>1.1547614842549501</v>
       </c>
-      <c r="X61" s="1">
+      <c r="Y61" s="1">
         <v>156.42097543087601</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>37</v>
       </c>
@@ -5724,17 +5760,17 @@
       <c r="J62" s="1">
         <v>161</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>2.45145352431076</v>
       </c>
-      <c r="S62" s="1">
+      <c r="T62" s="1">
         <v>16.421651721956401</v>
       </c>
-      <c r="X62" s="1">
+      <c r="Y62" s="1">
         <v>406.94096076274201</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
@@ -5759,17 +5795,17 @@
       <c r="J63" s="1">
         <v>161</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>2.9339600148354799</v>
       </c>
-      <c r="S63" s="1">
+      <c r="T63" s="1">
         <v>151.80310889127901</v>
       </c>
-      <c r="X63" s="1">
+      <c r="Y63" s="1">
         <v>698.39090575724197</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>37</v>
       </c>
@@ -5794,17 +5830,17 @@
       <c r="J64" s="1">
         <v>161</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>2.99597322548171</v>
       </c>
-      <c r="S64" s="1">
+      <c r="T64" s="1">
         <v>145.60855091923901</v>
       </c>
-      <c r="X64" s="1">
+      <c r="Y64" s="1">
         <v>614.30143014301404</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -5834,21 +5870,22 @@
       <c r="K65" s="2">
         <v>15</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65" s="2"/>
+      <c r="M65" s="1">
         <v>3.5699431306405698</v>
       </c>
-      <c r="S65" s="1">
+      <c r="T65" s="1">
         <v>323</v>
       </c>
-      <c r="X65" s="1">
+      <c r="Y65" s="1">
         <v>925.964063072974</v>
       </c>
-      <c r="Z65" s="1">
-        <f>S65/X65</f>
+      <c r="AA65" s="1">
+        <f>T65/Y65</f>
         <v>0.34882563252840276</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>38</v>
       </c>
@@ -5873,11 +5910,12 @@
       </c>
       <c r="I66" s="7"/>
       <c r="K66" s="2"/>
-      <c r="X66" s="1">
+      <c r="L66" s="2"/>
+      <c r="Y66" s="1">
         <v>14.1576376953573</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>38</v>
       </c>
@@ -5902,11 +5940,12 @@
       </c>
       <c r="I67" s="7"/>
       <c r="K67" s="2"/>
-      <c r="X67" s="1">
+      <c r="L67" s="2"/>
+      <c r="Y67" s="1">
         <v>38.1365759029174</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
@@ -5931,11 +5970,12 @@
       </c>
       <c r="I68" s="7"/>
       <c r="K68" s="2"/>
-      <c r="X68" s="1">
+      <c r="L68" s="2"/>
+      <c r="Y68" s="1">
         <v>103.251645148664</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>38</v>
       </c>
@@ -5960,11 +6000,12 @@
       </c>
       <c r="I69" s="7"/>
       <c r="K69" s="2"/>
-      <c r="X69" s="1">
+      <c r="L69" s="2"/>
+      <c r="Y69" s="1">
         <v>269.36486443780501</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
@@ -5989,11 +6030,12 @@
       </c>
       <c r="I70" s="7"/>
       <c r="K70" s="2"/>
-      <c r="X70" s="1">
+      <c r="L70" s="2"/>
+      <c r="Y70" s="1">
         <v>402.49829225424799</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>38</v>
       </c>
@@ -6018,11 +6060,12 @@
       </c>
       <c r="I71" s="7"/>
       <c r="K71" s="2"/>
-      <c r="X71" s="1">
+      <c r="L71" s="2"/>
+      <c r="Y71" s="1">
         <v>471.77029421845998</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>38</v>
       </c>
@@ -6053,24 +6096,24 @@
       <c r="J72" s="2">
         <v>161</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>1.8383940287556599</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
         <v>0.67099567843637897</v>
       </c>
-      <c r="S72" s="1">
+      <c r="T72" s="1">
         <v>402.69559467140499</v>
       </c>
-      <c r="X72" s="1">
+      <c r="Y72" s="1">
         <v>722.25393267713696</v>
       </c>
-      <c r="Z72" s="1">
-        <f>S72/X72</f>
+      <c r="AA72" s="1">
+        <f>T72/Y72</f>
         <v>0.55755403529442404</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>39</v>
       </c>
@@ -6095,11 +6138,11 @@
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="2"/>
-      <c r="X73" s="1">
+      <c r="Y73" s="1">
         <v>14.197019163216501</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
@@ -6124,11 +6167,11 @@
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="2"/>
-      <c r="X74" s="1">
+      <c r="Y74" s="1">
         <v>38.175957370776501</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>39</v>
       </c>
@@ -6153,11 +6196,11 @@
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="2"/>
-      <c r="X75" s="1">
+      <c r="Y75" s="1">
         <v>86.781440146246197</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>39</v>
       </c>
@@ -6182,11 +6225,11 @@
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="2"/>
-      <c r="X76" s="1">
+      <c r="Y76" s="1">
         <v>195.24894192692</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>39</v>
       </c>
@@ -6211,11 +6254,11 @@
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="2"/>
-      <c r="X77" s="1">
+      <c r="Y77" s="1">
         <v>332.49992099396798</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>39</v>
       </c>
@@ -6240,11 +6283,11 @@
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="2"/>
-      <c r="X78" s="1">
+      <c r="Y78" s="1">
         <v>430.59478171241301</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>39</v>
       </c>
@@ -6275,24 +6318,24 @@
       <c r="J79" s="2">
         <v>161</v>
       </c>
-      <c r="L79" s="1">
+      <c r="M79" s="1">
         <v>1.5423715660406601</v>
       </c>
-      <c r="N79" s="1">
+      <c r="O79" s="1">
         <v>0.446008937779305</v>
       </c>
-      <c r="S79" s="1">
+      <c r="T79" s="1">
         <v>329.21792419018499</v>
       </c>
-      <c r="X79" s="1">
+      <c r="Y79" s="1">
         <v>573.90394325179</v>
       </c>
-      <c r="Z79" s="1">
-        <f>S79/X79</f>
+      <c r="AA79" s="1">
+        <f>T79/Y79</f>
         <v>0.57364638814782731</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>40</v>
       </c>
@@ -6317,11 +6360,11 @@
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="2"/>
-      <c r="X80" s="1">
+      <c r="Y80" s="1">
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>40</v>
       </c>
@@ -6346,11 +6389,11 @@
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="2"/>
-      <c r="X81" s="1">
+      <c r="Y81" s="1">
         <v>31.960249027010299</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>40</v>
       </c>
@@ -6375,11 +6418,11 @@
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="2"/>
-      <c r="X82" s="1">
+      <c r="Y82" s="1">
         <v>78.506956177177699</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>40</v>
       </c>
@@ -6404,11 +6447,11 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="2"/>
-      <c r="X83" s="1">
+      <c r="Y83" s="1">
         <v>141.72077566905901</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>40</v>
       </c>
@@ -6433,11 +6476,11 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="2"/>
-      <c r="X84" s="1">
+      <c r="Y84" s="1">
         <v>241.874412012806</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>40</v>
       </c>
@@ -6462,11 +6505,11 @@
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="2"/>
-      <c r="X85" s="1">
+      <c r="Y85" s="1">
         <v>259.59826040873997</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>40</v>
       </c>
@@ -6490,24 +6533,24 @@
       <c r="J86" s="2">
         <v>161</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>1.0468020261594599</v>
       </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>0.137746893876147</v>
       </c>
-      <c r="S86" s="1">
+      <c r="T86" s="1">
         <v>246.95685534146699</v>
       </c>
-      <c r="X86" s="1">
+      <c r="Y86" s="1">
         <v>405.08434197699802</v>
       </c>
-      <c r="Z86" s="1">
-        <f>S86/X86</f>
+      <c r="AA86" s="1">
+        <f>T86/Y86</f>
         <v>0.60964305392848284</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>41</v>
       </c>
@@ -6532,11 +6575,11 @@
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="2"/>
-      <c r="X87" s="1">
+      <c r="Y87" s="1">
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>41</v>
       </c>
@@ -6561,11 +6604,11 @@
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="2"/>
-      <c r="X88" s="1">
+      <c r="Y88" s="1">
         <v>27.842697776405601</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>41</v>
       </c>
@@ -6590,11 +6633,11 @@
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="2"/>
-      <c r="X89" s="1">
+      <c r="Y89" s="1">
         <v>57.9191999241541</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>41</v>
       </c>
@@ -6619,11 +6662,11 @@
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="2"/>
-      <c r="X90" s="1">
+      <c r="Y90" s="1">
         <v>125.211189198781</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>41</v>
       </c>
@@ -6648,11 +6691,11 @@
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="2"/>
-      <c r="X91" s="1">
+      <c r="Y91" s="1">
         <v>198.48259801002001</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>41</v>
       </c>
@@ -6677,11 +6720,11 @@
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="2"/>
-      <c r="X92" s="1">
+      <c r="Y92" s="1">
         <v>257.46072184771901</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>41</v>
       </c>
@@ -6705,24 +6748,24 @@
       <c r="J93" s="2">
         <v>161</v>
       </c>
-      <c r="L93" s="1">
+      <c r="M93" s="1">
         <v>0.877908371312066</v>
       </c>
-      <c r="N93" s="1">
+      <c r="O93" s="1">
         <v>1.6154299464715201E-2</v>
       </c>
-      <c r="S93" s="1">
+      <c r="T93" s="1">
         <v>211.17712681914799</v>
       </c>
-      <c r="X93" s="1">
+      <c r="Y93" s="1">
         <v>343.28169175006798</v>
       </c>
-      <c r="Z93" s="1">
-        <f t="shared" ref="Z93:Z101" si="8">S93/X93</f>
+      <c r="AA93" s="1">
+        <f t="shared" ref="AA93:AA101" si="8">T93/Y93</f>
         <v>0.61517153956727488</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>42</v>
       </c>
@@ -6746,24 +6789,24 @@
       <c r="J94" s="2">
         <v>161</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="1">
         <v>3.1175482906043199</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>0.82298089672445096</v>
       </c>
-      <c r="S94" s="1">
+      <c r="T94" s="1">
         <v>615.67786129297701</v>
       </c>
-      <c r="X94" s="1">
+      <c r="Y94" s="1">
         <v>1047.5702821131399</v>
       </c>
-      <c r="Z94" s="1">
+      <c r="AA94" s="1">
         <f t="shared" si="8"/>
         <v>0.5877198616698468</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>43</v>
       </c>
@@ -6787,24 +6830,24 @@
       <c r="J95" s="2">
         <v>161</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>2.4006321166029299</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>0.51071453125767297</v>
       </c>
-      <c r="S95" s="1">
+      <c r="T95" s="1">
         <v>476.16922680854702</v>
       </c>
-      <c r="X95" s="1">
+      <c r="Y95" s="1">
         <v>796.46496972084105</v>
       </c>
-      <c r="Z95" s="1">
+      <c r="AA95" s="1">
         <f t="shared" si="8"/>
         <v>0.59785332049875728</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>44</v>
       </c>
@@ -6828,24 +6871,24 @@
       <c r="J96" s="2">
         <v>161</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>2.27378550364736</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>0.46617639836959102</v>
       </c>
-      <c r="S96" s="1">
+      <c r="T96" s="1">
         <v>417.10036799410398</v>
       </c>
-      <c r="X96" s="1">
+      <c r="Y96" s="1">
         <v>699.06221414893105</v>
       </c>
-      <c r="Z96" s="1">
+      <c r="AA96" s="1">
         <f t="shared" si="8"/>
         <v>0.5966570064180915</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>45</v>
       </c>
@@ -6869,24 +6912,24 @@
       <c r="J97" s="2">
         <v>161</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>2.1259859184738898</v>
       </c>
-      <c r="N97" s="1">
+      <c r="O97" s="1">
         <v>0.39720129646908497</v>
       </c>
-      <c r="S97" s="1">
+      <c r="T97" s="1">
         <v>383.1096258979</v>
       </c>
-      <c r="X97" s="1">
+      <c r="Y97" s="1">
         <v>655.12957718011205</v>
       </c>
-      <c r="Z97" s="1">
+      <c r="AA97" s="1">
         <f t="shared" si="8"/>
         <v>0.58478450560410777</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>46</v>
       </c>
@@ -6910,24 +6953,24 @@
       <c r="J98" s="2">
         <v>161</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="1">
         <v>3.1976210968916199</v>
       </c>
-      <c r="N98" s="1">
+      <c r="O98" s="1">
         <v>0.75002799194617598</v>
       </c>
-      <c r="S98" s="1">
+      <c r="T98" s="1">
         <v>591.90816805568898</v>
       </c>
-      <c r="X98" s="1">
+      <c r="Y98" s="1">
         <v>1030.5631638546899</v>
       </c>
-      <c r="Z98" s="1">
+      <c r="AA98" s="1">
         <f t="shared" si="8"/>
         <v>0.57435408989559844</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>47</v>
       </c>
@@ -6951,24 +6994,24 @@
       <c r="J99" s="2">
         <v>161</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>2.8494278498158598</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>0.67105313558905799</v>
       </c>
-      <c r="S99" s="1">
+      <c r="T99" s="1">
         <v>468.56502491153498</v>
       </c>
-      <c r="X99" s="1">
+      <c r="Y99" s="1">
         <v>845.29513434514297</v>
       </c>
-      <c r="Z99" s="1">
+      <c r="AA99" s="1">
         <f t="shared" si="8"/>
         <v>0.55432121382614619</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>48</v>
       </c>
@@ -6992,24 +7035,24 @@
       <c r="J100" s="2">
         <v>161</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>2.5646579092178898</v>
       </c>
-      <c r="N100" s="1">
+      <c r="O100" s="1">
         <v>0.37285272307616701</v>
       </c>
-      <c r="S100" s="1">
+      <c r="T100" s="1">
         <v>447.03257429291102</v>
       </c>
-      <c r="X100" s="1">
+      <c r="Y100" s="1">
         <v>785.61059731698401</v>
       </c>
-      <c r="Z100" s="1">
+      <c r="AA100" s="1">
         <f t="shared" si="8"/>
         <v>0.56902564173601522</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>49</v>
       </c>
@@ -7033,24 +7076,24 @@
       <c r="J101" s="2">
         <v>161</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="1">
         <v>2.5331579021630199</v>
       </c>
-      <c r="N101" s="1">
+      <c r="O101" s="1">
         <v>0.20482811962873801</v>
       </c>
-      <c r="S101" s="1">
+      <c r="T101" s="1">
         <v>388.02832898370002</v>
       </c>
-      <c r="X101" s="1">
+      <c r="Y101" s="1">
         <v>716.45025122502898</v>
       </c>
-      <c r="Z101" s="1">
+      <c r="AA101" s="1">
         <f t="shared" si="8"/>
         <v>0.5415984268554952</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>50</v>
       </c>
@@ -7075,14 +7118,14 @@
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="2"/>
-      <c r="S102" s="1">
+      <c r="T102" s="1">
         <v>0</v>
       </c>
-      <c r="X102" s="1">
+      <c r="Y102" s="1">
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>50</v>
       </c>
@@ -7107,14 +7150,14 @@
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="2"/>
-      <c r="S103" s="1">
+      <c r="T103" s="1">
         <v>0</v>
       </c>
-      <c r="X103" s="1">
+      <c r="Y103" s="1">
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>50</v>
       </c>
@@ -7139,14 +7182,14 @@
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="2"/>
-      <c r="S104" s="1">
+      <c r="T104" s="1">
         <v>0</v>
       </c>
-      <c r="X104" s="1">
+      <c r="Y104" s="1">
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>50</v>
       </c>
@@ -7171,14 +7214,14 @@
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="2"/>
-      <c r="S105" s="1">
+      <c r="T105" s="1">
         <v>154.858536654609</v>
       </c>
-      <c r="X105" s="1">
+      <c r="Y105" s="1">
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>50</v>
       </c>
@@ -7203,14 +7246,14 @@
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="2"/>
-      <c r="S106" s="1">
+      <c r="T106" s="1">
         <v>451.29728949653298</v>
       </c>
-      <c r="X106" s="1">
+      <c r="Y106" s="1">
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>50</v>
       </c>
@@ -7235,18 +7278,18 @@
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="2"/>
-      <c r="S107" s="1">
+      <c r="T107" s="1">
         <v>580.99690316047895</v>
       </c>
-      <c r="X107" s="1">
+      <c r="Y107" s="1">
         <v>1124.9410322956101</v>
       </c>
-      <c r="Z107" s="1">
-        <f t="shared" ref="Z107:Z115" si="11">S107/X107</f>
+      <c r="AA107" s="1">
+        <f t="shared" ref="AA107:AA115" si="11">T107/Y107</f>
         <v>0.5164687627891642</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>50</v>
       </c>
@@ -7270,24 +7313,24 @@
       <c r="J108" s="2">
         <v>161</v>
       </c>
-      <c r="L108" s="1">
+      <c r="M108" s="1">
         <v>4.7388991576481798</v>
       </c>
-      <c r="N108" s="1">
+      <c r="O108" s="1">
         <v>0.847369248146147</v>
       </c>
-      <c r="S108" s="1">
+      <c r="T108" s="1">
         <v>710.696516824426</v>
       </c>
-      <c r="X108" s="1">
+      <c r="Y108" s="1">
         <v>1297.83741710808</v>
       </c>
-      <c r="Z108" s="1">
+      <c r="AA108" s="1">
         <f t="shared" si="11"/>
         <v>0.54760057573932719</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>51</v>
       </c>
@@ -7311,24 +7354,24 @@
       <c r="J109" s="2">
         <v>161</v>
       </c>
-      <c r="L109" s="1">
+      <c r="M109" s="1">
         <v>4.1166241022674299</v>
       </c>
-      <c r="N109" s="1">
+      <c r="O109" s="1">
         <v>0.76206747532288899</v>
       </c>
-      <c r="S109" s="1">
+      <c r="T109" s="1">
         <v>625.70103129211805</v>
       </c>
-      <c r="X109" s="1">
+      <c r="Y109" s="1">
         <v>1135.43192825251</v>
       </c>
-      <c r="Z109" s="1">
+      <c r="AA109" s="1">
         <f t="shared" si="11"/>
         <v>0.55106873051835448</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>52</v>
       </c>
@@ -7352,24 +7395,24 @@
       <c r="J110" s="2">
         <v>161</v>
       </c>
-      <c r="L110" s="1">
+      <c r="M110" s="1">
         <v>3.5468020261594599</v>
       </c>
-      <c r="N110" s="1">
+      <c r="O110" s="1">
         <v>0.57361464420763097</v>
       </c>
-      <c r="S110" s="1">
+      <c r="T110" s="1">
         <v>546.88870828516701</v>
       </c>
-      <c r="X110" s="1">
+      <c r="Y110" s="1">
         <v>1009.9101083416</v>
       </c>
-      <c r="Z110" s="1">
+      <c r="AA110" s="1">
         <f t="shared" si="11"/>
         <v>0.54152216496102545</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>53</v>
       </c>
@@ -7393,24 +7436,24 @@
       <c r="J111" s="2">
         <v>161</v>
       </c>
-      <c r="L111" s="1">
+      <c r="M111" s="1">
         <v>2.9876680823444701</v>
       </c>
-      <c r="N111" s="1">
+      <c r="O111" s="1">
         <v>0.46009256985709301</v>
       </c>
-      <c r="S111" s="1">
+      <c r="T111" s="1">
         <v>446.80238868052101</v>
       </c>
-      <c r="X111" s="1">
+      <c r="Y111" s="1">
         <v>859.16057930755699</v>
       </c>
-      <c r="Z111" s="1">
+      <c r="AA111" s="1">
         <f t="shared" si="11"/>
         <v>0.52004526213321234</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>54</v>
       </c>
@@ -7425,21 +7468,21 @@
         <v>120</v>
       </c>
       <c r="H112" s="8"/>
-      <c r="S112" s="1">
+      <c r="T112" s="1">
         <v>657</v>
       </c>
-      <c r="W112" s="1">
+      <c r="X112" s="1">
         <v>496</v>
       </c>
-      <c r="X112" s="1">
+      <c r="Y112" s="1">
         <v>1261</v>
       </c>
-      <c r="Z112" s="1">
+      <c r="AA112" s="1">
         <f t="shared" si="11"/>
         <v>0.52101506740682002</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>55</v>
       </c>
@@ -7454,21 +7497,21 @@
         <v>120</v>
       </c>
       <c r="H113" s="8"/>
-      <c r="S113" s="1">
+      <c r="T113" s="1">
         <v>640</v>
       </c>
-      <c r="W113" s="1">
+      <c r="X113" s="1">
         <v>481</v>
       </c>
-      <c r="X113" s="1">
+      <c r="Y113" s="1">
         <v>1539</v>
       </c>
-      <c r="Z113" s="1">
+      <c r="AA113" s="1">
         <f t="shared" si="11"/>
         <v>0.41585445094217022</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
@@ -7483,21 +7526,21 @@
         <v>120</v>
       </c>
       <c r="H114" s="8"/>
-      <c r="S114" s="1">
+      <c r="T114" s="1">
         <v>652</v>
       </c>
-      <c r="W114" s="1">
+      <c r="X114" s="1">
         <v>490</v>
       </c>
-      <c r="X114" s="1">
+      <c r="Y114" s="1">
         <v>1556</v>
       </c>
-      <c r="Z114" s="1">
+      <c r="AA114" s="1">
         <f t="shared" si="11"/>
         <v>0.41902313624678661</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>57</v>
       </c>
@@ -7512,21 +7555,21 @@
         <v>120</v>
       </c>
       <c r="H115" s="8"/>
-      <c r="S115" s="1">
+      <c r="T115" s="1">
         <v>568</v>
       </c>
-      <c r="W115" s="1">
+      <c r="X115" s="1">
         <v>430</v>
       </c>
-      <c r="X115" s="1">
+      <c r="Y115" s="1">
         <v>1619</v>
       </c>
-      <c r="Z115" s="1">
+      <c r="AA115" s="1">
         <f t="shared" si="11"/>
         <v>0.35083384805435452</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
@@ -7535,11 +7578,11 @@
         <v>14</v>
       </c>
       <c r="H116" s="8"/>
-      <c r="N116" s="1">
+      <c r="O116" s="1">
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
@@ -7548,11 +7591,11 @@
         <v>21</v>
       </c>
       <c r="H117" s="8"/>
-      <c r="N117" s="1">
+      <c r="O117" s="1">
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>54</v>
       </c>
@@ -7561,11 +7604,11 @@
         <v>28</v>
       </c>
       <c r="H118" s="8"/>
-      <c r="N118" s="1">
+      <c r="O118" s="1">
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>54</v>
       </c>
@@ -7574,11 +7617,11 @@
         <v>36</v>
       </c>
       <c r="H119" s="8"/>
-      <c r="N119" s="1">
+      <c r="O119" s="1">
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>54</v>
       </c>
@@ -7587,11 +7630,11 @@
         <v>50</v>
       </c>
       <c r="H120" s="8"/>
-      <c r="N120" s="1">
+      <c r="O120" s="1">
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>54</v>
       </c>
@@ -7600,11 +7643,11 @@
         <v>57</v>
       </c>
       <c r="H121" s="8"/>
-      <c r="N121" s="1">
+      <c r="O121" s="1">
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>54</v>
       </c>
@@ -7613,11 +7656,11 @@
         <v>66</v>
       </c>
       <c r="H122" s="8"/>
-      <c r="N122" s="1">
+      <c r="O122" s="1">
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
@@ -7626,11 +7669,11 @@
         <v>14</v>
       </c>
       <c r="H123" s="8"/>
-      <c r="N123" s="1">
+      <c r="O123" s="1">
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>55</v>
       </c>
@@ -7639,11 +7682,11 @@
         <v>21</v>
       </c>
       <c r="H124" s="8"/>
-      <c r="N124" s="1">
+      <c r="O124" s="1">
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -7652,11 +7695,11 @@
         <v>28</v>
       </c>
       <c r="H125" s="8"/>
-      <c r="N125" s="1">
+      <c r="O125" s="1">
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>55</v>
       </c>
@@ -7665,11 +7708,11 @@
         <v>36</v>
       </c>
       <c r="H126" s="8"/>
-      <c r="N126" s="1">
+      <c r="O126" s="1">
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -7678,11 +7721,11 @@
         <v>50</v>
       </c>
       <c r="H127" s="8"/>
-      <c r="N127" s="1">
+      <c r="O127" s="1">
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -7691,11 +7734,11 @@
         <v>57</v>
       </c>
       <c r="H128" s="8"/>
-      <c r="N128" s="1">
+      <c r="O128" s="1">
         <v>0.96878842686282296</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -7704,11 +7747,11 @@
         <v>66</v>
       </c>
       <c r="H129" s="8"/>
-      <c r="N129" s="1">
+      <c r="O129" s="1">
         <v>0.98848228021902196</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7717,11 +7760,11 @@
         <v>14</v>
       </c>
       <c r="H130" s="8"/>
-      <c r="N130" s="1">
+      <c r="O130" s="1">
         <v>0.17231777051132799</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7730,11 +7773,11 @@
         <v>21</v>
       </c>
       <c r="H131" s="8"/>
-      <c r="N131" s="1">
+      <c r="O131" s="1">
         <v>0.52665686982701998</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>56</v>
       </c>
@@ -7743,11 +7786,11 @@
         <v>28</v>
       </c>
       <c r="H132" s="8"/>
-      <c r="N132" s="1">
+      <c r="O132" s="1">
         <v>0.78575800519434602</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7756,11 +7799,11 @@
         <v>36</v>
       </c>
       <c r="H133" s="8"/>
-      <c r="N133" s="1">
+      <c r="O133" s="1">
         <v>0.88946711074104901</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>56</v>
       </c>
@@ -7769,11 +7812,11 @@
         <v>50</v>
       </c>
       <c r="H134" s="8"/>
-      <c r="N134" s="1">
+      <c r="O134" s="1">
         <v>0.96907792071728205</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>56</v>
       </c>
@@ -7782,11 +7825,11 @@
         <v>57</v>
       </c>
       <c r="H135" s="8"/>
-      <c r="N135" s="1">
+      <c r="O135" s="1">
         <v>0.98757933510154305</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7795,11 +7838,11 @@
         <v>66</v>
       </c>
       <c r="H136" s="8"/>
-      <c r="N136" s="1">
+      <c r="O136" s="1">
         <v>0.98</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>57</v>
       </c>
@@ -7808,11 +7851,11 @@
         <v>14</v>
       </c>
       <c r="H137" s="8"/>
-      <c r="N137" s="1">
+      <c r="O137" s="1">
         <v>0.22119398293916201</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>57</v>
       </c>
@@ -7821,11 +7864,11 @@
         <v>21</v>
       </c>
       <c r="H138" s="8"/>
-      <c r="N138" s="1">
+      <c r="O138" s="1">
         <v>0.62816857916416202</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>57</v>
       </c>
@@ -7834,11 +7877,11 @@
         <v>28</v>
       </c>
       <c r="H139" s="8"/>
-      <c r="N139" s="1">
+      <c r="O139" s="1">
         <v>0.84465346207078995</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>57</v>
       </c>
@@ -7847,11 +7890,11 @@
         <v>36</v>
       </c>
       <c r="H140" s="10"/>
-      <c r="N140" s="1">
+      <c r="O140" s="1">
         <v>0.91580140170167201</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>57</v>
       </c>
@@ -7860,11 +7903,11 @@
         <v>50</v>
       </c>
       <c r="H141" s="10"/>
-      <c r="N141" s="1">
+      <c r="O141" s="1">
         <v>0.98663503371914096</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>57</v>
       </c>
@@ -7873,11 +7916,11 @@
         <v>57</v>
       </c>
       <c r="H142" s="10"/>
-      <c r="N142" s="1">
+      <c r="O142" s="1">
         <v>0.98884070118168599</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>57</v>
       </c>
@@ -7886,11 +7929,11 @@
         <v>66</v>
       </c>
       <c r="H143" s="10"/>
-      <c r="N143" s="1">
+      <c r="O143" s="1">
         <v>0.99098019862035402</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>58</v>
       </c>
@@ -7906,27 +7949,27 @@
         <v>30</v>
       </c>
       <c r="H144" s="10"/>
-      <c r="L144" s="1">
+      <c r="M144" s="1">
         <v>0.33</v>
       </c>
-      <c r="M144" s="1">
-        <f t="shared" ref="M144:M173" si="12">L144/Q144</f>
+      <c r="N144" s="1">
+        <f t="shared" ref="N144:N173" si="12">M144/R144</f>
         <v>2.4699999999999958E-2</v>
       </c>
-      <c r="Q144" s="1">
+      <c r="R144" s="1">
         <v>13.3603238866397</v>
       </c>
-      <c r="R144" s="1">
+      <c r="S144" s="1">
         <v>9.0396761133603203</v>
       </c>
-      <c r="S144" s="1">
+      <c r="T144" s="1">
         <v>0</v>
       </c>
-      <c r="X144" s="1">
+      <c r="Y144" s="1">
         <v>22.4</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>58</v>
       </c>
@@ -7942,27 +7985,27 @@
         <v>44</v>
       </c>
       <c r="H145" s="10"/>
-      <c r="L145" s="1">
+      <c r="M145" s="1">
         <v>1.06</v>
       </c>
-      <c r="M145" s="1">
+      <c r="N145" s="1">
         <f t="shared" si="12"/>
         <v>2.12E-2</v>
       </c>
-      <c r="Q145" s="1">
+      <c r="R145" s="1">
         <v>50</v>
       </c>
-      <c r="R145" s="1">
+      <c r="S145" s="1">
         <v>38.1</v>
       </c>
-      <c r="S145" s="1">
+      <c r="T145" s="1">
         <v>0</v>
       </c>
-      <c r="X145" s="1">
+      <c r="Y145" s="1">
         <v>88.1</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>58</v>
       </c>
@@ -7979,27 +8022,27 @@
       </c>
       <c r="H146" s="10"/>
       <c r="I146" s="8"/>
-      <c r="L146" s="1">
+      <c r="M146" s="1">
         <v>3.64</v>
       </c>
-      <c r="M146" s="1">
+      <c r="N146" s="1">
         <f t="shared" si="12"/>
         <v>2.6999999999999962E-2</v>
       </c>
-      <c r="Q146" s="1">
+      <c r="R146" s="1">
         <v>134.81481481481501</v>
       </c>
-      <c r="R146" s="1">
+      <c r="S146" s="1">
         <v>154.985185185185</v>
       </c>
-      <c r="S146" s="1">
+      <c r="T146" s="1">
         <v>33.6</v>
       </c>
-      <c r="X146" s="1">
+      <c r="Y146" s="1">
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>58</v>
       </c>
@@ -8015,27 +8058,27 @@
         <v>83</v>
       </c>
       <c r="H147" s="10"/>
-      <c r="L147" s="1">
+      <c r="M147" s="1">
         <v>5.7</v>
       </c>
-      <c r="M147" s="1">
+      <c r="N147" s="1">
         <f t="shared" si="12"/>
         <v>2.6399999999999989E-2</v>
       </c>
-      <c r="Q147" s="1">
+      <c r="R147" s="1">
         <v>215.90909090909099</v>
       </c>
-      <c r="R147" s="1">
+      <c r="S147" s="1">
         <v>312.290909090909</v>
       </c>
-      <c r="S147" s="1">
+      <c r="T147" s="1">
         <v>150.69999999999999</v>
       </c>
-      <c r="X147" s="1">
+      <c r="Y147" s="1">
         <v>678.9</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>58</v>
       </c>
@@ -8051,27 +8094,27 @@
         <v>105</v>
       </c>
       <c r="H148" s="10"/>
-      <c r="L148" s="1">
+      <c r="M148" s="1">
         <v>7.03</v>
       </c>
-      <c r="M148" s="1">
+      <c r="N148" s="1">
         <f t="shared" si="12"/>
         <v>2.5400000000000006E-2</v>
       </c>
-      <c r="Q148" s="1">
+      <c r="R148" s="1">
         <v>276.77165354330702</v>
       </c>
-      <c r="R148" s="1">
+      <c r="S148" s="1">
         <v>423.328346456693</v>
       </c>
-      <c r="S148" s="1">
+      <c r="T148" s="1">
         <v>280.5</v>
       </c>
-      <c r="X148" s="1">
+      <c r="Y148" s="1">
         <v>980.6</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>58</v>
       </c>
@@ -8097,31 +8140,31 @@
       <c r="J149" s="1">
         <v>125</v>
       </c>
-      <c r="L149" s="1">
+      <c r="M149" s="1">
         <v>5.85</v>
       </c>
-      <c r="M149" s="1">
+      <c r="N149" s="1">
         <f t="shared" si="12"/>
         <v>2.1499999999999995E-2</v>
       </c>
-      <c r="Q149" s="1">
+      <c r="R149" s="1">
         <v>272.09302325581399</v>
       </c>
-      <c r="R149" s="1">
+      <c r="S149" s="1">
         <v>318.00697674418598</v>
       </c>
-      <c r="S149" s="1">
+      <c r="T149" s="1">
         <v>355.6</v>
       </c>
-      <c r="X149" s="1">
+      <c r="Y149" s="1">
         <v>945.7</v>
       </c>
-      <c r="Z149" s="1">
-        <f>S149/X149</f>
+      <c r="AA149" s="1">
+        <f>T149/Y149</f>
         <v>0.37601776461880088</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>60</v>
       </c>
@@ -8137,29 +8180,29 @@
         <v>29</v>
       </c>
       <c r="H150" s="10"/>
-      <c r="L150" s="1">
+      <c r="M150" s="1">
         <v>0.71</v>
       </c>
-      <c r="M150" s="1">
+      <c r="N150" s="1">
         <f t="shared" si="12"/>
         <v>3.0699999999999988E-2</v>
       </c>
-      <c r="Q150" s="1">
+      <c r="R150" s="1">
         <v>23.127035830618901</v>
       </c>
-      <c r="R150" s="1">
+      <c r="S150" s="1">
         <v>16.872964169381099</v>
       </c>
-      <c r="S150" s="1">
+      <c r="T150" s="1">
         <v>0</v>
       </c>
-      <c r="X150" s="12">
+      <c r="Y150" s="12">
         <v>40</v>
       </c>
-      <c r="Y150" s="12"/>
       <c r="Z150" s="12"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA150" s="12"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>60</v>
       </c>
@@ -8175,29 +8218,29 @@
         <v>40</v>
       </c>
       <c r="H151" s="10"/>
-      <c r="L151" s="1">
+      <c r="M151" s="1">
         <v>1.43</v>
       </c>
-      <c r="M151" s="1">
+      <c r="N151" s="1">
         <f t="shared" si="12"/>
         <v>2.8299999999999968E-2</v>
       </c>
-      <c r="Q151" s="1">
+      <c r="R151" s="1">
         <v>50.530035335689099</v>
       </c>
-      <c r="R151" s="1">
+      <c r="S151" s="1">
         <v>45.869964664310999</v>
       </c>
-      <c r="S151" s="1">
+      <c r="T151" s="1">
         <v>0</v>
       </c>
-      <c r="X151" s="12">
+      <c r="Y151" s="12">
         <v>96.4</v>
       </c>
-      <c r="Y151" s="12"/>
       <c r="Z151" s="12"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA151" s="12"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>60</v>
       </c>
@@ -8213,29 +8256,29 @@
         <v>61</v>
       </c>
       <c r="H152" s="10"/>
-      <c r="L152" s="1">
+      <c r="M152" s="1">
         <v>4.53</v>
       </c>
-      <c r="M152" s="1">
+      <c r="N152" s="1">
         <f t="shared" si="12"/>
         <v>2.9300000000000041E-2</v>
       </c>
-      <c r="Q152" s="1">
+      <c r="R152" s="1">
         <v>154.607508532423</v>
       </c>
-      <c r="R152" s="1">
+      <c r="S152" s="1">
         <v>211.19249146757701</v>
       </c>
-      <c r="S152" s="1">
+      <c r="T152" s="1">
         <v>27.1</v>
       </c>
-      <c r="X152" s="12">
+      <c r="Y152" s="12">
         <v>392.9</v>
       </c>
-      <c r="Y152" s="12"/>
       <c r="Z152" s="12"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA152" s="12"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>60</v>
       </c>
@@ -8252,29 +8295,29 @@
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="8"/>
-      <c r="L153" s="1">
+      <c r="M153" s="1">
         <v>7.77</v>
       </c>
-      <c r="M153" s="1">
+      <c r="N153" s="1">
         <f t="shared" si="12"/>
         <v>2.6899999999999966E-2</v>
       </c>
-      <c r="Q153" s="1">
+      <c r="R153" s="1">
         <v>288.84758364312302</v>
       </c>
-      <c r="R153" s="1">
+      <c r="S153" s="1">
         <v>394.55241635687702</v>
       </c>
-      <c r="S153" s="1">
+      <c r="T153" s="1">
         <v>179.5</v>
       </c>
-      <c r="X153" s="12">
+      <c r="Y153" s="12">
         <v>862.9</v>
       </c>
-      <c r="Y153" s="12"/>
       <c r="Z153" s="12"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA153" s="12"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>60</v>
       </c>
@@ -8291,29 +8334,29 @@
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="8"/>
-      <c r="L154" s="1">
+      <c r="M154" s="1">
         <v>6.14</v>
       </c>
-      <c r="M154" s="1">
+      <c r="N154" s="1">
         <f t="shared" si="12"/>
         <v>2.2700000000000026E-2</v>
       </c>
-      <c r="Q154" s="1">
+      <c r="R154" s="1">
         <v>270.48458149779702</v>
       </c>
-      <c r="R154" s="1">
+      <c r="S154" s="1">
         <v>399.21541850220302</v>
       </c>
-      <c r="S154" s="1">
+      <c r="T154" s="1">
         <v>346.6</v>
       </c>
-      <c r="X154" s="12">
+      <c r="Y154" s="12">
         <v>1016.3</v>
       </c>
-      <c r="Y154" s="12"/>
       <c r="Z154" s="12"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="AA154" s="12"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>60</v>
       </c>
@@ -8339,32 +8382,32 @@
       <c r="J155" s="2">
         <v>131</v>
       </c>
-      <c r="L155" s="1">
+      <c r="M155" s="1">
         <v>3.12</v>
       </c>
-      <c r="M155" s="1">
+      <c r="N155" s="1">
         <f t="shared" si="12"/>
         <v>2.1399999999999926E-2</v>
       </c>
-      <c r="Q155" s="1">
+      <c r="R155" s="1">
         <v>145.79439252336499</v>
       </c>
-      <c r="R155" s="1">
+      <c r="S155" s="1">
         <v>404.40560747663602</v>
       </c>
-      <c r="S155" s="1">
+      <c r="T155" s="1">
         <v>461.2</v>
       </c>
-      <c r="X155" s="12">
+      <c r="Y155" s="12">
         <v>1011.4</v>
       </c>
-      <c r="Y155" s="12"/>
-      <c r="Z155" s="1">
-        <f>S155/X155</f>
+      <c r="Z155" s="12"/>
+      <c r="AA155" s="1">
+        <f>T155/Y155</f>
         <v>0.45600158196559226</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>62</v>
       </c>
@@ -8380,27 +8423,27 @@
         <v>29</v>
       </c>
       <c r="H156" s="10"/>
-      <c r="L156" s="1">
+      <c r="M156" s="1">
         <v>0.49</v>
       </c>
-      <c r="M156" s="1">
+      <c r="N156" s="1">
         <f t="shared" si="12"/>
         <v>2.7699999999999961E-2</v>
       </c>
-      <c r="Q156" s="1">
+      <c r="R156" s="1">
         <v>17.689530685920602</v>
       </c>
-      <c r="R156" s="1">
+      <c r="S156" s="1">
         <v>12.210469314079401</v>
       </c>
-      <c r="S156" s="1">
+      <c r="T156" s="1">
         <v>0</v>
       </c>
-      <c r="X156" s="1">
+      <c r="Y156" s="1">
         <v>29.9</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>62</v>
       </c>
@@ -8416,27 +8459,27 @@
         <v>42</v>
       </c>
       <c r="H157" s="10"/>
-      <c r="L157" s="1">
+      <c r="M157" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M157" s="1">
+      <c r="N157" s="1">
         <f t="shared" si="12"/>
         <v>2.6499999999999985E-2</v>
       </c>
-      <c r="Q157" s="1">
+      <c r="R157" s="1">
         <v>43.7735849056604</v>
       </c>
-      <c r="R157" s="1">
+      <c r="S157" s="1">
         <v>38.626415094339599</v>
       </c>
-      <c r="S157" s="1">
+      <c r="T157" s="1">
         <v>0</v>
       </c>
-      <c r="X157" s="1">
+      <c r="Y157" s="1">
         <v>82.4</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>62</v>
       </c>
@@ -8452,27 +8495,27 @@
         <v>64</v>
       </c>
       <c r="H158" s="10"/>
-      <c r="L158" s="1">
+      <c r="M158" s="1">
         <v>2.93</v>
       </c>
-      <c r="M158" s="1">
+      <c r="N158" s="1">
         <f t="shared" si="12"/>
         <v>2.3099999999999971E-2</v>
       </c>
-      <c r="Q158" s="1">
+      <c r="R158" s="1">
         <v>126.839826839827</v>
       </c>
-      <c r="R158" s="1">
+      <c r="S158" s="1">
         <v>144.160173160173</v>
       </c>
-      <c r="S158" s="1">
+      <c r="T158" s="1">
         <v>41.9</v>
       </c>
-      <c r="X158" s="1">
+      <c r="Y158" s="1">
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>62</v>
       </c>
@@ -8489,28 +8532,28 @@
       </c>
       <c r="H159" s="10"/>
       <c r="I159" s="8"/>
-      <c r="L159" s="1">
+      <c r="M159" s="1">
         <v>4.28</v>
       </c>
-      <c r="M159" s="1">
+      <c r="N159" s="1">
         <f t="shared" si="12"/>
         <v>1.9900000000000011E-2</v>
       </c>
-      <c r="Q159" s="1">
+      <c r="R159" s="1">
         <v>215.07537688442201</v>
       </c>
-      <c r="R159" s="1">
+      <c r="S159" s="1">
         <v>284.32462311557799</v>
       </c>
-      <c r="S159" s="1">
+      <c r="T159" s="1">
         <v>156.80000000000001</v>
       </c>
-      <c r="X159" s="10">
+      <c r="Y159" s="10">
         <v>656.2</v>
       </c>
-      <c r="Y159" s="10"/>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="Z159" s="10"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>62</v>
       </c>
@@ -8527,27 +8570,27 @@
       </c>
       <c r="H160" s="10"/>
       <c r="I160" s="8"/>
-      <c r="L160" s="1">
+      <c r="M160" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="M160" s="1">
+      <c r="N160" s="1">
         <f t="shared" si="12"/>
         <v>1.9300000000000036E-2</v>
       </c>
-      <c r="Q160" s="1">
+      <c r="R160" s="1">
         <v>247.15025906735701</v>
       </c>
-      <c r="R160" s="1">
+      <c r="S160" s="1">
         <v>314.34974093264202</v>
       </c>
-      <c r="S160" s="1">
+      <c r="T160" s="1">
         <v>360.5</v>
       </c>
-      <c r="X160" s="1">
+      <c r="Y160" s="1">
         <v>922</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>62</v>
       </c>
@@ -8571,31 +8614,31 @@
       <c r="J161" s="1">
         <v>142</v>
       </c>
-      <c r="L161" s="1">
+      <c r="M161" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="M161" s="1">
+      <c r="N161" s="1">
         <f t="shared" si="12"/>
         <v>1.7200000000000014E-2</v>
       </c>
-      <c r="Q161" s="1">
+      <c r="R161" s="1">
         <v>250.58139534883699</v>
       </c>
-      <c r="R161" s="1">
+      <c r="S161" s="1">
         <v>324.71860465116299</v>
       </c>
-      <c r="S161" s="1">
+      <c r="T161" s="1">
         <v>563.9</v>
       </c>
-      <c r="X161" s="1">
+      <c r="Y161" s="1">
         <v>1139.2</v>
       </c>
-      <c r="Z161" s="1">
-        <f>S161/X161</f>
+      <c r="AA161" s="1">
+        <f>T161/Y161</f>
         <v>0.4949964887640449</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>64</v>
       </c>
@@ -8612,27 +8655,27 @@
       </c>
       <c r="H162" s="10"/>
       <c r="I162" s="8"/>
-      <c r="L162" s="1">
+      <c r="M162" s="1">
         <v>0.36</v>
       </c>
-      <c r="M162" s="1">
+      <c r="N162" s="1">
         <f t="shared" si="12"/>
         <v>3.0900000000000007E-2</v>
       </c>
-      <c r="Q162" s="1">
+      <c r="R162" s="1">
         <v>11.6504854368932</v>
       </c>
-      <c r="R162" s="1">
+      <c r="S162" s="1">
         <v>10.449514563106799</v>
       </c>
-      <c r="S162" s="1">
+      <c r="T162" s="1">
         <v>0</v>
       </c>
-      <c r="X162" s="1">
+      <c r="Y162" s="1">
         <v>22.1</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>64</v>
       </c>
@@ -8649,27 +8692,27 @@
       </c>
       <c r="H163" s="10"/>
       <c r="I163" s="8"/>
-      <c r="L163" s="1">
+      <c r="M163" s="1">
         <v>1.19</v>
       </c>
-      <c r="M163" s="1">
+      <c r="N163" s="1">
         <f t="shared" si="12"/>
         <v>2.5599999999999998E-2</v>
       </c>
-      <c r="Q163" s="1">
+      <c r="R163" s="1">
         <v>46.484375</v>
       </c>
-      <c r="R163" s="1">
+      <c r="S163" s="1">
         <v>40.815624999999997</v>
       </c>
-      <c r="S163" s="1">
+      <c r="T163" s="1">
         <v>0</v>
       </c>
-      <c r="X163" s="1">
+      <c r="Y163" s="1">
         <v>87.3</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>64</v>
       </c>
@@ -8686,27 +8729,27 @@
       </c>
       <c r="H164" s="10"/>
       <c r="I164" s="8"/>
-      <c r="L164" s="1">
+      <c r="M164" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M164" s="1">
+      <c r="N164" s="1">
         <f t="shared" si="12"/>
         <v>1.9499999999999979E-2</v>
       </c>
-      <c r="Q164" s="1">
+      <c r="R164" s="1">
         <v>114.871794871795</v>
       </c>
-      <c r="R164" s="1">
+      <c r="S164" s="1">
         <v>115.728205128205</v>
       </c>
-      <c r="S164" s="1">
+      <c r="T164" s="1">
         <v>30.3</v>
       </c>
-      <c r="X164" s="1">
+      <c r="Y164" s="1">
         <v>260.89999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>64</v>
       </c>
@@ -8723,27 +8766,27 @@
       </c>
       <c r="H165" s="10"/>
       <c r="I165" s="8"/>
-      <c r="L165" s="1">
+      <c r="M165" s="1">
         <v>2.98</v>
       </c>
-      <c r="M165" s="1">
+      <c r="N165" s="1">
         <f t="shared" si="12"/>
         <v>1.6800000000000034E-2</v>
       </c>
-      <c r="Q165" s="1">
+      <c r="R165" s="1">
         <v>177.38095238095201</v>
       </c>
-      <c r="R165" s="1">
+      <c r="S165" s="1">
         <v>179.71904761904801</v>
       </c>
-      <c r="S165" s="1">
+      <c r="T165" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="X165" s="1">
+      <c r="Y165" s="1">
         <v>518.29999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>64</v>
       </c>
@@ -8759,27 +8802,27 @@
         <v>101</v>
       </c>
       <c r="G166" s="14"/>
-      <c r="L166" s="1">
+      <c r="M166" s="1">
         <v>3.38</v>
       </c>
-      <c r="M166" s="1">
+      <c r="N166" s="1">
         <f t="shared" si="12"/>
         <v>1.6399999999999981E-2</v>
       </c>
-      <c r="Q166" s="1">
+      <c r="R166" s="1">
         <v>206.09756097561001</v>
       </c>
-      <c r="R166" s="1">
+      <c r="S166" s="1">
         <v>364.80243902439003</v>
       </c>
-      <c r="S166" s="1">
+      <c r="T166" s="1">
         <v>332.3</v>
       </c>
-      <c r="X166" s="1">
+      <c r="Y166" s="1">
         <v>903.2</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>64</v>
       </c>
@@ -8806,31 +8849,31 @@
       <c r="J167" s="1">
         <v>134</v>
       </c>
-      <c r="L167" s="1">
+      <c r="M167" s="1">
         <v>2.73</v>
       </c>
-      <c r="M167" s="1">
+      <c r="N167" s="1">
         <f t="shared" si="12"/>
         <v>1.6699999999999954E-2</v>
       </c>
-      <c r="Q167" s="1">
+      <c r="R167" s="1">
         <v>163.473053892216</v>
       </c>
-      <c r="R167" s="1">
+      <c r="S167" s="1">
         <v>253.72694610778399</v>
       </c>
-      <c r="S167" s="1">
+      <c r="T167" s="1">
         <v>392.9</v>
       </c>
-      <c r="X167" s="1">
+      <c r="Y167" s="1">
         <v>810.1</v>
       </c>
-      <c r="Z167" s="1">
-        <f>S167/X167</f>
+      <c r="AA167" s="1">
+        <f>T167/Y167</f>
         <v>0.48500185162325632</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>66</v>
       </c>
@@ -8846,27 +8889,27 @@
         <v>27</v>
       </c>
       <c r="G168" s="14"/>
-      <c r="L168" s="1">
+      <c r="M168" s="1">
         <v>0.18</v>
       </c>
-      <c r="M168" s="1">
+      <c r="N168" s="1">
         <f t="shared" si="12"/>
         <v>2.3200000000000005E-2</v>
       </c>
-      <c r="Q168" s="1">
+      <c r="R168" s="1">
         <v>7.7586206896551699</v>
       </c>
-      <c r="R168" s="1">
+      <c r="S168" s="1">
         <v>6.0413793103448299</v>
       </c>
-      <c r="S168" s="1">
+      <c r="T168" s="1">
         <v>0</v>
       </c>
-      <c r="X168" s="1">
+      <c r="Y168" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>66</v>
       </c>
@@ -8882,27 +8925,27 @@
         <v>41</v>
       </c>
       <c r="G169" s="14"/>
-      <c r="L169" s="1">
+      <c r="M169" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M169" s="1">
+      <c r="N169" s="1">
         <f t="shared" si="12"/>
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="Q169" s="1">
+      <c r="R169" s="1">
         <v>49.773755656108598</v>
       </c>
-      <c r="R169" s="1">
+      <c r="S169" s="1">
         <v>37.726244343891402</v>
       </c>
-      <c r="S169" s="1">
+      <c r="T169" s="1">
         <v>0</v>
       </c>
-      <c r="X169" s="1">
+      <c r="Y169" s="1">
         <v>87.5</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>66</v>
       </c>
@@ -8918,27 +8961,27 @@
         <v>62</v>
       </c>
       <c r="G170" s="14"/>
-      <c r="L170" s="1">
+      <c r="M170" s="1">
         <v>1.91</v>
       </c>
-      <c r="M170" s="1">
+      <c r="N170" s="1">
         <f t="shared" si="12"/>
         <v>1.8199999999999987E-2</v>
       </c>
-      <c r="Q170" s="1">
+      <c r="R170" s="1">
         <v>104.94505494505501</v>
       </c>
-      <c r="R170" s="1">
+      <c r="S170" s="1">
         <v>101.954945054945</v>
       </c>
-      <c r="S170" s="1">
+      <c r="T170" s="1">
         <v>28.5</v>
       </c>
-      <c r="X170" s="1">
+      <c r="Y170" s="1">
         <v>235.4</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>66</v>
       </c>
@@ -8954,27 +8997,27 @@
         <v>85</v>
       </c>
       <c r="G171" s="14"/>
-      <c r="L171" s="1">
+      <c r="M171" s="1">
         <v>2.44</v>
       </c>
-      <c r="M171" s="1">
+      <c r="N171" s="1">
         <f t="shared" si="12"/>
         <v>1.6900000000000009E-2</v>
       </c>
-      <c r="Q171" s="1">
+      <c r="R171" s="1">
         <v>144.378698224852</v>
       </c>
-      <c r="R171" s="1">
+      <c r="S171" s="1">
         <v>114.621301775148</v>
       </c>
-      <c r="S171" s="1">
+      <c r="T171" s="1">
         <v>179.2</v>
       </c>
-      <c r="X171" s="1">
+      <c r="Y171" s="1">
         <v>438.2</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>66</v>
       </c>
@@ -8991,27 +9034,27 @@
       </c>
       <c r="G172" s="14"/>
       <c r="I172" s="8"/>
-      <c r="L172" s="1">
+      <c r="M172" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M172" s="1">
+      <c r="N172" s="1">
         <f t="shared" si="12"/>
         <v>1.5200000000000021E-2</v>
       </c>
-      <c r="Q172" s="1">
+      <c r="R172" s="1">
         <v>151.31578947368399</v>
       </c>
-      <c r="R172" s="1">
+      <c r="S172" s="1">
         <v>139.68421052631601</v>
       </c>
-      <c r="S172" s="1">
+      <c r="T172" s="1">
         <v>277.39999999999998</v>
       </c>
-      <c r="X172" s="1">
+      <c r="Y172" s="1">
         <v>568.4</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>66</v>
       </c>
@@ -9038,31 +9081,31 @@
       <c r="J173" s="1">
         <v>134</v>
       </c>
-      <c r="L173" s="1">
+      <c r="M173" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="M173" s="1">
+      <c r="N173" s="1">
         <f t="shared" si="12"/>
         <v>1.7000000000000029E-2</v>
       </c>
-      <c r="Q173" s="1">
+      <c r="R173" s="1">
         <v>142.941176470588</v>
       </c>
-      <c r="R173" s="1">
+      <c r="S173" s="1">
         <v>139.458823529412</v>
       </c>
-      <c r="S173" s="1">
+      <c r="T173" s="1">
         <v>385.2</v>
       </c>
-      <c r="X173" s="1">
+      <c r="Y173" s="1">
         <v>667.6</v>
       </c>
-      <c r="Z173" s="1">
-        <f>S173/X173</f>
+      <c r="AA173" s="1">
+        <f>T173/Y173</f>
         <v>0.57699221090473329</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>68</v>
       </c>
@@ -9082,19 +9125,19 @@
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
-      <c r="L174" s="1">
+      <c r="M174" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S174" s="1">
+      <c r="T174" s="1">
         <v>0</v>
       </c>
-      <c r="T174" s="15"/>
-      <c r="X174" s="1">
+      <c r="U174" s="15"/>
+      <c r="Y174" s="1">
         <v>28</v>
       </c>
-      <c r="Y174" s="15"/>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="Z174" s="15"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>68</v>
       </c>
@@ -9113,19 +9156,19 @@
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
-      <c r="L175" s="1">
+      <c r="M175" s="1">
         <v>1.72</v>
       </c>
-      <c r="S175" s="1">
+      <c r="T175" s="1">
         <v>0</v>
       </c>
-      <c r="T175" s="15"/>
-      <c r="X175" s="1">
+      <c r="U175" s="15"/>
+      <c r="Y175" s="1">
         <v>126</v>
       </c>
-      <c r="Y175" s="16"/>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="Z175" s="16"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>68</v>
       </c>
@@ -9144,19 +9187,19 @@
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
-      <c r="L176" s="1">
+      <c r="M176" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="S176" s="1">
+      <c r="T176" s="1">
         <v>2.9</v>
       </c>
-      <c r="T176" s="15"/>
-      <c r="X176" s="1">
+      <c r="U176" s="15"/>
+      <c r="Y176" s="1">
         <v>286.10000000000002</v>
       </c>
-      <c r="Y176" s="15"/>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="Z176" s="15"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>68</v>
       </c>
@@ -9175,19 +9218,19 @@
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
-      <c r="L177" s="1">
+      <c r="M177" s="1">
         <v>3.19</v>
       </c>
-      <c r="S177" s="1">
+      <c r="T177" s="1">
         <v>63.3</v>
       </c>
-      <c r="T177" s="17"/>
-      <c r="X177" s="1">
+      <c r="U177" s="17"/>
+      <c r="Y177" s="1">
         <v>486.7</v>
       </c>
-      <c r="Y177" s="15"/>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="Z177" s="15"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>68</v>
       </c>
@@ -9206,17 +9249,17 @@
         <v>91</v>
       </c>
       <c r="G178" s="14"/>
-      <c r="L178" s="1">
+      <c r="M178" s="1">
         <v>3.63</v>
       </c>
-      <c r="S178" s="1">
+      <c r="T178" s="1">
         <v>206.4</v>
       </c>
-      <c r="X178" s="1">
+      <c r="Y178" s="1">
         <v>688.1</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>68</v>
       </c>
@@ -9236,17 +9279,17 @@
       </c>
       <c r="G179" s="14"/>
       <c r="I179" s="8"/>
-      <c r="L179" s="1">
+      <c r="M179" s="1">
         <v>3.73</v>
       </c>
-      <c r="S179" s="1">
+      <c r="T179" s="1">
         <v>372.5</v>
       </c>
-      <c r="X179" s="1">
+      <c r="Y179" s="1">
         <v>866.2</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>68</v>
       </c>
@@ -9265,17 +9308,17 @@
         <v>117</v>
       </c>
       <c r="G180" s="14"/>
-      <c r="L180" s="1">
+      <c r="M180" s="1">
         <v>4.05</v>
       </c>
-      <c r="S180" s="1">
+      <c r="T180" s="1">
         <v>499</v>
       </c>
-      <c r="X180" s="1">
+      <c r="Y180" s="1">
         <v>998</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>68</v>
       </c>
@@ -9299,21 +9342,21 @@
       <c r="J181" s="1">
         <v>131</v>
       </c>
-      <c r="L181" s="1">
+      <c r="M181" s="1">
         <v>3.46</v>
       </c>
-      <c r="S181" s="1">
+      <c r="T181" s="1">
         <v>622.70000000000005</v>
       </c>
-      <c r="X181" s="1">
+      <c r="Y181" s="1">
         <v>1055.4000000000001</v>
       </c>
-      <c r="Z181" s="1">
-        <f>S181/X181</f>
+      <c r="AA181" s="1">
+        <f>T181/Y181</f>
         <v>0.59001326511275343</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>70</v>
       </c>
@@ -9332,17 +9375,17 @@
         <v>36</v>
       </c>
       <c r="G182" s="14"/>
-      <c r="L182" s="1">
+      <c r="M182" s="1">
         <v>0.65</v>
       </c>
-      <c r="S182" s="1">
+      <c r="T182" s="1">
         <v>0</v>
       </c>
-      <c r="X182" s="1">
+      <c r="Y182" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>70</v>
       </c>
@@ -9360,17 +9403,17 @@
         <v>50</v>
       </c>
       <c r="G183" s="14"/>
-      <c r="L183" s="1">
+      <c r="M183" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="S183" s="1">
+      <c r="T183" s="1">
         <v>0</v>
       </c>
-      <c r="X183" s="1">
+      <c r="Y183" s="1">
         <v>177.7</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>70</v>
       </c>
@@ -9388,17 +9431,17 @@
         <v>64</v>
       </c>
       <c r="G184" s="14"/>
-      <c r="L184" s="1">
+      <c r="M184" s="1">
         <v>3.02</v>
       </c>
-      <c r="S184" s="1">
+      <c r="T184" s="1">
         <v>3.9</v>
       </c>
-      <c r="X184" s="1">
+      <c r="Y184" s="1">
         <v>387.5</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>70</v>
       </c>
@@ -9416,17 +9459,17 @@
         <v>77</v>
       </c>
       <c r="G185" s="14"/>
-      <c r="L185" s="1">
+      <c r="M185" s="1">
         <v>4.13</v>
       </c>
-      <c r="S185" s="1">
+      <c r="T185" s="1">
         <v>61.6</v>
       </c>
-      <c r="X185" s="1">
+      <c r="Y185" s="1">
         <v>616.20000000000005</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>70</v>
       </c>
@@ -9446,17 +9489,17 @@
       </c>
       <c r="G186" s="14"/>
       <c r="I186" s="8"/>
-      <c r="L186" s="1">
+      <c r="M186" s="1">
         <v>4.42</v>
       </c>
-      <c r="S186" s="1">
+      <c r="T186" s="1">
         <v>242.1</v>
       </c>
-      <c r="X186" s="1">
+      <c r="Y186" s="1">
         <v>806.9</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>70</v>
       </c>
@@ -9475,17 +9518,17 @@
         <v>104</v>
       </c>
       <c r="G187" s="14"/>
-      <c r="L187" s="1">
+      <c r="M187" s="1">
         <v>3.98</v>
       </c>
-      <c r="S187" s="1">
+      <c r="T187" s="1">
         <v>381.1</v>
       </c>
-      <c r="X187" s="1">
+      <c r="Y187" s="1">
         <v>866.1</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>70</v>
       </c>
@@ -9504,17 +9547,17 @@
         <v>117</v>
       </c>
       <c r="G188" s="14"/>
-      <c r="L188" s="1">
+      <c r="M188" s="1">
         <v>4.2</v>
       </c>
-      <c r="S188" s="1">
+      <c r="T188" s="1">
         <v>474.3</v>
       </c>
-      <c r="X188" s="1">
+      <c r="Y188" s="1">
         <v>948.6</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>70</v>
       </c>
@@ -9538,21 +9581,21 @@
       <c r="J189" s="1">
         <v>131</v>
       </c>
-      <c r="L189" s="1">
+      <c r="M189" s="1">
         <v>3.44</v>
       </c>
-      <c r="S189" s="1">
+      <c r="T189" s="1">
         <v>588.70000000000005</v>
       </c>
-      <c r="X189" s="1">
+      <c r="Y189" s="1">
         <v>1032.8</v>
       </c>
-      <c r="Z189" s="1">
-        <f>S189/X189</f>
+      <c r="AA189" s="1">
+        <f>T189/Y189</f>
         <v>0.57000387296669253</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>71</v>
       </c>
@@ -9571,17 +9614,17 @@
         <v>35</v>
       </c>
       <c r="G190" s="14"/>
-      <c r="L190" s="1">
+      <c r="M190" s="1">
         <v>0.52</v>
       </c>
-      <c r="S190" s="1">
+      <c r="T190" s="1">
         <v>0</v>
       </c>
-      <c r="X190" s="1">
+      <c r="Y190" s="1">
         <v>38.4</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>71</v>
       </c>
@@ -9600,17 +9643,17 @@
         <v>49</v>
       </c>
       <c r="G191" s="14"/>
-      <c r="L191" s="1">
+      <c r="M191" s="1">
         <v>1.87</v>
       </c>
-      <c r="S191" s="1">
+      <c r="T191" s="1">
         <v>0</v>
       </c>
-      <c r="X191" s="1">
+      <c r="Y191" s="1">
         <v>178.8</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>71</v>
       </c>
@@ -9629,17 +9672,17 @@
         <v>63</v>
       </c>
       <c r="G192" s="14"/>
-      <c r="L192" s="1">
+      <c r="M192" s="1">
         <v>3.47</v>
       </c>
-      <c r="S192" s="1">
+      <c r="T192" s="1">
         <v>11.4</v>
       </c>
-      <c r="X192" s="1">
+      <c r="Y192" s="1">
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>71</v>
       </c>
@@ -9659,17 +9702,17 @@
       </c>
       <c r="G193" s="14"/>
       <c r="I193" s="8"/>
-      <c r="L193" s="1">
+      <c r="M193" s="1">
         <v>4.41</v>
       </c>
-      <c r="S193" s="1">
+      <c r="T193" s="1">
         <v>124.2</v>
       </c>
-      <c r="X193" s="1">
+      <c r="Y193" s="1">
         <v>653.70000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>71</v>
       </c>
@@ -9688,17 +9731,17 @@
         <v>97</v>
       </c>
       <c r="G194" s="14"/>
-      <c r="L194" s="1">
+      <c r="M194" s="1">
         <v>4.84</v>
       </c>
-      <c r="S194" s="1">
+      <c r="T194" s="1">
         <v>313</v>
       </c>
-      <c r="X194" s="1">
+      <c r="Y194" s="1">
         <v>894.2</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>71</v>
       </c>
@@ -9717,17 +9760,17 @@
         <v>113</v>
       </c>
       <c r="G195" s="14"/>
-      <c r="L195" s="1">
+      <c r="M195" s="1">
         <v>5.18</v>
       </c>
-      <c r="S195" s="1">
+      <c r="T195" s="1">
         <v>562.6</v>
       </c>
-      <c r="X195" s="1">
+      <c r="Y195" s="1">
         <v>1148.0999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>71</v>
       </c>
@@ -9746,17 +9789,17 @@
         <v>127</v>
       </c>
       <c r="G196" s="14"/>
-      <c r="L196" s="1">
+      <c r="M196" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="S196" s="1">
+      <c r="T196" s="1">
         <v>624.70000000000005</v>
       </c>
-      <c r="X196" s="1">
+      <c r="Y196" s="1">
         <v>1135.8</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>71</v>
       </c>
@@ -9780,21 +9823,21 @@
       <c r="J197" s="1">
         <v>140</v>
       </c>
-      <c r="L197" s="1">
+      <c r="M197" s="1">
         <v>3.84</v>
       </c>
-      <c r="S197" s="1">
+      <c r="T197" s="1">
         <v>669</v>
       </c>
-      <c r="X197" s="1">
+      <c r="Y197" s="1">
         <v>1194.5999999999999</v>
       </c>
-      <c r="Z197" s="1">
-        <f>S197/X197</f>
+      <c r="AA197" s="1">
+        <f>T197/Y197</f>
         <v>0.56002009040683076</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>73</v>
       </c>
@@ -9813,17 +9856,17 @@
         <v>35</v>
       </c>
       <c r="G198" s="14"/>
-      <c r="L198" s="1">
+      <c r="M198" s="1">
         <v>0.92</v>
       </c>
-      <c r="S198" s="1">
+      <c r="T198" s="1">
         <v>0</v>
       </c>
-      <c r="X198" s="1">
+      <c r="Y198" s="1">
         <v>68.2</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>73</v>
       </c>
@@ -9842,17 +9885,17 @@
         <v>49</v>
       </c>
       <c r="G199" s="14"/>
-      <c r="L199" s="1">
+      <c r="M199" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="S199" s="1">
+      <c r="T199" s="1">
         <v>0</v>
       </c>
-      <c r="X199" s="1">
+      <c r="Y199" s="1">
         <v>239.5</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>73</v>
       </c>
@@ -9872,17 +9915,17 @@
       </c>
       <c r="G200" s="14"/>
       <c r="I200" s="8"/>
-      <c r="L200" s="1">
+      <c r="M200" s="1">
         <v>3.78</v>
       </c>
-      <c r="S200" s="1">
+      <c r="T200" s="1">
         <v>4.2</v>
       </c>
-      <c r="X200" s="1">
+      <c r="Y200" s="1">
         <v>419.8</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>73</v>
       </c>
@@ -9901,17 +9944,17 @@
         <v>83</v>
       </c>
       <c r="G201" s="14"/>
-      <c r="L201" s="1">
+      <c r="M201" s="1">
         <v>5.65</v>
       </c>
-      <c r="S201" s="1">
+      <c r="T201" s="1">
         <v>129.19999999999999</v>
       </c>
-      <c r="X201" s="1">
+      <c r="Y201" s="1">
         <v>807.7</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>73</v>
       </c>
@@ -9930,17 +9973,17 @@
         <v>97</v>
       </c>
       <c r="G202" s="14"/>
-      <c r="L202" s="1">
+      <c r="M202" s="1">
         <v>5.72</v>
       </c>
-      <c r="S202" s="1">
+      <c r="T202" s="1">
         <v>281.8</v>
       </c>
-      <c r="X202" s="1">
+      <c r="Y202" s="1">
         <v>971.8</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>73</v>
       </c>
@@ -9959,17 +10002,17 @@
         <v>113</v>
       </c>
       <c r="G203" s="14"/>
-      <c r="L203" s="1">
+      <c r="M203" s="1">
         <v>4.9800000000000004</v>
       </c>
-      <c r="S203" s="1">
+      <c r="T203" s="1">
         <v>478.8</v>
       </c>
-      <c r="X203" s="1">
+      <c r="Y203" s="1">
         <v>1113.5999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>73</v>
       </c>
@@ -9988,17 +10031,17 @@
         <v>127</v>
       </c>
       <c r="G204" s="14"/>
-      <c r="L204" s="1">
+      <c r="M204" s="1">
         <v>4.08</v>
       </c>
-      <c r="S204" s="1">
+      <c r="T204" s="1">
         <v>550.6</v>
       </c>
-      <c r="X204" s="1">
+      <c r="Y204" s="1">
         <v>1123.5999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>73</v>
       </c>
@@ -10022,21 +10065,21 @@
       <c r="J205" s="1">
         <v>140</v>
       </c>
-      <c r="L205" s="1">
+      <c r="M205" s="1">
         <v>3.88</v>
       </c>
-      <c r="S205" s="1">
+      <c r="T205" s="1">
         <v>722.6</v>
       </c>
-      <c r="X205" s="1">
+      <c r="Y205" s="1">
         <v>1290.3</v>
       </c>
-      <c r="Z205" s="1">
-        <f>S205/X205</f>
+      <c r="AA205" s="1">
+        <f>T205/Y205</f>
         <v>0.5600248004340076</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>74</v>
       </c>
@@ -10055,17 +10098,17 @@
         <v>43</v>
       </c>
       <c r="G206" s="14"/>
-      <c r="L206" s="1">
+      <c r="M206" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S206" s="1">
+      <c r="T206" s="1">
         <v>0</v>
       </c>
-      <c r="X206" s="1">
+      <c r="Y206" s="1">
         <v>83.7</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>74</v>
       </c>
@@ -10085,17 +10128,17 @@
       </c>
       <c r="G207" s="14"/>
       <c r="I207" s="8"/>
-      <c r="L207" s="1">
+      <c r="M207" s="1">
         <v>1.65</v>
       </c>
-      <c r="S207" s="1">
+      <c r="T207" s="1">
         <v>0</v>
       </c>
-      <c r="X207" s="1">
+      <c r="Y207" s="1">
         <v>128.9</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>74</v>
       </c>
@@ -10114,17 +10157,17 @@
         <v>65</v>
       </c>
       <c r="G208" s="14"/>
-      <c r="L208" s="1">
+      <c r="M208" s="1">
         <v>2.65</v>
       </c>
-      <c r="S208" s="1">
+      <c r="T208" s="1">
         <v>10.6</v>
       </c>
-      <c r="X208" s="1">
+      <c r="Y208" s="1">
         <v>352.8</v>
       </c>
     </row>
-    <row r="209" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>74</v>
       </c>
@@ -10143,17 +10186,17 @@
         <v>79</v>
       </c>
       <c r="G209" s="14"/>
-      <c r="L209" s="1">
+      <c r="M209" s="1">
         <v>3.38</v>
       </c>
-      <c r="S209" s="1">
+      <c r="T209" s="1">
         <v>88.9</v>
       </c>
-      <c r="X209" s="1">
+      <c r="Y209" s="1">
         <v>494</v>
       </c>
     </row>
-    <row r="210" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>74</v>
       </c>
@@ -10172,17 +10215,17 @@
         <v>100</v>
       </c>
       <c r="G210" s="14"/>
-      <c r="L210" s="1">
+      <c r="M210" s="1">
         <v>2.99</v>
       </c>
-      <c r="S210" s="1">
+      <c r="T210" s="1">
         <v>240.1</v>
       </c>
-      <c r="X210" s="1">
+      <c r="Y210" s="1">
         <v>666.9</v>
       </c>
     </row>
-    <row r="211" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>74</v>
       </c>
@@ -10201,17 +10244,17 @@
         <v>115</v>
       </c>
       <c r="G211" s="14"/>
-      <c r="L211" s="1">
+      <c r="M211" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="S211" s="1">
+      <c r="T211" s="1">
         <v>299</v>
       </c>
-      <c r="X211" s="1">
+      <c r="Y211" s="1">
         <v>650</v>
       </c>
     </row>
-    <row r="212" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>74</v>
       </c>
@@ -10230,17 +10273,17 @@
         <v>127</v>
       </c>
       <c r="G212" s="14"/>
-      <c r="L212" s="1">
+      <c r="M212" s="1">
         <v>2.38</v>
       </c>
-      <c r="S212" s="1">
+      <c r="T212" s="1">
         <v>391.2</v>
       </c>
-      <c r="X212" s="1">
+      <c r="Y212" s="1">
         <v>724.4</v>
       </c>
     </row>
-    <row r="213" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>74</v>
       </c>
@@ -10264,21 +10307,21 @@
       <c r="J213" s="1">
         <v>133</v>
       </c>
-      <c r="L213" s="1">
+      <c r="M213" s="1">
         <v>1.77</v>
       </c>
-      <c r="S213" s="1">
+      <c r="T213" s="1">
         <v>471.8</v>
       </c>
-      <c r="X213" s="1">
+      <c r="Y213" s="1">
         <v>773.5</v>
       </c>
-      <c r="Z213" s="1">
-        <f>S213/X213</f>
+      <c r="AA213" s="1">
+        <f>T213/Y213</f>
         <v>0.60995475113122177</v>
       </c>
     </row>
-    <row r="214" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>76</v>
       </c>
@@ -10298,17 +10341,17 @@
       </c>
       <c r="G214" s="14"/>
       <c r="I214" s="8"/>
-      <c r="L214" s="1">
+      <c r="M214" s="1">
         <v>1.79</v>
       </c>
-      <c r="S214" s="1">
+      <c r="T214" s="1">
         <v>0</v>
       </c>
-      <c r="X214" s="1">
+      <c r="Y214" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>76</v>
       </c>
@@ -10327,17 +10370,17 @@
         <v>51</v>
       </c>
       <c r="G215" s="14"/>
-      <c r="L215" s="1">
+      <c r="M215" s="1">
         <v>2.74</v>
       </c>
-      <c r="S215" s="1">
+      <c r="T215" s="1">
         <v>0</v>
       </c>
-      <c r="X215" s="1">
+      <c r="Y215" s="1">
         <v>229.6</v>
       </c>
     </row>
-    <row r="216" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>76</v>
       </c>
@@ -10356,17 +10399,17 @@
         <v>65</v>
       </c>
       <c r="G216" s="14"/>
-      <c r="L216" s="1">
+      <c r="M216" s="1">
         <v>3.92</v>
       </c>
-      <c r="S216" s="1">
+      <c r="T216" s="1">
         <v>19.2</v>
       </c>
-      <c r="X216" s="1">
+      <c r="Y216" s="1">
         <v>480.1</v>
       </c>
     </row>
-    <row r="217" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>76</v>
       </c>
@@ -10385,17 +10428,17 @@
         <v>79</v>
       </c>
       <c r="G217" s="14"/>
-      <c r="L217" s="1">
+      <c r="M217" s="1">
         <v>3.83</v>
       </c>
-      <c r="S217" s="1">
+      <c r="T217" s="1">
         <v>80.7</v>
       </c>
-      <c r="X217" s="1">
+      <c r="Y217" s="1">
         <v>576.4</v>
       </c>
     </row>
-    <row r="218" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>76</v>
       </c>
@@ -10414,17 +10457,17 @@
         <v>100</v>
       </c>
       <c r="G218" s="14"/>
-      <c r="L218" s="1">
+      <c r="M218" s="1">
         <v>3.33</v>
       </c>
-      <c r="S218" s="1">
+      <c r="T218" s="1">
         <v>259.3</v>
       </c>
-      <c r="X218" s="1">
+      <c r="Y218" s="1">
         <v>700.7</v>
       </c>
     </row>
-    <row r="219" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>76</v>
       </c>
@@ -10443,17 +10486,17 @@
         <v>115</v>
       </c>
       <c r="G219" s="14"/>
-      <c r="L219" s="1">
+      <c r="M219" s="1">
         <v>3.12</v>
       </c>
-      <c r="S219" s="1">
+      <c r="T219" s="1">
         <v>397.6</v>
       </c>
-      <c r="X219" s="1">
+      <c r="Y219" s="1">
         <v>864.4</v>
       </c>
     </row>
-    <row r="220" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>76</v>
       </c>
@@ -10472,17 +10515,17 @@
         <v>127</v>
       </c>
       <c r="G220" s="14"/>
-      <c r="L220" s="1">
+      <c r="M220" s="1">
         <v>2.62</v>
       </c>
-      <c r="S220" s="1">
+      <c r="T220" s="1">
         <v>436.6</v>
       </c>
-      <c r="X220" s="1">
+      <c r="Y220" s="1">
         <v>793.9</v>
       </c>
     </row>
-    <row r="221" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>76</v>
       </c>
@@ -10507,21 +10550,21 @@
       <c r="J221" s="1">
         <v>133</v>
       </c>
-      <c r="L221" s="1">
+      <c r="M221" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="S221" s="1">
+      <c r="T221" s="1">
         <v>447.8</v>
       </c>
-      <c r="X221" s="1">
+      <c r="Y221" s="1">
         <v>746.4</v>
       </c>
-      <c r="Z221" s="1">
-        <f>S221/X221</f>
+      <c r="AA221" s="1">
+        <f>T221/Y221</f>
         <v>0.59994640943194</v>
       </c>
     </row>
-    <row r="222" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A222" s="21" t="s">
         <v>109</v>
       </c>
@@ -10535,9 +10578,9 @@
       <c r="I222" s="1">
         <v>50</v>
       </c>
-      <c r="CU222" s="2"/>
-    </row>
-    <row r="223" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV222" s="2"/>
+    </row>
+    <row r="223" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
         <v>110</v>
       </c>
@@ -10551,9 +10594,9 @@
       <c r="I223" s="1">
         <v>51</v>
       </c>
-      <c r="CU223" s="2"/>
-    </row>
-    <row r="224" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV223" s="2"/>
+    </row>
+    <row r="224" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A224" s="21" t="s">
         <v>111</v>
       </c>
@@ -10567,9 +10610,9 @@
       <c r="I224" s="1">
         <v>49</v>
       </c>
-      <c r="CU224" s="2"/>
-    </row>
-    <row r="225" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV224" s="2"/>
+    </row>
+    <row r="225" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A225" s="21" t="s">
         <v>112</v>
       </c>
@@ -10583,9 +10626,9 @@
       <c r="I225" s="22">
         <v>48</v>
       </c>
-      <c r="CU225" s="2"/>
-    </row>
-    <row r="226" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV225" s="2"/>
+    </row>
+    <row r="226" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A226" s="21" t="s">
         <v>113</v>
       </c>
@@ -10599,9 +10642,9 @@
       <c r="I226" s="22">
         <v>42</v>
       </c>
-      <c r="CU226" s="2"/>
-    </row>
-    <row r="227" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV226" s="2"/>
+    </row>
+    <row r="227" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
         <v>114</v>
       </c>
@@ -10615,9 +10658,9 @@
       <c r="I227" s="22">
         <v>42</v>
       </c>
-      <c r="CU227" s="2"/>
-    </row>
-    <row r="228" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV227" s="2"/>
+    </row>
+    <row r="228" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A228" s="21" t="s">
         <v>115</v>
       </c>
@@ -10631,9 +10674,9 @@
       <c r="I228" s="22">
         <v>38</v>
       </c>
-      <c r="CU228" s="2"/>
-    </row>
-    <row r="229" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV228" s="2"/>
+    </row>
+    <row r="229" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A229" s="21" t="s">
         <v>116</v>
       </c>
@@ -10647,9 +10690,9 @@
       <c r="I229" s="22">
         <v>38</v>
       </c>
-      <c r="CU229" s="2"/>
-    </row>
-    <row r="230" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV229" s="2"/>
+    </row>
+    <row r="230" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A230" s="21" t="s">
         <v>117</v>
       </c>
@@ -10663,9 +10706,9 @@
       <c r="I230" s="22">
         <v>42</v>
       </c>
-      <c r="CU230" s="2"/>
-    </row>
-    <row r="231" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV230" s="2"/>
+    </row>
+    <row r="231" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A231" s="21" t="s">
         <v>118</v>
       </c>
@@ -10679,9 +10722,9 @@
       <c r="I231" s="22">
         <v>40</v>
       </c>
-      <c r="CU231" s="2"/>
-    </row>
-    <row r="232" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV231" s="2"/>
+    </row>
+    <row r="232" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A232" s="21" t="s">
         <v>119</v>
       </c>
@@ -10695,9 +10738,9 @@
       <c r="I232" s="22">
         <v>44</v>
       </c>
-      <c r="CU232" s="2"/>
-    </row>
-    <row r="233" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV232" s="2"/>
+    </row>
+    <row r="233" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A233" s="21" t="s">
         <v>130</v>
       </c>
@@ -10711,9 +10754,9 @@
       <c r="I233" s="22">
         <v>49</v>
       </c>
-      <c r="CU233" s="2"/>
-    </row>
-    <row r="234" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV233" s="2"/>
+    </row>
+    <row r="234" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
         <v>120</v>
       </c>
@@ -10727,9 +10770,9 @@
       <c r="I234" s="22">
         <v>50</v>
       </c>
-      <c r="CU234" s="2"/>
-    </row>
-    <row r="235" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV234" s="2"/>
+    </row>
+    <row r="235" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
         <v>121</v>
       </c>
@@ -10743,9 +10786,9 @@
       <c r="I235" s="22">
         <v>47</v>
       </c>
-      <c r="CU235" s="2"/>
-    </row>
-    <row r="236" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV235" s="2"/>
+    </row>
+    <row r="236" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A236" s="21" t="s">
         <v>122</v>
       </c>
@@ -10759,9 +10802,9 @@
       <c r="I236" s="22">
         <v>46</v>
       </c>
-      <c r="CU236" s="2"/>
-    </row>
-    <row r="237" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV236" s="2"/>
+    </row>
+    <row r="237" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A237" s="21" t="s">
         <v>123</v>
       </c>
@@ -10775,9 +10818,9 @@
       <c r="I237" s="22">
         <v>43</v>
       </c>
-      <c r="CU237" s="2"/>
-    </row>
-    <row r="238" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV237" s="2"/>
+    </row>
+    <row r="238" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A238" s="21" t="s">
         <v>124</v>
       </c>
@@ -10791,9 +10834,9 @@
       <c r="I238" s="22">
         <v>43</v>
       </c>
-      <c r="CU238" s="2"/>
-    </row>
-    <row r="239" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV238" s="2"/>
+    </row>
+    <row r="239" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A239" s="21" t="s">
         <v>125</v>
       </c>
@@ -10807,9 +10850,9 @@
       <c r="I239" s="22">
         <v>38</v>
       </c>
-      <c r="CU239" s="2"/>
-    </row>
-    <row r="240" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV239" s="2"/>
+    </row>
+    <row r="240" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A240" s="21" t="s">
         <v>126</v>
       </c>
@@ -10823,9 +10866,9 @@
       <c r="I240" s="22">
         <v>38</v>
       </c>
-      <c r="CU240" s="2"/>
-    </row>
-    <row r="241" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV240" s="2"/>
+    </row>
+    <row r="241" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A241" s="21" t="s">
         <v>127</v>
       </c>
@@ -10839,9 +10882,9 @@
       <c r="I241" s="22">
         <v>39</v>
       </c>
-      <c r="CU241" s="2"/>
-    </row>
-    <row r="242" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV241" s="2"/>
+    </row>
+    <row r="242" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A242" s="21" t="s">
         <v>128</v>
       </c>
@@ -10855,9 +10898,9 @@
       <c r="I242" s="22">
         <v>38</v>
       </c>
-      <c r="CU242" s="2"/>
-    </row>
-    <row r="243" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV242" s="2"/>
+    </row>
+    <row r="243" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
         <v>129</v>
       </c>
@@ -10871,9 +10914,9 @@
       <c r="I243" s="22">
         <v>40</v>
       </c>
-      <c r="CU243" s="2"/>
-    </row>
-    <row r="244" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV243" s="2"/>
+    </row>
+    <row r="244" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
         <v>131</v>
       </c>
@@ -10887,9 +10930,9 @@
       <c r="I244" s="1">
         <v>49</v>
       </c>
-      <c r="CU244" s="2"/>
-    </row>
-    <row r="245" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV244" s="2"/>
+    </row>
+    <row r="245" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A245" s="21" t="s">
         <v>132</v>
       </c>
@@ -10903,9 +10946,9 @@
       <c r="I245" s="1">
         <v>49</v>
       </c>
-      <c r="CU245" s="2"/>
-    </row>
-    <row r="246" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV245" s="2"/>
+    </row>
+    <row r="246" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A246" s="21" t="s">
         <v>133</v>
       </c>
@@ -10919,9 +10962,9 @@
       <c r="I246" s="1">
         <v>43</v>
       </c>
-      <c r="CU246" s="2"/>
-    </row>
-    <row r="247" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV246" s="2"/>
+    </row>
+    <row r="247" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A247" s="21" t="s">
         <v>134</v>
       </c>
@@ -10935,9 +10978,9 @@
       <c r="I247" s="22">
         <v>45</v>
       </c>
-      <c r="CU247" s="2"/>
-    </row>
-    <row r="248" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV247" s="2"/>
+    </row>
+    <row r="248" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A248" s="21" t="s">
         <v>135</v>
       </c>
@@ -10951,9 +10994,9 @@
       <c r="I248" s="22">
         <v>42</v>
       </c>
-      <c r="CU248" s="2"/>
-    </row>
-    <row r="249" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV248" s="2"/>
+    </row>
+    <row r="249" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
         <v>136</v>
       </c>
@@ -10967,9 +11010,9 @@
       <c r="I249" s="22">
         <v>38</v>
       </c>
-      <c r="CU249" s="2"/>
-    </row>
-    <row r="250" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV249" s="2"/>
+    </row>
+    <row r="250" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A250" s="21" t="s">
         <v>137</v>
       </c>
@@ -10983,9 +11026,9 @@
       <c r="I250" s="22">
         <v>35</v>
       </c>
-      <c r="CU250" s="2"/>
-    </row>
-    <row r="251" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV250" s="2"/>
+    </row>
+    <row r="251" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A251" s="21" t="s">
         <v>138</v>
       </c>
@@ -10999,9 +11042,9 @@
       <c r="I251" s="22">
         <v>36</v>
       </c>
-      <c r="CU251" s="2"/>
-    </row>
-    <row r="252" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV251" s="2"/>
+    </row>
+    <row r="252" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A252" s="21" t="s">
         <v>139</v>
       </c>
@@ -11015,9 +11058,9 @@
       <c r="I252" s="22">
         <v>38</v>
       </c>
-      <c r="CU252" s="2"/>
-    </row>
-    <row r="253" spans="1:99" x14ac:dyDescent="0.5">
+      <c r="CV252" s="2"/>
+    </row>
+    <row r="253" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A253" s="21" t="s">
         <v>140</v>
       </c>
@@ -11032,7 +11075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A254" s="21" t="s">
         <v>141</v>
       </c>
@@ -11047,7 +11090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
         <v>142</v>
       </c>
@@ -11064,7 +11107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="256" spans="1:99" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A256" s="21" t="s">
         <v>143</v>
       </c>
@@ -11081,7 +11124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257" s="21" t="s">
         <v>144</v>
       </c>
@@ -11098,7 +11141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258" s="21" t="s">
         <v>145</v>
       </c>
@@ -11115,7 +11158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259" s="21" t="s">
         <v>146</v>
       </c>
@@ -11132,7 +11175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
         <v>147</v>
       </c>
@@ -11149,7 +11192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A261" s="21" t="s">
         <v>148</v>
       </c>
@@ -11166,7 +11209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A262" s="21" t="s">
         <v>149</v>
       </c>
@@ -11183,7 +11226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A263" s="21" t="s">
         <v>150</v>
       </c>
@@ -11200,603 +11243,1133 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A264" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C264" s="23">
+        <f>DATE(1988,9,28)+F264</f>
+        <v>32448</v>
+      </c>
+      <c r="F264" s="2">
+        <v>34</v>
+      </c>
       <c r="I264" s="8"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K264" s="1">
+        <v>6.5678633134958604</v>
+      </c>
+      <c r="L264" s="1">
+        <v>688.58054873886101</v>
+      </c>
+      <c r="M264" s="1">
+        <v>0.61536866120501799</v>
+      </c>
+      <c r="N264" s="1">
+        <f>M264/P264</f>
+        <v>2.0537929067717408E-2</v>
+      </c>
+      <c r="P264" s="1">
+        <v>29.962546816479499</v>
+      </c>
+      <c r="R264" s="1">
+        <v>29.962546816479499</v>
+      </c>
+      <c r="S264" s="1">
+        <v>24.4897959183673</v>
+      </c>
+      <c r="T264" s="1">
+        <v>1.29606074622256</v>
+      </c>
+      <c r="Y264" s="1">
+        <f>T264+S264+R264</f>
+        <v>55.74840348106936</v>
+      </c>
+      <c r="AB264">
+        <v>116.61129568106301</v>
+      </c>
+      <c r="AC264">
+        <f>M264/L264</f>
+        <v>8.9367709025773233E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A265" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C265" s="23">
+        <f t="shared" ref="C265:C275" si="14">DATE(1988,9,28)+F265</f>
+        <v>32455</v>
+      </c>
+      <c r="F265" s="2">
+        <f>F264+7</f>
+        <v>41</v>
+      </c>
       <c r="I265" s="8"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K265" s="1">
+        <v>9.2908427721251599</v>
+      </c>
+      <c r="L265" s="1">
+        <v>762.97581046921403</v>
+      </c>
+      <c r="M265" s="1">
+        <v>0.83718759722078295</v>
+      </c>
+      <c r="N265" s="1">
+        <f t="shared" ref="N265:N275" si="15">M265/P265</f>
+        <v>2.1493181582495167E-2</v>
+      </c>
+      <c r="P265" s="1">
+        <v>38.951310861423103</v>
+      </c>
+      <c r="R265" s="1">
+        <v>38.951310861423103</v>
+      </c>
+      <c r="S265" s="1">
+        <v>38.775510204081598</v>
+      </c>
+      <c r="T265" s="1">
+        <v>1.19006321307415</v>
+      </c>
+      <c r="Y265" s="1">
+        <f t="shared" ref="Y265:Y275" si="16">T265+S265+R265</f>
+        <v>78.916884278578848</v>
+      </c>
+      <c r="AB265">
+        <v>164.784053156146</v>
+      </c>
+      <c r="AC265">
+        <f t="shared" ref="AC265:AC275" si="17">M265/L265</f>
+        <v>1.0972662379767062E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A266" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C266" s="23">
+        <f t="shared" si="14"/>
+        <v>32462</v>
+      </c>
+      <c r="F266" s="2">
+        <f t="shared" ref="F266:F275" si="18">F265+7</f>
+        <v>48</v>
+      </c>
       <c r="I266" s="8"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K266" s="1">
+        <v>10.4042234593971</v>
+      </c>
+      <c r="L266" s="1">
+        <v>974.70339686698503</v>
+      </c>
+      <c r="M266" s="1">
+        <v>1.4875557399149599</v>
+      </c>
+      <c r="N266" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2065410142071924E-2</v>
+      </c>
+      <c r="P266" s="1">
+        <v>67.4157303370786</v>
+      </c>
+      <c r="R266" s="1">
+        <v>67.4157303370786</v>
+      </c>
+      <c r="S266" s="1">
+        <v>89.7959183673468</v>
+      </c>
+      <c r="T266" s="1">
+        <v>1.07442954054886</v>
+      </c>
+      <c r="Y266" s="1">
+        <f t="shared" si="16"/>
+        <v>158.28607824497425</v>
+      </c>
+      <c r="AB266">
+        <v>188.039867109634</v>
+      </c>
+      <c r="AC266">
+        <f t="shared" si="17"/>
+        <v>1.5261624661373396E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A267" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C267" s="23">
+        <f t="shared" si="14"/>
+        <v>32469</v>
+      </c>
+      <c r="F267" s="2">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
       <c r="I267" s="8"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K267" s="1">
+        <v>9.9050105586484793</v>
+      </c>
+      <c r="L267" s="1">
+        <v>1397.2544605789899</v>
+      </c>
+      <c r="M267" s="1">
+        <v>2.0486363164990098</v>
+      </c>
+      <c r="N267" s="1">
+        <f t="shared" si="15"/>
+        <v>1.8992565850876386E-2</v>
+      </c>
+      <c r="P267" s="1">
+        <v>107.865168539325</v>
+      </c>
+      <c r="R267" s="1">
+        <v>107.865168539325</v>
+      </c>
+      <c r="S267" s="1">
+        <v>126.530612244897</v>
+      </c>
+      <c r="T267" s="1">
+        <v>2.7944804193646098</v>
+      </c>
+      <c r="Y267" s="1">
+        <f t="shared" si="16"/>
+        <v>237.1902612035866</v>
+      </c>
+      <c r="AB267">
+        <v>264.45182724252402</v>
+      </c>
+      <c r="AC267">
+        <f t="shared" si="17"/>
+        <v>1.466186993348443E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A268" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C268" s="23">
+        <f t="shared" si="14"/>
+        <v>32476</v>
+      </c>
+      <c r="F268" s="2">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
       <c r="I268" s="8"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K268" s="1">
+        <v>12.225763102322899</v>
+      </c>
+      <c r="L268" s="1">
+        <v>2157.7209070612698</v>
+      </c>
+      <c r="M268" s="1">
+        <v>3.0153997718552299</v>
+      </c>
+      <c r="N268" s="1">
+        <f t="shared" si="15"/>
+        <v>1.7351546100977347E-2</v>
+      </c>
+      <c r="P268" s="1">
+        <v>173.78277153558</v>
+      </c>
+      <c r="R268" s="1">
+        <v>173.78277153558</v>
+      </c>
+      <c r="S268" s="1">
+        <v>236.73469387755</v>
+      </c>
+      <c r="T268" s="1">
+        <v>6.3116712920134397</v>
+      </c>
+      <c r="Y268" s="1">
+        <f t="shared" si="16"/>
+        <v>416.82913670514347</v>
+      </c>
+      <c r="AB268">
+        <v>332.55813953488303</v>
+      </c>
+      <c r="AC268">
+        <f t="shared" si="17"/>
+        <v>1.3974929574937867E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A269" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C269" s="23">
+        <f t="shared" si="14"/>
+        <v>32483</v>
+      </c>
+      <c r="F269" s="2">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
       <c r="I269" s="8"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K269" s="1">
+        <v>12.2306008830869</v>
+      </c>
+      <c r="L269" s="1">
+        <v>1250.5489233721401</v>
+      </c>
+      <c r="M269" s="1">
+        <v>2.4253862905734702</v>
+      </c>
+      <c r="N269" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0236816861972495E-2</v>
+      </c>
+      <c r="P269" s="1">
+        <v>119.850187265917</v>
+      </c>
+      <c r="R269" s="1">
+        <v>119.850187265917</v>
+      </c>
+      <c r="S269" s="1">
+        <v>171.42857142857099</v>
+      </c>
+      <c r="T269" s="1">
+        <v>13.447232500770699</v>
+      </c>
+      <c r="Y269" s="1">
+        <f t="shared" si="16"/>
+        <v>304.7259911952587</v>
+      </c>
+      <c r="AB269">
+        <v>395.68106312292298</v>
+      </c>
+      <c r="AC269">
+        <f t="shared" si="17"/>
+        <v>1.9394573416874794E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A270" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C270" s="23">
+        <f t="shared" si="14"/>
+        <v>32490</v>
+      </c>
+      <c r="F270" s="2">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A271" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C271" s="23">
+        <f t="shared" si="14"/>
+        <v>32497</v>
+      </c>
+      <c r="F271" s="2">
+        <f t="shared" si="18"/>
+        <v>83</v>
+      </c>
       <c r="I271" s="8"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K271" s="1">
+        <v>15.563140717988</v>
+      </c>
+      <c r="L271" s="1">
+        <v>3214.69823052936</v>
+      </c>
+      <c r="M271" s="1">
+        <v>4.1557606553976996</v>
+      </c>
+      <c r="N271" s="1">
+        <f t="shared" si="15"/>
+        <v>1.7229628804210972E-2</v>
+      </c>
+      <c r="P271" s="1">
+        <v>241.19850187265899</v>
+      </c>
+      <c r="R271" s="1">
+        <v>241.19850187265899</v>
+      </c>
+      <c r="S271" s="1">
+        <v>412.24489795918299</v>
+      </c>
+      <c r="T271" s="1">
+        <v>129.186902559358</v>
+      </c>
+      <c r="Y271" s="1">
+        <f t="shared" si="16"/>
+        <v>782.63030239119996</v>
+      </c>
+      <c r="AB271">
+        <v>520.26578073089604</v>
+      </c>
+      <c r="AC271">
+        <f t="shared" si="17"/>
+        <v>1.2927374071790795E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A272" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C272" s="23">
+        <f t="shared" si="14"/>
+        <v>32504</v>
+      </c>
+      <c r="F272" s="2">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
       <c r="I272" s="8"/>
-    </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.5">
+      <c r="K272" s="1">
+        <v>15.4673065847571</v>
+      </c>
+      <c r="L272" s="1">
+        <v>3436.88765060796</v>
+      </c>
+      <c r="M272" s="1">
+        <v>3.6783677278855098</v>
+      </c>
+      <c r="N272" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2991060626262332E-2</v>
+      </c>
+      <c r="P272" s="1">
+        <v>283.14606741572999</v>
+      </c>
+      <c r="R272" s="1">
+        <v>283.14606741572999</v>
+      </c>
+      <c r="S272" s="1">
+        <v>475.51020408163203</v>
+      </c>
+      <c r="T272" s="1">
+        <v>158.06159420289799</v>
+      </c>
+      <c r="Y272" s="1">
+        <f t="shared" si="16"/>
+        <v>916.71786570026006</v>
+      </c>
+      <c r="AB272">
+        <v>453.82059800664399</v>
+      </c>
+      <c r="AC272">
+        <f t="shared" si="17"/>
+        <v>1.0702612659552121E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A273" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C273" s="23">
+        <f t="shared" si="14"/>
+        <v>32511</v>
+      </c>
+      <c r="F273" s="2">
+        <f t="shared" si="18"/>
+        <v>97</v>
+      </c>
       <c r="I273" s="8"/>
-    </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.5">
+      <c r="K273" s="1">
+        <v>15.069917450566299</v>
+      </c>
+      <c r="L273" s="1">
+        <v>3564.0533608871301</v>
+      </c>
+      <c r="M273" s="1">
+        <v>5.3219433786166102</v>
+      </c>
+      <c r="N273" s="1">
+        <f t="shared" si="15"/>
+        <v>1.6599986940311187E-2</v>
+      </c>
+      <c r="P273" s="1">
+        <v>320.59925093632899</v>
+      </c>
+      <c r="R273" s="1">
+        <v>320.59925093632899</v>
+      </c>
+      <c r="S273" s="1">
+        <v>446.93877551020398</v>
+      </c>
+      <c r="T273" s="1">
+        <v>299.26476256552502</v>
+      </c>
+      <c r="Y273" s="1">
+        <f t="shared" si="16"/>
+        <v>1066.8027890120579</v>
+      </c>
+      <c r="AB273">
+        <v>463.78737541528204</v>
+      </c>
+      <c r="AC273">
+        <f t="shared" si="17"/>
+        <v>1.4932277493432148E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A274" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C274" s="23">
+        <f t="shared" si="14"/>
+        <v>32518</v>
+      </c>
+      <c r="F274" s="2">
+        <f t="shared" si="18"/>
+        <v>104</v>
+      </c>
       <c r="I274" s="8"/>
-    </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.5">
+      <c r="K274" s="1">
+        <v>15.477442887310399</v>
+      </c>
+      <c r="L274" s="1">
+        <v>3765.0792479288498</v>
+      </c>
+      <c r="M274" s="1">
+        <v>4.9798817795291903</v>
+      </c>
+      <c r="N274" s="1">
+        <f t="shared" si="15"/>
+        <v>1.6873457298658558E-2</v>
+      </c>
+      <c r="P274" s="1">
+        <v>295.13108614232198</v>
+      </c>
+      <c r="R274" s="1">
+        <v>295.13108614232198</v>
+      </c>
+      <c r="S274" s="1">
+        <v>465.30612244897901</v>
+      </c>
+      <c r="T274" s="1">
+        <v>313.646700585877</v>
+      </c>
+      <c r="Y274" s="1">
+        <f t="shared" si="16"/>
+        <v>1074.0839091771779</v>
+      </c>
+      <c r="AB274">
+        <v>417.27574750830502</v>
+      </c>
+      <c r="AC274">
+        <f t="shared" si="17"/>
+        <v>1.3226499235756053E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A275" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C275" s="23">
+        <f t="shared" si="14"/>
+        <v>32525</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" s="2">
+        <f t="shared" si="18"/>
+        <v>111</v>
+      </c>
       <c r="I275" s="8"/>
-    </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.5">
+      <c r="K275" s="1">
+        <v>16.188135918602399</v>
+      </c>
+      <c r="L275" s="1">
+        <v>3660.1287894163802</v>
+      </c>
+      <c r="M275" s="1">
+        <v>5.1565902727367003</v>
+      </c>
+      <c r="N275" s="1">
+        <f t="shared" si="15"/>
+        <v>1.5096596522156794E-2</v>
+      </c>
+      <c r="P275" s="1">
+        <v>341.57303370786502</v>
+      </c>
+      <c r="R275" s="1">
+        <v>341.57303370786502</v>
+      </c>
+      <c r="S275" s="1">
+        <v>544.89795918367304</v>
+      </c>
+      <c r="T275" s="1">
+        <v>409.540741597286</v>
+      </c>
+      <c r="Y275" s="1">
+        <f t="shared" si="16"/>
+        <v>1296.011734488824</v>
+      </c>
+      <c r="AB275">
+        <v>427.24252491694301</v>
+      </c>
+      <c r="AC275">
+        <f t="shared" si="17"/>
+        <v>1.4088548708033129E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I304" s="8"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I305" s="8"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I306" s="8"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I307" s="8"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I308" s="8"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I309" s="8"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I310" s="8"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I311" s="8"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I312" s="8"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I313" s="8"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I314" s="8"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I315" s="8"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I316" s="8"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I317" s="8"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I318" s="8"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I319" s="8"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I320" s="8"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I322" s="8"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I323" s="8"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I324" s="8"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I325" s="8"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I326" s="8"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I327" s="8"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I328" s="8"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I329" s="8"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I330" s="8"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I331" s="8"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I332" s="8"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I333" s="8"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I334" s="8"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I335" s="8"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I351" s="8"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I352" s="8"/>
     </row>
-    <row r="353" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="353" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C353" s="18"/>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
       <c r="F353" s="19"/>
       <c r="G353" s="19"/>
-      <c r="CV353" s="20"/>
       <c r="CW353" s="20"/>
-    </row>
-    <row r="354" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX353" s="20"/>
+    </row>
+    <row r="354" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C354" s="18"/>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
-      <c r="CV354" s="20"/>
       <c r="CW354" s="20"/>
-    </row>
-    <row r="355" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX354" s="20"/>
+    </row>
+    <row r="355" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C355" s="18"/>
       <c r="D355" s="18"/>
       <c r="E355" s="18"/>
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
-      <c r="CV355" s="20"/>
       <c r="CW355" s="20"/>
-    </row>
-    <row r="356" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX355" s="20"/>
+    </row>
+    <row r="356" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C356" s="18"/>
       <c r="D356" s="18"/>
       <c r="E356" s="18"/>
       <c r="F356" s="19"/>
       <c r="G356" s="19"/>
-      <c r="CV356" s="20"/>
       <c r="CW356" s="20"/>
-    </row>
-    <row r="357" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX356" s="20"/>
+    </row>
+    <row r="357" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C357" s="18"/>
       <c r="D357" s="18"/>
       <c r="E357" s="18"/>
       <c r="F357" s="19"/>
       <c r="G357" s="19"/>
-      <c r="CV357" s="20"/>
       <c r="CW357" s="20"/>
-    </row>
-    <row r="358" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX357" s="20"/>
+    </row>
+    <row r="358" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C358" s="18"/>
       <c r="D358" s="18"/>
       <c r="E358" s="18"/>
       <c r="F358" s="19"/>
       <c r="G358" s="19"/>
-      <c r="CV358" s="20"/>
       <c r="CW358" s="20"/>
-    </row>
-    <row r="359" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX358" s="20"/>
+    </row>
+    <row r="359" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C359" s="18"/>
       <c r="D359" s="18"/>
       <c r="E359" s="18"/>
       <c r="F359" s="19"/>
       <c r="G359" s="19"/>
-      <c r="CV359" s="20"/>
       <c r="CW359" s="20"/>
-    </row>
-    <row r="360" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX359" s="20"/>
+    </row>
+    <row r="360" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C360" s="18"/>
       <c r="D360" s="18"/>
       <c r="E360" s="18"/>
       <c r="F360" s="19"/>
       <c r="G360" s="19"/>
-      <c r="CV360" s="20"/>
       <c r="CW360" s="20"/>
-    </row>
-    <row r="361" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX360" s="20"/>
+    </row>
+    <row r="361" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C361" s="18"/>
       <c r="D361" s="18"/>
       <c r="E361" s="18"/>
       <c r="F361" s="19"/>
       <c r="G361" s="19"/>
-      <c r="CV361" s="20"/>
       <c r="CW361" s="20"/>
-    </row>
-    <row r="362" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX361" s="20"/>
+    </row>
+    <row r="362" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C362" s="18"/>
       <c r="D362" s="18"/>
       <c r="E362" s="18"/>
       <c r="F362" s="19"/>
       <c r="G362" s="19"/>
-      <c r="CV362" s="20"/>
       <c r="CW362" s="20"/>
-    </row>
-    <row r="363" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX362" s="20"/>
+    </row>
+    <row r="363" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C363" s="18"/>
       <c r="D363" s="18"/>
       <c r="E363" s="18"/>
       <c r="F363" s="19"/>
       <c r="G363" s="19"/>
-      <c r="CV363" s="20"/>
       <c r="CW363" s="20"/>
-    </row>
-    <row r="364" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX363" s="20"/>
+    </row>
+    <row r="364" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C364" s="18"/>
       <c r="D364" s="18"/>
       <c r="E364" s="18"/>
       <c r="F364" s="19"/>
       <c r="G364" s="19"/>
-      <c r="CV364" s="20"/>
       <c r="CW364" s="20"/>
-    </row>
-    <row r="365" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX364" s="20"/>
+    </row>
+    <row r="365" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C365" s="18"/>
       <c r="D365" s="18"/>
       <c r="E365" s="18"/>
       <c r="F365" s="19"/>
       <c r="G365" s="19"/>
-      <c r="CV365" s="20"/>
       <c r="CW365" s="20"/>
-    </row>
-    <row r="366" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX365" s="20"/>
+    </row>
+    <row r="366" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C366" s="18"/>
       <c r="D366" s="18"/>
       <c r="E366" s="18"/>
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
-      <c r="CV366" s="20"/>
       <c r="CW366" s="20"/>
-    </row>
-    <row r="367" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX366" s="20"/>
+    </row>
+    <row r="367" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C367" s="18"/>
       <c r="D367" s="18"/>
       <c r="E367" s="18"/>
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
-      <c r="CV367" s="20"/>
       <c r="CW367" s="20"/>
-    </row>
-    <row r="368" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX367" s="20"/>
+    </row>
+    <row r="368" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C368" s="18"/>
       <c r="D368" s="18"/>
       <c r="E368" s="18"/>
       <c r="F368" s="19"/>
       <c r="G368" s="19"/>
-      <c r="CV368" s="20"/>
       <c r="CW368" s="20"/>
-    </row>
-    <row r="369" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX368" s="20"/>
+    </row>
+    <row r="369" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C369" s="18"/>
       <c r="D369" s="18"/>
       <c r="E369" s="18"/>
       <c r="F369" s="19"/>
       <c r="G369" s="19"/>
-      <c r="CV369" s="20"/>
       <c r="CW369" s="20"/>
-    </row>
-    <row r="370" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX369" s="20"/>
+    </row>
+    <row r="370" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C370" s="18"/>
       <c r="D370" s="18"/>
       <c r="E370" s="18"/>
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
-      <c r="CV370" s="20"/>
       <c r="CW370" s="20"/>
-    </row>
-    <row r="371" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX370" s="20"/>
+    </row>
+    <row r="371" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C371" s="18"/>
       <c r="D371" s="18"/>
       <c r="E371" s="18"/>
       <c r="F371" s="19"/>
       <c r="G371" s="19"/>
-      <c r="CV371" s="20"/>
       <c r="CW371" s="20"/>
-    </row>
-    <row r="372" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX371" s="20"/>
+    </row>
+    <row r="372" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C372" s="18"/>
       <c r="D372" s="18"/>
       <c r="E372" s="18"/>
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
-      <c r="CV372" s="20"/>
       <c r="CW372" s="20"/>
-    </row>
-    <row r="373" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX372" s="20"/>
+    </row>
+    <row r="373" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C373" s="18"/>
       <c r="D373" s="18"/>
       <c r="E373" s="18"/>
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
-      <c r="CV373" s="20"/>
       <c r="CW373" s="20"/>
-    </row>
-    <row r="374" spans="3:101" x14ac:dyDescent="0.5">
+      <c r="CX373" s="20"/>
+    </row>
+    <row r="374" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C374" s="18"/>
       <c r="D374" s="18"/>
       <c r="E374" s="18"/>
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
     </row>
-    <row r="375" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="375" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C375" s="18"/>
       <c r="D375" s="18"/>
       <c r="E375" s="18"/>
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
     </row>
-    <row r="376" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="376" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C376" s="18"/>
       <c r="D376" s="18"/>
       <c r="E376" s="18"/>
       <c r="F376" s="19"/>
       <c r="G376" s="19"/>
     </row>
-    <row r="377" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="377" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C377" s="18"/>
       <c r="D377" s="18"/>
       <c r="E377" s="18"/>
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
     </row>
-    <row r="378" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="378" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C378" s="18"/>
       <c r="D378" s="18"/>
       <c r="E378" s="18"/>
       <c r="F378" s="19"/>
       <c r="G378" s="19"/>
     </row>
-    <row r="379" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="379" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C379" s="18"/>
       <c r="D379" s="18"/>
       <c r="E379" s="18"/>
       <c r="F379" s="19"/>
       <c r="G379" s="19"/>
     </row>
-    <row r="380" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="380" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C380" s="18"/>
       <c r="D380" s="18"/>
       <c r="E380" s="18"/>
       <c r="F380" s="19"/>
       <c r="G380" s="19"/>
     </row>
-    <row r="381" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="381" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C381" s="18"/>
       <c r="D381" s="18"/>
       <c r="E381" s="18"/>
       <c r="F381" s="19"/>
       <c r="G381" s="19"/>
     </row>
-    <row r="382" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="382" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C382" s="18"/>
       <c r="D382" s="18"/>
       <c r="E382" s="18"/>
       <c r="F382" s="19"/>
       <c r="G382" s="19"/>
     </row>
-    <row r="383" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="383" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C383" s="18"/>
       <c r="D383" s="18"/>
       <c r="E383" s="18"/>
       <c r="F383" s="19"/>
       <c r="G383" s="19"/>
     </row>
-    <row r="384" spans="3:101" x14ac:dyDescent="0.5">
+    <row r="384" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C384" s="18"/>
       <c r="D384" s="18"/>
       <c r="E384" s="18"/>
       <c r="F384" s="19"/>
       <c r="G384" s="19"/>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C385" s="18"/>
       <c r="D385" s="18"/>
       <c r="E385" s="18"/>
       <c r="F385" s="19"/>
       <c r="G385" s="19"/>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C386" s="18"/>
       <c r="D386" s="18"/>
       <c r="E386" s="18"/>
       <c r="F386" s="19"/>
       <c r="G386" s="19"/>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C387" s="18"/>
       <c r="D387" s="18"/>
       <c r="E387" s="18"/>
       <c r="F387" s="19"/>
       <c r="G387" s="19"/>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C388" s="18"/>
       <c r="D388" s="18"/>
       <c r="E388" s="18"/>
       <c r="F388" s="19"/>
       <c r="G388" s="19"/>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C389" s="18"/>
       <c r="D389" s="18"/>
       <c r="E389" s="18"/>
       <c r="F389" s="19"/>
       <c r="G389" s="19"/>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C390" s="18"/>
       <c r="D390" s="18"/>
       <c r="E390" s="18"/>
       <c r="F390" s="19"/>
       <c r="G390" s="19"/>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C391" s="18"/>
       <c r="D391" s="18"/>
       <c r="E391" s="18"/>
       <c r="F391" s="19"/>
       <c r="G391" s="19"/>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C392" s="18"/>
       <c r="D392" s="18"/>
       <c r="E392" s="18"/>
       <c r="F392" s="19"/>
       <c r="G392" s="19"/>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C393" s="18"/>
       <c r="D393" s="18"/>
       <c r="E393" s="18"/>
       <c r="F393" s="19"/>
       <c r="G393" s="19"/>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C394" s="18"/>
       <c r="D394" s="18"/>
       <c r="E394" s="18"/>
@@ -11805,7 +12378,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11817,9 +12390,9 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>77</v>
       </c>
@@ -11840,7 +12413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -11860,7 +12433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>36</v>
       </c>
@@ -11898,7 +12471,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>50</v>
       </c>
@@ -11936,7 +12509,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>64</v>
       </c>
@@ -11974,7 +12547,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>77</v>
       </c>
@@ -12012,7 +12585,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>91</v>
       </c>
@@ -12050,7 +12623,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>104</v>
       </c>
@@ -12088,7 +12661,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>117</v>
       </c>
@@ -12126,7 +12699,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>131</v>
       </c>
@@ -12164,7 +12737,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -12184,7 +12757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -12204,7 +12777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>36</v>
       </c>
@@ -12242,7 +12815,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>50</v>
       </c>
@@ -12280,7 +12853,7 @@
         <v>229.6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>64</v>
       </c>
@@ -12318,7 +12891,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>77</v>
       </c>
@@ -12356,7 +12929,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>91</v>
       </c>
@@ -12394,7 +12967,7 @@
         <v>700.7</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>104</v>
       </c>
@@ -12432,7 +13005,7 @@
         <v>864.4</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>117</v>
       </c>
@@ -12470,7 +13043,7 @@
         <v>793.9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>131</v>
       </c>
@@ -12508,7 +13081,7 @@
         <v>746.4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -12528,7 +13101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -12548,7 +13121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>36</v>
       </c>
@@ -12586,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>50</v>
       </c>
@@ -12624,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>64</v>
       </c>
@@ -12662,7 +13235,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>77</v>
       </c>
@@ -12700,7 +13273,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>91</v>
       </c>
@@ -12738,7 +13311,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>104</v>
       </c>
@@ -12776,7 +13349,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>117</v>
       </c>
@@ -12814,7 +13387,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>131</v>
       </c>
@@ -12852,7 +13425,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>80</v>
       </c>
@@ -12872,7 +13445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -12892,7 +13465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>36</v>
       </c>
@@ -12930,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>50</v>
       </c>
@@ -12968,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>64</v>
       </c>
@@ -13006,7 +13579,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>77</v>
       </c>
@@ -13044,7 +13617,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>91</v>
       </c>
@@ -13082,7 +13655,7 @@
         <v>259.3</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>104</v>
       </c>
@@ -13120,7 +13693,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>117</v>
       </c>
@@ -13158,7 +13731,7 @@
         <v>436.6</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>131</v>
       </c>
@@ -13208,9 +13781,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>14</v>
       </c>
@@ -13218,7 +13791,7 @@
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -13226,7 +13799,7 @@
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>28</v>
       </c>
@@ -13234,7 +13807,7 @@
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>36</v>
       </c>
@@ -13242,7 +13815,7 @@
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
@@ -13250,7 +13823,7 @@
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>57</v>
       </c>
@@ -13258,7 +13831,7 @@
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>66</v>
       </c>
@@ -13266,7 +13839,7 @@
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -13274,7 +13847,7 @@
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>21</v>
       </c>
@@ -13282,7 +13855,7 @@
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
@@ -13290,7 +13863,7 @@
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>36</v>
       </c>
@@ -13298,7 +13871,7 @@
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -13306,7 +13879,7 @@
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>57</v>
       </c>
@@ -13314,7 +13887,7 @@
         <v>0.96878842686282296</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>66</v>
       </c>
@@ -13322,7 +13895,7 @@
         <v>0.98848228021902196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13330,7 +13903,7 @@
         <v>0.17231777051132799</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -13338,7 +13911,7 @@
         <v>0.52665686982701998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28</v>
       </c>
@@ -13346,7 +13919,7 @@
         <v>0.78575800519434602</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>36</v>
       </c>
@@ -13354,7 +13927,7 @@
         <v>0.88946711074104901</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>50</v>
       </c>
@@ -13362,7 +13935,7 @@
         <v>0.96907792071728205</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>57</v>
       </c>
@@ -13370,7 +13943,7 @@
         <v>0.98757933510154305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>66</v>
       </c>
@@ -13378,7 +13951,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -13386,7 +13959,7 @@
         <v>0.22119398293916201</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -13394,7 +13967,7 @@
         <v>0.62816857916416202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -13402,7 +13975,7 @@
         <v>0.84465346207078995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>36</v>
       </c>
@@ -13410,7 +13983,7 @@
         <v>0.91580140170167201</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50</v>
       </c>
@@ -13418,7 +13991,7 @@
         <v>0.98663503371914096</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>57</v>
       </c>
@@ -13426,7 +13999,7 @@
         <v>0.98884070118168599</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>66</v>
       </c>
@@ -13448,9 +14021,9 @@
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>87.960939116915199</v>
       </c>
@@ -13482,7 +14055,7 @@
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90.047753418710698</v>
       </c>
@@ -13514,7 +14087,7 @@
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>88.674211639517196</v>
       </c>
@@ -13546,7 +14119,7 @@
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>88.371335833741398</v>
       </c>
@@ -13578,7 +14151,7 @@
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>275.31688381179299</v>
       </c>
@@ -13625,7 +14198,7 @@
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>273.45874074335802</v>
       </c>
@@ -13672,7 +14245,7 @@
         <v>1124.9410322956101</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>273.63592308973699</v>
       </c>
@@ -13719,7 +14292,7 @@
         <v>1297.83741710808</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>273.34819107425</v>
       </c>
@@ -13766,7 +14339,7 @@
         <v>-2.4079169318338201</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>398.36623742434398</v>
       </c>
@@ -13813,7 +14386,7 @@
         <v>-2.4973443832222899</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>395.29053361669003</v>
       </c>
@@ -13860,7 +14433,7 @@
         <v>0.40407959516369302</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>396.46266298504298</v>
       </c>
@@ -13907,7 +14480,7 @@
         <v>154.858536654609</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>395.28599047960302</v>
       </c>
@@ -13939,7 +14512,7 @@
         <v>451.29728949653298</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>590.30469306061002</v>
       </c>
@@ -13971,7 +14544,7 @@
         <v>580.99690316047895</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>590.30014992352301</v>
       </c>
@@ -14003,7 +14576,7 @@
         <v>710.696516824426</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>591.66460542854395</v>
       </c>
@@ -14029,7 +14602,7 @@
         <v>0.57361464420763097</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>588.78577089464397</v>
       </c>
@@ -14055,7 +14628,7 @@
         <v>0.46009256985709301</v>
       </c>
     </row>
-    <row r="21" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="21" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
         <v>81</v>
       </c>
@@ -14090,7 +14663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="22" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N22">
         <f>1000000/O22/(Q22*10)</f>
         <v>339.21302578018992</v>
@@ -14131,7 +14704,7 @@
         <v>0.33709993123162102</v>
       </c>
     </row>
-    <row r="23" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="23" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O23">
         <v>8.8000000000000007</v>
       </c>
@@ -14168,7 +14741,7 @@
         <v>0.49428552661208058</v>
       </c>
     </row>
-    <row r="24" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="24" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O24">
         <v>8.8000000000000007</v>
       </c>
@@ -14205,7 +14778,7 @@
         <v>0.71905872816165339</v>
       </c>
     </row>
-    <row r="25" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="25" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O25">
         <v>8.8000000000000007</v>
       </c>
@@ -14242,7 +14815,7 @@
         <v>0.90390566683999418</v>
       </c>
     </row>
-    <row r="26" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="26" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O26">
         <v>27.3</v>
       </c>
@@ -14279,7 +14852,7 @@
         <v>0.19138975058773819</v>
       </c>
     </row>
-    <row r="27" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="27" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O27">
         <v>27.3</v>
       </c>
@@ -14316,7 +14889,7 @@
         <v>0.28063246204703179</v>
       </c>
     </row>
-    <row r="28" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="28" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O28">
         <v>27.3</v>
       </c>
@@ -14353,7 +14926,7 @@
         <v>0.40824829046386302</v>
       </c>
     </row>
-    <row r="29" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="29" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O29">
         <v>27.3</v>
       </c>
@@ -14390,7 +14963,7 @@
         <v>0.51319583335210683</v>
       </c>
     </row>
-    <row r="30" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="30" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O30">
         <v>39.4</v>
       </c>
@@ -14427,7 +15000,7 @@
         <v>0.15931324696929153</v>
       </c>
     </row>
-    <row r="31" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="31" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O31">
         <v>39.4</v>
       </c>
@@ -14464,7 +15037,7 @@
         <v>0.23359907516679454</v>
       </c>
     </row>
-    <row r="32" spans="14:25" x14ac:dyDescent="0.5">
+    <row r="32" spans="14:25" x14ac:dyDescent="0.3">
       <c r="O32">
         <v>39.4</v>
       </c>
@@ -14501,7 +15074,7 @@
         <v>0.33982676984389865</v>
       </c>
     </row>
-    <row r="33" spans="15:25" x14ac:dyDescent="0.5">
+    <row r="33" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O33">
         <v>39.4</v>
       </c>
@@ -14538,7 +15111,7 @@
         <v>0.42718533407020198</v>
       </c>
     </row>
-    <row r="34" spans="15:25" x14ac:dyDescent="0.5">
+    <row r="34" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O34">
         <v>58.8</v>
       </c>
@@ -14575,7 +15148,7 @@
         <v>0.13041013273932528</v>
       </c>
     </row>
-    <row r="35" spans="15:25" x14ac:dyDescent="0.5">
+    <row r="35" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O35">
         <v>58.8</v>
       </c>
@@ -14612,7 +15185,7 @@
         <v>0.19121879052629775</v>
       </c>
     </row>
-    <row r="36" spans="15:25" x14ac:dyDescent="0.5">
+    <row r="36" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O36">
         <v>58.8</v>
       </c>
@@ -14649,7 +15222,7 @@
         <v>0.27817432013209342</v>
       </c>
     </row>
-    <row r="37" spans="15:25" x14ac:dyDescent="0.5">
+    <row r="37" spans="15:25" x14ac:dyDescent="0.3">
       <c r="O37">
         <v>58.8</v>
       </c>
@@ -14701,9 +15274,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>92</v>
       </c>
@@ -14717,7 +15290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -14729,7 +15302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <f t="shared" ref="C5:C28" si="1">C4+1</f>
         <v>2</v>
@@ -14742,7 +15315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -14760,7 +15333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -14778,7 +15351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -14796,7 +15369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -14814,7 +15387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -14832,7 +15405,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -14850,7 +15423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -14868,7 +15441,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -14886,7 +15459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -14904,7 +15477,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -14922,7 +15495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -14940,7 +15513,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -14958,7 +15531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -14976,7 +15549,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -14990,7 +15563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -15004,7 +15577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -15018,7 +15591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -15032,7 +15605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -15046,7 +15619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -15060,7 +15633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -15074,7 +15647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -15088,7 +15661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -15102,7 +15675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -15131,9 +15704,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -15150,7 +15723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>21.871898300941201</v>
       </c>
@@ -15164,7 +15737,7 @@
         <v>6.1240529132300298E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>43.262926292629203</v>
       </c>
@@ -15178,7 +15751,7 @@
         <v>0.26675173522191198</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>64.313409118689606</v>
       </c>
@@ -15195,7 +15768,7 @@
         <v>13.2019764924468</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>85.057572423908994</v>
       </c>
@@ -15212,7 +15785,7 @@
         <v>135.990635419364</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>105.993399339934</v>
       </c>
@@ -15229,7 +15802,7 @@
         <v>344.916351444062</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>147.98484292873701</v>
       </c>
@@ -15246,7 +15819,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>22.055005500549999</v>
       </c>
@@ -15260,7 +15833,7 @@
         <v>7.9806962081206301E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>42.785478547854702</v>
       </c>
@@ -15274,7 +15847,7 @@
         <v>0.39135214849613997</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>63.894144970052501</v>
       </c>
@@ -15291,7 +15864,7 @@
         <v>8.3883471301619394</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>84.621195452878595</v>
       </c>
@@ -15308,7 +15881,7 @@
         <v>118.457139958836</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>105.681945972375</v>
       </c>
@@ -15325,7 +15898,7 @@
         <v>290.72191092970399</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>147.97799779977899</v>
       </c>
@@ -15342,7 +15915,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>21.7195941816403</v>
       </c>
@@ -15356,7 +15929,7 @@
         <v>0.15572843997809899</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>42.812859063684101</v>
       </c>
@@ -15370,7 +15943,7 @@
         <v>0.51551102947669503</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>64.049871653832</v>
       </c>
@@ -15387,7 +15960,7 @@
         <v>6.7943929973866899</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>84.929226255958895</v>
       </c>
@@ -15404,7 +15977,7 @@
         <v>112.049556463776</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>105.849651631829</v>
       </c>
@@ -15421,7 +15994,7 @@
         <v>153.61008854707501</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>147.80002444688901</v>
       </c>
@@ -15438,7 +16011,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>22.231267571201499</v>
       </c>
@@ -15453,7 +16026,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>43.199608849773803</v>
       </c>
@@ -15468,7 +16041,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>64.135435765798803</v>
       </c>
@@ -15486,7 +16059,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>85.391272460579302</v>
       </c>
@@ -15504,7 +16077,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>106.26035936927001</v>
       </c>
@@ -15522,7 +16095,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>149.03214765921001</v>
       </c>
@@ -15539,7 +16112,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>21.906123945727899</v>
       </c>
@@ -15554,7 +16127,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>43.223566801124498</v>
       </c>
@@ -15569,7 +16142,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>64.641975308641904</v>
       </c>
@@ -15587,7 +16160,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>85.276616550543906</v>
       </c>
@@ -15605,7 +16178,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>106.037892678156</v>
       </c>
@@ -15623,7 +16196,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>147.88045471213701</v>
       </c>
@@ -15640,7 +16213,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>21.760664955384399</v>
       </c>
@@ -15655,7 +16228,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>42.766654443222102</v>
       </c>
@@ -15670,7 +16243,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>63.459479281261402</v>
       </c>
@@ -15688,7 +16261,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>85.057572423908994</v>
       </c>
@@ -15706,7 +16279,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>105.95575113066801</v>
       </c>
@@ -15724,7 +16297,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>148.26035936926999</v>
       </c>
@@ -15755,9 +16328,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>28.087146331139401</v>
       </c>
@@ -15771,7 +16344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>41.896237768389902</v>
       </c>
@@ -15800,7 +16373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>54.914970079759598</v>
       </c>
@@ -15825,7 +16398,7 @@
         <v>24.734753777584501</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>74.950724974478504</v>
       </c>
@@ -15856,7 +16429,7 @@
         <v>52.430744977531901</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>90.053997526704094</v>
       </c>
@@ -15887,7 +16460,7 @@
         <v>110.07805458869541</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>106.157477570194</v>
       </c>
@@ -15918,7 +16491,7 @@
         <v>215.09959196103651</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>28.187538904612101</v>
       </c>
@@ -15949,7 +16522,7 @@
         <v>256.99515305663198</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>41.997559902728099</v>
       </c>
@@ -15980,7 +16553,7 @@
         <v>319.30050346738301</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>54.915899640625099</v>
       </c>
@@ -16005,7 +16578,7 @@
         <v>27.319273834112298</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>74.951654535344005</v>
       </c>
@@ -16036,7 +16609,7 @@
         <v>68.55233816419927</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>89.865993841659204</v>
       </c>
@@ -16067,7 +16640,7 @@
         <v>125.65467243811909</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>106.047324607634</v>
       </c>
@@ -16098,7 +16671,7 @@
         <v>240.56460123216399</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>27.784109488990499</v>
       </c>
@@ -16129,7 +16702,7 @@
         <v>298.15629620329099</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>41.992447317967901</v>
       </c>
@@ -16160,7 +16733,7 @@
         <v>327.09654404821424</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>55.207549362171797</v>
       </c>
@@ -16185,7 +16758,7 @@
         <v>16.430491456581201</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>75.043448670810903</v>
       </c>
@@ -16216,7 +16789,7 @@
         <v>49.005618213657058</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>90.054462307136802</v>
       </c>
@@ -16247,7 +16820,7 @@
         <v>91.869781064637493</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>27.979782051175601</v>
       </c>
@@ -16278,7 +16851,7 @@
         <v>217.0976587446427</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>41.970835027845297</v>
       </c>
@@ -16309,7 +16882,7 @@
         <v>295.09983520714297</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>55.064396988886699</v>
       </c>
@@ -16334,7 +16907,7 @@
         <v>33.757226576011199</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>74.774108410035893</v>
       </c>
@@ -16365,7 +16938,7 @@
         <v>65.791824770872907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>89.880866815507005</v>
       </c>
@@ -16396,7 +16969,7 @@
         <v>93.131376048393804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>105.885581017039</v>
       </c>
@@ -16427,7 +17000,7 @@
         <v>229.94465909246099</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>42.1713877845742</v>
       </c>
@@ -16458,7 +17031,7 @@
         <v>253.33346900617889</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>55.168275415605002</v>
       </c>
@@ -16466,7 +17039,7 @@
         <v>0.633145484575102</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>74.888676786707293</v>
       </c>
@@ -16474,7 +17047,7 @@
         <v>3.56457211151411</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>89.903176276278799</v>
       </c>
@@ -16482,7 +17055,7 @@
         <v>5.7086233369575101</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>105.794251662005</v>
       </c>
@@ -16490,7 +17063,7 @@
         <v>5.9148464149659299</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>42.0707628208852</v>
       </c>
@@ -16498,7 +17071,7 @@
         <v>4.9368811573035701E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>54.969349390390597</v>
       </c>
@@ -16506,7 +17079,7 @@
         <v>0.71235568982546105</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>75.082722617377797</v>
       </c>
@@ -16514,7 +17087,7 @@
         <v>3.0702490725140499</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>89.788375509391003</v>
       </c>
@@ -16536,12 +17109,12 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -16558,7 +17131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>DATE(1989,12,18)+35</f>
         <v>32895</v>
@@ -16580,7 +17153,7 @@
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>DATE(1989,12,18)+56</f>
         <v>32916</v>
@@ -16602,7 +17175,7 @@
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>DATE(1989,12,18)+77</f>
         <v>32937</v>
@@ -16630,7 +17203,7 @@
         <v>62.207604809879697</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>DATE(1989,12,18)+112</f>
         <v>32972</v>
@@ -16658,7 +17231,7 @@
         <v>58.288462788430202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M6">
         <v>28.912577185570299</v>
       </c>
@@ -16666,7 +17239,7 @@
         <v>90.993045173870598</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M7">
         <v>34.596035099122503</v>
       </c>
@@ -16674,7 +17247,7 @@
         <v>70.331881702957403</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M8">
         <v>37.455313617159497</v>
       </c>
@@ -16682,7 +17255,7 @@
         <v>62.654793630159197</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M9">
         <v>41.112122196945002</v>
       </c>
@@ -16690,7 +17263,7 @@
         <v>55.564250893727603</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M10">
         <v>45.311667208319697</v>
       </c>
@@ -16698,7 +17271,7 @@
         <v>50.5354566135846</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M11">
         <v>51.347416314592103</v>
       </c>
@@ -16706,7 +17279,7 @@
         <v>43.140721481962899</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M12">
         <v>58.410139746506303</v>
       </c>
@@ -16714,7 +17287,7 @@
         <v>31.024504387390301</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M13">
         <v>64.963275918101999</v>
       </c>
@@ -16722,7 +17295,7 @@
         <v>21.858693532661601</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M14">
         <v>72.074748131296701</v>
       </c>
@@ -16730,7 +17303,7 @@
         <v>17.1132921676958</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M15">
         <v>80.005199870003196</v>
       </c>
@@ -16738,7 +17311,7 @@
         <v>16.197595060123501</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M16">
         <v>86.042898927526707</v>
       </c>
@@ -16746,7 +17319,7 @@
         <v>9.0976925576860594</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M17">
         <v>96.830679233019097</v>
       </c>
@@ -16754,7 +17327,7 @@
         <v>0.21007474813129001</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M18">
         <v>106.877478063048</v>
       </c>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8905039-24A5-43D5-9BA1-CF9151B50236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1483B5-8ECD-4F1A-8E35-23DC55A2CB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3624,7 +3624,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="P263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC270" sqref="AC270"/>
+      <selection pane="bottomRight" activeCell="C264" sqref="C264:C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11248,8 +11248,8 @@
         <v>153</v>
       </c>
       <c r="C264" s="23">
-        <f>DATE(1988,9,28)+F264</f>
-        <v>32448</v>
+        <f>DATE(1988,4,28)+F264</f>
+        <v>32295</v>
       </c>
       <c r="F264" s="2">
         <v>34</v>
@@ -11297,8 +11297,8 @@
         <v>153</v>
       </c>
       <c r="C265" s="23">
-        <f t="shared" ref="C265:C275" si="14">DATE(1988,9,28)+F265</f>
-        <v>32455</v>
+        <f t="shared" ref="C265:C275" si="14">DATE(1988,4,28)+F265</f>
+        <v>32302</v>
       </c>
       <c r="F265" s="2">
         <f>F264+7</f>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="C266" s="23">
         <f t="shared" si="14"/>
-        <v>32462</v>
+        <v>32309</v>
       </c>
       <c r="F266" s="2">
         <f t="shared" ref="F266:F275" si="18">F265+7</f>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="C267" s="23">
         <f t="shared" si="14"/>
-        <v>32469</v>
+        <v>32316</v>
       </c>
       <c r="F267" s="2">
         <f t="shared" si="18"/>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="C268" s="23">
         <f t="shared" si="14"/>
-        <v>32476</v>
+        <v>32323</v>
       </c>
       <c r="F268" s="2">
         <f t="shared" si="18"/>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="C269" s="23">
         <f t="shared" si="14"/>
-        <v>32483</v>
+        <v>32330</v>
       </c>
       <c r="F269" s="2">
         <f t="shared" si="18"/>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="C270" s="23">
         <f t="shared" si="14"/>
-        <v>32490</v>
+        <v>32337</v>
       </c>
       <c r="F270" s="2">
         <f t="shared" si="18"/>
@@ -11562,7 +11562,7 @@
       </c>
       <c r="C271" s="23">
         <f t="shared" si="14"/>
-        <v>32497</v>
+        <v>32344</v>
       </c>
       <c r="F271" s="2">
         <f t="shared" si="18"/>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="C272" s="23">
         <f t="shared" si="14"/>
-        <v>32504</v>
+        <v>32351</v>
       </c>
       <c r="F272" s="2">
         <f t="shared" si="18"/>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="C273" s="23">
         <f t="shared" si="14"/>
-        <v>32511</v>
+        <v>32358</v>
       </c>
       <c r="F273" s="2">
         <f t="shared" si="18"/>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="C274" s="23">
         <f t="shared" si="14"/>
-        <v>32518</v>
+        <v>32365</v>
       </c>
       <c r="F274" s="2">
         <f t="shared" si="18"/>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C275" s="23">
         <f t="shared" si="14"/>
-        <v>32525</v>
+        <v>32372</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>27</v>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1483B5-8ECD-4F1A-8E35-23DC55A2CB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBADCC8-8FE7-48CF-A242-4BB7E414403C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="Rainout" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Observed!$A$1:$CX$394</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Observed!$A$1:$CX$392</definedName>
     <definedName name="Treatment_Structure">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="156">
   <si>
     <t>SimulationName</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Peanut.Phenology.DaysAfterSowing</t>
-  </si>
-  <si>
-    <t>Peanut.DaysAfterEmergence</t>
   </si>
   <si>
     <t>Peanut.Phenology.EmergenceDAS</t>
@@ -510,6 +507,12 @@
   <si>
     <t>AvgLeafSize</t>
   </si>
+  <si>
+    <t>Gainsville90CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Peanut.Phenology.DaysAfterEmergence</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -552,6 +555,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3618,13 +3627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK394"/>
+  <dimension ref="A1:AMK392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="P263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C264" sqref="C264:C275"/>
+      <selection pane="bottomRight" activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3726,78 +3735,78 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="AC1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
@@ -3821,7 +3830,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6">
@@ -3845,7 +3854,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6">
@@ -3869,14 +3878,14 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6">
         <v>32972</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6">
         <v>32860</v>
@@ -3895,7 +3904,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6">
@@ -3923,7 +3932,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6">
@@ -3954,7 +3963,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
@@ -3985,7 +3994,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6">
@@ -4020,7 +4029,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6">
@@ -4051,7 +4060,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6">
@@ -4059,7 +4068,7 @@
         <v>32960</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6">
         <v>32854</v>
@@ -4088,7 +4097,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6">
@@ -4116,7 +4125,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6">
@@ -4147,7 +4156,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6">
@@ -4178,7 +4187,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6">
@@ -4209,7 +4218,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6">
@@ -4240,7 +4249,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6">
@@ -4248,7 +4257,7 @@
         <v>32960</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6">
         <v>32854</v>
@@ -4277,7 +4286,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6">
@@ -4305,7 +4314,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6">
@@ -4340,7 +4349,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6">
@@ -4371,7 +4380,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6">
@@ -4402,7 +4411,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6">
@@ -4410,7 +4419,7 @@
         <v>32944</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="6">
         <v>32854</v>
@@ -4439,7 +4448,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6">
@@ -4457,7 +4466,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6">
@@ -4479,7 +4488,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6">
@@ -4504,7 +4513,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6">
@@ -4529,7 +4538,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6">
@@ -4554,7 +4563,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6">
@@ -4562,7 +4571,7 @@
         <v>32944</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="6">
         <v>32854</v>
@@ -4581,7 +4590,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6">
@@ -4603,7 +4612,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6">
@@ -4635,7 +4644,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6">
@@ -4667,7 +4676,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6">
@@ -4702,7 +4711,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6">
@@ -4737,7 +4746,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6">
@@ -4772,7 +4781,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6">
@@ -4780,7 +4789,7 @@
         <v>35531</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="6">
         <v>35383</v>
@@ -4816,7 +4825,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6">
@@ -4848,7 +4857,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6">
@@ -4880,7 +4889,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6">
@@ -4915,7 +4924,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6">
@@ -4952,7 +4961,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6">
@@ -4987,7 +4996,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6">
@@ -4995,7 +5004,7 @@
         <v>35531</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="6">
         <v>35383</v>
@@ -5031,7 +5040,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6">
@@ -5063,7 +5072,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6">
@@ -5095,7 +5104,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6">
@@ -5130,7 +5139,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6">
@@ -5165,7 +5174,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
@@ -5200,7 +5209,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
@@ -5208,7 +5217,7 @@
         <v>35531</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="6">
         <v>35383</v>
@@ -5245,7 +5254,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
@@ -5277,7 +5286,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -5309,7 +5318,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6">
@@ -5344,7 +5353,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6">
@@ -5379,7 +5388,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
@@ -5414,7 +5423,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
@@ -5422,7 +5431,7 @@
         <v>35531</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="6">
         <v>35383</v>
@@ -5458,7 +5467,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6">
@@ -5490,7 +5499,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6">
@@ -5522,7 +5531,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6">
@@ -5557,7 +5566,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
@@ -5592,7 +5601,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6">
@@ -5629,7 +5638,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6">
@@ -5637,7 +5646,7 @@
         <v>35531</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="6">
         <v>35383</v>
@@ -5673,7 +5682,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6">
@@ -5705,7 +5714,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6">
@@ -5737,7 +5746,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6">
@@ -5772,7 +5781,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6">
@@ -5807,7 +5816,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6">
@@ -5842,7 +5851,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6">
@@ -5850,7 +5859,7 @@
         <v>35531</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" s="6">
         <v>35383</v>
@@ -5887,7 +5896,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="6">
@@ -5917,7 +5926,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="6">
@@ -5947,7 +5956,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="6">
@@ -5977,7 +5986,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="6">
@@ -6007,7 +6016,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6">
@@ -6037,7 +6046,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="6">
@@ -6067,7 +6076,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="8">
@@ -6075,7 +6084,7 @@
         <v>35902</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" s="8">
         <v>35741</v>
@@ -6115,7 +6124,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="6">
@@ -6144,7 +6153,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="6">
@@ -6173,7 +6182,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="6">
@@ -6202,7 +6211,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="6">
@@ -6231,7 +6240,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="6">
@@ -6260,7 +6269,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="6">
@@ -6289,7 +6298,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="8">
@@ -6297,7 +6306,7 @@
         <v>35902</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="8">
         <v>35741</v>
@@ -6337,7 +6346,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="6">
@@ -6366,7 +6375,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="6">
@@ -6395,7 +6404,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="6">
@@ -6424,7 +6433,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="6">
@@ -6453,7 +6462,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="6">
@@ -6482,7 +6491,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="6">
@@ -6511,7 +6520,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="8">
@@ -6519,7 +6528,7 @@
         <v>35902</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86" s="8">
         <v>35741</v>
@@ -6552,7 +6561,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="6">
@@ -6581,7 +6590,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="6">
@@ -6610,7 +6619,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="6">
@@ -6639,7 +6648,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="6">
@@ -6668,7 +6677,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="6">
@@ -6697,7 +6706,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="6">
@@ -6726,7 +6735,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="8">
@@ -6734,7 +6743,7 @@
         <v>35902</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E93" s="8">
         <v>35741</v>
@@ -6767,7 +6776,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="8">
@@ -6775,7 +6784,7 @@
         <v>35902</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" s="8">
         <v>35741</v>
@@ -6808,7 +6817,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="8">
@@ -6816,7 +6825,7 @@
         <v>35902</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" s="8">
         <v>35741</v>
@@ -6849,7 +6858,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="8">
@@ -6857,7 +6866,7 @@
         <v>35902</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96" s="8">
         <v>35741</v>
@@ -6890,7 +6899,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="8">
@@ -6898,7 +6907,7 @@
         <v>35902</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E97" s="8">
         <v>35741</v>
@@ -6931,7 +6940,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="8">
@@ -6939,7 +6948,7 @@
         <v>35902</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98" s="8">
         <v>35741</v>
@@ -6972,7 +6981,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="8">
@@ -6980,7 +6989,7 @@
         <v>35902</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="8">
         <v>35741</v>
@@ -7013,7 +7022,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="8">
@@ -7021,7 +7030,7 @@
         <v>35902</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" s="8">
         <v>35741</v>
@@ -7054,7 +7063,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="8">
@@ -7062,7 +7071,7 @@
         <v>35902</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101" s="8">
         <v>35741</v>
@@ -7095,7 +7104,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="6">
@@ -7127,7 +7136,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="6">
@@ -7159,7 +7168,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="6">
@@ -7191,7 +7200,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="6">
@@ -7223,7 +7232,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="6">
@@ -7255,7 +7264,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="6">
@@ -7291,7 +7300,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="8">
@@ -7299,7 +7308,7 @@
         <v>35902</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108" s="8">
         <v>35741</v>
@@ -7332,7 +7341,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="8">
@@ -7340,7 +7349,7 @@
         <v>35902</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E109" s="8">
         <v>35741</v>
@@ -7373,7 +7382,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="8">
@@ -7381,7 +7390,7 @@
         <v>35902</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110" s="8">
         <v>35741</v>
@@ -7414,7 +7423,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="8">
@@ -7422,7 +7431,7 @@
         <v>35902</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E111" s="8">
         <v>35741</v>
@@ -7455,11 +7464,13 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="C112" s="8">
+        <v>30050</v>
+      </c>
       <c r="D112" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E112" s="8">
         <v>29930</v>
@@ -7484,11 +7495,13 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C113" s="8">
+        <v>30050</v>
+      </c>
       <c r="D113" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E113" s="8">
         <v>29930</v>
@@ -7513,11 +7526,13 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C114" s="8">
+        <v>30050</v>
+      </c>
       <c r="D114" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E114" s="8">
         <v>29930</v>
@@ -7542,11 +7557,13 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="C115" s="8">
+        <v>30050</v>
+      </c>
       <c r="D115" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115" s="8">
         <v>29930</v>
@@ -7555,6 +7572,7 @@
         <v>120</v>
       </c>
       <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
       <c r="T115" s="1">
         <v>568</v>
       </c>
@@ -7571,7 +7589,11 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C116" s="8">
+        <f>DATE(1981,12,10)+F116+7</f>
+        <v>29937</v>
       </c>
       <c r="E116" s="8"/>
       <c r="G116" s="2">
@@ -7584,7 +7606,11 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C117" s="8">
+        <f t="shared" ref="C117:C143" si="12">DATE(1981,12,10)+F117+7</f>
+        <v>29937</v>
       </c>
       <c r="E117" s="8"/>
       <c r="G117" s="2">
@@ -7597,7 +7623,11 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C118" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E118" s="8"/>
       <c r="G118" s="2">
@@ -7610,7 +7640,11 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C119" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E119" s="8"/>
       <c r="G119" s="2">
@@ -7623,7 +7657,11 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C120" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E120" s="8"/>
       <c r="G120" s="2">
@@ -7636,7 +7674,11 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C121" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E121" s="8"/>
       <c r="G121" s="2">
@@ -7649,7 +7691,11 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C122" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E122" s="8"/>
       <c r="G122" s="2">
@@ -7662,7 +7708,11 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C123" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E123" s="8"/>
       <c r="G123" s="2">
@@ -7675,7 +7725,11 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C124" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E124" s="8"/>
       <c r="G124" s="2">
@@ -7688,7 +7742,11 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C125" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E125" s="8"/>
       <c r="G125" s="2">
@@ -7701,7 +7759,11 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C126" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E126" s="8"/>
       <c r="G126" s="2">
@@ -7714,7 +7776,11 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C127" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E127" s="8"/>
       <c r="G127" s="2">
@@ -7727,7 +7793,11 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C128" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E128" s="8"/>
       <c r="G128" s="2">
@@ -7740,7 +7810,11 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C129" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E129" s="8"/>
       <c r="G129" s="2">
@@ -7753,7 +7827,11 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C130" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E130" s="8"/>
       <c r="G130" s="2">
@@ -7766,7 +7844,11 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C131" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E131" s="8"/>
       <c r="G131" s="2">
@@ -7779,7 +7861,11 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C132" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E132" s="8"/>
       <c r="G132" s="2">
@@ -7792,7 +7878,11 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C133" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E133" s="8"/>
       <c r="G133" s="2">
@@ -7805,7 +7895,11 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C134" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E134" s="8"/>
       <c r="G134" s="2">
@@ -7818,7 +7912,11 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C135" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E135" s="8"/>
       <c r="G135" s="2">
@@ -7831,7 +7929,11 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C136" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E136" s="8"/>
       <c r="G136" s="2">
@@ -7844,7 +7946,11 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C137" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E137" s="8"/>
       <c r="G137" s="2">
@@ -7857,7 +7963,11 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C138" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E138" s="8"/>
       <c r="G138" s="2">
@@ -7870,7 +7980,11 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C139" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E139" s="8"/>
       <c r="G139" s="2">
@@ -7883,7 +7997,11 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C140" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E140" s="8"/>
       <c r="G140" s="2">
@@ -7896,7 +8014,11 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C141" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E141" s="8"/>
       <c r="G141" s="2">
@@ -7909,7 +8031,11 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C142" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E142" s="8"/>
       <c r="G142" s="2">
@@ -7922,7 +8048,11 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C143" s="8">
+        <f t="shared" si="12"/>
+        <v>29937</v>
       </c>
       <c r="E143" s="8"/>
       <c r="G143" s="2">
@@ -7935,10 +8065,10 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="C144" s="6">
         <v>30316</v>
@@ -7953,7 +8083,7 @@
         <v>0.33</v>
       </c>
       <c r="N144" s="1">
-        <f t="shared" ref="N144:N173" si="12">M144/R144</f>
+        <f t="shared" ref="N144:N173" si="13">M144/R144</f>
         <v>2.4699999999999958E-2</v>
       </c>
       <c r="R144" s="1">
@@ -7971,10 +8101,10 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="C145" s="6">
         <v>30330</v>
@@ -7989,7 +8119,7 @@
         <v>1.06</v>
       </c>
       <c r="N145" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.12E-2</v>
       </c>
       <c r="R145" s="1">
@@ -8007,10 +8137,10 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="C146" s="6">
         <v>30348</v>
@@ -8026,7 +8156,7 @@
         <v>3.64</v>
       </c>
       <c r="N146" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6999999999999962E-2</v>
       </c>
       <c r="R146" s="1">
@@ -8044,10 +8174,10 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="C147" s="6">
         <v>30369</v>
@@ -8062,7 +8192,7 @@
         <v>5.7</v>
       </c>
       <c r="N147" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6399999999999989E-2</v>
       </c>
       <c r="R147" s="1">
@@ -8080,10 +8210,10 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="C148" s="6">
         <v>30391</v>
@@ -8098,7 +8228,7 @@
         <v>7.03</v>
       </c>
       <c r="N148" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5400000000000006E-2</v>
       </c>
       <c r="R148" s="1">
@@ -8116,16 +8246,16 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="C149" s="6">
         <v>30411</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="2">
@@ -8144,7 +8274,7 @@
         <v>5.85</v>
       </c>
       <c r="N149" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1499999999999995E-2</v>
       </c>
       <c r="R149" s="1">
@@ -8166,10 +8296,10 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B150" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C150" s="8">
         <v>30343</v>
@@ -8184,7 +8314,7 @@
         <v>0.71</v>
       </c>
       <c r="N150" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0699999999999988E-2</v>
       </c>
       <c r="R150" s="1">
@@ -8204,10 +8334,10 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C151" s="8">
         <v>30354</v>
@@ -8222,7 +8352,7 @@
         <v>1.43</v>
       </c>
       <c r="N151" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8299999999999968E-2</v>
       </c>
       <c r="R151" s="1">
@@ -8242,10 +8372,10 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C152" s="8">
         <v>30375</v>
@@ -8260,7 +8390,7 @@
         <v>4.53</v>
       </c>
       <c r="N152" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9300000000000041E-2</v>
       </c>
       <c r="R152" s="1">
@@ -8280,10 +8410,10 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C153" s="8">
         <v>30397</v>
@@ -8299,7 +8429,7 @@
         <v>7.77</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6899999999999966E-2</v>
       </c>
       <c r="R153" s="1">
@@ -8319,10 +8449,10 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C154" s="8">
         <v>30417</v>
@@ -8338,7 +8468,7 @@
         <v>6.14</v>
       </c>
       <c r="N154" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2700000000000026E-2</v>
       </c>
       <c r="R154" s="1">
@@ -8358,16 +8488,16 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C155" s="8">
         <v>30445</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="2">
@@ -8386,7 +8516,7 @@
         <v>3.12</v>
       </c>
       <c r="N155" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1399999999999926E-2</v>
       </c>
       <c r="R155" s="1">
@@ -8409,10 +8539,10 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="C156" s="6">
         <v>30363</v>
@@ -8427,7 +8557,7 @@
         <v>0.49</v>
       </c>
       <c r="N156" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7699999999999961E-2</v>
       </c>
       <c r="R156" s="1">
@@ -8445,10 +8575,10 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B157" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="C157" s="6">
         <v>30376</v>
@@ -8463,7 +8593,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="N157" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.6499999999999985E-2</v>
       </c>
       <c r="R157" s="1">
@@ -8481,10 +8611,10 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="C158" s="6">
         <v>30398</v>
@@ -8499,7 +8629,7 @@
         <v>2.93</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3099999999999971E-2</v>
       </c>
       <c r="R158" s="1">
@@ -8517,10 +8647,10 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="C159" s="6">
         <v>30418</v>
@@ -8536,7 +8666,7 @@
         <v>4.28</v>
       </c>
       <c r="N159" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9900000000000011E-2</v>
       </c>
       <c r="R159" s="1">
@@ -8555,10 +8685,10 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="C160" s="6">
         <v>30439</v>
@@ -8574,7 +8704,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="N160" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9300000000000036E-2</v>
       </c>
       <c r="R160" s="1">
@@ -8592,16 +8722,16 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="C161" s="6">
         <v>30476</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="2">
@@ -8618,7 +8748,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="N161" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7200000000000014E-2</v>
       </c>
       <c r="R161" s="1">
@@ -8640,10 +8770,10 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C162" s="8">
         <v>30384</v>
@@ -8659,7 +8789,7 @@
         <v>0.36</v>
       </c>
       <c r="N162" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0900000000000007E-2</v>
       </c>
       <c r="R162" s="1">
@@ -8677,10 +8807,10 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C163" s="8">
         <v>30398</v>
@@ -8696,7 +8826,7 @@
         <v>1.19</v>
       </c>
       <c r="N163" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5599999999999998E-2</v>
       </c>
       <c r="R163" s="1">
@@ -8714,10 +8844,10 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C164" s="8">
         <v>30418</v>
@@ -8733,7 +8863,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="N164" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9499999999999979E-2</v>
       </c>
       <c r="R164" s="1">
@@ -8751,10 +8881,10 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C165" s="8">
         <v>30439</v>
@@ -8770,7 +8900,7 @@
         <v>2.98</v>
       </c>
       <c r="N165" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6800000000000034E-2</v>
       </c>
       <c r="R165" s="1">
@@ -8788,10 +8918,10 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C166" s="13">
         <v>30456</v>
@@ -8806,7 +8936,7 @@
         <v>3.38</v>
       </c>
       <c r="N166" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6399999999999981E-2</v>
       </c>
       <c r="R166" s="1">
@@ -8824,16 +8954,16 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C167" s="13">
         <v>30489</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="14">
@@ -8853,7 +8983,7 @@
         <v>2.73</v>
       </c>
       <c r="N167" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6699999999999954E-2</v>
       </c>
       <c r="R167" s="1">
@@ -8875,10 +9005,10 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C168" s="13">
         <v>30403</v>
@@ -8893,7 +9023,7 @@
         <v>0.18</v>
       </c>
       <c r="N168" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3200000000000005E-2</v>
       </c>
       <c r="R168" s="1">
@@ -8911,10 +9041,10 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C169" s="13">
         <v>30417</v>
@@ -8929,7 +9059,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N169" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="R169" s="1">
@@ -8947,10 +9077,10 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C170" s="13">
         <v>30438</v>
@@ -8965,7 +9095,7 @@
         <v>1.91</v>
       </c>
       <c r="N170" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8199999999999987E-2</v>
       </c>
       <c r="R170" s="1">
@@ -8983,10 +9113,10 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C171" s="13">
         <v>30461</v>
@@ -9001,7 +9131,7 @@
         <v>2.44</v>
       </c>
       <c r="N171" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6900000000000009E-2</v>
       </c>
       <c r="R171" s="1">
@@ -9019,10 +9149,10 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C172" s="13">
         <v>30487</v>
@@ -9038,7 +9168,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N172" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5200000000000021E-2</v>
       </c>
       <c r="R172" s="1">
@@ -9056,16 +9186,16 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B173" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C173" s="13">
         <v>30510</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="14">
@@ -9085,7 +9215,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="N173" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7000000000000029E-2</v>
       </c>
       <c r="R173" s="1">
@@ -9107,13 +9237,13 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B174" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C174" s="6">
-        <f t="shared" ref="C174:C221" si="13">E174+F174</f>
+        <f t="shared" ref="C174:C221" si="14">E174+F174</f>
         <v>31023</v>
       </c>
       <c r="D174" s="6"/>
@@ -9139,13 +9269,13 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C175" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31037</v>
       </c>
       <c r="E175" s="6">
@@ -9170,13 +9300,13 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C176" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31051</v>
       </c>
       <c r="E176" s="6">
@@ -9201,13 +9331,13 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C177" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31064</v>
       </c>
       <c r="E177" s="6">
@@ -9232,13 +9362,13 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C178" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31078</v>
       </c>
       <c r="D178" s="13"/>
@@ -9261,13 +9391,13 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C179" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31091</v>
       </c>
       <c r="D179" s="13"/>
@@ -9291,13 +9421,13 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C180" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31104</v>
       </c>
       <c r="D180" s="13"/>
@@ -9320,17 +9450,17 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="C181" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31118</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E181" s="6">
         <v>30987</v>
@@ -9358,13 +9488,13 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C182" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31023</v>
       </c>
       <c r="D182" s="6"/>
@@ -9387,13 +9517,13 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C183" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31037</v>
       </c>
       <c r="E183" s="6">
@@ -9415,13 +9545,13 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C184" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31051</v>
       </c>
       <c r="E184" s="6">
@@ -9443,13 +9573,13 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C185" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31064</v>
       </c>
       <c r="E185" s="6">
@@ -9471,13 +9601,13 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C186" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31078</v>
       </c>
       <c r="D186" s="13"/>
@@ -9501,13 +9631,13 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C187" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31091</v>
       </c>
       <c r="D187" s="13"/>
@@ -9530,13 +9660,13 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C188" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31104</v>
       </c>
       <c r="D188" s="13"/>
@@ -9559,17 +9689,17 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C189" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31118</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E189" s="6">
         <v>30987</v>
@@ -9597,13 +9727,13 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B190" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C190" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31056</v>
       </c>
       <c r="D190" s="13"/>
@@ -9626,13 +9756,13 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C191" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31070</v>
       </c>
       <c r="D191" s="13"/>
@@ -9655,13 +9785,13 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B192" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C192" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31084</v>
       </c>
       <c r="D192" s="13"/>
@@ -9684,13 +9814,13 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B193" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C193" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31104</v>
       </c>
       <c r="D193" s="13"/>
@@ -9714,13 +9844,13 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C194" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31118</v>
       </c>
       <c r="D194" s="13"/>
@@ -9743,13 +9873,13 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C195" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31134</v>
       </c>
       <c r="D195" s="13"/>
@@ -9772,13 +9902,13 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C196" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31148</v>
       </c>
       <c r="D196" s="13"/>
@@ -9801,17 +9931,17 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B197" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C197" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31161</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E197" s="13">
         <v>31021</v>
@@ -9839,13 +9969,13 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C198" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31056</v>
       </c>
       <c r="D198" s="13"/>
@@ -9868,13 +9998,13 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C199" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31070</v>
       </c>
       <c r="D199" s="13"/>
@@ -9897,13 +10027,13 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C200" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31084</v>
       </c>
       <c r="D200" s="13"/>
@@ -9927,13 +10057,13 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C201" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31104</v>
       </c>
       <c r="D201" s="13"/>
@@ -9956,13 +10086,13 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C202" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31118</v>
       </c>
       <c r="D202" s="13"/>
@@ -9985,13 +10115,13 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C203" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31134</v>
       </c>
       <c r="D203" s="13"/>
@@ -10014,13 +10144,13 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C204" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31148</v>
       </c>
       <c r="D204" s="13"/>
@@ -10043,17 +10173,17 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C205" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31161</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E205" s="13">
         <v>31021</v>
@@ -10081,13 +10211,13 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B206" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C206" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31105</v>
       </c>
       <c r="D206" s="13"/>
@@ -10110,13 +10240,13 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B207" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C207" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31113</v>
       </c>
       <c r="D207" s="13"/>
@@ -10140,13 +10270,13 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B208" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C208" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31127</v>
       </c>
       <c r="D208" s="13"/>
@@ -10169,13 +10299,13 @@
     </row>
     <row r="209" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C209" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31141</v>
       </c>
       <c r="D209" s="13"/>
@@ -10198,13 +10328,13 @@
     </row>
     <row r="210" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B210" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C210" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31162</v>
       </c>
       <c r="D210" s="13"/>
@@ -10227,13 +10357,13 @@
     </row>
     <row r="211" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B211" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C211" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31177</v>
       </c>
       <c r="D211" s="13"/>
@@ -10256,13 +10386,13 @@
     </row>
     <row r="212" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B212" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B212" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C212" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31189</v>
       </c>
       <c r="D212" s="13"/>
@@ -10285,17 +10415,17 @@
     </row>
     <row r="213" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B213" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C213" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31195</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E213" s="13">
         <v>31062</v>
@@ -10323,13 +10453,13 @@
     </row>
     <row r="214" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C214" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31105</v>
       </c>
       <c r="D214" s="13"/>
@@ -10353,13 +10483,13 @@
     </row>
     <row r="215" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C215" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31113</v>
       </c>
       <c r="D215" s="13"/>
@@ -10382,13 +10512,13 @@
     </row>
     <row r="216" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C216" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31127</v>
       </c>
       <c r="D216" s="13"/>
@@ -10411,13 +10541,13 @@
     </row>
     <row r="217" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C217" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31141</v>
       </c>
       <c r="D217" s="13"/>
@@ -10440,13 +10570,13 @@
     </row>
     <row r="218" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C218" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31162</v>
       </c>
       <c r="D218" s="13"/>
@@ -10469,13 +10599,13 @@
     </row>
     <row r="219" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C219" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31177</v>
       </c>
       <c r="D219" s="13"/>
@@ -10498,13 +10628,13 @@
     </row>
     <row r="220" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31189</v>
       </c>
       <c r="D220" s="13"/>
@@ -10527,17 +10657,17 @@
     </row>
     <row r="221" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C221" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31195</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E221" s="13">
         <v>31062</v>
@@ -10566,11 +10696,11 @@
     </row>
     <row r="222" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A222" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E222" s="8">
         <v>30587</v>
@@ -10582,11 +10712,11 @@
     </row>
     <row r="223" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E223" s="8">
         <v>30601</v>
@@ -10598,11 +10728,11 @@
     </row>
     <row r="224" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A224" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E224" s="8">
         <v>30615</v>
@@ -10614,11 +10744,11 @@
     </row>
     <row r="225" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A225" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E225" s="8">
         <v>30629</v>
@@ -10630,11 +10760,11 @@
     </row>
     <row r="226" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A226" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E226" s="8">
         <v>30645</v>
@@ -10646,11 +10776,11 @@
     </row>
     <row r="227" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E227" s="8">
         <v>30657</v>
@@ -10662,11 +10792,11 @@
     </row>
     <row r="228" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A228" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E228" s="8">
         <v>30671</v>
@@ -10678,11 +10808,11 @@
     </row>
     <row r="229" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A229" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E229" s="8">
         <v>30685</v>
@@ -10694,11 +10824,11 @@
     </row>
     <row r="230" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A230" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E230" s="8">
         <v>30699</v>
@@ -10710,11 +10840,11 @@
     </row>
     <row r="231" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A231" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E231" s="8">
         <v>30713</v>
@@ -10726,11 +10856,11 @@
     </row>
     <row r="232" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A232" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E232" s="8">
         <v>30727</v>
@@ -10742,11 +10872,11 @@
     </row>
     <row r="233" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A233" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E233" s="8">
         <v>30587</v>
@@ -10758,11 +10888,11 @@
     </row>
     <row r="234" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E234" s="8">
         <v>30601</v>
@@ -10774,11 +10904,11 @@
     </row>
     <row r="235" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E235" s="8">
         <v>30615</v>
@@ -10790,11 +10920,11 @@
     </row>
     <row r="236" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A236" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E236" s="8">
         <v>30629</v>
@@ -10806,11 +10936,11 @@
     </row>
     <row r="237" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A237" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C237" s="8"/>
       <c r="D237" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E237" s="8">
         <v>30645</v>
@@ -10822,11 +10952,11 @@
     </row>
     <row r="238" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A238" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E238" s="8">
         <v>30657</v>
@@ -10838,11 +10968,11 @@
     </row>
     <row r="239" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A239" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E239" s="8">
         <v>30671</v>
@@ -10854,11 +10984,11 @@
     </row>
     <row r="240" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A240" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E240" s="8">
         <v>30685</v>
@@ -10870,11 +11000,11 @@
     </row>
     <row r="241" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A241" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E241" s="8">
         <v>30699</v>
@@ -10886,11 +11016,11 @@
     </row>
     <row r="242" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A242" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E242" s="8">
         <v>30713</v>
@@ -10902,11 +11032,11 @@
     </row>
     <row r="243" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E243" s="8">
         <v>30727</v>
@@ -10918,11 +11048,11 @@
     </row>
     <row r="244" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E244" s="8">
         <v>30587</v>
@@ -10934,11 +11064,11 @@
     </row>
     <row r="245" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A245" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E245" s="8">
         <v>30601</v>
@@ -10950,11 +11080,11 @@
     </row>
     <row r="246" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A246" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C246" s="8"/>
       <c r="D246" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E246" s="8">
         <v>30615</v>
@@ -10966,11 +11096,11 @@
     </row>
     <row r="247" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A247" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C247" s="8"/>
       <c r="D247" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E247" s="8">
         <v>30629</v>
@@ -10982,11 +11112,11 @@
     </row>
     <row r="248" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A248" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E248" s="8">
         <v>30645</v>
@@ -10998,11 +11128,11 @@
     </row>
     <row r="249" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C249" s="8"/>
       <c r="D249" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E249" s="8">
         <v>30657</v>
@@ -11014,11 +11144,11 @@
     </row>
     <row r="250" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A250" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C250" s="8"/>
       <c r="D250" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E250" s="8">
         <v>30671</v>
@@ -11030,11 +11160,11 @@
     </row>
     <row r="251" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A251" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E251" s="8">
         <v>30685</v>
@@ -11046,11 +11176,11 @@
     </row>
     <row r="252" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A252" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C252" s="8"/>
       <c r="D252" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E252" s="8">
         <v>30699</v>
@@ -11062,11 +11192,11 @@
     </row>
     <row r="253" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A253" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C253" s="8"/>
       <c r="D253" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E253" s="8">
         <v>30713</v>
@@ -11077,11 +11207,11 @@
     </row>
     <row r="254" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A254" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C254" s="8"/>
       <c r="D254" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E254" s="8">
         <v>30727</v>
@@ -11092,10 +11222,10 @@
     </row>
     <row r="255" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E255" s="8">
         <v>35342</v>
@@ -11109,10 +11239,10 @@
     </row>
     <row r="256" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A256" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E256" s="8">
         <v>35376</v>
@@ -11126,10 +11256,10 @@
     </row>
     <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E257" s="8">
         <v>35410</v>
@@ -11143,10 +11273,10 @@
     </row>
     <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E258" s="8">
         <v>35342</v>
@@ -11160,10 +11290,10 @@
     </row>
     <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E259" s="8">
         <v>35376</v>
@@ -11177,10 +11307,10 @@
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E260" s="8">
         <v>35410</v>
@@ -11194,10 +11324,10 @@
     </row>
     <row r="261" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A261" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E261" s="8">
         <v>35342</v>
@@ -11211,10 +11341,10 @@
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A262" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E262" s="8">
         <v>35376</v>
@@ -11228,10 +11358,10 @@
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A263" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E263" s="8">
         <v>35410</v>
@@ -11245,7 +11375,7 @@
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A264" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C264" s="23">
         <f>DATE(1988,4,28)+F264</f>
@@ -11294,10 +11424,10 @@
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A265" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C265" s="23">
-        <f t="shared" ref="C265:C275" si="14">DATE(1988,4,28)+F265</f>
+        <f t="shared" ref="C265:C275" si="15">DATE(1988,4,28)+F265</f>
         <v>32302</v>
       </c>
       <c r="F265" s="2">
@@ -11315,7 +11445,7 @@
         <v>0.83718759722078295</v>
       </c>
       <c r="N265" s="1">
-        <f t="shared" ref="N265:N275" si="15">M265/P265</f>
+        <f t="shared" ref="N265:N275" si="16">M265/P265</f>
         <v>2.1493181582495167E-2</v>
       </c>
       <c r="P265" s="1">
@@ -11331,27 +11461,27 @@
         <v>1.19006321307415</v>
       </c>
       <c r="Y265" s="1">
-        <f t="shared" ref="Y265:Y275" si="16">T265+S265+R265</f>
+        <f t="shared" ref="Y265:Y275" si="17">T265+S265+R265</f>
         <v>78.916884278578848</v>
       </c>
       <c r="AB265">
         <v>164.784053156146</v>
       </c>
       <c r="AC265">
-        <f t="shared" ref="AC265:AC275" si="17">M265/L265</f>
+        <f t="shared" ref="AC265:AC275" si="18">M265/L265</f>
         <v>1.0972662379767062E-3</v>
       </c>
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A266" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C266" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32309</v>
       </c>
       <c r="F266" s="2">
-        <f t="shared" ref="F266:F275" si="18">F265+7</f>
+        <f t="shared" ref="F266:F275" si="19">F265+7</f>
         <v>48</v>
       </c>
       <c r="I266" s="8"/>
@@ -11365,7 +11495,7 @@
         <v>1.4875557399149599</v>
       </c>
       <c r="N266" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2065410142071924E-2</v>
       </c>
       <c r="P266" s="1">
@@ -11381,27 +11511,27 @@
         <v>1.07442954054886</v>
       </c>
       <c r="Y266" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>158.28607824497425</v>
       </c>
       <c r="AB266">
         <v>188.039867109634</v>
       </c>
       <c r="AC266">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.5261624661373396E-3</v>
       </c>
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A267" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C267" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32316</v>
       </c>
       <c r="F267" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>55</v>
       </c>
       <c r="I267" s="8"/>
@@ -11415,7 +11545,7 @@
         <v>2.0486363164990098</v>
       </c>
       <c r="N267" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.8992565850876386E-2</v>
       </c>
       <c r="P267" s="1">
@@ -11431,27 +11561,27 @@
         <v>2.7944804193646098</v>
       </c>
       <c r="Y267" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>237.1902612035866</v>
       </c>
       <c r="AB267">
         <v>264.45182724252402</v>
       </c>
       <c r="AC267">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.466186993348443E-3</v>
       </c>
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A268" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C268" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32323</v>
       </c>
       <c r="F268" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="I268" s="8"/>
@@ -11465,7 +11595,7 @@
         <v>3.0153997718552299</v>
       </c>
       <c r="N268" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7351546100977347E-2</v>
       </c>
       <c r="P268" s="1">
@@ -11481,27 +11611,27 @@
         <v>6.3116712920134397</v>
       </c>
       <c r="Y268" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>416.82913670514347</v>
       </c>
       <c r="AB268">
         <v>332.55813953488303</v>
       </c>
       <c r="AC268">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3974929574937867E-3</v>
       </c>
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A269" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C269" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32330</v>
       </c>
       <c r="F269" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="I269" s="8"/>
@@ -11515,7 +11645,7 @@
         <v>2.4253862905734702</v>
       </c>
       <c r="N269" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0236816861972495E-2</v>
       </c>
       <c r="P269" s="1">
@@ -11531,41 +11661,41 @@
         <v>13.447232500770699</v>
       </c>
       <c r="Y269" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>304.7259911952587</v>
       </c>
       <c r="AB269">
         <v>395.68106312292298</v>
       </c>
       <c r="AC269">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9394573416874794E-3</v>
       </c>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A270" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C270" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32337</v>
       </c>
       <c r="F270" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="I270" s="8"/>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A271" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C271" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32344</v>
       </c>
       <c r="F271" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>83</v>
       </c>
       <c r="I271" s="8"/>
@@ -11579,7 +11709,7 @@
         <v>4.1557606553976996</v>
       </c>
       <c r="N271" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7229628804210972E-2</v>
       </c>
       <c r="P271" s="1">
@@ -11595,27 +11725,27 @@
         <v>129.186902559358</v>
       </c>
       <c r="Y271" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>782.63030239119996</v>
       </c>
       <c r="AB271">
         <v>520.26578073089604</v>
       </c>
       <c r="AC271">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2927374071790795E-3</v>
       </c>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A272" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C272" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32351</v>
       </c>
       <c r="F272" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="I272" s="8"/>
@@ -11629,7 +11759,7 @@
         <v>3.6783677278855098</v>
       </c>
       <c r="N272" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2991060626262332E-2</v>
       </c>
       <c r="P272" s="1">
@@ -11645,27 +11775,27 @@
         <v>158.06159420289799</v>
       </c>
       <c r="Y272" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>916.71786570026006</v>
       </c>
       <c r="AB272">
         <v>453.82059800664399</v>
       </c>
       <c r="AC272">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0702612659552121E-3</v>
       </c>
     </row>
     <row r="273" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A273" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C273" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32358</v>
       </c>
       <c r="F273" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>97</v>
       </c>
       <c r="I273" s="8"/>
@@ -11679,7 +11809,7 @@
         <v>5.3219433786166102</v>
       </c>
       <c r="N273" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6599986940311187E-2</v>
       </c>
       <c r="P273" s="1">
@@ -11695,27 +11825,27 @@
         <v>299.26476256552502</v>
       </c>
       <c r="Y273" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1066.8027890120579</v>
       </c>
       <c r="AB273">
         <v>463.78737541528204</v>
       </c>
       <c r="AC273">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4932277493432148E-3</v>
       </c>
     </row>
     <row r="274" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A274" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C274" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32365</v>
       </c>
       <c r="F274" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>104</v>
       </c>
       <c r="I274" s="8"/>
@@ -11729,7 +11859,7 @@
         <v>4.9798817795291903</v>
       </c>
       <c r="N274" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6873457298658558E-2</v>
       </c>
       <c r="P274" s="1">
@@ -11745,30 +11875,30 @@
         <v>313.646700585877</v>
       </c>
       <c r="Y274" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1074.0839091771779</v>
       </c>
       <c r="AB274">
         <v>417.27574750830502</v>
       </c>
       <c r="AC274">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3226499235756053E-3</v>
       </c>
     </row>
     <row r="275" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A275" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C275" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32372</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F275" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>111</v>
       </c>
       <c r="I275" s="8"/>
@@ -11782,7 +11912,7 @@
         <v>5.1565902727367003</v>
       </c>
       <c r="N275" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5096596522156794E-2</v>
       </c>
       <c r="P275" s="1">
@@ -11798,151 +11928,1048 @@
         <v>409.540741597286</v>
       </c>
       <c r="Y275" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1296.011734488824</v>
       </c>
       <c r="AB275">
         <v>427.24252491694301</v>
       </c>
       <c r="AC275">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4088548708033129E-3</v>
       </c>
     </row>
     <row r="276" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A276" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C276" s="8">
+        <f>DATE(1990,5,15)+G276+6</f>
+        <v>33030</v>
+      </c>
+      <c r="G276" s="2">
+        <v>16</v>
+      </c>
       <c r="I276" s="8"/>
+      <c r="M276" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T276" s="1">
+        <v>0</v>
+      </c>
+      <c r="X276" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y276" s="1">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A277" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C277" s="8">
+        <f t="shared" ref="C277:C294" si="20">DATE(1990,5,15)+G277+6</f>
+        <v>33037</v>
+      </c>
+      <c r="G277" s="2">
+        <v>23</v>
+      </c>
       <c r="I277" s="8"/>
+      <c r="M277" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="T277" s="1">
+        <v>0</v>
+      </c>
+      <c r="X277" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="1">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A278" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C278" s="8">
+        <f t="shared" si="20"/>
+        <v>33044</v>
+      </c>
+      <c r="G278" s="2">
+        <v>30</v>
+      </c>
       <c r="I278" s="8"/>
+      <c r="M278" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="T278" s="1">
+        <v>0</v>
+      </c>
+      <c r="X278" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y278" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A279" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C279" s="8">
+        <f t="shared" si="20"/>
+        <v>33051</v>
+      </c>
+      <c r="G279" s="2">
+        <v>37</v>
+      </c>
       <c r="I279" s="8"/>
+      <c r="M279" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="T279" s="1">
+        <v>0</v>
+      </c>
+      <c r="X279" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y279" s="1">
+        <v>76.099999999999994</v>
+      </c>
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A280" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C280" s="8">
+        <f t="shared" si="20"/>
+        <v>33058</v>
+      </c>
+      <c r="G280" s="2">
+        <v>44</v>
+      </c>
       <c r="I280" s="8"/>
+      <c r="M280" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="T280" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="X280" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y280" s="1">
+        <v>192.8</v>
+      </c>
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A281" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C281" s="8">
+        <f t="shared" si="20"/>
+        <v>33065</v>
+      </c>
+      <c r="G281" s="2">
+        <v>51</v>
+      </c>
       <c r="I281" s="8"/>
+      <c r="M281" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="T281" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X281" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="Y281" s="1">
+        <v>290.7</v>
+      </c>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A282" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C282" s="8">
+        <f t="shared" si="20"/>
+        <v>33072</v>
+      </c>
+      <c r="G282" s="2">
+        <v>58</v>
+      </c>
       <c r="I282" s="8"/>
+      <c r="M282" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="T282" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="X282" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="Y282" s="1">
+        <v>458.3</v>
+      </c>
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A283" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C283" s="8">
+        <f t="shared" si="20"/>
+        <v>33079</v>
+      </c>
+      <c r="G283" s="2">
+        <v>65</v>
+      </c>
       <c r="I283" s="8"/>
+      <c r="M283" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="T283" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="X283" s="1">
+        <v>61.8</v>
+      </c>
+      <c r="Y283" s="1">
+        <v>658.6</v>
+      </c>
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A284" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C284" s="8">
+        <f t="shared" si="20"/>
+        <v>33086</v>
+      </c>
+      <c r="G284" s="2">
+        <v>72</v>
+      </c>
       <c r="I284" s="8"/>
+      <c r="M284" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="T284" s="1">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="X284" s="1">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="Y284" s="1">
+        <v>730.5</v>
+      </c>
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A285" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C285" s="8">
+        <f t="shared" si="20"/>
+        <v>33093</v>
+      </c>
+      <c r="G285" s="2">
+        <v>79</v>
+      </c>
       <c r="I285" s="8"/>
+      <c r="M285" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="T285" s="1">
+        <v>190.3</v>
+      </c>
+      <c r="X285" s="1">
+        <v>190.3</v>
+      </c>
+      <c r="Y285" s="1">
+        <v>814.8</v>
+      </c>
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A286" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C286" s="8">
+        <f t="shared" si="20"/>
+        <v>33100</v>
+      </c>
+      <c r="G286" s="2">
+        <v>86</v>
+      </c>
       <c r="I286" s="8"/>
+      <c r="M286" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="T286" s="1">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="X286" s="1">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="Y286" s="1">
+        <v>879.2</v>
+      </c>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A287" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C287" s="8">
+        <f t="shared" si="20"/>
+        <v>33107</v>
+      </c>
+      <c r="G287" s="2">
+        <v>93</v>
+      </c>
       <c r="I287" s="8"/>
+      <c r="M287" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="T287" s="1">
+        <v>352.5</v>
+      </c>
+      <c r="X287" s="1">
+        <v>352.5</v>
+      </c>
+      <c r="Y287" s="1">
+        <v>1102.8</v>
+      </c>
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A288" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C288" s="8">
+        <f t="shared" si="20"/>
+        <v>33114</v>
+      </c>
+      <c r="G288" s="2">
+        <v>100</v>
+      </c>
       <c r="I288" s="8"/>
-    </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M288" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="T288" s="1">
+        <v>409.6</v>
+      </c>
+      <c r="X288" s="1">
+        <v>409.6</v>
+      </c>
+      <c r="Y288" s="1">
+        <v>1134.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A289" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C289" s="8">
+        <f t="shared" si="20"/>
+        <v>33121</v>
+      </c>
+      <c r="G289" s="2">
+        <v>107</v>
+      </c>
       <c r="I289" s="8"/>
-    </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M289" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="T289" s="1">
+        <v>423.1</v>
+      </c>
+      <c r="X289" s="1">
+        <v>423.1</v>
+      </c>
+      <c r="Y289" s="1">
+        <v>998.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A290" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C290" s="8">
+        <f t="shared" si="20"/>
+        <v>33128</v>
+      </c>
+      <c r="G290" s="2">
+        <v>114</v>
+      </c>
       <c r="I290" s="8"/>
-    </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M290" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T290" s="1">
+        <v>529.4</v>
+      </c>
+      <c r="X290" s="1">
+        <v>529.4</v>
+      </c>
+      <c r="Y290" s="1">
+        <v>1130.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A291" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C291" s="8">
+        <f t="shared" si="20"/>
+        <v>33135</v>
+      </c>
+      <c r="G291" s="2">
+        <v>121</v>
+      </c>
       <c r="I291" s="8"/>
-    </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M291" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="T291" s="1">
+        <v>598</v>
+      </c>
+      <c r="X291" s="1">
+        <v>598</v>
+      </c>
+      <c r="Y291" s="1">
+        <v>1165.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A292" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C292" s="8">
+        <f t="shared" si="20"/>
+        <v>33142</v>
+      </c>
+      <c r="G292" s="2">
+        <v>128</v>
+      </c>
       <c r="I292" s="8"/>
-    </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M292" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T292" s="1">
+        <v>543</v>
+      </c>
+      <c r="X292" s="1">
+        <v>543</v>
+      </c>
+      <c r="Y292" s="1">
+        <v>1057.7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A293" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C293" s="8">
+        <f t="shared" si="20"/>
+        <v>33149</v>
+      </c>
+      <c r="G293" s="2">
+        <v>135</v>
+      </c>
       <c r="I293" s="8"/>
-    </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M293" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="T293" s="1">
+        <v>591.79999999999995</v>
+      </c>
+      <c r="X293" s="1">
+        <v>591.79999999999995</v>
+      </c>
+      <c r="Y293" s="1">
+        <v>972.9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A294" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C294" s="8">
+        <f t="shared" si="20"/>
+        <v>33156</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G294" s="2">
+        <v>142</v>
+      </c>
       <c r="I294" s="8"/>
-    </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M294" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="T294" s="1">
+        <v>467.2</v>
+      </c>
+      <c r="X294" s="1">
+        <v>467.2</v>
+      </c>
+      <c r="Y294" s="1">
+        <v>808.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C295" s="8">
+        <f>DATE(1981,12,10)+F295</f>
+        <v>29952</v>
+      </c>
+      <c r="F295" s="2">
+        <v>22</v>
+      </c>
       <c r="I295" s="8"/>
-    </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M295" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="T295" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y295" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C296" s="8">
+        <f t="shared" ref="C296:C320" si="21">DATE(1981,12,10)+F296</f>
+        <v>29959</v>
+      </c>
+      <c r="F296" s="2">
+        <v>29</v>
+      </c>
       <c r="I296" s="8"/>
-    </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M296" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="T296" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y296" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C297" s="8">
+        <f t="shared" si="21"/>
+        <v>29966</v>
+      </c>
+      <c r="F297" s="2">
+        <v>36</v>
+      </c>
       <c r="I297" s="8"/>
-    </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M297" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="T297" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y297" s="1">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C298" s="8">
+        <f t="shared" si="21"/>
+        <v>29973</v>
+      </c>
+      <c r="F298" s="2">
+        <v>43</v>
+      </c>
       <c r="I298" s="8"/>
-    </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M298" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="T298" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="Y298" s="1">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" s="8">
+        <f t="shared" si="21"/>
+        <v>29980</v>
+      </c>
+      <c r="F299" s="2">
+        <v>50</v>
+      </c>
       <c r="I299" s="8"/>
-    </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M299" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="T299" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y299" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C300" s="8">
+        <f t="shared" si="21"/>
+        <v>29987</v>
+      </c>
+      <c r="F300" s="2">
+        <v>57</v>
+      </c>
       <c r="I300" s="8"/>
-    </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M300" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="T300" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="Y300" s="1">
+        <v>346.6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C301" s="8">
+        <f t="shared" si="21"/>
+        <v>29994</v>
+      </c>
+      <c r="F301" s="2">
+        <v>64</v>
+      </c>
       <c r="I301" s="8"/>
-    </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M301" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="T301" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Y301" s="1">
+        <v>449.4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C302" s="8">
+        <f t="shared" si="21"/>
+        <v>30008</v>
+      </c>
+      <c r="F302" s="2">
+        <v>78</v>
+      </c>
       <c r="I302" s="8"/>
-    </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M302" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="T302" s="1">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="Y302" s="1">
+        <v>655.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C303" s="8">
+        <f t="shared" si="21"/>
+        <v>30022</v>
+      </c>
+      <c r="F303" s="2">
+        <v>92</v>
+      </c>
       <c r="I303" s="8"/>
-    </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M303" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="T303" s="1">
+        <v>201.1</v>
+      </c>
+      <c r="Y303" s="1">
+        <v>718.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C304" s="8">
+        <f t="shared" si="21"/>
+        <v>30029</v>
+      </c>
+      <c r="F304" s="2">
+        <v>99</v>
+      </c>
       <c r="I304" s="8"/>
-    </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M304" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="T304" s="1">
+        <v>268.2</v>
+      </c>
+      <c r="Y304" s="1">
+        <v>865.1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C305" s="8">
+        <f t="shared" si="21"/>
+        <v>30036</v>
+      </c>
+      <c r="F305" s="2">
+        <v>106</v>
+      </c>
       <c r="I305" s="8"/>
-    </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="T305" s="1">
+        <v>516.1</v>
+      </c>
+      <c r="Y305" s="1">
+        <v>1172.9000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C306" s="8">
+        <f t="shared" si="21"/>
+        <v>30043</v>
+      </c>
+      <c r="F306" s="2">
+        <v>113</v>
+      </c>
       <c r="I306" s="8"/>
-    </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="T306" s="1">
+        <v>592.20000000000005</v>
+      </c>
+      <c r="Y306" s="1">
+        <v>1259.9000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C307" s="8">
+        <f t="shared" si="21"/>
+        <v>30050</v>
+      </c>
+      <c r="F307" s="2">
+        <v>120</v>
+      </c>
       <c r="I307" s="8"/>
-    </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="T307" s="1">
+        <v>669.1</v>
+      </c>
+      <c r="Y307" s="1">
+        <v>1311.9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C308" s="8">
+        <f t="shared" si="21"/>
+        <v>29952</v>
+      </c>
+      <c r="F308" s="2">
+        <v>22</v>
+      </c>
       <c r="I308" s="8"/>
-    </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M308" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="T308" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y308" s="1">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C309" s="8">
+        <f t="shared" si="21"/>
+        <v>29959</v>
+      </c>
+      <c r="F309" s="2">
+        <v>29</v>
+      </c>
       <c r="I309" s="8"/>
-    </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M309" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="T309" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y309" s="1">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C310" s="8">
+        <f t="shared" si="21"/>
+        <v>29966</v>
+      </c>
+      <c r="F310" s="2">
+        <v>36</v>
+      </c>
       <c r="I310" s="8"/>
-    </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M310" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="T310" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y310" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C311" s="8">
+        <f t="shared" si="21"/>
+        <v>29973</v>
+      </c>
+      <c r="F311" s="2">
+        <v>43</v>
+      </c>
       <c r="I311" s="8"/>
-    </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M311" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="T311" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y311" s="1">
+        <v>334.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C312" s="8">
+        <f t="shared" si="21"/>
+        <v>29980</v>
+      </c>
+      <c r="F312" s="2">
+        <v>50</v>
+      </c>
       <c r="I312" s="8"/>
-    </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M312" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="T312" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="Y312" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C313" s="8">
+        <f t="shared" si="21"/>
+        <v>29987</v>
+      </c>
+      <c r="F313" s="2">
+        <v>57</v>
+      </c>
       <c r="I313" s="8"/>
-    </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M313" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="T313" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="Y313" s="1">
+        <v>671.8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C314" s="8">
+        <f t="shared" si="21"/>
+        <v>29994</v>
+      </c>
+      <c r="F314" s="2">
+        <v>64</v>
+      </c>
       <c r="I314" s="8"/>
-    </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M314" s="1">
+        <v>6.32</v>
+      </c>
+      <c r="T314" s="1">
+        <v>111.7</v>
+      </c>
+      <c r="Y314" s="1">
+        <v>744.7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C315" s="8">
+        <f t="shared" si="21"/>
+        <v>30008</v>
+      </c>
+      <c r="F315" s="2">
+        <v>78</v>
+      </c>
       <c r="I315" s="8"/>
-    </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M315" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="T315" s="1">
+        <v>166.7</v>
+      </c>
+      <c r="Y315" s="1">
+        <v>877.6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C316" s="8">
+        <f t="shared" si="21"/>
+        <v>30022</v>
+      </c>
+      <c r="F316" s="2">
+        <v>92</v>
+      </c>
       <c r="I316" s="8"/>
-    </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M316" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="T316" s="1">
+        <v>238.5</v>
+      </c>
+      <c r="Y316" s="1">
+        <v>954.1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C317" s="8">
+        <f t="shared" si="21"/>
+        <v>30029</v>
+      </c>
+      <c r="F317" s="2">
+        <v>99</v>
+      </c>
       <c r="I317" s="8"/>
-    </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="M317" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="T317" s="1">
+        <v>300.3</v>
+      </c>
+      <c r="Y317" s="1">
+        <v>1072.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C318" s="8">
+        <f t="shared" si="21"/>
+        <v>30036</v>
+      </c>
+      <c r="F318" s="2">
+        <v>106</v>
+      </c>
       <c r="I318" s="8"/>
-    </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="T318" s="1">
+        <v>579.79999999999995</v>
+      </c>
+      <c r="Y318" s="1">
+        <v>1207.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C319" s="8">
+        <f t="shared" si="21"/>
+        <v>30043</v>
+      </c>
+      <c r="F319" s="2">
+        <v>113</v>
+      </c>
       <c r="I319" s="8"/>
-    </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="T319" s="1">
+        <v>595.6</v>
+      </c>
+      <c r="Y319" s="1">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C320" s="8">
+        <f t="shared" si="21"/>
+        <v>30050</v>
+      </c>
+      <c r="F320" s="2">
+        <v>120</v>
+      </c>
       <c r="I320" s="8"/>
+      <c r="T320" s="1">
+        <v>667.3</v>
+      </c>
+      <c r="Y320" s="1">
+        <v>1588.7</v>
+      </c>
     </row>
     <row r="321" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I321" s="8"/>
@@ -11992,53 +13019,65 @@
     <row r="336" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:102" x14ac:dyDescent="0.3">
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I351" s="8"/>
-    </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I352" s="8"/>
+    <row r="351" spans="3:102" x14ac:dyDescent="0.3">
+      <c r="C351" s="18"/>
+      <c r="D351" s="18"/>
+      <c r="E351" s="18"/>
+      <c r="F351" s="19"/>
+      <c r="G351" s="19"/>
+      <c r="CW351" s="20"/>
+      <c r="CX351" s="20"/>
+    </row>
+    <row r="352" spans="3:102" x14ac:dyDescent="0.3">
+      <c r="C352" s="18"/>
+      <c r="D352" s="18"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="19"/>
+      <c r="G352" s="19"/>
+      <c r="CW352" s="20"/>
+      <c r="CX352" s="20"/>
     </row>
     <row r="353" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C353" s="18"/>
@@ -12217,8 +13256,6 @@
       <c r="E372" s="18"/>
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
-      <c r="CW372" s="20"/>
-      <c r="CX372" s="20"/>
     </row>
     <row r="373" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C373" s="18"/>
@@ -12226,8 +13263,6 @@
       <c r="E373" s="18"/>
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
-      <c r="CW373" s="20"/>
-      <c r="CX373" s="20"/>
     </row>
     <row r="374" spans="3:102" x14ac:dyDescent="0.3">
       <c r="C374" s="18"/>
@@ -12362,21 +13397,8 @@
       <c r="F392" s="19"/>
       <c r="G392" s="19"/>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C393" s="18"/>
-      <c r="D393" s="18"/>
-      <c r="E393" s="18"/>
-      <c r="F393" s="19"/>
-      <c r="G393" s="19"/>
-    </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C394" s="18"/>
-      <c r="D394" s="18"/>
-      <c r="E394" s="18"/>
-      <c r="F394" s="19"/>
-      <c r="G394" s="19"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -12394,23 +13416,23 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -12739,22 +13761,22 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -13083,22 +14105,22 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -13427,22 +14449,22 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -14630,37 +15652,37 @@
     </row>
     <row r="21" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" t="s">
         <v>81</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>82</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>84</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>85</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>86</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>87</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>88</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>89</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>90</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="14:25" x14ac:dyDescent="0.3">
@@ -15278,16 +16300,16 @@
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -15708,19 +16730,19 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -16338,10 +17360,10 @@
         <v>0.59296189630416696</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -16352,25 +17374,25 @@
         <v>2.20414318557189</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>103</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -17116,19 +18138,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBADCC8-8FE7-48CF-A242-4BB7E414403C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50E049B-CCE8-4367-B845-8822C11DC300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="12346" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="159">
   <si>
     <t>SimulationName</t>
   </si>
@@ -513,6 +513,15 @@
   <si>
     <t>Peanut.Phenology.DaysAfterEmergence</t>
   </si>
+  <si>
+    <t>Kingaroy8990CvVirginiaBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8990CvEarlyBunch</t>
+  </si>
+  <si>
+    <t>Kingaroy8990CvTMV2</t>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +597,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -627,6 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3630,92 +3640,93 @@
   <dimension ref="A1:AMK392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I283" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A320" sqref="A320"/>
+      <pane xSplit="10927" ySplit="1147" topLeftCell="R327" activePane="bottomRight"/>
+      <selection activeCell="D1" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="D327" sqref="D327"/>
+      <selection pane="bottomRight" activeCell="T340" sqref="T340"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="34.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="34.234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.52734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.234375" style="1" customWidth="1"/>
     <col min="9" max="12" width="32" style="1" customWidth="1"/>
-    <col min="13" max="15" width="28.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.21875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="14.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.21875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="28.87890625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.234375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1171875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.64453125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="14.1171875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.234375" style="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="14.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.88671875" customWidth="1"/>
-    <col min="29" max="30" width="14.44140625" customWidth="1"/>
-    <col min="31" max="31" width="15.109375" customWidth="1"/>
+    <col min="24" max="24" width="17.64453125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="14.1171875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.87890625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.87890625" customWidth="1"/>
+    <col min="29" max="30" width="14.41015625" customWidth="1"/>
+    <col min="31" max="31" width="15.1171875" customWidth="1"/>
     <col min="32" max="33" width="15" customWidth="1"/>
-    <col min="34" max="35" width="21.88671875" customWidth="1"/>
-    <col min="36" max="36" width="20.5546875" customWidth="1"/>
-    <col min="37" max="38" width="21.6640625" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" customWidth="1"/>
-    <col min="40" max="40" width="16.44140625" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" customWidth="1"/>
+    <col min="34" max="35" width="21.87890625" customWidth="1"/>
+    <col min="36" max="36" width="20.52734375" customWidth="1"/>
+    <col min="37" max="38" width="21.64453125" customWidth="1"/>
+    <col min="39" max="39" width="17.64453125" customWidth="1"/>
+    <col min="40" max="40" width="16.41015625" customWidth="1"/>
+    <col min="41" max="41" width="17.234375" customWidth="1"/>
     <col min="42" max="42" width="18" customWidth="1"/>
-    <col min="43" max="43" width="16.5546875" customWidth="1"/>
-    <col min="44" max="45" width="17.6640625" customWidth="1"/>
-    <col min="46" max="46" width="13.6640625" customWidth="1"/>
-    <col min="47" max="47" width="12.6640625" customWidth="1"/>
-    <col min="48" max="48" width="13.21875" customWidth="1"/>
+    <col min="43" max="43" width="16.52734375" customWidth="1"/>
+    <col min="44" max="45" width="17.64453125" customWidth="1"/>
+    <col min="46" max="46" width="13.64453125" customWidth="1"/>
+    <col min="47" max="47" width="12.64453125" customWidth="1"/>
+    <col min="48" max="48" width="13.234375" customWidth="1"/>
     <col min="49" max="49" width="14" customWidth="1"/>
-    <col min="50" max="52" width="20.6640625" customWidth="1"/>
-    <col min="53" max="53" width="9.21875" customWidth="1"/>
-    <col min="54" max="54" width="14.6640625" customWidth="1"/>
-    <col min="55" max="55" width="13.88671875" customWidth="1"/>
+    <col min="50" max="52" width="20.64453125" customWidth="1"/>
+    <col min="53" max="53" width="9.234375" customWidth="1"/>
+    <col min="54" max="54" width="14.64453125" customWidth="1"/>
+    <col min="55" max="55" width="13.87890625" customWidth="1"/>
     <col min="56" max="56" width="17" customWidth="1"/>
-    <col min="57" max="57" width="5.6640625" customWidth="1"/>
-    <col min="58" max="58" width="8.109375" customWidth="1"/>
+    <col min="57" max="57" width="5.64453125" customWidth="1"/>
+    <col min="58" max="58" width="8.1171875" customWidth="1"/>
     <col min="59" max="59" width="14" customWidth="1"/>
-    <col min="60" max="60" width="14.21875" customWidth="1"/>
-    <col min="61" max="61" width="10.6640625" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" customWidth="1"/>
-    <col min="63" max="63" width="6.5546875" customWidth="1"/>
-    <col min="64" max="64" width="7.5546875" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="17.44140625" customWidth="1"/>
-    <col min="67" max="67" width="14.109375" customWidth="1"/>
-    <col min="68" max="68" width="15.109375" customWidth="1"/>
-    <col min="69" max="69" width="14.6640625" customWidth="1"/>
+    <col min="60" max="60" width="14.234375" customWidth="1"/>
+    <col min="61" max="61" width="10.64453125" customWidth="1"/>
+    <col min="62" max="62" width="10.52734375" customWidth="1"/>
+    <col min="63" max="63" width="6.52734375" customWidth="1"/>
+    <col min="64" max="64" width="7.52734375" customWidth="1"/>
+    <col min="65" max="65" width="14.87890625" customWidth="1"/>
+    <col min="66" max="66" width="17.41015625" customWidth="1"/>
+    <col min="67" max="67" width="14.1171875" customWidth="1"/>
+    <col min="68" max="68" width="15.1171875" customWidth="1"/>
+    <col min="69" max="69" width="14.64453125" customWidth="1"/>
     <col min="70" max="70" width="15" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" customWidth="1"/>
-    <col min="72" max="72" width="11.21875" customWidth="1"/>
-    <col min="73" max="73" width="17.6640625" customWidth="1"/>
-    <col min="74" max="74" width="20.21875" customWidth="1"/>
-    <col min="75" max="75" width="18.44140625" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" customWidth="1"/>
-    <col min="77" max="77" width="17.44140625" customWidth="1"/>
-    <col min="78" max="78" width="18.109375" customWidth="1"/>
-    <col min="79" max="79" width="13.6640625" customWidth="1"/>
-    <col min="80" max="80" width="16.21875" customWidth="1"/>
-    <col min="81" max="81" width="14.109375" customWidth="1"/>
-    <col min="82" max="82" width="14.44140625" customWidth="1"/>
-    <col min="83" max="83" width="13.88671875" customWidth="1"/>
-    <col min="84" max="84" width="10.6640625" customWidth="1"/>
-    <col min="85" max="85" width="18.6640625" customWidth="1"/>
-    <col min="86" max="86" width="13.44140625" customWidth="1"/>
-    <col min="87" max="87" width="18.6640625" customWidth="1"/>
+    <col min="71" max="71" width="11.64453125" customWidth="1"/>
+    <col min="72" max="72" width="11.234375" customWidth="1"/>
+    <col min="73" max="73" width="17.64453125" customWidth="1"/>
+    <col min="74" max="74" width="20.234375" customWidth="1"/>
+    <col min="75" max="75" width="18.41015625" customWidth="1"/>
+    <col min="76" max="76" width="17.234375" customWidth="1"/>
+    <col min="77" max="77" width="17.41015625" customWidth="1"/>
+    <col min="78" max="78" width="18.1171875" customWidth="1"/>
+    <col min="79" max="79" width="13.64453125" customWidth="1"/>
+    <col min="80" max="80" width="16.234375" customWidth="1"/>
+    <col min="81" max="81" width="14.1171875" customWidth="1"/>
+    <col min="82" max="82" width="14.41015625" customWidth="1"/>
+    <col min="83" max="83" width="13.87890625" customWidth="1"/>
+    <col min="84" max="84" width="10.64453125" customWidth="1"/>
+    <col min="85" max="85" width="18.64453125" customWidth="1"/>
+    <col min="86" max="86" width="13.41015625" customWidth="1"/>
+    <col min="87" max="87" width="18.64453125" customWidth="1"/>
     <col min="88" max="88" width="18" customWidth="1"/>
-    <col min="89" max="89" width="10.88671875" customWidth="1"/>
-    <col min="90" max="90" width="9.88671875" customWidth="1"/>
-    <col min="91" max="91" width="12.109375" customWidth="1"/>
-    <col min="95" max="1025" width="9.109375" style="1"/>
+    <col min="89" max="89" width="10.87890625" customWidth="1"/>
+    <col min="90" max="90" width="9.87890625" customWidth="1"/>
+    <col min="91" max="91" width="12.1171875" customWidth="1"/>
+    <col min="95" max="1025" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>68.141720896601498</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>196.31271714018601</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -3876,7 +3887,7 @@
         <v>292.38382448900398</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3902,7 +3913,7 @@
         <v>298.91892845175698</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3930,7 +3941,7 @@
         <v>2.4734753777584499</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -3961,7 +3972,7 @@
         <v>5.2430744977531898</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>11.0078054588695</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -4027,7 +4038,7 @@
         <v>21.509959196103701</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>25.699515305663201</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -4095,7 +4106,7 @@
         <v>0.45825656659652136</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -4123,7 +4134,7 @@
         <v>2.7319273834112301</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -4154,7 +4165,7 @@
         <v>6.85523381641993</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -4185,7 +4196,7 @@
         <v>12.5654672438119</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>24.0564601232164</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -4247,7 +4258,7 @@
         <v>29.815629620329101</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>0.56647955764075453</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -4312,7 +4323,7 @@
         <v>1.64304914565812</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -4347,7 +4358,7 @@
         <v>4.9005618213657103</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -4378,7 +4389,7 @@
         <v>9.1869781064637497</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -4409,7 +4420,7 @@
         <v>21.709765874464299</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -4446,7 +4457,7 @@
         <v>0.44095808953351817</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
@@ -4464,7 +4475,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -4486,7 +4497,7 @@
         <v>3.3757226576011199</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -4511,7 +4522,7 @@
         <v>6.57918247708729</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -4536,7 +4547,7 @@
         <v>9.3131376048393797</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -4561,7 +4572,7 @@
         <v>22.994465909246099</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -4588,7 +4599,7 @@
         <v>25.333346900617901</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -4610,7 +4621,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -4642,7 +4653,7 @@
         <v>2.9336266960030999</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>27.781444811147999</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>171.523285661899</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -4744,7 +4755,7 @@
         <v>458.39090575724202</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
@@ -4779,7 +4790,7 @@
         <v>640.95636230289699</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -4823,7 +4834,7 @@
         <v>0.56175917945181852</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -4855,7 +4866,7 @@
         <v>12.5735240190683</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
@@ -4887,7 +4898,7 @@
         <v>49.748441510817599</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>234.68426842684201</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
@@ -4959,7 +4970,7 @@
         <v>509.43601026769301</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4994,7 +5005,7 @@
         <v>660.44737807113995</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
@@ -5038,7 +5049,7 @@
         <v>0.44715629659031508</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -5070,7 +5081,7 @@
         <v>15.1023102310232</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
@@ -5102,7 +5113,7 @@
         <v>69.133846718005003</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5148,7 @@
         <v>224.93876054272101</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
@@ -5172,7 +5183,7 @@
         <v>487.52181884855099</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>33</v>
       </c>
@@ -5207,7 +5218,7 @@
         <v>539.18298496516297</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -5252,7 +5263,7 @@
         <v>0.34442199098783444</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -5284,7 +5295,7 @@
         <v>17.367070040337399</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
@@ -5316,7 +5327,7 @@
         <v>102.952695269526</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>34</v>
       </c>
@@ -5351,7 +5362,7 @@
         <v>285.518151815181</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
@@ -5386,7 +5397,7 @@
         <v>574.650531719838</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -5421,7 +5432,7 @@
         <v>589.964063072974</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -5465,7 +5476,7 @@
         <v>0.43673119216076633</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A54" s="5" t="s">
         <v>35</v>
       </c>
@@ -5497,7 +5508,7 @@
         <v>27.1653832049873</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>119.91492482581501</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
@@ -5564,7 +5575,7 @@
         <v>404.14814814814798</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>35</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>613.47414741474097</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
@@ -5636,7 +5647,7 @@
         <v>672.457645764576</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A59" s="5" t="s">
         <v>35</v>
       </c>
@@ -5680,7 +5691,7 @@
         <v>0.34225516905305436</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>44.180418041804103</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="s">
         <v>36</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>156.42097543087601</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>406.94096076274201</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A63" s="5" t="s">
         <v>36</v>
       </c>
@@ -5814,7 +5825,7 @@
         <v>698.39090575724197</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -5849,7 +5860,7 @@
         <v>614.30143014301404</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>36</v>
       </c>
@@ -5894,7 +5905,7 @@
         <v>0.34882563252840276</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A66" s="9" t="s">
         <v>37</v>
       </c>
@@ -5924,7 +5935,7 @@
         <v>14.1576376953573</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A67" s="9" t="s">
         <v>37</v>
       </c>
@@ -5954,7 +5965,7 @@
         <v>38.1365759029174</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A68" s="9" t="s">
         <v>37</v>
       </c>
@@ -5984,7 +5995,7 @@
         <v>103.251645148664</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A69" s="9" t="s">
         <v>37</v>
       </c>
@@ -6014,7 +6025,7 @@
         <v>269.36486443780501</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A70" s="9" t="s">
         <v>37</v>
       </c>
@@ -6044,7 +6055,7 @@
         <v>402.49829225424799</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A71" s="9" t="s">
         <v>37</v>
       </c>
@@ -6074,7 +6085,7 @@
         <v>471.77029421845998</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A72" s="9" t="s">
         <v>37</v>
       </c>
@@ -6122,7 +6133,7 @@
         <v>0.55755403529442404</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
@@ -6151,7 +6162,7 @@
         <v>14.197019163216501</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A74" s="9" t="s">
         <v>38</v>
       </c>
@@ -6180,7 +6191,7 @@
         <v>38.175957370776501</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A75" s="9" t="s">
         <v>38</v>
       </c>
@@ -6209,7 +6220,7 @@
         <v>86.781440146246197</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A76" s="9" t="s">
         <v>38</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>195.24894192692</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A77" s="9" t="s">
         <v>38</v>
       </c>
@@ -6267,7 +6278,7 @@
         <v>332.49992099396798</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A78" s="9" t="s">
         <v>38</v>
       </c>
@@ -6296,7 +6307,7 @@
         <v>430.59478171241301</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A79" s="9" t="s">
         <v>38</v>
       </c>
@@ -6344,7 +6355,7 @@
         <v>0.57364638814782731</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A80" s="9" t="s">
         <v>39</v>
       </c>
@@ -6373,7 +6384,7 @@
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A81" s="9" t="s">
         <v>39</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>31.960249027010299</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A82" s="9" t="s">
         <v>39</v>
       </c>
@@ -6431,7 +6442,7 @@
         <v>78.506956177177699</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A83" s="9" t="s">
         <v>39</v>
       </c>
@@ -6460,7 +6471,7 @@
         <v>141.72077566905901</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A84" s="9" t="s">
         <v>39</v>
       </c>
@@ -6489,7 +6500,7 @@
         <v>241.874412012806</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A85" s="9" t="s">
         <v>39</v>
       </c>
@@ -6518,7 +6529,7 @@
         <v>259.59826040873997</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A86" s="9" t="s">
         <v>39</v>
       </c>
@@ -6559,7 +6570,7 @@
         <v>0.60964305392848284</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A87" s="9" t="s">
         <v>40</v>
       </c>
@@ -6588,7 +6599,7 @@
         <v>16.216413320659701</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A88" s="9" t="s">
         <v>40</v>
       </c>
@@ -6617,7 +6628,7 @@
         <v>27.842697776405601</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A89" s="9" t="s">
         <v>40</v>
       </c>
@@ -6646,7 +6657,7 @@
         <v>57.9191999241541</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A90" s="9" t="s">
         <v>40</v>
       </c>
@@ -6675,7 +6686,7 @@
         <v>125.211189198781</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A91" s="9" t="s">
         <v>40</v>
       </c>
@@ -6704,7 +6715,7 @@
         <v>198.48259801002001</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A92" s="9" t="s">
         <v>40</v>
       </c>
@@ -6733,7 +6744,7 @@
         <v>257.46072184771901</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A93" s="9" t="s">
         <v>40</v>
       </c>
@@ -6774,7 +6785,7 @@
         <v>0.61517153956727488</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A94" s="9" t="s">
         <v>41</v>
       </c>
@@ -6815,7 +6826,7 @@
         <v>0.5877198616698468</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A95" s="9" t="s">
         <v>42</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>0.59785332049875728</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A96" s="9" t="s">
         <v>43</v>
       </c>
@@ -6897,7 +6908,7 @@
         <v>0.5966570064180915</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A97" s="9" t="s">
         <v>44</v>
       </c>
@@ -6938,7 +6949,7 @@
         <v>0.58478450560410777</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A98" s="9" t="s">
         <v>45</v>
       </c>
@@ -6979,7 +6990,7 @@
         <v>0.57435408989559844</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A99" s="9" t="s">
         <v>46</v>
       </c>
@@ -7020,7 +7031,7 @@
         <v>0.55432121382614619</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A100" s="9" t="s">
         <v>47</v>
       </c>
@@ -7061,7 +7072,7 @@
         <v>0.56902564173601522</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A101" s="9" t="s">
         <v>48</v>
       </c>
@@ -7102,7 +7113,7 @@
         <v>0.5415984268554952</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A102" s="9" t="s">
         <v>49</v>
       </c>
@@ -7134,7 +7145,7 @@
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A103" s="9" t="s">
         <v>49</v>
       </c>
@@ -7166,7 +7177,7 @@
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A104" s="9" t="s">
         <v>49</v>
       </c>
@@ -7198,7 +7209,7 @@
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A105" s="9" t="s">
         <v>49</v>
       </c>
@@ -7230,7 +7241,7 @@
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A106" s="9" t="s">
         <v>49</v>
       </c>
@@ -7262,7 +7273,7 @@
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A107" s="9" t="s">
         <v>49</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>0.5164687627891642</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A108" s="9" t="s">
         <v>49</v>
       </c>
@@ -7339,7 +7350,7 @@
         <v>0.54760057573932719</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A109" s="9" t="s">
         <v>50</v>
       </c>
@@ -7380,7 +7391,7 @@
         <v>0.55106873051835448</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A110" s="9" t="s">
         <v>51</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>0.54152216496102545</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A111" s="9" t="s">
         <v>52</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>0.52004526213321234</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A112" s="1" t="s">
         <v>53</v>
       </c>
@@ -7493,7 +7504,7 @@
         <v>0.52101506740682002</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A113" s="1" t="s">
         <v>54</v>
       </c>
@@ -7524,7 +7535,7 @@
         <v>0.41585445094217022</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
         <v>55</v>
       </c>
@@ -7555,7 +7566,7 @@
         <v>0.41902313624678661</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A115" s="1" t="s">
         <v>56</v>
       </c>
@@ -7587,7 +7598,7 @@
         <v>0.35083384805435452</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A116" s="1" t="s">
         <v>53</v>
       </c>
@@ -7604,7 +7615,7 @@
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A117" s="1" t="s">
         <v>53</v>
       </c>
@@ -7621,7 +7632,7 @@
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A118" s="1" t="s">
         <v>53</v>
       </c>
@@ -7638,7 +7649,7 @@
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A119" s="1" t="s">
         <v>53</v>
       </c>
@@ -7655,7 +7666,7 @@
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A120" s="1" t="s">
         <v>53</v>
       </c>
@@ -7672,7 +7683,7 @@
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A121" s="1" t="s">
         <v>53</v>
       </c>
@@ -7689,7 +7700,7 @@
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A122" s="1" t="s">
         <v>53</v>
       </c>
@@ -7706,7 +7717,7 @@
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A123" s="1" t="s">
         <v>54</v>
       </c>
@@ -7723,7 +7734,7 @@
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A124" s="1" t="s">
         <v>54</v>
       </c>
@@ -7740,7 +7751,7 @@
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A125" s="1" t="s">
         <v>54</v>
       </c>
@@ -7757,7 +7768,7 @@
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A126" s="1" t="s">
         <v>54</v>
       </c>
@@ -7774,7 +7785,7 @@
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A127" s="1" t="s">
         <v>54</v>
       </c>
@@ -7791,7 +7802,7 @@
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A128" s="1" t="s">
         <v>54</v>
       </c>
@@ -7808,7 +7819,7 @@
         <v>0.96878842686282296</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A129" s="1" t="s">
         <v>54</v>
       </c>
@@ -7825,7 +7836,7 @@
         <v>0.98848228021902196</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -7842,7 +7853,7 @@
         <v>0.17231777051132799</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
@@ -7859,7 +7870,7 @@
         <v>0.52665686982701998</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
@@ -7876,7 +7887,7 @@
         <v>0.78575800519434602</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A133" s="1" t="s">
         <v>55</v>
       </c>
@@ -7893,7 +7904,7 @@
         <v>0.88946711074104901</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A134" s="1" t="s">
         <v>55</v>
       </c>
@@ -7910,7 +7921,7 @@
         <v>0.96907792071728205</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A135" s="1" t="s">
         <v>55</v>
       </c>
@@ -7927,7 +7938,7 @@
         <v>0.98757933510154305</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A136" s="1" t="s">
         <v>55</v>
       </c>
@@ -7944,7 +7955,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7961,7 +7972,7 @@
         <v>0.22119398293916201</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7978,7 +7989,7 @@
         <v>0.62816857916416202</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A139" s="1" t="s">
         <v>56</v>
       </c>
@@ -7995,7 +8006,7 @@
         <v>0.84465346207078995</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A140" s="1" t="s">
         <v>56</v>
       </c>
@@ -8012,7 +8023,7 @@
         <v>0.91580140170167201</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A141" s="1" t="s">
         <v>56</v>
       </c>
@@ -8029,7 +8040,7 @@
         <v>0.98663503371914096</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -8046,7 +8057,7 @@
         <v>0.98884070118168599</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -8063,7 +8074,7 @@
         <v>0.99098019862035402</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A144" s="5" t="s">
         <v>57</v>
       </c>
@@ -8099,7 +8110,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A145" s="5" t="s">
         <v>57</v>
       </c>
@@ -8135,7 +8146,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A146" s="5" t="s">
         <v>57</v>
       </c>
@@ -8172,7 +8183,7 @@
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A147" s="5" t="s">
         <v>57</v>
       </c>
@@ -8208,7 +8219,7 @@
         <v>678.9</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A148" s="5" t="s">
         <v>57</v>
       </c>
@@ -8244,7 +8255,7 @@
         <v>980.6</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A149" s="5" t="s">
         <v>57</v>
       </c>
@@ -8294,7 +8305,7 @@
         <v>0.37601776461880088</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A150" s="5" t="s">
         <v>59</v>
       </c>
@@ -8332,7 +8343,7 @@
       <c r="Z150" s="12"/>
       <c r="AA150" s="12"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A151" s="5" t="s">
         <v>59</v>
       </c>
@@ -8370,7 +8381,7 @@
       <c r="Z151" s="12"/>
       <c r="AA151" s="12"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A152" s="5" t="s">
         <v>59</v>
       </c>
@@ -8408,7 +8419,7 @@
       <c r="Z152" s="12"/>
       <c r="AA152" s="12"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A153" s="5" t="s">
         <v>59</v>
       </c>
@@ -8447,7 +8458,7 @@
       <c r="Z153" s="12"/>
       <c r="AA153" s="12"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A154" s="5" t="s">
         <v>59</v>
       </c>
@@ -8486,7 +8497,7 @@
       <c r="Z154" s="12"/>
       <c r="AA154" s="12"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A155" s="5" t="s">
         <v>59</v>
       </c>
@@ -8537,7 +8548,7 @@
         <v>0.45600158196559226</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A156" s="5" t="s">
         <v>61</v>
       </c>
@@ -8573,7 +8584,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A157" s="5" t="s">
         <v>61</v>
       </c>
@@ -8609,7 +8620,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A158" s="5" t="s">
         <v>61</v>
       </c>
@@ -8645,7 +8656,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A159" s="5" t="s">
         <v>61</v>
       </c>
@@ -8683,7 +8694,7 @@
       </c>
       <c r="Z159" s="10"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A160" s="5" t="s">
         <v>61</v>
       </c>
@@ -8720,7 +8731,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A161" s="5" t="s">
         <v>61</v>
       </c>
@@ -8768,7 +8779,7 @@
         <v>0.4949964887640449</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A162" s="5" t="s">
         <v>63</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A163" s="5" t="s">
         <v>63</v>
       </c>
@@ -8842,7 +8853,7 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A164" s="5" t="s">
         <v>63</v>
       </c>
@@ -8879,7 +8890,7 @@
         <v>260.89999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A165" s="5" t="s">
         <v>63</v>
       </c>
@@ -8916,7 +8927,7 @@
         <v>518.29999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A166" s="5" t="s">
         <v>63</v>
       </c>
@@ -8952,7 +8963,7 @@
         <v>903.2</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A167" s="5" t="s">
         <v>63</v>
       </c>
@@ -9003,7 +9014,7 @@
         <v>0.48500185162325632</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A168" s="5" t="s">
         <v>65</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A169" s="5" t="s">
         <v>65</v>
       </c>
@@ -9075,7 +9086,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A170" s="5" t="s">
         <v>65</v>
       </c>
@@ -9111,7 +9122,7 @@
         <v>235.4</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A171" s="5" t="s">
         <v>65</v>
       </c>
@@ -9147,7 +9158,7 @@
         <v>438.2</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A172" s="5" t="s">
         <v>65</v>
       </c>
@@ -9184,7 +9195,7 @@
         <v>568.4</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A173" s="5" t="s">
         <v>65</v>
       </c>
@@ -9235,7 +9246,7 @@
         <v>0.57699221090473329</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A174" s="5" t="s">
         <v>67</v>
       </c>
@@ -9267,7 +9278,7 @@
       </c>
       <c r="Z174" s="15"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A175" s="5" t="s">
         <v>67</v>
       </c>
@@ -9298,7 +9309,7 @@
       </c>
       <c r="Z175" s="16"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A176" s="5" t="s">
         <v>67</v>
       </c>
@@ -9329,7 +9340,7 @@
       </c>
       <c r="Z176" s="15"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A177" s="5" t="s">
         <v>67</v>
       </c>
@@ -9360,7 +9371,7 @@
       </c>
       <c r="Z177" s="15"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A178" s="5" t="s">
         <v>67</v>
       </c>
@@ -9389,7 +9400,7 @@
         <v>688.1</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A179" s="5" t="s">
         <v>67</v>
       </c>
@@ -9419,7 +9430,7 @@
         <v>866.2</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A180" s="5" t="s">
         <v>67</v>
       </c>
@@ -9448,7 +9459,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A181" s="5" t="s">
         <v>67</v>
       </c>
@@ -9486,7 +9497,7 @@
         <v>0.59001326511275343</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A182" s="5" t="s">
         <v>69</v>
       </c>
@@ -9515,7 +9526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A183" s="5" t="s">
         <v>69</v>
       </c>
@@ -9543,7 +9554,7 @@
         <v>177.7</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A184" s="5" t="s">
         <v>69</v>
       </c>
@@ -9571,7 +9582,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A185" s="5" t="s">
         <v>69</v>
       </c>
@@ -9599,7 +9610,7 @@
         <v>616.20000000000005</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A186" s="5" t="s">
         <v>69</v>
       </c>
@@ -9629,7 +9640,7 @@
         <v>806.9</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A187" s="5" t="s">
         <v>69</v>
       </c>
@@ -9658,7 +9669,7 @@
         <v>866.1</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A188" s="5" t="s">
         <v>69</v>
       </c>
@@ -9687,7 +9698,7 @@
         <v>948.6</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A189" s="5" t="s">
         <v>69</v>
       </c>
@@ -9725,7 +9736,7 @@
         <v>0.57000387296669253</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A190" s="5" t="s">
         <v>70</v>
       </c>
@@ -9754,7 +9765,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A191" s="5" t="s">
         <v>70</v>
       </c>
@@ -9783,7 +9794,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A192" s="5" t="s">
         <v>70</v>
       </c>
@@ -9812,7 +9823,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A193" s="5" t="s">
         <v>70</v>
       </c>
@@ -9842,7 +9853,7 @@
         <v>653.70000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A194" s="5" t="s">
         <v>70</v>
       </c>
@@ -9871,7 +9882,7 @@
         <v>894.2</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A195" s="5" t="s">
         <v>70</v>
       </c>
@@ -9900,7 +9911,7 @@
         <v>1148.0999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A196" s="5" t="s">
         <v>70</v>
       </c>
@@ -9929,7 +9940,7 @@
         <v>1135.8</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A197" s="5" t="s">
         <v>70</v>
       </c>
@@ -9967,7 +9978,7 @@
         <v>0.56002009040683076</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A198" s="5" t="s">
         <v>72</v>
       </c>
@@ -9996,7 +10007,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A199" s="5" t="s">
         <v>72</v>
       </c>
@@ -10025,7 +10036,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A200" s="5" t="s">
         <v>72</v>
       </c>
@@ -10055,7 +10066,7 @@
         <v>419.8</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A201" s="5" t="s">
         <v>72</v>
       </c>
@@ -10084,7 +10095,7 @@
         <v>807.7</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A202" s="5" t="s">
         <v>72</v>
       </c>
@@ -10113,7 +10124,7 @@
         <v>971.8</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A203" s="5" t="s">
         <v>72</v>
       </c>
@@ -10142,7 +10153,7 @@
         <v>1113.5999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A204" s="5" t="s">
         <v>72</v>
       </c>
@@ -10171,7 +10182,7 @@
         <v>1123.5999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A205" s="5" t="s">
         <v>72</v>
       </c>
@@ -10209,7 +10220,7 @@
         <v>0.5600248004340076</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A206" s="5" t="s">
         <v>73</v>
       </c>
@@ -10238,7 +10249,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A207" s="5" t="s">
         <v>73</v>
       </c>
@@ -10268,7 +10279,7 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A208" s="5" t="s">
         <v>73</v>
       </c>
@@ -10297,7 +10308,7 @@
         <v>352.8</v>
       </c>
     </row>
-    <row r="209" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A209" s="5" t="s">
         <v>73</v>
       </c>
@@ -10326,7 +10337,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="210" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A210" s="5" t="s">
         <v>73</v>
       </c>
@@ -10355,7 +10366,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="211" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A211" s="5" t="s">
         <v>73</v>
       </c>
@@ -10384,7 +10395,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="212" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A212" s="5" t="s">
         <v>73</v>
       </c>
@@ -10413,7 +10424,7 @@
         <v>724.4</v>
       </c>
     </row>
-    <row r="213" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A213" s="5" t="s">
         <v>73</v>
       </c>
@@ -10451,7 +10462,7 @@
         <v>0.60995475113122177</v>
       </c>
     </row>
-    <row r="214" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A214" s="5" t="s">
         <v>75</v>
       </c>
@@ -10481,7 +10492,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A215" s="5" t="s">
         <v>75</v>
       </c>
@@ -10510,7 +10521,7 @@
         <v>229.6</v>
       </c>
     </row>
-    <row r="216" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A216" s="5" t="s">
         <v>75</v>
       </c>
@@ -10539,7 +10550,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="217" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A217" s="5" t="s">
         <v>75</v>
       </c>
@@ -10568,7 +10579,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="218" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A218" s="5" t="s">
         <v>75</v>
       </c>
@@ -10597,7 +10608,7 @@
         <v>700.7</v>
       </c>
     </row>
-    <row r="219" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A219" s="5" t="s">
         <v>75</v>
       </c>
@@ -10626,7 +10637,7 @@
         <v>864.4</v>
       </c>
     </row>
-    <row r="220" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A220" s="5" t="s">
         <v>75</v>
       </c>
@@ -10655,7 +10666,7 @@
         <v>793.9</v>
       </c>
     </row>
-    <row r="221" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A221" s="5" t="s">
         <v>75</v>
       </c>
@@ -10694,7 +10705,7 @@
         <v>0.59994640943194</v>
       </c>
     </row>
-    <row r="222" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A222" s="21" t="s">
         <v>108</v>
       </c>
@@ -10710,7 +10721,7 @@
       </c>
       <c r="CV222" s="2"/>
     </row>
-    <row r="223" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A223" s="21" t="s">
         <v>109</v>
       </c>
@@ -10726,7 +10737,7 @@
       </c>
       <c r="CV223" s="2"/>
     </row>
-    <row r="224" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A224" s="21" t="s">
         <v>110</v>
       </c>
@@ -10742,7 +10753,7 @@
       </c>
       <c r="CV224" s="2"/>
     </row>
-    <row r="225" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A225" s="21" t="s">
         <v>111</v>
       </c>
@@ -10758,7 +10769,7 @@
       </c>
       <c r="CV225" s="2"/>
     </row>
-    <row r="226" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A226" s="21" t="s">
         <v>112</v>
       </c>
@@ -10774,7 +10785,7 @@
       </c>
       <c r="CV226" s="2"/>
     </row>
-    <row r="227" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A227" s="21" t="s">
         <v>113</v>
       </c>
@@ -10790,7 +10801,7 @@
       </c>
       <c r="CV227" s="2"/>
     </row>
-    <row r="228" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A228" s="21" t="s">
         <v>114</v>
       </c>
@@ -10806,7 +10817,7 @@
       </c>
       <c r="CV228" s="2"/>
     </row>
-    <row r="229" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A229" s="21" t="s">
         <v>115</v>
       </c>
@@ -10822,7 +10833,7 @@
       </c>
       <c r="CV229" s="2"/>
     </row>
-    <row r="230" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A230" s="21" t="s">
         <v>116</v>
       </c>
@@ -10838,7 +10849,7 @@
       </c>
       <c r="CV230" s="2"/>
     </row>
-    <row r="231" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A231" s="21" t="s">
         <v>117</v>
       </c>
@@ -10854,7 +10865,7 @@
       </c>
       <c r="CV231" s="2"/>
     </row>
-    <row r="232" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A232" s="21" t="s">
         <v>118</v>
       </c>
@@ -10870,7 +10881,7 @@
       </c>
       <c r="CV232" s="2"/>
     </row>
-    <row r="233" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A233" s="21" t="s">
         <v>129</v>
       </c>
@@ -10886,7 +10897,7 @@
       </c>
       <c r="CV233" s="2"/>
     </row>
-    <row r="234" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A234" s="21" t="s">
         <v>119</v>
       </c>
@@ -10902,7 +10913,7 @@
       </c>
       <c r="CV234" s="2"/>
     </row>
-    <row r="235" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A235" s="21" t="s">
         <v>120</v>
       </c>
@@ -10918,7 +10929,7 @@
       </c>
       <c r="CV235" s="2"/>
     </row>
-    <row r="236" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A236" s="21" t="s">
         <v>121</v>
       </c>
@@ -10934,7 +10945,7 @@
       </c>
       <c r="CV236" s="2"/>
     </row>
-    <row r="237" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A237" s="21" t="s">
         <v>122</v>
       </c>
@@ -10950,7 +10961,7 @@
       </c>
       <c r="CV237" s="2"/>
     </row>
-    <row r="238" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A238" s="21" t="s">
         <v>123</v>
       </c>
@@ -10966,7 +10977,7 @@
       </c>
       <c r="CV238" s="2"/>
     </row>
-    <row r="239" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A239" s="21" t="s">
         <v>124</v>
       </c>
@@ -10982,7 +10993,7 @@
       </c>
       <c r="CV239" s="2"/>
     </row>
-    <row r="240" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A240" s="21" t="s">
         <v>125</v>
       </c>
@@ -10998,7 +11009,7 @@
       </c>
       <c r="CV240" s="2"/>
     </row>
-    <row r="241" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A241" s="21" t="s">
         <v>126</v>
       </c>
@@ -11014,7 +11025,7 @@
       </c>
       <c r="CV241" s="2"/>
     </row>
-    <row r="242" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A242" s="21" t="s">
         <v>127</v>
       </c>
@@ -11030,7 +11041,7 @@
       </c>
       <c r="CV242" s="2"/>
     </row>
-    <row r="243" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A243" s="21" t="s">
         <v>128</v>
       </c>
@@ -11046,7 +11057,7 @@
       </c>
       <c r="CV243" s="2"/>
     </row>
-    <row r="244" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A244" s="21" t="s">
         <v>130</v>
       </c>
@@ -11062,7 +11073,7 @@
       </c>
       <c r="CV244" s="2"/>
     </row>
-    <row r="245" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A245" s="21" t="s">
         <v>131</v>
       </c>
@@ -11078,7 +11089,7 @@
       </c>
       <c r="CV245" s="2"/>
     </row>
-    <row r="246" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A246" s="21" t="s">
         <v>132</v>
       </c>
@@ -11094,7 +11105,7 @@
       </c>
       <c r="CV246" s="2"/>
     </row>
-    <row r="247" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A247" s="21" t="s">
         <v>133</v>
       </c>
@@ -11110,7 +11121,7 @@
       </c>
       <c r="CV247" s="2"/>
     </row>
-    <row r="248" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A248" s="21" t="s">
         <v>134</v>
       </c>
@@ -11126,7 +11137,7 @@
       </c>
       <c r="CV248" s="2"/>
     </row>
-    <row r="249" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A249" s="21" t="s">
         <v>135</v>
       </c>
@@ -11142,7 +11153,7 @@
       </c>
       <c r="CV249" s="2"/>
     </row>
-    <row r="250" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A250" s="21" t="s">
         <v>136</v>
       </c>
@@ -11158,7 +11169,7 @@
       </c>
       <c r="CV250" s="2"/>
     </row>
-    <row r="251" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A251" s="21" t="s">
         <v>137</v>
       </c>
@@ -11174,7 +11185,7 @@
       </c>
       <c r="CV251" s="2"/>
     </row>
-    <row r="252" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A252" s="21" t="s">
         <v>138</v>
       </c>
@@ -11190,7 +11201,7 @@
       </c>
       <c r="CV252" s="2"/>
     </row>
-    <row r="253" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A253" s="21" t="s">
         <v>139</v>
       </c>
@@ -11205,7 +11216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A254" s="21" t="s">
         <v>140</v>
       </c>
@@ -11220,7 +11231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A255" s="21" t="s">
         <v>141</v>
       </c>
@@ -11237,7 +11248,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="256" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:100" x14ac:dyDescent="0.5">
       <c r="A256" s="21" t="s">
         <v>142</v>
       </c>
@@ -11254,7 +11265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A257" s="21" t="s">
         <v>143</v>
       </c>
@@ -11271,7 +11282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A258" s="21" t="s">
         <v>144</v>
       </c>
@@ -11288,7 +11299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A259" s="21" t="s">
         <v>145</v>
       </c>
@@ -11305,7 +11316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A260" s="21" t="s">
         <v>146</v>
       </c>
@@ -11322,7 +11333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A261" s="21" t="s">
         <v>147</v>
       </c>
@@ -11339,7 +11350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A262" s="21" t="s">
         <v>148</v>
       </c>
@@ -11356,7 +11367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A263" s="21" t="s">
         <v>149</v>
       </c>
@@ -11373,7 +11384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A264" s="21" t="s">
         <v>152</v>
       </c>
@@ -11422,7 +11433,7 @@
         <v>8.9367709025773233E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A265" s="21" t="s">
         <v>152</v>
       </c>
@@ -11472,7 +11483,7 @@
         <v>1.0972662379767062E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A266" s="21" t="s">
         <v>152</v>
       </c>
@@ -11522,7 +11533,7 @@
         <v>1.5261624661373396E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A267" s="21" t="s">
         <v>152</v>
       </c>
@@ -11572,7 +11583,7 @@
         <v>1.466186993348443E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A268" s="21" t="s">
         <v>152</v>
       </c>
@@ -11622,7 +11633,7 @@
         <v>1.3974929574937867E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A269" s="21" t="s">
         <v>152</v>
       </c>
@@ -11672,7 +11683,7 @@
         <v>1.9394573416874794E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A270" s="21" t="s">
         <v>152</v>
       </c>
@@ -11686,7 +11697,7 @@
       </c>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A271" s="21" t="s">
         <v>152</v>
       </c>
@@ -11736,7 +11747,7 @@
         <v>1.2927374071790795E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A272" s="21" t="s">
         <v>152</v>
       </c>
@@ -11786,7 +11797,7 @@
         <v>1.0702612659552121E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A273" s="21" t="s">
         <v>152</v>
       </c>
@@ -11836,7 +11847,7 @@
         <v>1.4932277493432148E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A274" s="21" t="s">
         <v>152</v>
       </c>
@@ -11886,7 +11897,7 @@
         <v>1.3226499235756053E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A275" s="21" t="s">
         <v>152</v>
       </c>
@@ -11939,7 +11950,7 @@
         <v>1.4088548708033129E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A276" s="21" t="s">
         <v>154</v>
       </c>
@@ -11964,7 +11975,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A277" s="21" t="s">
         <v>154</v>
       </c>
@@ -11989,7 +12000,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A278" s="21" t="s">
         <v>154</v>
       </c>
@@ -12014,7 +12025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A279" s="21" t="s">
         <v>154</v>
       </c>
@@ -12039,7 +12050,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A280" s="21" t="s">
         <v>154</v>
       </c>
@@ -12064,7 +12075,7 @@
         <v>192.8</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A281" s="21" t="s">
         <v>154</v>
       </c>
@@ -12089,7 +12100,7 @@
         <v>290.7</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A282" s="21" t="s">
         <v>154</v>
       </c>
@@ -12114,7 +12125,7 @@
         <v>458.3</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A283" s="21" t="s">
         <v>154</v>
       </c>
@@ -12139,7 +12150,7 @@
         <v>658.6</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A284" s="21" t="s">
         <v>154</v>
       </c>
@@ -12164,7 +12175,7 @@
         <v>730.5</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A285" s="21" t="s">
         <v>154</v>
       </c>
@@ -12189,7 +12200,7 @@
         <v>814.8</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A286" s="21" t="s">
         <v>154</v>
       </c>
@@ -12214,7 +12225,7 @@
         <v>879.2</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A287" s="21" t="s">
         <v>154</v>
       </c>
@@ -12239,7 +12250,7 @@
         <v>1102.8</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A288" s="21" t="s">
         <v>154</v>
       </c>
@@ -12264,7 +12275,7 @@
         <v>1134.5</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A289" s="21" t="s">
         <v>154</v>
       </c>
@@ -12289,7 +12300,7 @@
         <v>998.1</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A290" s="21" t="s">
         <v>154</v>
       </c>
@@ -12314,7 +12325,7 @@
         <v>1130.2</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A291" s="21" t="s">
         <v>154</v>
       </c>
@@ -12339,7 +12350,7 @@
         <v>1165.3</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A292" s="21" t="s">
         <v>154</v>
       </c>
@@ -12364,7 +12375,7 @@
         <v>1057.7</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A293" s="21" t="s">
         <v>154</v>
       </c>
@@ -12389,7 +12400,7 @@
         <v>972.9</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A294" s="21" t="s">
         <v>154</v>
       </c>
@@ -12417,7 +12428,7 @@
         <v>808.4</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A295" s="1" t="s">
         <v>53</v>
       </c>
@@ -12439,12 +12450,12 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A296" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C296" s="8">
-        <f t="shared" ref="C296:C320" si="21">DATE(1981,12,10)+F296</f>
+        <f t="shared" ref="C296:C327" si="21">DATE(1981,12,10)+F296</f>
         <v>29959</v>
       </c>
       <c r="F296" s="2">
@@ -12461,7 +12472,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A297" s="1" t="s">
         <v>53</v>
       </c>
@@ -12483,7 +12494,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A298" s="1" t="s">
         <v>53</v>
       </c>
@@ -12505,7 +12516,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A299" s="1" t="s">
         <v>53</v>
       </c>
@@ -12527,7 +12538,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A300" s="1" t="s">
         <v>53</v>
       </c>
@@ -12549,7 +12560,7 @@
         <v>346.6</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A301" s="1" t="s">
         <v>53</v>
       </c>
@@ -12571,7 +12582,7 @@
         <v>449.4</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A302" s="1" t="s">
         <v>53</v>
       </c>
@@ -12593,7 +12604,7 @@
         <v>655.7</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A303" s="1" t="s">
         <v>53</v>
       </c>
@@ -12615,7 +12626,7 @@
         <v>718.3</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A304" s="1" t="s">
         <v>53</v>
       </c>
@@ -12637,7 +12648,7 @@
         <v>865.1</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A305" s="1" t="s">
         <v>53</v>
       </c>
@@ -12656,7 +12667,7 @@
         <v>1172.9000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A306" s="1" t="s">
         <v>53</v>
       </c>
@@ -12675,7 +12686,7 @@
         <v>1259.9000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A307" s="1" t="s">
         <v>53</v>
       </c>
@@ -12694,7 +12705,7 @@
         <v>1311.9</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A308" s="1" t="s">
         <v>54</v>
       </c>
@@ -12716,7 +12727,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A309" s="1" t="s">
         <v>54</v>
       </c>
@@ -12738,7 +12749,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A310" s="1" t="s">
         <v>54</v>
       </c>
@@ -12760,7 +12771,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A311" s="1" t="s">
         <v>54</v>
       </c>
@@ -12782,7 +12793,7 @@
         <v>334.8</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A312" s="1" t="s">
         <v>54</v>
       </c>
@@ -12804,7 +12815,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A313" s="1" t="s">
         <v>54</v>
       </c>
@@ -12826,7 +12837,7 @@
         <v>671.8</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A314" s="1" t="s">
         <v>54</v>
       </c>
@@ -12848,7 +12859,7 @@
         <v>744.7</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A315" s="1" t="s">
         <v>54</v>
       </c>
@@ -12870,7 +12881,7 @@
         <v>877.6</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A316" s="1" t="s">
         <v>54</v>
       </c>
@@ -12892,7 +12903,7 @@
         <v>954.1</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A317" s="1" t="s">
         <v>54</v>
       </c>
@@ -12914,7 +12925,7 @@
         <v>1072.5</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A318" s="1" t="s">
         <v>54</v>
       </c>
@@ -12933,7 +12944,7 @@
         <v>1207.5</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A319" s="1" t="s">
         <v>54</v>
       </c>
@@ -12952,7 +12963,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A320" s="1" t="s">
         <v>54</v>
       </c>
@@ -12971,187 +12982,486 @@
         <v>1588.7</v>
       </c>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I321" s="8"/>
-    </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I322" s="8"/>
-    </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I323" s="8"/>
-    </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I324" s="8"/>
-    </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I325" s="8"/>
-    </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I326" s="8"/>
-    </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I327" s="8"/>
-    </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I328" s="8"/>
-    </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I329" s="8"/>
-    </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I330" s="8"/>
-    </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I331" s="8"/>
-    </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I332" s="8"/>
-    </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I333" s="8"/>
-    </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I334" s="8"/>
-    </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I335" s="8"/>
-    </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I336" s="8"/>
-    </row>
-    <row r="337" spans="3:102" x14ac:dyDescent="0.3">
-      <c r="I337" s="8"/>
-    </row>
-    <row r="338" spans="3:102" x14ac:dyDescent="0.3">
-      <c r="I338" s="8"/>
-    </row>
-    <row r="339" spans="3:102" x14ac:dyDescent="0.3">
-      <c r="I339" s="8"/>
-    </row>
-    <row r="340" spans="3:102" x14ac:dyDescent="0.3">
-      <c r="I340" s="8"/>
-    </row>
-    <row r="341" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A321" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C321" s="24">
+        <f>DATE(1989,11,24)+F321</f>
+        <v>32873</v>
+      </c>
+      <c r="F321" s="2">
+        <v>37</v>
+      </c>
+      <c r="T321" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y321" s="1">
+        <v>99.183071902305002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A322" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C322" s="24">
+        <f t="shared" ref="C322:C340" si="22">DATE(1989,11,24)+F322</f>
+        <v>32887</v>
+      </c>
+      <c r="F322" s="2">
+        <v>51</v>
+      </c>
+      <c r="T322" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y322" s="1">
+        <v>316.48384040425299</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A323" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C323" s="24">
+        <f t="shared" si="22"/>
+        <v>32901</v>
+      </c>
+      <c r="F323" s="2">
+        <v>65</v>
+      </c>
+      <c r="T323" s="1">
+        <v>14.9973681440151</v>
+      </c>
+      <c r="Y323" s="1">
+        <v>504.93525634277199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A324" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C324" s="24">
+        <f t="shared" si="22"/>
+        <v>32922</v>
+      </c>
+      <c r="F324" s="2">
+        <v>86</v>
+      </c>
+      <c r="T324" s="1">
+        <v>116.22065480576801</v>
+      </c>
+      <c r="Y324" s="1">
+        <v>917.23760395831096</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A325" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C325" s="24">
+        <f t="shared" si="22"/>
+        <v>32935</v>
+      </c>
+      <c r="F325" s="2">
+        <v>99</v>
+      </c>
+      <c r="T325" s="1">
+        <v>247.00915885882699</v>
+      </c>
+      <c r="Y325" s="1">
+        <v>1048.0976944941499</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A326" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C326" s="24">
+        <f t="shared" si="22"/>
+        <v>32948</v>
+      </c>
+      <c r="F326" s="2">
+        <v>112</v>
+      </c>
+      <c r="T326" s="1">
+        <v>366.45120539004103</v>
+      </c>
+      <c r="Y326" s="1">
+        <v>1271.26855458469</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A327" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C327" s="24">
+        <f t="shared" si="22"/>
+        <v>32976</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F327" s="2">
+        <v>140</v>
+      </c>
+      <c r="T327" s="1">
+        <v>489.93788819875698</v>
+      </c>
+      <c r="Y327" s="1">
+        <v>1100.7495525844799</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A328" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C328" s="24">
+        <f t="shared" si="22"/>
+        <v>32873</v>
+      </c>
+      <c r="F328" s="2">
+        <v>37</v>
+      </c>
+      <c r="T328" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y328" s="1">
+        <v>104.981577008106</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A329" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C329" s="24">
+        <f t="shared" si="22"/>
+        <v>32887</v>
+      </c>
+      <c r="F329" s="2">
+        <v>51</v>
+      </c>
+      <c r="T329" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y329" s="1">
+        <v>287.67028108221803</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A330" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C330" s="24">
+        <f t="shared" si="22"/>
+        <v>32901</v>
+      </c>
+      <c r="F330" s="2">
+        <v>65</v>
+      </c>
+      <c r="T330" s="1">
+        <v>43.882513948836703</v>
+      </c>
+      <c r="Y330" s="1">
+        <v>585.57742920307396</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A331" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C331" s="24">
+        <f t="shared" si="22"/>
+        <v>32922</v>
+      </c>
+      <c r="F331" s="2">
+        <v>86</v>
+      </c>
+      <c r="T331" s="1">
+        <v>266.05116328034501</v>
+      </c>
+      <c r="Y331" s="1">
+        <v>836.55963785661595</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A332" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C332" s="24">
+        <f t="shared" si="22"/>
+        <v>32935</v>
+      </c>
+      <c r="F332" s="2">
+        <v>99</v>
+      </c>
+      <c r="T332" s="1">
+        <v>391.11274871039001</v>
+      </c>
+      <c r="Y332" s="1">
+        <v>967.38393515106804</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A333" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C333" s="24">
+        <f t="shared" si="22"/>
+        <v>32948</v>
+      </c>
+      <c r="F333" s="2">
+        <v>112</v>
+      </c>
+      <c r="T333" s="1">
+        <v>562.45499526265905</v>
+      </c>
+      <c r="Y333" s="1">
+        <v>1242.38340877987</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A334" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C334" s="24">
+        <f t="shared" si="22"/>
+        <v>32963</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F334" s="2">
+        <v>127</v>
+      </c>
+      <c r="T334" s="1">
+        <v>652.90451626486902</v>
+      </c>
+      <c r="Y334" s="1">
+        <v>1240.6653331929599</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A335" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C335" s="24">
+        <f t="shared" si="22"/>
+        <v>32873</v>
+      </c>
+      <c r="F335" s="2">
+        <v>37</v>
+      </c>
+      <c r="T335" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y335" s="1">
+        <v>93.420360037898703</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="A336" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C336" s="24">
+        <f t="shared" si="22"/>
+        <v>32887</v>
+      </c>
+      <c r="F336" s="2">
+        <v>51</v>
+      </c>
+      <c r="T336" s="1">
+        <v>10.988525107906201</v>
+      </c>
+      <c r="Y336" s="1">
+        <v>281.83598273502503</v>
+      </c>
+    </row>
+    <row r="337" spans="1:102" x14ac:dyDescent="0.5">
+      <c r="A337" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C337" s="24">
+        <f t="shared" si="22"/>
+        <v>32901</v>
+      </c>
+      <c r="F337" s="2">
+        <v>65</v>
+      </c>
+      <c r="T337" s="1">
+        <v>55.443730919043901</v>
+      </c>
+      <c r="Y337" s="1">
+        <v>464.560480050531</v>
+      </c>
+    </row>
+    <row r="338" spans="1:102" x14ac:dyDescent="0.5">
+      <c r="A338" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C338" s="24">
+        <f t="shared" si="22"/>
+        <v>32922</v>
+      </c>
+      <c r="F338" s="2">
+        <v>86</v>
+      </c>
+      <c r="T338" s="1">
+        <v>243.10769554689901</v>
+      </c>
+      <c r="Y338" s="1">
+        <v>842.35814296241699</v>
+      </c>
+    </row>
+    <row r="339" spans="1:102" x14ac:dyDescent="0.5">
+      <c r="A339" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C339" s="24">
+        <f t="shared" si="22"/>
+        <v>32935</v>
+      </c>
+      <c r="F339" s="2">
+        <v>99</v>
+      </c>
+      <c r="T339" s="1">
+        <v>321.96020633750902</v>
+      </c>
+      <c r="Y339" s="1">
+        <v>898.231392778187</v>
+      </c>
+    </row>
+    <row r="340" spans="1:102" x14ac:dyDescent="0.5">
+      <c r="A340" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C340" s="24">
+        <f t="shared" si="22"/>
+        <v>32948</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F340" s="2">
+        <v>112</v>
+      </c>
+      <c r="T340" s="1">
+        <v>429.84103589851497</v>
+      </c>
+      <c r="Y340" s="1">
+        <v>988.78829350457897</v>
+      </c>
+    </row>
+    <row r="341" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:102" x14ac:dyDescent="0.5">
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:102" x14ac:dyDescent="0.5">
       <c r="C351" s="18"/>
       <c r="D351" s="18"/>
       <c r="E351" s="18"/>
-      <c r="F351" s="19"/>
       <c r="G351" s="19"/>
       <c r="CW351" s="20"/>
       <c r="CX351" s="20"/>
     </row>
-    <row r="352" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:102" x14ac:dyDescent="0.5">
       <c r="C352" s="18"/>
       <c r="D352" s="18"/>
       <c r="E352" s="18"/>
-      <c r="F352" s="19"/>
       <c r="G352" s="19"/>
       <c r="CW352" s="20"/>
       <c r="CX352" s="20"/>
     </row>
-    <row r="353" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C353" s="18"/>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
-      <c r="F353" s="19"/>
       <c r="G353" s="19"/>
       <c r="CW353" s="20"/>
       <c r="CX353" s="20"/>
     </row>
-    <row r="354" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C354" s="18"/>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
-      <c r="F354" s="19"/>
       <c r="G354" s="19"/>
       <c r="CW354" s="20"/>
       <c r="CX354" s="20"/>
     </row>
-    <row r="355" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C355" s="18"/>
       <c r="D355" s="18"/>
       <c r="E355" s="18"/>
-      <c r="F355" s="19"/>
       <c r="G355" s="19"/>
       <c r="CW355" s="20"/>
       <c r="CX355" s="20"/>
     </row>
-    <row r="356" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C356" s="18"/>
       <c r="D356" s="18"/>
       <c r="E356" s="18"/>
-      <c r="F356" s="19"/>
       <c r="G356" s="19"/>
       <c r="CW356" s="20"/>
       <c r="CX356" s="20"/>
     </row>
-    <row r="357" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C357" s="18"/>
       <c r="D357" s="18"/>
       <c r="E357" s="18"/>
-      <c r="F357" s="19"/>
       <c r="G357" s="19"/>
       <c r="CW357" s="20"/>
       <c r="CX357" s="20"/>
     </row>
-    <row r="358" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C358" s="18"/>
       <c r="D358" s="18"/>
       <c r="E358" s="18"/>
-      <c r="F358" s="19"/>
       <c r="G358" s="19"/>
       <c r="CW358" s="20"/>
       <c r="CX358" s="20"/>
     </row>
-    <row r="359" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C359" s="18"/>
       <c r="D359" s="18"/>
       <c r="E359" s="18"/>
-      <c r="F359" s="19"/>
       <c r="G359" s="19"/>
       <c r="CW359" s="20"/>
       <c r="CX359" s="20"/>
     </row>
-    <row r="360" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C360" s="18"/>
       <c r="D360" s="18"/>
       <c r="E360" s="18"/>
-      <c r="F360" s="19"/>
       <c r="G360" s="19"/>
       <c r="CW360" s="20"/>
       <c r="CX360" s="20"/>
     </row>
-    <row r="361" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C361" s="18"/>
       <c r="D361" s="18"/>
       <c r="E361" s="18"/>
@@ -13160,7 +13470,7 @@
       <c r="CW361" s="20"/>
       <c r="CX361" s="20"/>
     </row>
-    <row r="362" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C362" s="18"/>
       <c r="D362" s="18"/>
       <c r="E362" s="18"/>
@@ -13169,7 +13479,7 @@
       <c r="CW362" s="20"/>
       <c r="CX362" s="20"/>
     </row>
-    <row r="363" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C363" s="18"/>
       <c r="D363" s="18"/>
       <c r="E363" s="18"/>
@@ -13178,7 +13488,7 @@
       <c r="CW363" s="20"/>
       <c r="CX363" s="20"/>
     </row>
-    <row r="364" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C364" s="18"/>
       <c r="D364" s="18"/>
       <c r="E364" s="18"/>
@@ -13187,7 +13497,7 @@
       <c r="CW364" s="20"/>
       <c r="CX364" s="20"/>
     </row>
-    <row r="365" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C365" s="18"/>
       <c r="D365" s="18"/>
       <c r="E365" s="18"/>
@@ -13196,7 +13506,7 @@
       <c r="CW365" s="20"/>
       <c r="CX365" s="20"/>
     </row>
-    <row r="366" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C366" s="18"/>
       <c r="D366" s="18"/>
       <c r="E366" s="18"/>
@@ -13205,7 +13515,7 @@
       <c r="CW366" s="20"/>
       <c r="CX366" s="20"/>
     </row>
-    <row r="367" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C367" s="18"/>
       <c r="D367" s="18"/>
       <c r="E367" s="18"/>
@@ -13214,7 +13524,7 @@
       <c r="CW367" s="20"/>
       <c r="CX367" s="20"/>
     </row>
-    <row r="368" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C368" s="18"/>
       <c r="D368" s="18"/>
       <c r="E368" s="18"/>
@@ -13223,7 +13533,7 @@
       <c r="CW368" s="20"/>
       <c r="CX368" s="20"/>
     </row>
-    <row r="369" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C369" s="18"/>
       <c r="D369" s="18"/>
       <c r="E369" s="18"/>
@@ -13232,7 +13542,7 @@
       <c r="CW369" s="20"/>
       <c r="CX369" s="20"/>
     </row>
-    <row r="370" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C370" s="18"/>
       <c r="D370" s="18"/>
       <c r="E370" s="18"/>
@@ -13241,7 +13551,7 @@
       <c r="CW370" s="20"/>
       <c r="CX370" s="20"/>
     </row>
-    <row r="371" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C371" s="18"/>
       <c r="D371" s="18"/>
       <c r="E371" s="18"/>
@@ -13250,147 +13560,147 @@
       <c r="CW371" s="20"/>
       <c r="CX371" s="20"/>
     </row>
-    <row r="372" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C372" s="18"/>
       <c r="D372" s="18"/>
       <c r="E372" s="18"/>
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
     </row>
-    <row r="373" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C373" s="18"/>
       <c r="D373" s="18"/>
       <c r="E373" s="18"/>
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
     </row>
-    <row r="374" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C374" s="18"/>
       <c r="D374" s="18"/>
       <c r="E374" s="18"/>
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
     </row>
-    <row r="375" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C375" s="18"/>
       <c r="D375" s="18"/>
       <c r="E375" s="18"/>
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
     </row>
-    <row r="376" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C376" s="18"/>
       <c r="D376" s="18"/>
       <c r="E376" s="18"/>
       <c r="F376" s="19"/>
       <c r="G376" s="19"/>
     </row>
-    <row r="377" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C377" s="18"/>
       <c r="D377" s="18"/>
       <c r="E377" s="18"/>
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
     </row>
-    <row r="378" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C378" s="18"/>
       <c r="D378" s="18"/>
       <c r="E378" s="18"/>
       <c r="F378" s="19"/>
       <c r="G378" s="19"/>
     </row>
-    <row r="379" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C379" s="18"/>
       <c r="D379" s="18"/>
       <c r="E379" s="18"/>
       <c r="F379" s="19"/>
       <c r="G379" s="19"/>
     </row>
-    <row r="380" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C380" s="18"/>
       <c r="D380" s="18"/>
       <c r="E380" s="18"/>
       <c r="F380" s="19"/>
       <c r="G380" s="19"/>
     </row>
-    <row r="381" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C381" s="18"/>
       <c r="D381" s="18"/>
       <c r="E381" s="18"/>
       <c r="F381" s="19"/>
       <c r="G381" s="19"/>
     </row>
-    <row r="382" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C382" s="18"/>
       <c r="D382" s="18"/>
       <c r="E382" s="18"/>
       <c r="F382" s="19"/>
       <c r="G382" s="19"/>
     </row>
-    <row r="383" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C383" s="18"/>
       <c r="D383" s="18"/>
       <c r="E383" s="18"/>
       <c r="F383" s="19"/>
       <c r="G383" s="19"/>
     </row>
-    <row r="384" spans="3:102" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:102" x14ac:dyDescent="0.5">
       <c r="C384" s="18"/>
       <c r="D384" s="18"/>
       <c r="E384" s="18"/>
       <c r="F384" s="19"/>
       <c r="G384" s="19"/>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C385" s="18"/>
       <c r="D385" s="18"/>
       <c r="E385" s="18"/>
       <c r="F385" s="19"/>
       <c r="G385" s="19"/>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C386" s="18"/>
       <c r="D386" s="18"/>
       <c r="E386" s="18"/>
       <c r="F386" s="19"/>
       <c r="G386" s="19"/>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C387" s="18"/>
       <c r="D387" s="18"/>
       <c r="E387" s="18"/>
       <c r="F387" s="19"/>
       <c r="G387" s="19"/>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C388" s="18"/>
       <c r="D388" s="18"/>
       <c r="E388" s="18"/>
       <c r="F388" s="19"/>
       <c r="G388" s="19"/>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C389" s="18"/>
       <c r="D389" s="18"/>
       <c r="E389" s="18"/>
       <c r="F389" s="19"/>
       <c r="G389" s="19"/>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C390" s="18"/>
       <c r="D390" s="18"/>
       <c r="E390" s="18"/>
       <c r="F390" s="19"/>
       <c r="G390" s="19"/>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C391" s="18"/>
       <c r="D391" s="18"/>
       <c r="E391" s="18"/>
       <c r="F391" s="19"/>
       <c r="G391" s="19"/>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.5">
       <c r="C392" s="18"/>
       <c r="D392" s="18"/>
       <c r="E392" s="18"/>
@@ -13412,9 +13722,9 @@
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -13435,7 +13745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>8</v>
       </c>
@@ -13455,7 +13765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>36</v>
       </c>
@@ -13493,7 +13803,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>50</v>
       </c>
@@ -13531,7 +13841,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>64</v>
       </c>
@@ -13569,7 +13879,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>77</v>
       </c>
@@ -13607,7 +13917,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>91</v>
       </c>
@@ -13645,7 +13955,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>104</v>
       </c>
@@ -13683,7 +13993,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>117</v>
       </c>
@@ -13721,7 +14031,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>131</v>
       </c>
@@ -13759,7 +14069,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -13779,7 +14089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>8</v>
       </c>
@@ -13799,7 +14109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>36</v>
       </c>
@@ -13837,7 +14147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>50</v>
       </c>
@@ -13875,7 +14185,7 @@
         <v>229.6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>64</v>
       </c>
@@ -13913,7 +14223,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>77</v>
       </c>
@@ -13951,7 +14261,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>91</v>
       </c>
@@ -13989,7 +14299,7 @@
         <v>700.7</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>104</v>
       </c>
@@ -14027,7 +14337,7 @@
         <v>864.4</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>117</v>
       </c>
@@ -14065,7 +14375,7 @@
         <v>793.9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>131</v>
       </c>
@@ -14103,7 +14413,7 @@
         <v>746.4</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>78</v>
       </c>
@@ -14123,7 +14433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>8</v>
       </c>
@@ -14143,7 +14453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>36</v>
       </c>
@@ -14181,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>50</v>
       </c>
@@ -14219,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B25">
         <v>64</v>
       </c>
@@ -14257,7 +14567,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B26">
         <v>77</v>
       </c>
@@ -14295,7 +14605,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B27">
         <v>91</v>
       </c>
@@ -14333,7 +14643,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B28">
         <v>104</v>
       </c>
@@ -14371,7 +14681,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B29">
         <v>117</v>
       </c>
@@ -14409,7 +14719,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B30">
         <v>131</v>
       </c>
@@ -14447,7 +14757,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>79</v>
       </c>
@@ -14467,7 +14777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>8</v>
       </c>
@@ -14487,7 +14797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B33">
         <v>36</v>
       </c>
@@ -14525,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B34">
         <v>50</v>
       </c>
@@ -14563,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B35">
         <v>64</v>
       </c>
@@ -14601,7 +14911,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>77</v>
       </c>
@@ -14639,7 +14949,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B37">
         <v>91</v>
       </c>
@@ -14677,7 +14987,7 @@
         <v>259.3</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B38">
         <v>104</v>
       </c>
@@ -14715,7 +15025,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B39">
         <v>117</v>
       </c>
@@ -14753,7 +15063,7 @@
         <v>436.6</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B40">
         <v>131</v>
       </c>
@@ -14803,9 +15113,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>14</v>
       </c>
@@ -14813,7 +15123,7 @@
         <v>3.3238030118388898E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>21</v>
       </c>
@@ -14821,7 +15131,7 @@
         <v>0.109379049467607</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>28</v>
       </c>
@@ -14829,7 +15139,7 @@
         <v>0.290782791382457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>36</v>
       </c>
@@ -14837,7 +15147,7 @@
         <v>0.49097468445169801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>50</v>
       </c>
@@ -14845,7 +15155,7 @@
         <v>0.82121824528124998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>57</v>
       </c>
@@ -14853,7 +15163,7 @@
         <v>0.94371825906667095</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>66</v>
       </c>
@@ -14861,7 +15171,7 @@
         <v>0.980960954171744</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>14</v>
       </c>
@@ -14869,7 +15179,7 @@
         <v>9.7134837966153798E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>21</v>
       </c>
@@ -14877,7 +15187,7 @@
         <v>0.38504888310513802</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>28</v>
       </c>
@@ -14885,7 +15195,7 @@
         <v>0.66669193993967402</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>36</v>
       </c>
@@ -14893,7 +15203,7 @@
         <v>0.82806270712595997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>50</v>
       </c>
@@ -14901,7 +15211,7 @@
         <v>0.94903116056707604</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>57</v>
       </c>
@@ -14909,7 +15219,7 @@
         <v>0.96878842686282296</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>66</v>
       </c>
@@ -14917,7 +15227,7 @@
         <v>0.98848228021902196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14925,7 +15235,7 @@
         <v>0.17231777051132799</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>21</v>
       </c>
@@ -14933,7 +15243,7 @@
         <v>0.52665686982701998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>28</v>
       </c>
@@ -14941,7 +15251,7 @@
         <v>0.78575800519434602</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>36</v>
       </c>
@@ -14949,7 +15259,7 @@
         <v>0.88946711074104901</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>50</v>
       </c>
@@ -14957,7 +15267,7 @@
         <v>0.96907792071728205</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>57</v>
       </c>
@@ -14965,7 +15275,7 @@
         <v>0.98757933510154305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>66</v>
       </c>
@@ -14973,7 +15283,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>14</v>
       </c>
@@ -14981,7 +15291,7 @@
         <v>0.22119398293916201</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -14989,7 +15299,7 @@
         <v>0.62816857916416202</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>28</v>
       </c>
@@ -14997,7 +15307,7 @@
         <v>0.84465346207078995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>36</v>
       </c>
@@ -15005,7 +15315,7 @@
         <v>0.91580140170167201</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>50</v>
       </c>
@@ -15013,7 +15323,7 @@
         <v>0.98663503371914096</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>57</v>
       </c>
@@ -15021,7 +15331,7 @@
         <v>0.98884070118168599</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>66</v>
       </c>
@@ -15043,9 +15353,9 @@
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>87.960939116915199</v>
       </c>
@@ -15077,7 +15387,7 @@
         <v>90.397904842567598</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>90.047753418710698</v>
       </c>
@@ -15109,7 +15419,7 @@
         <v>201.456863083733</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>88.674211639517196</v>
       </c>
@@ -15141,7 +15451,7 @@
         <v>352.78798360023501</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>88.371335833741398</v>
       </c>
@@ -15173,7 +15483,7 @@
         <v>661.62071877905498</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>275.31688381179299</v>
       </c>
@@ -15220,7 +15530,7 @@
         <v>967.39635997151504</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>273.45874074335802</v>
       </c>
@@ -15267,7 +15577,7 @@
         <v>1124.9410322956101</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>273.63592308973699</v>
       </c>
@@ -15314,7 +15624,7 @@
         <v>1297.83741710808</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>273.34819107425</v>
       </c>
@@ -15361,7 +15671,7 @@
         <v>-2.4079169318338201</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>398.36623742434398</v>
       </c>
@@ -15408,7 +15718,7 @@
         <v>-2.4973443832222899</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>395.29053361669003</v>
       </c>
@@ -15455,7 +15765,7 @@
         <v>0.40407959516369302</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>396.46266298504298</v>
       </c>
@@ -15502,7 +15812,7 @@
         <v>154.858536654609</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>395.28599047960302</v>
       </c>
@@ -15534,7 +15844,7 @@
         <v>451.29728949653298</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>590.30469306061002</v>
       </c>
@@ -15566,7 +15876,7 @@
         <v>580.99690316047895</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>590.30014992352301</v>
       </c>
@@ -15598,7 +15908,7 @@
         <v>710.696516824426</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>591.66460542854395</v>
       </c>
@@ -15624,7 +15934,7 @@
         <v>0.57361464420763097</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>588.78577089464397</v>
       </c>
@@ -15650,7 +15960,7 @@
         <v>0.46009256985709301</v>
       </c>
     </row>
-    <row r="21" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:25" x14ac:dyDescent="0.5">
       <c r="N21" t="s">
         <v>80</v>
       </c>
@@ -15685,7 +15995,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:25" x14ac:dyDescent="0.5">
       <c r="N22">
         <f>1000000/O22/(Q22*10)</f>
         <v>339.21302578018992</v>
@@ -15726,7 +16036,7 @@
         <v>0.33709993123162102</v>
       </c>
     </row>
-    <row r="23" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O23">
         <v>8.8000000000000007</v>
       </c>
@@ -15763,7 +16073,7 @@
         <v>0.49428552661208058</v>
       </c>
     </row>
-    <row r="24" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O24">
         <v>8.8000000000000007</v>
       </c>
@@ -15800,7 +16110,7 @@
         <v>0.71905872816165339</v>
       </c>
     </row>
-    <row r="25" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O25">
         <v>8.8000000000000007</v>
       </c>
@@ -15837,7 +16147,7 @@
         <v>0.90390566683999418</v>
       </c>
     </row>
-    <row r="26" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O26">
         <v>27.3</v>
       </c>
@@ -15874,7 +16184,7 @@
         <v>0.19138975058773819</v>
       </c>
     </row>
-    <row r="27" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O27">
         <v>27.3</v>
       </c>
@@ -15911,7 +16221,7 @@
         <v>0.28063246204703179</v>
       </c>
     </row>
-    <row r="28" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O28">
         <v>27.3</v>
       </c>
@@ -15948,7 +16258,7 @@
         <v>0.40824829046386302</v>
       </c>
     </row>
-    <row r="29" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O29">
         <v>27.3</v>
       </c>
@@ -15985,7 +16295,7 @@
         <v>0.51319583335210683</v>
       </c>
     </row>
-    <row r="30" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O30">
         <v>39.4</v>
       </c>
@@ -16022,7 +16332,7 @@
         <v>0.15931324696929153</v>
       </c>
     </row>
-    <row r="31" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O31">
         <v>39.4</v>
       </c>
@@ -16059,7 +16369,7 @@
         <v>0.23359907516679454</v>
       </c>
     </row>
-    <row r="32" spans="14:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:25" x14ac:dyDescent="0.5">
       <c r="O32">
         <v>39.4</v>
       </c>
@@ -16096,7 +16406,7 @@
         <v>0.33982676984389865</v>
       </c>
     </row>
-    <row r="33" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O33">
         <v>39.4</v>
       </c>
@@ -16133,7 +16443,7 @@
         <v>0.42718533407020198</v>
       </c>
     </row>
-    <row r="34" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O34">
         <v>58.8</v>
       </c>
@@ -16170,7 +16480,7 @@
         <v>0.13041013273932528</v>
       </c>
     </row>
-    <row r="35" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O35">
         <v>58.8</v>
       </c>
@@ -16207,7 +16517,7 @@
         <v>0.19121879052629775</v>
       </c>
     </row>
-    <row r="36" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O36">
         <v>58.8</v>
       </c>
@@ -16244,7 +16554,7 @@
         <v>0.27817432013209342</v>
       </c>
     </row>
-    <row r="37" spans="15:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="15:25" x14ac:dyDescent="0.5">
       <c r="O37">
         <v>58.8</v>
       </c>
@@ -16296,9 +16606,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>91</v>
       </c>
@@ -16312,7 +16622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C4">
         <v>1</v>
       </c>
@@ -16324,7 +16634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C5">
         <f t="shared" ref="C5:C28" si="1">C4+1</f>
         <v>2</v>
@@ -16337,7 +16647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -16355,7 +16665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -16373,7 +16683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C8">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -16391,7 +16701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -16409,7 +16719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -16427,7 +16737,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -16445,7 +16755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -16463,7 +16773,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C13">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -16481,7 +16791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -16499,7 +16809,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C15">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -16517,7 +16827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C16">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -16535,7 +16845,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C17">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -16553,7 +16863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C18">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -16571,7 +16881,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C19">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -16585,7 +16895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C20">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -16599,7 +16909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C21">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -16613,7 +16923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C22">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -16627,7 +16937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C23">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -16641,7 +16951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C24">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -16655,7 +16965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C25">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -16669,7 +16979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C26">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -16683,7 +16993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C27">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -16697,7 +17007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C28">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -16726,9 +17036,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>94</v>
       </c>
@@ -16745,7 +17055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>21.871898300941201</v>
       </c>
@@ -16759,7 +17069,7 @@
         <v>6.1240529132300298E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B3">
         <v>43.262926292629203</v>
       </c>
@@ -16773,7 +17083,7 @@
         <v>0.26675173522191198</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>64.313409118689606</v>
       </c>
@@ -16790,7 +17100,7 @@
         <v>13.2019764924468</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>85.057572423908994</v>
       </c>
@@ -16807,7 +17117,7 @@
         <v>135.990635419364</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>105.993399339934</v>
       </c>
@@ -16824,7 +17134,7 @@
         <v>344.916351444062</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>147.98484292873701</v>
       </c>
@@ -16841,7 +17151,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>22.055005500549999</v>
       </c>
@@ -16855,7 +17165,7 @@
         <v>7.9806962081206301E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>42.785478547854702</v>
       </c>
@@ -16869,7 +17179,7 @@
         <v>0.39135214849613997</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>63.894144970052501</v>
       </c>
@@ -16886,7 +17196,7 @@
         <v>8.3883471301619394</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B11">
         <v>84.621195452878595</v>
       </c>
@@ -16903,7 +17213,7 @@
         <v>118.457139958836</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>105.681945972375</v>
       </c>
@@ -16920,7 +17230,7 @@
         <v>290.72191092970399</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>147.97799779977899</v>
       </c>
@@ -16937,7 +17247,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>21.7195941816403</v>
       </c>
@@ -16951,7 +17261,7 @@
         <v>0.15572843997809899</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>42.812859063684101</v>
       </c>
@@ -16965,7 +17275,7 @@
         <v>0.51551102947669503</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>64.049871653832</v>
       </c>
@@ -16982,7 +17292,7 @@
         <v>6.7943929973866899</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>84.929226255958895</v>
       </c>
@@ -16999,7 +17309,7 @@
         <v>112.049556463776</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>105.849651631829</v>
       </c>
@@ -17016,7 +17326,7 @@
         <v>153.61008854707501</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>147.80002444688901</v>
       </c>
@@ -17033,7 +17343,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>22.231267571201499</v>
       </c>
@@ -17048,7 +17358,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B21">
         <v>43.199608849773803</v>
       </c>
@@ -17063,7 +17373,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B22">
         <v>64.135435765798803</v>
       </c>
@@ -17081,7 +17391,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>85.391272460579302</v>
       </c>
@@ -17099,7 +17409,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>106.26035936927001</v>
       </c>
@@ -17117,7 +17427,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B25">
         <v>149.03214765921001</v>
       </c>
@@ -17134,7 +17444,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B26">
         <v>21.906123945727899</v>
       </c>
@@ -17149,7 +17459,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B27">
         <v>43.223566801124498</v>
       </c>
@@ -17164,7 +17474,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B28">
         <v>64.641975308641904</v>
       </c>
@@ -17182,7 +17492,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B29">
         <v>85.276616550543906</v>
       </c>
@@ -17200,7 +17510,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B30">
         <v>106.037892678156</v>
       </c>
@@ -17218,7 +17528,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B31">
         <v>147.88045471213701</v>
       </c>
@@ -17235,7 +17545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B32">
         <v>21.760664955384399</v>
       </c>
@@ -17250,7 +17560,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B33">
         <v>42.766654443222102</v>
       </c>
@@ -17265,7 +17575,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B34">
         <v>63.459479281261402</v>
       </c>
@@ -17283,7 +17593,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B35">
         <v>85.057572423908994</v>
       </c>
@@ -17301,7 +17611,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>105.95575113066801</v>
       </c>
@@ -17319,7 +17629,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B37">
         <v>148.26035936926999</v>
       </c>
@@ -17350,9 +17660,9 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>28.087146331139401</v>
       </c>
@@ -17366,7 +17676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>41.896237768389902</v>
       </c>
@@ -17395,7 +17705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>54.914970079759598</v>
       </c>
@@ -17420,7 +17730,7 @@
         <v>24.734753777584501</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>74.950724974478504</v>
       </c>
@@ -17451,7 +17761,7 @@
         <v>52.430744977531901</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>90.053997526704094</v>
       </c>
@@ -17482,7 +17792,7 @@
         <v>110.07805458869541</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>106.157477570194</v>
       </c>
@@ -17513,7 +17823,7 @@
         <v>215.09959196103651</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>28.187538904612101</v>
       </c>
@@ -17544,7 +17854,7 @@
         <v>256.99515305663198</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>41.997559902728099</v>
       </c>
@@ -17575,7 +17885,7 @@
         <v>319.30050346738301</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>54.915899640625099</v>
       </c>
@@ -17600,7 +17910,7 @@
         <v>27.319273834112298</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>74.951654535344005</v>
       </c>
@@ -17631,7 +17941,7 @@
         <v>68.55233816419927</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>89.865993841659204</v>
       </c>
@@ -17662,7 +17972,7 @@
         <v>125.65467243811909</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>106.047324607634</v>
       </c>
@@ -17693,7 +18003,7 @@
         <v>240.56460123216399</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>27.784109488990499</v>
       </c>
@@ -17724,7 +18034,7 @@
         <v>298.15629620329099</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>41.992447317967901</v>
       </c>
@@ -17755,7 +18065,7 @@
         <v>327.09654404821424</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>55.207549362171797</v>
       </c>
@@ -17780,7 +18090,7 @@
         <v>16.430491456581201</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>75.043448670810903</v>
       </c>
@@ -17811,7 +18121,7 @@
         <v>49.005618213657058</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>90.054462307136802</v>
       </c>
@@ -17842,7 +18152,7 @@
         <v>91.869781064637493</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>27.979782051175601</v>
       </c>
@@ -17873,7 +18183,7 @@
         <v>217.0976587446427</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>41.970835027845297</v>
       </c>
@@ -17904,7 +18214,7 @@
         <v>295.09983520714297</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>55.064396988886699</v>
       </c>
@@ -17929,7 +18239,7 @@
         <v>33.757226576011199</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>74.774108410035893</v>
       </c>
@@ -17960,7 +18270,7 @@
         <v>65.791824770872907</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>89.880866815507005</v>
       </c>
@@ -17991,7 +18301,7 @@
         <v>93.131376048393804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>105.885581017039</v>
       </c>
@@ -18022,7 +18332,7 @@
         <v>229.94465909246099</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>42.1713877845742</v>
       </c>
@@ -18053,7 +18363,7 @@
         <v>253.33346900617889</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>55.168275415605002</v>
       </c>
@@ -18061,7 +18371,7 @@
         <v>0.633145484575102</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>74.888676786707293</v>
       </c>
@@ -18069,7 +18379,7 @@
         <v>3.56457211151411</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>89.903176276278799</v>
       </c>
@@ -18077,7 +18387,7 @@
         <v>5.7086233369575101</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>105.794251662005</v>
       </c>
@@ -18085,7 +18395,7 @@
         <v>5.9148464149659299</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>42.0707628208852</v>
       </c>
@@ -18093,7 +18403,7 @@
         <v>4.9368811573035701E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>54.969349390390597</v>
       </c>
@@ -18101,7 +18411,7 @@
         <v>0.71235568982546105</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>75.082722617377797</v>
       </c>
@@ -18109,7 +18419,7 @@
         <v>3.0702490725140499</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>89.788375509391003</v>
       </c>
@@ -18131,12 +18441,12 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>94</v>
       </c>
@@ -18153,7 +18463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="6">
         <f>DATE(1989,12,18)+35</f>
         <v>32895</v>
@@ -18175,7 +18485,7 @@
         <v>68.141720896601512</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="6">
         <f>DATE(1989,12,18)+56</f>
         <v>32916</v>
@@ -18197,7 +18507,7 @@
         <v>196.31271714018646</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <f>DATE(1989,12,18)+77</f>
         <v>32937</v>
@@ -18225,7 +18535,7 @@
         <v>62.207604809879697</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <f>DATE(1989,12,18)+112</f>
         <v>32972</v>
@@ -18253,7 +18563,7 @@
         <v>58.288462788430202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M6">
         <v>28.912577185570299</v>
       </c>
@@ -18261,7 +18571,7 @@
         <v>90.993045173870598</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M7">
         <v>34.596035099122503</v>
       </c>
@@ -18269,7 +18579,7 @@
         <v>70.331881702957403</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M8">
         <v>37.455313617159497</v>
       </c>
@@ -18277,7 +18587,7 @@
         <v>62.654793630159197</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M9">
         <v>41.112122196945002</v>
       </c>
@@ -18285,7 +18595,7 @@
         <v>55.564250893727603</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M10">
         <v>45.311667208319697</v>
       </c>
@@ -18293,7 +18603,7 @@
         <v>50.5354566135846</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M11">
         <v>51.347416314592103</v>
       </c>
@@ -18301,7 +18611,7 @@
         <v>43.140721481962899</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M12">
         <v>58.410139746506303</v>
       </c>
@@ -18309,7 +18619,7 @@
         <v>31.024504387390301</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M13">
         <v>64.963275918101999</v>
       </c>
@@ -18317,7 +18627,7 @@
         <v>21.858693532661601</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M14">
         <v>72.074748131296701</v>
       </c>
@@ -18325,7 +18635,7 @@
         <v>17.1132921676958</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M15">
         <v>80.005199870003196</v>
       </c>
@@ -18333,7 +18643,7 @@
         <v>16.197595060123501</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M16">
         <v>86.042898927526707</v>
       </c>
@@ -18341,7 +18651,7 @@
         <v>9.0976925576860594</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.5">
       <c r="M17">
         <v>96.830679233019097</v>
       </c>
@@ -18349,7 +18659,7 @@
         <v>0.21007474813129001</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.5">
       <c r="M18">
         <v>106.877478063048</v>
       </c>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50E049B-CCE8-4367-B845-8822C11DC300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A1E5F-5741-4B24-B708-5E5E562126FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="12346" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3640,11 +3640,11 @@
   <dimension ref="A1:AMK392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10927" ySplit="1147" topLeftCell="R327" activePane="bottomRight"/>
+      <pane xSplit="10927" ySplit="1147" topLeftCell="E317" activePane="bottomRight"/>
       <selection activeCell="D1" sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D327" sqref="D327"/>
-      <selection pane="bottomRight" activeCell="T340" sqref="T340"/>
+      <selection pane="bottomLeft" activeCell="A334" sqref="A334"/>
+      <selection pane="bottomRight" activeCell="H340" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3920,16 +3920,19 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6">
         <f t="shared" ref="C6:C37" si="0">E6+F6</f>
-        <v>32882</v>
+        <v>32892</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>32854</v>
       </c>
       <c r="F6" s="7">
+        <f>G6+10</f>
+        <v>38</v>
+      </c>
+      <c r="G6" s="7">
         <v>28</v>
       </c>
-      <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="T6" s="1">
         <v>0</v>
@@ -3948,16 +3951,19 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>32896</v>
+        <v>32906</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
         <v>32854</v>
       </c>
       <c r="F7" s="7">
+        <f t="shared" ref="F7:F29" si="1">G7+10</f>
+        <v>52</v>
+      </c>
+      <c r="G7" s="7">
         <v>42</v>
       </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="T7" s="1">
         <v>4.9439358603006403</v>
@@ -3979,16 +3985,19 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>32909</v>
+        <v>32919</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>32854</v>
       </c>
       <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G8" s="7">
         <v>55</v>
       </c>
-      <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="T8" s="1">
         <v>29.7172309045791</v>
@@ -4010,16 +4019,19 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>32929</v>
+        <v>32939</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
         <v>32854</v>
       </c>
       <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G9" s="7">
         <v>75</v>
       </c>
-      <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -4045,16 +4057,19 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>32944</v>
+        <v>32954</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
         <v>32854</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="7">
         <v>90</v>
       </c>
-      <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="T10" s="1">
         <v>381.09646683874598</v>
@@ -4076,7 +4091,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>32960</v>
+        <v>32970</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>26</v>
@@ -4085,10 +4100,15 @@
         <v>32854</v>
       </c>
       <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="G11" s="7">
         <v>106</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
       <c r="T11" s="1">
         <v>518.33865894245798</v>
       </c>
@@ -4113,16 +4133,19 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6">
         <f t="shared" si="0"/>
-        <v>32882</v>
+        <v>32892</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
         <v>32854</v>
       </c>
       <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G12" s="7">
         <v>28</v>
       </c>
-      <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="T12" s="1">
         <v>0</v>
@@ -4141,16 +4164,19 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>32896</v>
+        <v>32906</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
         <v>32854</v>
       </c>
       <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G13" s="7">
         <v>42</v>
       </c>
-      <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="T13" s="1">
         <v>10.860009793588</v>
@@ -4172,16 +4198,19 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6">
         <f t="shared" si="0"/>
-        <v>32909</v>
+        <v>32919</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6">
         <v>32854</v>
       </c>
       <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G14" s="7">
         <v>55</v>
       </c>
-      <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="T14" s="1">
         <v>63.314548457510199</v>
@@ -4203,16 +4232,19 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
-        <v>32929</v>
+        <v>32939</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <v>32854</v>
       </c>
       <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G15" s="7">
         <v>75</v>
       </c>
-      <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="T15" s="1">
         <v>356.457211151411</v>
@@ -4234,16 +4266,19 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
-        <v>32944</v>
+        <v>32954</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6">
         <v>32854</v>
       </c>
       <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="7">
         <v>90</v>
       </c>
-      <c r="G16" s="7"/>
       <c r="H16" s="6"/>
       <c r="T16" s="1">
         <v>570.86233369575098</v>
@@ -4265,7 +4300,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
-        <v>32960</v>
+        <v>32970</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>26</v>
@@ -4274,10 +4309,15 @@
         <v>32854</v>
       </c>
       <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="G17" s="7">
         <v>106</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
       <c r="T17" s="1">
         <v>591.48464149659299</v>
       </c>
@@ -4302,16 +4342,19 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>32882</v>
+        <v>32892</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6">
         <v>32854</v>
       </c>
       <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G18" s="7">
         <v>28</v>
       </c>
-      <c r="G18" s="7"/>
       <c r="H18" s="6"/>
       <c r="T18" s="1">
         <v>0</v>
@@ -4330,16 +4373,19 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
-        <v>32896</v>
+        <v>32906</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6">
         <v>32854</v>
       </c>
       <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G19" s="7">
         <v>42</v>
       </c>
-      <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -4365,16 +4411,19 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
-        <v>32909</v>
+        <v>32919</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6">
         <v>32854</v>
       </c>
       <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G20" s="7">
         <v>55</v>
       </c>
-      <c r="G20" s="7"/>
       <c r="H20" s="6"/>
       <c r="T20" s="1">
         <v>71.235568982546098</v>
@@ -4396,16 +4445,19 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
-        <v>32929</v>
+        <v>32939</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6">
         <v>32854</v>
       </c>
       <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G21" s="7">
         <v>75</v>
       </c>
-      <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="T21" s="1">
         <v>307.02490725140501</v>
@@ -4427,19 +4479,18 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
-        <v>32944</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>32954</v>
       </c>
       <c r="E22" s="6">
         <v>32854</v>
       </c>
       <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G22" s="7">
         <v>90</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
       <c r="T22" s="1">
         <v>444.358810494078</v>
       </c>
@@ -4464,16 +4515,24 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
-        <v>32960</v>
+        <v>32970</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="6">
         <v>32854</v>
       </c>
       <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="G23" s="7">
         <v>106</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
@@ -4482,16 +4541,19 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
-        <v>32882</v>
+        <v>32892</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6">
         <v>32854</v>
       </c>
       <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G24" s="7">
         <v>28</v>
       </c>
-      <c r="G24" s="7"/>
       <c r="H24" s="6"/>
       <c r="Z24" s="1">
         <v>3.3757226576011199</v>
@@ -4504,16 +4566,19 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
-        <v>32896</v>
+        <v>32906</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6">
         <v>32854</v>
       </c>
       <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G25" s="7">
         <v>42</v>
       </c>
-      <c r="G25" s="7"/>
       <c r="H25" s="6"/>
       <c r="U25" s="1">
         <v>0.62716694180183996</v>
@@ -4529,16 +4594,19 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
-        <v>32909</v>
+        <v>32919</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6">
         <v>32854</v>
       </c>
       <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G26" s="7">
         <v>55</v>
       </c>
-      <c r="G26" s="7"/>
       <c r="H26" s="6"/>
       <c r="U26" s="1">
         <v>1.7497512683798899</v>
@@ -4554,16 +4622,19 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
-        <v>32929</v>
+        <v>32939</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6">
         <v>32854</v>
       </c>
       <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G27" s="7">
         <v>75</v>
       </c>
-      <c r="G27" s="7"/>
       <c r="H27" s="6"/>
       <c r="U27" s="1">
         <v>12.7087579765657</v>
@@ -4579,18 +4650,18 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
-        <v>32944</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>26</v>
+        <v>32954</v>
       </c>
       <c r="E28" s="6">
         <v>32854</v>
       </c>
       <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G28" s="7">
         <v>90</v>
       </c>
-      <c r="G28" s="7"/>
       <c r="H28" s="6"/>
       <c r="U28" s="1">
         <v>16.912347582510201</v>
@@ -4606,16 +4677,24 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
-        <v>32960</v>
+        <v>32970</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E29" s="6">
         <v>32854</v>
       </c>
       <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="G29" s="7">
         <v>106</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -4904,7 +4983,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:C71" si="1">E38+F38</f>
+        <f t="shared" ref="C38:C71" si="2">E38+F38</f>
         <v>35447</v>
       </c>
       <c r="D38" s="6"/>
@@ -4939,7 +5018,7 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35468</v>
       </c>
       <c r="D39" s="6"/>
@@ -4976,7 +5055,7 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35489</v>
       </c>
       <c r="D40" s="6"/>
@@ -5011,7 +5090,7 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35531</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -5055,7 +5134,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35405</v>
       </c>
       <c r="D42" s="6"/>
@@ -5087,7 +5166,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35426</v>
       </c>
       <c r="D43" s="6"/>
@@ -5119,7 +5198,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35447</v>
       </c>
       <c r="D44" s="6"/>
@@ -5154,7 +5233,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35468</v>
       </c>
       <c r="D45" s="6"/>
@@ -5189,7 +5268,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35489</v>
       </c>
       <c r="D46" s="6"/>
@@ -5224,7 +5303,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35531</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -5269,7 +5348,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35405</v>
       </c>
       <c r="D48" s="6"/>
@@ -5301,7 +5380,7 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35426</v>
       </c>
       <c r="D49" s="6"/>
@@ -5333,7 +5412,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35447</v>
       </c>
       <c r="D50" s="6"/>
@@ -5368,7 +5447,7 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35468</v>
       </c>
       <c r="D51" s="6"/>
@@ -5403,7 +5482,7 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35489</v>
       </c>
       <c r="D52" s="6"/>
@@ -5438,7 +5517,7 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35531</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -5482,7 +5561,7 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35405</v>
       </c>
       <c r="D54" s="6"/>
@@ -5514,7 +5593,7 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35426</v>
       </c>
       <c r="D55" s="6"/>
@@ -5546,7 +5625,7 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35447</v>
       </c>
       <c r="D56" s="6"/>
@@ -5581,7 +5660,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35468</v>
       </c>
       <c r="D57" s="6"/>
@@ -5616,7 +5695,7 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35489</v>
       </c>
       <c r="D58" s="6"/>
@@ -5653,7 +5732,7 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35531</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -5697,7 +5776,7 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35405</v>
       </c>
       <c r="D60" s="6"/>
@@ -5729,7 +5808,7 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35426</v>
       </c>
       <c r="D61" s="6"/>
@@ -5761,7 +5840,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35447</v>
       </c>
       <c r="D62" s="6"/>
@@ -5796,7 +5875,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35468</v>
       </c>
       <c r="D63" s="6"/>
@@ -5831,7 +5910,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35489</v>
       </c>
       <c r="D64" s="6"/>
@@ -5866,7 +5945,7 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35531</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -5911,7 +5990,7 @@
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35776</v>
       </c>
       <c r="D66" s="6"/>
@@ -5919,7 +5998,7 @@
         <v>35741</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66:F85" si="2">H66+G66</f>
+        <f t="shared" ref="F66:F85" si="3">H66+G66</f>
         <v>35</v>
       </c>
       <c r="G66" s="2">
@@ -5941,7 +6020,7 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35797</v>
       </c>
       <c r="D67" s="6"/>
@@ -5949,7 +6028,7 @@
         <v>35741</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="G67" s="2">
@@ -5971,7 +6050,7 @@
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35818</v>
       </c>
       <c r="D68" s="6"/>
@@ -5979,7 +6058,7 @@
         <v>35741</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="G68" s="2">
@@ -6001,7 +6080,7 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35839</v>
       </c>
       <c r="D69" s="6"/>
@@ -6009,7 +6088,7 @@
         <v>35741</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="G69" s="2">
@@ -6031,7 +6110,7 @@
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35860</v>
       </c>
       <c r="D70" s="6"/>
@@ -6039,7 +6118,7 @@
         <v>35741</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="G70" s="2">
@@ -6061,7 +6140,7 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35881</v>
       </c>
       <c r="D71" s="6"/>
@@ -6069,7 +6148,7 @@
         <v>35741</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="G71" s="2">
@@ -6101,7 +6180,7 @@
         <v>35741</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="G72" s="2">
@@ -6139,7 +6218,7 @@
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="6">
-        <f t="shared" ref="C73:C78" si="3">E73+F73</f>
+        <f t="shared" ref="C73:C78" si="4">E73+F73</f>
         <v>35776</v>
       </c>
       <c r="D73" s="6"/>
@@ -6147,7 +6226,7 @@
         <v>35741</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G73" s="2">
@@ -6168,7 +6247,7 @@
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35797</v>
       </c>
       <c r="D74" s="6"/>
@@ -6176,7 +6255,7 @@
         <v>35741</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="G74" s="2">
@@ -6197,7 +6276,7 @@
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35818</v>
       </c>
       <c r="D75" s="6"/>
@@ -6205,7 +6284,7 @@
         <v>35741</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="G75" s="2">
@@ -6226,7 +6305,7 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35839</v>
       </c>
       <c r="D76" s="6"/>
@@ -6234,7 +6313,7 @@
         <v>35741</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="G76" s="2">
@@ -6255,7 +6334,7 @@
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35860</v>
       </c>
       <c r="D77" s="6"/>
@@ -6263,7 +6342,7 @@
         <v>35741</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="G77" s="2">
@@ -6284,7 +6363,7 @@
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35881</v>
       </c>
       <c r="D78" s="6"/>
@@ -6292,7 +6371,7 @@
         <v>35741</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="G78" s="2">
@@ -6323,7 +6402,7 @@
         <v>35741</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="G79" s="2">
@@ -6361,7 +6440,7 @@
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="6">
-        <f t="shared" ref="C80:C85" si="4">E80+F80</f>
+        <f t="shared" ref="C80:C85" si="5">E80+F80</f>
         <v>35776</v>
       </c>
       <c r="D80" s="6"/>
@@ -6369,7 +6448,7 @@
         <v>35741</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G80" s="2">
@@ -6390,7 +6469,7 @@
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35797</v>
       </c>
       <c r="D81" s="6"/>
@@ -6398,7 +6477,7 @@
         <v>35741</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="G81" s="2">
@@ -6419,7 +6498,7 @@
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35818</v>
       </c>
       <c r="D82" s="6"/>
@@ -6427,7 +6506,7 @@
         <v>35741</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="G82" s="2">
@@ -6448,7 +6527,7 @@
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35839</v>
       </c>
       <c r="D83" s="6"/>
@@ -6456,7 +6535,7 @@
         <v>35741</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="G83" s="2">
@@ -6477,7 +6556,7 @@
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35860</v>
       </c>
       <c r="D84" s="6"/>
@@ -6485,7 +6564,7 @@
         <v>35741</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="G84" s="2">
@@ -6506,7 +6585,7 @@
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35881</v>
       </c>
       <c r="D85" s="6"/>
@@ -6514,7 +6593,7 @@
         <v>35741</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="G85" s="2">
@@ -6576,7 +6655,7 @@
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="6">
-        <f t="shared" ref="C87:C92" si="5">E87+F87</f>
+        <f t="shared" ref="C87:C92" si="6">E87+F87</f>
         <v>35776</v>
       </c>
       <c r="D87" s="6"/>
@@ -6584,7 +6663,7 @@
         <v>35741</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" ref="F87:F92" si="6">H87+G87</f>
+        <f t="shared" ref="F87:F92" si="7">H87+G87</f>
         <v>35</v>
       </c>
       <c r="G87" s="2">
@@ -6605,7 +6684,7 @@
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35797</v>
       </c>
       <c r="D88" s="6"/>
@@ -6613,7 +6692,7 @@
         <v>35741</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="G88" s="2">
@@ -6634,7 +6713,7 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35818</v>
       </c>
       <c r="D89" s="6"/>
@@ -6642,7 +6721,7 @@
         <v>35741</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="G89" s="2">
@@ -6663,7 +6742,7 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35839</v>
       </c>
       <c r="D90" s="6"/>
@@ -6671,7 +6750,7 @@
         <v>35741</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="G90" s="2">
@@ -6692,7 +6771,7 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35860</v>
       </c>
       <c r="D91" s="6"/>
@@ -6700,7 +6779,7 @@
         <v>35741</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="G91" s="2">
@@ -6721,7 +6800,7 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35881</v>
       </c>
       <c r="D92" s="6"/>
@@ -6729,7 +6808,7 @@
         <v>35741</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="G92" s="2">
@@ -6750,7 +6829,7 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="8">
-        <f t="shared" ref="C93:C101" si="7">E93+J93</f>
+        <f t="shared" ref="C93:C101" si="8">E93+J93</f>
         <v>35902</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -6781,7 +6860,7 @@
         <v>343.28169175006798</v>
       </c>
       <c r="AA93" s="1">
-        <f t="shared" ref="AA93:AA101" si="8">T93/Y93</f>
+        <f t="shared" ref="AA93:AA101" si="9">T93/Y93</f>
         <v>0.61517153956727488</v>
       </c>
     </row>
@@ -6791,7 +6870,7 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -6822,7 +6901,7 @@
         <v>1047.5702821131399</v>
       </c>
       <c r="AA94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5877198616698468</v>
       </c>
     </row>
@@ -6832,7 +6911,7 @@
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -6863,7 +6942,7 @@
         <v>796.46496972084105</v>
       </c>
       <c r="AA95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59785332049875728</v>
       </c>
     </row>
@@ -6873,7 +6952,7 @@
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -6904,7 +6983,7 @@
         <v>699.06221414893105</v>
       </c>
       <c r="AA96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5966570064180915</v>
       </c>
     </row>
@@ -6914,7 +6993,7 @@
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -6945,7 +7024,7 @@
         <v>655.12957718011205</v>
       </c>
       <c r="AA97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58478450560410777</v>
       </c>
     </row>
@@ -6955,7 +7034,7 @@
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -6986,7 +7065,7 @@
         <v>1030.5631638546899</v>
       </c>
       <c r="AA98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57435408989559844</v>
       </c>
     </row>
@@ -6996,7 +7075,7 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -7027,7 +7106,7 @@
         <v>845.29513434514297</v>
       </c>
       <c r="AA99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55432121382614619</v>
       </c>
     </row>
@@ -7037,7 +7116,7 @@
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -7068,7 +7147,7 @@
         <v>785.61059731698401</v>
       </c>
       <c r="AA100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.56902564173601522</v>
       </c>
     </row>
@@ -7078,7 +7157,7 @@
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35902</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -7109,7 +7188,7 @@
         <v>716.45025122502898</v>
       </c>
       <c r="AA101" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5415984268554952</v>
       </c>
     </row>
@@ -7119,7 +7198,7 @@
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="6">
-        <f t="shared" ref="C102:C107" si="9">E102+F102</f>
+        <f t="shared" ref="C102:C107" si="10">E102+F102</f>
         <v>35776</v>
       </c>
       <c r="D102" s="6"/>
@@ -7127,7 +7206,7 @@
         <v>35741</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ref="F102:F107" si="10">H102+G102</f>
+        <f t="shared" ref="F102:F107" si="11">H102+G102</f>
         <v>35</v>
       </c>
       <c r="G102" s="2">
@@ -7151,7 +7230,7 @@
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35797</v>
       </c>
       <c r="D103" s="6"/>
@@ -7159,7 +7238,7 @@
         <v>35741</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="G103" s="2">
@@ -7183,7 +7262,7 @@
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35818</v>
       </c>
       <c r="D104" s="6"/>
@@ -7191,7 +7270,7 @@
         <v>35741</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="G104" s="2">
@@ -7215,7 +7294,7 @@
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35839</v>
       </c>
       <c r="D105" s="6"/>
@@ -7223,7 +7302,7 @@
         <v>35741</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="G105" s="2">
@@ -7247,7 +7326,7 @@
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35860</v>
       </c>
       <c r="D106" s="6"/>
@@ -7255,7 +7334,7 @@
         <v>35741</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
       <c r="G106" s="2">
@@ -7279,7 +7358,7 @@
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35881</v>
       </c>
       <c r="D107" s="6"/>
@@ -7287,7 +7366,7 @@
         <v>35741</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="G107" s="2">
@@ -7305,7 +7384,7 @@
         <v>1124.9410322956101</v>
       </c>
       <c r="AA107" s="1">
-        <f t="shared" ref="AA107:AA115" si="11">T107/Y107</f>
+        <f t="shared" ref="AA107:AA115" si="12">T107/Y107</f>
         <v>0.5164687627891642</v>
       </c>
     </row>
@@ -7346,7 +7425,7 @@
         <v>1297.83741710808</v>
       </c>
       <c r="AA108" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54760057573932719</v>
       </c>
     </row>
@@ -7387,7 +7466,7 @@
         <v>1135.43192825251</v>
       </c>
       <c r="AA109" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.55106873051835448</v>
       </c>
     </row>
@@ -7428,7 +7507,7 @@
         <v>1009.9101083416</v>
       </c>
       <c r="AA110" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54152216496102545</v>
       </c>
     </row>
@@ -7469,7 +7548,7 @@
         <v>859.16057930755699</v>
       </c>
       <c r="AA111" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52004526213321234</v>
       </c>
     </row>
@@ -7500,7 +7579,7 @@
         <v>1261</v>
       </c>
       <c r="AA112" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52101506740682002</v>
       </c>
     </row>
@@ -7531,7 +7610,7 @@
         <v>1539</v>
       </c>
       <c r="AA113" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41585445094217022</v>
       </c>
     </row>
@@ -7562,7 +7641,7 @@
         <v>1556</v>
       </c>
       <c r="AA114" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41902313624678661</v>
       </c>
     </row>
@@ -7594,7 +7673,7 @@
         <v>1619</v>
       </c>
       <c r="AA115" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.35083384805435452</v>
       </c>
     </row>
@@ -7620,7 +7699,7 @@
         <v>53</v>
       </c>
       <c r="C117" s="8">
-        <f t="shared" ref="C117:C143" si="12">DATE(1981,12,10)+F117+7</f>
+        <f t="shared" ref="C117:C143" si="13">DATE(1981,12,10)+F117+7</f>
         <v>29937</v>
       </c>
       <c r="E117" s="8"/>
@@ -7637,7 +7716,7 @@
         <v>53</v>
       </c>
       <c r="C118" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E118" s="8"/>
@@ -7654,7 +7733,7 @@
         <v>53</v>
       </c>
       <c r="C119" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E119" s="8"/>
@@ -7671,7 +7750,7 @@
         <v>53</v>
       </c>
       <c r="C120" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E120" s="8"/>
@@ -7688,7 +7767,7 @@
         <v>53</v>
       </c>
       <c r="C121" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E121" s="8"/>
@@ -7705,7 +7784,7 @@
         <v>53</v>
       </c>
       <c r="C122" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E122" s="8"/>
@@ -7722,7 +7801,7 @@
         <v>54</v>
       </c>
       <c r="C123" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E123" s="8"/>
@@ -7739,7 +7818,7 @@
         <v>54</v>
       </c>
       <c r="C124" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E124" s="8"/>
@@ -7756,7 +7835,7 @@
         <v>54</v>
       </c>
       <c r="C125" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E125" s="8"/>
@@ -7773,7 +7852,7 @@
         <v>54</v>
       </c>
       <c r="C126" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E126" s="8"/>
@@ -7790,7 +7869,7 @@
         <v>54</v>
       </c>
       <c r="C127" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E127" s="8"/>
@@ -7807,7 +7886,7 @@
         <v>54</v>
       </c>
       <c r="C128" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E128" s="8"/>
@@ -7824,7 +7903,7 @@
         <v>54</v>
       </c>
       <c r="C129" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E129" s="8"/>
@@ -7841,7 +7920,7 @@
         <v>55</v>
       </c>
       <c r="C130" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E130" s="8"/>
@@ -7858,7 +7937,7 @@
         <v>55</v>
       </c>
       <c r="C131" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E131" s="8"/>
@@ -7875,7 +7954,7 @@
         <v>55</v>
       </c>
       <c r="C132" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E132" s="8"/>
@@ -7892,7 +7971,7 @@
         <v>55</v>
       </c>
       <c r="C133" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E133" s="8"/>
@@ -7909,7 +7988,7 @@
         <v>55</v>
       </c>
       <c r="C134" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E134" s="8"/>
@@ -7926,7 +8005,7 @@
         <v>55</v>
       </c>
       <c r="C135" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E135" s="8"/>
@@ -7943,7 +8022,7 @@
         <v>55</v>
       </c>
       <c r="C136" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E136" s="8"/>
@@ -7960,7 +8039,7 @@
         <v>56</v>
       </c>
       <c r="C137" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E137" s="8"/>
@@ -7977,7 +8056,7 @@
         <v>56</v>
       </c>
       <c r="C138" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E138" s="8"/>
@@ -7994,7 +8073,7 @@
         <v>56</v>
       </c>
       <c r="C139" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E139" s="8"/>
@@ -8011,7 +8090,7 @@
         <v>56</v>
       </c>
       <c r="C140" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E140" s="8"/>
@@ -8028,7 +8107,7 @@
         <v>56</v>
       </c>
       <c r="C141" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E141" s="8"/>
@@ -8045,7 +8124,7 @@
         <v>56</v>
       </c>
       <c r="C142" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E142" s="8"/>
@@ -8062,7 +8141,7 @@
         <v>56</v>
       </c>
       <c r="C143" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29937</v>
       </c>
       <c r="E143" s="8"/>
@@ -8094,7 +8173,7 @@
         <v>0.33</v>
       </c>
       <c r="N144" s="1">
-        <f t="shared" ref="N144:N173" si="13">M144/R144</f>
+        <f t="shared" ref="N144:N173" si="14">M144/R144</f>
         <v>2.4699999999999958E-2</v>
       </c>
       <c r="R144" s="1">
@@ -8130,7 +8209,7 @@
         <v>1.06</v>
       </c>
       <c r="N145" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.12E-2</v>
       </c>
       <c r="R145" s="1">
@@ -8167,7 +8246,7 @@
         <v>3.64</v>
       </c>
       <c r="N146" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6999999999999962E-2</v>
       </c>
       <c r="R146" s="1">
@@ -8203,7 +8282,7 @@
         <v>5.7</v>
       </c>
       <c r="N147" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6399999999999989E-2</v>
       </c>
       <c r="R147" s="1">
@@ -8239,7 +8318,7 @@
         <v>7.03</v>
       </c>
       <c r="N148" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5400000000000006E-2</v>
       </c>
       <c r="R148" s="1">
@@ -8285,7 +8364,7 @@
         <v>5.85</v>
       </c>
       <c r="N149" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1499999999999995E-2</v>
       </c>
       <c r="R149" s="1">
@@ -8325,7 +8404,7 @@
         <v>0.71</v>
       </c>
       <c r="N150" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0699999999999988E-2</v>
       </c>
       <c r="R150" s="1">
@@ -8363,7 +8442,7 @@
         <v>1.43</v>
       </c>
       <c r="N151" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8299999999999968E-2</v>
       </c>
       <c r="R151" s="1">
@@ -8401,7 +8480,7 @@
         <v>4.53</v>
       </c>
       <c r="N152" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9300000000000041E-2</v>
       </c>
       <c r="R152" s="1">
@@ -8440,7 +8519,7 @@
         <v>7.77</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6899999999999966E-2</v>
       </c>
       <c r="R153" s="1">
@@ -8479,7 +8558,7 @@
         <v>6.14</v>
       </c>
       <c r="N154" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2700000000000026E-2</v>
       </c>
       <c r="R154" s="1">
@@ -8527,7 +8606,7 @@
         <v>3.12</v>
       </c>
       <c r="N155" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1399999999999926E-2</v>
       </c>
       <c r="R155" s="1">
@@ -8568,7 +8647,7 @@
         <v>0.49</v>
       </c>
       <c r="N156" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7699999999999961E-2</v>
       </c>
       <c r="R156" s="1">
@@ -8604,7 +8683,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="N157" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6499999999999985E-2</v>
       </c>
       <c r="R157" s="1">
@@ -8640,7 +8719,7 @@
         <v>2.93</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3099999999999971E-2</v>
       </c>
       <c r="R158" s="1">
@@ -8677,7 +8756,7 @@
         <v>4.28</v>
       </c>
       <c r="N159" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9900000000000011E-2</v>
       </c>
       <c r="R159" s="1">
@@ -8715,7 +8794,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="N160" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9300000000000036E-2</v>
       </c>
       <c r="R160" s="1">
@@ -8759,7 +8838,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="N161" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7200000000000014E-2</v>
       </c>
       <c r="R161" s="1">
@@ -8800,7 +8879,7 @@
         <v>0.36</v>
       </c>
       <c r="N162" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0900000000000007E-2</v>
       </c>
       <c r="R162" s="1">
@@ -8837,7 +8916,7 @@
         <v>1.19</v>
       </c>
       <c r="N163" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.5599999999999998E-2</v>
       </c>
       <c r="R163" s="1">
@@ -8874,7 +8953,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="N164" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9499999999999979E-2</v>
       </c>
       <c r="R164" s="1">
@@ -8911,7 +8990,7 @@
         <v>2.98</v>
       </c>
       <c r="N165" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6800000000000034E-2</v>
       </c>
       <c r="R165" s="1">
@@ -8947,7 +9026,7 @@
         <v>3.38</v>
       </c>
       <c r="N166" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6399999999999981E-2</v>
       </c>
       <c r="R166" s="1">
@@ -8994,7 +9073,7 @@
         <v>2.73</v>
       </c>
       <c r="N167" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6699999999999954E-2</v>
       </c>
       <c r="R167" s="1">
@@ -9034,7 +9113,7 @@
         <v>0.18</v>
       </c>
       <c r="N168" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3200000000000005E-2</v>
       </c>
       <c r="R168" s="1">
@@ -9070,7 +9149,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N169" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="R169" s="1">
@@ -9106,7 +9185,7 @@
         <v>1.91</v>
       </c>
       <c r="N170" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8199999999999987E-2</v>
       </c>
       <c r="R170" s="1">
@@ -9142,7 +9221,7 @@
         <v>2.44</v>
       </c>
       <c r="N171" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6900000000000009E-2</v>
       </c>
       <c r="R171" s="1">
@@ -9179,7 +9258,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N172" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5200000000000021E-2</v>
       </c>
       <c r="R172" s="1">
@@ -9226,7 +9305,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="N173" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7000000000000029E-2</v>
       </c>
       <c r="R173" s="1">
@@ -9254,7 +9333,7 @@
         <v>68</v>
       </c>
       <c r="C174" s="6">
-        <f t="shared" ref="C174:C221" si="14">E174+F174</f>
+        <f t="shared" ref="C174:C221" si="15">E174+F174</f>
         <v>31023</v>
       </c>
       <c r="D174" s="6"/>
@@ -9286,7 +9365,7 @@
         <v>68</v>
       </c>
       <c r="C175" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31037</v>
       </c>
       <c r="E175" s="6">
@@ -9317,7 +9396,7 @@
         <v>68</v>
       </c>
       <c r="C176" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31051</v>
       </c>
       <c r="E176" s="6">
@@ -9348,7 +9427,7 @@
         <v>68</v>
       </c>
       <c r="C177" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31064</v>
       </c>
       <c r="E177" s="6">
@@ -9379,7 +9458,7 @@
         <v>68</v>
       </c>
       <c r="C178" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31078</v>
       </c>
       <c r="D178" s="13"/>
@@ -9408,7 +9487,7 @@
         <v>68</v>
       </c>
       <c r="C179" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31091</v>
       </c>
       <c r="D179" s="13"/>
@@ -9438,7 +9517,7 @@
         <v>68</v>
       </c>
       <c r="C180" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31104</v>
       </c>
       <c r="D180" s="13"/>
@@ -9467,7 +9546,7 @@
         <v>68</v>
       </c>
       <c r="C181" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31118</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -9505,7 +9584,7 @@
         <v>68</v>
       </c>
       <c r="C182" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31023</v>
       </c>
       <c r="D182" s="6"/>
@@ -9534,7 +9613,7 @@
         <v>68</v>
       </c>
       <c r="C183" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31037</v>
       </c>
       <c r="E183" s="6">
@@ -9562,7 +9641,7 @@
         <v>68</v>
       </c>
       <c r="C184" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31051</v>
       </c>
       <c r="E184" s="6">
@@ -9590,7 +9669,7 @@
         <v>68</v>
       </c>
       <c r="C185" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31064</v>
       </c>
       <c r="E185" s="6">
@@ -9618,7 +9697,7 @@
         <v>68</v>
       </c>
       <c r="C186" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31078</v>
       </c>
       <c r="D186" s="13"/>
@@ -9648,7 +9727,7 @@
         <v>68</v>
       </c>
       <c r="C187" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31091</v>
       </c>
       <c r="D187" s="13"/>
@@ -9677,7 +9756,7 @@
         <v>68</v>
       </c>
       <c r="C188" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31104</v>
       </c>
       <c r="D188" s="13"/>
@@ -9706,7 +9785,7 @@
         <v>68</v>
       </c>
       <c r="C189" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31118</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -9744,7 +9823,7 @@
         <v>71</v>
       </c>
       <c r="C190" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31056</v>
       </c>
       <c r="D190" s="13"/>
@@ -9773,7 +9852,7 @@
         <v>71</v>
       </c>
       <c r="C191" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31070</v>
       </c>
       <c r="D191" s="13"/>
@@ -9802,7 +9881,7 @@
         <v>71</v>
       </c>
       <c r="C192" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31084</v>
       </c>
       <c r="D192" s="13"/>
@@ -9831,7 +9910,7 @@
         <v>71</v>
       </c>
       <c r="C193" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31104</v>
       </c>
       <c r="D193" s="13"/>
@@ -9861,7 +9940,7 @@
         <v>71</v>
       </c>
       <c r="C194" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31118</v>
       </c>
       <c r="D194" s="13"/>
@@ -9890,7 +9969,7 @@
         <v>71</v>
       </c>
       <c r="C195" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31134</v>
       </c>
       <c r="D195" s="13"/>
@@ -9919,7 +9998,7 @@
         <v>71</v>
       </c>
       <c r="C196" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31148</v>
       </c>
       <c r="D196" s="13"/>
@@ -9948,7 +10027,7 @@
         <v>71</v>
       </c>
       <c r="C197" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31161</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -9986,7 +10065,7 @@
         <v>71</v>
       </c>
       <c r="C198" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31056</v>
       </c>
       <c r="D198" s="13"/>
@@ -10015,7 +10094,7 @@
         <v>71</v>
       </c>
       <c r="C199" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31070</v>
       </c>
       <c r="D199" s="13"/>
@@ -10044,7 +10123,7 @@
         <v>71</v>
       </c>
       <c r="C200" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31084</v>
       </c>
       <c r="D200" s="13"/>
@@ -10074,7 +10153,7 @@
         <v>71</v>
       </c>
       <c r="C201" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31104</v>
       </c>
       <c r="D201" s="13"/>
@@ -10103,7 +10182,7 @@
         <v>71</v>
       </c>
       <c r="C202" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31118</v>
       </c>
       <c r="D202" s="13"/>
@@ -10132,7 +10211,7 @@
         <v>71</v>
       </c>
       <c r="C203" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31134</v>
       </c>
       <c r="D203" s="13"/>
@@ -10161,7 +10240,7 @@
         <v>71</v>
       </c>
       <c r="C204" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31148</v>
       </c>
       <c r="D204" s="13"/>
@@ -10190,7 +10269,7 @@
         <v>71</v>
       </c>
       <c r="C205" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31161</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -10228,7 +10307,7 @@
         <v>74</v>
       </c>
       <c r="C206" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31105</v>
       </c>
       <c r="D206" s="13"/>
@@ -10257,7 +10336,7 @@
         <v>74</v>
       </c>
       <c r="C207" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31113</v>
       </c>
       <c r="D207" s="13"/>
@@ -10287,7 +10366,7 @@
         <v>74</v>
       </c>
       <c r="C208" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31127</v>
       </c>
       <c r="D208" s="13"/>
@@ -10316,7 +10395,7 @@
         <v>74</v>
       </c>
       <c r="C209" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31141</v>
       </c>
       <c r="D209" s="13"/>
@@ -10345,7 +10424,7 @@
         <v>74</v>
       </c>
       <c r="C210" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31162</v>
       </c>
       <c r="D210" s="13"/>
@@ -10374,7 +10453,7 @@
         <v>74</v>
       </c>
       <c r="C211" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31177</v>
       </c>
       <c r="D211" s="13"/>
@@ -10403,7 +10482,7 @@
         <v>74</v>
       </c>
       <c r="C212" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31189</v>
       </c>
       <c r="D212" s="13"/>
@@ -10432,7 +10511,7 @@
         <v>74</v>
       </c>
       <c r="C213" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31195</v>
       </c>
       <c r="D213" s="6" t="s">
@@ -10470,7 +10549,7 @@
         <v>74</v>
       </c>
       <c r="C214" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31105</v>
       </c>
       <c r="D214" s="13"/>
@@ -10500,7 +10579,7 @@
         <v>74</v>
       </c>
       <c r="C215" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31113</v>
       </c>
       <c r="D215" s="13"/>
@@ -10529,7 +10608,7 @@
         <v>74</v>
       </c>
       <c r="C216" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31127</v>
       </c>
       <c r="D216" s="13"/>
@@ -10558,7 +10637,7 @@
         <v>74</v>
       </c>
       <c r="C217" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31141</v>
       </c>
       <c r="D217" s="13"/>
@@ -10587,7 +10666,7 @@
         <v>74</v>
       </c>
       <c r="C218" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31162</v>
       </c>
       <c r="D218" s="13"/>
@@ -10616,7 +10695,7 @@
         <v>74</v>
       </c>
       <c r="C219" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31177</v>
       </c>
       <c r="D219" s="13"/>
@@ -10645,7 +10724,7 @@
         <v>74</v>
       </c>
       <c r="C220" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31189</v>
       </c>
       <c r="D220" s="13"/>
@@ -10674,7 +10753,7 @@
         <v>74</v>
       </c>
       <c r="C221" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31195</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -11438,7 +11517,7 @@
         <v>152</v>
       </c>
       <c r="C265" s="23">
-        <f t="shared" ref="C265:C275" si="15">DATE(1988,4,28)+F265</f>
+        <f t="shared" ref="C265:C275" si="16">DATE(1988,4,28)+F265</f>
         <v>32302</v>
       </c>
       <c r="F265" s="2">
@@ -11456,7 +11535,7 @@
         <v>0.83718759722078295</v>
       </c>
       <c r="N265" s="1">
-        <f t="shared" ref="N265:N275" si="16">M265/P265</f>
+        <f t="shared" ref="N265:N275" si="17">M265/P265</f>
         <v>2.1493181582495167E-2</v>
       </c>
       <c r="P265" s="1">
@@ -11472,14 +11551,14 @@
         <v>1.19006321307415</v>
       </c>
       <c r="Y265" s="1">
-        <f t="shared" ref="Y265:Y275" si="17">T265+S265+R265</f>
+        <f t="shared" ref="Y265:Y275" si="18">T265+S265+R265</f>
         <v>78.916884278578848</v>
       </c>
       <c r="AB265">
         <v>164.784053156146</v>
       </c>
       <c r="AC265">
-        <f t="shared" ref="AC265:AC275" si="18">M265/L265</f>
+        <f t="shared" ref="AC265:AC275" si="19">M265/L265</f>
         <v>1.0972662379767062E-3</v>
       </c>
     </row>
@@ -11488,11 +11567,11 @@
         <v>152</v>
       </c>
       <c r="C266" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32309</v>
       </c>
       <c r="F266" s="2">
-        <f t="shared" ref="F266:F275" si="19">F265+7</f>
+        <f t="shared" ref="F266:F275" si="20">F265+7</f>
         <v>48</v>
       </c>
       <c r="I266" s="8"/>
@@ -11506,7 +11585,7 @@
         <v>1.4875557399149599</v>
       </c>
       <c r="N266" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2065410142071924E-2</v>
       </c>
       <c r="P266" s="1">
@@ -11522,14 +11601,14 @@
         <v>1.07442954054886</v>
       </c>
       <c r="Y266" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>158.28607824497425</v>
       </c>
       <c r="AB266">
         <v>188.039867109634</v>
       </c>
       <c r="AC266">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5261624661373396E-3</v>
       </c>
     </row>
@@ -11538,11 +11617,11 @@
         <v>152</v>
       </c>
       <c r="C267" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32316</v>
       </c>
       <c r="F267" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>55</v>
       </c>
       <c r="I267" s="8"/>
@@ -11556,7 +11635,7 @@
         <v>2.0486363164990098</v>
       </c>
       <c r="N267" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8992565850876386E-2</v>
       </c>
       <c r="P267" s="1">
@@ -11572,14 +11651,14 @@
         <v>2.7944804193646098</v>
       </c>
       <c r="Y267" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>237.1902612035866</v>
       </c>
       <c r="AB267">
         <v>264.45182724252402</v>
       </c>
       <c r="AC267">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466186993348443E-3</v>
       </c>
     </row>
@@ -11588,11 +11667,11 @@
         <v>152</v>
       </c>
       <c r="C268" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32323</v>
       </c>
       <c r="F268" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>62</v>
       </c>
       <c r="I268" s="8"/>
@@ -11606,7 +11685,7 @@
         <v>3.0153997718552299</v>
       </c>
       <c r="N268" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7351546100977347E-2</v>
       </c>
       <c r="P268" s="1">
@@ -11622,14 +11701,14 @@
         <v>6.3116712920134397</v>
       </c>
       <c r="Y268" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>416.82913670514347</v>
       </c>
       <c r="AB268">
         <v>332.55813953488303</v>
       </c>
       <c r="AC268">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3974929574937867E-3</v>
       </c>
     </row>
@@ -11638,11 +11717,11 @@
         <v>152</v>
       </c>
       <c r="C269" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32330</v>
       </c>
       <c r="F269" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="I269" s="8"/>
@@ -11656,7 +11735,7 @@
         <v>2.4253862905734702</v>
       </c>
       <c r="N269" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0236816861972495E-2</v>
       </c>
       <c r="P269" s="1">
@@ -11672,14 +11751,14 @@
         <v>13.447232500770699</v>
       </c>
       <c r="Y269" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>304.7259911952587</v>
       </c>
       <c r="AB269">
         <v>395.68106312292298</v>
       </c>
       <c r="AC269">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9394573416874794E-3</v>
       </c>
     </row>
@@ -11688,11 +11767,11 @@
         <v>152</v>
       </c>
       <c r="C270" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32337</v>
       </c>
       <c r="F270" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>76</v>
       </c>
       <c r="I270" s="8"/>
@@ -11702,11 +11781,11 @@
         <v>152</v>
       </c>
       <c r="C271" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32344</v>
       </c>
       <c r="F271" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="I271" s="8"/>
@@ -11720,7 +11799,7 @@
         <v>4.1557606553976996</v>
       </c>
       <c r="N271" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7229628804210972E-2</v>
       </c>
       <c r="P271" s="1">
@@ -11736,14 +11815,14 @@
         <v>129.186902559358</v>
       </c>
       <c r="Y271" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>782.63030239119996</v>
       </c>
       <c r="AB271">
         <v>520.26578073089604</v>
       </c>
       <c r="AC271">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2927374071790795E-3</v>
       </c>
     </row>
@@ -11752,11 +11831,11 @@
         <v>152</v>
       </c>
       <c r="C272" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32351</v>
       </c>
       <c r="F272" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="I272" s="8"/>
@@ -11770,7 +11849,7 @@
         <v>3.6783677278855098</v>
       </c>
       <c r="N272" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2991060626262332E-2</v>
       </c>
       <c r="P272" s="1">
@@ -11786,14 +11865,14 @@
         <v>158.06159420289799</v>
       </c>
       <c r="Y272" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>916.71786570026006</v>
       </c>
       <c r="AB272">
         <v>453.82059800664399</v>
       </c>
       <c r="AC272">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0702612659552121E-3</v>
       </c>
     </row>
@@ -11802,11 +11881,11 @@
         <v>152</v>
       </c>
       <c r="C273" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32358</v>
       </c>
       <c r="F273" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>97</v>
       </c>
       <c r="I273" s="8"/>
@@ -11820,7 +11899,7 @@
         <v>5.3219433786166102</v>
       </c>
       <c r="N273" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6599986940311187E-2</v>
       </c>
       <c r="P273" s="1">
@@ -11836,14 +11915,14 @@
         <v>299.26476256552502</v>
       </c>
       <c r="Y273" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1066.8027890120579</v>
       </c>
       <c r="AB273">
         <v>463.78737541528204</v>
       </c>
       <c r="AC273">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4932277493432148E-3</v>
       </c>
     </row>
@@ -11852,11 +11931,11 @@
         <v>152</v>
       </c>
       <c r="C274" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32365</v>
       </c>
       <c r="F274" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>104</v>
       </c>
       <c r="I274" s="8"/>
@@ -11870,7 +11949,7 @@
         <v>4.9798817795291903</v>
       </c>
       <c r="N274" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6873457298658558E-2</v>
       </c>
       <c r="P274" s="1">
@@ -11886,14 +11965,14 @@
         <v>313.646700585877</v>
       </c>
       <c r="Y274" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1074.0839091771779</v>
       </c>
       <c r="AB274">
         <v>417.27574750830502</v>
       </c>
       <c r="AC274">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3226499235756053E-3</v>
       </c>
     </row>
@@ -11902,14 +11981,14 @@
         <v>152</v>
       </c>
       <c r="C275" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32372</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F275" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>111</v>
       </c>
       <c r="I275" s="8"/>
@@ -11923,7 +12002,7 @@
         <v>5.1565902727367003</v>
       </c>
       <c r="N275" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5096596522156794E-2</v>
       </c>
       <c r="P275" s="1">
@@ -11939,14 +12018,14 @@
         <v>409.540741597286</v>
       </c>
       <c r="Y275" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1296.011734488824</v>
       </c>
       <c r="AB275">
         <v>427.24252491694301</v>
       </c>
       <c r="AC275">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4088548708033129E-3</v>
       </c>
     </row>
@@ -11980,7 +12059,7 @@
         <v>154</v>
       </c>
       <c r="C277" s="8">
-        <f t="shared" ref="C277:C294" si="20">DATE(1990,5,15)+G277+6</f>
+        <f t="shared" ref="C277:C294" si="21">DATE(1990,5,15)+G277+6</f>
         <v>33037</v>
       </c>
       <c r="G277" s="2">
@@ -12005,7 +12084,7 @@
         <v>154</v>
       </c>
       <c r="C278" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33044</v>
       </c>
       <c r="G278" s="2">
@@ -12030,7 +12109,7 @@
         <v>154</v>
       </c>
       <c r="C279" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33051</v>
       </c>
       <c r="G279" s="2">
@@ -12055,7 +12134,7 @@
         <v>154</v>
       </c>
       <c r="C280" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33058</v>
       </c>
       <c r="G280" s="2">
@@ -12080,7 +12159,7 @@
         <v>154</v>
       </c>
       <c r="C281" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33065</v>
       </c>
       <c r="G281" s="2">
@@ -12105,7 +12184,7 @@
         <v>154</v>
       </c>
       <c r="C282" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33072</v>
       </c>
       <c r="G282" s="2">
@@ -12130,7 +12209,7 @@
         <v>154</v>
       </c>
       <c r="C283" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33079</v>
       </c>
       <c r="G283" s="2">
@@ -12155,7 +12234,7 @@
         <v>154</v>
       </c>
       <c r="C284" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33086</v>
       </c>
       <c r="G284" s="2">
@@ -12180,7 +12259,7 @@
         <v>154</v>
       </c>
       <c r="C285" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33093</v>
       </c>
       <c r="G285" s="2">
@@ -12205,7 +12284,7 @@
         <v>154</v>
       </c>
       <c r="C286" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33100</v>
       </c>
       <c r="G286" s="2">
@@ -12230,7 +12309,7 @@
         <v>154</v>
       </c>
       <c r="C287" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33107</v>
       </c>
       <c r="G287" s="2">
@@ -12255,7 +12334,7 @@
         <v>154</v>
       </c>
       <c r="C288" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33114</v>
       </c>
       <c r="G288" s="2">
@@ -12280,7 +12359,7 @@
         <v>154</v>
       </c>
       <c r="C289" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33121</v>
       </c>
       <c r="G289" s="2">
@@ -12305,7 +12384,7 @@
         <v>154</v>
       </c>
       <c r="C290" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33128</v>
       </c>
       <c r="G290" s="2">
@@ -12330,7 +12409,7 @@
         <v>154</v>
       </c>
       <c r="C291" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33135</v>
       </c>
       <c r="G291" s="2">
@@ -12355,7 +12434,7 @@
         <v>154</v>
       </c>
       <c r="C292" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33142</v>
       </c>
       <c r="G292" s="2">
@@ -12380,7 +12459,7 @@
         <v>154</v>
       </c>
       <c r="C293" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33149</v>
       </c>
       <c r="G293" s="2">
@@ -12405,7 +12484,7 @@
         <v>154</v>
       </c>
       <c r="C294" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33156</v>
       </c>
       <c r="D294" s="6" t="s">
@@ -12455,7 +12534,7 @@
         <v>53</v>
       </c>
       <c r="C296" s="8">
-        <f t="shared" ref="C296:C327" si="21">DATE(1981,12,10)+F296</f>
+        <f t="shared" ref="C296:C320" si="22">DATE(1981,12,10)+F296</f>
         <v>29959</v>
       </c>
       <c r="F296" s="2">
@@ -12477,7 +12556,7 @@
         <v>53</v>
       </c>
       <c r="C297" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29966</v>
       </c>
       <c r="F297" s="2">
@@ -12499,7 +12578,7 @@
         <v>53</v>
       </c>
       <c r="C298" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29973</v>
       </c>
       <c r="F298" s="2">
@@ -12521,7 +12600,7 @@
         <v>53</v>
       </c>
       <c r="C299" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29980</v>
       </c>
       <c r="F299" s="2">
@@ -12543,7 +12622,7 @@
         <v>53</v>
       </c>
       <c r="C300" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29987</v>
       </c>
       <c r="F300" s="2">
@@ -12565,7 +12644,7 @@
         <v>53</v>
       </c>
       <c r="C301" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29994</v>
       </c>
       <c r="F301" s="2">
@@ -12587,7 +12666,7 @@
         <v>53</v>
       </c>
       <c r="C302" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30008</v>
       </c>
       <c r="F302" s="2">
@@ -12609,7 +12688,7 @@
         <v>53</v>
       </c>
       <c r="C303" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30022</v>
       </c>
       <c r="F303" s="2">
@@ -12631,7 +12710,7 @@
         <v>53</v>
       </c>
       <c r="C304" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30029</v>
       </c>
       <c r="F304" s="2">
@@ -12653,7 +12732,7 @@
         <v>53</v>
       </c>
       <c r="C305" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30036</v>
       </c>
       <c r="F305" s="2">
@@ -12672,7 +12751,7 @@
         <v>53</v>
       </c>
       <c r="C306" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30043</v>
       </c>
       <c r="F306" s="2">
@@ -12691,7 +12770,7 @@
         <v>53</v>
       </c>
       <c r="C307" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30050</v>
       </c>
       <c r="F307" s="2">
@@ -12710,7 +12789,7 @@
         <v>54</v>
       </c>
       <c r="C308" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29952</v>
       </c>
       <c r="F308" s="2">
@@ -12732,7 +12811,7 @@
         <v>54</v>
       </c>
       <c r="C309" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29959</v>
       </c>
       <c r="F309" s="2">
@@ -12754,7 +12833,7 @@
         <v>54</v>
       </c>
       <c r="C310" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29966</v>
       </c>
       <c r="F310" s="2">
@@ -12776,7 +12855,7 @@
         <v>54</v>
       </c>
       <c r="C311" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29973</v>
       </c>
       <c r="F311" s="2">
@@ -12798,7 +12877,7 @@
         <v>54</v>
       </c>
       <c r="C312" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29980</v>
       </c>
       <c r="F312" s="2">
@@ -12820,7 +12899,7 @@
         <v>54</v>
       </c>
       <c r="C313" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29987</v>
       </c>
       <c r="F313" s="2">
@@ -12842,7 +12921,7 @@
         <v>54</v>
       </c>
       <c r="C314" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29994</v>
       </c>
       <c r="F314" s="2">
@@ -12864,7 +12943,7 @@
         <v>54</v>
       </c>
       <c r="C315" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30008</v>
       </c>
       <c r="F315" s="2">
@@ -12886,7 +12965,7 @@
         <v>54</v>
       </c>
       <c r="C316" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30022</v>
       </c>
       <c r="F316" s="2">
@@ -12908,7 +12987,7 @@
         <v>54</v>
       </c>
       <c r="C317" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30029</v>
       </c>
       <c r="F317" s="2">
@@ -12930,7 +13009,7 @@
         <v>54</v>
       </c>
       <c r="C318" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30036</v>
       </c>
       <c r="F318" s="2">
@@ -12949,7 +13028,7 @@
         <v>54</v>
       </c>
       <c r="C319" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30043</v>
       </c>
       <c r="F319" s="2">
@@ -12968,7 +13047,7 @@
         <v>54</v>
       </c>
       <c r="C320" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30050</v>
       </c>
       <c r="F320" s="2">
@@ -12988,9 +13067,13 @@
       </c>
       <c r="C321" s="24">
         <f>DATE(1989,11,24)+F321</f>
-        <v>32873</v>
+        <v>32884</v>
       </c>
       <c r="F321" s="2">
+        <f>G321+11</f>
+        <v>48</v>
+      </c>
+      <c r="G321" s="2">
         <v>37</v>
       </c>
       <c r="T321" s="1">
@@ -13005,10 +13088,14 @@
         <v>156</v>
       </c>
       <c r="C322" s="24">
-        <f t="shared" ref="C322:C340" si="22">DATE(1989,11,24)+F322</f>
-        <v>32887</v>
+        <f t="shared" ref="C322:C340" si="23">DATE(1989,11,24)+F322</f>
+        <v>32898</v>
       </c>
       <c r="F322" s="2">
+        <f t="shared" ref="F322:F340" si="24">G322+11</f>
+        <v>62</v>
+      </c>
+      <c r="G322" s="2">
         <v>51</v>
       </c>
       <c r="T322" s="1">
@@ -13023,10 +13110,14 @@
         <v>156</v>
       </c>
       <c r="C323" s="24">
-        <f t="shared" si="22"/>
-        <v>32901</v>
+        <f t="shared" si="23"/>
+        <v>32912</v>
       </c>
       <c r="F323" s="2">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="G323" s="2">
         <v>65</v>
       </c>
       <c r="T323" s="1">
@@ -13041,10 +13132,14 @@
         <v>156</v>
       </c>
       <c r="C324" s="24">
-        <f t="shared" si="22"/>
-        <v>32922</v>
+        <f t="shared" si="23"/>
+        <v>32933</v>
       </c>
       <c r="F324" s="2">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="G324" s="2">
         <v>86</v>
       </c>
       <c r="T324" s="1">
@@ -13059,10 +13154,14 @@
         <v>156</v>
       </c>
       <c r="C325" s="24">
-        <f t="shared" si="22"/>
-        <v>32935</v>
+        <f t="shared" si="23"/>
+        <v>32946</v>
       </c>
       <c r="F325" s="2">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="G325" s="2">
         <v>99</v>
       </c>
       <c r="T325" s="1">
@@ -13077,10 +13176,14 @@
         <v>156</v>
       </c>
       <c r="C326" s="24">
-        <f t="shared" si="22"/>
-        <v>32948</v>
+        <f t="shared" si="23"/>
+        <v>32959</v>
       </c>
       <c r="F326" s="2">
+        <f t="shared" si="24"/>
+        <v>123</v>
+      </c>
+      <c r="G326" s="2">
         <v>112</v>
       </c>
       <c r="T326" s="1">
@@ -13095,14 +13198,21 @@
         <v>156</v>
       </c>
       <c r="C327" s="24">
-        <f t="shared" si="22"/>
-        <v>32976</v>
+        <f t="shared" si="23"/>
+        <v>32987</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F327" s="2">
+        <f t="shared" si="24"/>
+        <v>151</v>
+      </c>
+      <c r="G327" s="2">
         <v>140</v>
+      </c>
+      <c r="H327" s="1">
+        <v>11</v>
       </c>
       <c r="T327" s="1">
         <v>489.93788819875698</v>
@@ -13116,10 +13226,14 @@
         <v>157</v>
       </c>
       <c r="C328" s="24">
-        <f t="shared" si="22"/>
-        <v>32873</v>
+        <f t="shared" si="23"/>
+        <v>32884</v>
       </c>
       <c r="F328" s="2">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="G328" s="2">
         <v>37</v>
       </c>
       <c r="T328" s="1">
@@ -13134,10 +13248,14 @@
         <v>157</v>
       </c>
       <c r="C329" s="24">
-        <f t="shared" si="22"/>
-        <v>32887</v>
+        <f t="shared" si="23"/>
+        <v>32898</v>
       </c>
       <c r="F329" s="2">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="G329" s="2">
         <v>51</v>
       </c>
       <c r="T329" s="1">
@@ -13152,10 +13270,14 @@
         <v>157</v>
       </c>
       <c r="C330" s="24">
-        <f t="shared" si="22"/>
-        <v>32901</v>
+        <f t="shared" si="23"/>
+        <v>32912</v>
       </c>
       <c r="F330" s="2">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="G330" s="2">
         <v>65</v>
       </c>
       <c r="T330" s="1">
@@ -13170,10 +13292,14 @@
         <v>157</v>
       </c>
       <c r="C331" s="24">
-        <f t="shared" si="22"/>
-        <v>32922</v>
+        <f t="shared" si="23"/>
+        <v>32933</v>
       </c>
       <c r="F331" s="2">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="G331" s="2">
         <v>86</v>
       </c>
       <c r="T331" s="1">
@@ -13188,10 +13314,14 @@
         <v>157</v>
       </c>
       <c r="C332" s="24">
-        <f t="shared" si="22"/>
-        <v>32935</v>
+        <f t="shared" si="23"/>
+        <v>32946</v>
       </c>
       <c r="F332" s="2">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="G332" s="2">
         <v>99</v>
       </c>
       <c r="T332" s="1">
@@ -13206,10 +13336,14 @@
         <v>157</v>
       </c>
       <c r="C333" s="24">
-        <f t="shared" si="22"/>
-        <v>32948</v>
+        <f t="shared" si="23"/>
+        <v>32959</v>
       </c>
       <c r="F333" s="2">
+        <f t="shared" si="24"/>
+        <v>123</v>
+      </c>
+      <c r="G333" s="2">
         <v>112</v>
       </c>
       <c r="T333" s="1">
@@ -13224,14 +13358,21 @@
         <v>157</v>
       </c>
       <c r="C334" s="24">
-        <f t="shared" si="22"/>
-        <v>32963</v>
+        <f t="shared" si="23"/>
+        <v>32974</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F334" s="2">
+        <f t="shared" si="24"/>
+        <v>138</v>
+      </c>
+      <c r="G334" s="2">
         <v>127</v>
+      </c>
+      <c r="H334" s="1">
+        <v>11</v>
       </c>
       <c r="T334" s="1">
         <v>652.90451626486902</v>
@@ -13245,10 +13386,14 @@
         <v>158</v>
       </c>
       <c r="C335" s="24">
-        <f t="shared" si="22"/>
-        <v>32873</v>
+        <f t="shared" si="23"/>
+        <v>32884</v>
       </c>
       <c r="F335" s="2">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="G335" s="2">
         <v>37</v>
       </c>
       <c r="T335" s="1">
@@ -13263,10 +13408,14 @@
         <v>158</v>
       </c>
       <c r="C336" s="24">
-        <f t="shared" si="22"/>
-        <v>32887</v>
+        <f t="shared" si="23"/>
+        <v>32898</v>
       </c>
       <c r="F336" s="2">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="G336" s="2">
         <v>51</v>
       </c>
       <c r="T336" s="1">
@@ -13281,10 +13430,14 @@
         <v>158</v>
       </c>
       <c r="C337" s="24">
-        <f t="shared" si="22"/>
-        <v>32901</v>
+        <f t="shared" si="23"/>
+        <v>32912</v>
       </c>
       <c r="F337" s="2">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="G337" s="2">
         <v>65</v>
       </c>
       <c r="T337" s="1">
@@ -13299,10 +13452,14 @@
         <v>158</v>
       </c>
       <c r="C338" s="24">
-        <f t="shared" si="22"/>
-        <v>32922</v>
+        <f t="shared" si="23"/>
+        <v>32933</v>
       </c>
       <c r="F338" s="2">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="G338" s="2">
         <v>86</v>
       </c>
       <c r="T338" s="1">
@@ -13317,10 +13474,14 @@
         <v>158</v>
       </c>
       <c r="C339" s="24">
-        <f t="shared" si="22"/>
-        <v>32935</v>
+        <f t="shared" si="23"/>
+        <v>32946</v>
       </c>
       <c r="F339" s="2">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="G339" s="2">
         <v>99</v>
       </c>
       <c r="T339" s="1">
@@ -13335,14 +13496,21 @@
         <v>158</v>
       </c>
       <c r="C340" s="24">
-        <f t="shared" si="22"/>
-        <v>32948</v>
+        <f t="shared" si="23"/>
+        <v>32959</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F340" s="2">
+        <f t="shared" si="24"/>
+        <v>123</v>
+      </c>
+      <c r="G340" s="2">
         <v>112</v>
+      </c>
+      <c r="H340" s="1">
+        <v>11</v>
       </c>
       <c r="T340" s="1">
         <v>429.84103589851497</v>

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F85F84-F919-48C8-800B-8EC42A140AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018B86E-FE73-4A04-8561-AF421257B965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,6 +726,391 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Observed!$Y$276:$Y$291</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>458.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>730.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>814.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>879.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1102.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1134.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>998.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1130.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1165.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Observed!$T$276:$T$291</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>268.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>352.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>529.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E972-48E1-86E3-17FA72B59BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="666737119"/>
+        <c:axId val="566417759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="666737119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566417759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566417759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666737119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -1092,7 +1477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1480,7 +1865,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1868,7 +2253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2256,7 +2641,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2644,7 +3029,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3063,7 +3448,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C811E4-4D4A-4083-95EE-45CBAEF679CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3248,7 +4230,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3289,7 +4271,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3636,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE028B48-E928-4E9E-80FD-208C4FFEA9B6}">
   <dimension ref="A1:AC364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AC364"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="Y276" activeCellId="1" sqref="T276:T294 Y276:Y294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7062,7 +8044,7 @@
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6">
-        <f t="shared" ref="C70:C103" si="3">E70+F70</f>
+        <f t="shared" ref="C70:C71" si="3">E70+F70</f>
         <v>35860</v>
       </c>
       <c r="D70" s="6"/>
@@ -20304,6 +21286,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Prototypes/Peanut/Observed.xlsx
+++ b/Prototypes/Peanut/Observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Peanut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5018B86E-FE73-4A04-8561-AF421257B965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB12EAF-A5A1-4964-BDCD-96AE147EF65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="166">
   <si>
     <t>SimulationName</t>
   </si>
@@ -533,6 +533,15 @@
   <si>
     <t>Kingaroy1819CvTaabingaIrrigationDry</t>
   </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>LnFPAR</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -579,6 +588,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -602,7 +616,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -634,6 +648,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1988,7 +2003,7 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2380,62 +2395,68 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19128972448455595"/>
+                  <c:y val="0.15152279416802855"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Roseworthy!$U$22:$U$37</c:f>
+              <c:f>Roseworthy!$O$22:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.3265760748496325</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3319999999999999</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8618827160493829</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0807873445236078</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.127423822714681</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.323176361957525</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.473527662105889</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1301587301587297</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.1875</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.289224952741023</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.784807306749833</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9515570934256061</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.218934911242606</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.822714681440445</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.25</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.497794580970385</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4056,9 +4077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>363874</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>142885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4092,9 +4113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>335125</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>173434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4128,9 +4149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>354188</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>11468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4166,7 +4187,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>249120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>30205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4202,7 +4223,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>249120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>28405</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4618,17 +4639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE028B48-E928-4E9E-80FD-208C4FFEA9B6}">
   <dimension ref="A1:AC364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="Y276" activeCellId="1" sqref="T276:T294 Y276:Y294"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="AB57" sqref="AB57:AB58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.52734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="57.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4717,7 +4738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -4758,7 +4779,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -4799,7 +4820,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -4840,7 +4861,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -4883,7 +4904,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -4930,7 +4951,7 @@
       </c>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -4979,7 +5000,7 @@
       </c>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -5028,7 +5049,7 @@
       </c>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -5077,7 +5098,7 @@
       </c>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5126,7 +5147,7 @@
       </c>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -5182,7 +5203,7 @@
         <v>0.45825656659652136</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -5229,7 +5250,7 @@
       </c>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -5278,7 +5299,7 @@
       </c>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -5327,7 +5348,7 @@
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -5376,7 +5397,7 @@
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -5425,7 +5446,7 @@
       </c>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>0.56647955764075453</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -5528,7 +5549,7 @@
       </c>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -5577,7 +5598,7 @@
       </c>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -5626,7 +5647,7 @@
       </c>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -5675,7 +5696,7 @@
       </c>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -5727,7 +5748,7 @@
         <v>0.44095808953351817</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
@@ -5772,7 +5793,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -5815,7 +5836,7 @@
       </c>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -5860,7 +5881,7 @@
       </c>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -5905,7 +5926,7 @@
       </c>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -5950,7 +5971,7 @@
       </c>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -5995,7 +6016,7 @@
       </c>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -6040,7 +6061,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -6088,7 +6109,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -6136,7 +6157,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
@@ -6186,7 +6207,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -6236,7 +6257,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
@@ -6286,7 +6307,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -6343,7 +6364,7 @@
         <v>0.56175917945181852</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -6391,7 +6412,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
@@ -6439,7 +6460,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
@@ -6489,7 +6510,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
@@ -6539,7 +6560,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -6589,7 +6610,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
@@ -6646,7 +6667,7 @@
         <v>0.44715629659031508</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -6694,7 +6715,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
@@ -6742,7 +6763,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
@@ -6792,7 +6813,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
@@ -6842,7 +6863,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46" s="5" t="s">
         <v>33</v>
       </c>
@@ -6892,7 +6913,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -6949,7 +6970,7 @@
         <v>0.34442199098783444</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -6997,7 +7018,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28">
       <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
@@ -7045,7 +7066,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28">
       <c r="A50" s="5" t="s">
         <v>34</v>
       </c>
@@ -7095,7 +7116,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
@@ -7145,7 +7166,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -7195,7 +7216,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -7252,7 +7273,7 @@
         <v>0.43673119216076633</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28">
       <c r="A54" s="5" t="s">
         <v>35</v>
       </c>
@@ -7300,7 +7321,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28">
       <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
@@ -7348,7 +7369,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28">
       <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
@@ -7398,7 +7419,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28">
       <c r="A57" s="5" t="s">
         <v>35</v>
       </c>
@@ -7447,8 +7468,9 @@
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB57" s="23"/>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
@@ -7497,8 +7519,9 @@
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB58" s="23"/>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="5" t="s">
         <v>35</v>
       </c>
@@ -7555,7 +7578,7 @@
         <v>0.34225516905305436</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28">
       <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
@@ -7603,7 +7626,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28">
       <c r="A61" s="5" t="s">
         <v>36</v>
       </c>
@@ -7651,7 +7674,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28">
       <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
@@ -7701,7 +7724,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28">
       <c r="A63" s="5" t="s">
         <v>36</v>
       </c>
@@ -7751,7 +7774,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
@@ -7801,7 +7824,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27">
       <c r="A65" s="5" t="s">
         <v>36</v>
       </c>
@@ -7858,7 +7881,7 @@
         <v>0.34882563252840276</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27">
       <c r="A66" s="9" t="s">
         <v>37</v>
       </c>
@@ -7903,7 +7926,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27">
       <c r="A67" s="9" t="s">
         <v>37</v>
       </c>
@@ -7948,7 +7971,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27">
       <c r="A68" s="9" t="s">
         <v>37</v>
       </c>
@@ -7993,7 +8016,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27">
       <c r="A69" s="9" t="s">
         <v>37</v>
       </c>
@@ -8038,7 +8061,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27">
       <c r="A70" s="9" t="s">
         <v>37</v>
       </c>
@@ -8083,7 +8106,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27">
       <c r="A71" s="9" t="s">
         <v>37</v>
       </c>
@@ -8128,7 +8151,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27">
       <c r="A72" s="9" t="s">
         <v>37</v>
       </c>
@@ -8188,7 +8211,7 @@
         <v>0.55755403529442404</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27">
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
@@ -8233,7 +8256,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27">
       <c r="A74" s="9" t="s">
         <v>38</v>
       </c>
@@ -8278,7 +8301,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27">
       <c r="A75" s="9" t="s">
         <v>38</v>
       </c>
@@ -8323,7 +8346,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27">
       <c r="A76" s="9" t="s">
         <v>38</v>
       </c>
@@ -8368,7 +8391,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27">
       <c r="A77" s="9" t="s">
         <v>38</v>
       </c>
@@ -8413,7 +8436,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27">
       <c r="A78" s="9" t="s">
         <v>38</v>
       </c>
@@ -8458,7 +8481,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27">
       <c r="A79" s="9" t="s">
         <v>38</v>
       </c>
@@ -8518,7 +8541,7 @@
         <v>0.57364638814782731</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27">
       <c r="A80" s="9" t="s">
         <v>39</v>
       </c>
@@ -8563,7 +8586,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27">
       <c r="A81" s="9" t="s">
         <v>39</v>
       </c>
@@ -8608,7 +8631,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27">
       <c r="A82" s="9" t="s">
         <v>39</v>
       </c>
@@ -8653,7 +8676,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27">
       <c r="A83" s="9" t="s">
         <v>39</v>
       </c>
@@ -8698,7 +8721,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27">
       <c r="A84" s="9" t="s">
         <v>39</v>
       </c>
@@ -8743,7 +8766,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27">
       <c r="A85" s="9" t="s">
         <v>39</v>
       </c>
@@ -8788,7 +8811,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27">
       <c r="A86" s="9" t="s">
         <v>39</v>
       </c>
@@ -8843,7 +8866,7 @@
         <v>0.60964305392848284</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27">
       <c r="A87" s="9" t="s">
         <v>40</v>
       </c>
@@ -8888,7 +8911,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27">
       <c r="A88" s="9" t="s">
         <v>40</v>
       </c>
@@ -8933,7 +8956,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27">
       <c r="A89" s="9" t="s">
         <v>40</v>
       </c>
@@ -8978,7 +9001,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27">
       <c r="A90" s="9" t="s">
         <v>40</v>
       </c>
@@ -9023,7 +9046,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27">
       <c r="A91" s="9" t="s">
         <v>40</v>
       </c>
@@ -9068,7 +9091,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27">
       <c r="A92" s="9" t="s">
         <v>40</v>
       </c>
@@ -9113,7 +9136,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27">
       <c r="A93" s="9" t="s">
         <v>40</v>
       </c>
@@ -9168,7 +9191,7 @@
         <v>0.61517153956727488</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27">
       <c r="A94" s="9" t="s">
         <v>41</v>
       </c>
@@ -9223,7 +9246,7 @@
         <v>0.5877198616698468</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27">
       <c r="A95" s="9" t="s">
         <v>42</v>
       </c>
@@ -9278,7 +9301,7 @@
         <v>0.59785332049875728</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27">
       <c r="A96" s="9" t="s">
         <v>43</v>
       </c>
@@ -9333,7 +9356,7 @@
         <v>0.5966570064180915</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27">
       <c r="A97" s="9" t="s">
         <v>44</v>
       </c>
@@ -9388,7 +9411,7 @@
         <v>0.58478450560410777</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27">
       <c r="A98" s="9" t="s">
         <v>45</v>
       </c>
@@ -9443,7 +9466,7 @@
         <v>0.57435408989559844</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27">
       <c r="A99" s="9" t="s">
         <v>46</v>
       </c>
@@ -9498,7 +9521,7 @@
         <v>0.55432121382614619</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27">
       <c r="A100" s="9" t="s">
         <v>47</v>
       </c>
@@ -9553,7 +9576,7 @@
         <v>0.56902564173601522</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27">
       <c r="A101" s="9" t="s">
         <v>48</v>
       </c>
@@ -9608,7 +9631,7 @@
         <v>0.5415984268554952</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27">
       <c r="A102" s="9" t="s">
         <v>49</v>
       </c>
@@ -9655,7 +9678,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27">
       <c r="A103" s="9" t="s">
         <v>49</v>
       </c>
@@ -9702,7 +9725,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27">
       <c r="A104" s="9" t="s">
         <v>49</v>
       </c>
@@ -9749,7 +9772,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27">
       <c r="A105" s="9" t="s">
         <v>49</v>
       </c>
@@ -9796,7 +9819,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27">
       <c r="A106" s="9" t="s">
         <v>49</v>
       </c>
@@ -9843,7 +9866,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27">
       <c r="A107" s="9" t="s">
         <v>49</v>
       </c>
@@ -9893,7 +9916,7 @@
         <v>0.5164687627891642</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27">
       <c r="A108" s="9" t="s">
         <v>49</v>
       </c>
@@ -9948,7 